--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26500" windowHeight="11360"/>
+    <workbookView windowWidth="26500" windowHeight="12880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,9 @@
   </si>
   <si>
     <t>当日行情走势</t>
+  </si>
+  <si>
+    <t>买入后的累计情况</t>
   </si>
   <si>
     <t>突破基底后的走向指标</t>
@@ -70,7 +73,8 @@
     <t>市盈率</t>
   </si>
   <si>
-    <t>上涨天数</t>
+    <t>收盘价处于波动范围的位置
+(1为上部，-1为下部)</t>
   </si>
   <si>
     <r>
@@ -119,38 +123,8 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>上涨/下跌天数</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
-    </r>
-  </si>
-  <si>
-    <t>收盘价处于波动范围的位置
-(1为上部，-1为下部)</t>
+    <t>上涨/下跌天数
+(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
   </si>
   <si>
     <t>当日收盘价是否小于20日均线
@@ -223,13 +197,13 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,13 +222,6 @@
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
@@ -281,8 +248,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -296,116 +370,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -421,24 +388,6 @@
       <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -518,13 +467,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.5"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor theme="5" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,25 +485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,19 +503,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -602,13 +581,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -626,13 +617,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,61 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,17 +724,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,15 +757,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -825,6 +768,21 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,162 +812,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,16 +996,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1068,11 +1017,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1080,10 +1029,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,16 +1050,10 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1116,14 +1065,14 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1444,14 +1393,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AG503"/>
+  <dimension ref="A1:AF503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M5"/>
+      <selection pane="bottomRight" activeCell="L4" sqref="L4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1462,29 +1411,28 @@
     <col min="4" max="4" width="8.17857142857143" customWidth="1"/>
     <col min="5" max="7" width="9.96428571428571" customWidth="1"/>
     <col min="8" max="8" width="10.4107142857143" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.96428571428571" customWidth="1"/>
+    <col min="9" max="9" width="20.2321428571429" customWidth="1"/>
     <col min="10" max="11" width="20.3839285714286" customWidth="1"/>
-    <col min="12" max="12" width="22.1696428571429" customWidth="1"/>
-    <col min="13" max="14" width="30.0625" customWidth="1"/>
-    <col min="15" max="15" width="25.4464285714286" customWidth="1"/>
-    <col min="16" max="16" width="30.0625" customWidth="1"/>
-    <col min="17" max="18" width="40.4732142857143" customWidth="1"/>
-    <col min="19" max="19" width="28.7142857142857" customWidth="1"/>
-    <col min="20" max="20" width="37.1964285714286" customWidth="1"/>
-    <col min="21" max="22" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
-    <col min="24" max="24" width="23.3571428571429" customWidth="1"/>
-    <col min="25" max="25" width="29.1607142857143" customWidth="1"/>
-    <col min="26" max="26" width="17.5535714285714" customWidth="1"/>
-    <col min="27" max="27" width="22.0178571428571" customWidth="1"/>
-    <col min="28" max="28" width="26.4821428571429" customWidth="1"/>
-    <col min="29" max="29" width="22.0267857142857" customWidth="1"/>
-    <col min="30" max="30" width="24.5446428571429" customWidth="1"/>
-    <col min="31" max="31" width="18.75" customWidth="1"/>
-    <col min="33" max="33" width="9.07142857142857" style="2"/>
+    <col min="12" max="13" width="30.0625" customWidth="1"/>
+    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
+    <col min="15" max="15" width="30.0625" customWidth="1"/>
+    <col min="16" max="17" width="40.4732142857143" customWidth="1"/>
+    <col min="18" max="18" width="28.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="37.1964285714286" customWidth="1"/>
+    <col min="20" max="21" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.4464285714286" customWidth="1"/>
+    <col min="23" max="23" width="23.3571428571429" customWidth="1"/>
+    <col min="24" max="24" width="29.1607142857143" customWidth="1"/>
+    <col min="25" max="25" width="17.5535714285714" customWidth="1"/>
+    <col min="26" max="26" width="22.0178571428571" customWidth="1"/>
+    <col min="27" max="27" width="26.4821428571429" customWidth="1"/>
+    <col min="28" max="28" width="22.0267857142857" customWidth="1"/>
+    <col min="29" max="29" width="24.5446428571429" customWidth="1"/>
+    <col min="30" max="30" width="18.75" customWidth="1"/>
+    <col min="32" max="32" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:32">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1499,41 +1447,42 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="16" t="s">
-        <v>2</v>
-      </c>
+      <c r="M1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
       <c r="Q1" s="16"/>
       <c r="R1" s="16"/>
       <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="V1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="32" t="s">
+      <c r="U1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="36" t="s">
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
+      <c r="AB1" s="25"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="25"/>
+      <c r="AE1" s="32" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AF1" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1546,33 +1495,32 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
+      <c r="M2" s="16"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
       <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="33" t="s">
+      <c r="T2" s="22"/>
+      <c r="U2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="36"/>
-    </row>
-    <row r="3" spans="1:33">
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="26"/>
+      <c r="AB2" s="26"/>
+      <c r="AC2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="33"/>
+    </row>
+    <row r="3" spans="1:32">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1585,124 +1533,120 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="M3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="17"/>
       <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="36"/>
-    </row>
-    <row r="4" spans="1:33">
+      <c r="P3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="33"/>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="J4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="M4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="N4" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="O4" s="19" t="s">
         <v>25</v>
       </c>
+      <c r="P4" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="Q4" s="20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R4" s="20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="T4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="25" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="V4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="W4" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="31" t="s">
+      <c r="X4" s="26"/>
+      <c r="Y4" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="24" t="s">
+      <c r="Z4" s="26" t="s">
         <v>34</v>
       </c>
+      <c r="AA4" s="31" t="s">
+        <v>35</v>
+      </c>
       <c r="AB4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="AD4" s="33" t="s">
+      <c r="AC4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AD4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="36"/>
-    </row>
-    <row r="5" ht="56" customHeight="1" spans="1:33">
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="33"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="1:32">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1713,35 +1657,34 @@
       <c r="H5" s="10"/>
       <c r="I5" s="10"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
       <c r="R5" s="20"/>
       <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="26" t="s">
+      <c r="T5" s="22"/>
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="Y5" s="26" t="s">
+      <c r="X5" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="Z5" s="24"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="32"/>
-      <c r="AG5" s="36"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="33"/>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="6">
         <v>44523</v>
       </c>
@@ -1755,7 +1698,7 @@
       <c r="I6" s="9"/>
       <c r="J6" s="14"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="7"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1763,10 +1706,10 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="28"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
@@ -1774,10 +1717,9 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="35"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AE6" s="36"/>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="8">
         <v>44524</v>
       </c>
@@ -1791,7 +1733,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
-      <c r="L7" s="7"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1799,10 +1741,10 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="30"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="30"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
@@ -1810,10 +1752,9 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="35"/>
-    </row>
-    <row r="8" spans="1:32">
+      <c r="AE7" s="36"/>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="8">
         <v>44525</v>
       </c>
@@ -1827,7 +1768,7 @@
       <c r="I8" s="9"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
-      <c r="L8" s="7"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1835,10 +1776,10 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="30"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
@@ -1846,10 +1787,9 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="35"/>
-    </row>
-    <row r="9" spans="1:32">
+      <c r="AE8" s="36"/>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="8">
         <v>44526</v>
       </c>
@@ -1863,7 +1803,7 @@
       <c r="I9" s="9"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
-      <c r="L9" s="7"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1871,10 +1811,10 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="30"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="30"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
@@ -1882,10 +1822,9 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="35"/>
-    </row>
-    <row r="10" spans="1:32">
+      <c r="AE9" s="36"/>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="8">
         <v>44527</v>
       </c>
@@ -1899,7 +1838,7 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="7"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
@@ -1909,8 +1848,8 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
@@ -1918,10 +1857,9 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="35"/>
-    </row>
-    <row r="11" spans="1:32">
+      <c r="AE10" s="36"/>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="8">
         <v>44528</v>
       </c>
@@ -1935,7 +1873,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="7"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
@@ -1945,8 +1883,8 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
@@ -1954,10 +1892,9 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="35"/>
-    </row>
-    <row r="12" spans="1:32">
+      <c r="AE11" s="36"/>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="8">
         <v>44529</v>
       </c>
@@ -1971,7 +1908,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="7"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
@@ -1981,8 +1918,8 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
@@ -1990,10 +1927,9 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="35"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="AE12" s="36"/>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="8">
         <v>44530</v>
       </c>
@@ -2007,7 +1943,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="7"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
@@ -2017,8 +1953,8 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
@@ -2026,10 +1962,9 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="35"/>
-    </row>
-    <row r="14" spans="1:32">
+      <c r="AE13" s="36"/>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="8">
         <v>44531</v>
       </c>
@@ -2043,7 +1978,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="7"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="9"/>
@@ -2053,8 +1988,8 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
@@ -2062,10 +1997,9 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="35"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="AE14" s="36"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="8">
         <v>44532</v>
       </c>
@@ -2079,7 +2013,7 @@
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="7"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="9"/>
@@ -2089,8 +2023,8 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
@@ -2098,10 +2032,9 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="2"/>
-      <c r="AF15" s="35"/>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="AE15" s="36"/>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="8">
         <v>44533</v>
       </c>
@@ -2115,7 +2048,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="7"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
@@ -2125,8 +2058,8 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
@@ -2134,10 +2067,9 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="2"/>
-      <c r="AF16" s="35"/>
-    </row>
-    <row r="17" spans="1:32">
+      <c r="AE16" s="36"/>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="8">
         <v>44534</v>
       </c>
@@ -2151,7 +2083,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="7"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="9"/>
@@ -2161,8 +2093,8 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
@@ -2170,10 +2102,9 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="2"/>
-      <c r="AF17" s="35"/>
-    </row>
-    <row r="18" spans="1:32">
+      <c r="AE17" s="36"/>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="8">
         <v>44535</v>
       </c>
@@ -2187,7 +2118,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="7"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
       <c r="O18" s="9"/>
@@ -2197,8 +2128,8 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
@@ -2206,10 +2137,9 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="2"/>
-      <c r="AF18" s="35"/>
-    </row>
-    <row r="19" spans="1:32">
+      <c r="AE18" s="36"/>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="8">
         <v>44536</v>
       </c>
@@ -2223,7 +2153,7 @@
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="7"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="9"/>
       <c r="N19" s="9"/>
       <c r="O19" s="9"/>
@@ -2233,8 +2163,8 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
@@ -2242,10 +2172,9 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="2"/>
-      <c r="AF19" s="35"/>
-    </row>
-    <row r="20" spans="1:32">
+      <c r="AE19" s="36"/>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="8">
         <v>44537</v>
       </c>
@@ -2259,7 +2188,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="7"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="9"/>
       <c r="N20" s="9"/>
       <c r="O20" s="9"/>
@@ -2269,8 +2198,8 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
@@ -2278,10 +2207,9 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="2"/>
-      <c r="AF20" s="35"/>
-    </row>
-    <row r="21" spans="1:32">
+      <c r="AE20" s="36"/>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="8">
         <v>44538</v>
       </c>
@@ -2295,7 +2223,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="7"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="9"/>
       <c r="N21" s="9"/>
       <c r="O21" s="9"/>
@@ -2305,8 +2233,8 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
@@ -2314,10 +2242,9 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-      <c r="AF21" s="35"/>
-    </row>
-    <row r="22" spans="1:32">
+      <c r="AE21" s="36"/>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="8">
         <v>44539</v>
       </c>
@@ -2331,7 +2258,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="7"/>
+      <c r="L22" s="9"/>
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
       <c r="O22" s="9"/>
@@ -2341,8 +2268,8 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -2350,10 +2277,9 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="2"/>
-      <c r="AF22" s="35"/>
-    </row>
-    <row r="23" spans="1:32">
+      <c r="AE22" s="36"/>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="8">
         <v>44540</v>
       </c>
@@ -2367,7 +2293,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="7"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="9"/>
       <c r="N23" s="9"/>
       <c r="O23" s="9"/>
@@ -2377,8 +2303,8 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
@@ -2386,10 +2312,9 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="2"/>
-      <c r="AF23" s="35"/>
-    </row>
-    <row r="24" spans="1:32">
+      <c r="AE23" s="36"/>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="8">
         <v>44541</v>
       </c>
@@ -2403,7 +2328,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
-      <c r="L24" s="7"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="9"/>
       <c r="N24" s="9"/>
       <c r="O24" s="9"/>
@@ -2413,8 +2338,8 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
@@ -2422,10 +2347,9 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="35"/>
-    </row>
-    <row r="25" spans="1:32">
+      <c r="AE24" s="36"/>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="8">
         <v>44542</v>
       </c>
@@ -2439,7 +2363,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
-      <c r="L25" s="7"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
       <c r="O25" s="9"/>
@@ -2449,8 +2373,8 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
@@ -2458,10 +2382,9 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="2"/>
-      <c r="AF25" s="35"/>
-    </row>
-    <row r="26" spans="1:32">
+      <c r="AE25" s="36"/>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="8">
         <v>44543</v>
       </c>
@@ -2475,7 +2398,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="7"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
       <c r="O26" s="9"/>
@@ -2485,8 +2408,8 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
@@ -2494,10 +2417,9 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="35"/>
-    </row>
-    <row r="27" spans="1:32">
+      <c r="AE26" s="36"/>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="8">
         <v>44544</v>
       </c>
@@ -2511,7 +2433,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="7"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -2521,8 +2443,8 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
@@ -2530,10 +2452,9 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="35"/>
-    </row>
-    <row r="28" spans="1:32">
+      <c r="AE27" s="36"/>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="8">
         <v>44545</v>
       </c>
@@ -2547,7 +2468,7 @@
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="7"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -2558,7 +2479,7 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
+      <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
@@ -2566,10 +2487,9 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="2"/>
-      <c r="AF28" s="35"/>
-    </row>
-    <row r="29" spans="1:32">
+      <c r="AE28" s="36"/>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="8">
         <v>44546</v>
       </c>
@@ -2583,7 +2503,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="7"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="9"/>
       <c r="N29" s="9"/>
       <c r="O29" s="9"/>
@@ -2594,7 +2514,7 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
@@ -2602,10 +2522,9 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="2"/>
-      <c r="AF29" s="35"/>
-    </row>
-    <row r="30" spans="1:32">
+      <c r="AE29" s="36"/>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="8">
         <v>44547</v>
       </c>
@@ -2619,7 +2538,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="7"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="9"/>
       <c r="N30" s="9"/>
       <c r="O30" s="9"/>
@@ -2630,7 +2549,7 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
+      <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
@@ -2638,10 +2557,9 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="2"/>
-      <c r="AF30" s="35"/>
-    </row>
-    <row r="31" spans="1:32">
+      <c r="AE30" s="36"/>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="8">
         <v>44548</v>
       </c>
@@ -2655,7 +2573,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="7"/>
+      <c r="L31" s="9"/>
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
       <c r="O31" s="9"/>
@@ -2666,7 +2584,7 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
+      <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
@@ -2674,10 +2592,9 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="35"/>
-    </row>
-    <row r="32" spans="1:32">
+      <c r="AE31" s="36"/>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="8">
         <v>44549</v>
       </c>
@@ -2691,7 +2608,7 @@
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
-      <c r="L32" s="7"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -2702,7 +2619,7 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
@@ -2710,10 +2627,9 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="35"/>
-    </row>
-    <row r="33" spans="1:32">
+      <c r="AE32" s="36"/>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="8">
         <v>44550</v>
       </c>
@@ -2727,7 +2643,7 @@
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
-      <c r="L33" s="7"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="9"/>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -2738,7 +2654,7 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+      <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
@@ -2746,10 +2662,9 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="35"/>
-    </row>
-    <row r="34" spans="1:32">
+      <c r="AE33" s="36"/>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="8">
         <v>44551</v>
       </c>
@@ -2763,7 +2678,7 @@
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="7"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -2774,7 +2689,7 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
@@ -2782,10 +2697,9 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
-      <c r="AE34" s="2"/>
-      <c r="AF34" s="35"/>
-    </row>
-    <row r="35" spans="1:32">
+      <c r="AE34" s="36"/>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="8">
         <v>44552</v>
       </c>
@@ -2799,7 +2713,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="7"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -2810,7 +2724,7 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
+      <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
@@ -2818,10 +2732,9 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
-      <c r="AE35" s="2"/>
-      <c r="AF35" s="35"/>
-    </row>
-    <row r="36" spans="1:32">
+      <c r="AE35" s="36"/>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="8">
         <v>44553</v>
       </c>
@@ -2835,7 +2748,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
-      <c r="L36" s="7"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
       <c r="O36" s="9"/>
@@ -2846,7 +2759,7 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
+      <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
@@ -2854,10 +2767,9 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
-      <c r="AE36" s="2"/>
-      <c r="AF36" s="35"/>
-    </row>
-    <row r="37" spans="1:32">
+      <c r="AE36" s="36"/>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="8">
         <v>44554</v>
       </c>
@@ -2871,7 +2783,7 @@
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
-      <c r="L37" s="7"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
       <c r="O37" s="9"/>
@@ -2882,7 +2794,7 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
+      <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
@@ -2890,10 +2802,9 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
-      <c r="AE37" s="2"/>
-      <c r="AF37" s="35"/>
-    </row>
-    <row r="38" spans="1:32">
+      <c r="AE37" s="36"/>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="8">
         <v>44555</v>
       </c>
@@ -2907,7 +2818,7 @@
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
-      <c r="L38" s="7"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
       <c r="O38" s="9"/>
@@ -2918,7 +2829,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
@@ -2926,10 +2837,9 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
-      <c r="AE38" s="2"/>
-      <c r="AF38" s="35"/>
-    </row>
-    <row r="39" spans="1:32">
+      <c r="AE38" s="36"/>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="8">
         <v>44556</v>
       </c>
@@ -2943,7 +2853,7 @@
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
-      <c r="L39" s="7"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
       <c r="O39" s="9"/>
@@ -2954,7 +2864,7 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
+      <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
@@ -2962,10 +2872,9 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
-      <c r="AE39" s="2"/>
-      <c r="AF39" s="35"/>
-    </row>
-    <row r="40" spans="1:32">
+      <c r="AE39" s="36"/>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="8">
         <v>44557</v>
       </c>
@@ -2979,7 +2888,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
-      <c r="L40" s="7"/>
+      <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -2990,7 +2899,7 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
+      <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
@@ -2998,10 +2907,9 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
-      <c r="AE40" s="2"/>
-      <c r="AF40" s="35"/>
-    </row>
-    <row r="41" spans="1:32">
+      <c r="AE40" s="36"/>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="8">
         <v>44558</v>
       </c>
@@ -3015,7 +2923,7 @@
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -3026,7 +2934,7 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
+      <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
@@ -3034,10 +2942,9 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-      <c r="AF41" s="35"/>
-    </row>
-    <row r="42" spans="1:32">
+      <c r="AE41" s="36"/>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="8">
         <v>44559</v>
       </c>
@@ -3062,7 +2969,7 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
+      <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
@@ -3070,10 +2977,9 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
-      <c r="AE42" s="2"/>
-      <c r="AF42" s="35"/>
-    </row>
-    <row r="43" spans="1:32">
+      <c r="AE42" s="36"/>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="8">
         <v>44560</v>
       </c>
@@ -3098,7 +3004,7 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
+      <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
@@ -3106,10 +3012,9 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
-      <c r="AE43" s="2"/>
-      <c r="AF43" s="35"/>
-    </row>
-    <row r="44" spans="1:32">
+      <c r="AE43" s="36"/>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="8">
         <v>44561</v>
       </c>
@@ -3134,7 +3039,7 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
+      <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
@@ -3142,10 +3047,9 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
-      <c r="AE44" s="2"/>
-      <c r="AF44" s="35"/>
-    </row>
-    <row r="45" spans="1:32">
+      <c r="AE44" s="36"/>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="8">
         <v>44562</v>
       </c>
@@ -3170,7 +3074,7 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
+      <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
@@ -3178,10 +3082,9 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
-      <c r="AE45" s="2"/>
-      <c r="AF45" s="35"/>
-    </row>
-    <row r="46" spans="1:32">
+      <c r="AE45" s="36"/>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="8">
         <v>44563</v>
       </c>
@@ -3206,7 +3109,7 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
@@ -3214,10 +3117,9 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
-      <c r="AE46" s="2"/>
-      <c r="AF46" s="35"/>
-    </row>
-    <row r="47" spans="1:32">
+      <c r="AE46" s="36"/>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="8">
         <v>44564</v>
       </c>
@@ -3242,7 +3144,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
+      <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
@@ -3250,10 +3152,9 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
-      <c r="AE47" s="2"/>
-      <c r="AF47" s="35"/>
-    </row>
-    <row r="48" spans="1:32">
+      <c r="AE47" s="36"/>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="8">
         <v>44565</v>
       </c>
@@ -3278,7 +3179,7 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
+      <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
@@ -3286,10 +3187,9 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
-      <c r="AE48" s="2"/>
-      <c r="AF48" s="35"/>
-    </row>
-    <row r="49" spans="1:32">
+      <c r="AE48" s="36"/>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="8">
         <v>44566</v>
       </c>
@@ -3314,7 +3214,7 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
+      <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
@@ -3322,10 +3222,9 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="35"/>
-    </row>
-    <row r="50" spans="1:32">
+      <c r="AE49" s="36"/>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="8">
         <v>44567</v>
       </c>
@@ -3350,7 +3249,7 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
+      <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
@@ -3358,10 +3257,9 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="35"/>
-    </row>
-    <row r="51" spans="1:32">
+      <c r="AE50" s="36"/>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" s="8">
         <v>44568</v>
       </c>
@@ -3386,7 +3284,7 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
+      <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
@@ -3394,10 +3292,9 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="35"/>
-    </row>
-    <row r="52" spans="1:32">
+      <c r="AE51" s="36"/>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" s="8">
         <v>44569</v>
       </c>
@@ -3422,7 +3319,7 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
+      <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
@@ -3430,10 +3327,9 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
-      <c r="AE52" s="2"/>
-      <c r="AF52" s="35"/>
-    </row>
-    <row r="53" spans="1:32">
+      <c r="AE52" s="36"/>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" s="8">
         <v>44570</v>
       </c>
@@ -3458,7 +3354,7 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
+      <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
@@ -3466,10 +3362,9 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
-      <c r="AE53" s="2"/>
-      <c r="AF53" s="35"/>
-    </row>
-    <row r="54" spans="1:32">
+      <c r="AE53" s="36"/>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" s="8">
         <v>44571</v>
       </c>
@@ -3494,7 +3389,7 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
+      <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
@@ -3502,10 +3397,9 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
-      <c r="AE54" s="2"/>
-      <c r="AF54" s="35"/>
-    </row>
-    <row r="55" spans="1:32">
+      <c r="AE54" s="36"/>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="8">
         <v>44572</v>
       </c>
@@ -3530,7 +3424,7 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
+      <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
@@ -3538,10 +3432,9 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
-      <c r="AE55" s="2"/>
-      <c r="AF55" s="35"/>
-    </row>
-    <row r="56" spans="1:32">
+      <c r="AE55" s="36"/>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="8">
         <v>44573</v>
       </c>
@@ -3566,7 +3459,7 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
+      <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
@@ -3574,10 +3467,9 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
-      <c r="AE56" s="2"/>
-      <c r="AF56" s="35"/>
-    </row>
-    <row r="57" spans="1:32">
+      <c r="AE56" s="36"/>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" s="8">
         <v>44574</v>
       </c>
@@ -3602,7 +3494,7 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
+      <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
@@ -3610,10 +3502,9 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
-      <c r="AE57" s="2"/>
-      <c r="AF57" s="35"/>
-    </row>
-    <row r="58" spans="1:32">
+      <c r="AE57" s="36"/>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="8">
         <v>44575</v>
       </c>
@@ -3638,7 +3529,7 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
+      <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
@@ -3646,10 +3537,9 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="35"/>
-    </row>
-    <row r="59" spans="1:32">
+      <c r="AE58" s="36"/>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" s="8">
         <v>44576</v>
       </c>
@@ -3674,7 +3564,7 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
+      <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
@@ -3682,10 +3572,9 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="35"/>
-    </row>
-    <row r="60" spans="1:32">
+      <c r="AE59" s="36"/>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="8">
         <v>44577</v>
       </c>
@@ -3710,7 +3599,7 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
+      <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
@@ -3718,10 +3607,9 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="35"/>
-    </row>
-    <row r="61" spans="1:32">
+      <c r="AE60" s="36"/>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="8">
         <v>44578</v>
       </c>
@@ -3746,7 +3634,7 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
+      <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
@@ -3754,10 +3642,9 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-      <c r="AF61" s="35"/>
-    </row>
-    <row r="62" spans="1:32">
+      <c r="AE61" s="36"/>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="8">
         <v>44579</v>
       </c>
@@ -3782,7 +3669,7 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
+      <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
@@ -3790,10 +3677,9 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
-      <c r="AE62" s="2"/>
-      <c r="AF62" s="35"/>
-    </row>
-    <row r="63" spans="1:32">
+      <c r="AE62" s="36"/>
+    </row>
+    <row r="63" spans="1:31">
       <c r="A63" s="8">
         <v>44580</v>
       </c>
@@ -3818,7 +3704,7 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
+      <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
@@ -3826,10 +3712,9 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
-      <c r="AE63" s="2"/>
-      <c r="AF63" s="35"/>
-    </row>
-    <row r="64" spans="1:32">
+      <c r="AE63" s="36"/>
+    </row>
+    <row r="64" spans="1:31">
       <c r="A64" s="8">
         <v>44581</v>
       </c>
@@ -3854,7 +3739,7 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
+      <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
@@ -3862,10 +3747,9 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
-      <c r="AE64" s="2"/>
-      <c r="AF64" s="35"/>
-    </row>
-    <row r="65" spans="1:32">
+      <c r="AE64" s="36"/>
+    </row>
+    <row r="65" spans="1:31">
       <c r="A65" s="8">
         <v>44582</v>
       </c>
@@ -3890,7 +3774,7 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
+      <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
@@ -3898,10 +3782,9 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
-      <c r="AE65" s="2"/>
-      <c r="AF65" s="35"/>
-    </row>
-    <row r="66" spans="1:32">
+      <c r="AE65" s="36"/>
+    </row>
+    <row r="66" spans="1:31">
       <c r="A66" s="8">
         <v>44583</v>
       </c>
@@ -3926,7 +3809,7 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
+      <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
@@ -3934,10 +3817,9 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
-      <c r="AE66" s="2"/>
-      <c r="AF66" s="35"/>
-    </row>
-    <row r="67" spans="1:32">
+      <c r="AE66" s="36"/>
+    </row>
+    <row r="67" spans="1:31">
       <c r="A67" s="8">
         <v>44584</v>
       </c>
@@ -3962,7 +3844,7 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
+      <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
@@ -3970,10 +3852,9 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
-      <c r="AE67" s="2"/>
-      <c r="AF67" s="35"/>
-    </row>
-    <row r="68" spans="1:32">
+      <c r="AE67" s="36"/>
+    </row>
+    <row r="68" spans="1:31">
       <c r="A68" s="8">
         <v>44585</v>
       </c>
@@ -3998,7 +3879,7 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
+      <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
@@ -4006,10 +3887,9 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
-      <c r="AE68" s="2"/>
-      <c r="AF68" s="35"/>
-    </row>
-    <row r="69" spans="1:32">
+      <c r="AE68" s="36"/>
+    </row>
+    <row r="69" spans="1:31">
       <c r="A69" s="8">
         <v>44586</v>
       </c>
@@ -4034,7 +3914,7 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
+      <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
@@ -4042,10 +3922,9 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
-      <c r="AE69" s="2"/>
-      <c r="AF69" s="35"/>
-    </row>
-    <row r="70" spans="1:32">
+      <c r="AE69" s="36"/>
+    </row>
+    <row r="70" spans="1:31">
       <c r="A70" s="8">
         <v>44587</v>
       </c>
@@ -4070,7 +3949,7 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
+      <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
@@ -4078,10 +3957,9 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
-      <c r="AE70" s="2"/>
-      <c r="AF70" s="35"/>
-    </row>
-    <row r="71" spans="1:32">
+      <c r="AE70" s="36"/>
+    </row>
+    <row r="71" spans="1:31">
       <c r="A71" s="8">
         <v>44588</v>
       </c>
@@ -4106,7 +3984,7 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
+      <c r="W71" s="2"/>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
@@ -4114,10 +3992,9 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
-      <c r="AE71" s="2"/>
-      <c r="AF71" s="35"/>
-    </row>
-    <row r="72" spans="1:32">
+      <c r="AE71" s="36"/>
+    </row>
+    <row r="72" spans="1:31">
       <c r="A72" s="8">
         <v>44589</v>
       </c>
@@ -4142,7 +4019,7 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
+      <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
@@ -4150,10 +4027,9 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
-      <c r="AE72" s="2"/>
-      <c r="AF72" s="35"/>
-    </row>
-    <row r="73" spans="1:32">
+      <c r="AE72" s="36"/>
+    </row>
+    <row r="73" spans="1:31">
       <c r="A73" s="8">
         <v>44590</v>
       </c>
@@ -4178,7 +4054,7 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
+      <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
@@ -4186,10 +4062,9 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
-      <c r="AE73" s="2"/>
-      <c r="AF73" s="35"/>
-    </row>
-    <row r="74" spans="1:32">
+      <c r="AE73" s="36"/>
+    </row>
+    <row r="74" spans="1:31">
       <c r="A74" s="8">
         <v>44591</v>
       </c>
@@ -4214,7 +4089,7 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
+      <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
@@ -4222,10 +4097,9 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
-      <c r="AE74" s="2"/>
-      <c r="AF74" s="35"/>
-    </row>
-    <row r="75" spans="1:32">
+      <c r="AE74" s="36"/>
+    </row>
+    <row r="75" spans="1:31">
       <c r="A75" s="8">
         <v>44592</v>
       </c>
@@ -4250,7 +4124,7 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
+      <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
@@ -4258,10 +4132,9 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="35"/>
-    </row>
-    <row r="76" spans="1:32">
+      <c r="AE75" s="36"/>
+    </row>
+    <row r="76" spans="1:31">
       <c r="A76" s="8">
         <v>44593</v>
       </c>
@@ -4286,7 +4159,7 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
+      <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
@@ -4294,10 +4167,9 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="35"/>
-    </row>
-    <row r="77" spans="1:32">
+      <c r="AE76" s="36"/>
+    </row>
+    <row r="77" spans="1:31">
       <c r="A77" s="8">
         <v>44594</v>
       </c>
@@ -4322,7 +4194,7 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
+      <c r="W77" s="2"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
@@ -4330,10 +4202,9 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
-      <c r="AE77" s="2"/>
-      <c r="AF77" s="35"/>
-    </row>
-    <row r="78" spans="1:32">
+      <c r="AE77" s="36"/>
+    </row>
+    <row r="78" spans="1:31">
       <c r="A78" s="8">
         <v>44595</v>
       </c>
@@ -4358,7 +4229,7 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
+      <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
@@ -4366,10 +4237,9 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="35"/>
-    </row>
-    <row r="79" spans="1:32">
+      <c r="AE78" s="36"/>
+    </row>
+    <row r="79" spans="1:31">
       <c r="A79" s="8">
         <v>44596</v>
       </c>
@@ -4394,7 +4264,7 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
+      <c r="W79" s="2"/>
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
@@ -4402,10 +4272,9 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
-      <c r="AE79" s="2"/>
-      <c r="AF79" s="35"/>
-    </row>
-    <row r="80" spans="1:32">
+      <c r="AE79" s="36"/>
+    </row>
+    <row r="80" spans="1:31">
       <c r="A80" s="8">
         <v>44597</v>
       </c>
@@ -4430,7 +4299,7 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
+      <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
@@ -4438,10 +4307,9 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
-      <c r="AE80" s="2"/>
-      <c r="AF80" s="35"/>
-    </row>
-    <row r="81" spans="1:32">
+      <c r="AE80" s="36"/>
+    </row>
+    <row r="81" spans="1:31">
       <c r="A81" s="8">
         <v>44598</v>
       </c>
@@ -4466,7 +4334,7 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
+      <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
@@ -4474,10 +4342,9 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
-      <c r="AE81" s="2"/>
-      <c r="AF81" s="35"/>
-    </row>
-    <row r="82" spans="1:32">
+      <c r="AE81" s="36"/>
+    </row>
+    <row r="82" spans="1:31">
       <c r="A82" s="8">
         <v>44599</v>
       </c>
@@ -4502,7 +4369,7 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
+      <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
@@ -4510,10 +4377,9 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
-      <c r="AE82" s="2"/>
-      <c r="AF82" s="35"/>
-    </row>
-    <row r="83" spans="1:32">
+      <c r="AE82" s="36"/>
+    </row>
+    <row r="83" spans="1:31">
       <c r="A83" s="8">
         <v>44600</v>
       </c>
@@ -4538,7 +4404,7 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
+      <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
@@ -4546,10 +4412,9 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
-      <c r="AE83" s="2"/>
-      <c r="AF83" s="35"/>
-    </row>
-    <row r="84" spans="1:32">
+      <c r="AE83" s="36"/>
+    </row>
+    <row r="84" spans="1:31">
       <c r="A84" s="8">
         <v>44601</v>
       </c>
@@ -4574,7 +4439,7 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
+      <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
@@ -4582,10 +4447,9 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="35"/>
-    </row>
-    <row r="85" spans="1:32">
+      <c r="AE84" s="36"/>
+    </row>
+    <row r="85" spans="1:31">
       <c r="A85" s="8">
         <v>44602</v>
       </c>
@@ -4610,7 +4474,7 @@
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
+      <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
@@ -4618,10 +4482,9 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
-      <c r="AE85" s="2"/>
-      <c r="AF85" s="35"/>
-    </row>
-    <row r="86" spans="1:32">
+      <c r="AE85" s="36"/>
+    </row>
+    <row r="86" spans="1:31">
       <c r="A86" s="8">
         <v>44603</v>
       </c>
@@ -4646,7 +4509,7 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
+      <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
@@ -4654,10 +4517,9 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
-      <c r="AE86" s="2"/>
-      <c r="AF86" s="35"/>
-    </row>
-    <row r="87" spans="1:32">
+      <c r="AE86" s="36"/>
+    </row>
+    <row r="87" spans="1:31">
       <c r="A87" s="8">
         <v>44604</v>
       </c>
@@ -4682,7 +4544,7 @@
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
       <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
+      <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
@@ -4690,10 +4552,9 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
-      <c r="AE87" s="2"/>
-      <c r="AF87" s="35"/>
-    </row>
-    <row r="88" spans="1:32">
+      <c r="AE87" s="36"/>
+    </row>
+    <row r="88" spans="1:31">
       <c r="A88" s="8">
         <v>44605</v>
       </c>
@@ -4718,7 +4579,7 @@
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
-      <c r="W88" s="9"/>
+      <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
@@ -4726,10 +4587,9 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
-      <c r="AE88" s="2"/>
-      <c r="AF88" s="35"/>
-    </row>
-    <row r="89" spans="1:32">
+      <c r="AE88" s="36"/>
+    </row>
+    <row r="89" spans="1:31">
       <c r="A89" s="8">
         <v>44606</v>
       </c>
@@ -4754,7 +4614,7 @@
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
       <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
+      <c r="W89" s="2"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
@@ -4762,10 +4622,9 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
-      <c r="AE89" s="2"/>
-      <c r="AF89" s="35"/>
-    </row>
-    <row r="90" spans="1:32">
+      <c r="AE89" s="36"/>
+    </row>
+    <row r="90" spans="1:31">
       <c r="A90" s="8">
         <v>44607</v>
       </c>
@@ -4790,7 +4649,7 @@
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
       <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
+      <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
@@ -4798,10 +4657,9 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
-      <c r="AE90" s="2"/>
-      <c r="AF90" s="35"/>
-    </row>
-    <row r="91" spans="1:32">
+      <c r="AE90" s="36"/>
+    </row>
+    <row r="91" spans="1:31">
       <c r="A91" s="8">
         <v>44608</v>
       </c>
@@ -4826,7 +4684,7 @@
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
+      <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
@@ -4834,10 +4692,9 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
-      <c r="AE91" s="2"/>
-      <c r="AF91" s="35"/>
-    </row>
-    <row r="92" spans="1:32">
+      <c r="AE91" s="36"/>
+    </row>
+    <row r="92" spans="1:31">
       <c r="A92" s="8">
         <v>44609</v>
       </c>
@@ -4862,7 +4719,7 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
+      <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
@@ -4870,10 +4727,9 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
-      <c r="AE92" s="2"/>
-      <c r="AF92" s="35"/>
-    </row>
-    <row r="93" spans="1:32">
+      <c r="AE92" s="36"/>
+    </row>
+    <row r="93" spans="1:31">
       <c r="A93" s="8">
         <v>44610</v>
       </c>
@@ -4898,7 +4754,7 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
+      <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
@@ -4906,10 +4762,9 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
-      <c r="AE93" s="2"/>
-      <c r="AF93" s="35"/>
-    </row>
-    <row r="94" spans="1:32">
+      <c r="AE93" s="36"/>
+    </row>
+    <row r="94" spans="1:31">
       <c r="A94" s="8">
         <v>44611</v>
       </c>
@@ -4934,7 +4789,7 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
+      <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
@@ -4942,10 +4797,9 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
-      <c r="AE94" s="2"/>
-      <c r="AF94" s="35"/>
-    </row>
-    <row r="95" spans="1:32">
+      <c r="AE94" s="36"/>
+    </row>
+    <row r="95" spans="1:31">
       <c r="A95" s="8">
         <v>44612</v>
       </c>
@@ -4970,7 +4824,7 @@
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
+      <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
@@ -4978,10 +4832,9 @@
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
-      <c r="AE95" s="2"/>
-      <c r="AF95" s="35"/>
-    </row>
-    <row r="96" spans="1:32">
+      <c r="AE95" s="36"/>
+    </row>
+    <row r="96" spans="1:31">
       <c r="A96" s="8">
         <v>44613</v>
       </c>
@@ -5006,7 +4859,7 @@
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
       <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
+      <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
@@ -5014,10 +4867,9 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
-      <c r="AE96" s="2"/>
-      <c r="AF96" s="35"/>
-    </row>
-    <row r="97" spans="1:32">
+      <c r="AE96" s="36"/>
+    </row>
+    <row r="97" spans="1:31">
       <c r="A97" s="8">
         <v>44614</v>
       </c>
@@ -5042,7 +4894,7 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
       <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
+      <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
@@ -5050,10 +4902,9 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
-      <c r="AE97" s="2"/>
-      <c r="AF97" s="35"/>
-    </row>
-    <row r="98" spans="1:32">
+      <c r="AE97" s="36"/>
+    </row>
+    <row r="98" spans="1:31">
       <c r="A98" s="8">
         <v>44615</v>
       </c>
@@ -5078,7 +4929,7 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
       <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
+      <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
@@ -5086,10 +4937,9 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
-      <c r="AE98" s="2"/>
-      <c r="AF98" s="35"/>
-    </row>
-    <row r="99" spans="1:32">
+      <c r="AE98" s="36"/>
+    </row>
+    <row r="99" spans="1:31">
       <c r="A99" s="8">
         <v>44616</v>
       </c>
@@ -5114,7 +4964,7 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
+      <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
@@ -5122,10 +4972,9 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
-      <c r="AE99" s="2"/>
-      <c r="AF99" s="35"/>
-    </row>
-    <row r="100" spans="1:32">
+      <c r="AE99" s="36"/>
+    </row>
+    <row r="100" spans="1:31">
       <c r="A100" s="8">
         <v>44617</v>
       </c>
@@ -5150,7 +4999,7 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
       <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
+      <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
@@ -5158,10 +5007,9 @@
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
-      <c r="AE100" s="2"/>
-      <c r="AF100" s="35"/>
-    </row>
-    <row r="101" spans="1:32">
+      <c r="AE100" s="36"/>
+    </row>
+    <row r="101" spans="1:31">
       <c r="A101" s="8">
         <v>44618</v>
       </c>
@@ -5186,7 +5034,7 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
+      <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
@@ -5194,10 +5042,9 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
-      <c r="AE101" s="2"/>
-      <c r="AF101" s="35"/>
-    </row>
-    <row r="102" spans="1:32">
+      <c r="AE101" s="36"/>
+    </row>
+    <row r="102" spans="1:31">
       <c r="A102" s="8">
         <v>44619</v>
       </c>
@@ -5222,7 +5069,7 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
       <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
+      <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
@@ -5230,10 +5077,9 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
-      <c r="AE102" s="2"/>
-      <c r="AF102" s="35"/>
-    </row>
-    <row r="103" spans="1:32">
+      <c r="AE102" s="36"/>
+    </row>
+    <row r="103" spans="1:31">
       <c r="A103" s="8">
         <v>44620</v>
       </c>
@@ -5258,7 +5104,7 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
       <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
+      <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
@@ -5266,10 +5112,9 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
-      <c r="AE103" s="2"/>
-      <c r="AF103" s="35"/>
-    </row>
-    <row r="104" spans="1:32">
+      <c r="AE103" s="36"/>
+    </row>
+    <row r="104" spans="1:31">
       <c r="A104" s="8">
         <v>44621</v>
       </c>
@@ -5294,7 +5139,7 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
       <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
+      <c r="W104" s="2"/>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
@@ -5302,10 +5147,9 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
-      <c r="AE104" s="2"/>
-      <c r="AF104" s="35"/>
-    </row>
-    <row r="105" spans="1:32">
+      <c r="AE104" s="36"/>
+    </row>
+    <row r="105" spans="1:31">
       <c r="A105" s="8">
         <v>44622</v>
       </c>
@@ -5330,7 +5174,7 @@
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
       <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
+      <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
@@ -5338,10 +5182,9 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
-      <c r="AE105" s="2"/>
-      <c r="AF105" s="35"/>
-    </row>
-    <row r="106" spans="1:32">
+      <c r="AE105" s="36"/>
+    </row>
+    <row r="106" spans="1:31">
       <c r="A106" s="8">
         <v>44623</v>
       </c>
@@ -5366,7 +5209,7 @@
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
+      <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
@@ -5374,10 +5217,9 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
-      <c r="AE106" s="2"/>
-      <c r="AF106" s="35"/>
-    </row>
-    <row r="107" spans="1:32">
+      <c r="AE106" s="36"/>
+    </row>
+    <row r="107" spans="1:31">
       <c r="A107" s="8">
         <v>44624</v>
       </c>
@@ -5402,7 +5244,7 @@
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
+      <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
@@ -5410,10 +5252,9 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
-      <c r="AE107" s="2"/>
-      <c r="AF107" s="35"/>
-    </row>
-    <row r="108" spans="1:32">
+      <c r="AE107" s="36"/>
+    </row>
+    <row r="108" spans="1:31">
       <c r="A108" s="8">
         <v>44625</v>
       </c>
@@ -5438,7 +5279,7 @@
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
       <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
+      <c r="W108" s="2"/>
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
@@ -5446,10 +5287,9 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
-      <c r="AE108" s="2"/>
-      <c r="AF108" s="35"/>
-    </row>
-    <row r="109" spans="1:32">
+      <c r="AE108" s="36"/>
+    </row>
+    <row r="109" spans="1:31">
       <c r="A109" s="8">
         <v>44626</v>
       </c>
@@ -5474,7 +5314,7 @@
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
       <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
+      <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
@@ -5482,10 +5322,9 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
-      <c r="AE109" s="2"/>
-      <c r="AF109" s="35"/>
-    </row>
-    <row r="110" spans="1:32">
+      <c r="AE109" s="36"/>
+    </row>
+    <row r="110" spans="1:31">
       <c r="A110" s="8">
         <v>44627</v>
       </c>
@@ -5510,7 +5349,7 @@
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
       <c r="V110" s="9"/>
-      <c r="W110" s="9"/>
+      <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
@@ -5518,10 +5357,9 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
-      <c r="AE110" s="2"/>
-      <c r="AF110" s="35"/>
-    </row>
-    <row r="111" spans="1:32">
+      <c r="AE110" s="36"/>
+    </row>
+    <row r="111" spans="1:31">
       <c r="A111" s="8">
         <v>44628</v>
       </c>
@@ -5546,7 +5384,7 @@
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
       <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
+      <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
@@ -5554,10 +5392,9 @@
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
-      <c r="AE111" s="2"/>
-      <c r="AF111" s="35"/>
-    </row>
-    <row r="112" spans="1:32">
+      <c r="AE111" s="36"/>
+    </row>
+    <row r="112" spans="1:31">
       <c r="A112" s="8">
         <v>44629</v>
       </c>
@@ -5582,7 +5419,7 @@
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
       <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
+      <c r="W112" s="2"/>
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
@@ -5590,10 +5427,9 @@
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
-      <c r="AE112" s="2"/>
-      <c r="AF112" s="35"/>
-    </row>
-    <row r="113" spans="1:32">
+      <c r="AE112" s="36"/>
+    </row>
+    <row r="113" spans="1:31">
       <c r="A113" s="8">
         <v>44630</v>
       </c>
@@ -5618,7 +5454,7 @@
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
       <c r="V113" s="9"/>
-      <c r="W113" s="9"/>
+      <c r="W113" s="2"/>
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
@@ -5626,10 +5462,9 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
-      <c r="AE113" s="2"/>
-      <c r="AF113" s="35"/>
-    </row>
-    <row r="114" spans="1:32">
+      <c r="AE113" s="36"/>
+    </row>
+    <row r="114" spans="1:31">
       <c r="A114" s="8">
         <v>44631</v>
       </c>
@@ -5654,7 +5489,7 @@
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
       <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
+      <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
@@ -5662,10 +5497,9 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
-      <c r="AE114" s="2"/>
-      <c r="AF114" s="35"/>
-    </row>
-    <row r="115" spans="1:32">
+      <c r="AE114" s="36"/>
+    </row>
+    <row r="115" spans="1:31">
       <c r="A115" s="8">
         <v>44632</v>
       </c>
@@ -5690,7 +5524,7 @@
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
       <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
+      <c r="W115" s="2"/>
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
@@ -5698,10 +5532,9 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
-      <c r="AE115" s="2"/>
-      <c r="AF115" s="35"/>
-    </row>
-    <row r="116" spans="1:32">
+      <c r="AE115" s="36"/>
+    </row>
+    <row r="116" spans="1:31">
       <c r="A116" s="8">
         <v>44633</v>
       </c>
@@ -5726,7 +5559,7 @@
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
       <c r="V116" s="9"/>
-      <c r="W116" s="9"/>
+      <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
@@ -5734,10 +5567,9 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
-      <c r="AE116" s="2"/>
-      <c r="AF116" s="35"/>
-    </row>
-    <row r="117" spans="1:32">
+      <c r="AE116" s="36"/>
+    </row>
+    <row r="117" spans="1:31">
       <c r="A117" s="8">
         <v>44634</v>
       </c>
@@ -5762,7 +5594,7 @@
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
       <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
+      <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
@@ -5770,10 +5602,9 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
-      <c r="AE117" s="2"/>
-      <c r="AF117" s="35"/>
-    </row>
-    <row r="118" spans="1:32">
+      <c r="AE117" s="36"/>
+    </row>
+    <row r="118" spans="1:31">
       <c r="A118" s="8">
         <v>44635</v>
       </c>
@@ -5798,7 +5629,7 @@
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
       <c r="V118" s="9"/>
-      <c r="W118" s="9"/>
+      <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
@@ -5806,10 +5637,9 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
-      <c r="AE118" s="2"/>
-      <c r="AF118" s="35"/>
-    </row>
-    <row r="119" spans="1:32">
+      <c r="AE118" s="36"/>
+    </row>
+    <row r="119" spans="1:31">
       <c r="A119" s="8">
         <v>44636</v>
       </c>
@@ -5834,7 +5664,7 @@
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
+      <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
@@ -5842,10 +5672,9 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
-      <c r="AE119" s="2"/>
-      <c r="AF119" s="35"/>
-    </row>
-    <row r="120" spans="1:32">
+      <c r="AE119" s="36"/>
+    </row>
+    <row r="120" spans="1:31">
       <c r="A120" s="8">
         <v>44637</v>
       </c>
@@ -5870,7 +5699,7 @@
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
       <c r="V120" s="9"/>
-      <c r="W120" s="9"/>
+      <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
@@ -5878,10 +5707,9 @@
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
-      <c r="AE120" s="2"/>
-      <c r="AF120" s="35"/>
-    </row>
-    <row r="121" spans="1:32">
+      <c r="AE120" s="36"/>
+    </row>
+    <row r="121" spans="1:31">
       <c r="A121" s="8">
         <v>44638</v>
       </c>
@@ -5906,7 +5734,7 @@
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
       <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
+      <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
@@ -5914,10 +5742,9 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
-      <c r="AE121" s="2"/>
-      <c r="AF121" s="35"/>
-    </row>
-    <row r="122" spans="1:32">
+      <c r="AE121" s="36"/>
+    </row>
+    <row r="122" spans="1:31">
       <c r="A122" s="8">
         <v>44639</v>
       </c>
@@ -5942,7 +5769,7 @@
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
       <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
+      <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
@@ -5950,10 +5777,9 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
-      <c r="AE122" s="2"/>
-      <c r="AF122" s="35"/>
-    </row>
-    <row r="123" spans="1:32">
+      <c r="AE122" s="36"/>
+    </row>
+    <row r="123" spans="1:31">
       <c r="A123" s="8">
         <v>44640</v>
       </c>
@@ -5978,7 +5804,7 @@
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
       <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
+      <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
@@ -5986,10 +5812,9 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
-      <c r="AE123" s="2"/>
-      <c r="AF123" s="35"/>
-    </row>
-    <row r="124" spans="1:32">
+      <c r="AE123" s="36"/>
+    </row>
+    <row r="124" spans="1:31">
       <c r="A124" s="8">
         <v>44641</v>
       </c>
@@ -6014,7 +5839,7 @@
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
-      <c r="W124" s="9"/>
+      <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
@@ -6022,10 +5847,9 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
-      <c r="AE124" s="2"/>
-      <c r="AF124" s="35"/>
-    </row>
-    <row r="125" spans="1:32">
+      <c r="AE124" s="36"/>
+    </row>
+    <row r="125" spans="1:31">
       <c r="A125" s="8">
         <v>44642</v>
       </c>
@@ -6050,7 +5874,7 @@
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
       <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
+      <c r="W125" s="2"/>
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
@@ -6058,10 +5882,9 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
-      <c r="AE125" s="2"/>
-      <c r="AF125" s="35"/>
-    </row>
-    <row r="126" spans="1:32">
+      <c r="AE125" s="36"/>
+    </row>
+    <row r="126" spans="1:31">
       <c r="A126" s="8">
         <v>44643</v>
       </c>
@@ -6086,7 +5909,7 @@
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
       <c r="V126" s="9"/>
-      <c r="W126" s="9"/>
+      <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
@@ -6094,10 +5917,9 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
-      <c r="AE126" s="2"/>
-      <c r="AF126" s="35"/>
-    </row>
-    <row r="127" spans="1:32">
+      <c r="AE126" s="36"/>
+    </row>
+    <row r="127" spans="1:31">
       <c r="A127" s="8">
         <v>44644</v>
       </c>
@@ -6122,7 +5944,7 @@
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
       <c r="V127" s="9"/>
-      <c r="W127" s="9"/>
+      <c r="W127" s="2"/>
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
@@ -6130,10 +5952,9 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
-      <c r="AE127" s="2"/>
-      <c r="AF127" s="35"/>
-    </row>
-    <row r="128" spans="1:32">
+      <c r="AE127" s="36"/>
+    </row>
+    <row r="128" spans="1:31">
       <c r="A128" s="8">
         <v>44645</v>
       </c>
@@ -6158,7 +5979,7 @@
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
       <c r="V128" s="9"/>
-      <c r="W128" s="9"/>
+      <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
@@ -6166,10 +5987,9 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
-      <c r="AE128" s="2"/>
-      <c r="AF128" s="35"/>
-    </row>
-    <row r="129" spans="1:32">
+      <c r="AE128" s="36"/>
+    </row>
+    <row r="129" spans="1:31">
       <c r="A129" s="8">
         <v>44646</v>
       </c>
@@ -6194,7 +6014,7 @@
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
       <c r="V129" s="9"/>
-      <c r="W129" s="9"/>
+      <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
@@ -6202,10 +6022,9 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
-      <c r="AE129" s="2"/>
-      <c r="AF129" s="35"/>
-    </row>
-    <row r="130" spans="1:32">
+      <c r="AE129" s="36"/>
+    </row>
+    <row r="130" spans="1:31">
       <c r="A130" s="8">
         <v>44647</v>
       </c>
@@ -6230,7 +6049,7 @@
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
-      <c r="W130" s="9"/>
+      <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
@@ -6238,10 +6057,9 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
-      <c r="AE130" s="2"/>
-      <c r="AF130" s="35"/>
-    </row>
-    <row r="131" spans="1:32">
+      <c r="AE130" s="36"/>
+    </row>
+    <row r="131" spans="1:31">
       <c r="A131" s="8">
         <v>44648</v>
       </c>
@@ -6266,7 +6084,7 @@
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
       <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
+      <c r="W131" s="2"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
@@ -6274,10 +6092,9 @@
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
-      <c r="AE131" s="2"/>
-      <c r="AF131" s="35"/>
-    </row>
-    <row r="132" spans="1:32">
+      <c r="AE131" s="36"/>
+    </row>
+    <row r="132" spans="1:31">
       <c r="A132" s="8">
         <v>44649</v>
       </c>
@@ -6302,7 +6119,7 @@
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
       <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
+      <c r="W132" s="2"/>
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
@@ -6310,10 +6127,9 @@
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
-      <c r="AE132" s="2"/>
-      <c r="AF132" s="35"/>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="AE132" s="36"/>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6332,10 +6148,9 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="W133" s="1"/>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="V133" s="1"/>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6354,10 +6169,9 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="W134" s="1"/>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="V134" s="1"/>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6376,10 +6190,9 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="W135" s="1"/>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="V135" s="1"/>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6398,10 +6211,9 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
-      <c r="T136" s="1"/>
-      <c r="W136" s="1"/>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="V136" s="1"/>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6420,10 +6232,9 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="W137" s="1"/>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="V137" s="1"/>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6442,10 +6253,9 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="W138" s="1"/>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="V138" s="1"/>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6464,10 +6274,9 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
-      <c r="T139" s="1"/>
-      <c r="W139" s="1"/>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="V139" s="1"/>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6486,10 +6295,9 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="W140" s="1"/>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="V140" s="1"/>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6508,10 +6316,9 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
-      <c r="T141" s="1"/>
-      <c r="W141" s="1"/>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="V141" s="1"/>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6530,10 +6337,9 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
-      <c r="T142" s="1"/>
-      <c r="W142" s="1"/>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="V142" s="1"/>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6552,10 +6358,9 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="W143" s="1"/>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="V143" s="1"/>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6574,10 +6379,9 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="W144" s="1"/>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="V144" s="1"/>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6596,10 +6400,9 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
-      <c r="T145" s="1"/>
-      <c r="W145" s="1"/>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="V145" s="1"/>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6618,10 +6421,9 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="W146" s="1"/>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="V146" s="1"/>
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6640,10 +6442,9 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="W147" s="1"/>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="V147" s="1"/>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6662,10 +6463,9 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="W148" s="1"/>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="V148" s="1"/>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6684,10 +6484,9 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="W149" s="1"/>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="V149" s="1"/>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6706,10 +6505,9 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="W150" s="1"/>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="V150" s="1"/>
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6728,10 +6526,9 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="W151" s="1"/>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="V151" s="1"/>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6750,10 +6547,9 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="W152" s="1"/>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="V152" s="1"/>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6772,10 +6568,9 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="W153" s="1"/>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="V153" s="1"/>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6794,10 +6589,9 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
-      <c r="T154" s="1"/>
-      <c r="W154" s="1"/>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="V154" s="1"/>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6816,10 +6610,9 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="W155" s="1"/>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="V155" s="1"/>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6838,10 +6631,9 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="W156" s="1"/>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="V156" s="1"/>
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6860,10 +6652,9 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="W157" s="1"/>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="V157" s="1"/>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6882,10 +6673,9 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="W158" s="1"/>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="V158" s="1"/>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6904,10 +6694,9 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="W159" s="1"/>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="V159" s="1"/>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6926,10 +6715,9 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="W160" s="1"/>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="V160" s="1"/>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6948,10 +6736,9 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="W161" s="1"/>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="V161" s="1"/>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6970,10 +6757,9 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="W162" s="1"/>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="V162" s="1"/>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6992,10 +6778,9 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="W163" s="1"/>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="V163" s="1"/>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -7014,10 +6799,9 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
-      <c r="T164" s="1"/>
-      <c r="W164" s="1"/>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="V164" s="1"/>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -7036,10 +6820,9 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
-      <c r="T165" s="1"/>
-      <c r="W165" s="1"/>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="V165" s="1"/>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -7058,10 +6841,9 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="W166" s="1"/>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="V166" s="1"/>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -7080,10 +6862,9 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="W167" s="1"/>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="V167" s="1"/>
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -7102,10 +6883,9 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="W168" s="1"/>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="V168" s="1"/>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -7124,10 +6904,9 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="W169" s="1"/>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="V169" s="1"/>
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7146,10 +6925,9 @@
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="W170" s="1"/>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="V170" s="1"/>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7168,10 +6946,9 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="W171" s="1"/>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="V171" s="1"/>
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7190,10 +6967,9 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="W172" s="1"/>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="V172" s="1"/>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7212,10 +6988,9 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="W173" s="1"/>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="V173" s="1"/>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7234,10 +7009,9 @@
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="W174" s="1"/>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="V174" s="1"/>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7256,10 +7030,9 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
-      <c r="T175" s="1"/>
-      <c r="W175" s="1"/>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="V175" s="1"/>
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7278,10 +7051,9 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="W176" s="1"/>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="V176" s="1"/>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7300,10 +7072,9 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="W177" s="1"/>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="V177" s="1"/>
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7322,10 +7093,9 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="W178" s="1"/>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="V178" s="1"/>
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7344,10 +7114,9 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="W179" s="1"/>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="V179" s="1"/>
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7366,10 +7135,9 @@
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="W180" s="1"/>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="V180" s="1"/>
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7388,10 +7156,9 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="W181" s="1"/>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="V181" s="1"/>
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7410,10 +7177,9 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
-      <c r="T182" s="1"/>
-      <c r="W182" s="1"/>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="V182" s="1"/>
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7432,10 +7198,9 @@
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="W183" s="1"/>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="V183" s="1"/>
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7454,10 +7219,9 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="W184" s="1"/>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="V184" s="1"/>
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7476,10 +7240,9 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
-      <c r="T185" s="1"/>
-      <c r="W185" s="1"/>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="V185" s="1"/>
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7498,10 +7261,9 @@
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
-      <c r="T186" s="1"/>
-      <c r="W186" s="1"/>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="V186" s="1"/>
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7520,10 +7282,9 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
-      <c r="T187" s="1"/>
-      <c r="W187" s="1"/>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="V187" s="1"/>
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7542,10 +7303,9 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
-      <c r="T188" s="1"/>
-      <c r="W188" s="1"/>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="V188" s="1"/>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7564,10 +7324,9 @@
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="W189" s="1"/>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="V189" s="1"/>
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7586,10 +7345,9 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
-      <c r="T190" s="1"/>
-      <c r="W190" s="1"/>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="V190" s="1"/>
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7608,10 +7366,9 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
-      <c r="T191" s="1"/>
-      <c r="W191" s="1"/>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="V191" s="1"/>
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7630,10 +7387,9 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
-      <c r="T192" s="1"/>
-      <c r="W192" s="1"/>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="V192" s="1"/>
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7652,10 +7408,9 @@
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
-      <c r="T193" s="1"/>
-      <c r="W193" s="1"/>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="V193" s="1"/>
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7674,10 +7429,9 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
-      <c r="T194" s="1"/>
-      <c r="W194" s="1"/>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="V194" s="1"/>
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7696,10 +7450,9 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
-      <c r="T195" s="1"/>
-      <c r="W195" s="1"/>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="V195" s="1"/>
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7718,10 +7471,9 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
-      <c r="T196" s="1"/>
-      <c r="W196" s="1"/>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="V196" s="1"/>
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7740,10 +7492,9 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
-      <c r="T197" s="1"/>
-      <c r="W197" s="1"/>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="V197" s="1"/>
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7762,10 +7513,9 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
-      <c r="T198" s="1"/>
-      <c r="W198" s="1"/>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="V198" s="1"/>
+    </row>
+    <row r="199" spans="1:22">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7784,10 +7534,9 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="W199" s="1"/>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="V199" s="1"/>
+    </row>
+    <row r="200" spans="1:22">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7806,10 +7555,9 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="W200" s="1"/>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="V200" s="1"/>
+    </row>
+    <row r="201" spans="1:22">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7828,10 +7576,9 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
-      <c r="W201" s="1"/>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="V201" s="1"/>
+    </row>
+    <row r="202" spans="1:22">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7850,10 +7597,9 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
-      <c r="T202" s="1"/>
-      <c r="W202" s="1"/>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="V202" s="1"/>
+    </row>
+    <row r="203" spans="1:22">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7872,10 +7618,9 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="W203" s="1"/>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="V203" s="1"/>
+    </row>
+    <row r="204" spans="1:22">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7894,10 +7639,9 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
-      <c r="T204" s="1"/>
-      <c r="W204" s="1"/>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="V204" s="1"/>
+    </row>
+    <row r="205" spans="1:22">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7916,10 +7660,9 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
-      <c r="T205" s="1"/>
-      <c r="W205" s="1"/>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="V205" s="1"/>
+    </row>
+    <row r="206" spans="1:22">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7938,10 +7681,9 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
-      <c r="T206" s="1"/>
-      <c r="W206" s="1"/>
-    </row>
-    <row r="207" spans="1:23">
+      <c r="V206" s="1"/>
+    </row>
+    <row r="207" spans="1:22">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7960,10 +7702,9 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
-      <c r="T207" s="1"/>
-      <c r="W207" s="1"/>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="V207" s="1"/>
+    </row>
+    <row r="208" spans="1:22">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7982,10 +7723,9 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
-      <c r="T208" s="1"/>
-      <c r="W208" s="1"/>
-    </row>
-    <row r="209" spans="1:23">
+      <c r="V208" s="1"/>
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -8004,10 +7744,9 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
-      <c r="T209" s="1"/>
-      <c r="W209" s="1"/>
-    </row>
-    <row r="210" spans="1:23">
+      <c r="V209" s="1"/>
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -8026,10 +7765,9 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
-      <c r="W210" s="1"/>
-    </row>
-    <row r="211" spans="1:23">
+      <c r="V210" s="1"/>
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -8048,10 +7786,9 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
-      <c r="W211" s="1"/>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="V211" s="1"/>
+    </row>
+    <row r="212" spans="1:22">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -8070,10 +7807,9 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
-      <c r="W212" s="1"/>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="V212" s="1"/>
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -8092,10 +7828,9 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
-      <c r="W213" s="1"/>
-    </row>
-    <row r="214" spans="1:23">
+      <c r="V213" s="1"/>
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -8114,10 +7849,9 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
-      <c r="W214" s="1"/>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="V214" s="1"/>
+    </row>
+    <row r="215" spans="1:22">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8136,10 +7870,9 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="W215" s="1"/>
-    </row>
-    <row r="216" spans="1:23">
+      <c r="V215" s="1"/>
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8158,10 +7891,9 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="W216" s="1"/>
-    </row>
-    <row r="217" spans="1:23">
+      <c r="V216" s="1"/>
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8180,10 +7912,9 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="W217" s="1"/>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="V217" s="1"/>
+    </row>
+    <row r="218" spans="1:22">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8202,10 +7933,9 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="W218" s="1"/>
-    </row>
-    <row r="219" spans="1:23">
+      <c r="V218" s="1"/>
+    </row>
+    <row r="219" spans="1:22">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8224,10 +7954,9 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
-      <c r="T219" s="1"/>
-      <c r="W219" s="1"/>
-    </row>
-    <row r="220" spans="1:23">
+      <c r="V219" s="1"/>
+    </row>
+    <row r="220" spans="1:22">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8246,10 +7975,9 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="W220" s="1"/>
-    </row>
-    <row r="221" spans="1:23">
+      <c r="V220" s="1"/>
+    </row>
+    <row r="221" spans="1:22">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8268,10 +7996,9 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="W221" s="1"/>
-    </row>
-    <row r="222" spans="1:23">
+      <c r="V221" s="1"/>
+    </row>
+    <row r="222" spans="1:22">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8290,10 +8017,9 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
-      <c r="T222" s="1"/>
-      <c r="W222" s="1"/>
-    </row>
-    <row r="223" spans="1:23">
+      <c r="V222" s="1"/>
+    </row>
+    <row r="223" spans="1:22">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8312,10 +8038,9 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
-      <c r="T223" s="1"/>
-      <c r="W223" s="1"/>
-    </row>
-    <row r="224" spans="1:23">
+      <c r="V223" s="1"/>
+    </row>
+    <row r="224" spans="1:22">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8334,10 +8059,9 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
-      <c r="T224" s="1"/>
-      <c r="W224" s="1"/>
-    </row>
-    <row r="225" spans="1:23">
+      <c r="V224" s="1"/>
+    </row>
+    <row r="225" spans="1:22">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8356,10 +8080,9 @@
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
-      <c r="W225" s="1"/>
-    </row>
-    <row r="226" spans="1:23">
+      <c r="V225" s="1"/>
+    </row>
+    <row r="226" spans="1:22">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8378,10 +8101,9 @@
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="W226" s="1"/>
-    </row>
-    <row r="227" spans="1:23">
+      <c r="V226" s="1"/>
+    </row>
+    <row r="227" spans="1:22">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8400,10 +8122,9 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="W227" s="1"/>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="V227" s="1"/>
+    </row>
+    <row r="228" spans="1:22">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8422,10 +8143,9 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="W228" s="1"/>
-    </row>
-    <row r="229" spans="1:23">
+      <c r="V228" s="1"/>
+    </row>
+    <row r="229" spans="1:22">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8444,10 +8164,9 @@
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="W229" s="1"/>
-    </row>
-    <row r="230" spans="1:23">
+      <c r="V229" s="1"/>
+    </row>
+    <row r="230" spans="1:22">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8466,10 +8185,9 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="W230" s="1"/>
-    </row>
-    <row r="231" spans="1:23">
+      <c r="V230" s="1"/>
+    </row>
+    <row r="231" spans="1:22">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8488,10 +8206,9 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="W231" s="1"/>
-    </row>
-    <row r="232" spans="1:23">
+      <c r="V231" s="1"/>
+    </row>
+    <row r="232" spans="1:22">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8510,10 +8227,9 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="W232" s="1"/>
-    </row>
-    <row r="233" spans="1:23">
+      <c r="V232" s="1"/>
+    </row>
+    <row r="233" spans="1:22">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8532,10 +8248,9 @@
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="W233" s="1"/>
-    </row>
-    <row r="234" spans="1:23">
+      <c r="V233" s="1"/>
+    </row>
+    <row r="234" spans="1:22">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8554,10 +8269,9 @@
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="W234" s="1"/>
-    </row>
-    <row r="235" spans="1:23">
+      <c r="V234" s="1"/>
+    </row>
+    <row r="235" spans="1:22">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8576,10 +8290,9 @@
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="W235" s="1"/>
-    </row>
-    <row r="236" spans="1:23">
+      <c r="V235" s="1"/>
+    </row>
+    <row r="236" spans="1:22">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8598,10 +8311,9 @@
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
-      <c r="T236" s="1"/>
-      <c r="W236" s="1"/>
-    </row>
-    <row r="237" spans="1:23">
+      <c r="V236" s="1"/>
+    </row>
+    <row r="237" spans="1:22">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8620,10 +8332,9 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
-      <c r="T237" s="1"/>
-      <c r="W237" s="1"/>
-    </row>
-    <row r="238" spans="1:23">
+      <c r="V237" s="1"/>
+    </row>
+    <row r="238" spans="1:22">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8642,10 +8353,9 @@
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
-      <c r="T238" s="1"/>
-      <c r="W238" s="1"/>
-    </row>
-    <row r="239" spans="1:23">
+      <c r="V238" s="1"/>
+    </row>
+    <row r="239" spans="1:22">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8664,10 +8374,9 @@
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
-      <c r="T239" s="1"/>
-      <c r="W239" s="1"/>
-    </row>
-    <row r="240" spans="1:23">
+      <c r="V239" s="1"/>
+    </row>
+    <row r="240" spans="1:22">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8686,10 +8395,9 @@
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
-      <c r="T240" s="1"/>
-      <c r="W240" s="1"/>
-    </row>
-    <row r="241" spans="1:23">
+      <c r="V240" s="1"/>
+    </row>
+    <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8708,10 +8416,9 @@
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
-      <c r="T241" s="1"/>
-      <c r="W241" s="1"/>
-    </row>
-    <row r="242" spans="1:23">
+      <c r="V241" s="1"/>
+    </row>
+    <row r="242" spans="1:22">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8730,10 +8437,9 @@
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
-      <c r="T242" s="1"/>
-      <c r="W242" s="1"/>
-    </row>
-    <row r="243" spans="1:23">
+      <c r="V242" s="1"/>
+    </row>
+    <row r="243" spans="1:22">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8752,10 +8458,9 @@
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="W243" s="1"/>
-    </row>
-    <row r="244" spans="1:23">
+      <c r="V243" s="1"/>
+    </row>
+    <row r="244" spans="1:22">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8774,10 +8479,9 @@
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
-      <c r="T244" s="1"/>
-      <c r="W244" s="1"/>
-    </row>
-    <row r="245" spans="1:23">
+      <c r="V244" s="1"/>
+    </row>
+    <row r="245" spans="1:22">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8796,10 +8500,9 @@
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
-      <c r="T245" s="1"/>
-      <c r="W245" s="1"/>
-    </row>
-    <row r="246" spans="1:23">
+      <c r="V245" s="1"/>
+    </row>
+    <row r="246" spans="1:22">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8818,10 +8521,9 @@
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
-      <c r="T246" s="1"/>
-      <c r="W246" s="1"/>
-    </row>
-    <row r="247" spans="1:23">
+      <c r="V246" s="1"/>
+    </row>
+    <row r="247" spans="1:22">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8840,10 +8542,9 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
-      <c r="T247" s="1"/>
-      <c r="W247" s="1"/>
-    </row>
-    <row r="248" spans="1:23">
+      <c r="V247" s="1"/>
+    </row>
+    <row r="248" spans="1:22">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8862,10 +8563,9 @@
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
-      <c r="T248" s="1"/>
-      <c r="W248" s="1"/>
-    </row>
-    <row r="249" spans="1:23">
+      <c r="V248" s="1"/>
+    </row>
+    <row r="249" spans="1:22">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8884,10 +8584,9 @@
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
-      <c r="T249" s="1"/>
-      <c r="W249" s="1"/>
-    </row>
-    <row r="250" spans="1:23">
+      <c r="V249" s="1"/>
+    </row>
+    <row r="250" spans="1:22">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8906,10 +8605,9 @@
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
-      <c r="T250" s="1"/>
-      <c r="W250" s="1"/>
-    </row>
-    <row r="251" spans="1:23">
+      <c r="V250" s="1"/>
+    </row>
+    <row r="251" spans="1:22">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8928,10 +8626,9 @@
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
-      <c r="T251" s="1"/>
-      <c r="W251" s="1"/>
-    </row>
-    <row r="252" spans="1:23">
+      <c r="V251" s="1"/>
+    </row>
+    <row r="252" spans="1:22">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8950,10 +8647,9 @@
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
-      <c r="T252" s="1"/>
-      <c r="W252" s="1"/>
-    </row>
-    <row r="253" spans="1:23">
+      <c r="V252" s="1"/>
+    </row>
+    <row r="253" spans="1:22">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8972,10 +8668,9 @@
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
-      <c r="T253" s="1"/>
-      <c r="W253" s="1"/>
-    </row>
-    <row r="254" spans="1:23">
+      <c r="V253" s="1"/>
+    </row>
+    <row r="254" spans="1:22">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8994,10 +8689,9 @@
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
-      <c r="T254" s="1"/>
-      <c r="W254" s="1"/>
-    </row>
-    <row r="255" spans="1:23">
+      <c r="V254" s="1"/>
+    </row>
+    <row r="255" spans="1:22">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -9016,10 +8710,9 @@
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
-      <c r="T255" s="1"/>
-      <c r="W255" s="1"/>
-    </row>
-    <row r="256" spans="1:23">
+      <c r="V255" s="1"/>
+    </row>
+    <row r="256" spans="1:22">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -9038,10 +8731,9 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
-      <c r="T256" s="1"/>
-      <c r="W256" s="1"/>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="V256" s="1"/>
+    </row>
+    <row r="257" spans="1:22">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -9060,10 +8752,9 @@
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
-      <c r="T257" s="1"/>
-      <c r="W257" s="1"/>
-    </row>
-    <row r="258" spans="1:23">
+      <c r="V257" s="1"/>
+    </row>
+    <row r="258" spans="1:22">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -9082,10 +8773,9 @@
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
-      <c r="T258" s="1"/>
-      <c r="W258" s="1"/>
-    </row>
-    <row r="259" spans="1:23">
+      <c r="V258" s="1"/>
+    </row>
+    <row r="259" spans="1:22">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -9104,10 +8794,9 @@
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
-      <c r="T259" s="1"/>
-      <c r="W259" s="1"/>
-    </row>
-    <row r="260" spans="1:23">
+      <c r="V259" s="1"/>
+    </row>
+    <row r="260" spans="1:22">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -9126,10 +8815,9 @@
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
-      <c r="T260" s="1"/>
-      <c r="W260" s="1"/>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="V260" s="1"/>
+    </row>
+    <row r="261" spans="1:22">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -9148,10 +8836,9 @@
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
-      <c r="T261" s="1"/>
-      <c r="W261" s="1"/>
-    </row>
-    <row r="262" spans="1:23">
+      <c r="V261" s="1"/>
+    </row>
+    <row r="262" spans="1:22">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -9170,10 +8857,9 @@
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
-      <c r="T262" s="1"/>
-      <c r="W262" s="1"/>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="V262" s="1"/>
+    </row>
+    <row r="263" spans="1:22">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -9192,10 +8878,9 @@
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
-      <c r="T263" s="1"/>
-      <c r="W263" s="1"/>
-    </row>
-    <row r="264" spans="1:23">
+      <c r="V263" s="1"/>
+    </row>
+    <row r="264" spans="1:22">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9214,10 +8899,9 @@
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
-      <c r="T264" s="1"/>
-      <c r="W264" s="1"/>
-    </row>
-    <row r="265" spans="1:23">
+      <c r="V264" s="1"/>
+    </row>
+    <row r="265" spans="1:22">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9236,10 +8920,9 @@
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
-      <c r="T265" s="1"/>
-      <c r="W265" s="1"/>
-    </row>
-    <row r="266" spans="1:23">
+      <c r="V265" s="1"/>
+    </row>
+    <row r="266" spans="1:22">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -9258,10 +8941,9 @@
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
-      <c r="T266" s="1"/>
-      <c r="W266" s="1"/>
-    </row>
-    <row r="267" spans="1:23">
+      <c r="V266" s="1"/>
+    </row>
+    <row r="267" spans="1:22">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9280,10 +8962,9 @@
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
-      <c r="T267" s="1"/>
-      <c r="W267" s="1"/>
-    </row>
-    <row r="268" spans="1:23">
+      <c r="V267" s="1"/>
+    </row>
+    <row r="268" spans="1:22">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9302,10 +8983,9 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
-      <c r="T268" s="1"/>
-      <c r="W268" s="1"/>
-    </row>
-    <row r="269" spans="1:23">
+      <c r="V268" s="1"/>
+    </row>
+    <row r="269" spans="1:22">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9324,10 +9004,9 @@
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
-      <c r="T269" s="1"/>
-      <c r="W269" s="1"/>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="V269" s="1"/>
+    </row>
+    <row r="270" spans="1:22">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9346,10 +9025,9 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
-      <c r="T270" s="1"/>
-      <c r="W270" s="1"/>
-    </row>
-    <row r="271" spans="1:23">
+      <c r="V270" s="1"/>
+    </row>
+    <row r="271" spans="1:22">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9368,10 +9046,9 @@
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
-      <c r="T271" s="1"/>
-      <c r="W271" s="1"/>
-    </row>
-    <row r="272" spans="1:23">
+      <c r="V271" s="1"/>
+    </row>
+    <row r="272" spans="1:22">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9390,10 +9067,9 @@
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
-      <c r="T272" s="1"/>
-      <c r="W272" s="1"/>
-    </row>
-    <row r="273" spans="1:23">
+      <c r="V272" s="1"/>
+    </row>
+    <row r="273" spans="1:22">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9412,10 +9088,9 @@
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
-      <c r="T273" s="1"/>
-      <c r="W273" s="1"/>
-    </row>
-    <row r="274" spans="1:23">
+      <c r="V273" s="1"/>
+    </row>
+    <row r="274" spans="1:22">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9434,10 +9109,9 @@
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
-      <c r="T274" s="1"/>
-      <c r="W274" s="1"/>
-    </row>
-    <row r="275" spans="1:23">
+      <c r="V274" s="1"/>
+    </row>
+    <row r="275" spans="1:22">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9456,10 +9130,9 @@
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
-      <c r="T275" s="1"/>
-      <c r="W275" s="1"/>
-    </row>
-    <row r="276" spans="1:23">
+      <c r="V275" s="1"/>
+    </row>
+    <row r="276" spans="1:22">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9478,10 +9151,9 @@
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
-      <c r="T276" s="1"/>
-      <c r="W276" s="1"/>
-    </row>
-    <row r="277" spans="1:23">
+      <c r="V276" s="1"/>
+    </row>
+    <row r="277" spans="1:22">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9500,10 +9172,9 @@
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
-      <c r="T277" s="1"/>
-      <c r="W277" s="1"/>
-    </row>
-    <row r="278" spans="1:23">
+      <c r="V277" s="1"/>
+    </row>
+    <row r="278" spans="1:22">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9522,10 +9193,9 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
-      <c r="T278" s="1"/>
-      <c r="W278" s="1"/>
-    </row>
-    <row r="279" spans="1:23">
+      <c r="V278" s="1"/>
+    </row>
+    <row r="279" spans="1:22">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9544,10 +9214,9 @@
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
-      <c r="T279" s="1"/>
-      <c r="W279" s="1"/>
-    </row>
-    <row r="280" spans="1:23">
+      <c r="V279" s="1"/>
+    </row>
+    <row r="280" spans="1:22">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9566,10 +9235,9 @@
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
-      <c r="T280" s="1"/>
-      <c r="W280" s="1"/>
-    </row>
-    <row r="281" spans="1:23">
+      <c r="V280" s="1"/>
+    </row>
+    <row r="281" spans="1:22">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9588,10 +9256,9 @@
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
-      <c r="T281" s="1"/>
-      <c r="W281" s="1"/>
-    </row>
-    <row r="282" spans="1:23">
+      <c r="V281" s="1"/>
+    </row>
+    <row r="282" spans="1:22">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9610,10 +9277,9 @@
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
-      <c r="T282" s="1"/>
-      <c r="W282" s="1"/>
-    </row>
-    <row r="283" spans="1:23">
+      <c r="V282" s="1"/>
+    </row>
+    <row r="283" spans="1:22">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9632,10 +9298,9 @@
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
-      <c r="T283" s="1"/>
-      <c r="W283" s="1"/>
-    </row>
-    <row r="284" spans="1:23">
+      <c r="V283" s="1"/>
+    </row>
+    <row r="284" spans="1:22">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9654,10 +9319,9 @@
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
-      <c r="T284" s="1"/>
-      <c r="W284" s="1"/>
-    </row>
-    <row r="285" spans="1:23">
+      <c r="V284" s="1"/>
+    </row>
+    <row r="285" spans="1:22">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9676,10 +9340,9 @@
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
-      <c r="T285" s="1"/>
-      <c r="W285" s="1"/>
-    </row>
-    <row r="286" spans="1:23">
+      <c r="V285" s="1"/>
+    </row>
+    <row r="286" spans="1:22">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9698,10 +9361,9 @@
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
-      <c r="T286" s="1"/>
-      <c r="W286" s="1"/>
-    </row>
-    <row r="287" spans="1:23">
+      <c r="V286" s="1"/>
+    </row>
+    <row r="287" spans="1:22">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9720,10 +9382,9 @@
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
-      <c r="T287" s="1"/>
-      <c r="W287" s="1"/>
-    </row>
-    <row r="288" spans="1:23">
+      <c r="V287" s="1"/>
+    </row>
+    <row r="288" spans="1:22">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9742,10 +9403,9 @@
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
-      <c r="T288" s="1"/>
-      <c r="W288" s="1"/>
-    </row>
-    <row r="289" spans="1:23">
+      <c r="V288" s="1"/>
+    </row>
+    <row r="289" spans="1:22">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9764,10 +9424,9 @@
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
-      <c r="T289" s="1"/>
-      <c r="W289" s="1"/>
-    </row>
-    <row r="290" spans="1:23">
+      <c r="V289" s="1"/>
+    </row>
+    <row r="290" spans="1:22">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9786,10 +9445,9 @@
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
-      <c r="T290" s="1"/>
-      <c r="W290" s="1"/>
-    </row>
-    <row r="291" spans="1:23">
+      <c r="V290" s="1"/>
+    </row>
+    <row r="291" spans="1:22">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9808,10 +9466,9 @@
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
-      <c r="T291" s="1"/>
-      <c r="W291" s="1"/>
-    </row>
-    <row r="292" spans="1:23">
+      <c r="V291" s="1"/>
+    </row>
+    <row r="292" spans="1:22">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9830,10 +9487,9 @@
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
-      <c r="T292" s="1"/>
-      <c r="W292" s="1"/>
-    </row>
-    <row r="293" spans="1:23">
+      <c r="V292" s="1"/>
+    </row>
+    <row r="293" spans="1:22">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9852,10 +9508,9 @@
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
-      <c r="T293" s="1"/>
-      <c r="W293" s="1"/>
-    </row>
-    <row r="294" spans="1:23">
+      <c r="V293" s="1"/>
+    </row>
+    <row r="294" spans="1:22">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9874,10 +9529,9 @@
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
-      <c r="T294" s="1"/>
-      <c r="W294" s="1"/>
-    </row>
-    <row r="295" spans="1:23">
+      <c r="V294" s="1"/>
+    </row>
+    <row r="295" spans="1:22">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9896,10 +9550,9 @@
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
-      <c r="T295" s="1"/>
-      <c r="W295" s="1"/>
-    </row>
-    <row r="296" spans="1:23">
+      <c r="V295" s="1"/>
+    </row>
+    <row r="296" spans="1:22">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9918,10 +9571,9 @@
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
-      <c r="T296" s="1"/>
-      <c r="W296" s="1"/>
-    </row>
-    <row r="297" spans="1:23">
+      <c r="V296" s="1"/>
+    </row>
+    <row r="297" spans="1:22">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9940,10 +9592,9 @@
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
-      <c r="T297" s="1"/>
-      <c r="W297" s="1"/>
-    </row>
-    <row r="298" spans="1:23">
+      <c r="V297" s="1"/>
+    </row>
+    <row r="298" spans="1:22">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9962,10 +9613,9 @@
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
-      <c r="T298" s="1"/>
-      <c r="W298" s="1"/>
-    </row>
-    <row r="299" spans="1:23">
+      <c r="V298" s="1"/>
+    </row>
+    <row r="299" spans="1:22">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9984,10 +9634,9 @@
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
-      <c r="T299" s="1"/>
-      <c r="W299" s="1"/>
-    </row>
-    <row r="300" spans="1:23">
+      <c r="V299" s="1"/>
+    </row>
+    <row r="300" spans="1:22">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -10006,10 +9655,9 @@
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
-      <c r="T300" s="1"/>
-      <c r="W300" s="1"/>
-    </row>
-    <row r="301" spans="1:23">
+      <c r="V300" s="1"/>
+    </row>
+    <row r="301" spans="1:22">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -10028,10 +9676,9 @@
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
-      <c r="T301" s="1"/>
-      <c r="W301" s="1"/>
-    </row>
-    <row r="302" spans="1:23">
+      <c r="V301" s="1"/>
+    </row>
+    <row r="302" spans="1:22">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -10050,10 +9697,9 @@
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
-      <c r="T302" s="1"/>
-      <c r="W302" s="1"/>
-    </row>
-    <row r="303" spans="1:23">
+      <c r="V302" s="1"/>
+    </row>
+    <row r="303" spans="1:22">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -10072,10 +9718,9 @@
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
-      <c r="T303" s="1"/>
-      <c r="W303" s="1"/>
-    </row>
-    <row r="304" spans="1:23">
+      <c r="V303" s="1"/>
+    </row>
+    <row r="304" spans="1:22">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -10094,10 +9739,9 @@
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
-      <c r="T304" s="1"/>
-      <c r="W304" s="1"/>
-    </row>
-    <row r="305" spans="1:23">
+      <c r="V304" s="1"/>
+    </row>
+    <row r="305" spans="1:22">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -10116,10 +9760,9 @@
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
-      <c r="T305" s="1"/>
-      <c r="W305" s="1"/>
-    </row>
-    <row r="306" spans="1:23">
+      <c r="V305" s="1"/>
+    </row>
+    <row r="306" spans="1:22">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10138,10 +9781,9 @@
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
-      <c r="T306" s="1"/>
-      <c r="W306" s="1"/>
-    </row>
-    <row r="307" spans="1:23">
+      <c r="V306" s="1"/>
+    </row>
+    <row r="307" spans="1:22">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10160,10 +9802,9 @@
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
-      <c r="T307" s="1"/>
-      <c r="W307" s="1"/>
-    </row>
-    <row r="308" spans="1:23">
+      <c r="V307" s="1"/>
+    </row>
+    <row r="308" spans="1:22">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10182,10 +9823,9 @@
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
-      <c r="T308" s="1"/>
-      <c r="W308" s="1"/>
-    </row>
-    <row r="309" spans="1:23">
+      <c r="V308" s="1"/>
+    </row>
+    <row r="309" spans="1:22">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10204,10 +9844,9 @@
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
-      <c r="T309" s="1"/>
-      <c r="W309" s="1"/>
-    </row>
-    <row r="310" spans="1:23">
+      <c r="V309" s="1"/>
+    </row>
+    <row r="310" spans="1:22">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10226,10 +9865,9 @@
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
-      <c r="T310" s="1"/>
-      <c r="W310" s="1"/>
-    </row>
-    <row r="311" spans="1:23">
+      <c r="V310" s="1"/>
+    </row>
+    <row r="311" spans="1:22">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10248,10 +9886,9 @@
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
-      <c r="T311" s="1"/>
-      <c r="W311" s="1"/>
-    </row>
-    <row r="312" spans="1:23">
+      <c r="V311" s="1"/>
+    </row>
+    <row r="312" spans="1:22">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10270,10 +9907,9 @@
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
-      <c r="T312" s="1"/>
-      <c r="W312" s="1"/>
-    </row>
-    <row r="313" spans="1:23">
+      <c r="V312" s="1"/>
+    </row>
+    <row r="313" spans="1:22">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10292,10 +9928,9 @@
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
-      <c r="T313" s="1"/>
-      <c r="W313" s="1"/>
-    </row>
-    <row r="314" spans="1:23">
+      <c r="V313" s="1"/>
+    </row>
+    <row r="314" spans="1:22">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10314,10 +9949,9 @@
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
-      <c r="T314" s="1"/>
-      <c r="W314" s="1"/>
-    </row>
-    <row r="315" spans="1:23">
+      <c r="V314" s="1"/>
+    </row>
+    <row r="315" spans="1:22">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10336,10 +9970,9 @@
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
-      <c r="T315" s="1"/>
-      <c r="W315" s="1"/>
-    </row>
-    <row r="316" spans="1:23">
+      <c r="V315" s="1"/>
+    </row>
+    <row r="316" spans="1:22">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10358,10 +9991,9 @@
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
-      <c r="T316" s="1"/>
-      <c r="W316" s="1"/>
-    </row>
-    <row r="317" spans="1:23">
+      <c r="V316" s="1"/>
+    </row>
+    <row r="317" spans="1:22">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10380,10 +10012,9 @@
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
-      <c r="T317" s="1"/>
-      <c r="W317" s="1"/>
-    </row>
-    <row r="318" spans="1:23">
+      <c r="V317" s="1"/>
+    </row>
+    <row r="318" spans="1:22">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10402,10 +10033,9 @@
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
-      <c r="T318" s="1"/>
-      <c r="W318" s="1"/>
-    </row>
-    <row r="319" spans="1:23">
+      <c r="V318" s="1"/>
+    </row>
+    <row r="319" spans="1:22">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10424,10 +10054,9 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
-      <c r="T319" s="1"/>
-      <c r="W319" s="1"/>
-    </row>
-    <row r="320" spans="1:23">
+      <c r="V319" s="1"/>
+    </row>
+    <row r="320" spans="1:22">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10446,10 +10075,9 @@
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
-      <c r="T320" s="1"/>
-      <c r="W320" s="1"/>
-    </row>
-    <row r="321" spans="1:23">
+      <c r="V320" s="1"/>
+    </row>
+    <row r="321" spans="1:22">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10468,10 +10096,9 @@
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
-      <c r="T321" s="1"/>
-      <c r="W321" s="1"/>
-    </row>
-    <row r="322" spans="1:23">
+      <c r="V321" s="1"/>
+    </row>
+    <row r="322" spans="1:22">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10490,10 +10117,9 @@
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
-      <c r="T322" s="1"/>
-      <c r="W322" s="1"/>
-    </row>
-    <row r="323" spans="1:23">
+      <c r="V322" s="1"/>
+    </row>
+    <row r="323" spans="1:22">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10512,10 +10138,9 @@
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
-      <c r="T323" s="1"/>
-      <c r="W323" s="1"/>
-    </row>
-    <row r="324" spans="1:23">
+      <c r="V323" s="1"/>
+    </row>
+    <row r="324" spans="1:22">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10534,10 +10159,9 @@
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
-      <c r="T324" s="1"/>
-      <c r="W324" s="1"/>
-    </row>
-    <row r="325" spans="1:23">
+      <c r="V324" s="1"/>
+    </row>
+    <row r="325" spans="1:22">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10556,10 +10180,9 @@
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
-      <c r="T325" s="1"/>
-      <c r="W325" s="1"/>
-    </row>
-    <row r="326" spans="1:23">
+      <c r="V325" s="1"/>
+    </row>
+    <row r="326" spans="1:22">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10578,10 +10201,9 @@
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
-      <c r="T326" s="1"/>
-      <c r="W326" s="1"/>
-    </row>
-    <row r="327" spans="1:23">
+      <c r="V326" s="1"/>
+    </row>
+    <row r="327" spans="1:22">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10600,10 +10222,9 @@
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
-      <c r="T327" s="1"/>
-      <c r="W327" s="1"/>
-    </row>
-    <row r="328" spans="1:23">
+      <c r="V327" s="1"/>
+    </row>
+    <row r="328" spans="1:22">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10622,10 +10243,9 @@
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
-      <c r="T328" s="1"/>
-      <c r="W328" s="1"/>
-    </row>
-    <row r="329" spans="1:23">
+      <c r="V328" s="1"/>
+    </row>
+    <row r="329" spans="1:22">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10644,10 +10264,9 @@
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
-      <c r="T329" s="1"/>
-      <c r="W329" s="1"/>
-    </row>
-    <row r="330" spans="1:23">
+      <c r="V329" s="1"/>
+    </row>
+    <row r="330" spans="1:22">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10666,10 +10285,9 @@
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
-      <c r="T330" s="1"/>
-      <c r="W330" s="1"/>
-    </row>
-    <row r="331" spans="1:23">
+      <c r="V330" s="1"/>
+    </row>
+    <row r="331" spans="1:22">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10688,10 +10306,9 @@
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
-      <c r="T331" s="1"/>
-      <c r="W331" s="1"/>
-    </row>
-    <row r="332" spans="1:23">
+      <c r="V331" s="1"/>
+    </row>
+    <row r="332" spans="1:22">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10710,10 +10327,9 @@
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
-      <c r="T332" s="1"/>
-      <c r="W332" s="1"/>
-    </row>
-    <row r="333" spans="1:23">
+      <c r="V332" s="1"/>
+    </row>
+    <row r="333" spans="1:22">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10732,10 +10348,9 @@
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
-      <c r="T333" s="1"/>
-      <c r="W333" s="1"/>
-    </row>
-    <row r="334" spans="1:23">
+      <c r="V333" s="1"/>
+    </row>
+    <row r="334" spans="1:22">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10754,10 +10369,9 @@
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
-      <c r="T334" s="1"/>
-      <c r="W334" s="1"/>
-    </row>
-    <row r="335" spans="1:23">
+      <c r="V334" s="1"/>
+    </row>
+    <row r="335" spans="1:22">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10776,10 +10390,9 @@
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
-      <c r="T335" s="1"/>
-      <c r="W335" s="1"/>
-    </row>
-    <row r="336" spans="1:23">
+      <c r="V335" s="1"/>
+    </row>
+    <row r="336" spans="1:22">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10798,10 +10411,9 @@
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
-      <c r="T336" s="1"/>
-      <c r="W336" s="1"/>
-    </row>
-    <row r="337" spans="1:23">
+      <c r="V336" s="1"/>
+    </row>
+    <row r="337" spans="1:22">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10820,10 +10432,9 @@
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
-      <c r="T337" s="1"/>
-      <c r="W337" s="1"/>
-    </row>
-    <row r="338" spans="1:23">
+      <c r="V337" s="1"/>
+    </row>
+    <row r="338" spans="1:22">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10842,10 +10453,9 @@
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
-      <c r="T338" s="1"/>
-      <c r="W338" s="1"/>
-    </row>
-    <row r="339" spans="1:23">
+      <c r="V338" s="1"/>
+    </row>
+    <row r="339" spans="1:22">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10864,10 +10474,9 @@
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
-      <c r="T339" s="1"/>
-      <c r="W339" s="1"/>
-    </row>
-    <row r="340" spans="1:23">
+      <c r="V339" s="1"/>
+    </row>
+    <row r="340" spans="1:22">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10886,10 +10495,9 @@
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
-      <c r="T340" s="1"/>
-      <c r="W340" s="1"/>
-    </row>
-    <row r="341" spans="1:23">
+      <c r="V340" s="1"/>
+    </row>
+    <row r="341" spans="1:22">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10908,10 +10516,9 @@
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
-      <c r="T341" s="1"/>
-      <c r="W341" s="1"/>
-    </row>
-    <row r="342" spans="1:23">
+      <c r="V341" s="1"/>
+    </row>
+    <row r="342" spans="1:22">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10930,10 +10537,9 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
-      <c r="T342" s="1"/>
-      <c r="W342" s="1"/>
-    </row>
-    <row r="343" spans="1:23">
+      <c r="V342" s="1"/>
+    </row>
+    <row r="343" spans="1:22">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10952,10 +10558,9 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
-      <c r="T343" s="1"/>
-      <c r="W343" s="1"/>
-    </row>
-    <row r="344" spans="1:23">
+      <c r="V343" s="1"/>
+    </row>
+    <row r="344" spans="1:22">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10974,10 +10579,9 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
-      <c r="T344" s="1"/>
-      <c r="W344" s="1"/>
-    </row>
-    <row r="345" spans="1:23">
+      <c r="V344" s="1"/>
+    </row>
+    <row r="345" spans="1:22">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10996,10 +10600,9 @@
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
-      <c r="T345" s="1"/>
-      <c r="W345" s="1"/>
-    </row>
-    <row r="346" spans="1:23">
+      <c r="V345" s="1"/>
+    </row>
+    <row r="346" spans="1:22">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -11018,10 +10621,9 @@
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
-      <c r="T346" s="1"/>
-      <c r="W346" s="1"/>
-    </row>
-    <row r="347" spans="1:23">
+      <c r="V346" s="1"/>
+    </row>
+    <row r="347" spans="1:22">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -11040,10 +10642,9 @@
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
-      <c r="T347" s="1"/>
-      <c r="W347" s="1"/>
-    </row>
-    <row r="348" spans="1:23">
+      <c r="V347" s="1"/>
+    </row>
+    <row r="348" spans="1:22">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -11062,10 +10663,9 @@
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
-      <c r="T348" s="1"/>
-      <c r="W348" s="1"/>
-    </row>
-    <row r="349" spans="1:23">
+      <c r="V348" s="1"/>
+    </row>
+    <row r="349" spans="1:22">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -11084,10 +10684,9 @@
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
-      <c r="T349" s="1"/>
-      <c r="W349" s="1"/>
-    </row>
-    <row r="350" spans="1:23">
+      <c r="V349" s="1"/>
+    </row>
+    <row r="350" spans="1:22">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -11106,10 +10705,9 @@
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
-      <c r="T350" s="1"/>
-      <c r="W350" s="1"/>
-    </row>
-    <row r="351" spans="1:23">
+      <c r="V350" s="1"/>
+    </row>
+    <row r="351" spans="1:22">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11128,10 +10726,9 @@
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
-      <c r="T351" s="1"/>
-      <c r="W351" s="1"/>
-    </row>
-    <row r="352" spans="1:23">
+      <c r="V351" s="1"/>
+    </row>
+    <row r="352" spans="1:22">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11150,10 +10747,9 @@
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
-      <c r="T352" s="1"/>
-      <c r="W352" s="1"/>
-    </row>
-    <row r="353" spans="1:23">
+      <c r="V352" s="1"/>
+    </row>
+    <row r="353" spans="1:22">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11172,10 +10768,9 @@
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
-      <c r="T353" s="1"/>
-      <c r="W353" s="1"/>
-    </row>
-    <row r="354" spans="1:23">
+      <c r="V353" s="1"/>
+    </row>
+    <row r="354" spans="1:22">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11194,10 +10789,9 @@
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
-      <c r="T354" s="1"/>
-      <c r="W354" s="1"/>
-    </row>
-    <row r="355" spans="1:23">
+      <c r="V354" s="1"/>
+    </row>
+    <row r="355" spans="1:22">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11216,10 +10810,9 @@
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
-      <c r="T355" s="1"/>
-      <c r="W355" s="1"/>
-    </row>
-    <row r="356" spans="1:23">
+      <c r="V355" s="1"/>
+    </row>
+    <row r="356" spans="1:22">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11238,10 +10831,9 @@
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
-      <c r="T356" s="1"/>
-      <c r="W356" s="1"/>
-    </row>
-    <row r="357" spans="1:23">
+      <c r="V356" s="1"/>
+    </row>
+    <row r="357" spans="1:22">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11260,10 +10852,9 @@
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
-      <c r="T357" s="1"/>
-      <c r="W357" s="1"/>
-    </row>
-    <row r="358" spans="1:23">
+      <c r="V357" s="1"/>
+    </row>
+    <row r="358" spans="1:22">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11282,10 +10873,9 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
-      <c r="T358" s="1"/>
-      <c r="W358" s="1"/>
-    </row>
-    <row r="359" spans="1:23">
+      <c r="V358" s="1"/>
+    </row>
+    <row r="359" spans="1:22">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11304,10 +10894,9 @@
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
-      <c r="T359" s="1"/>
-      <c r="W359" s="1"/>
-    </row>
-    <row r="360" spans="1:23">
+      <c r="V359" s="1"/>
+    </row>
+    <row r="360" spans="1:22">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11326,10 +10915,9 @@
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
-      <c r="T360" s="1"/>
-      <c r="W360" s="1"/>
-    </row>
-    <row r="361" spans="1:23">
+      <c r="V360" s="1"/>
+    </row>
+    <row r="361" spans="1:22">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11348,10 +10936,9 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
-      <c r="T361" s="1"/>
-      <c r="W361" s="1"/>
-    </row>
-    <row r="362" spans="1:23">
+      <c r="V361" s="1"/>
+    </row>
+    <row r="362" spans="1:22">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11370,10 +10957,9 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
-      <c r="T362" s="1"/>
-      <c r="W362" s="1"/>
-    </row>
-    <row r="363" spans="1:23">
+      <c r="V362" s="1"/>
+    </row>
+    <row r="363" spans="1:22">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11392,10 +10978,9 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
-      <c r="T363" s="1"/>
-      <c r="W363" s="1"/>
-    </row>
-    <row r="364" spans="1:23">
+      <c r="V363" s="1"/>
+    </row>
+    <row r="364" spans="1:22">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11414,10 +10999,9 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
-      <c r="T364" s="1"/>
-      <c r="W364" s="1"/>
-    </row>
-    <row r="365" spans="1:23">
+      <c r="V364" s="1"/>
+    </row>
+    <row r="365" spans="1:22">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11436,10 +11020,9 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
-      <c r="T365" s="1"/>
-      <c r="W365" s="1"/>
-    </row>
-    <row r="366" spans="1:23">
+      <c r="V365" s="1"/>
+    </row>
+    <row r="366" spans="1:22">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11458,10 +11041,9 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
-      <c r="T366" s="1"/>
-      <c r="W366" s="1"/>
-    </row>
-    <row r="367" spans="1:23">
+      <c r="V366" s="1"/>
+    </row>
+    <row r="367" spans="1:22">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11480,10 +11062,9 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
-      <c r="T367" s="1"/>
-      <c r="W367" s="1"/>
-    </row>
-    <row r="368" spans="1:23">
+      <c r="V367" s="1"/>
+    </row>
+    <row r="368" spans="1:22">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11502,10 +11083,9 @@
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
-      <c r="T368" s="1"/>
-      <c r="W368" s="1"/>
-    </row>
-    <row r="369" spans="1:23">
+      <c r="V368" s="1"/>
+    </row>
+    <row r="369" spans="1:22">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11524,10 +11104,9 @@
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
-      <c r="T369" s="1"/>
-      <c r="W369" s="1"/>
-    </row>
-    <row r="370" spans="1:23">
+      <c r="V369" s="1"/>
+    </row>
+    <row r="370" spans="1:22">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11546,10 +11125,9 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
-      <c r="T370" s="1"/>
-      <c r="W370" s="1"/>
-    </row>
-    <row r="371" spans="1:23">
+      <c r="V370" s="1"/>
+    </row>
+    <row r="371" spans="1:22">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11568,10 +11146,9 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
-      <c r="T371" s="1"/>
-      <c r="W371" s="1"/>
-    </row>
-    <row r="372" spans="1:23">
+      <c r="V371" s="1"/>
+    </row>
+    <row r="372" spans="1:22">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11590,10 +11167,9 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
-      <c r="T372" s="1"/>
-      <c r="W372" s="1"/>
-    </row>
-    <row r="373" spans="1:23">
+      <c r="V372" s="1"/>
+    </row>
+    <row r="373" spans="1:22">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11612,10 +11188,9 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
-      <c r="T373" s="1"/>
-      <c r="W373" s="1"/>
-    </row>
-    <row r="374" spans="1:23">
+      <c r="V373" s="1"/>
+    </row>
+    <row r="374" spans="1:22">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11634,10 +11209,9 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
-      <c r="T374" s="1"/>
-      <c r="W374" s="1"/>
-    </row>
-    <row r="375" spans="1:23">
+      <c r="V374" s="1"/>
+    </row>
+    <row r="375" spans="1:22">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11656,10 +11230,9 @@
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
-      <c r="T375" s="1"/>
-      <c r="W375" s="1"/>
-    </row>
-    <row r="376" spans="1:23">
+      <c r="V375" s="1"/>
+    </row>
+    <row r="376" spans="1:22">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11678,10 +11251,9 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
-      <c r="T376" s="1"/>
-      <c r="W376" s="1"/>
-    </row>
-    <row r="377" spans="1:23">
+      <c r="V376" s="1"/>
+    </row>
+    <row r="377" spans="1:22">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11700,10 +11272,9 @@
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
-      <c r="T377" s="1"/>
-      <c r="W377" s="1"/>
-    </row>
-    <row r="378" spans="1:23">
+      <c r="V377" s="1"/>
+    </row>
+    <row r="378" spans="1:22">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11722,10 +11293,9 @@
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
-      <c r="T378" s="1"/>
-      <c r="W378" s="1"/>
-    </row>
-    <row r="379" spans="1:23">
+      <c r="V378" s="1"/>
+    </row>
+    <row r="379" spans="1:22">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11744,10 +11314,9 @@
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
-      <c r="T379" s="1"/>
-      <c r="W379" s="1"/>
-    </row>
-    <row r="380" spans="1:23">
+      <c r="V379" s="1"/>
+    </row>
+    <row r="380" spans="1:22">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11766,10 +11335,9 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
-      <c r="T380" s="1"/>
-      <c r="W380" s="1"/>
-    </row>
-    <row r="381" spans="1:23">
+      <c r="V380" s="1"/>
+    </row>
+    <row r="381" spans="1:22">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11788,10 +11356,9 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
-      <c r="T381" s="1"/>
-      <c r="W381" s="1"/>
-    </row>
-    <row r="382" spans="1:23">
+      <c r="V381" s="1"/>
+    </row>
+    <row r="382" spans="1:22">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11810,10 +11377,9 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
-      <c r="T382" s="1"/>
-      <c r="W382" s="1"/>
-    </row>
-    <row r="383" spans="1:23">
+      <c r="V382" s="1"/>
+    </row>
+    <row r="383" spans="1:22">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11832,10 +11398,9 @@
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
-      <c r="T383" s="1"/>
-      <c r="W383" s="1"/>
-    </row>
-    <row r="384" spans="1:23">
+      <c r="V383" s="1"/>
+    </row>
+    <row r="384" spans="1:22">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11854,10 +11419,9 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
-      <c r="T384" s="1"/>
-      <c r="W384" s="1"/>
-    </row>
-    <row r="385" spans="1:23">
+      <c r="V384" s="1"/>
+    </row>
+    <row r="385" spans="1:22">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11876,10 +11440,9 @@
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
-      <c r="T385" s="1"/>
-      <c r="W385" s="1"/>
-    </row>
-    <row r="386" spans="1:23">
+      <c r="V385" s="1"/>
+    </row>
+    <row r="386" spans="1:22">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11898,10 +11461,9 @@
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
-      <c r="T386" s="1"/>
-      <c r="W386" s="1"/>
-    </row>
-    <row r="387" spans="1:23">
+      <c r="V386" s="1"/>
+    </row>
+    <row r="387" spans="1:22">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11920,10 +11482,9 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
-      <c r="T387" s="1"/>
-      <c r="W387" s="1"/>
-    </row>
-    <row r="388" spans="1:23">
+      <c r="V387" s="1"/>
+    </row>
+    <row r="388" spans="1:22">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11942,10 +11503,9 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
-      <c r="T388" s="1"/>
-      <c r="W388" s="1"/>
-    </row>
-    <row r="389" spans="1:23">
+      <c r="V388" s="1"/>
+    </row>
+    <row r="389" spans="1:22">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11964,10 +11524,9 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
-      <c r="T389" s="1"/>
-      <c r="W389" s="1"/>
-    </row>
-    <row r="390" spans="1:23">
+      <c r="V389" s="1"/>
+    </row>
+    <row r="390" spans="1:22">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11986,10 +11545,9 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
-      <c r="T390" s="1"/>
-      <c r="W390" s="1"/>
-    </row>
-    <row r="391" spans="1:23">
+      <c r="V390" s="1"/>
+    </row>
+    <row r="391" spans="1:22">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -12008,10 +11566,9 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
-      <c r="T391" s="1"/>
-      <c r="W391" s="1"/>
-    </row>
-    <row r="392" spans="1:23">
+      <c r="V391" s="1"/>
+    </row>
+    <row r="392" spans="1:22">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -12030,10 +11587,9 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
-      <c r="T392" s="1"/>
-      <c r="W392" s="1"/>
-    </row>
-    <row r="393" spans="1:23">
+      <c r="V392" s="1"/>
+    </row>
+    <row r="393" spans="1:22">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -12052,10 +11608,9 @@
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
-      <c r="T393" s="1"/>
-      <c r="W393" s="1"/>
-    </row>
-    <row r="394" spans="1:23">
+      <c r="V393" s="1"/>
+    </row>
+    <row r="394" spans="1:22">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -12074,10 +11629,9 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
-      <c r="T394" s="1"/>
-      <c r="W394" s="1"/>
-    </row>
-    <row r="395" spans="1:23">
+      <c r="V394" s="1"/>
+    </row>
+    <row r="395" spans="1:22">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -12096,10 +11650,9 @@
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
-      <c r="T395" s="1"/>
-      <c r="W395" s="1"/>
-    </row>
-    <row r="396" spans="1:23">
+      <c r="V395" s="1"/>
+    </row>
+    <row r="396" spans="1:22">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -12118,10 +11671,9 @@
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
-      <c r="T396" s="1"/>
-      <c r="W396" s="1"/>
-    </row>
-    <row r="397" spans="1:23">
+      <c r="V396" s="1"/>
+    </row>
+    <row r="397" spans="1:22">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12140,10 +11692,9 @@
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
-      <c r="T397" s="1"/>
-      <c r="W397" s="1"/>
-    </row>
-    <row r="398" spans="1:23">
+      <c r="V397" s="1"/>
+    </row>
+    <row r="398" spans="1:22">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12162,10 +11713,9 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
-      <c r="T398" s="1"/>
-      <c r="W398" s="1"/>
-    </row>
-    <row r="399" spans="1:23">
+      <c r="V398" s="1"/>
+    </row>
+    <row r="399" spans="1:22">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12184,10 +11734,9 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
-      <c r="T399" s="1"/>
-      <c r="W399" s="1"/>
-    </row>
-    <row r="400" spans="1:23">
+      <c r="V399" s="1"/>
+    </row>
+    <row r="400" spans="1:22">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12206,10 +11755,9 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
-      <c r="T400" s="1"/>
-      <c r="W400" s="1"/>
-    </row>
-    <row r="401" spans="1:23">
+      <c r="V400" s="1"/>
+    </row>
+    <row r="401" spans="1:22">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12228,10 +11776,9 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
-      <c r="T401" s="1"/>
-      <c r="W401" s="1"/>
-    </row>
-    <row r="402" spans="1:23">
+      <c r="V401" s="1"/>
+    </row>
+    <row r="402" spans="1:22">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12250,10 +11797,9 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
-      <c r="T402" s="1"/>
-      <c r="W402" s="1"/>
-    </row>
-    <row r="403" spans="1:23">
+      <c r="V402" s="1"/>
+    </row>
+    <row r="403" spans="1:22">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12272,10 +11818,9 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
-      <c r="T403" s="1"/>
-      <c r="W403" s="1"/>
-    </row>
-    <row r="404" spans="1:23">
+      <c r="V403" s="1"/>
+    </row>
+    <row r="404" spans="1:22">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12294,10 +11839,9 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
-      <c r="T404" s="1"/>
-      <c r="W404" s="1"/>
-    </row>
-    <row r="405" spans="1:23">
+      <c r="V404" s="1"/>
+    </row>
+    <row r="405" spans="1:22">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12316,10 +11860,9 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
-      <c r="T405" s="1"/>
-      <c r="W405" s="1"/>
-    </row>
-    <row r="406" spans="1:23">
+      <c r="V405" s="1"/>
+    </row>
+    <row r="406" spans="1:22">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12338,10 +11881,9 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
-      <c r="T406" s="1"/>
-      <c r="W406" s="1"/>
-    </row>
-    <row r="407" spans="1:23">
+      <c r="V406" s="1"/>
+    </row>
+    <row r="407" spans="1:22">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12360,10 +11902,9 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
-      <c r="T407" s="1"/>
-      <c r="W407" s="1"/>
-    </row>
-    <row r="408" spans="1:23">
+      <c r="V407" s="1"/>
+    </row>
+    <row r="408" spans="1:22">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12382,10 +11923,9 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
-      <c r="T408" s="1"/>
-      <c r="W408" s="1"/>
-    </row>
-    <row r="409" spans="1:23">
+      <c r="V408" s="1"/>
+    </row>
+    <row r="409" spans="1:22">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12404,10 +11944,9 @@
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
-      <c r="T409" s="1"/>
-      <c r="W409" s="1"/>
-    </row>
-    <row r="410" spans="1:23">
+      <c r="V409" s="1"/>
+    </row>
+    <row r="410" spans="1:22">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12426,10 +11965,9 @@
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
-      <c r="T410" s="1"/>
-      <c r="W410" s="1"/>
-    </row>
-    <row r="411" spans="1:23">
+      <c r="V410" s="1"/>
+    </row>
+    <row r="411" spans="1:22">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12448,10 +11986,9 @@
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
-      <c r="T411" s="1"/>
-      <c r="W411" s="1"/>
-    </row>
-    <row r="412" spans="1:23">
+      <c r="V411" s="1"/>
+    </row>
+    <row r="412" spans="1:22">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12470,10 +12007,9 @@
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
-      <c r="T412" s="1"/>
-      <c r="W412" s="1"/>
-    </row>
-    <row r="413" spans="1:23">
+      <c r="V412" s="1"/>
+    </row>
+    <row r="413" spans="1:22">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12492,10 +12028,9 @@
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
-      <c r="T413" s="1"/>
-      <c r="W413" s="1"/>
-    </row>
-    <row r="414" spans="1:23">
+      <c r="V413" s="1"/>
+    </row>
+    <row r="414" spans="1:22">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12514,10 +12049,9 @@
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
-      <c r="T414" s="1"/>
-      <c r="W414" s="1"/>
-    </row>
-    <row r="415" spans="1:23">
+      <c r="V414" s="1"/>
+    </row>
+    <row r="415" spans="1:22">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12536,10 +12070,9 @@
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
-      <c r="T415" s="1"/>
-      <c r="W415" s="1"/>
-    </row>
-    <row r="416" spans="1:23">
+      <c r="V415" s="1"/>
+    </row>
+    <row r="416" spans="1:22">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12558,10 +12091,9 @@
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
-      <c r="T416" s="1"/>
-      <c r="W416" s="1"/>
-    </row>
-    <row r="417" spans="1:23">
+      <c r="V416" s="1"/>
+    </row>
+    <row r="417" spans="1:22">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12580,10 +12112,9 @@
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
-      <c r="T417" s="1"/>
-      <c r="W417" s="1"/>
-    </row>
-    <row r="418" spans="1:23">
+      <c r="V417" s="1"/>
+    </row>
+    <row r="418" spans="1:22">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12602,10 +12133,9 @@
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
-      <c r="T418" s="1"/>
-      <c r="W418" s="1"/>
-    </row>
-    <row r="419" spans="1:23">
+      <c r="V418" s="1"/>
+    </row>
+    <row r="419" spans="1:22">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12624,10 +12154,9 @@
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
-      <c r="T419" s="1"/>
-      <c r="W419" s="1"/>
-    </row>
-    <row r="420" spans="1:23">
+      <c r="V419" s="1"/>
+    </row>
+    <row r="420" spans="1:22">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12646,10 +12175,9 @@
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
-      <c r="T420" s="1"/>
-      <c r="W420" s="1"/>
-    </row>
-    <row r="421" spans="1:23">
+      <c r="V420" s="1"/>
+    </row>
+    <row r="421" spans="1:22">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12668,10 +12196,9 @@
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
-      <c r="T421" s="1"/>
-      <c r="W421" s="1"/>
-    </row>
-    <row r="422" spans="1:23">
+      <c r="V421" s="1"/>
+    </row>
+    <row r="422" spans="1:22">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12690,10 +12217,9 @@
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
-      <c r="T422" s="1"/>
-      <c r="W422" s="1"/>
-    </row>
-    <row r="423" spans="1:23">
+      <c r="V422" s="1"/>
+    </row>
+    <row r="423" spans="1:22">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12712,10 +12238,9 @@
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
-      <c r="T423" s="1"/>
-      <c r="W423" s="1"/>
-    </row>
-    <row r="424" spans="1:23">
+      <c r="V423" s="1"/>
+    </row>
+    <row r="424" spans="1:22">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12734,10 +12259,9 @@
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
-      <c r="T424" s="1"/>
-      <c r="W424" s="1"/>
-    </row>
-    <row r="425" spans="1:23">
+      <c r="V424" s="1"/>
+    </row>
+    <row r="425" spans="1:22">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12756,10 +12280,9 @@
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
-      <c r="T425" s="1"/>
-      <c r="W425" s="1"/>
-    </row>
-    <row r="426" spans="1:23">
+      <c r="V425" s="1"/>
+    </row>
+    <row r="426" spans="1:22">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12778,10 +12301,9 @@
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
-      <c r="T426" s="1"/>
-      <c r="W426" s="1"/>
-    </row>
-    <row r="427" spans="1:23">
+      <c r="V426" s="1"/>
+    </row>
+    <row r="427" spans="1:22">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12800,10 +12322,9 @@
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
-      <c r="T427" s="1"/>
-      <c r="W427" s="1"/>
-    </row>
-    <row r="428" spans="1:23">
+      <c r="V427" s="1"/>
+    </row>
+    <row r="428" spans="1:22">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12822,10 +12343,9 @@
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
-      <c r="T428" s="1"/>
-      <c r="W428" s="1"/>
-    </row>
-    <row r="429" spans="1:23">
+      <c r="V428" s="1"/>
+    </row>
+    <row r="429" spans="1:22">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12844,10 +12364,9 @@
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
-      <c r="T429" s="1"/>
-      <c r="W429" s="1"/>
-    </row>
-    <row r="430" spans="1:23">
+      <c r="V429" s="1"/>
+    </row>
+    <row r="430" spans="1:22">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12866,10 +12385,9 @@
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
-      <c r="T430" s="1"/>
-      <c r="W430" s="1"/>
-    </row>
-    <row r="431" spans="1:23">
+      <c r="V430" s="1"/>
+    </row>
+    <row r="431" spans="1:22">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12888,10 +12406,9 @@
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
-      <c r="T431" s="1"/>
-      <c r="W431" s="1"/>
-    </row>
-    <row r="432" spans="1:23">
+      <c r="V431" s="1"/>
+    </row>
+    <row r="432" spans="1:22">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12910,10 +12427,9 @@
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
-      <c r="T432" s="1"/>
-      <c r="W432" s="1"/>
-    </row>
-    <row r="433" spans="1:23">
+      <c r="V432" s="1"/>
+    </row>
+    <row r="433" spans="1:22">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12932,10 +12448,9 @@
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
-      <c r="T433" s="1"/>
-      <c r="W433" s="1"/>
-    </row>
-    <row r="434" spans="1:23">
+      <c r="V433" s="1"/>
+    </row>
+    <row r="434" spans="1:22">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12954,10 +12469,9 @@
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
-      <c r="T434" s="1"/>
-      <c r="W434" s="1"/>
-    </row>
-    <row r="435" spans="1:23">
+      <c r="V434" s="1"/>
+    </row>
+    <row r="435" spans="1:22">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12976,10 +12490,9 @@
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
-      <c r="T435" s="1"/>
-      <c r="W435" s="1"/>
-    </row>
-    <row r="436" spans="1:23">
+      <c r="V435" s="1"/>
+    </row>
+    <row r="436" spans="1:22">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12998,10 +12511,9 @@
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
-      <c r="T436" s="1"/>
-      <c r="W436" s="1"/>
-    </row>
-    <row r="437" spans="1:23">
+      <c r="V436" s="1"/>
+    </row>
+    <row r="437" spans="1:22">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -13020,10 +12532,9 @@
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
-      <c r="T437" s="1"/>
-      <c r="W437" s="1"/>
-    </row>
-    <row r="438" spans="1:23">
+      <c r="V437" s="1"/>
+    </row>
+    <row r="438" spans="1:22">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -13042,10 +12553,9 @@
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
-      <c r="T438" s="1"/>
-      <c r="W438" s="1"/>
-    </row>
-    <row r="439" spans="1:23">
+      <c r="V438" s="1"/>
+    </row>
+    <row r="439" spans="1:22">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -13064,10 +12574,9 @@
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
-      <c r="T439" s="1"/>
-      <c r="W439" s="1"/>
-    </row>
-    <row r="440" spans="1:23">
+      <c r="V439" s="1"/>
+    </row>
+    <row r="440" spans="1:22">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -13086,10 +12595,9 @@
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
-      <c r="T440" s="1"/>
-      <c r="W440" s="1"/>
-    </row>
-    <row r="441" spans="1:23">
+      <c r="V440" s="1"/>
+    </row>
+    <row r="441" spans="1:22">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -13108,10 +12616,9 @@
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
-      <c r="T441" s="1"/>
-      <c r="W441" s="1"/>
-    </row>
-    <row r="442" spans="1:23">
+      <c r="V441" s="1"/>
+    </row>
+    <row r="442" spans="1:22">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13130,10 +12637,9 @@
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
-      <c r="T442" s="1"/>
-      <c r="W442" s="1"/>
-    </row>
-    <row r="443" spans="1:23">
+      <c r="V442" s="1"/>
+    </row>
+    <row r="443" spans="1:22">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13152,10 +12658,9 @@
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
-      <c r="T443" s="1"/>
-      <c r="W443" s="1"/>
-    </row>
-    <row r="444" spans="1:23">
+      <c r="V443" s="1"/>
+    </row>
+    <row r="444" spans="1:22">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13174,10 +12679,9 @@
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
-      <c r="T444" s="1"/>
-      <c r="W444" s="1"/>
-    </row>
-    <row r="445" spans="1:23">
+      <c r="V444" s="1"/>
+    </row>
+    <row r="445" spans="1:22">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13196,10 +12700,9 @@
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
-      <c r="T445" s="1"/>
-      <c r="W445" s="1"/>
-    </row>
-    <row r="446" spans="1:23">
+      <c r="V445" s="1"/>
+    </row>
+    <row r="446" spans="1:22">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13218,10 +12721,9 @@
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
-      <c r="T446" s="1"/>
-      <c r="W446" s="1"/>
-    </row>
-    <row r="447" spans="1:23">
+      <c r="V446" s="1"/>
+    </row>
+    <row r="447" spans="1:22">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13240,10 +12742,9 @@
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
-      <c r="T447" s="1"/>
-      <c r="W447" s="1"/>
-    </row>
-    <row r="448" spans="1:23">
+      <c r="V447" s="1"/>
+    </row>
+    <row r="448" spans="1:22">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13262,10 +12763,9 @@
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
-      <c r="T448" s="1"/>
-      <c r="W448" s="1"/>
-    </row>
-    <row r="449" spans="1:23">
+      <c r="V448" s="1"/>
+    </row>
+    <row r="449" spans="1:22">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13284,10 +12784,9 @@
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
-      <c r="T449" s="1"/>
-      <c r="W449" s="1"/>
-    </row>
-    <row r="450" spans="1:23">
+      <c r="V449" s="1"/>
+    </row>
+    <row r="450" spans="1:22">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13306,10 +12805,9 @@
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
-      <c r="T450" s="1"/>
-      <c r="W450" s="1"/>
-    </row>
-    <row r="451" spans="1:23">
+      <c r="V450" s="1"/>
+    </row>
+    <row r="451" spans="1:22">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13328,10 +12826,9 @@
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
-      <c r="T451" s="1"/>
-      <c r="W451" s="1"/>
-    </row>
-    <row r="452" spans="1:23">
+      <c r="V451" s="1"/>
+    </row>
+    <row r="452" spans="1:22">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13350,10 +12847,9 @@
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
-      <c r="T452" s="1"/>
-      <c r="W452" s="1"/>
-    </row>
-    <row r="453" spans="1:23">
+      <c r="V452" s="1"/>
+    </row>
+    <row r="453" spans="1:22">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13372,10 +12868,9 @@
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
-      <c r="T453" s="1"/>
-      <c r="W453" s="1"/>
-    </row>
-    <row r="454" spans="1:23">
+      <c r="V453" s="1"/>
+    </row>
+    <row r="454" spans="1:22">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13394,10 +12889,9 @@
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
-      <c r="T454" s="1"/>
-      <c r="W454" s="1"/>
-    </row>
-    <row r="455" spans="1:23">
+      <c r="V454" s="1"/>
+    </row>
+    <row r="455" spans="1:22">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13416,10 +12910,9 @@
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
-      <c r="T455" s="1"/>
-      <c r="W455" s="1"/>
-    </row>
-    <row r="456" spans="1:23">
+      <c r="V455" s="1"/>
+    </row>
+    <row r="456" spans="1:22">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13438,10 +12931,9 @@
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
-      <c r="T456" s="1"/>
-      <c r="W456" s="1"/>
-    </row>
-    <row r="457" spans="1:23">
+      <c r="V456" s="1"/>
+    </row>
+    <row r="457" spans="1:22">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13460,10 +12952,9 @@
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
-      <c r="T457" s="1"/>
-      <c r="W457" s="1"/>
-    </row>
-    <row r="458" spans="1:23">
+      <c r="V457" s="1"/>
+    </row>
+    <row r="458" spans="1:22">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13482,10 +12973,9 @@
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
-      <c r="T458" s="1"/>
-      <c r="W458" s="1"/>
-    </row>
-    <row r="459" spans="1:23">
+      <c r="V458" s="1"/>
+    </row>
+    <row r="459" spans="1:22">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13504,10 +12994,9 @@
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
-      <c r="T459" s="1"/>
-      <c r="W459" s="1"/>
-    </row>
-    <row r="460" spans="1:23">
+      <c r="V459" s="1"/>
+    </row>
+    <row r="460" spans="1:22">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13526,10 +13015,9 @@
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
-      <c r="T460" s="1"/>
-      <c r="W460" s="1"/>
-    </row>
-    <row r="461" spans="1:23">
+      <c r="V460" s="1"/>
+    </row>
+    <row r="461" spans="1:22">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13548,10 +13036,9 @@
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
-      <c r="T461" s="1"/>
-      <c r="W461" s="1"/>
-    </row>
-    <row r="462" spans="1:23">
+      <c r="V461" s="1"/>
+    </row>
+    <row r="462" spans="1:22">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13570,10 +13057,9 @@
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
-      <c r="T462" s="1"/>
-      <c r="W462" s="1"/>
-    </row>
-    <row r="463" spans="1:23">
+      <c r="V462" s="1"/>
+    </row>
+    <row r="463" spans="1:22">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13592,10 +13078,9 @@
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
-      <c r="T463" s="1"/>
-      <c r="W463" s="1"/>
-    </row>
-    <row r="464" spans="1:23">
+      <c r="V463" s="1"/>
+    </row>
+    <row r="464" spans="1:22">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13614,10 +13099,9 @@
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
-      <c r="T464" s="1"/>
-      <c r="W464" s="1"/>
-    </row>
-    <row r="465" spans="1:23">
+      <c r="V464" s="1"/>
+    </row>
+    <row r="465" spans="1:22">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13636,10 +13120,9 @@
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
-      <c r="T465" s="1"/>
-      <c r="W465" s="1"/>
-    </row>
-    <row r="466" spans="1:23">
+      <c r="V465" s="1"/>
+    </row>
+    <row r="466" spans="1:22">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13658,10 +13141,9 @@
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
-      <c r="T466" s="1"/>
-      <c r="W466" s="1"/>
-    </row>
-    <row r="467" spans="1:23">
+      <c r="V466" s="1"/>
+    </row>
+    <row r="467" spans="1:22">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13680,10 +13162,9 @@
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
-      <c r="T467" s="1"/>
-      <c r="W467" s="1"/>
-    </row>
-    <row r="468" spans="1:23">
+      <c r="V467" s="1"/>
+    </row>
+    <row r="468" spans="1:22">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13702,10 +13183,9 @@
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
-      <c r="T468" s="1"/>
-      <c r="W468" s="1"/>
-    </row>
-    <row r="469" spans="1:23">
+      <c r="V468" s="1"/>
+    </row>
+    <row r="469" spans="1:22">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13724,10 +13204,9 @@
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
-      <c r="T469" s="1"/>
-      <c r="W469" s="1"/>
-    </row>
-    <row r="470" spans="1:23">
+      <c r="V469" s="1"/>
+    </row>
+    <row r="470" spans="1:22">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13746,10 +13225,9 @@
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
-      <c r="T470" s="1"/>
-      <c r="W470" s="1"/>
-    </row>
-    <row r="471" spans="1:23">
+      <c r="V470" s="1"/>
+    </row>
+    <row r="471" spans="1:22">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13768,10 +13246,9 @@
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
-      <c r="T471" s="1"/>
-      <c r="W471" s="1"/>
-    </row>
-    <row r="472" spans="1:23">
+      <c r="V471" s="1"/>
+    </row>
+    <row r="472" spans="1:22">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13790,10 +13267,9 @@
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
-      <c r="T472" s="1"/>
-      <c r="W472" s="1"/>
-    </row>
-    <row r="473" spans="1:23">
+      <c r="V472" s="1"/>
+    </row>
+    <row r="473" spans="1:22">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13812,10 +13288,9 @@
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
-      <c r="T473" s="1"/>
-      <c r="W473" s="1"/>
-    </row>
-    <row r="474" spans="1:23">
+      <c r="V473" s="1"/>
+    </row>
+    <row r="474" spans="1:22">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13834,10 +13309,9 @@
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
-      <c r="T474" s="1"/>
-      <c r="W474" s="1"/>
-    </row>
-    <row r="475" spans="1:23">
+      <c r="V474" s="1"/>
+    </row>
+    <row r="475" spans="1:22">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13856,10 +13330,9 @@
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
-      <c r="T475" s="1"/>
-      <c r="W475" s="1"/>
-    </row>
-    <row r="476" spans="1:23">
+      <c r="V475" s="1"/>
+    </row>
+    <row r="476" spans="1:22">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13878,10 +13351,9 @@
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
-      <c r="T476" s="1"/>
-      <c r="W476" s="1"/>
-    </row>
-    <row r="477" spans="1:23">
+      <c r="V476" s="1"/>
+    </row>
+    <row r="477" spans="1:22">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13900,10 +13372,9 @@
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
-      <c r="T477" s="1"/>
-      <c r="W477" s="1"/>
-    </row>
-    <row r="478" spans="1:23">
+      <c r="V477" s="1"/>
+    </row>
+    <row r="478" spans="1:22">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13922,10 +13393,9 @@
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
-      <c r="T478" s="1"/>
-      <c r="W478" s="1"/>
-    </row>
-    <row r="479" spans="1:23">
+      <c r="V478" s="1"/>
+    </row>
+    <row r="479" spans="1:22">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13944,10 +13414,9 @@
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
-      <c r="T479" s="1"/>
-      <c r="W479" s="1"/>
-    </row>
-    <row r="480" spans="1:23">
+      <c r="V479" s="1"/>
+    </row>
+    <row r="480" spans="1:22">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13966,10 +13435,9 @@
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
-      <c r="T480" s="1"/>
-      <c r="W480" s="1"/>
-    </row>
-    <row r="481" spans="1:23">
+      <c r="V480" s="1"/>
+    </row>
+    <row r="481" spans="1:22">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13988,10 +13456,9 @@
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
-      <c r="T481" s="1"/>
-      <c r="W481" s="1"/>
-    </row>
-    <row r="482" spans="1:23">
+      <c r="V481" s="1"/>
+    </row>
+    <row r="482" spans="1:22">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -14010,10 +13477,9 @@
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
-      <c r="T482" s="1"/>
-      <c r="W482" s="1"/>
-    </row>
-    <row r="483" spans="1:23">
+      <c r="V482" s="1"/>
+    </row>
+    <row r="483" spans="1:22">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -14032,10 +13498,9 @@
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
-      <c r="T483" s="1"/>
-      <c r="W483" s="1"/>
-    </row>
-    <row r="484" spans="1:23">
+      <c r="V483" s="1"/>
+    </row>
+    <row r="484" spans="1:22">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -14054,10 +13519,9 @@
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
-      <c r="T484" s="1"/>
-      <c r="W484" s="1"/>
-    </row>
-    <row r="485" spans="1:23">
+      <c r="V484" s="1"/>
+    </row>
+    <row r="485" spans="1:22">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -14076,10 +13540,9 @@
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
-      <c r="T485" s="1"/>
-      <c r="W485" s="1"/>
-    </row>
-    <row r="486" spans="1:23">
+      <c r="V485" s="1"/>
+    </row>
+    <row r="486" spans="1:22">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -14098,10 +13561,9 @@
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
-      <c r="T486" s="1"/>
-      <c r="W486" s="1"/>
-    </row>
-    <row r="487" spans="1:23">
+      <c r="V486" s="1"/>
+    </row>
+    <row r="487" spans="1:22">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -14120,10 +13582,9 @@
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
-      <c r="T487" s="1"/>
-      <c r="W487" s="1"/>
-    </row>
-    <row r="488" spans="1:23">
+      <c r="V487" s="1"/>
+    </row>
+    <row r="488" spans="1:22">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14142,10 +13603,9 @@
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
-      <c r="T488" s="1"/>
-      <c r="W488" s="1"/>
-    </row>
-    <row r="489" spans="1:23">
+      <c r="V488" s="1"/>
+    </row>
+    <row r="489" spans="1:22">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14164,10 +13624,9 @@
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
-      <c r="T489" s="1"/>
-      <c r="W489" s="1"/>
-    </row>
-    <row r="490" spans="1:23">
+      <c r="V489" s="1"/>
+    </row>
+    <row r="490" spans="1:22">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14186,10 +13645,9 @@
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
-      <c r="T490" s="1"/>
-      <c r="W490" s="1"/>
-    </row>
-    <row r="491" spans="1:23">
+      <c r="V490" s="1"/>
+    </row>
+    <row r="491" spans="1:22">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14208,10 +13666,9 @@
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
-      <c r="T491" s="1"/>
-      <c r="W491" s="1"/>
-    </row>
-    <row r="492" spans="1:23">
+      <c r="V491" s="1"/>
+    </row>
+    <row r="492" spans="1:22">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14230,10 +13687,9 @@
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
-      <c r="T492" s="1"/>
-      <c r="W492" s="1"/>
-    </row>
-    <row r="493" spans="1:23">
+      <c r="V492" s="1"/>
+    </row>
+    <row r="493" spans="1:22">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14252,10 +13708,9 @@
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
-      <c r="T493" s="1"/>
-      <c r="W493" s="1"/>
-    </row>
-    <row r="494" spans="1:23">
+      <c r="V493" s="1"/>
+    </row>
+    <row r="494" spans="1:22">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14274,10 +13729,9 @@
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
-      <c r="T494" s="1"/>
-      <c r="W494" s="1"/>
-    </row>
-    <row r="495" spans="1:23">
+      <c r="V494" s="1"/>
+    </row>
+    <row r="495" spans="1:22">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14296,10 +13750,9 @@
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
-      <c r="T495" s="1"/>
-      <c r="W495" s="1"/>
-    </row>
-    <row r="496" spans="1:23">
+      <c r="V495" s="1"/>
+    </row>
+    <row r="496" spans="1:22">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14318,10 +13771,9 @@
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
-      <c r="T496" s="1"/>
-      <c r="W496" s="1"/>
-    </row>
-    <row r="497" spans="1:23">
+      <c r="V496" s="1"/>
+    </row>
+    <row r="497" spans="1:22">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14340,10 +13792,9 @@
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
-      <c r="T497" s="1"/>
-      <c r="W497" s="1"/>
-    </row>
-    <row r="498" spans="1:23">
+      <c r="V497" s="1"/>
+    </row>
+    <row r="498" spans="1:22">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14362,10 +13813,9 @@
       <c r="Q498" s="1"/>
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
-      <c r="T498" s="1"/>
-      <c r="W498" s="1"/>
-    </row>
-    <row r="499" spans="1:23">
+      <c r="V498" s="1"/>
+    </row>
+    <row r="499" spans="1:22">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14384,10 +13834,9 @@
       <c r="Q499" s="1"/>
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
-      <c r="T499" s="1"/>
-      <c r="W499" s="1"/>
-    </row>
-    <row r="500" spans="1:23">
+      <c r="V499" s="1"/>
+    </row>
+    <row r="500" spans="1:22">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14406,10 +13855,9 @@
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
-      <c r="T500" s="1"/>
-      <c r="W500" s="1"/>
-    </row>
-    <row r="501" spans="1:23">
+      <c r="V500" s="1"/>
+    </row>
+    <row r="501" spans="1:22">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14428,10 +13876,9 @@
       <c r="Q501" s="1"/>
       <c r="R501" s="1"/>
       <c r="S501" s="1"/>
-      <c r="T501" s="1"/>
-      <c r="W501" s="1"/>
-    </row>
-    <row r="502" spans="1:23">
+      <c r="V501" s="1"/>
+    </row>
+    <row r="502" spans="1:22">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14450,10 +13897,9 @@
       <c r="Q502" s="1"/>
       <c r="R502" s="1"/>
       <c r="S502" s="1"/>
-      <c r="T502" s="1"/>
-      <c r="W502" s="1"/>
-    </row>
-    <row r="503" spans="1:23">
+      <c r="V502" s="1"/>
+    </row>
+    <row r="503" spans="1:22">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14472,17 +13918,16 @@
       <c r="Q503" s="1"/>
       <c r="R503" s="1"/>
       <c r="S503" s="1"/>
-      <c r="T503" s="1"/>
-      <c r="W503" s="1"/>
+      <c r="V503" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="V1:AE1"/>
-    <mergeCell ref="V2:AC2"/>
-    <mergeCell ref="AD2:AE2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="U1:AD1"/>
+    <mergeCell ref="U2:AB2"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -14502,20 +13947,20 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U1:U5"/>
+    <mergeCell ref="T1:T5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
     <mergeCell ref="AD4:AD5"/>
-    <mergeCell ref="AE4:AE5"/>
+    <mergeCell ref="AE1:AE5"/>
     <mergeCell ref="AF1:AF5"/>
-    <mergeCell ref="AG1:AG5"/>
-    <mergeCell ref="B1:M3"/>
-    <mergeCell ref="N1:T2"/>
+    <mergeCell ref="B1:J3"/>
+    <mergeCell ref="M1:S2"/>
+    <mergeCell ref="K1:L3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -151,7 +151,7 @@
   </si>
   <si>
     <t>基底数
-(从下跌结束开始上涨算起，超过3个快到达第四个时，要考虑卖出)</t>
+(从上涨阶段的第一个基底算起，在第三个或第四个基底时，要考虑卖出)</t>
   </si>
   <si>
     <t>市盈率是否翻倍
@@ -161,19 +161,32 @@
     <t>是否靠近巅峰的顶点</t>
   </si>
   <si>
-    <t>3周上涨天数占比
-(15天内超过70%考虑卖出)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">2周内上涨天数占比
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(超过70%考虑卖出)</t>
+    </r>
   </si>
   <si>
-    <t>是否出现6到10天的加速上涨并伴随2到3天的下跌</t>
+    <t>单日波动范围
+(出现最大考虑卖出)</t>
   </si>
   <si>
-    <t>是否出现涨幅最大的日子
-(即涨幅最大或差价最大的日子)</t>
-  </si>
-  <si>
-    <t>交易量最大的一天股价是否收跌
-(如果是，要考虑卖出)</t>
+    <t>交易量是否最大
+(是的话，看收盘是否收跌，是的话，要考虑卖出)</t>
   </si>
   <si>
     <t>交易量最大，股价收跌</t>
@@ -183,12 +196,44 @@
 (超过4%)</t>
   </si>
   <si>
-    <t>1周内涨幅
-（超过25%，则靠近，考虑卖出）</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">1周内涨幅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（超过25%，则考虑卖出）</t>
+    </r>
   </si>
   <si>
-    <t>3周内涨幅
-(超过50%，则靠近，考虑卖出)</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3周内涨幅
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(超过50%，则考虑卖出)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -203,7 +248,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,6 +436,12 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -461,6 +512,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,12 +525,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,7 +1098,10 @@
     <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1056,19 +1110,19 @@
     <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -1393,14 +1447,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AF503"/>
+  <dimension ref="A1:AE503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4:L5"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4:AA5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1423,16 +1477,15 @@
     <col min="22" max="22" width="18.4464285714286" customWidth="1"/>
     <col min="23" max="23" width="23.3571428571429" customWidth="1"/>
     <col min="24" max="24" width="29.1607142857143" customWidth="1"/>
-    <col min="25" max="25" width="17.5535714285714" customWidth="1"/>
+    <col min="25" max="25" width="19.1875" customWidth="1"/>
     <col min="26" max="26" width="22.0178571428571" customWidth="1"/>
     <col min="27" max="27" width="26.4821428571429" customWidth="1"/>
-    <col min="28" max="28" width="22.0267857142857" customWidth="1"/>
-    <col min="29" max="29" width="24.5446428571429" customWidth="1"/>
-    <col min="30" max="30" width="18.75" customWidth="1"/>
-    <col min="32" max="32" width="9.07142857142857" style="2"/>
+    <col min="28" max="28" width="24.5446428571429" customWidth="1"/>
+    <col min="29" max="29" width="18.75" customWidth="1"/>
+    <col min="31" max="31" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1474,15 +1527,14 @@
       <c r="AA1" s="25"/>
       <c r="AB1" s="25"/>
       <c r="AC1" s="25"/>
-      <c r="AD1" s="25"/>
-      <c r="AE1" s="32" t="s">
+      <c r="AD1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="33" t="s">
+      <c r="AE1" s="35" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:32">
+    <row r="2" spans="1:31">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1512,15 +1564,14 @@
       <c r="Y2" s="26"/>
       <c r="Z2" s="26"/>
       <c r="AA2" s="26"/>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="34" t="s">
+      <c r="AB2" s="32" t="s">
         <v>9</v>
       </c>
+      <c r="AC2" s="32"/>
       <c r="AD2" s="34"/>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="33"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AE2" s="35"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1552,13 +1603,12 @@
       <c r="Y3" s="26"/>
       <c r="Z3" s="26"/>
       <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="34"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
       <c r="AD3" s="34"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="33"/>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="AE3" s="35"/>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1621,32 +1671,29 @@
       <c r="V4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="26" t="s">
+      <c r="W4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="31" t="s">
+      <c r="X4" s="28"/>
+      <c r="Y4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="Z4" s="26" t="s">
+      <c r="Z4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AA4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="34" t="s">
+      <c r="AC4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="AD4" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="33"/>
-    </row>
-    <row r="5" ht="56" customHeight="1" spans="1:32">
+      <c r="AD4" s="34"/>
+      <c r="AE4" s="35"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="1:31">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1669,22 +1716,21 @@
       <c r="T5" s="22"/>
       <c r="U5" s="27"/>
       <c r="V5" s="27"/>
-      <c r="W5" s="28" t="s">
+      <c r="W5" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="X5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="X5" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y5" s="26"/>
+      <c r="Y5" s="28"/>
       <c r="Z5" s="26"/>
       <c r="AA5" s="26"/>
-      <c r="AB5" s="26"/>
-      <c r="AC5" s="34"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
       <c r="AD5" s="34"/>
-      <c r="AE5" s="32"/>
-      <c r="AF5" s="33"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="AE5" s="35"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="6">
         <v>44523</v>
       </c>
@@ -1708,7 +1754,7 @@
       <c r="S6" s="9"/>
       <c r="T6" s="23"/>
       <c r="U6" s="23"/>
-      <c r="V6" s="29"/>
+      <c r="V6" s="30"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -1716,10 +1762,9 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="36"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AD6" s="37"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="8">
         <v>44524</v>
       </c>
@@ -1743,7 +1788,7 @@
       <c r="S7" s="9"/>
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
-      <c r="V7" s="30"/>
+      <c r="V7" s="31"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1751,10 +1796,9 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="36"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AD7" s="37"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="8">
         <v>44525</v>
       </c>
@@ -1778,7 +1822,7 @@
       <c r="S8" s="9"/>
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
-      <c r="V8" s="30"/>
+      <c r="V8" s="31"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -1786,10 +1830,9 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="36"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AD8" s="37"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="8">
         <v>44526</v>
       </c>
@@ -1813,7 +1856,7 @@
       <c r="S9" s="9"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
-      <c r="V9" s="30"/>
+      <c r="V9" s="31"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1821,10 +1864,9 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="36"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AD9" s="37"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="8">
         <v>44527</v>
       </c>
@@ -1856,10 +1898,9 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="36"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AD10" s="37"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="8">
         <v>44528</v>
       </c>
@@ -1891,10 +1932,9 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="36"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AD11" s="37"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="8">
         <v>44529</v>
       </c>
@@ -1926,10 +1966,9 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="36"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AD12" s="37"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="8">
         <v>44530</v>
       </c>
@@ -1961,10 +2000,9 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="36"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AD13" s="37"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="8">
         <v>44531</v>
       </c>
@@ -1996,10 +2034,9 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="36"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AD14" s="37"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="8">
         <v>44532</v>
       </c>
@@ -2031,10 +2068,9 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="36"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AD15" s="37"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="8">
         <v>44533</v>
       </c>
@@ -2066,10 +2102,9 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="36"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AD16" s="37"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="8">
         <v>44534</v>
       </c>
@@ -2101,10 +2136,9 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="36"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AD17" s="37"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="8">
         <v>44535</v>
       </c>
@@ -2136,10 +2170,9 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="36"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AD18" s="37"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="8">
         <v>44536</v>
       </c>
@@ -2171,10 +2204,9 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="36"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AD19" s="37"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="8">
         <v>44537</v>
       </c>
@@ -2206,10 +2238,9 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="36"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AD20" s="37"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="8">
         <v>44538</v>
       </c>
@@ -2241,10 +2272,9 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="36"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AD21" s="37"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="8">
         <v>44539</v>
       </c>
@@ -2276,10 +2306,9 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="36"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AD22" s="37"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="8">
         <v>44540</v>
       </c>
@@ -2311,10 +2340,9 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="36"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AD23" s="37"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="8">
         <v>44541</v>
       </c>
@@ -2346,10 +2374,9 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="36"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AD24" s="37"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="8">
         <v>44542</v>
       </c>
@@ -2381,10 +2408,9 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="36"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AD25" s="37"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="8">
         <v>44543</v>
       </c>
@@ -2416,10 +2442,9 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="36"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AD26" s="37"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="8">
         <v>44544</v>
       </c>
@@ -2451,10 +2476,9 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="36"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AD27" s="37"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="8">
         <v>44545</v>
       </c>
@@ -2486,10 +2510,9 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="36"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AD28" s="37"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="8">
         <v>44546</v>
       </c>
@@ -2521,10 +2544,9 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="36"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AD29" s="37"/>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="8">
         <v>44547</v>
       </c>
@@ -2556,10 +2578,9 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="36"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AD30" s="37"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="8">
         <v>44548</v>
       </c>
@@ -2591,10 +2612,9 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="36"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AD31" s="37"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="8">
         <v>44549</v>
       </c>
@@ -2626,10 +2646,9 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="36"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AD32" s="37"/>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="8">
         <v>44550</v>
       </c>
@@ -2661,10 +2680,9 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="36"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AD33" s="37"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="8">
         <v>44551</v>
       </c>
@@ -2696,10 +2714,9 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="36"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AD34" s="37"/>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" s="8">
         <v>44552</v>
       </c>
@@ -2731,10 +2748,9 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="36"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AD35" s="37"/>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="8">
         <v>44553</v>
       </c>
@@ -2766,10 +2782,9 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="36"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AD36" s="37"/>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="8">
         <v>44554</v>
       </c>
@@ -2801,10 +2816,9 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="36"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AD37" s="37"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="8">
         <v>44555</v>
       </c>
@@ -2836,10 +2850,9 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="36"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AD38" s="37"/>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="8">
         <v>44556</v>
       </c>
@@ -2871,10 +2884,9 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="36"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="AD39" s="37"/>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="8">
         <v>44557</v>
       </c>
@@ -2906,10 +2918,9 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="36"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="AD40" s="37"/>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="8">
         <v>44558</v>
       </c>
@@ -2941,10 +2952,9 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="36"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="AD41" s="37"/>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="8">
         <v>44559</v>
       </c>
@@ -2976,10 +2986,9 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="36"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AD42" s="37"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="8">
         <v>44560</v>
       </c>
@@ -3011,10 +3020,9 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="36"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AD43" s="37"/>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="8">
         <v>44561</v>
       </c>
@@ -3046,10 +3054,9 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="36"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AD44" s="37"/>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="8">
         <v>44562</v>
       </c>
@@ -3081,10 +3088,9 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="36"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AD45" s="37"/>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="8">
         <v>44563</v>
       </c>
@@ -3116,10 +3122,9 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="36"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AD46" s="37"/>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="8">
         <v>44564</v>
       </c>
@@ -3151,10 +3156,9 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="36"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AD47" s="37"/>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="8">
         <v>44565</v>
       </c>
@@ -3186,10 +3190,9 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="36"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="AD48" s="37"/>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" s="8">
         <v>44566</v>
       </c>
@@ -3221,10 +3224,9 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="36"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="AD49" s="37"/>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" s="8">
         <v>44567</v>
       </c>
@@ -3256,10 +3258,9 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="36"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="AD50" s="37"/>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="8">
         <v>44568</v>
       </c>
@@ -3291,10 +3292,9 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="36"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="AD51" s="37"/>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" s="8">
         <v>44569</v>
       </c>
@@ -3326,10 +3326,9 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="36"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="AD52" s="37"/>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" s="8">
         <v>44570</v>
       </c>
@@ -3361,10 +3360,9 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="36"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="AD53" s="37"/>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" s="8">
         <v>44571</v>
       </c>
@@ -3396,10 +3394,9 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="36"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="AD54" s="37"/>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" s="8">
         <v>44572</v>
       </c>
@@ -3431,10 +3428,9 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="36"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="AD55" s="37"/>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="8">
         <v>44573</v>
       </c>
@@ -3466,10 +3462,9 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="36"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="AD56" s="37"/>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="8">
         <v>44574</v>
       </c>
@@ -3501,10 +3496,9 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="36"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="AD57" s="37"/>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" s="8">
         <v>44575</v>
       </c>
@@ -3536,10 +3530,9 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="36"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="AD58" s="37"/>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="8">
         <v>44576</v>
       </c>
@@ -3571,10 +3564,9 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="36"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AD59" s="37"/>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" s="8">
         <v>44577</v>
       </c>
@@ -3606,10 +3598,9 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="36"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="AD60" s="37"/>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" s="8">
         <v>44578</v>
       </c>
@@ -3641,10 +3632,9 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="36"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="AD61" s="37"/>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" s="8">
         <v>44579</v>
       </c>
@@ -3676,10 +3666,9 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="36"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="AD62" s="37"/>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" s="8">
         <v>44580</v>
       </c>
@@ -3711,10 +3700,9 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="36"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="AD63" s="37"/>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" s="8">
         <v>44581</v>
       </c>
@@ -3746,10 +3734,9 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="36"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AD64" s="37"/>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="8">
         <v>44582</v>
       </c>
@@ -3781,10 +3768,9 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="36"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AD65" s="37"/>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="8">
         <v>44583</v>
       </c>
@@ -3816,10 +3802,9 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="36"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AD66" s="37"/>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="8">
         <v>44584</v>
       </c>
@@ -3851,10 +3836,9 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="36"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AD67" s="37"/>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" s="8">
         <v>44585</v>
       </c>
@@ -3886,10 +3870,9 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="36"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AD68" s="37"/>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" s="8">
         <v>44586</v>
       </c>
@@ -3921,10 +3904,9 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="36"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="AD69" s="37"/>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" s="8">
         <v>44587</v>
       </c>
@@ -3956,10 +3938,9 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="36"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AD70" s="37"/>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" s="8">
         <v>44588</v>
       </c>
@@ -3991,10 +3972,9 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="36"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AD71" s="37"/>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" s="8">
         <v>44589</v>
       </c>
@@ -4026,10 +4006,9 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="36"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AD72" s="37"/>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" s="8">
         <v>44590</v>
       </c>
@@ -4061,10 +4040,9 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="36"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="AD73" s="37"/>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" s="8">
         <v>44591</v>
       </c>
@@ -4096,10 +4074,9 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="36"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="AD74" s="37"/>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" s="8">
         <v>44592</v>
       </c>
@@ -4131,10 +4108,9 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="36"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="AD75" s="37"/>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" s="8">
         <v>44593</v>
       </c>
@@ -4166,10 +4142,9 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="36"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="AD76" s="37"/>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" s="8">
         <v>44594</v>
       </c>
@@ -4201,10 +4176,9 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="36"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="AD77" s="37"/>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" s="8">
         <v>44595</v>
       </c>
@@ -4236,10 +4210,9 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="36"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="AD78" s="37"/>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" s="8">
         <v>44596</v>
       </c>
@@ -4271,10 +4244,9 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="36"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="AD79" s="37"/>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" s="8">
         <v>44597</v>
       </c>
@@ -4306,10 +4278,9 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="36"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="AD80" s="37"/>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" s="8">
         <v>44598</v>
       </c>
@@ -4341,10 +4312,9 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="36"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="AD81" s="37"/>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" s="8">
         <v>44599</v>
       </c>
@@ -4376,10 +4346,9 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="36"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="AD82" s="37"/>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" s="8">
         <v>44600</v>
       </c>
@@ -4411,10 +4380,9 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
-      <c r="AD83" s="2"/>
-      <c r="AE83" s="36"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="AD83" s="37"/>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" s="8">
         <v>44601</v>
       </c>
@@ -4446,10 +4414,9 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="36"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="AD84" s="37"/>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" s="8">
         <v>44602</v>
       </c>
@@ -4481,10 +4448,9 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="2"/>
-      <c r="AE85" s="36"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="AD85" s="37"/>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" s="8">
         <v>44603</v>
       </c>
@@ -4516,10 +4482,9 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="36"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="AD86" s="37"/>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" s="8">
         <v>44604</v>
       </c>
@@ -4551,10 +4516,9 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="36"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="AD87" s="37"/>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" s="8">
         <v>44605</v>
       </c>
@@ -4586,10 +4550,9 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-      <c r="AE88" s="36"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="AD88" s="37"/>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" s="8">
         <v>44606</v>
       </c>
@@ -4621,10 +4584,9 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
-      <c r="AE89" s="36"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="AD89" s="37"/>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" s="8">
         <v>44607</v>
       </c>
@@ -4656,10 +4618,9 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-      <c r="AE90" s="36"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="AD90" s="37"/>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" s="8">
         <v>44608</v>
       </c>
@@ -4691,10 +4652,9 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="36"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="AD91" s="37"/>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" s="8">
         <v>44609</v>
       </c>
@@ -4726,10 +4686,9 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
-      <c r="AD92" s="2"/>
-      <c r="AE92" s="36"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="AD92" s="37"/>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" s="8">
         <v>44610</v>
       </c>
@@ -4761,10 +4720,9 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
-      <c r="AD93" s="2"/>
-      <c r="AE93" s="36"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="AD93" s="37"/>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" s="8">
         <v>44611</v>
       </c>
@@ -4796,10 +4754,9 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
-      <c r="AD94" s="2"/>
-      <c r="AE94" s="36"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="AD94" s="37"/>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" s="8">
         <v>44612</v>
       </c>
@@ -4831,10 +4788,9 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
-      <c r="AD95" s="2"/>
-      <c r="AE95" s="36"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="AD95" s="37"/>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" s="8">
         <v>44613</v>
       </c>
@@ -4866,10 +4822,9 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="36"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="AD96" s="37"/>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" s="8">
         <v>44614</v>
       </c>
@@ -4901,10 +4856,9 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-      <c r="AE97" s="36"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="AD97" s="37"/>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" s="8">
         <v>44615</v>
       </c>
@@ -4936,10 +4890,9 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
-      <c r="AD98" s="2"/>
-      <c r="AE98" s="36"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="AD98" s="37"/>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" s="8">
         <v>44616</v>
       </c>
@@ -4971,10 +4924,9 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="36"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="AD99" s="37"/>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" s="8">
         <v>44617</v>
       </c>
@@ -5006,10 +4958,9 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
-      <c r="AD100" s="2"/>
-      <c r="AE100" s="36"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="AD100" s="37"/>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" s="8">
         <v>44618</v>
       </c>
@@ -5041,10 +4992,9 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="36"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="AD101" s="37"/>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" s="8">
         <v>44619</v>
       </c>
@@ -5076,10 +5026,9 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
-      <c r="AD102" s="2"/>
-      <c r="AE102" s="36"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="AD102" s="37"/>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" s="8">
         <v>44620</v>
       </c>
@@ -5111,10 +5060,9 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
-      <c r="AD103" s="2"/>
-      <c r="AE103" s="36"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="AD103" s="37"/>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" s="8">
         <v>44621</v>
       </c>
@@ -5146,10 +5094,9 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="36"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="AD104" s="37"/>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" s="8">
         <v>44622</v>
       </c>
@@ -5181,10 +5128,9 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
-      <c r="AD105" s="2"/>
-      <c r="AE105" s="36"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="AD105" s="37"/>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" s="8">
         <v>44623</v>
       </c>
@@ -5216,10 +5162,9 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
-      <c r="AD106" s="2"/>
-      <c r="AE106" s="36"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="AD106" s="37"/>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" s="8">
         <v>44624</v>
       </c>
@@ -5251,10 +5196,9 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="36"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="AD107" s="37"/>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" s="8">
         <v>44625</v>
       </c>
@@ -5286,10 +5230,9 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
-      <c r="AE108" s="36"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="AD108" s="37"/>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" s="8">
         <v>44626</v>
       </c>
@@ -5321,10 +5264,9 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
-      <c r="AD109" s="2"/>
-      <c r="AE109" s="36"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="AD109" s="37"/>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" s="8">
         <v>44627</v>
       </c>
@@ -5356,10 +5298,9 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="36"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="AD110" s="37"/>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" s="8">
         <v>44628</v>
       </c>
@@ -5391,10 +5332,9 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
-      <c r="AD111" s="2"/>
-      <c r="AE111" s="36"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="AD111" s="37"/>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" s="8">
         <v>44629</v>
       </c>
@@ -5426,10 +5366,9 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="36"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="AD112" s="37"/>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" s="8">
         <v>44630</v>
       </c>
@@ -5461,10 +5400,9 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
-      <c r="AD113" s="2"/>
-      <c r="AE113" s="36"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="AD113" s="37"/>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" s="8">
         <v>44631</v>
       </c>
@@ -5496,10 +5434,9 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="36"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="AD114" s="37"/>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" s="8">
         <v>44632</v>
       </c>
@@ -5531,10 +5468,9 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
-      <c r="AD115" s="2"/>
-      <c r="AE115" s="36"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="AD115" s="37"/>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" s="8">
         <v>44633</v>
       </c>
@@ -5566,10 +5502,9 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
-      <c r="AD116" s="2"/>
-      <c r="AE116" s="36"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="AD116" s="37"/>
+    </row>
+    <row r="117" spans="1:30">
       <c r="A117" s="8">
         <v>44634</v>
       </c>
@@ -5601,10 +5536,9 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
-      <c r="AD117" s="2"/>
-      <c r="AE117" s="36"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="AD117" s="37"/>
+    </row>
+    <row r="118" spans="1:30">
       <c r="A118" s="8">
         <v>44635</v>
       </c>
@@ -5636,10 +5570,9 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
-      <c r="AD118" s="2"/>
-      <c r="AE118" s="36"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="AD118" s="37"/>
+    </row>
+    <row r="119" spans="1:30">
       <c r="A119" s="8">
         <v>44636</v>
       </c>
@@ -5671,10 +5604,9 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="2"/>
-      <c r="AE119" s="36"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="AD119" s="37"/>
+    </row>
+    <row r="120" spans="1:30">
       <c r="A120" s="8">
         <v>44637</v>
       </c>
@@ -5706,10 +5638,9 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
-      <c r="AD120" s="2"/>
-      <c r="AE120" s="36"/>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="AD120" s="37"/>
+    </row>
+    <row r="121" spans="1:30">
       <c r="A121" s="8">
         <v>44638</v>
       </c>
@@ -5741,10 +5672,9 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="36"/>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="AD121" s="37"/>
+    </row>
+    <row r="122" spans="1:30">
       <c r="A122" s="8">
         <v>44639</v>
       </c>
@@ -5776,10 +5706,9 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
-      <c r="AD122" s="2"/>
-      <c r="AE122" s="36"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="AD122" s="37"/>
+    </row>
+    <row r="123" spans="1:30">
       <c r="A123" s="8">
         <v>44640</v>
       </c>
@@ -5811,10 +5740,9 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
-      <c r="AD123" s="2"/>
-      <c r="AE123" s="36"/>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="AD123" s="37"/>
+    </row>
+    <row r="124" spans="1:30">
       <c r="A124" s="8">
         <v>44641</v>
       </c>
@@ -5846,10 +5774,9 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
-      <c r="AD124" s="2"/>
-      <c r="AE124" s="36"/>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="AD124" s="37"/>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" s="8">
         <v>44642</v>
       </c>
@@ -5881,10 +5808,9 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
-      <c r="AD125" s="2"/>
-      <c r="AE125" s="36"/>
-    </row>
-    <row r="126" spans="1:31">
+      <c r="AD125" s="37"/>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" s="8">
         <v>44643</v>
       </c>
@@ -5916,10 +5842,9 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
-      <c r="AD126" s="2"/>
-      <c r="AE126" s="36"/>
-    </row>
-    <row r="127" spans="1:31">
+      <c r="AD126" s="37"/>
+    </row>
+    <row r="127" spans="1:30">
       <c r="A127" s="8">
         <v>44644</v>
       </c>
@@ -5951,10 +5876,9 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
-      <c r="AD127" s="2"/>
-      <c r="AE127" s="36"/>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="AD127" s="37"/>
+    </row>
+    <row r="128" spans="1:30">
       <c r="A128" s="8">
         <v>44645</v>
       </c>
@@ -5986,10 +5910,9 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
-      <c r="AD128" s="2"/>
-      <c r="AE128" s="36"/>
-    </row>
-    <row r="129" spans="1:31">
+      <c r="AD128" s="37"/>
+    </row>
+    <row r="129" spans="1:30">
       <c r="A129" s="8">
         <v>44646</v>
       </c>
@@ -6021,10 +5944,9 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="2"/>
-      <c r="AE129" s="36"/>
-    </row>
-    <row r="130" spans="1:31">
+      <c r="AD129" s="37"/>
+    </row>
+    <row r="130" spans="1:30">
       <c r="A130" s="8">
         <v>44647</v>
       </c>
@@ -6056,10 +5978,9 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
-      <c r="AD130" s="2"/>
-      <c r="AE130" s="36"/>
-    </row>
-    <row r="131" spans="1:31">
+      <c r="AD130" s="37"/>
+    </row>
+    <row r="131" spans="1:30">
       <c r="A131" s="8">
         <v>44648</v>
       </c>
@@ -6091,10 +6012,9 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
-      <c r="AD131" s="2"/>
-      <c r="AE131" s="36"/>
-    </row>
-    <row r="132" spans="1:31">
+      <c r="AD131" s="37"/>
+    </row>
+    <row r="132" spans="1:30">
       <c r="A132" s="8">
         <v>44649</v>
       </c>
@@ -6126,8 +6046,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
-      <c r="AD132" s="2"/>
-      <c r="AE132" s="36"/>
+      <c r="AD132" s="37"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="1"/>
@@ -13921,10 +13840,10 @@
       <c r="V503" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="U1:AD1"/>
-    <mergeCell ref="U2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
+  <mergeCells count="38">
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:S3"/>
     <mergeCell ref="W4:X4"/>
@@ -13955,9 +13874,8 @@
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AD1:AD5"/>
     <mergeCell ref="AE1:AE5"/>
-    <mergeCell ref="AF1:AF5"/>
     <mergeCell ref="B1:J3"/>
     <mergeCell ref="M1:S2"/>
     <mergeCell ref="K1:L3"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -1453,11 +1453,11 @@
   <dimension ref="A1:AF503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4:M5"/>
+      <selection pane="bottomRight" activeCell="J4" sqref="J4:J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>日期</t>
   </si>
@@ -22,10 +22,7 @@
     <t>当日行情走势</t>
   </si>
   <si>
-    <t>买入后的累计情况</t>
-  </si>
-  <si>
-    <t>突破基底后的走向指标</t>
+    <t>买入后的走向指标</t>
   </si>
   <si>
     <t>是否继续持有</t>
@@ -44,6 +41,10 @@
   </si>
   <si>
     <t>弱势卖出指标</t>
+  </si>
+  <si>
+    <t>买入后总跌幅/涨幅
+(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
   </si>
   <si>
     <t>向反预期方向运行指标</t>
@@ -103,33 +104,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">买入后总跌幅/涨幅
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
-    </r>
-  </si>
-  <si>
-    <t>上涨占入手后总天数的占比
-(上涨大于65%考虑止盈；下跌大于65%考虑止损)</t>
-  </si>
-  <si>
     <t>当日收盘价是否小于20日均线
 (是的时候应该警惕)</t>
   </si>
@@ -138,19 +112,24 @@
 (是的时候应该警惕)</t>
   </si>
   <si>
-    <t>是否出现低交易量突破，高交易量重回低位</t>
+    <t>是否出现低交易量突破，高交易量重回低位
+(需要细化)</t>
   </si>
   <si>
-    <t>是否出现连续几天的放量上涨</t>
+    <t>是否出现连续几天的放量上涨
+(需要细化)</t>
   </si>
   <si>
-    <t>是否出现网球行为</t>
+    <t>是否出现网球行为
+(需要细化)</t>
   </si>
   <si>
-    <t>是否上涨天数大于下跌天数</t>
+    <t>是否上涨天数大于下跌天数
+(需要细化)</t>
   </si>
   <si>
-    <t>是否好的收盘次数大于坏的收盘次数</t>
+    <t>是否好的收盘次数大于坏的收盘次数
+（(需要细化)）</t>
   </si>
   <si>
     <t>基底数
@@ -467,6 +446,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -474,12 +459,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,6 +494,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -522,12 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,7 +995,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1047,35 +1026,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1083,10 +1059,16 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1101,31 +1083,25 @@
     <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -1450,14 +1426,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AF503"/>
+  <dimension ref="A1:AE503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J4" sqref="J4:J5"/>
+      <selection pane="bottomRight" activeCell="M3" sqref="M3:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1470,25 +1446,25 @@
     <col min="9" max="9" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.2321428571429" customWidth="1"/>
     <col min="11" max="12" width="20.3839285714286" customWidth="1"/>
-    <col min="13" max="14" width="30.0625" customWidth="1"/>
-    <col min="15" max="15" width="25.4464285714286" customWidth="1"/>
-    <col min="16" max="16" width="30.0625" customWidth="1"/>
-    <col min="17" max="18" width="40.4732142857143" customWidth="1"/>
-    <col min="19" max="19" width="28.7142857142857" customWidth="1"/>
-    <col min="20" max="20" width="37.1964285714286" customWidth="1"/>
-    <col min="21" max="22" width="20.5267857142857" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.4464285714286" customWidth="1"/>
-    <col min="24" max="24" width="23.3571428571429" customWidth="1"/>
-    <col min="25" max="25" width="29.1607142857143" customWidth="1"/>
-    <col min="26" max="26" width="19.1875" customWidth="1"/>
-    <col min="27" max="27" width="22.0178571428571" customWidth="1"/>
-    <col min="28" max="28" width="26.4821428571429" customWidth="1"/>
-    <col min="29" max="29" width="24.5446428571429" customWidth="1"/>
-    <col min="30" max="30" width="18.75" customWidth="1"/>
-    <col min="32" max="32" width="9.07142857142857" style="2"/>
+    <col min="13" max="13" width="30.0625" customWidth="1"/>
+    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
+    <col min="15" max="15" width="30.0625" customWidth="1"/>
+    <col min="16" max="17" width="40.4732142857143" customWidth="1"/>
+    <col min="18" max="18" width="28.7142857142857" customWidth="1"/>
+    <col min="19" max="19" width="37.1964285714286" customWidth="1"/>
+    <col min="20" max="21" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="22" max="22" width="18.4464285714286" customWidth="1"/>
+    <col min="23" max="23" width="23.3571428571429" customWidth="1"/>
+    <col min="24" max="24" width="29.1607142857143" customWidth="1"/>
+    <col min="25" max="25" width="19.1875" customWidth="1"/>
+    <col min="26" max="26" width="22.0178571428571" customWidth="1"/>
+    <col min="27" max="27" width="26.4821428571429" customWidth="1"/>
+    <col min="28" max="28" width="24.5446428571429" customWidth="1"/>
+    <col min="29" max="29" width="18.75" customWidth="1"/>
+    <col min="31" max="31" width="9.07142857142857" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:31">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1504,41 +1480,38 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="33" t="s">
+      <c r="AE1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32">
+    </row>
+    <row r="2" spans="1:31">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1550,33 +1523,32 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
+      <c r="Z2" s="25"/>
+      <c r="AA2" s="25"/>
+      <c r="AB2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="24"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="24"/>
-      <c r="AC2" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="33"/>
-      <c r="AF2" s="34"/>
-    </row>
-    <row r="3" spans="1:32">
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="34"/>
+    </row>
+    <row r="3" spans="1:31">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1588,33 +1560,34 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="16" t="s">
+      <c r="L3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="19" t="s">
+      <c r="P3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="19"/>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="35"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="34"/>
-    </row>
-    <row r="4" spans="1:32">
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="34"/>
+    </row>
+    <row r="4" spans="1:31">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>12</v>
@@ -1637,72 +1610,67 @@
       <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="11"/>
+      <c r="M4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="O4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="P4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="P4" s="18" t="s">
+      <c r="Q4" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="R4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="S4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="T4" s="21"/>
+      <c r="U4" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="V4" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="U4" s="23"/>
-      <c r="V4" s="25" t="s">
+      <c r="W4" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="X4" s="27"/>
+      <c r="Y4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="X4" s="26" t="s">
+      <c r="Z4" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="27" t="s">
+      <c r="AA4" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="AA4" s="32" t="s">
+      <c r="AB4" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="AB4" s="32" t="s">
+      <c r="AC4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AC4" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD4" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="34"/>
-    </row>
-    <row r="5" ht="56" customHeight="1" spans="1:32">
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="34"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="1:31">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1711,36 +1679,35 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="17"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z5" s="26"/>
-      <c r="AA5" s="24"/>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="33"/>
-      <c r="AF5" s="34"/>
-    </row>
-    <row r="6" spans="1:31">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="25"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="31"/>
+      <c r="AC5" s="31"/>
+      <c r="AD5" s="33"/>
+      <c r="AE5" s="34"/>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" s="6">
         <v>44523</v>
       </c>
@@ -1753,8 +1720,8 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1762,20 +1729,19 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="28"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="29"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="29"/>
+      <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="37"/>
-    </row>
-    <row r="7" spans="1:31">
+      <c r="AD6" s="36"/>
+    </row>
+    <row r="7" spans="1:30">
       <c r="A7" s="8">
         <v>44524</v>
       </c>
@@ -1788,8 +1754,8 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1797,20 +1763,19 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="30"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
       <c r="V7" s="30"/>
-      <c r="W7" s="31"/>
+      <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="37"/>
-    </row>
-    <row r="8" spans="1:31">
+      <c r="AD7" s="36"/>
+    </row>
+    <row r="8" spans="1:30">
       <c r="A8" s="8">
         <v>44525</v>
       </c>
@@ -1823,8 +1788,8 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1832,20 +1797,19 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="30"/>
+      <c r="T8" s="23"/>
+      <c r="U8" s="23"/>
       <c r="V8" s="30"/>
-      <c r="W8" s="31"/>
+      <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="37"/>
-    </row>
-    <row r="9" spans="1:31">
+      <c r="AD8" s="36"/>
+    </row>
+    <row r="9" spans="1:30">
       <c r="A9" s="8">
         <v>44526</v>
       </c>
@@ -1858,8 +1822,8 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1867,20 +1831,19 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="30"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
       <c r="V9" s="30"/>
-      <c r="W9" s="31"/>
+      <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="37"/>
-    </row>
-    <row r="10" spans="1:31">
+      <c r="AD9" s="36"/>
+    </row>
+    <row r="10" spans="1:30">
       <c r="A10" s="8">
         <v>44527</v>
       </c>
@@ -1904,18 +1867,17 @@
       <c r="S10" s="9"/>
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="37"/>
-    </row>
-    <row r="11" spans="1:31">
+      <c r="AD10" s="36"/>
+    </row>
+    <row r="11" spans="1:30">
       <c r="A11" s="8">
         <v>44528</v>
       </c>
@@ -1939,18 +1901,17 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="37"/>
-    </row>
-    <row r="12" spans="1:31">
+      <c r="AD11" s="36"/>
+    </row>
+    <row r="12" spans="1:30">
       <c r="A12" s="8">
         <v>44529</v>
       </c>
@@ -1974,18 +1935,17 @@
       <c r="S12" s="9"/>
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="37"/>
-    </row>
-    <row r="13" spans="1:31">
+      <c r="AD12" s="36"/>
+    </row>
+    <row r="13" spans="1:30">
       <c r="A13" s="8">
         <v>44530</v>
       </c>
@@ -2009,18 +1969,17 @@
       <c r="S13" s="9"/>
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="37"/>
-    </row>
-    <row r="14" spans="1:31">
+      <c r="AD13" s="36"/>
+    </row>
+    <row r="14" spans="1:30">
       <c r="A14" s="8">
         <v>44531</v>
       </c>
@@ -2044,18 +2003,17 @@
       <c r="S14" s="9"/>
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="2"/>
-      <c r="AE14" s="37"/>
-    </row>
-    <row r="15" spans="1:31">
+      <c r="AD14" s="36"/>
+    </row>
+    <row r="15" spans="1:30">
       <c r="A15" s="8">
         <v>44532</v>
       </c>
@@ -2079,18 +2037,17 @@
       <c r="S15" s="9"/>
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="37"/>
-    </row>
-    <row r="16" spans="1:31">
+      <c r="AD15" s="36"/>
+    </row>
+    <row r="16" spans="1:30">
       <c r="A16" s="8">
         <v>44533</v>
       </c>
@@ -2114,18 +2071,17 @@
       <c r="S16" s="9"/>
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="37"/>
-    </row>
-    <row r="17" spans="1:31">
+      <c r="AD16" s="36"/>
+    </row>
+    <row r="17" spans="1:30">
       <c r="A17" s="8">
         <v>44534</v>
       </c>
@@ -2149,18 +2105,17 @@
       <c r="S17" s="9"/>
       <c r="T17" s="9"/>
       <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="37"/>
-    </row>
-    <row r="18" spans="1:31">
+      <c r="AD17" s="36"/>
+    </row>
+    <row r="18" spans="1:30">
       <c r="A18" s="8">
         <v>44535</v>
       </c>
@@ -2184,18 +2139,17 @@
       <c r="S18" s="9"/>
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-      <c r="AD18" s="2"/>
-      <c r="AE18" s="37"/>
-    </row>
-    <row r="19" spans="1:31">
+      <c r="AD18" s="36"/>
+    </row>
+    <row r="19" spans="1:30">
       <c r="A19" s="8">
         <v>44536</v>
       </c>
@@ -2219,18 +2173,17 @@
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="2"/>
-      <c r="AE19" s="37"/>
-    </row>
-    <row r="20" spans="1:31">
+      <c r="AD19" s="36"/>
+    </row>
+    <row r="20" spans="1:30">
       <c r="A20" s="8">
         <v>44537</v>
       </c>
@@ -2254,18 +2207,17 @@
       <c r="S20" s="9"/>
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="2"/>
-      <c r="AE20" s="37"/>
-    </row>
-    <row r="21" spans="1:31">
+      <c r="AD20" s="36"/>
+    </row>
+    <row r="21" spans="1:30">
       <c r="A21" s="8">
         <v>44538</v>
       </c>
@@ -2289,18 +2241,17 @@
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="37"/>
-    </row>
-    <row r="22" spans="1:31">
+      <c r="AD21" s="36"/>
+    </row>
+    <row r="22" spans="1:30">
       <c r="A22" s="8">
         <v>44539</v>
       </c>
@@ -2324,18 +2275,17 @@
       <c r="S22" s="9"/>
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="2"/>
-      <c r="AE22" s="37"/>
-    </row>
-    <row r="23" spans="1:31">
+      <c r="AD22" s="36"/>
+    </row>
+    <row r="23" spans="1:30">
       <c r="A23" s="8">
         <v>44540</v>
       </c>
@@ -2359,18 +2309,17 @@
       <c r="S23" s="9"/>
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="2"/>
-      <c r="AE23" s="37"/>
-    </row>
-    <row r="24" spans="1:31">
+      <c r="AD23" s="36"/>
+    </row>
+    <row r="24" spans="1:30">
       <c r="A24" s="8">
         <v>44541</v>
       </c>
@@ -2394,18 +2343,17 @@
       <c r="S24" s="9"/>
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="37"/>
-    </row>
-    <row r="25" spans="1:31">
+      <c r="AD24" s="36"/>
+    </row>
+    <row r="25" spans="1:30">
       <c r="A25" s="8">
         <v>44542</v>
       </c>
@@ -2429,18 +2377,17 @@
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="2"/>
-      <c r="AE25" s="37"/>
-    </row>
-    <row r="26" spans="1:31">
+      <c r="AD25" s="36"/>
+    </row>
+    <row r="26" spans="1:30">
       <c r="A26" s="8">
         <v>44543</v>
       </c>
@@ -2464,18 +2411,17 @@
       <c r="S26" s="9"/>
       <c r="T26" s="9"/>
       <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="37"/>
-    </row>
-    <row r="27" spans="1:31">
+      <c r="AD26" s="36"/>
+    </row>
+    <row r="27" spans="1:30">
       <c r="A27" s="8">
         <v>44544</v>
       </c>
@@ -2499,18 +2445,17 @@
       <c r="S27" s="9"/>
       <c r="T27" s="9"/>
       <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="37"/>
-    </row>
-    <row r="28" spans="1:31">
+      <c r="AD27" s="36"/>
+    </row>
+    <row r="28" spans="1:30">
       <c r="A28" s="8">
         <v>44545</v>
       </c>
@@ -2535,17 +2480,16 @@
       <c r="T28" s="9"/>
       <c r="U28" s="9"/>
       <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
+      <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="2"/>
-      <c r="AE28" s="37"/>
-    </row>
-    <row r="29" spans="1:31">
+      <c r="AD28" s="36"/>
+    </row>
+    <row r="29" spans="1:30">
       <c r="A29" s="8">
         <v>44546</v>
       </c>
@@ -2570,17 +2514,16 @@
       <c r="T29" s="9"/>
       <c r="U29" s="9"/>
       <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
+      <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="2"/>
-      <c r="AE29" s="37"/>
-    </row>
-    <row r="30" spans="1:31">
+      <c r="AD29" s="36"/>
+    </row>
+    <row r="30" spans="1:30">
       <c r="A30" s="8">
         <v>44547</v>
       </c>
@@ -2605,17 +2548,16 @@
       <c r="T30" s="9"/>
       <c r="U30" s="9"/>
       <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
+      <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="2"/>
-      <c r="AE30" s="37"/>
-    </row>
-    <row r="31" spans="1:31">
+      <c r="AD30" s="36"/>
+    </row>
+    <row r="31" spans="1:30">
       <c r="A31" s="8">
         <v>44548</v>
       </c>
@@ -2640,17 +2582,16 @@
       <c r="T31" s="9"/>
       <c r="U31" s="9"/>
       <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
+      <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="37"/>
-    </row>
-    <row r="32" spans="1:31">
+      <c r="AD31" s="36"/>
+    </row>
+    <row r="32" spans="1:30">
       <c r="A32" s="8">
         <v>44549</v>
       </c>
@@ -2675,17 +2616,16 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
       <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
+      <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="37"/>
-    </row>
-    <row r="33" spans="1:31">
+      <c r="AD32" s="36"/>
+    </row>
+    <row r="33" spans="1:30">
       <c r="A33" s="8">
         <v>44550</v>
       </c>
@@ -2710,17 +2650,16 @@
       <c r="T33" s="9"/>
       <c r="U33" s="9"/>
       <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
+      <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="2"/>
-      <c r="AE33" s="37"/>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AD33" s="36"/>
+    </row>
+    <row r="34" spans="1:30">
       <c r="A34" s="8">
         <v>44551</v>
       </c>
@@ -2745,17 +2684,16 @@
       <c r="T34" s="9"/>
       <c r="U34" s="9"/>
       <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="2"/>
-      <c r="AE34" s="37"/>
-    </row>
-    <row r="35" spans="1:31">
+      <c r="AD34" s="36"/>
+    </row>
+    <row r="35" spans="1:30">
       <c r="A35" s="8">
         <v>44552</v>
       </c>
@@ -2780,17 +2718,16 @@
       <c r="T35" s="9"/>
       <c r="U35" s="9"/>
       <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
+      <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
-      <c r="AD35" s="2"/>
-      <c r="AE35" s="37"/>
-    </row>
-    <row r="36" spans="1:31">
+      <c r="AD35" s="36"/>
+    </row>
+    <row r="36" spans="1:30">
       <c r="A36" s="8">
         <v>44553</v>
       </c>
@@ -2815,17 +2752,16 @@
       <c r="T36" s="9"/>
       <c r="U36" s="9"/>
       <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
+      <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="2"/>
-      <c r="AE36" s="37"/>
-    </row>
-    <row r="37" spans="1:31">
+      <c r="AD36" s="36"/>
+    </row>
+    <row r="37" spans="1:30">
       <c r="A37" s="8">
         <v>44554</v>
       </c>
@@ -2850,17 +2786,16 @@
       <c r="T37" s="9"/>
       <c r="U37" s="9"/>
       <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
+      <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="2"/>
-      <c r="AE37" s="37"/>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AD37" s="36"/>
+    </row>
+    <row r="38" spans="1:30">
       <c r="A38" s="8">
         <v>44555</v>
       </c>
@@ -2885,17 +2820,16 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
       <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
+      <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="2"/>
-      <c r="AE38" s="37"/>
-    </row>
-    <row r="39" spans="1:31">
+      <c r="AD38" s="36"/>
+    </row>
+    <row r="39" spans="1:30">
       <c r="A39" s="8">
         <v>44556</v>
       </c>
@@ -2920,17 +2854,16 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
       <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
+      <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="2"/>
-      <c r="AE39" s="37"/>
-    </row>
-    <row r="40" spans="1:31">
+      <c r="AD39" s="36"/>
+    </row>
+    <row r="40" spans="1:30">
       <c r="A40" s="8">
         <v>44557</v>
       </c>
@@ -2955,17 +2888,16 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
       <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
+      <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
-      <c r="AD40" s="2"/>
-      <c r="AE40" s="37"/>
-    </row>
-    <row r="41" spans="1:31">
+      <c r="AD40" s="36"/>
+    </row>
+    <row r="41" spans="1:30">
       <c r="A41" s="8">
         <v>44558</v>
       </c>
@@ -2990,17 +2922,16 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
+      <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="37"/>
-    </row>
-    <row r="42" spans="1:31">
+      <c r="AD41" s="36"/>
+    </row>
+    <row r="42" spans="1:30">
       <c r="A42" s="8">
         <v>44559</v>
       </c>
@@ -3025,17 +2956,16 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
       <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
+      <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="2"/>
-      <c r="AE42" s="37"/>
-    </row>
-    <row r="43" spans="1:31">
+      <c r="AD42" s="36"/>
+    </row>
+    <row r="43" spans="1:30">
       <c r="A43" s="8">
         <v>44560</v>
       </c>
@@ -3060,17 +2990,16 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
-      <c r="W43" s="9"/>
+      <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
-      <c r="AD43" s="2"/>
-      <c r="AE43" s="37"/>
-    </row>
-    <row r="44" spans="1:31">
+      <c r="AD43" s="36"/>
+    </row>
+    <row r="44" spans="1:30">
       <c r="A44" s="8">
         <v>44561</v>
       </c>
@@ -3095,17 +3024,16 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
       <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
+      <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="2"/>
-      <c r="AE44" s="37"/>
-    </row>
-    <row r="45" spans="1:31">
+      <c r="AD44" s="36"/>
+    </row>
+    <row r="45" spans="1:30">
       <c r="A45" s="8">
         <v>44562</v>
       </c>
@@ -3130,17 +3058,16 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
       <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
+      <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
-      <c r="AD45" s="2"/>
-      <c r="AE45" s="37"/>
-    </row>
-    <row r="46" spans="1:31">
+      <c r="AD45" s="36"/>
+    </row>
+    <row r="46" spans="1:30">
       <c r="A46" s="8">
         <v>44563</v>
       </c>
@@ -3165,17 +3092,16 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
       <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
+      <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="2"/>
-      <c r="AE46" s="37"/>
-    </row>
-    <row r="47" spans="1:31">
+      <c r="AD46" s="36"/>
+    </row>
+    <row r="47" spans="1:30">
       <c r="A47" s="8">
         <v>44564</v>
       </c>
@@ -3200,17 +3126,16 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
       <c r="V47" s="9"/>
-      <c r="W47" s="9"/>
+      <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="2"/>
-      <c r="AE47" s="37"/>
-    </row>
-    <row r="48" spans="1:31">
+      <c r="AD47" s="36"/>
+    </row>
+    <row r="48" spans="1:30">
       <c r="A48" s="8">
         <v>44565</v>
       </c>
@@ -3235,17 +3160,16 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
       <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
+      <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="2"/>
-      <c r="AE48" s="37"/>
-    </row>
-    <row r="49" spans="1:31">
+      <c r="AD48" s="36"/>
+    </row>
+    <row r="49" spans="1:30">
       <c r="A49" s="8">
         <v>44566</v>
       </c>
@@ -3270,17 +3194,16 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
       <c r="V49" s="9"/>
-      <c r="W49" s="9"/>
+      <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="37"/>
-    </row>
-    <row r="50" spans="1:31">
+      <c r="AD49" s="36"/>
+    </row>
+    <row r="50" spans="1:30">
       <c r="A50" s="8">
         <v>44567</v>
       </c>
@@ -3305,17 +3228,16 @@
       <c r="T50" s="9"/>
       <c r="U50" s="9"/>
       <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
+      <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="37"/>
-    </row>
-    <row r="51" spans="1:31">
+      <c r="AD50" s="36"/>
+    </row>
+    <row r="51" spans="1:30">
       <c r="A51" s="8">
         <v>44568</v>
       </c>
@@ -3340,17 +3262,16 @@
       <c r="T51" s="9"/>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
-      <c r="W51" s="9"/>
+      <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="37"/>
-    </row>
-    <row r="52" spans="1:31">
+      <c r="AD51" s="36"/>
+    </row>
+    <row r="52" spans="1:30">
       <c r="A52" s="8">
         <v>44569</v>
       </c>
@@ -3375,17 +3296,16 @@
       <c r="T52" s="9"/>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
+      <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="2"/>
-      <c r="AE52" s="37"/>
-    </row>
-    <row r="53" spans="1:31">
+      <c r="AD52" s="36"/>
+    </row>
+    <row r="53" spans="1:30">
       <c r="A53" s="8">
         <v>44570</v>
       </c>
@@ -3410,17 +3330,16 @@
       <c r="T53" s="9"/>
       <c r="U53" s="9"/>
       <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
+      <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="2"/>
-      <c r="AE53" s="37"/>
-    </row>
-    <row r="54" spans="1:31">
+      <c r="AD53" s="36"/>
+    </row>
+    <row r="54" spans="1:30">
       <c r="A54" s="8">
         <v>44571</v>
       </c>
@@ -3445,17 +3364,16 @@
       <c r="T54" s="9"/>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
+      <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
-      <c r="AD54" s="2"/>
-      <c r="AE54" s="37"/>
-    </row>
-    <row r="55" spans="1:31">
+      <c r="AD54" s="36"/>
+    </row>
+    <row r="55" spans="1:30">
       <c r="A55" s="8">
         <v>44572</v>
       </c>
@@ -3480,17 +3398,16 @@
       <c r="T55" s="9"/>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
-      <c r="W55" s="9"/>
+      <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="2"/>
-      <c r="AE55" s="37"/>
-    </row>
-    <row r="56" spans="1:31">
+      <c r="AD55" s="36"/>
+    </row>
+    <row r="56" spans="1:30">
       <c r="A56" s="8">
         <v>44573</v>
       </c>
@@ -3515,17 +3432,16 @@
       <c r="T56" s="9"/>
       <c r="U56" s="9"/>
       <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
+      <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="2"/>
-      <c r="AE56" s="37"/>
-    </row>
-    <row r="57" spans="1:31">
+      <c r="AD56" s="36"/>
+    </row>
+    <row r="57" spans="1:30">
       <c r="A57" s="8">
         <v>44574</v>
       </c>
@@ -3550,17 +3466,16 @@
       <c r="T57" s="9"/>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
-      <c r="W57" s="9"/>
+      <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="2"/>
-      <c r="AE57" s="37"/>
-    </row>
-    <row r="58" spans="1:31">
+      <c r="AD57" s="36"/>
+    </row>
+    <row r="58" spans="1:30">
       <c r="A58" s="8">
         <v>44575</v>
       </c>
@@ -3585,17 +3500,16 @@
       <c r="T58" s="9"/>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
-      <c r="W58" s="9"/>
+      <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="37"/>
-    </row>
-    <row r="59" spans="1:31">
+      <c r="AD58" s="36"/>
+    </row>
+    <row r="59" spans="1:30">
       <c r="A59" s="8">
         <v>44576</v>
       </c>
@@ -3620,17 +3534,16 @@
       <c r="T59" s="9"/>
       <c r="U59" s="9"/>
       <c r="V59" s="9"/>
-      <c r="W59" s="9"/>
+      <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="37"/>
-    </row>
-    <row r="60" spans="1:31">
+      <c r="AD59" s="36"/>
+    </row>
+    <row r="60" spans="1:30">
       <c r="A60" s="8">
         <v>44577</v>
       </c>
@@ -3655,17 +3568,16 @@
       <c r="T60" s="9"/>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
-      <c r="W60" s="9"/>
+      <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="2"/>
-      <c r="AE60" s="37"/>
-    </row>
-    <row r="61" spans="1:31">
+      <c r="AD60" s="36"/>
+    </row>
+    <row r="61" spans="1:30">
       <c r="A61" s="8">
         <v>44578</v>
       </c>
@@ -3690,17 +3602,16 @@
       <c r="T61" s="9"/>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
-      <c r="W61" s="9"/>
+      <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="37"/>
-    </row>
-    <row r="62" spans="1:31">
+      <c r="AD61" s="36"/>
+    </row>
+    <row r="62" spans="1:30">
       <c r="A62" s="8">
         <v>44579</v>
       </c>
@@ -3725,17 +3636,16 @@
       <c r="T62" s="9"/>
       <c r="U62" s="9"/>
       <c r="V62" s="9"/>
-      <c r="W62" s="9"/>
+      <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="2"/>
-      <c r="AE62" s="37"/>
-    </row>
-    <row r="63" spans="1:31">
+      <c r="AD62" s="36"/>
+    </row>
+    <row r="63" spans="1:30">
       <c r="A63" s="8">
         <v>44580</v>
       </c>
@@ -3760,17 +3670,16 @@
       <c r="T63" s="9"/>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
-      <c r="W63" s="9"/>
+      <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
-      <c r="AD63" s="2"/>
-      <c r="AE63" s="37"/>
-    </row>
-    <row r="64" spans="1:31">
+      <c r="AD63" s="36"/>
+    </row>
+    <row r="64" spans="1:30">
       <c r="A64" s="8">
         <v>44581</v>
       </c>
@@ -3795,17 +3704,16 @@
       <c r="T64" s="9"/>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
-      <c r="W64" s="9"/>
+      <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
-      <c r="AD64" s="2"/>
-      <c r="AE64" s="37"/>
-    </row>
-    <row r="65" spans="1:31">
+      <c r="AD64" s="36"/>
+    </row>
+    <row r="65" spans="1:30">
       <c r="A65" s="8">
         <v>44582</v>
       </c>
@@ -3830,17 +3738,16 @@
       <c r="T65" s="9"/>
       <c r="U65" s="9"/>
       <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
+      <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="2"/>
-      <c r="AE65" s="37"/>
-    </row>
-    <row r="66" spans="1:31">
+      <c r="AD65" s="36"/>
+    </row>
+    <row r="66" spans="1:30">
       <c r="A66" s="8">
         <v>44583</v>
       </c>
@@ -3865,17 +3772,16 @@
       <c r="T66" s="9"/>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
-      <c r="W66" s="9"/>
+      <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
-      <c r="AD66" s="2"/>
-      <c r="AE66" s="37"/>
-    </row>
-    <row r="67" spans="1:31">
+      <c r="AD66" s="36"/>
+    </row>
+    <row r="67" spans="1:30">
       <c r="A67" s="8">
         <v>44584</v>
       </c>
@@ -3900,17 +3806,16 @@
       <c r="T67" s="9"/>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
-      <c r="W67" s="9"/>
+      <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
-      <c r="AD67" s="2"/>
-      <c r="AE67" s="37"/>
-    </row>
-    <row r="68" spans="1:31">
+      <c r="AD67" s="36"/>
+    </row>
+    <row r="68" spans="1:30">
       <c r="A68" s="8">
         <v>44585</v>
       </c>
@@ -3935,17 +3840,16 @@
       <c r="T68" s="9"/>
       <c r="U68" s="9"/>
       <c r="V68" s="9"/>
-      <c r="W68" s="9"/>
+      <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
-      <c r="AD68" s="2"/>
-      <c r="AE68" s="37"/>
-    </row>
-    <row r="69" spans="1:31">
+      <c r="AD68" s="36"/>
+    </row>
+    <row r="69" spans="1:30">
       <c r="A69" s="8">
         <v>44586</v>
       </c>
@@ -3970,17 +3874,16 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
-      <c r="W69" s="9"/>
+      <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="2"/>
-      <c r="AE69" s="37"/>
-    </row>
-    <row r="70" spans="1:31">
+      <c r="AD69" s="36"/>
+    </row>
+    <row r="70" spans="1:30">
       <c r="A70" s="8">
         <v>44587</v>
       </c>
@@ -4005,17 +3908,16 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
-      <c r="W70" s="9"/>
+      <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
-      <c r="AD70" s="2"/>
-      <c r="AE70" s="37"/>
-    </row>
-    <row r="71" spans="1:31">
+      <c r="AD70" s="36"/>
+    </row>
+    <row r="71" spans="1:30">
       <c r="A71" s="8">
         <v>44588</v>
       </c>
@@ -4040,17 +3942,16 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
-      <c r="W71" s="9"/>
+      <c r="W71" s="2"/>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="37"/>
-    </row>
-    <row r="72" spans="1:31">
+      <c r="AD71" s="36"/>
+    </row>
+    <row r="72" spans="1:30">
       <c r="A72" s="8">
         <v>44589</v>
       </c>
@@ -4075,17 +3976,16 @@
       <c r="T72" s="9"/>
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
-      <c r="W72" s="9"/>
+      <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
-      <c r="AD72" s="2"/>
-      <c r="AE72" s="37"/>
-    </row>
-    <row r="73" spans="1:31">
+      <c r="AD72" s="36"/>
+    </row>
+    <row r="73" spans="1:30">
       <c r="A73" s="8">
         <v>44590</v>
       </c>
@@ -4110,17 +4010,16 @@
       <c r="T73" s="9"/>
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
-      <c r="W73" s="9"/>
+      <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
-      <c r="AD73" s="2"/>
-      <c r="AE73" s="37"/>
-    </row>
-    <row r="74" spans="1:31">
+      <c r="AD73" s="36"/>
+    </row>
+    <row r="74" spans="1:30">
       <c r="A74" s="8">
         <v>44591</v>
       </c>
@@ -4145,17 +4044,16 @@
       <c r="T74" s="9"/>
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
+      <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="37"/>
-    </row>
-    <row r="75" spans="1:31">
+      <c r="AD74" s="36"/>
+    </row>
+    <row r="75" spans="1:30">
       <c r="A75" s="8">
         <v>44592</v>
       </c>
@@ -4180,17 +4078,16 @@
       <c r="T75" s="9"/>
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
-      <c r="W75" s="9"/>
+      <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="37"/>
-    </row>
-    <row r="76" spans="1:31">
+      <c r="AD75" s="36"/>
+    </row>
+    <row r="76" spans="1:30">
       <c r="A76" s="8">
         <v>44593</v>
       </c>
@@ -4215,17 +4112,16 @@
       <c r="T76" s="9"/>
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
-      <c r="W76" s="9"/>
+      <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
-      <c r="AD76" s="2"/>
-      <c r="AE76" s="37"/>
-    </row>
-    <row r="77" spans="1:31">
+      <c r="AD76" s="36"/>
+    </row>
+    <row r="77" spans="1:30">
       <c r="A77" s="8">
         <v>44594</v>
       </c>
@@ -4250,17 +4146,16 @@
       <c r="T77" s="9"/>
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
-      <c r="W77" s="9"/>
+      <c r="W77" s="2"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
-      <c r="AD77" s="2"/>
-      <c r="AE77" s="37"/>
-    </row>
-    <row r="78" spans="1:31">
+      <c r="AD77" s="36"/>
+    </row>
+    <row r="78" spans="1:30">
       <c r="A78" s="8">
         <v>44595</v>
       </c>
@@ -4285,17 +4180,16 @@
       <c r="T78" s="9"/>
       <c r="U78" s="9"/>
       <c r="V78" s="9"/>
-      <c r="W78" s="9"/>
+      <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="37"/>
-    </row>
-    <row r="79" spans="1:31">
+      <c r="AD78" s="36"/>
+    </row>
+    <row r="79" spans="1:30">
       <c r="A79" s="8">
         <v>44596</v>
       </c>
@@ -4320,17 +4214,16 @@
       <c r="T79" s="9"/>
       <c r="U79" s="9"/>
       <c r="V79" s="9"/>
-      <c r="W79" s="9"/>
+      <c r="W79" s="2"/>
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
-      <c r="AD79" s="2"/>
-      <c r="AE79" s="37"/>
-    </row>
-    <row r="80" spans="1:31">
+      <c r="AD79" s="36"/>
+    </row>
+    <row r="80" spans="1:30">
       <c r="A80" s="8">
         <v>44597</v>
       </c>
@@ -4355,17 +4248,16 @@
       <c r="T80" s="9"/>
       <c r="U80" s="9"/>
       <c r="V80" s="9"/>
-      <c r="W80" s="9"/>
+      <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
-      <c r="AD80" s="2"/>
-      <c r="AE80" s="37"/>
-    </row>
-    <row r="81" spans="1:31">
+      <c r="AD80" s="36"/>
+    </row>
+    <row r="81" spans="1:30">
       <c r="A81" s="8">
         <v>44598</v>
       </c>
@@ -4390,17 +4282,16 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
+      <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="37"/>
-    </row>
-    <row r="82" spans="1:31">
+      <c r="AD81" s="36"/>
+    </row>
+    <row r="82" spans="1:30">
       <c r="A82" s="8">
         <v>44599</v>
       </c>
@@ -4425,17 +4316,16 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
+      <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
-      <c r="AD82" s="2"/>
-      <c r="AE82" s="37"/>
-    </row>
-    <row r="83" spans="1:31">
+      <c r="AD82" s="36"/>
+    </row>
+    <row r="83" spans="1:30">
       <c r="A83" s="8">
         <v>44600</v>
       </c>
@@ -4460,17 +4350,16 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
+      <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
-      <c r="AD83" s="2"/>
-      <c r="AE83" s="37"/>
-    </row>
-    <row r="84" spans="1:31">
+      <c r="AD83" s="36"/>
+    </row>
+    <row r="84" spans="1:30">
       <c r="A84" s="8">
         <v>44601</v>
       </c>
@@ -4495,17 +4384,16 @@
       <c r="T84" s="9"/>
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
-      <c r="W84" s="9"/>
+      <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="37"/>
-    </row>
-    <row r="85" spans="1:31">
+      <c r="AD84" s="36"/>
+    </row>
+    <row r="85" spans="1:30">
       <c r="A85" s="8">
         <v>44602</v>
       </c>
@@ -4530,17 +4418,16 @@
       <c r="T85" s="9"/>
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
-      <c r="W85" s="9"/>
+      <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="2"/>
-      <c r="AE85" s="37"/>
-    </row>
-    <row r="86" spans="1:31">
+      <c r="AD85" s="36"/>
+    </row>
+    <row r="86" spans="1:30">
       <c r="A86" s="8">
         <v>44603</v>
       </c>
@@ -4565,17 +4452,16 @@
       <c r="T86" s="9"/>
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
-      <c r="W86" s="9"/>
+      <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
-      <c r="AD86" s="2"/>
-      <c r="AE86" s="37"/>
-    </row>
-    <row r="87" spans="1:31">
+      <c r="AD86" s="36"/>
+    </row>
+    <row r="87" spans="1:30">
       <c r="A87" s="8">
         <v>44604</v>
       </c>
@@ -4600,17 +4486,16 @@
       <c r="T87" s="9"/>
       <c r="U87" s="9"/>
       <c r="V87" s="9"/>
-      <c r="W87" s="9"/>
+      <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
-      <c r="AD87" s="2"/>
-      <c r="AE87" s="37"/>
-    </row>
-    <row r="88" spans="1:31">
+      <c r="AD87" s="36"/>
+    </row>
+    <row r="88" spans="1:30">
       <c r="A88" s="8">
         <v>44605</v>
       </c>
@@ -4635,17 +4520,16 @@
       <c r="T88" s="9"/>
       <c r="U88" s="9"/>
       <c r="V88" s="9"/>
-      <c r="W88" s="9"/>
+      <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
-      <c r="AD88" s="2"/>
-      <c r="AE88" s="37"/>
-    </row>
-    <row r="89" spans="1:31">
+      <c r="AD88" s="36"/>
+    </row>
+    <row r="89" spans="1:30">
       <c r="A89" s="8">
         <v>44606</v>
       </c>
@@ -4670,17 +4554,16 @@
       <c r="T89" s="9"/>
       <c r="U89" s="9"/>
       <c r="V89" s="9"/>
-      <c r="W89" s="9"/>
+      <c r="W89" s="2"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
-      <c r="AD89" s="2"/>
-      <c r="AE89" s="37"/>
-    </row>
-    <row r="90" spans="1:31">
+      <c r="AD89" s="36"/>
+    </row>
+    <row r="90" spans="1:30">
       <c r="A90" s="8">
         <v>44607</v>
       </c>
@@ -4705,17 +4588,16 @@
       <c r="T90" s="9"/>
       <c r="U90" s="9"/>
       <c r="V90" s="9"/>
-      <c r="W90" s="9"/>
+      <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
-      <c r="AD90" s="2"/>
-      <c r="AE90" s="37"/>
-    </row>
-    <row r="91" spans="1:31">
+      <c r="AD90" s="36"/>
+    </row>
+    <row r="91" spans="1:30">
       <c r="A91" s="8">
         <v>44608</v>
       </c>
@@ -4740,17 +4622,16 @@
       <c r="T91" s="9"/>
       <c r="U91" s="9"/>
       <c r="V91" s="9"/>
-      <c r="W91" s="9"/>
+      <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="37"/>
-    </row>
-    <row r="92" spans="1:31">
+      <c r="AD91" s="36"/>
+    </row>
+    <row r="92" spans="1:30">
       <c r="A92" s="8">
         <v>44609</v>
       </c>
@@ -4775,17 +4656,16 @@
       <c r="T92" s="9"/>
       <c r="U92" s="9"/>
       <c r="V92" s="9"/>
-      <c r="W92" s="9"/>
+      <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
-      <c r="AD92" s="2"/>
-      <c r="AE92" s="37"/>
-    </row>
-    <row r="93" spans="1:31">
+      <c r="AD92" s="36"/>
+    </row>
+    <row r="93" spans="1:30">
       <c r="A93" s="8">
         <v>44610</v>
       </c>
@@ -4810,17 +4690,16 @@
       <c r="T93" s="9"/>
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
-      <c r="W93" s="9"/>
+      <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
-      <c r="AD93" s="2"/>
-      <c r="AE93" s="37"/>
-    </row>
-    <row r="94" spans="1:31">
+      <c r="AD93" s="36"/>
+    </row>
+    <row r="94" spans="1:30">
       <c r="A94" s="8">
         <v>44611</v>
       </c>
@@ -4845,17 +4724,16 @@
       <c r="T94" s="9"/>
       <c r="U94" s="9"/>
       <c r="V94" s="9"/>
-      <c r="W94" s="9"/>
+      <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
-      <c r="AD94" s="2"/>
-      <c r="AE94" s="37"/>
-    </row>
-    <row r="95" spans="1:31">
+      <c r="AD94" s="36"/>
+    </row>
+    <row r="95" spans="1:30">
       <c r="A95" s="8">
         <v>44612</v>
       </c>
@@ -4880,17 +4758,16 @@
       <c r="T95" s="9"/>
       <c r="U95" s="9"/>
       <c r="V95" s="9"/>
-      <c r="W95" s="9"/>
+      <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
-      <c r="AD95" s="2"/>
-      <c r="AE95" s="37"/>
-    </row>
-    <row r="96" spans="1:31">
+      <c r="AD95" s="36"/>
+    </row>
+    <row r="96" spans="1:30">
       <c r="A96" s="8">
         <v>44613</v>
       </c>
@@ -4915,17 +4792,16 @@
       <c r="T96" s="9"/>
       <c r="U96" s="9"/>
       <c r="V96" s="9"/>
-      <c r="W96" s="9"/>
+      <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="37"/>
-    </row>
-    <row r="97" spans="1:31">
+      <c r="AD96" s="36"/>
+    </row>
+    <row r="97" spans="1:30">
       <c r="A97" s="8">
         <v>44614</v>
       </c>
@@ -4950,17 +4826,16 @@
       <c r="T97" s="9"/>
       <c r="U97" s="9"/>
       <c r="V97" s="9"/>
-      <c r="W97" s="9"/>
+      <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-      <c r="AE97" s="37"/>
-    </row>
-    <row r="98" spans="1:31">
+      <c r="AD97" s="36"/>
+    </row>
+    <row r="98" spans="1:30">
       <c r="A98" s="8">
         <v>44615</v>
       </c>
@@ -4985,17 +4860,16 @@
       <c r="T98" s="9"/>
       <c r="U98" s="9"/>
       <c r="V98" s="9"/>
-      <c r="W98" s="9"/>
+      <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
-      <c r="AD98" s="2"/>
-      <c r="AE98" s="37"/>
-    </row>
-    <row r="99" spans="1:31">
+      <c r="AD98" s="36"/>
+    </row>
+    <row r="99" spans="1:30">
       <c r="A99" s="8">
         <v>44616</v>
       </c>
@@ -5020,17 +4894,16 @@
       <c r="T99" s="9"/>
       <c r="U99" s="9"/>
       <c r="V99" s="9"/>
-      <c r="W99" s="9"/>
+      <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="37"/>
-    </row>
-    <row r="100" spans="1:31">
+      <c r="AD99" s="36"/>
+    </row>
+    <row r="100" spans="1:30">
       <c r="A100" s="8">
         <v>44617</v>
       </c>
@@ -5055,17 +4928,16 @@
       <c r="T100" s="9"/>
       <c r="U100" s="9"/>
       <c r="V100" s="9"/>
-      <c r="W100" s="9"/>
+      <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
-      <c r="AD100" s="2"/>
-      <c r="AE100" s="37"/>
-    </row>
-    <row r="101" spans="1:31">
+      <c r="AD100" s="36"/>
+    </row>
+    <row r="101" spans="1:30">
       <c r="A101" s="8">
         <v>44618</v>
       </c>
@@ -5090,17 +4962,16 @@
       <c r="T101" s="9"/>
       <c r="U101" s="9"/>
       <c r="V101" s="9"/>
-      <c r="W101" s="9"/>
+      <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
-      <c r="AD101" s="2"/>
-      <c r="AE101" s="37"/>
-    </row>
-    <row r="102" spans="1:31">
+      <c r="AD101" s="36"/>
+    </row>
+    <row r="102" spans="1:30">
       <c r="A102" s="8">
         <v>44619</v>
       </c>
@@ -5125,17 +4996,16 @@
       <c r="T102" s="9"/>
       <c r="U102" s="9"/>
       <c r="V102" s="9"/>
-      <c r="W102" s="9"/>
+      <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
-      <c r="AD102" s="2"/>
-      <c r="AE102" s="37"/>
-    </row>
-    <row r="103" spans="1:31">
+      <c r="AD102" s="36"/>
+    </row>
+    <row r="103" spans="1:30">
       <c r="A103" s="8">
         <v>44620</v>
       </c>
@@ -5160,17 +5030,16 @@
       <c r="T103" s="9"/>
       <c r="U103" s="9"/>
       <c r="V103" s="9"/>
-      <c r="W103" s="9"/>
+      <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
-      <c r="AD103" s="2"/>
-      <c r="AE103" s="37"/>
-    </row>
-    <row r="104" spans="1:31">
+      <c r="AD103" s="36"/>
+    </row>
+    <row r="104" spans="1:30">
       <c r="A104" s="8">
         <v>44621</v>
       </c>
@@ -5195,17 +5064,16 @@
       <c r="T104" s="9"/>
       <c r="U104" s="9"/>
       <c r="V104" s="9"/>
-      <c r="W104" s="9"/>
+      <c r="W104" s="2"/>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
-      <c r="AD104" s="2"/>
-      <c r="AE104" s="37"/>
-    </row>
-    <row r="105" spans="1:31">
+      <c r="AD104" s="36"/>
+    </row>
+    <row r="105" spans="1:30">
       <c r="A105" s="8">
         <v>44622</v>
       </c>
@@ -5230,17 +5098,16 @@
       <c r="T105" s="9"/>
       <c r="U105" s="9"/>
       <c r="V105" s="9"/>
-      <c r="W105" s="9"/>
+      <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
-      <c r="AD105" s="2"/>
-      <c r="AE105" s="37"/>
-    </row>
-    <row r="106" spans="1:31">
+      <c r="AD105" s="36"/>
+    </row>
+    <row r="106" spans="1:30">
       <c r="A106" s="8">
         <v>44623</v>
       </c>
@@ -5265,17 +5132,16 @@
       <c r="T106" s="9"/>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
-      <c r="W106" s="9"/>
+      <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
-      <c r="AD106" s="2"/>
-      <c r="AE106" s="37"/>
-    </row>
-    <row r="107" spans="1:31">
+      <c r="AD106" s="36"/>
+    </row>
+    <row r="107" spans="1:30">
       <c r="A107" s="8">
         <v>44624</v>
       </c>
@@ -5300,17 +5166,16 @@
       <c r="T107" s="9"/>
       <c r="U107" s="9"/>
       <c r="V107" s="9"/>
-      <c r="W107" s="9"/>
+      <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
-      <c r="AD107" s="2"/>
-      <c r="AE107" s="37"/>
-    </row>
-    <row r="108" spans="1:31">
+      <c r="AD107" s="36"/>
+    </row>
+    <row r="108" spans="1:30">
       <c r="A108" s="8">
         <v>44625</v>
       </c>
@@ -5335,17 +5200,16 @@
       <c r="T108" s="9"/>
       <c r="U108" s="9"/>
       <c r="V108" s="9"/>
-      <c r="W108" s="9"/>
+      <c r="W108" s="2"/>
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
-      <c r="AD108" s="2"/>
-      <c r="AE108" s="37"/>
-    </row>
-    <row r="109" spans="1:31">
+      <c r="AD108" s="36"/>
+    </row>
+    <row r="109" spans="1:30">
       <c r="A109" s="8">
         <v>44626</v>
       </c>
@@ -5370,17 +5234,16 @@
       <c r="T109" s="9"/>
       <c r="U109" s="9"/>
       <c r="V109" s="9"/>
-      <c r="W109" s="9"/>
+      <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
-      <c r="AD109" s="2"/>
-      <c r="AE109" s="37"/>
-    </row>
-    <row r="110" spans="1:31">
+      <c r="AD109" s="36"/>
+    </row>
+    <row r="110" spans="1:30">
       <c r="A110" s="8">
         <v>44627</v>
       </c>
@@ -5405,17 +5268,16 @@
       <c r="T110" s="9"/>
       <c r="U110" s="9"/>
       <c r="V110" s="9"/>
-      <c r="W110" s="9"/>
+      <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
-      <c r="AE110" s="37"/>
-    </row>
-    <row r="111" spans="1:31">
+      <c r="AD110" s="36"/>
+    </row>
+    <row r="111" spans="1:30">
       <c r="A111" s="8">
         <v>44628</v>
       </c>
@@ -5440,17 +5302,16 @@
       <c r="T111" s="9"/>
       <c r="U111" s="9"/>
       <c r="V111" s="9"/>
-      <c r="W111" s="9"/>
+      <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
-      <c r="AD111" s="2"/>
-      <c r="AE111" s="37"/>
-    </row>
-    <row r="112" spans="1:31">
+      <c r="AD111" s="36"/>
+    </row>
+    <row r="112" spans="1:30">
       <c r="A112" s="8">
         <v>44629</v>
       </c>
@@ -5475,17 +5336,16 @@
       <c r="T112" s="9"/>
       <c r="U112" s="9"/>
       <c r="V112" s="9"/>
-      <c r="W112" s="9"/>
+      <c r="W112" s="2"/>
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="37"/>
-    </row>
-    <row r="113" spans="1:31">
+      <c r="AD112" s="36"/>
+    </row>
+    <row r="113" spans="1:30">
       <c r="A113" s="8">
         <v>44630</v>
       </c>
@@ -5510,17 +5370,16 @@
       <c r="T113" s="9"/>
       <c r="U113" s="9"/>
       <c r="V113" s="9"/>
-      <c r="W113" s="9"/>
+      <c r="W113" s="2"/>
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
-      <c r="AD113" s="2"/>
-      <c r="AE113" s="37"/>
-    </row>
-    <row r="114" spans="1:31">
+      <c r="AD113" s="36"/>
+    </row>
+    <row r="114" spans="1:30">
       <c r="A114" s="8">
         <v>44631</v>
       </c>
@@ -5545,17 +5404,16 @@
       <c r="T114" s="9"/>
       <c r="U114" s="9"/>
       <c r="V114" s="9"/>
-      <c r="W114" s="9"/>
+      <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="37"/>
-    </row>
-    <row r="115" spans="1:31">
+      <c r="AD114" s="36"/>
+    </row>
+    <row r="115" spans="1:30">
       <c r="A115" s="8">
         <v>44632</v>
       </c>
@@ -5580,17 +5438,16 @@
       <c r="T115" s="9"/>
       <c r="U115" s="9"/>
       <c r="V115" s="9"/>
-      <c r="W115" s="9"/>
+      <c r="W115" s="2"/>
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
-      <c r="AD115" s="2"/>
-      <c r="AE115" s="37"/>
-    </row>
-    <row r="116" spans="1:31">
+      <c r="AD115" s="36"/>
+    </row>
+    <row r="116" spans="1:30">
       <c r="A116" s="8">
         <v>44633</v>
       </c>
@@ -5615,17 +5472,16 @@
       <c r="T116" s="9"/>
       <c r="U116" s="9"/>
       <c r="V116" s="9"/>
-      <c r="W116" s="9"/>
+      <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
-      <c r="AD116" s="2"/>
-      <c r="AE116" s="37"/>
-    </row>
-    <row r="117" spans="1:31">
+      <c r="AD116" s="36"/>
+    </row>
+    <row r="117" spans="1:30">
       <c r="A117" s="8">
         <v>44634</v>
       </c>
@@ -5650,17 +5506,16 @@
       <c r="T117" s="9"/>
       <c r="U117" s="9"/>
       <c r="V117" s="9"/>
-      <c r="W117" s="9"/>
+      <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
-      <c r="AD117" s="2"/>
-      <c r="AE117" s="37"/>
-    </row>
-    <row r="118" spans="1:31">
+      <c r="AD117" s="36"/>
+    </row>
+    <row r="118" spans="1:30">
       <c r="A118" s="8">
         <v>44635</v>
       </c>
@@ -5685,17 +5540,16 @@
       <c r="T118" s="9"/>
       <c r="U118" s="9"/>
       <c r="V118" s="9"/>
-      <c r="W118" s="9"/>
+      <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
-      <c r="AD118" s="2"/>
-      <c r="AE118" s="37"/>
-    </row>
-    <row r="119" spans="1:31">
+      <c r="AD118" s="36"/>
+    </row>
+    <row r="119" spans="1:30">
       <c r="A119" s="8">
         <v>44636</v>
       </c>
@@ -5720,17 +5574,16 @@
       <c r="T119" s="9"/>
       <c r="U119" s="9"/>
       <c r="V119" s="9"/>
-      <c r="W119" s="9"/>
+      <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="2"/>
-      <c r="AE119" s="37"/>
-    </row>
-    <row r="120" spans="1:31">
+      <c r="AD119" s="36"/>
+    </row>
+    <row r="120" spans="1:30">
       <c r="A120" s="8">
         <v>44637</v>
       </c>
@@ -5755,17 +5608,16 @@
       <c r="T120" s="9"/>
       <c r="U120" s="9"/>
       <c r="V120" s="9"/>
-      <c r="W120" s="9"/>
+      <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
-      <c r="AD120" s="2"/>
-      <c r="AE120" s="37"/>
-    </row>
-    <row r="121" spans="1:31">
+      <c r="AD120" s="36"/>
+    </row>
+    <row r="121" spans="1:30">
       <c r="A121" s="8">
         <v>44638</v>
       </c>
@@ -5790,17 +5642,16 @@
       <c r="T121" s="9"/>
       <c r="U121" s="9"/>
       <c r="V121" s="9"/>
-      <c r="W121" s="9"/>
+      <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
-      <c r="AD121" s="2"/>
-      <c r="AE121" s="37"/>
-    </row>
-    <row r="122" spans="1:31">
+      <c r="AD121" s="36"/>
+    </row>
+    <row r="122" spans="1:30">
       <c r="A122" s="8">
         <v>44639</v>
       </c>
@@ -5825,17 +5676,16 @@
       <c r="T122" s="9"/>
       <c r="U122" s="9"/>
       <c r="V122" s="9"/>
-      <c r="W122" s="9"/>
+      <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
-      <c r="AD122" s="2"/>
-      <c r="AE122" s="37"/>
-    </row>
-    <row r="123" spans="1:31">
+      <c r="AD122" s="36"/>
+    </row>
+    <row r="123" spans="1:30">
       <c r="A123" s="8">
         <v>44640</v>
       </c>
@@ -5860,17 +5710,16 @@
       <c r="T123" s="9"/>
       <c r="U123" s="9"/>
       <c r="V123" s="9"/>
-      <c r="W123" s="9"/>
+      <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
-      <c r="AD123" s="2"/>
-      <c r="AE123" s="37"/>
-    </row>
-    <row r="124" spans="1:31">
+      <c r="AD123" s="36"/>
+    </row>
+    <row r="124" spans="1:30">
       <c r="A124" s="8">
         <v>44641</v>
       </c>
@@ -5895,17 +5744,16 @@
       <c r="T124" s="9"/>
       <c r="U124" s="9"/>
       <c r="V124" s="9"/>
-      <c r="W124" s="9"/>
+      <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
-      <c r="AD124" s="2"/>
-      <c r="AE124" s="37"/>
-    </row>
-    <row r="125" spans="1:31">
+      <c r="AD124" s="36"/>
+    </row>
+    <row r="125" spans="1:30">
       <c r="A125" s="8">
         <v>44642</v>
       </c>
@@ -5930,17 +5778,16 @@
       <c r="T125" s="9"/>
       <c r="U125" s="9"/>
       <c r="V125" s="9"/>
-      <c r="W125" s="9"/>
+      <c r="W125" s="2"/>
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
-      <c r="AD125" s="2"/>
-      <c r="AE125" s="37"/>
-    </row>
-    <row r="126" spans="1:31">
+      <c r="AD125" s="36"/>
+    </row>
+    <row r="126" spans="1:30">
       <c r="A126" s="8">
         <v>44643</v>
       </c>
@@ -5965,17 +5812,16 @@
       <c r="T126" s="9"/>
       <c r="U126" s="9"/>
       <c r="V126" s="9"/>
-      <c r="W126" s="9"/>
+      <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
-      <c r="AD126" s="2"/>
-      <c r="AE126" s="37"/>
-    </row>
-    <row r="127" spans="1:31">
+      <c r="AD126" s="36"/>
+    </row>
+    <row r="127" spans="1:30">
       <c r="A127" s="8">
         <v>44644</v>
       </c>
@@ -6000,17 +5846,16 @@
       <c r="T127" s="9"/>
       <c r="U127" s="9"/>
       <c r="V127" s="9"/>
-      <c r="W127" s="9"/>
+      <c r="W127" s="2"/>
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
-      <c r="AD127" s="2"/>
-      <c r="AE127" s="37"/>
-    </row>
-    <row r="128" spans="1:31">
+      <c r="AD127" s="36"/>
+    </row>
+    <row r="128" spans="1:30">
       <c r="A128" s="8">
         <v>44645</v>
       </c>
@@ -6035,17 +5880,16 @@
       <c r="T128" s="9"/>
       <c r="U128" s="9"/>
       <c r="V128" s="9"/>
-      <c r="W128" s="9"/>
+      <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
-      <c r="AD128" s="2"/>
-      <c r="AE128" s="37"/>
-    </row>
-    <row r="129" spans="1:31">
+      <c r="AD128" s="36"/>
+    </row>
+    <row r="129" spans="1:30">
       <c r="A129" s="8">
         <v>44646</v>
       </c>
@@ -6070,17 +5914,16 @@
       <c r="T129" s="9"/>
       <c r="U129" s="9"/>
       <c r="V129" s="9"/>
-      <c r="W129" s="9"/>
+      <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="2"/>
-      <c r="AE129" s="37"/>
-    </row>
-    <row r="130" spans="1:31">
+      <c r="AD129" s="36"/>
+    </row>
+    <row r="130" spans="1:30">
       <c r="A130" s="8">
         <v>44647</v>
       </c>
@@ -6105,17 +5948,16 @@
       <c r="T130" s="9"/>
       <c r="U130" s="9"/>
       <c r="V130" s="9"/>
-      <c r="W130" s="9"/>
+      <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
-      <c r="AD130" s="2"/>
-      <c r="AE130" s="37"/>
-    </row>
-    <row r="131" spans="1:31">
+      <c r="AD130" s="36"/>
+    </row>
+    <row r="131" spans="1:30">
       <c r="A131" s="8">
         <v>44648</v>
       </c>
@@ -6140,17 +5982,16 @@
       <c r="T131" s="9"/>
       <c r="U131" s="9"/>
       <c r="V131" s="9"/>
-      <c r="W131" s="9"/>
+      <c r="W131" s="2"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
-      <c r="AD131" s="2"/>
-      <c r="AE131" s="37"/>
-    </row>
-    <row r="132" spans="1:31">
+      <c r="AD131" s="36"/>
+    </row>
+    <row r="132" spans="1:30">
       <c r="A132" s="8">
         <v>44649</v>
       </c>
@@ -6175,17 +6016,16 @@
       <c r="T132" s="9"/>
       <c r="U132" s="9"/>
       <c r="V132" s="9"/>
-      <c r="W132" s="9"/>
+      <c r="W132" s="2"/>
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
-      <c r="AD132" s="2"/>
-      <c r="AE132" s="37"/>
-    </row>
-    <row r="133" spans="1:23">
+      <c r="AD132" s="36"/>
+    </row>
+    <row r="133" spans="1:22">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6204,10 +6044,9 @@
       <c r="Q133" s="1"/>
       <c r="R133" s="1"/>
       <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="W133" s="1"/>
-    </row>
-    <row r="134" spans="1:23">
+      <c r="V133" s="1"/>
+    </row>
+    <row r="134" spans="1:22">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
@@ -6226,10 +6065,9 @@
       <c r="Q134" s="1"/>
       <c r="R134" s="1"/>
       <c r="S134" s="1"/>
-      <c r="T134" s="1"/>
-      <c r="W134" s="1"/>
-    </row>
-    <row r="135" spans="1:23">
+      <c r="V134" s="1"/>
+    </row>
+    <row r="135" spans="1:22">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -6248,10 +6086,9 @@
       <c r="Q135" s="1"/>
       <c r="R135" s="1"/>
       <c r="S135" s="1"/>
-      <c r="T135" s="1"/>
-      <c r="W135" s="1"/>
-    </row>
-    <row r="136" spans="1:23">
+      <c r="V135" s="1"/>
+    </row>
+    <row r="136" spans="1:22">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -6270,10 +6107,9 @@
       <c r="Q136" s="1"/>
       <c r="R136" s="1"/>
       <c r="S136" s="1"/>
-      <c r="T136" s="1"/>
-      <c r="W136" s="1"/>
-    </row>
-    <row r="137" spans="1:23">
+      <c r="V136" s="1"/>
+    </row>
+    <row r="137" spans="1:22">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -6292,10 +6128,9 @@
       <c r="Q137" s="1"/>
       <c r="R137" s="1"/>
       <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="W137" s="1"/>
-    </row>
-    <row r="138" spans="1:23">
+      <c r="V137" s="1"/>
+    </row>
+    <row r="138" spans="1:22">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -6314,10 +6149,9 @@
       <c r="Q138" s="1"/>
       <c r="R138" s="1"/>
       <c r="S138" s="1"/>
-      <c r="T138" s="1"/>
-      <c r="W138" s="1"/>
-    </row>
-    <row r="139" spans="1:23">
+      <c r="V138" s="1"/>
+    </row>
+    <row r="139" spans="1:22">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
@@ -6336,10 +6170,9 @@
       <c r="Q139" s="1"/>
       <c r="R139" s="1"/>
       <c r="S139" s="1"/>
-      <c r="T139" s="1"/>
-      <c r="W139" s="1"/>
-    </row>
-    <row r="140" spans="1:23">
+      <c r="V139" s="1"/>
+    </row>
+    <row r="140" spans="1:22">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
@@ -6358,10 +6191,9 @@
       <c r="Q140" s="1"/>
       <c r="R140" s="1"/>
       <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="W140" s="1"/>
-    </row>
-    <row r="141" spans="1:23">
+      <c r="V140" s="1"/>
+    </row>
+    <row r="141" spans="1:22">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
@@ -6380,10 +6212,9 @@
       <c r="Q141" s="1"/>
       <c r="R141" s="1"/>
       <c r="S141" s="1"/>
-      <c r="T141" s="1"/>
-      <c r="W141" s="1"/>
-    </row>
-    <row r="142" spans="1:23">
+      <c r="V141" s="1"/>
+    </row>
+    <row r="142" spans="1:22">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
@@ -6402,10 +6233,9 @@
       <c r="Q142" s="1"/>
       <c r="R142" s="1"/>
       <c r="S142" s="1"/>
-      <c r="T142" s="1"/>
-      <c r="W142" s="1"/>
-    </row>
-    <row r="143" spans="1:23">
+      <c r="V142" s="1"/>
+    </row>
+    <row r="143" spans="1:22">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
@@ -6424,10 +6254,9 @@
       <c r="Q143" s="1"/>
       <c r="R143" s="1"/>
       <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="W143" s="1"/>
-    </row>
-    <row r="144" spans="1:23">
+      <c r="V143" s="1"/>
+    </row>
+    <row r="144" spans="1:22">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
@@ -6446,10 +6275,9 @@
       <c r="Q144" s="1"/>
       <c r="R144" s="1"/>
       <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="W144" s="1"/>
-    </row>
-    <row r="145" spans="1:23">
+      <c r="V144" s="1"/>
+    </row>
+    <row r="145" spans="1:22">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
@@ -6468,10 +6296,9 @@
       <c r="Q145" s="1"/>
       <c r="R145" s="1"/>
       <c r="S145" s="1"/>
-      <c r="T145" s="1"/>
-      <c r="W145" s="1"/>
-    </row>
-    <row r="146" spans="1:23">
+      <c r="V145" s="1"/>
+    </row>
+    <row r="146" spans="1:22">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
@@ -6490,10 +6317,9 @@
       <c r="Q146" s="1"/>
       <c r="R146" s="1"/>
       <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="W146" s="1"/>
-    </row>
-    <row r="147" spans="1:23">
+      <c r="V146" s="1"/>
+    </row>
+    <row r="147" spans="1:22">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
@@ -6512,10 +6338,9 @@
       <c r="Q147" s="1"/>
       <c r="R147" s="1"/>
       <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="W147" s="1"/>
-    </row>
-    <row r="148" spans="1:23">
+      <c r="V147" s="1"/>
+    </row>
+    <row r="148" spans="1:22">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
@@ -6534,10 +6359,9 @@
       <c r="Q148" s="1"/>
       <c r="R148" s="1"/>
       <c r="S148" s="1"/>
-      <c r="T148" s="1"/>
-      <c r="W148" s="1"/>
-    </row>
-    <row r="149" spans="1:23">
+      <c r="V148" s="1"/>
+    </row>
+    <row r="149" spans="1:22">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
@@ -6556,10 +6380,9 @@
       <c r="Q149" s="1"/>
       <c r="R149" s="1"/>
       <c r="S149" s="1"/>
-      <c r="T149" s="1"/>
-      <c r="W149" s="1"/>
-    </row>
-    <row r="150" spans="1:23">
+      <c r="V149" s="1"/>
+    </row>
+    <row r="150" spans="1:22">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
@@ -6578,10 +6401,9 @@
       <c r="Q150" s="1"/>
       <c r="R150" s="1"/>
       <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="W150" s="1"/>
-    </row>
-    <row r="151" spans="1:23">
+      <c r="V150" s="1"/>
+    </row>
+    <row r="151" spans="1:22">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
@@ -6600,10 +6422,9 @@
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
       <c r="S151" s="1"/>
-      <c r="T151" s="1"/>
-      <c r="W151" s="1"/>
-    </row>
-    <row r="152" spans="1:23">
+      <c r="V151" s="1"/>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
@@ -6622,10 +6443,9 @@
       <c r="Q152" s="1"/>
       <c r="R152" s="1"/>
       <c r="S152" s="1"/>
-      <c r="T152" s="1"/>
-      <c r="W152" s="1"/>
-    </row>
-    <row r="153" spans="1:23">
+      <c r="V152" s="1"/>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
@@ -6644,10 +6464,9 @@
       <c r="Q153" s="1"/>
       <c r="R153" s="1"/>
       <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="W153" s="1"/>
-    </row>
-    <row r="154" spans="1:23">
+      <c r="V153" s="1"/>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
@@ -6666,10 +6485,9 @@
       <c r="Q154" s="1"/>
       <c r="R154" s="1"/>
       <c r="S154" s="1"/>
-      <c r="T154" s="1"/>
-      <c r="W154" s="1"/>
-    </row>
-    <row r="155" spans="1:23">
+      <c r="V154" s="1"/>
+    </row>
+    <row r="155" spans="1:22">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
@@ -6688,10 +6506,9 @@
       <c r="Q155" s="1"/>
       <c r="R155" s="1"/>
       <c r="S155" s="1"/>
-      <c r="T155" s="1"/>
-      <c r="W155" s="1"/>
-    </row>
-    <row r="156" spans="1:23">
+      <c r="V155" s="1"/>
+    </row>
+    <row r="156" spans="1:22">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
@@ -6710,10 +6527,9 @@
       <c r="Q156" s="1"/>
       <c r="R156" s="1"/>
       <c r="S156" s="1"/>
-      <c r="T156" s="1"/>
-      <c r="W156" s="1"/>
-    </row>
-    <row r="157" spans="1:23">
+      <c r="V156" s="1"/>
+    </row>
+    <row r="157" spans="1:22">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
@@ -6732,10 +6548,9 @@
       <c r="Q157" s="1"/>
       <c r="R157" s="1"/>
       <c r="S157" s="1"/>
-      <c r="T157" s="1"/>
-      <c r="W157" s="1"/>
-    </row>
-    <row r="158" spans="1:23">
+      <c r="V157" s="1"/>
+    </row>
+    <row r="158" spans="1:22">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
@@ -6754,10 +6569,9 @@
       <c r="Q158" s="1"/>
       <c r="R158" s="1"/>
       <c r="S158" s="1"/>
-      <c r="T158" s="1"/>
-      <c r="W158" s="1"/>
-    </row>
-    <row r="159" spans="1:23">
+      <c r="V158" s="1"/>
+    </row>
+    <row r="159" spans="1:22">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
@@ -6776,10 +6590,9 @@
       <c r="Q159" s="1"/>
       <c r="R159" s="1"/>
       <c r="S159" s="1"/>
-      <c r="T159" s="1"/>
-      <c r="W159" s="1"/>
-    </row>
-    <row r="160" spans="1:23">
+      <c r="V159" s="1"/>
+    </row>
+    <row r="160" spans="1:22">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
@@ -6798,10 +6611,9 @@
       <c r="Q160" s="1"/>
       <c r="R160" s="1"/>
       <c r="S160" s="1"/>
-      <c r="T160" s="1"/>
-      <c r="W160" s="1"/>
-    </row>
-    <row r="161" spans="1:23">
+      <c r="V160" s="1"/>
+    </row>
+    <row r="161" spans="1:22">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
@@ -6820,10 +6632,9 @@
       <c r="Q161" s="1"/>
       <c r="R161" s="1"/>
       <c r="S161" s="1"/>
-      <c r="T161" s="1"/>
-      <c r="W161" s="1"/>
-    </row>
-    <row r="162" spans="1:23">
+      <c r="V161" s="1"/>
+    </row>
+    <row r="162" spans="1:22">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
@@ -6842,10 +6653,9 @@
       <c r="Q162" s="1"/>
       <c r="R162" s="1"/>
       <c r="S162" s="1"/>
-      <c r="T162" s="1"/>
-      <c r="W162" s="1"/>
-    </row>
-    <row r="163" spans="1:23">
+      <c r="V162" s="1"/>
+    </row>
+    <row r="163" spans="1:22">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
@@ -6864,10 +6674,9 @@
       <c r="Q163" s="1"/>
       <c r="R163" s="1"/>
       <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="W163" s="1"/>
-    </row>
-    <row r="164" spans="1:23">
+      <c r="V163" s="1"/>
+    </row>
+    <row r="164" spans="1:22">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
@@ -6886,10 +6695,9 @@
       <c r="Q164" s="1"/>
       <c r="R164" s="1"/>
       <c r="S164" s="1"/>
-      <c r="T164" s="1"/>
-      <c r="W164" s="1"/>
-    </row>
-    <row r="165" spans="1:23">
+      <c r="V164" s="1"/>
+    </row>
+    <row r="165" spans="1:22">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
@@ -6908,10 +6716,9 @@
       <c r="Q165" s="1"/>
       <c r="R165" s="1"/>
       <c r="S165" s="1"/>
-      <c r="T165" s="1"/>
-      <c r="W165" s="1"/>
-    </row>
-    <row r="166" spans="1:23">
+      <c r="V165" s="1"/>
+    </row>
+    <row r="166" spans="1:22">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
@@ -6930,10 +6737,9 @@
       <c r="Q166" s="1"/>
       <c r="R166" s="1"/>
       <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="W166" s="1"/>
-    </row>
-    <row r="167" spans="1:23">
+      <c r="V166" s="1"/>
+    </row>
+    <row r="167" spans="1:22">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
@@ -6952,10 +6758,9 @@
       <c r="Q167" s="1"/>
       <c r="R167" s="1"/>
       <c r="S167" s="1"/>
-      <c r="T167" s="1"/>
-      <c r="W167" s="1"/>
-    </row>
-    <row r="168" spans="1:23">
+      <c r="V167" s="1"/>
+    </row>
+    <row r="168" spans="1:22">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
@@ -6974,10 +6779,9 @@
       <c r="Q168" s="1"/>
       <c r="R168" s="1"/>
       <c r="S168" s="1"/>
-      <c r="T168" s="1"/>
-      <c r="W168" s="1"/>
-    </row>
-    <row r="169" spans="1:23">
+      <c r="V168" s="1"/>
+    </row>
+    <row r="169" spans="1:22">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
@@ -6996,10 +6800,9 @@
       <c r="Q169" s="1"/>
       <c r="R169" s="1"/>
       <c r="S169" s="1"/>
-      <c r="T169" s="1"/>
-      <c r="W169" s="1"/>
-    </row>
-    <row r="170" spans="1:23">
+      <c r="V169" s="1"/>
+    </row>
+    <row r="170" spans="1:22">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
@@ -7018,10 +6821,9 @@
       <c r="Q170" s="1"/>
       <c r="R170" s="1"/>
       <c r="S170" s="1"/>
-      <c r="T170" s="1"/>
-      <c r="W170" s="1"/>
-    </row>
-    <row r="171" spans="1:23">
+      <c r="V170" s="1"/>
+    </row>
+    <row r="171" spans="1:22">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
@@ -7040,10 +6842,9 @@
       <c r="Q171" s="1"/>
       <c r="R171" s="1"/>
       <c r="S171" s="1"/>
-      <c r="T171" s="1"/>
-      <c r="W171" s="1"/>
-    </row>
-    <row r="172" spans="1:23">
+      <c r="V171" s="1"/>
+    </row>
+    <row r="172" spans="1:22">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
@@ -7062,10 +6863,9 @@
       <c r="Q172" s="1"/>
       <c r="R172" s="1"/>
       <c r="S172" s="1"/>
-      <c r="T172" s="1"/>
-      <c r="W172" s="1"/>
-    </row>
-    <row r="173" spans="1:23">
+      <c r="V172" s="1"/>
+    </row>
+    <row r="173" spans="1:22">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
@@ -7084,10 +6884,9 @@
       <c r="Q173" s="1"/>
       <c r="R173" s="1"/>
       <c r="S173" s="1"/>
-      <c r="T173" s="1"/>
-      <c r="W173" s="1"/>
-    </row>
-    <row r="174" spans="1:23">
+      <c r="V173" s="1"/>
+    </row>
+    <row r="174" spans="1:22">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
@@ -7106,10 +6905,9 @@
       <c r="Q174" s="1"/>
       <c r="R174" s="1"/>
       <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="W174" s="1"/>
-    </row>
-    <row r="175" spans="1:23">
+      <c r="V174" s="1"/>
+    </row>
+    <row r="175" spans="1:22">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
@@ -7128,10 +6926,9 @@
       <c r="Q175" s="1"/>
       <c r="R175" s="1"/>
       <c r="S175" s="1"/>
-      <c r="T175" s="1"/>
-      <c r="W175" s="1"/>
-    </row>
-    <row r="176" spans="1:23">
+      <c r="V175" s="1"/>
+    </row>
+    <row r="176" spans="1:22">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
@@ -7150,10 +6947,9 @@
       <c r="Q176" s="1"/>
       <c r="R176" s="1"/>
       <c r="S176" s="1"/>
-      <c r="T176" s="1"/>
-      <c r="W176" s="1"/>
-    </row>
-    <row r="177" spans="1:23">
+      <c r="V176" s="1"/>
+    </row>
+    <row r="177" spans="1:22">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
@@ -7172,10 +6968,9 @@
       <c r="Q177" s="1"/>
       <c r="R177" s="1"/>
       <c r="S177" s="1"/>
-      <c r="T177" s="1"/>
-      <c r="W177" s="1"/>
-    </row>
-    <row r="178" spans="1:23">
+      <c r="V177" s="1"/>
+    </row>
+    <row r="178" spans="1:22">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
@@ -7194,10 +6989,9 @@
       <c r="Q178" s="1"/>
       <c r="R178" s="1"/>
       <c r="S178" s="1"/>
-      <c r="T178" s="1"/>
-      <c r="W178" s="1"/>
-    </row>
-    <row r="179" spans="1:23">
+      <c r="V178" s="1"/>
+    </row>
+    <row r="179" spans="1:22">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
@@ -7216,10 +7010,9 @@
       <c r="Q179" s="1"/>
       <c r="R179" s="1"/>
       <c r="S179" s="1"/>
-      <c r="T179" s="1"/>
-      <c r="W179" s="1"/>
-    </row>
-    <row r="180" spans="1:23">
+      <c r="V179" s="1"/>
+    </row>
+    <row r="180" spans="1:22">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
@@ -7238,10 +7031,9 @@
       <c r="Q180" s="1"/>
       <c r="R180" s="1"/>
       <c r="S180" s="1"/>
-      <c r="T180" s="1"/>
-      <c r="W180" s="1"/>
-    </row>
-    <row r="181" spans="1:23">
+      <c r="V180" s="1"/>
+    </row>
+    <row r="181" spans="1:22">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
@@ -7260,10 +7052,9 @@
       <c r="Q181" s="1"/>
       <c r="R181" s="1"/>
       <c r="S181" s="1"/>
-      <c r="T181" s="1"/>
-      <c r="W181" s="1"/>
-    </row>
-    <row r="182" spans="1:23">
+      <c r="V181" s="1"/>
+    </row>
+    <row r="182" spans="1:22">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
@@ -7282,10 +7073,9 @@
       <c r="Q182" s="1"/>
       <c r="R182" s="1"/>
       <c r="S182" s="1"/>
-      <c r="T182" s="1"/>
-      <c r="W182" s="1"/>
-    </row>
-    <row r="183" spans="1:23">
+      <c r="V182" s="1"/>
+    </row>
+    <row r="183" spans="1:22">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
@@ -7304,10 +7094,9 @@
       <c r="Q183" s="1"/>
       <c r="R183" s="1"/>
       <c r="S183" s="1"/>
-      <c r="T183" s="1"/>
-      <c r="W183" s="1"/>
-    </row>
-    <row r="184" spans="1:23">
+      <c r="V183" s="1"/>
+    </row>
+    <row r="184" spans="1:22">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
@@ -7326,10 +7115,9 @@
       <c r="Q184" s="1"/>
       <c r="R184" s="1"/>
       <c r="S184" s="1"/>
-      <c r="T184" s="1"/>
-      <c r="W184" s="1"/>
-    </row>
-    <row r="185" spans="1:23">
+      <c r="V184" s="1"/>
+    </row>
+    <row r="185" spans="1:22">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
@@ -7348,10 +7136,9 @@
       <c r="Q185" s="1"/>
       <c r="R185" s="1"/>
       <c r="S185" s="1"/>
-      <c r="T185" s="1"/>
-      <c r="W185" s="1"/>
-    </row>
-    <row r="186" spans="1:23">
+      <c r="V185" s="1"/>
+    </row>
+    <row r="186" spans="1:22">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
@@ -7370,10 +7157,9 @@
       <c r="Q186" s="1"/>
       <c r="R186" s="1"/>
       <c r="S186" s="1"/>
-      <c r="T186" s="1"/>
-      <c r="W186" s="1"/>
-    </row>
-    <row r="187" spans="1:23">
+      <c r="V186" s="1"/>
+    </row>
+    <row r="187" spans="1:22">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
@@ -7392,10 +7178,9 @@
       <c r="Q187" s="1"/>
       <c r="R187" s="1"/>
       <c r="S187" s="1"/>
-      <c r="T187" s="1"/>
-      <c r="W187" s="1"/>
-    </row>
-    <row r="188" spans="1:23">
+      <c r="V187" s="1"/>
+    </row>
+    <row r="188" spans="1:22">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
@@ -7414,10 +7199,9 @@
       <c r="Q188" s="1"/>
       <c r="R188" s="1"/>
       <c r="S188" s="1"/>
-      <c r="T188" s="1"/>
-      <c r="W188" s="1"/>
-    </row>
-    <row r="189" spans="1:23">
+      <c r="V188" s="1"/>
+    </row>
+    <row r="189" spans="1:22">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
@@ -7436,10 +7220,9 @@
       <c r="Q189" s="1"/>
       <c r="R189" s="1"/>
       <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="W189" s="1"/>
-    </row>
-    <row r="190" spans="1:23">
+      <c r="V189" s="1"/>
+    </row>
+    <row r="190" spans="1:22">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
@@ -7458,10 +7241,9 @@
       <c r="Q190" s="1"/>
       <c r="R190" s="1"/>
       <c r="S190" s="1"/>
-      <c r="T190" s="1"/>
-      <c r="W190" s="1"/>
-    </row>
-    <row r="191" spans="1:23">
+      <c r="V190" s="1"/>
+    </row>
+    <row r="191" spans="1:22">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
@@ -7480,10 +7262,9 @@
       <c r="Q191" s="1"/>
       <c r="R191" s="1"/>
       <c r="S191" s="1"/>
-      <c r="T191" s="1"/>
-      <c r="W191" s="1"/>
-    </row>
-    <row r="192" spans="1:23">
+      <c r="V191" s="1"/>
+    </row>
+    <row r="192" spans="1:22">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
@@ -7502,10 +7283,9 @@
       <c r="Q192" s="1"/>
       <c r="R192" s="1"/>
       <c r="S192" s="1"/>
-      <c r="T192" s="1"/>
-      <c r="W192" s="1"/>
-    </row>
-    <row r="193" spans="1:23">
+      <c r="V192" s="1"/>
+    </row>
+    <row r="193" spans="1:22">
       <c r="A193" s="1"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
@@ -7524,10 +7304,9 @@
       <c r="Q193" s="1"/>
       <c r="R193" s="1"/>
       <c r="S193" s="1"/>
-      <c r="T193" s="1"/>
-      <c r="W193" s="1"/>
-    </row>
-    <row r="194" spans="1:23">
+      <c r="V193" s="1"/>
+    </row>
+    <row r="194" spans="1:22">
       <c r="A194" s="1"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
@@ -7546,10 +7325,9 @@
       <c r="Q194" s="1"/>
       <c r="R194" s="1"/>
       <c r="S194" s="1"/>
-      <c r="T194" s="1"/>
-      <c r="W194" s="1"/>
-    </row>
-    <row r="195" spans="1:23">
+      <c r="V194" s="1"/>
+    </row>
+    <row r="195" spans="1:22">
       <c r="A195" s="1"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
@@ -7568,10 +7346,9 @@
       <c r="Q195" s="1"/>
       <c r="R195" s="1"/>
       <c r="S195" s="1"/>
-      <c r="T195" s="1"/>
-      <c r="W195" s="1"/>
-    </row>
-    <row r="196" spans="1:23">
+      <c r="V195" s="1"/>
+    </row>
+    <row r="196" spans="1:22">
       <c r="A196" s="1"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
@@ -7590,10 +7367,9 @@
       <c r="Q196" s="1"/>
       <c r="R196" s="1"/>
       <c r="S196" s="1"/>
-      <c r="T196" s="1"/>
-      <c r="W196" s="1"/>
-    </row>
-    <row r="197" spans="1:23">
+      <c r="V196" s="1"/>
+    </row>
+    <row r="197" spans="1:22">
       <c r="A197" s="1"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
@@ -7612,10 +7388,9 @@
       <c r="Q197" s="1"/>
       <c r="R197" s="1"/>
       <c r="S197" s="1"/>
-      <c r="T197" s="1"/>
-      <c r="W197" s="1"/>
-    </row>
-    <row r="198" spans="1:23">
+      <c r="V197" s="1"/>
+    </row>
+    <row r="198" spans="1:22">
       <c r="A198" s="1"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
@@ -7634,10 +7409,9 @@
       <c r="Q198" s="1"/>
       <c r="R198" s="1"/>
       <c r="S198" s="1"/>
-      <c r="T198" s="1"/>
-      <c r="W198" s="1"/>
-    </row>
-    <row r="199" spans="1:23">
+      <c r="V198" s="1"/>
+    </row>
+    <row r="199" spans="1:22">
       <c r="A199" s="1"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
@@ -7656,10 +7430,9 @@
       <c r="Q199" s="1"/>
       <c r="R199" s="1"/>
       <c r="S199" s="1"/>
-      <c r="T199" s="1"/>
-      <c r="W199" s="1"/>
-    </row>
-    <row r="200" spans="1:23">
+      <c r="V199" s="1"/>
+    </row>
+    <row r="200" spans="1:22">
       <c r="A200" s="1"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
@@ -7678,10 +7451,9 @@
       <c r="Q200" s="1"/>
       <c r="R200" s="1"/>
       <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="W200" s="1"/>
-    </row>
-    <row r="201" spans="1:23">
+      <c r="V200" s="1"/>
+    </row>
+    <row r="201" spans="1:22">
       <c r="A201" s="1"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
@@ -7700,10 +7472,9 @@
       <c r="Q201" s="1"/>
       <c r="R201" s="1"/>
       <c r="S201" s="1"/>
-      <c r="T201" s="1"/>
-      <c r="W201" s="1"/>
-    </row>
-    <row r="202" spans="1:23">
+      <c r="V201" s="1"/>
+    </row>
+    <row r="202" spans="1:22">
       <c r="A202" s="1"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
@@ -7722,10 +7493,9 @@
       <c r="Q202" s="1"/>
       <c r="R202" s="1"/>
       <c r="S202" s="1"/>
-      <c r="T202" s="1"/>
-      <c r="W202" s="1"/>
-    </row>
-    <row r="203" spans="1:23">
+      <c r="V202" s="1"/>
+    </row>
+    <row r="203" spans="1:22">
       <c r="A203" s="1"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
@@ -7744,10 +7514,9 @@
       <c r="Q203" s="1"/>
       <c r="R203" s="1"/>
       <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="W203" s="1"/>
-    </row>
-    <row r="204" spans="1:23">
+      <c r="V203" s="1"/>
+    </row>
+    <row r="204" spans="1:22">
       <c r="A204" s="1"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
@@ -7766,10 +7535,9 @@
       <c r="Q204" s="1"/>
       <c r="R204" s="1"/>
       <c r="S204" s="1"/>
-      <c r="T204" s="1"/>
-      <c r="W204" s="1"/>
-    </row>
-    <row r="205" spans="1:23">
+      <c r="V204" s="1"/>
+    </row>
+    <row r="205" spans="1:22">
       <c r="A205" s="1"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
@@ -7788,10 +7556,9 @@
       <c r="Q205" s="1"/>
       <c r="R205" s="1"/>
       <c r="S205" s="1"/>
-      <c r="T205" s="1"/>
-      <c r="W205" s="1"/>
-    </row>
-    <row r="206" spans="1:23">
+      <c r="V205" s="1"/>
+    </row>
+    <row r="206" spans="1:22">
       <c r="A206" s="1"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
@@ -7810,10 +7577,9 @@
       <c r="Q206" s="1"/>
       <c r="R206" s="1"/>
       <c r="S206" s="1"/>
-      <c r="T206" s="1"/>
-      <c r="W206" s="1"/>
-    </row>
-    <row r="207" spans="1:23">
+      <c r="V206" s="1"/>
+    </row>
+    <row r="207" spans="1:22">
       <c r="A207" s="1"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
@@ -7832,10 +7598,9 @@
       <c r="Q207" s="1"/>
       <c r="R207" s="1"/>
       <c r="S207" s="1"/>
-      <c r="T207" s="1"/>
-      <c r="W207" s="1"/>
-    </row>
-    <row r="208" spans="1:23">
+      <c r="V207" s="1"/>
+    </row>
+    <row r="208" spans="1:22">
       <c r="A208" s="1"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
@@ -7854,10 +7619,9 @@
       <c r="Q208" s="1"/>
       <c r="R208" s="1"/>
       <c r="S208" s="1"/>
-      <c r="T208" s="1"/>
-      <c r="W208" s="1"/>
-    </row>
-    <row r="209" spans="1:23">
+      <c r="V208" s="1"/>
+    </row>
+    <row r="209" spans="1:22">
       <c r="A209" s="1"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
@@ -7876,10 +7640,9 @@
       <c r="Q209" s="1"/>
       <c r="R209" s="1"/>
       <c r="S209" s="1"/>
-      <c r="T209" s="1"/>
-      <c r="W209" s="1"/>
-    </row>
-    <row r="210" spans="1:23">
+      <c r="V209" s="1"/>
+    </row>
+    <row r="210" spans="1:22">
       <c r="A210" s="1"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
@@ -7898,10 +7661,9 @@
       <c r="Q210" s="1"/>
       <c r="R210" s="1"/>
       <c r="S210" s="1"/>
-      <c r="T210" s="1"/>
-      <c r="W210" s="1"/>
-    </row>
-    <row r="211" spans="1:23">
+      <c r="V210" s="1"/>
+    </row>
+    <row r="211" spans="1:22">
       <c r="A211" s="1"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
@@ -7920,10 +7682,9 @@
       <c r="Q211" s="1"/>
       <c r="R211" s="1"/>
       <c r="S211" s="1"/>
-      <c r="T211" s="1"/>
-      <c r="W211" s="1"/>
-    </row>
-    <row r="212" spans="1:23">
+      <c r="V211" s="1"/>
+    </row>
+    <row r="212" spans="1:22">
       <c r="A212" s="1"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
@@ -7942,10 +7703,9 @@
       <c r="Q212" s="1"/>
       <c r="R212" s="1"/>
       <c r="S212" s="1"/>
-      <c r="T212" s="1"/>
-      <c r="W212" s="1"/>
-    </row>
-    <row r="213" spans="1:23">
+      <c r="V212" s="1"/>
+    </row>
+    <row r="213" spans="1:22">
       <c r="A213" s="1"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
@@ -7964,10 +7724,9 @@
       <c r="Q213" s="1"/>
       <c r="R213" s="1"/>
       <c r="S213" s="1"/>
-      <c r="T213" s="1"/>
-      <c r="W213" s="1"/>
-    </row>
-    <row r="214" spans="1:23">
+      <c r="V213" s="1"/>
+    </row>
+    <row r="214" spans="1:22">
       <c r="A214" s="1"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
@@ -7986,10 +7745,9 @@
       <c r="Q214" s="1"/>
       <c r="R214" s="1"/>
       <c r="S214" s="1"/>
-      <c r="T214" s="1"/>
-      <c r="W214" s="1"/>
-    </row>
-    <row r="215" spans="1:23">
+      <c r="V214" s="1"/>
+    </row>
+    <row r="215" spans="1:22">
       <c r="A215" s="1"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
@@ -8008,10 +7766,9 @@
       <c r="Q215" s="1"/>
       <c r="R215" s="1"/>
       <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="W215" s="1"/>
-    </row>
-    <row r="216" spans="1:23">
+      <c r="V215" s="1"/>
+    </row>
+    <row r="216" spans="1:22">
       <c r="A216" s="1"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
@@ -8030,10 +7787,9 @@
       <c r="Q216" s="1"/>
       <c r="R216" s="1"/>
       <c r="S216" s="1"/>
-      <c r="T216" s="1"/>
-      <c r="W216" s="1"/>
-    </row>
-    <row r="217" spans="1:23">
+      <c r="V216" s="1"/>
+    </row>
+    <row r="217" spans="1:22">
       <c r="A217" s="1"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
@@ -8052,10 +7808,9 @@
       <c r="Q217" s="1"/>
       <c r="R217" s="1"/>
       <c r="S217" s="1"/>
-      <c r="T217" s="1"/>
-      <c r="W217" s="1"/>
-    </row>
-    <row r="218" spans="1:23">
+      <c r="V217" s="1"/>
+    </row>
+    <row r="218" spans="1:22">
       <c r="A218" s="1"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
@@ -8074,10 +7829,9 @@
       <c r="Q218" s="1"/>
       <c r="R218" s="1"/>
       <c r="S218" s="1"/>
-      <c r="T218" s="1"/>
-      <c r="W218" s="1"/>
-    </row>
-    <row r="219" spans="1:23">
+      <c r="V218" s="1"/>
+    </row>
+    <row r="219" spans="1:22">
       <c r="A219" s="1"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
@@ -8096,10 +7850,9 @@
       <c r="Q219" s="1"/>
       <c r="R219" s="1"/>
       <c r="S219" s="1"/>
-      <c r="T219" s="1"/>
-      <c r="W219" s="1"/>
-    </row>
-    <row r="220" spans="1:23">
+      <c r="V219" s="1"/>
+    </row>
+    <row r="220" spans="1:22">
       <c r="A220" s="1"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
@@ -8118,10 +7871,9 @@
       <c r="Q220" s="1"/>
       <c r="R220" s="1"/>
       <c r="S220" s="1"/>
-      <c r="T220" s="1"/>
-      <c r="W220" s="1"/>
-    </row>
-    <row r="221" spans="1:23">
+      <c r="V220" s="1"/>
+    </row>
+    <row r="221" spans="1:22">
       <c r="A221" s="1"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
@@ -8140,10 +7892,9 @@
       <c r="Q221" s="1"/>
       <c r="R221" s="1"/>
       <c r="S221" s="1"/>
-      <c r="T221" s="1"/>
-      <c r="W221" s="1"/>
-    </row>
-    <row r="222" spans="1:23">
+      <c r="V221" s="1"/>
+    </row>
+    <row r="222" spans="1:22">
       <c r="A222" s="1"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
@@ -8162,10 +7913,9 @@
       <c r="Q222" s="1"/>
       <c r="R222" s="1"/>
       <c r="S222" s="1"/>
-      <c r="T222" s="1"/>
-      <c r="W222" s="1"/>
-    </row>
-    <row r="223" spans="1:23">
+      <c r="V222" s="1"/>
+    </row>
+    <row r="223" spans="1:22">
       <c r="A223" s="1"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
@@ -8184,10 +7934,9 @@
       <c r="Q223" s="1"/>
       <c r="R223" s="1"/>
       <c r="S223" s="1"/>
-      <c r="T223" s="1"/>
-      <c r="W223" s="1"/>
-    </row>
-    <row r="224" spans="1:23">
+      <c r="V223" s="1"/>
+    </row>
+    <row r="224" spans="1:22">
       <c r="A224" s="1"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
@@ -8206,10 +7955,9 @@
       <c r="Q224" s="1"/>
       <c r="R224" s="1"/>
       <c r="S224" s="1"/>
-      <c r="T224" s="1"/>
-      <c r="W224" s="1"/>
-    </row>
-    <row r="225" spans="1:23">
+      <c r="V224" s="1"/>
+    </row>
+    <row r="225" spans="1:22">
       <c r="A225" s="1"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
@@ -8228,10 +7976,9 @@
       <c r="Q225" s="1"/>
       <c r="R225" s="1"/>
       <c r="S225" s="1"/>
-      <c r="T225" s="1"/>
-      <c r="W225" s="1"/>
-    </row>
-    <row r="226" spans="1:23">
+      <c r="V225" s="1"/>
+    </row>
+    <row r="226" spans="1:22">
       <c r="A226" s="1"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
@@ -8250,10 +7997,9 @@
       <c r="Q226" s="1"/>
       <c r="R226" s="1"/>
       <c r="S226" s="1"/>
-      <c r="T226" s="1"/>
-      <c r="W226" s="1"/>
-    </row>
-    <row r="227" spans="1:23">
+      <c r="V226" s="1"/>
+    </row>
+    <row r="227" spans="1:22">
       <c r="A227" s="1"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
@@ -8272,10 +8018,9 @@
       <c r="Q227" s="1"/>
       <c r="R227" s="1"/>
       <c r="S227" s="1"/>
-      <c r="T227" s="1"/>
-      <c r="W227" s="1"/>
-    </row>
-    <row r="228" spans="1:23">
+      <c r="V227" s="1"/>
+    </row>
+    <row r="228" spans="1:22">
       <c r="A228" s="1"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
@@ -8294,10 +8039,9 @@
       <c r="Q228" s="1"/>
       <c r="R228" s="1"/>
       <c r="S228" s="1"/>
-      <c r="T228" s="1"/>
-      <c r="W228" s="1"/>
-    </row>
-    <row r="229" spans="1:23">
+      <c r="V228" s="1"/>
+    </row>
+    <row r="229" spans="1:22">
       <c r="A229" s="1"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
@@ -8316,10 +8060,9 @@
       <c r="Q229" s="1"/>
       <c r="R229" s="1"/>
       <c r="S229" s="1"/>
-      <c r="T229" s="1"/>
-      <c r="W229" s="1"/>
-    </row>
-    <row r="230" spans="1:23">
+      <c r="V229" s="1"/>
+    </row>
+    <row r="230" spans="1:22">
       <c r="A230" s="1"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
@@ -8338,10 +8081,9 @@
       <c r="Q230" s="1"/>
       <c r="R230" s="1"/>
       <c r="S230" s="1"/>
-      <c r="T230" s="1"/>
-      <c r="W230" s="1"/>
-    </row>
-    <row r="231" spans="1:23">
+      <c r="V230" s="1"/>
+    </row>
+    <row r="231" spans="1:22">
       <c r="A231" s="1"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
@@ -8360,10 +8102,9 @@
       <c r="Q231" s="1"/>
       <c r="R231" s="1"/>
       <c r="S231" s="1"/>
-      <c r="T231" s="1"/>
-      <c r="W231" s="1"/>
-    </row>
-    <row r="232" spans="1:23">
+      <c r="V231" s="1"/>
+    </row>
+    <row r="232" spans="1:22">
       <c r="A232" s="1"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
@@ -8382,10 +8123,9 @@
       <c r="Q232" s="1"/>
       <c r="R232" s="1"/>
       <c r="S232" s="1"/>
-      <c r="T232" s="1"/>
-      <c r="W232" s="1"/>
-    </row>
-    <row r="233" spans="1:23">
+      <c r="V232" s="1"/>
+    </row>
+    <row r="233" spans="1:22">
       <c r="A233" s="1"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
@@ -8404,10 +8144,9 @@
       <c r="Q233" s="1"/>
       <c r="R233" s="1"/>
       <c r="S233" s="1"/>
-      <c r="T233" s="1"/>
-      <c r="W233" s="1"/>
-    </row>
-    <row r="234" spans="1:23">
+      <c r="V233" s="1"/>
+    </row>
+    <row r="234" spans="1:22">
       <c r="A234" s="1"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
@@ -8426,10 +8165,9 @@
       <c r="Q234" s="1"/>
       <c r="R234" s="1"/>
       <c r="S234" s="1"/>
-      <c r="T234" s="1"/>
-      <c r="W234" s="1"/>
-    </row>
-    <row r="235" spans="1:23">
+      <c r="V234" s="1"/>
+    </row>
+    <row r="235" spans="1:22">
       <c r="A235" s="1"/>
       <c r="B235" s="1"/>
       <c r="C235" s="1"/>
@@ -8448,10 +8186,9 @@
       <c r="Q235" s="1"/>
       <c r="R235" s="1"/>
       <c r="S235" s="1"/>
-      <c r="T235" s="1"/>
-      <c r="W235" s="1"/>
-    </row>
-    <row r="236" spans="1:23">
+      <c r="V235" s="1"/>
+    </row>
+    <row r="236" spans="1:22">
       <c r="A236" s="1"/>
       <c r="B236" s="1"/>
       <c r="C236" s="1"/>
@@ -8470,10 +8207,9 @@
       <c r="Q236" s="1"/>
       <c r="R236" s="1"/>
       <c r="S236" s="1"/>
-      <c r="T236" s="1"/>
-      <c r="W236" s="1"/>
-    </row>
-    <row r="237" spans="1:23">
+      <c r="V236" s="1"/>
+    </row>
+    <row r="237" spans="1:22">
       <c r="A237" s="1"/>
       <c r="B237" s="1"/>
       <c r="C237" s="1"/>
@@ -8492,10 +8228,9 @@
       <c r="Q237" s="1"/>
       <c r="R237" s="1"/>
       <c r="S237" s="1"/>
-      <c r="T237" s="1"/>
-      <c r="W237" s="1"/>
-    </row>
-    <row r="238" spans="1:23">
+      <c r="V237" s="1"/>
+    </row>
+    <row r="238" spans="1:22">
       <c r="A238" s="1"/>
       <c r="B238" s="1"/>
       <c r="C238" s="1"/>
@@ -8514,10 +8249,9 @@
       <c r="Q238" s="1"/>
       <c r="R238" s="1"/>
       <c r="S238" s="1"/>
-      <c r="T238" s="1"/>
-      <c r="W238" s="1"/>
-    </row>
-    <row r="239" spans="1:23">
+      <c r="V238" s="1"/>
+    </row>
+    <row r="239" spans="1:22">
       <c r="A239" s="1"/>
       <c r="B239" s="1"/>
       <c r="C239" s="1"/>
@@ -8536,10 +8270,9 @@
       <c r="Q239" s="1"/>
       <c r="R239" s="1"/>
       <c r="S239" s="1"/>
-      <c r="T239" s="1"/>
-      <c r="W239" s="1"/>
-    </row>
-    <row r="240" spans="1:23">
+      <c r="V239" s="1"/>
+    </row>
+    <row r="240" spans="1:22">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
@@ -8558,10 +8291,9 @@
       <c r="Q240" s="1"/>
       <c r="R240" s="1"/>
       <c r="S240" s="1"/>
-      <c r="T240" s="1"/>
-      <c r="W240" s="1"/>
-    </row>
-    <row r="241" spans="1:23">
+      <c r="V240" s="1"/>
+    </row>
+    <row r="241" spans="1:22">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
@@ -8580,10 +8312,9 @@
       <c r="Q241" s="1"/>
       <c r="R241" s="1"/>
       <c r="S241" s="1"/>
-      <c r="T241" s="1"/>
-      <c r="W241" s="1"/>
-    </row>
-    <row r="242" spans="1:23">
+      <c r="V241" s="1"/>
+    </row>
+    <row r="242" spans="1:22">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -8602,10 +8333,9 @@
       <c r="Q242" s="1"/>
       <c r="R242" s="1"/>
       <c r="S242" s="1"/>
-      <c r="T242" s="1"/>
-      <c r="W242" s="1"/>
-    </row>
-    <row r="243" spans="1:23">
+      <c r="V242" s="1"/>
+    </row>
+    <row r="243" spans="1:22">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
@@ -8624,10 +8354,9 @@
       <c r="Q243" s="1"/>
       <c r="R243" s="1"/>
       <c r="S243" s="1"/>
-      <c r="T243" s="1"/>
-      <c r="W243" s="1"/>
-    </row>
-    <row r="244" spans="1:23">
+      <c r="V243" s="1"/>
+    </row>
+    <row r="244" spans="1:22">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
@@ -8646,10 +8375,9 @@
       <c r="Q244" s="1"/>
       <c r="R244" s="1"/>
       <c r="S244" s="1"/>
-      <c r="T244" s="1"/>
-      <c r="W244" s="1"/>
-    </row>
-    <row r="245" spans="1:23">
+      <c r="V244" s="1"/>
+    </row>
+    <row r="245" spans="1:22">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
@@ -8668,10 +8396,9 @@
       <c r="Q245" s="1"/>
       <c r="R245" s="1"/>
       <c r="S245" s="1"/>
-      <c r="T245" s="1"/>
-      <c r="W245" s="1"/>
-    </row>
-    <row r="246" spans="1:23">
+      <c r="V245" s="1"/>
+    </row>
+    <row r="246" spans="1:22">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
@@ -8690,10 +8417,9 @@
       <c r="Q246" s="1"/>
       <c r="R246" s="1"/>
       <c r="S246" s="1"/>
-      <c r="T246" s="1"/>
-      <c r="W246" s="1"/>
-    </row>
-    <row r="247" spans="1:23">
+      <c r="V246" s="1"/>
+    </row>
+    <row r="247" spans="1:22">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
@@ -8712,10 +8438,9 @@
       <c r="Q247" s="1"/>
       <c r="R247" s="1"/>
       <c r="S247" s="1"/>
-      <c r="T247" s="1"/>
-      <c r="W247" s="1"/>
-    </row>
-    <row r="248" spans="1:23">
+      <c r="V247" s="1"/>
+    </row>
+    <row r="248" spans="1:22">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
@@ -8734,10 +8459,9 @@
       <c r="Q248" s="1"/>
       <c r="R248" s="1"/>
       <c r="S248" s="1"/>
-      <c r="T248" s="1"/>
-      <c r="W248" s="1"/>
-    </row>
-    <row r="249" spans="1:23">
+      <c r="V248" s="1"/>
+    </row>
+    <row r="249" spans="1:22">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
@@ -8756,10 +8480,9 @@
       <c r="Q249" s="1"/>
       <c r="R249" s="1"/>
       <c r="S249" s="1"/>
-      <c r="T249" s="1"/>
-      <c r="W249" s="1"/>
-    </row>
-    <row r="250" spans="1:23">
+      <c r="V249" s="1"/>
+    </row>
+    <row r="250" spans="1:22">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
@@ -8778,10 +8501,9 @@
       <c r="Q250" s="1"/>
       <c r="R250" s="1"/>
       <c r="S250" s="1"/>
-      <c r="T250" s="1"/>
-      <c r="W250" s="1"/>
-    </row>
-    <row r="251" spans="1:23">
+      <c r="V250" s="1"/>
+    </row>
+    <row r="251" spans="1:22">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
@@ -8800,10 +8522,9 @@
       <c r="Q251" s="1"/>
       <c r="R251" s="1"/>
       <c r="S251" s="1"/>
-      <c r="T251" s="1"/>
-      <c r="W251" s="1"/>
-    </row>
-    <row r="252" spans="1:23">
+      <c r="V251" s="1"/>
+    </row>
+    <row r="252" spans="1:22">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
@@ -8822,10 +8543,9 @@
       <c r="Q252" s="1"/>
       <c r="R252" s="1"/>
       <c r="S252" s="1"/>
-      <c r="T252" s="1"/>
-      <c r="W252" s="1"/>
-    </row>
-    <row r="253" spans="1:23">
+      <c r="V252" s="1"/>
+    </row>
+    <row r="253" spans="1:22">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
@@ -8844,10 +8564,9 @@
       <c r="Q253" s="1"/>
       <c r="R253" s="1"/>
       <c r="S253" s="1"/>
-      <c r="T253" s="1"/>
-      <c r="W253" s="1"/>
-    </row>
-    <row r="254" spans="1:23">
+      <c r="V253" s="1"/>
+    </row>
+    <row r="254" spans="1:22">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
@@ -8866,10 +8585,9 @@
       <c r="Q254" s="1"/>
       <c r="R254" s="1"/>
       <c r="S254" s="1"/>
-      <c r="T254" s="1"/>
-      <c r="W254" s="1"/>
-    </row>
-    <row r="255" spans="1:23">
+      <c r="V254" s="1"/>
+    </row>
+    <row r="255" spans="1:22">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
@@ -8888,10 +8606,9 @@
       <c r="Q255" s="1"/>
       <c r="R255" s="1"/>
       <c r="S255" s="1"/>
-      <c r="T255" s="1"/>
-      <c r="W255" s="1"/>
-    </row>
-    <row r="256" spans="1:23">
+      <c r="V255" s="1"/>
+    </row>
+    <row r="256" spans="1:22">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
@@ -8910,10 +8627,9 @@
       <c r="Q256" s="1"/>
       <c r="R256" s="1"/>
       <c r="S256" s="1"/>
-      <c r="T256" s="1"/>
-      <c r="W256" s="1"/>
-    </row>
-    <row r="257" spans="1:23">
+      <c r="V256" s="1"/>
+    </row>
+    <row r="257" spans="1:22">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
@@ -8932,10 +8648,9 @@
       <c r="Q257" s="1"/>
       <c r="R257" s="1"/>
       <c r="S257" s="1"/>
-      <c r="T257" s="1"/>
-      <c r="W257" s="1"/>
-    </row>
-    <row r="258" spans="1:23">
+      <c r="V257" s="1"/>
+    </row>
+    <row r="258" spans="1:22">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
@@ -8954,10 +8669,9 @@
       <c r="Q258" s="1"/>
       <c r="R258" s="1"/>
       <c r="S258" s="1"/>
-      <c r="T258" s="1"/>
-      <c r="W258" s="1"/>
-    </row>
-    <row r="259" spans="1:23">
+      <c r="V258" s="1"/>
+    </row>
+    <row r="259" spans="1:22">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
@@ -8976,10 +8690,9 @@
       <c r="Q259" s="1"/>
       <c r="R259" s="1"/>
       <c r="S259" s="1"/>
-      <c r="T259" s="1"/>
-      <c r="W259" s="1"/>
-    </row>
-    <row r="260" spans="1:23">
+      <c r="V259" s="1"/>
+    </row>
+    <row r="260" spans="1:22">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
@@ -8998,10 +8711,9 @@
       <c r="Q260" s="1"/>
       <c r="R260" s="1"/>
       <c r="S260" s="1"/>
-      <c r="T260" s="1"/>
-      <c r="W260" s="1"/>
-    </row>
-    <row r="261" spans="1:23">
+      <c r="V260" s="1"/>
+    </row>
+    <row r="261" spans="1:22">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
@@ -9020,10 +8732,9 @@
       <c r="Q261" s="1"/>
       <c r="R261" s="1"/>
       <c r="S261" s="1"/>
-      <c r="T261" s="1"/>
-      <c r="W261" s="1"/>
-    </row>
-    <row r="262" spans="1:23">
+      <c r="V261" s="1"/>
+    </row>
+    <row r="262" spans="1:22">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
@@ -9042,10 +8753,9 @@
       <c r="Q262" s="1"/>
       <c r="R262" s="1"/>
       <c r="S262" s="1"/>
-      <c r="T262" s="1"/>
-      <c r="W262" s="1"/>
-    </row>
-    <row r="263" spans="1:23">
+      <c r="V262" s="1"/>
+    </row>
+    <row r="263" spans="1:22">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
@@ -9064,10 +8774,9 @@
       <c r="Q263" s="1"/>
       <c r="R263" s="1"/>
       <c r="S263" s="1"/>
-      <c r="T263" s="1"/>
-      <c r="W263" s="1"/>
-    </row>
-    <row r="264" spans="1:23">
+      <c r="V263" s="1"/>
+    </row>
+    <row r="264" spans="1:22">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
@@ -9086,10 +8795,9 @@
       <c r="Q264" s="1"/>
       <c r="R264" s="1"/>
       <c r="S264" s="1"/>
-      <c r="T264" s="1"/>
-      <c r="W264" s="1"/>
-    </row>
-    <row r="265" spans="1:23">
+      <c r="V264" s="1"/>
+    </row>
+    <row r="265" spans="1:22">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
@@ -9108,10 +8816,9 @@
       <c r="Q265" s="1"/>
       <c r="R265" s="1"/>
       <c r="S265" s="1"/>
-      <c r="T265" s="1"/>
-      <c r="W265" s="1"/>
-    </row>
-    <row r="266" spans="1:23">
+      <c r="V265" s="1"/>
+    </row>
+    <row r="266" spans="1:22">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
@@ -9130,10 +8837,9 @@
       <c r="Q266" s="1"/>
       <c r="R266" s="1"/>
       <c r="S266" s="1"/>
-      <c r="T266" s="1"/>
-      <c r="W266" s="1"/>
-    </row>
-    <row r="267" spans="1:23">
+      <c r="V266" s="1"/>
+    </row>
+    <row r="267" spans="1:22">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
@@ -9152,10 +8858,9 @@
       <c r="Q267" s="1"/>
       <c r="R267" s="1"/>
       <c r="S267" s="1"/>
-      <c r="T267" s="1"/>
-      <c r="W267" s="1"/>
-    </row>
-    <row r="268" spans="1:23">
+      <c r="V267" s="1"/>
+    </row>
+    <row r="268" spans="1:22">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
@@ -9174,10 +8879,9 @@
       <c r="Q268" s="1"/>
       <c r="R268" s="1"/>
       <c r="S268" s="1"/>
-      <c r="T268" s="1"/>
-      <c r="W268" s="1"/>
-    </row>
-    <row r="269" spans="1:23">
+      <c r="V268" s="1"/>
+    </row>
+    <row r="269" spans="1:22">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
@@ -9196,10 +8900,9 @@
       <c r="Q269" s="1"/>
       <c r="R269" s="1"/>
       <c r="S269" s="1"/>
-      <c r="T269" s="1"/>
-      <c r="W269" s="1"/>
-    </row>
-    <row r="270" spans="1:23">
+      <c r="V269" s="1"/>
+    </row>
+    <row r="270" spans="1:22">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
@@ -9218,10 +8921,9 @@
       <c r="Q270" s="1"/>
       <c r="R270" s="1"/>
       <c r="S270" s="1"/>
-      <c r="T270" s="1"/>
-      <c r="W270" s="1"/>
-    </row>
-    <row r="271" spans="1:23">
+      <c r="V270" s="1"/>
+    </row>
+    <row r="271" spans="1:22">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
@@ -9240,10 +8942,9 @@
       <c r="Q271" s="1"/>
       <c r="R271" s="1"/>
       <c r="S271" s="1"/>
-      <c r="T271" s="1"/>
-      <c r="W271" s="1"/>
-    </row>
-    <row r="272" spans="1:23">
+      <c r="V271" s="1"/>
+    </row>
+    <row r="272" spans="1:22">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
@@ -9262,10 +8963,9 @@
       <c r="Q272" s="1"/>
       <c r="R272" s="1"/>
       <c r="S272" s="1"/>
-      <c r="T272" s="1"/>
-      <c r="W272" s="1"/>
-    </row>
-    <row r="273" spans="1:23">
+      <c r="V272" s="1"/>
+    </row>
+    <row r="273" spans="1:22">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
@@ -9284,10 +8984,9 @@
       <c r="Q273" s="1"/>
       <c r="R273" s="1"/>
       <c r="S273" s="1"/>
-      <c r="T273" s="1"/>
-      <c r="W273" s="1"/>
-    </row>
-    <row r="274" spans="1:23">
+      <c r="V273" s="1"/>
+    </row>
+    <row r="274" spans="1:22">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
@@ -9306,10 +9005,9 @@
       <c r="Q274" s="1"/>
       <c r="R274" s="1"/>
       <c r="S274" s="1"/>
-      <c r="T274" s="1"/>
-      <c r="W274" s="1"/>
-    </row>
-    <row r="275" spans="1:23">
+      <c r="V274" s="1"/>
+    </row>
+    <row r="275" spans="1:22">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
@@ -9328,10 +9026,9 @@
       <c r="Q275" s="1"/>
       <c r="R275" s="1"/>
       <c r="S275" s="1"/>
-      <c r="T275" s="1"/>
-      <c r="W275" s="1"/>
-    </row>
-    <row r="276" spans="1:23">
+      <c r="V275" s="1"/>
+    </row>
+    <row r="276" spans="1:22">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
@@ -9350,10 +9047,9 @@
       <c r="Q276" s="1"/>
       <c r="R276" s="1"/>
       <c r="S276" s="1"/>
-      <c r="T276" s="1"/>
-      <c r="W276" s="1"/>
-    </row>
-    <row r="277" spans="1:23">
+      <c r="V276" s="1"/>
+    </row>
+    <row r="277" spans="1:22">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
@@ -9372,10 +9068,9 @@
       <c r="Q277" s="1"/>
       <c r="R277" s="1"/>
       <c r="S277" s="1"/>
-      <c r="T277" s="1"/>
-      <c r="W277" s="1"/>
-    </row>
-    <row r="278" spans="1:23">
+      <c r="V277" s="1"/>
+    </row>
+    <row r="278" spans="1:22">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
@@ -9394,10 +9089,9 @@
       <c r="Q278" s="1"/>
       <c r="R278" s="1"/>
       <c r="S278" s="1"/>
-      <c r="T278" s="1"/>
-      <c r="W278" s="1"/>
-    </row>
-    <row r="279" spans="1:23">
+      <c r="V278" s="1"/>
+    </row>
+    <row r="279" spans="1:22">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
@@ -9416,10 +9110,9 @@
       <c r="Q279" s="1"/>
       <c r="R279" s="1"/>
       <c r="S279" s="1"/>
-      <c r="T279" s="1"/>
-      <c r="W279" s="1"/>
-    </row>
-    <row r="280" spans="1:23">
+      <c r="V279" s="1"/>
+    </row>
+    <row r="280" spans="1:22">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
@@ -9438,10 +9131,9 @@
       <c r="Q280" s="1"/>
       <c r="R280" s="1"/>
       <c r="S280" s="1"/>
-      <c r="T280" s="1"/>
-      <c r="W280" s="1"/>
-    </row>
-    <row r="281" spans="1:23">
+      <c r="V280" s="1"/>
+    </row>
+    <row r="281" spans="1:22">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
@@ -9460,10 +9152,9 @@
       <c r="Q281" s="1"/>
       <c r="R281" s="1"/>
       <c r="S281" s="1"/>
-      <c r="T281" s="1"/>
-      <c r="W281" s="1"/>
-    </row>
-    <row r="282" spans="1:23">
+      <c r="V281" s="1"/>
+    </row>
+    <row r="282" spans="1:22">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
@@ -9482,10 +9173,9 @@
       <c r="Q282" s="1"/>
       <c r="R282" s="1"/>
       <c r="S282" s="1"/>
-      <c r="T282" s="1"/>
-      <c r="W282" s="1"/>
-    </row>
-    <row r="283" spans="1:23">
+      <c r="V282" s="1"/>
+    </row>
+    <row r="283" spans="1:22">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
@@ -9504,10 +9194,9 @@
       <c r="Q283" s="1"/>
       <c r="R283" s="1"/>
       <c r="S283" s="1"/>
-      <c r="T283" s="1"/>
-      <c r="W283" s="1"/>
-    </row>
-    <row r="284" spans="1:23">
+      <c r="V283" s="1"/>
+    </row>
+    <row r="284" spans="1:22">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -9526,10 +9215,9 @@
       <c r="Q284" s="1"/>
       <c r="R284" s="1"/>
       <c r="S284" s="1"/>
-      <c r="T284" s="1"/>
-      <c r="W284" s="1"/>
-    </row>
-    <row r="285" spans="1:23">
+      <c r="V284" s="1"/>
+    </row>
+    <row r="285" spans="1:22">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
@@ -9548,10 +9236,9 @@
       <c r="Q285" s="1"/>
       <c r="R285" s="1"/>
       <c r="S285" s="1"/>
-      <c r="T285" s="1"/>
-      <c r="W285" s="1"/>
-    </row>
-    <row r="286" spans="1:23">
+      <c r="V285" s="1"/>
+    </row>
+    <row r="286" spans="1:22">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
@@ -9570,10 +9257,9 @@
       <c r="Q286" s="1"/>
       <c r="R286" s="1"/>
       <c r="S286" s="1"/>
-      <c r="T286" s="1"/>
-      <c r="W286" s="1"/>
-    </row>
-    <row r="287" spans="1:23">
+      <c r="V286" s="1"/>
+    </row>
+    <row r="287" spans="1:22">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
@@ -9592,10 +9278,9 @@
       <c r="Q287" s="1"/>
       <c r="R287" s="1"/>
       <c r="S287" s="1"/>
-      <c r="T287" s="1"/>
-      <c r="W287" s="1"/>
-    </row>
-    <row r="288" spans="1:23">
+      <c r="V287" s="1"/>
+    </row>
+    <row r="288" spans="1:22">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
@@ -9614,10 +9299,9 @@
       <c r="Q288" s="1"/>
       <c r="R288" s="1"/>
       <c r="S288" s="1"/>
-      <c r="T288" s="1"/>
-      <c r="W288" s="1"/>
-    </row>
-    <row r="289" spans="1:23">
+      <c r="V288" s="1"/>
+    </row>
+    <row r="289" spans="1:22">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
@@ -9636,10 +9320,9 @@
       <c r="Q289" s="1"/>
       <c r="R289" s="1"/>
       <c r="S289" s="1"/>
-      <c r="T289" s="1"/>
-      <c r="W289" s="1"/>
-    </row>
-    <row r="290" spans="1:23">
+      <c r="V289" s="1"/>
+    </row>
+    <row r="290" spans="1:22">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
@@ -9658,10 +9341,9 @@
       <c r="Q290" s="1"/>
       <c r="R290" s="1"/>
       <c r="S290" s="1"/>
-      <c r="T290" s="1"/>
-      <c r="W290" s="1"/>
-    </row>
-    <row r="291" spans="1:23">
+      <c r="V290" s="1"/>
+    </row>
+    <row r="291" spans="1:22">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
@@ -9680,10 +9362,9 @@
       <c r="Q291" s="1"/>
       <c r="R291" s="1"/>
       <c r="S291" s="1"/>
-      <c r="T291" s="1"/>
-      <c r="W291" s="1"/>
-    </row>
-    <row r="292" spans="1:23">
+      <c r="V291" s="1"/>
+    </row>
+    <row r="292" spans="1:22">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
@@ -9702,10 +9383,9 @@
       <c r="Q292" s="1"/>
       <c r="R292" s="1"/>
       <c r="S292" s="1"/>
-      <c r="T292" s="1"/>
-      <c r="W292" s="1"/>
-    </row>
-    <row r="293" spans="1:23">
+      <c r="V292" s="1"/>
+    </row>
+    <row r="293" spans="1:22">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
@@ -9724,10 +9404,9 @@
       <c r="Q293" s="1"/>
       <c r="R293" s="1"/>
       <c r="S293" s="1"/>
-      <c r="T293" s="1"/>
-      <c r="W293" s="1"/>
-    </row>
-    <row r="294" spans="1:23">
+      <c r="V293" s="1"/>
+    </row>
+    <row r="294" spans="1:22">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
@@ -9746,10 +9425,9 @@
       <c r="Q294" s="1"/>
       <c r="R294" s="1"/>
       <c r="S294" s="1"/>
-      <c r="T294" s="1"/>
-      <c r="W294" s="1"/>
-    </row>
-    <row r="295" spans="1:23">
+      <c r="V294" s="1"/>
+    </row>
+    <row r="295" spans="1:22">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
@@ -9768,10 +9446,9 @@
       <c r="Q295" s="1"/>
       <c r="R295" s="1"/>
       <c r="S295" s="1"/>
-      <c r="T295" s="1"/>
-      <c r="W295" s="1"/>
-    </row>
-    <row r="296" spans="1:23">
+      <c r="V295" s="1"/>
+    </row>
+    <row r="296" spans="1:22">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
@@ -9790,10 +9467,9 @@
       <c r="Q296" s="1"/>
       <c r="R296" s="1"/>
       <c r="S296" s="1"/>
-      <c r="T296" s="1"/>
-      <c r="W296" s="1"/>
-    </row>
-    <row r="297" spans="1:23">
+      <c r="V296" s="1"/>
+    </row>
+    <row r="297" spans="1:22">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
@@ -9812,10 +9488,9 @@
       <c r="Q297" s="1"/>
       <c r="R297" s="1"/>
       <c r="S297" s="1"/>
-      <c r="T297" s="1"/>
-      <c r="W297" s="1"/>
-    </row>
-    <row r="298" spans="1:23">
+      <c r="V297" s="1"/>
+    </row>
+    <row r="298" spans="1:22">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
@@ -9834,10 +9509,9 @@
       <c r="Q298" s="1"/>
       <c r="R298" s="1"/>
       <c r="S298" s="1"/>
-      <c r="T298" s="1"/>
-      <c r="W298" s="1"/>
-    </row>
-    <row r="299" spans="1:23">
+      <c r="V298" s="1"/>
+    </row>
+    <row r="299" spans="1:22">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
@@ -9856,10 +9530,9 @@
       <c r="Q299" s="1"/>
       <c r="R299" s="1"/>
       <c r="S299" s="1"/>
-      <c r="T299" s="1"/>
-      <c r="W299" s="1"/>
-    </row>
-    <row r="300" spans="1:23">
+      <c r="V299" s="1"/>
+    </row>
+    <row r="300" spans="1:22">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
@@ -9878,10 +9551,9 @@
       <c r="Q300" s="1"/>
       <c r="R300" s="1"/>
       <c r="S300" s="1"/>
-      <c r="T300" s="1"/>
-      <c r="W300" s="1"/>
-    </row>
-    <row r="301" spans="1:23">
+      <c r="V300" s="1"/>
+    </row>
+    <row r="301" spans="1:22">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
@@ -9900,10 +9572,9 @@
       <c r="Q301" s="1"/>
       <c r="R301" s="1"/>
       <c r="S301" s="1"/>
-      <c r="T301" s="1"/>
-      <c r="W301" s="1"/>
-    </row>
-    <row r="302" spans="1:23">
+      <c r="V301" s="1"/>
+    </row>
+    <row r="302" spans="1:22">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
@@ -9922,10 +9593,9 @@
       <c r="Q302" s="1"/>
       <c r="R302" s="1"/>
       <c r="S302" s="1"/>
-      <c r="T302" s="1"/>
-      <c r="W302" s="1"/>
-    </row>
-    <row r="303" spans="1:23">
+      <c r="V302" s="1"/>
+    </row>
+    <row r="303" spans="1:22">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
@@ -9944,10 +9614,9 @@
       <c r="Q303" s="1"/>
       <c r="R303" s="1"/>
       <c r="S303" s="1"/>
-      <c r="T303" s="1"/>
-      <c r="W303" s="1"/>
-    </row>
-    <row r="304" spans="1:23">
+      <c r="V303" s="1"/>
+    </row>
+    <row r="304" spans="1:22">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
@@ -9966,10 +9635,9 @@
       <c r="Q304" s="1"/>
       <c r="R304" s="1"/>
       <c r="S304" s="1"/>
-      <c r="T304" s="1"/>
-      <c r="W304" s="1"/>
-    </row>
-    <row r="305" spans="1:23">
+      <c r="V304" s="1"/>
+    </row>
+    <row r="305" spans="1:22">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
@@ -9988,10 +9656,9 @@
       <c r="Q305" s="1"/>
       <c r="R305" s="1"/>
       <c r="S305" s="1"/>
-      <c r="T305" s="1"/>
-      <c r="W305" s="1"/>
-    </row>
-    <row r="306" spans="1:23">
+      <c r="V305" s="1"/>
+    </row>
+    <row r="306" spans="1:22">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
@@ -10010,10 +9677,9 @@
       <c r="Q306" s="1"/>
       <c r="R306" s="1"/>
       <c r="S306" s="1"/>
-      <c r="T306" s="1"/>
-      <c r="W306" s="1"/>
-    </row>
-    <row r="307" spans="1:23">
+      <c r="V306" s="1"/>
+    </row>
+    <row r="307" spans="1:22">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
@@ -10032,10 +9698,9 @@
       <c r="Q307" s="1"/>
       <c r="R307" s="1"/>
       <c r="S307" s="1"/>
-      <c r="T307" s="1"/>
-      <c r="W307" s="1"/>
-    </row>
-    <row r="308" spans="1:23">
+      <c r="V307" s="1"/>
+    </row>
+    <row r="308" spans="1:22">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
@@ -10054,10 +9719,9 @@
       <c r="Q308" s="1"/>
       <c r="R308" s="1"/>
       <c r="S308" s="1"/>
-      <c r="T308" s="1"/>
-      <c r="W308" s="1"/>
-    </row>
-    <row r="309" spans="1:23">
+      <c r="V308" s="1"/>
+    </row>
+    <row r="309" spans="1:22">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
@@ -10076,10 +9740,9 @@
       <c r="Q309" s="1"/>
       <c r="R309" s="1"/>
       <c r="S309" s="1"/>
-      <c r="T309" s="1"/>
-      <c r="W309" s="1"/>
-    </row>
-    <row r="310" spans="1:23">
+      <c r="V309" s="1"/>
+    </row>
+    <row r="310" spans="1:22">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
@@ -10098,10 +9761,9 @@
       <c r="Q310" s="1"/>
       <c r="R310" s="1"/>
       <c r="S310" s="1"/>
-      <c r="T310" s="1"/>
-      <c r="W310" s="1"/>
-    </row>
-    <row r="311" spans="1:23">
+      <c r="V310" s="1"/>
+    </row>
+    <row r="311" spans="1:22">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
@@ -10120,10 +9782,9 @@
       <c r="Q311" s="1"/>
       <c r="R311" s="1"/>
       <c r="S311" s="1"/>
-      <c r="T311" s="1"/>
-      <c r="W311" s="1"/>
-    </row>
-    <row r="312" spans="1:23">
+      <c r="V311" s="1"/>
+    </row>
+    <row r="312" spans="1:22">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
@@ -10142,10 +9803,9 @@
       <c r="Q312" s="1"/>
       <c r="R312" s="1"/>
       <c r="S312" s="1"/>
-      <c r="T312" s="1"/>
-      <c r="W312" s="1"/>
-    </row>
-    <row r="313" spans="1:23">
+      <c r="V312" s="1"/>
+    </row>
+    <row r="313" spans="1:22">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
@@ -10164,10 +9824,9 @@
       <c r="Q313" s="1"/>
       <c r="R313" s="1"/>
       <c r="S313" s="1"/>
-      <c r="T313" s="1"/>
-      <c r="W313" s="1"/>
-    </row>
-    <row r="314" spans="1:23">
+      <c r="V313" s="1"/>
+    </row>
+    <row r="314" spans="1:22">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
@@ -10186,10 +9845,9 @@
       <c r="Q314" s="1"/>
       <c r="R314" s="1"/>
       <c r="S314" s="1"/>
-      <c r="T314" s="1"/>
-      <c r="W314" s="1"/>
-    </row>
-    <row r="315" spans="1:23">
+      <c r="V314" s="1"/>
+    </row>
+    <row r="315" spans="1:22">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
@@ -10208,10 +9866,9 @@
       <c r="Q315" s="1"/>
       <c r="R315" s="1"/>
       <c r="S315" s="1"/>
-      <c r="T315" s="1"/>
-      <c r="W315" s="1"/>
-    </row>
-    <row r="316" spans="1:23">
+      <c r="V315" s="1"/>
+    </row>
+    <row r="316" spans="1:22">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
@@ -10230,10 +9887,9 @@
       <c r="Q316" s="1"/>
       <c r="R316" s="1"/>
       <c r="S316" s="1"/>
-      <c r="T316" s="1"/>
-      <c r="W316" s="1"/>
-    </row>
-    <row r="317" spans="1:23">
+      <c r="V316" s="1"/>
+    </row>
+    <row r="317" spans="1:22">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
@@ -10252,10 +9908,9 @@
       <c r="Q317" s="1"/>
       <c r="R317" s="1"/>
       <c r="S317" s="1"/>
-      <c r="T317" s="1"/>
-      <c r="W317" s="1"/>
-    </row>
-    <row r="318" spans="1:23">
+      <c r="V317" s="1"/>
+    </row>
+    <row r="318" spans="1:22">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
@@ -10274,10 +9929,9 @@
       <c r="Q318" s="1"/>
       <c r="R318" s="1"/>
       <c r="S318" s="1"/>
-      <c r="T318" s="1"/>
-      <c r="W318" s="1"/>
-    </row>
-    <row r="319" spans="1:23">
+      <c r="V318" s="1"/>
+    </row>
+    <row r="319" spans="1:22">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
@@ -10296,10 +9950,9 @@
       <c r="Q319" s="1"/>
       <c r="R319" s="1"/>
       <c r="S319" s="1"/>
-      <c r="T319" s="1"/>
-      <c r="W319" s="1"/>
-    </row>
-    <row r="320" spans="1:23">
+      <c r="V319" s="1"/>
+    </row>
+    <row r="320" spans="1:22">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
@@ -10318,10 +9971,9 @@
       <c r="Q320" s="1"/>
       <c r="R320" s="1"/>
       <c r="S320" s="1"/>
-      <c r="T320" s="1"/>
-      <c r="W320" s="1"/>
-    </row>
-    <row r="321" spans="1:23">
+      <c r="V320" s="1"/>
+    </row>
+    <row r="321" spans="1:22">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
@@ -10340,10 +9992,9 @@
       <c r="Q321" s="1"/>
       <c r="R321" s="1"/>
       <c r="S321" s="1"/>
-      <c r="T321" s="1"/>
-      <c r="W321" s="1"/>
-    </row>
-    <row r="322" spans="1:23">
+      <c r="V321" s="1"/>
+    </row>
+    <row r="322" spans="1:22">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
@@ -10362,10 +10013,9 @@
       <c r="Q322" s="1"/>
       <c r="R322" s="1"/>
       <c r="S322" s="1"/>
-      <c r="T322" s="1"/>
-      <c r="W322" s="1"/>
-    </row>
-    <row r="323" spans="1:23">
+      <c r="V322" s="1"/>
+    </row>
+    <row r="323" spans="1:22">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
@@ -10384,10 +10034,9 @@
       <c r="Q323" s="1"/>
       <c r="R323" s="1"/>
       <c r="S323" s="1"/>
-      <c r="T323" s="1"/>
-      <c r="W323" s="1"/>
-    </row>
-    <row r="324" spans="1:23">
+      <c r="V323" s="1"/>
+    </row>
+    <row r="324" spans="1:22">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
@@ -10406,10 +10055,9 @@
       <c r="Q324" s="1"/>
       <c r="R324" s="1"/>
       <c r="S324" s="1"/>
-      <c r="T324" s="1"/>
-      <c r="W324" s="1"/>
-    </row>
-    <row r="325" spans="1:23">
+      <c r="V324" s="1"/>
+    </row>
+    <row r="325" spans="1:22">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
@@ -10428,10 +10076,9 @@
       <c r="Q325" s="1"/>
       <c r="R325" s="1"/>
       <c r="S325" s="1"/>
-      <c r="T325" s="1"/>
-      <c r="W325" s="1"/>
-    </row>
-    <row r="326" spans="1:23">
+      <c r="V325" s="1"/>
+    </row>
+    <row r="326" spans="1:22">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
@@ -10450,10 +10097,9 @@
       <c r="Q326" s="1"/>
       <c r="R326" s="1"/>
       <c r="S326" s="1"/>
-      <c r="T326" s="1"/>
-      <c r="W326" s="1"/>
-    </row>
-    <row r="327" spans="1:23">
+      <c r="V326" s="1"/>
+    </row>
+    <row r="327" spans="1:22">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
@@ -10472,10 +10118,9 @@
       <c r="Q327" s="1"/>
       <c r="R327" s="1"/>
       <c r="S327" s="1"/>
-      <c r="T327" s="1"/>
-      <c r="W327" s="1"/>
-    </row>
-    <row r="328" spans="1:23">
+      <c r="V327" s="1"/>
+    </row>
+    <row r="328" spans="1:22">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
@@ -10494,10 +10139,9 @@
       <c r="Q328" s="1"/>
       <c r="R328" s="1"/>
       <c r="S328" s="1"/>
-      <c r="T328" s="1"/>
-      <c r="W328" s="1"/>
-    </row>
-    <row r="329" spans="1:23">
+      <c r="V328" s="1"/>
+    </row>
+    <row r="329" spans="1:22">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
@@ -10516,10 +10160,9 @@
       <c r="Q329" s="1"/>
       <c r="R329" s="1"/>
       <c r="S329" s="1"/>
-      <c r="T329" s="1"/>
-      <c r="W329" s="1"/>
-    </row>
-    <row r="330" spans="1:23">
+      <c r="V329" s="1"/>
+    </row>
+    <row r="330" spans="1:22">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
@@ -10538,10 +10181,9 @@
       <c r="Q330" s="1"/>
       <c r="R330" s="1"/>
       <c r="S330" s="1"/>
-      <c r="T330" s="1"/>
-      <c r="W330" s="1"/>
-    </row>
-    <row r="331" spans="1:23">
+      <c r="V330" s="1"/>
+    </row>
+    <row r="331" spans="1:22">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
@@ -10560,10 +10202,9 @@
       <c r="Q331" s="1"/>
       <c r="R331" s="1"/>
       <c r="S331" s="1"/>
-      <c r="T331" s="1"/>
-      <c r="W331" s="1"/>
-    </row>
-    <row r="332" spans="1:23">
+      <c r="V331" s="1"/>
+    </row>
+    <row r="332" spans="1:22">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
@@ -10582,10 +10223,9 @@
       <c r="Q332" s="1"/>
       <c r="R332" s="1"/>
       <c r="S332" s="1"/>
-      <c r="T332" s="1"/>
-      <c r="W332" s="1"/>
-    </row>
-    <row r="333" spans="1:23">
+      <c r="V332" s="1"/>
+    </row>
+    <row r="333" spans="1:22">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
@@ -10604,10 +10244,9 @@
       <c r="Q333" s="1"/>
       <c r="R333" s="1"/>
       <c r="S333" s="1"/>
-      <c r="T333" s="1"/>
-      <c r="W333" s="1"/>
-    </row>
-    <row r="334" spans="1:23">
+      <c r="V333" s="1"/>
+    </row>
+    <row r="334" spans="1:22">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
@@ -10626,10 +10265,9 @@
       <c r="Q334" s="1"/>
       <c r="R334" s="1"/>
       <c r="S334" s="1"/>
-      <c r="T334" s="1"/>
-      <c r="W334" s="1"/>
-    </row>
-    <row r="335" spans="1:23">
+      <c r="V334" s="1"/>
+    </row>
+    <row r="335" spans="1:22">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
@@ -10648,10 +10286,9 @@
       <c r="Q335" s="1"/>
       <c r="R335" s="1"/>
       <c r="S335" s="1"/>
-      <c r="T335" s="1"/>
-      <c r="W335" s="1"/>
-    </row>
-    <row r="336" spans="1:23">
+      <c r="V335" s="1"/>
+    </row>
+    <row r="336" spans="1:22">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
@@ -10670,10 +10307,9 @@
       <c r="Q336" s="1"/>
       <c r="R336" s="1"/>
       <c r="S336" s="1"/>
-      <c r="T336" s="1"/>
-      <c r="W336" s="1"/>
-    </row>
-    <row r="337" spans="1:23">
+      <c r="V336" s="1"/>
+    </row>
+    <row r="337" spans="1:22">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
@@ -10692,10 +10328,9 @@
       <c r="Q337" s="1"/>
       <c r="R337" s="1"/>
       <c r="S337" s="1"/>
-      <c r="T337" s="1"/>
-      <c r="W337" s="1"/>
-    </row>
-    <row r="338" spans="1:23">
+      <c r="V337" s="1"/>
+    </row>
+    <row r="338" spans="1:22">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
@@ -10714,10 +10349,9 @@
       <c r="Q338" s="1"/>
       <c r="R338" s="1"/>
       <c r="S338" s="1"/>
-      <c r="T338" s="1"/>
-      <c r="W338" s="1"/>
-    </row>
-    <row r="339" spans="1:23">
+      <c r="V338" s="1"/>
+    </row>
+    <row r="339" spans="1:22">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
@@ -10736,10 +10370,9 @@
       <c r="Q339" s="1"/>
       <c r="R339" s="1"/>
       <c r="S339" s="1"/>
-      <c r="T339" s="1"/>
-      <c r="W339" s="1"/>
-    </row>
-    <row r="340" spans="1:23">
+      <c r="V339" s="1"/>
+    </row>
+    <row r="340" spans="1:22">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
@@ -10758,10 +10391,9 @@
       <c r="Q340" s="1"/>
       <c r="R340" s="1"/>
       <c r="S340" s="1"/>
-      <c r="T340" s="1"/>
-      <c r="W340" s="1"/>
-    </row>
-    <row r="341" spans="1:23">
+      <c r="V340" s="1"/>
+    </row>
+    <row r="341" spans="1:22">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
@@ -10780,10 +10412,9 @@
       <c r="Q341" s="1"/>
       <c r="R341" s="1"/>
       <c r="S341" s="1"/>
-      <c r="T341" s="1"/>
-      <c r="W341" s="1"/>
-    </row>
-    <row r="342" spans="1:23">
+      <c r="V341" s="1"/>
+    </row>
+    <row r="342" spans="1:22">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
@@ -10802,10 +10433,9 @@
       <c r="Q342" s="1"/>
       <c r="R342" s="1"/>
       <c r="S342" s="1"/>
-      <c r="T342" s="1"/>
-      <c r="W342" s="1"/>
-    </row>
-    <row r="343" spans="1:23">
+      <c r="V342" s="1"/>
+    </row>
+    <row r="343" spans="1:22">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
@@ -10824,10 +10454,9 @@
       <c r="Q343" s="1"/>
       <c r="R343" s="1"/>
       <c r="S343" s="1"/>
-      <c r="T343" s="1"/>
-      <c r="W343" s="1"/>
-    </row>
-    <row r="344" spans="1:23">
+      <c r="V343" s="1"/>
+    </row>
+    <row r="344" spans="1:22">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -10846,10 +10475,9 @@
       <c r="Q344" s="1"/>
       <c r="R344" s="1"/>
       <c r="S344" s="1"/>
-      <c r="T344" s="1"/>
-      <c r="W344" s="1"/>
-    </row>
-    <row r="345" spans="1:23">
+      <c r="V344" s="1"/>
+    </row>
+    <row r="345" spans="1:22">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
@@ -10868,10 +10496,9 @@
       <c r="Q345" s="1"/>
       <c r="R345" s="1"/>
       <c r="S345" s="1"/>
-      <c r="T345" s="1"/>
-      <c r="W345" s="1"/>
-    </row>
-    <row r="346" spans="1:23">
+      <c r="V345" s="1"/>
+    </row>
+    <row r="346" spans="1:22">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
@@ -10890,10 +10517,9 @@
       <c r="Q346" s="1"/>
       <c r="R346" s="1"/>
       <c r="S346" s="1"/>
-      <c r="T346" s="1"/>
-      <c r="W346" s="1"/>
-    </row>
-    <row r="347" spans="1:23">
+      <c r="V346" s="1"/>
+    </row>
+    <row r="347" spans="1:22">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
@@ -10912,10 +10538,9 @@
       <c r="Q347" s="1"/>
       <c r="R347" s="1"/>
       <c r="S347" s="1"/>
-      <c r="T347" s="1"/>
-      <c r="W347" s="1"/>
-    </row>
-    <row r="348" spans="1:23">
+      <c r="V347" s="1"/>
+    </row>
+    <row r="348" spans="1:22">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
@@ -10934,10 +10559,9 @@
       <c r="Q348" s="1"/>
       <c r="R348" s="1"/>
       <c r="S348" s="1"/>
-      <c r="T348" s="1"/>
-      <c r="W348" s="1"/>
-    </row>
-    <row r="349" spans="1:23">
+      <c r="V348" s="1"/>
+    </row>
+    <row r="349" spans="1:22">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
@@ -10956,10 +10580,9 @@
       <c r="Q349" s="1"/>
       <c r="R349" s="1"/>
       <c r="S349" s="1"/>
-      <c r="T349" s="1"/>
-      <c r="W349" s="1"/>
-    </row>
-    <row r="350" spans="1:23">
+      <c r="V349" s="1"/>
+    </row>
+    <row r="350" spans="1:22">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
@@ -10978,10 +10601,9 @@
       <c r="Q350" s="1"/>
       <c r="R350" s="1"/>
       <c r="S350" s="1"/>
-      <c r="T350" s="1"/>
-      <c r="W350" s="1"/>
-    </row>
-    <row r="351" spans="1:23">
+      <c r="V350" s="1"/>
+    </row>
+    <row r="351" spans="1:22">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
@@ -11000,10 +10622,9 @@
       <c r="Q351" s="1"/>
       <c r="R351" s="1"/>
       <c r="S351" s="1"/>
-      <c r="T351" s="1"/>
-      <c r="W351" s="1"/>
-    </row>
-    <row r="352" spans="1:23">
+      <c r="V351" s="1"/>
+    </row>
+    <row r="352" spans="1:22">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
@@ -11022,10 +10643,9 @@
       <c r="Q352" s="1"/>
       <c r="R352" s="1"/>
       <c r="S352" s="1"/>
-      <c r="T352" s="1"/>
-      <c r="W352" s="1"/>
-    </row>
-    <row r="353" spans="1:23">
+      <c r="V352" s="1"/>
+    </row>
+    <row r="353" spans="1:22">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
@@ -11044,10 +10664,9 @@
       <c r="Q353" s="1"/>
       <c r="R353" s="1"/>
       <c r="S353" s="1"/>
-      <c r="T353" s="1"/>
-      <c r="W353" s="1"/>
-    </row>
-    <row r="354" spans="1:23">
+      <c r="V353" s="1"/>
+    </row>
+    <row r="354" spans="1:22">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
@@ -11066,10 +10685,9 @@
       <c r="Q354" s="1"/>
       <c r="R354" s="1"/>
       <c r="S354" s="1"/>
-      <c r="T354" s="1"/>
-      <c r="W354" s="1"/>
-    </row>
-    <row r="355" spans="1:23">
+      <c r="V354" s="1"/>
+    </row>
+    <row r="355" spans="1:22">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
@@ -11088,10 +10706,9 @@
       <c r="Q355" s="1"/>
       <c r="R355" s="1"/>
       <c r="S355" s="1"/>
-      <c r="T355" s="1"/>
-      <c r="W355" s="1"/>
-    </row>
-    <row r="356" spans="1:23">
+      <c r="V355" s="1"/>
+    </row>
+    <row r="356" spans="1:22">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
@@ -11110,10 +10727,9 @@
       <c r="Q356" s="1"/>
       <c r="R356" s="1"/>
       <c r="S356" s="1"/>
-      <c r="T356" s="1"/>
-      <c r="W356" s="1"/>
-    </row>
-    <row r="357" spans="1:23">
+      <c r="V356" s="1"/>
+    </row>
+    <row r="357" spans="1:22">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
@@ -11132,10 +10748,9 @@
       <c r="Q357" s="1"/>
       <c r="R357" s="1"/>
       <c r="S357" s="1"/>
-      <c r="T357" s="1"/>
-      <c r="W357" s="1"/>
-    </row>
-    <row r="358" spans="1:23">
+      <c r="V357" s="1"/>
+    </row>
+    <row r="358" spans="1:22">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
@@ -11154,10 +10769,9 @@
       <c r="Q358" s="1"/>
       <c r="R358" s="1"/>
       <c r="S358" s="1"/>
-      <c r="T358" s="1"/>
-      <c r="W358" s="1"/>
-    </row>
-    <row r="359" spans="1:23">
+      <c r="V358" s="1"/>
+    </row>
+    <row r="359" spans="1:22">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
@@ -11176,10 +10790,9 @@
       <c r="Q359" s="1"/>
       <c r="R359" s="1"/>
       <c r="S359" s="1"/>
-      <c r="T359" s="1"/>
-      <c r="W359" s="1"/>
-    </row>
-    <row r="360" spans="1:23">
+      <c r="V359" s="1"/>
+    </row>
+    <row r="360" spans="1:22">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
@@ -11198,10 +10811,9 @@
       <c r="Q360" s="1"/>
       <c r="R360" s="1"/>
       <c r="S360" s="1"/>
-      <c r="T360" s="1"/>
-      <c r="W360" s="1"/>
-    </row>
-    <row r="361" spans="1:23">
+      <c r="V360" s="1"/>
+    </row>
+    <row r="361" spans="1:22">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
@@ -11220,10 +10832,9 @@
       <c r="Q361" s="1"/>
       <c r="R361" s="1"/>
       <c r="S361" s="1"/>
-      <c r="T361" s="1"/>
-      <c r="W361" s="1"/>
-    </row>
-    <row r="362" spans="1:23">
+      <c r="V361" s="1"/>
+    </row>
+    <row r="362" spans="1:22">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
@@ -11242,10 +10853,9 @@
       <c r="Q362" s="1"/>
       <c r="R362" s="1"/>
       <c r="S362" s="1"/>
-      <c r="T362" s="1"/>
-      <c r="W362" s="1"/>
-    </row>
-    <row r="363" spans="1:23">
+      <c r="V362" s="1"/>
+    </row>
+    <row r="363" spans="1:22">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
@@ -11264,10 +10874,9 @@
       <c r="Q363" s="1"/>
       <c r="R363" s="1"/>
       <c r="S363" s="1"/>
-      <c r="T363" s="1"/>
-      <c r="W363" s="1"/>
-    </row>
-    <row r="364" spans="1:23">
+      <c r="V363" s="1"/>
+    </row>
+    <row r="364" spans="1:22">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
@@ -11286,10 +10895,9 @@
       <c r="Q364" s="1"/>
       <c r="R364" s="1"/>
       <c r="S364" s="1"/>
-      <c r="T364" s="1"/>
-      <c r="W364" s="1"/>
-    </row>
-    <row r="365" spans="1:23">
+      <c r="V364" s="1"/>
+    </row>
+    <row r="365" spans="1:22">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
@@ -11308,10 +10916,9 @@
       <c r="Q365" s="1"/>
       <c r="R365" s="1"/>
       <c r="S365" s="1"/>
-      <c r="T365" s="1"/>
-      <c r="W365" s="1"/>
-    </row>
-    <row r="366" spans="1:23">
+      <c r="V365" s="1"/>
+    </row>
+    <row r="366" spans="1:22">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
@@ -11330,10 +10937,9 @@
       <c r="Q366" s="1"/>
       <c r="R366" s="1"/>
       <c r="S366" s="1"/>
-      <c r="T366" s="1"/>
-      <c r="W366" s="1"/>
-    </row>
-    <row r="367" spans="1:23">
+      <c r="V366" s="1"/>
+    </row>
+    <row r="367" spans="1:22">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
@@ -11352,10 +10958,9 @@
       <c r="Q367" s="1"/>
       <c r="R367" s="1"/>
       <c r="S367" s="1"/>
-      <c r="T367" s="1"/>
-      <c r="W367" s="1"/>
-    </row>
-    <row r="368" spans="1:23">
+      <c r="V367" s="1"/>
+    </row>
+    <row r="368" spans="1:22">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
@@ -11374,10 +10979,9 @@
       <c r="Q368" s="1"/>
       <c r="R368" s="1"/>
       <c r="S368" s="1"/>
-      <c r="T368" s="1"/>
-      <c r="W368" s="1"/>
-    </row>
-    <row r="369" spans="1:23">
+      <c r="V368" s="1"/>
+    </row>
+    <row r="369" spans="1:22">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
@@ -11396,10 +11000,9 @@
       <c r="Q369" s="1"/>
       <c r="R369" s="1"/>
       <c r="S369" s="1"/>
-      <c r="T369" s="1"/>
-      <c r="W369" s="1"/>
-    </row>
-    <row r="370" spans="1:23">
+      <c r="V369" s="1"/>
+    </row>
+    <row r="370" spans="1:22">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
@@ -11418,10 +11021,9 @@
       <c r="Q370" s="1"/>
       <c r="R370" s="1"/>
       <c r="S370" s="1"/>
-      <c r="T370" s="1"/>
-      <c r="W370" s="1"/>
-    </row>
-    <row r="371" spans="1:23">
+      <c r="V370" s="1"/>
+    </row>
+    <row r="371" spans="1:22">
       <c r="A371" s="1"/>
       <c r="B371" s="1"/>
       <c r="C371" s="1"/>
@@ -11440,10 +11042,9 @@
       <c r="Q371" s="1"/>
       <c r="R371" s="1"/>
       <c r="S371" s="1"/>
-      <c r="T371" s="1"/>
-      <c r="W371" s="1"/>
-    </row>
-    <row r="372" spans="1:23">
+      <c r="V371" s="1"/>
+    </row>
+    <row r="372" spans="1:22">
       <c r="A372" s="1"/>
       <c r="B372" s="1"/>
       <c r="C372" s="1"/>
@@ -11462,10 +11063,9 @@
       <c r="Q372" s="1"/>
       <c r="R372" s="1"/>
       <c r="S372" s="1"/>
-      <c r="T372" s="1"/>
-      <c r="W372" s="1"/>
-    </row>
-    <row r="373" spans="1:23">
+      <c r="V372" s="1"/>
+    </row>
+    <row r="373" spans="1:22">
       <c r="A373" s="1"/>
       <c r="B373" s="1"/>
       <c r="C373" s="1"/>
@@ -11484,10 +11084,9 @@
       <c r="Q373" s="1"/>
       <c r="R373" s="1"/>
       <c r="S373" s="1"/>
-      <c r="T373" s="1"/>
-      <c r="W373" s="1"/>
-    </row>
-    <row r="374" spans="1:23">
+      <c r="V373" s="1"/>
+    </row>
+    <row r="374" spans="1:22">
       <c r="A374" s="1"/>
       <c r="B374" s="1"/>
       <c r="C374" s="1"/>
@@ -11506,10 +11105,9 @@
       <c r="Q374" s="1"/>
       <c r="R374" s="1"/>
       <c r="S374" s="1"/>
-      <c r="T374" s="1"/>
-      <c r="W374" s="1"/>
-    </row>
-    <row r="375" spans="1:23">
+      <c r="V374" s="1"/>
+    </row>
+    <row r="375" spans="1:22">
       <c r="A375" s="1"/>
       <c r="B375" s="1"/>
       <c r="C375" s="1"/>
@@ -11528,10 +11126,9 @@
       <c r="Q375" s="1"/>
       <c r="R375" s="1"/>
       <c r="S375" s="1"/>
-      <c r="T375" s="1"/>
-      <c r="W375" s="1"/>
-    </row>
-    <row r="376" spans="1:23">
+      <c r="V375" s="1"/>
+    </row>
+    <row r="376" spans="1:22">
       <c r="A376" s="1"/>
       <c r="B376" s="1"/>
       <c r="C376" s="1"/>
@@ -11550,10 +11147,9 @@
       <c r="Q376" s="1"/>
       <c r="R376" s="1"/>
       <c r="S376" s="1"/>
-      <c r="T376" s="1"/>
-      <c r="W376" s="1"/>
-    </row>
-    <row r="377" spans="1:23">
+      <c r="V376" s="1"/>
+    </row>
+    <row r="377" spans="1:22">
       <c r="A377" s="1"/>
       <c r="B377" s="1"/>
       <c r="C377" s="1"/>
@@ -11572,10 +11168,9 @@
       <c r="Q377" s="1"/>
       <c r="R377" s="1"/>
       <c r="S377" s="1"/>
-      <c r="T377" s="1"/>
-      <c r="W377" s="1"/>
-    </row>
-    <row r="378" spans="1:23">
+      <c r="V377" s="1"/>
+    </row>
+    <row r="378" spans="1:22">
       <c r="A378" s="1"/>
       <c r="B378" s="1"/>
       <c r="C378" s="1"/>
@@ -11594,10 +11189,9 @@
       <c r="Q378" s="1"/>
       <c r="R378" s="1"/>
       <c r="S378" s="1"/>
-      <c r="T378" s="1"/>
-      <c r="W378" s="1"/>
-    </row>
-    <row r="379" spans="1:23">
+      <c r="V378" s="1"/>
+    </row>
+    <row r="379" spans="1:22">
       <c r="A379" s="1"/>
       <c r="B379" s="1"/>
       <c r="C379" s="1"/>
@@ -11616,10 +11210,9 @@
       <c r="Q379" s="1"/>
       <c r="R379" s="1"/>
       <c r="S379" s="1"/>
-      <c r="T379" s="1"/>
-      <c r="W379" s="1"/>
-    </row>
-    <row r="380" spans="1:23">
+      <c r="V379" s="1"/>
+    </row>
+    <row r="380" spans="1:22">
       <c r="A380" s="1"/>
       <c r="B380" s="1"/>
       <c r="C380" s="1"/>
@@ -11638,10 +11231,9 @@
       <c r="Q380" s="1"/>
       <c r="R380" s="1"/>
       <c r="S380" s="1"/>
-      <c r="T380" s="1"/>
-      <c r="W380" s="1"/>
-    </row>
-    <row r="381" spans="1:23">
+      <c r="V380" s="1"/>
+    </row>
+    <row r="381" spans="1:22">
       <c r="A381" s="1"/>
       <c r="B381" s="1"/>
       <c r="C381" s="1"/>
@@ -11660,10 +11252,9 @@
       <c r="Q381" s="1"/>
       <c r="R381" s="1"/>
       <c r="S381" s="1"/>
-      <c r="T381" s="1"/>
-      <c r="W381" s="1"/>
-    </row>
-    <row r="382" spans="1:23">
+      <c r="V381" s="1"/>
+    </row>
+    <row r="382" spans="1:22">
       <c r="A382" s="1"/>
       <c r="B382" s="1"/>
       <c r="C382" s="1"/>
@@ -11682,10 +11273,9 @@
       <c r="Q382" s="1"/>
       <c r="R382" s="1"/>
       <c r="S382" s="1"/>
-      <c r="T382" s="1"/>
-      <c r="W382" s="1"/>
-    </row>
-    <row r="383" spans="1:23">
+      <c r="V382" s="1"/>
+    </row>
+    <row r="383" spans="1:22">
       <c r="A383" s="1"/>
       <c r="B383" s="1"/>
       <c r="C383" s="1"/>
@@ -11704,10 +11294,9 @@
       <c r="Q383" s="1"/>
       <c r="R383" s="1"/>
       <c r="S383" s="1"/>
-      <c r="T383" s="1"/>
-      <c r="W383" s="1"/>
-    </row>
-    <row r="384" spans="1:23">
+      <c r="V383" s="1"/>
+    </row>
+    <row r="384" spans="1:22">
       <c r="A384" s="1"/>
       <c r="B384" s="1"/>
       <c r="C384" s="1"/>
@@ -11726,10 +11315,9 @@
       <c r="Q384" s="1"/>
       <c r="R384" s="1"/>
       <c r="S384" s="1"/>
-      <c r="T384" s="1"/>
-      <c r="W384" s="1"/>
-    </row>
-    <row r="385" spans="1:23">
+      <c r="V384" s="1"/>
+    </row>
+    <row r="385" spans="1:22">
       <c r="A385" s="1"/>
       <c r="B385" s="1"/>
       <c r="C385" s="1"/>
@@ -11748,10 +11336,9 @@
       <c r="Q385" s="1"/>
       <c r="R385" s="1"/>
       <c r="S385" s="1"/>
-      <c r="T385" s="1"/>
-      <c r="W385" s="1"/>
-    </row>
-    <row r="386" spans="1:23">
+      <c r="V385" s="1"/>
+    </row>
+    <row r="386" spans="1:22">
       <c r="A386" s="1"/>
       <c r="B386" s="1"/>
       <c r="C386" s="1"/>
@@ -11770,10 +11357,9 @@
       <c r="Q386" s="1"/>
       <c r="R386" s="1"/>
       <c r="S386" s="1"/>
-      <c r="T386" s="1"/>
-      <c r="W386" s="1"/>
-    </row>
-    <row r="387" spans="1:23">
+      <c r="V386" s="1"/>
+    </row>
+    <row r="387" spans="1:22">
       <c r="A387" s="1"/>
       <c r="B387" s="1"/>
       <c r="C387" s="1"/>
@@ -11792,10 +11378,9 @@
       <c r="Q387" s="1"/>
       <c r="R387" s="1"/>
       <c r="S387" s="1"/>
-      <c r="T387" s="1"/>
-      <c r="W387" s="1"/>
-    </row>
-    <row r="388" spans="1:23">
+      <c r="V387" s="1"/>
+    </row>
+    <row r="388" spans="1:22">
       <c r="A388" s="1"/>
       <c r="B388" s="1"/>
       <c r="C388" s="1"/>
@@ -11814,10 +11399,9 @@
       <c r="Q388" s="1"/>
       <c r="R388" s="1"/>
       <c r="S388" s="1"/>
-      <c r="T388" s="1"/>
-      <c r="W388" s="1"/>
-    </row>
-    <row r="389" spans="1:23">
+      <c r="V388" s="1"/>
+    </row>
+    <row r="389" spans="1:22">
       <c r="A389" s="1"/>
       <c r="B389" s="1"/>
       <c r="C389" s="1"/>
@@ -11836,10 +11420,9 @@
       <c r="Q389" s="1"/>
       <c r="R389" s="1"/>
       <c r="S389" s="1"/>
-      <c r="T389" s="1"/>
-      <c r="W389" s="1"/>
-    </row>
-    <row r="390" spans="1:23">
+      <c r="V389" s="1"/>
+    </row>
+    <row r="390" spans="1:22">
       <c r="A390" s="1"/>
       <c r="B390" s="1"/>
       <c r="C390" s="1"/>
@@ -11858,10 +11441,9 @@
       <c r="Q390" s="1"/>
       <c r="R390" s="1"/>
       <c r="S390" s="1"/>
-      <c r="T390" s="1"/>
-      <c r="W390" s="1"/>
-    </row>
-    <row r="391" spans="1:23">
+      <c r="V390" s="1"/>
+    </row>
+    <row r="391" spans="1:22">
       <c r="A391" s="1"/>
       <c r="B391" s="1"/>
       <c r="C391" s="1"/>
@@ -11880,10 +11462,9 @@
       <c r="Q391" s="1"/>
       <c r="R391" s="1"/>
       <c r="S391" s="1"/>
-      <c r="T391" s="1"/>
-      <c r="W391" s="1"/>
-    </row>
-    <row r="392" spans="1:23">
+      <c r="V391" s="1"/>
+    </row>
+    <row r="392" spans="1:22">
       <c r="A392" s="1"/>
       <c r="B392" s="1"/>
       <c r="C392" s="1"/>
@@ -11902,10 +11483,9 @@
       <c r="Q392" s="1"/>
       <c r="R392" s="1"/>
       <c r="S392" s="1"/>
-      <c r="T392" s="1"/>
-      <c r="W392" s="1"/>
-    </row>
-    <row r="393" spans="1:23">
+      <c r="V392" s="1"/>
+    </row>
+    <row r="393" spans="1:22">
       <c r="A393" s="1"/>
       <c r="B393" s="1"/>
       <c r="C393" s="1"/>
@@ -11924,10 +11504,9 @@
       <c r="Q393" s="1"/>
       <c r="R393" s="1"/>
       <c r="S393" s="1"/>
-      <c r="T393" s="1"/>
-      <c r="W393" s="1"/>
-    </row>
-    <row r="394" spans="1:23">
+      <c r="V393" s="1"/>
+    </row>
+    <row r="394" spans="1:22">
       <c r="A394" s="1"/>
       <c r="B394" s="1"/>
       <c r="C394" s="1"/>
@@ -11946,10 +11525,9 @@
       <c r="Q394" s="1"/>
       <c r="R394" s="1"/>
       <c r="S394" s="1"/>
-      <c r="T394" s="1"/>
-      <c r="W394" s="1"/>
-    </row>
-    <row r="395" spans="1:23">
+      <c r="V394" s="1"/>
+    </row>
+    <row r="395" spans="1:22">
       <c r="A395" s="1"/>
       <c r="B395" s="1"/>
       <c r="C395" s="1"/>
@@ -11968,10 +11546,9 @@
       <c r="Q395" s="1"/>
       <c r="R395" s="1"/>
       <c r="S395" s="1"/>
-      <c r="T395" s="1"/>
-      <c r="W395" s="1"/>
-    </row>
-    <row r="396" spans="1:23">
+      <c r="V395" s="1"/>
+    </row>
+    <row r="396" spans="1:22">
       <c r="A396" s="1"/>
       <c r="B396" s="1"/>
       <c r="C396" s="1"/>
@@ -11990,10 +11567,9 @@
       <c r="Q396" s="1"/>
       <c r="R396" s="1"/>
       <c r="S396" s="1"/>
-      <c r="T396" s="1"/>
-      <c r="W396" s="1"/>
-    </row>
-    <row r="397" spans="1:23">
+      <c r="V396" s="1"/>
+    </row>
+    <row r="397" spans="1:22">
       <c r="A397" s="1"/>
       <c r="B397" s="1"/>
       <c r="C397" s="1"/>
@@ -12012,10 +11588,9 @@
       <c r="Q397" s="1"/>
       <c r="R397" s="1"/>
       <c r="S397" s="1"/>
-      <c r="T397" s="1"/>
-      <c r="W397" s="1"/>
-    </row>
-    <row r="398" spans="1:23">
+      <c r="V397" s="1"/>
+    </row>
+    <row r="398" spans="1:22">
       <c r="A398" s="1"/>
       <c r="B398" s="1"/>
       <c r="C398" s="1"/>
@@ -12034,10 +11609,9 @@
       <c r="Q398" s="1"/>
       <c r="R398" s="1"/>
       <c r="S398" s="1"/>
-      <c r="T398" s="1"/>
-      <c r="W398" s="1"/>
-    </row>
-    <row r="399" spans="1:23">
+      <c r="V398" s="1"/>
+    </row>
+    <row r="399" spans="1:22">
       <c r="A399" s="1"/>
       <c r="B399" s="1"/>
       <c r="C399" s="1"/>
@@ -12056,10 +11630,9 @@
       <c r="Q399" s="1"/>
       <c r="R399" s="1"/>
       <c r="S399" s="1"/>
-      <c r="T399" s="1"/>
-      <c r="W399" s="1"/>
-    </row>
-    <row r="400" spans="1:23">
+      <c r="V399" s="1"/>
+    </row>
+    <row r="400" spans="1:22">
       <c r="A400" s="1"/>
       <c r="B400" s="1"/>
       <c r="C400" s="1"/>
@@ -12078,10 +11651,9 @@
       <c r="Q400" s="1"/>
       <c r="R400" s="1"/>
       <c r="S400" s="1"/>
-      <c r="T400" s="1"/>
-      <c r="W400" s="1"/>
-    </row>
-    <row r="401" spans="1:23">
+      <c r="V400" s="1"/>
+    </row>
+    <row r="401" spans="1:22">
       <c r="A401" s="1"/>
       <c r="B401" s="1"/>
       <c r="C401" s="1"/>
@@ -12100,10 +11672,9 @@
       <c r="Q401" s="1"/>
       <c r="R401" s="1"/>
       <c r="S401" s="1"/>
-      <c r="T401" s="1"/>
-      <c r="W401" s="1"/>
-    </row>
-    <row r="402" spans="1:23">
+      <c r="V401" s="1"/>
+    </row>
+    <row r="402" spans="1:22">
       <c r="A402" s="1"/>
       <c r="B402" s="1"/>
       <c r="C402" s="1"/>
@@ -12122,10 +11693,9 @@
       <c r="Q402" s="1"/>
       <c r="R402" s="1"/>
       <c r="S402" s="1"/>
-      <c r="T402" s="1"/>
-      <c r="W402" s="1"/>
-    </row>
-    <row r="403" spans="1:23">
+      <c r="V402" s="1"/>
+    </row>
+    <row r="403" spans="1:22">
       <c r="A403" s="1"/>
       <c r="B403" s="1"/>
       <c r="C403" s="1"/>
@@ -12144,10 +11714,9 @@
       <c r="Q403" s="1"/>
       <c r="R403" s="1"/>
       <c r="S403" s="1"/>
-      <c r="T403" s="1"/>
-      <c r="W403" s="1"/>
-    </row>
-    <row r="404" spans="1:23">
+      <c r="V403" s="1"/>
+    </row>
+    <row r="404" spans="1:22">
       <c r="A404" s="1"/>
       <c r="B404" s="1"/>
       <c r="C404" s="1"/>
@@ -12166,10 +11735,9 @@
       <c r="Q404" s="1"/>
       <c r="R404" s="1"/>
       <c r="S404" s="1"/>
-      <c r="T404" s="1"/>
-      <c r="W404" s="1"/>
-    </row>
-    <row r="405" spans="1:23">
+      <c r="V404" s="1"/>
+    </row>
+    <row r="405" spans="1:22">
       <c r="A405" s="1"/>
       <c r="B405" s="1"/>
       <c r="C405" s="1"/>
@@ -12188,10 +11756,9 @@
       <c r="Q405" s="1"/>
       <c r="R405" s="1"/>
       <c r="S405" s="1"/>
-      <c r="T405" s="1"/>
-      <c r="W405" s="1"/>
-    </row>
-    <row r="406" spans="1:23">
+      <c r="V405" s="1"/>
+    </row>
+    <row r="406" spans="1:22">
       <c r="A406" s="1"/>
       <c r="B406" s="1"/>
       <c r="C406" s="1"/>
@@ -12210,10 +11777,9 @@
       <c r="Q406" s="1"/>
       <c r="R406" s="1"/>
       <c r="S406" s="1"/>
-      <c r="T406" s="1"/>
-      <c r="W406" s="1"/>
-    </row>
-    <row r="407" spans="1:23">
+      <c r="V406" s="1"/>
+    </row>
+    <row r="407" spans="1:22">
       <c r="A407" s="1"/>
       <c r="B407" s="1"/>
       <c r="C407" s="1"/>
@@ -12232,10 +11798,9 @@
       <c r="Q407" s="1"/>
       <c r="R407" s="1"/>
       <c r="S407" s="1"/>
-      <c r="T407" s="1"/>
-      <c r="W407" s="1"/>
-    </row>
-    <row r="408" spans="1:23">
+      <c r="V407" s="1"/>
+    </row>
+    <row r="408" spans="1:22">
       <c r="A408" s="1"/>
       <c r="B408" s="1"/>
       <c r="C408" s="1"/>
@@ -12254,10 +11819,9 @@
       <c r="Q408" s="1"/>
       <c r="R408" s="1"/>
       <c r="S408" s="1"/>
-      <c r="T408" s="1"/>
-      <c r="W408" s="1"/>
-    </row>
-    <row r="409" spans="1:23">
+      <c r="V408" s="1"/>
+    </row>
+    <row r="409" spans="1:22">
       <c r="A409" s="1"/>
       <c r="B409" s="1"/>
       <c r="C409" s="1"/>
@@ -12276,10 +11840,9 @@
       <c r="Q409" s="1"/>
       <c r="R409" s="1"/>
       <c r="S409" s="1"/>
-      <c r="T409" s="1"/>
-      <c r="W409" s="1"/>
-    </row>
-    <row r="410" spans="1:23">
+      <c r="V409" s="1"/>
+    </row>
+    <row r="410" spans="1:22">
       <c r="A410" s="1"/>
       <c r="B410" s="1"/>
       <c r="C410" s="1"/>
@@ -12298,10 +11861,9 @@
       <c r="Q410" s="1"/>
       <c r="R410" s="1"/>
       <c r="S410" s="1"/>
-      <c r="T410" s="1"/>
-      <c r="W410" s="1"/>
-    </row>
-    <row r="411" spans="1:23">
+      <c r="V410" s="1"/>
+    </row>
+    <row r="411" spans="1:22">
       <c r="A411" s="1"/>
       <c r="B411" s="1"/>
       <c r="C411" s="1"/>
@@ -12320,10 +11882,9 @@
       <c r="Q411" s="1"/>
       <c r="R411" s="1"/>
       <c r="S411" s="1"/>
-      <c r="T411" s="1"/>
-      <c r="W411" s="1"/>
-    </row>
-    <row r="412" spans="1:23">
+      <c r="V411" s="1"/>
+    </row>
+    <row r="412" spans="1:22">
       <c r="A412" s="1"/>
       <c r="B412" s="1"/>
       <c r="C412" s="1"/>
@@ -12342,10 +11903,9 @@
       <c r="Q412" s="1"/>
       <c r="R412" s="1"/>
       <c r="S412" s="1"/>
-      <c r="T412" s="1"/>
-      <c r="W412" s="1"/>
-    </row>
-    <row r="413" spans="1:23">
+      <c r="V412" s="1"/>
+    </row>
+    <row r="413" spans="1:22">
       <c r="A413" s="1"/>
       <c r="B413" s="1"/>
       <c r="C413" s="1"/>
@@ -12364,10 +11924,9 @@
       <c r="Q413" s="1"/>
       <c r="R413" s="1"/>
       <c r="S413" s="1"/>
-      <c r="T413" s="1"/>
-      <c r="W413" s="1"/>
-    </row>
-    <row r="414" spans="1:23">
+      <c r="V413" s="1"/>
+    </row>
+    <row r="414" spans="1:22">
       <c r="A414" s="1"/>
       <c r="B414" s="1"/>
       <c r="C414" s="1"/>
@@ -12386,10 +11945,9 @@
       <c r="Q414" s="1"/>
       <c r="R414" s="1"/>
       <c r="S414" s="1"/>
-      <c r="T414" s="1"/>
-      <c r="W414" s="1"/>
-    </row>
-    <row r="415" spans="1:23">
+      <c r="V414" s="1"/>
+    </row>
+    <row r="415" spans="1:22">
       <c r="A415" s="1"/>
       <c r="B415" s="1"/>
       <c r="C415" s="1"/>
@@ -12408,10 +11966,9 @@
       <c r="Q415" s="1"/>
       <c r="R415" s="1"/>
       <c r="S415" s="1"/>
-      <c r="T415" s="1"/>
-      <c r="W415" s="1"/>
-    </row>
-    <row r="416" spans="1:23">
+      <c r="V415" s="1"/>
+    </row>
+    <row r="416" spans="1:22">
       <c r="A416" s="1"/>
       <c r="B416" s="1"/>
       <c r="C416" s="1"/>
@@ -12430,10 +11987,9 @@
       <c r="Q416" s="1"/>
       <c r="R416" s="1"/>
       <c r="S416" s="1"/>
-      <c r="T416" s="1"/>
-      <c r="W416" s="1"/>
-    </row>
-    <row r="417" spans="1:23">
+      <c r="V416" s="1"/>
+    </row>
+    <row r="417" spans="1:22">
       <c r="A417" s="1"/>
       <c r="B417" s="1"/>
       <c r="C417" s="1"/>
@@ -12452,10 +12008,9 @@
       <c r="Q417" s="1"/>
       <c r="R417" s="1"/>
       <c r="S417" s="1"/>
-      <c r="T417" s="1"/>
-      <c r="W417" s="1"/>
-    </row>
-    <row r="418" spans="1:23">
+      <c r="V417" s="1"/>
+    </row>
+    <row r="418" spans="1:22">
       <c r="A418" s="1"/>
       <c r="B418" s="1"/>
       <c r="C418" s="1"/>
@@ -12474,10 +12029,9 @@
       <c r="Q418" s="1"/>
       <c r="R418" s="1"/>
       <c r="S418" s="1"/>
-      <c r="T418" s="1"/>
-      <c r="W418" s="1"/>
-    </row>
-    <row r="419" spans="1:23">
+      <c r="V418" s="1"/>
+    </row>
+    <row r="419" spans="1:22">
       <c r="A419" s="1"/>
       <c r="B419" s="1"/>
       <c r="C419" s="1"/>
@@ -12496,10 +12050,9 @@
       <c r="Q419" s="1"/>
       <c r="R419" s="1"/>
       <c r="S419" s="1"/>
-      <c r="T419" s="1"/>
-      <c r="W419" s="1"/>
-    </row>
-    <row r="420" spans="1:23">
+      <c r="V419" s="1"/>
+    </row>
+    <row r="420" spans="1:22">
       <c r="A420" s="1"/>
       <c r="B420" s="1"/>
       <c r="C420" s="1"/>
@@ -12518,10 +12071,9 @@
       <c r="Q420" s="1"/>
       <c r="R420" s="1"/>
       <c r="S420" s="1"/>
-      <c r="T420" s="1"/>
-      <c r="W420" s="1"/>
-    </row>
-    <row r="421" spans="1:23">
+      <c r="V420" s="1"/>
+    </row>
+    <row r="421" spans="1:22">
       <c r="A421" s="1"/>
       <c r="B421" s="1"/>
       <c r="C421" s="1"/>
@@ -12540,10 +12092,9 @@
       <c r="Q421" s="1"/>
       <c r="R421" s="1"/>
       <c r="S421" s="1"/>
-      <c r="T421" s="1"/>
-      <c r="W421" s="1"/>
-    </row>
-    <row r="422" spans="1:23">
+      <c r="V421" s="1"/>
+    </row>
+    <row r="422" spans="1:22">
       <c r="A422" s="1"/>
       <c r="B422" s="1"/>
       <c r="C422" s="1"/>
@@ -12562,10 +12113,9 @@
       <c r="Q422" s="1"/>
       <c r="R422" s="1"/>
       <c r="S422" s="1"/>
-      <c r="T422" s="1"/>
-      <c r="W422" s="1"/>
-    </row>
-    <row r="423" spans="1:23">
+      <c r="V422" s="1"/>
+    </row>
+    <row r="423" spans="1:22">
       <c r="A423" s="1"/>
       <c r="B423" s="1"/>
       <c r="C423" s="1"/>
@@ -12584,10 +12134,9 @@
       <c r="Q423" s="1"/>
       <c r="R423" s="1"/>
       <c r="S423" s="1"/>
-      <c r="T423" s="1"/>
-      <c r="W423" s="1"/>
-    </row>
-    <row r="424" spans="1:23">
+      <c r="V423" s="1"/>
+    </row>
+    <row r="424" spans="1:22">
       <c r="A424" s="1"/>
       <c r="B424" s="1"/>
       <c r="C424" s="1"/>
@@ -12606,10 +12155,9 @@
       <c r="Q424" s="1"/>
       <c r="R424" s="1"/>
       <c r="S424" s="1"/>
-      <c r="T424" s="1"/>
-      <c r="W424" s="1"/>
-    </row>
-    <row r="425" spans="1:23">
+      <c r="V424" s="1"/>
+    </row>
+    <row r="425" spans="1:22">
       <c r="A425" s="1"/>
       <c r="B425" s="1"/>
       <c r="C425" s="1"/>
@@ -12628,10 +12176,9 @@
       <c r="Q425" s="1"/>
       <c r="R425" s="1"/>
       <c r="S425" s="1"/>
-      <c r="T425" s="1"/>
-      <c r="W425" s="1"/>
-    </row>
-    <row r="426" spans="1:23">
+      <c r="V425" s="1"/>
+    </row>
+    <row r="426" spans="1:22">
       <c r="A426" s="1"/>
       <c r="B426" s="1"/>
       <c r="C426" s="1"/>
@@ -12650,10 +12197,9 @@
       <c r="Q426" s="1"/>
       <c r="R426" s="1"/>
       <c r="S426" s="1"/>
-      <c r="T426" s="1"/>
-      <c r="W426" s="1"/>
-    </row>
-    <row r="427" spans="1:23">
+      <c r="V426" s="1"/>
+    </row>
+    <row r="427" spans="1:22">
       <c r="A427" s="1"/>
       <c r="B427" s="1"/>
       <c r="C427" s="1"/>
@@ -12672,10 +12218,9 @@
       <c r="Q427" s="1"/>
       <c r="R427" s="1"/>
       <c r="S427" s="1"/>
-      <c r="T427" s="1"/>
-      <c r="W427" s="1"/>
-    </row>
-    <row r="428" spans="1:23">
+      <c r="V427" s="1"/>
+    </row>
+    <row r="428" spans="1:22">
       <c r="A428" s="1"/>
       <c r="B428" s="1"/>
       <c r="C428" s="1"/>
@@ -12694,10 +12239,9 @@
       <c r="Q428" s="1"/>
       <c r="R428" s="1"/>
       <c r="S428" s="1"/>
-      <c r="T428" s="1"/>
-      <c r="W428" s="1"/>
-    </row>
-    <row r="429" spans="1:23">
+      <c r="V428" s="1"/>
+    </row>
+    <row r="429" spans="1:22">
       <c r="A429" s="1"/>
       <c r="B429" s="1"/>
       <c r="C429" s="1"/>
@@ -12716,10 +12260,9 @@
       <c r="Q429" s="1"/>
       <c r="R429" s="1"/>
       <c r="S429" s="1"/>
-      <c r="T429" s="1"/>
-      <c r="W429" s="1"/>
-    </row>
-    <row r="430" spans="1:23">
+      <c r="V429" s="1"/>
+    </row>
+    <row r="430" spans="1:22">
       <c r="A430" s="1"/>
       <c r="B430" s="1"/>
       <c r="C430" s="1"/>
@@ -12738,10 +12281,9 @@
       <c r="Q430" s="1"/>
       <c r="R430" s="1"/>
       <c r="S430" s="1"/>
-      <c r="T430" s="1"/>
-      <c r="W430" s="1"/>
-    </row>
-    <row r="431" spans="1:23">
+      <c r="V430" s="1"/>
+    </row>
+    <row r="431" spans="1:22">
       <c r="A431" s="1"/>
       <c r="B431" s="1"/>
       <c r="C431" s="1"/>
@@ -12760,10 +12302,9 @@
       <c r="Q431" s="1"/>
       <c r="R431" s="1"/>
       <c r="S431" s="1"/>
-      <c r="T431" s="1"/>
-      <c r="W431" s="1"/>
-    </row>
-    <row r="432" spans="1:23">
+      <c r="V431" s="1"/>
+    </row>
+    <row r="432" spans="1:22">
       <c r="A432" s="1"/>
       <c r="B432" s="1"/>
       <c r="C432" s="1"/>
@@ -12782,10 +12323,9 @@
       <c r="Q432" s="1"/>
       <c r="R432" s="1"/>
       <c r="S432" s="1"/>
-      <c r="T432" s="1"/>
-      <c r="W432" s="1"/>
-    </row>
-    <row r="433" spans="1:23">
+      <c r="V432" s="1"/>
+    </row>
+    <row r="433" spans="1:22">
       <c r="A433" s="1"/>
       <c r="B433" s="1"/>
       <c r="C433" s="1"/>
@@ -12804,10 +12344,9 @@
       <c r="Q433" s="1"/>
       <c r="R433" s="1"/>
       <c r="S433" s="1"/>
-      <c r="T433" s="1"/>
-      <c r="W433" s="1"/>
-    </row>
-    <row r="434" spans="1:23">
+      <c r="V433" s="1"/>
+    </row>
+    <row r="434" spans="1:22">
       <c r="A434" s="1"/>
       <c r="B434" s="1"/>
       <c r="C434" s="1"/>
@@ -12826,10 +12365,9 @@
       <c r="Q434" s="1"/>
       <c r="R434" s="1"/>
       <c r="S434" s="1"/>
-      <c r="T434" s="1"/>
-      <c r="W434" s="1"/>
-    </row>
-    <row r="435" spans="1:23">
+      <c r="V434" s="1"/>
+    </row>
+    <row r="435" spans="1:22">
       <c r="A435" s="1"/>
       <c r="B435" s="1"/>
       <c r="C435" s="1"/>
@@ -12848,10 +12386,9 @@
       <c r="Q435" s="1"/>
       <c r="R435" s="1"/>
       <c r="S435" s="1"/>
-      <c r="T435" s="1"/>
-      <c r="W435" s="1"/>
-    </row>
-    <row r="436" spans="1:23">
+      <c r="V435" s="1"/>
+    </row>
+    <row r="436" spans="1:22">
       <c r="A436" s="1"/>
       <c r="B436" s="1"/>
       <c r="C436" s="1"/>
@@ -12870,10 +12407,9 @@
       <c r="Q436" s="1"/>
       <c r="R436" s="1"/>
       <c r="S436" s="1"/>
-      <c r="T436" s="1"/>
-      <c r="W436" s="1"/>
-    </row>
-    <row r="437" spans="1:23">
+      <c r="V436" s="1"/>
+    </row>
+    <row r="437" spans="1:22">
       <c r="A437" s="1"/>
       <c r="B437" s="1"/>
       <c r="C437" s="1"/>
@@ -12892,10 +12428,9 @@
       <c r="Q437" s="1"/>
       <c r="R437" s="1"/>
       <c r="S437" s="1"/>
-      <c r="T437" s="1"/>
-      <c r="W437" s="1"/>
-    </row>
-    <row r="438" spans="1:23">
+      <c r="V437" s="1"/>
+    </row>
+    <row r="438" spans="1:22">
       <c r="A438" s="1"/>
       <c r="B438" s="1"/>
       <c r="C438" s="1"/>
@@ -12914,10 +12449,9 @@
       <c r="Q438" s="1"/>
       <c r="R438" s="1"/>
       <c r="S438" s="1"/>
-      <c r="T438" s="1"/>
-      <c r="W438" s="1"/>
-    </row>
-    <row r="439" spans="1:23">
+      <c r="V438" s="1"/>
+    </row>
+    <row r="439" spans="1:22">
       <c r="A439" s="1"/>
       <c r="B439" s="1"/>
       <c r="C439" s="1"/>
@@ -12936,10 +12470,9 @@
       <c r="Q439" s="1"/>
       <c r="R439" s="1"/>
       <c r="S439" s="1"/>
-      <c r="T439" s="1"/>
-      <c r="W439" s="1"/>
-    </row>
-    <row r="440" spans="1:23">
+      <c r="V439" s="1"/>
+    </row>
+    <row r="440" spans="1:22">
       <c r="A440" s="1"/>
       <c r="B440" s="1"/>
       <c r="C440" s="1"/>
@@ -12958,10 +12491,9 @@
       <c r="Q440" s="1"/>
       <c r="R440" s="1"/>
       <c r="S440" s="1"/>
-      <c r="T440" s="1"/>
-      <c r="W440" s="1"/>
-    </row>
-    <row r="441" spans="1:23">
+      <c r="V440" s="1"/>
+    </row>
+    <row r="441" spans="1:22">
       <c r="A441" s="1"/>
       <c r="B441" s="1"/>
       <c r="C441" s="1"/>
@@ -12980,10 +12512,9 @@
       <c r="Q441" s="1"/>
       <c r="R441" s="1"/>
       <c r="S441" s="1"/>
-      <c r="T441" s="1"/>
-      <c r="W441" s="1"/>
-    </row>
-    <row r="442" spans="1:23">
+      <c r="V441" s="1"/>
+    </row>
+    <row r="442" spans="1:22">
       <c r="A442" s="1"/>
       <c r="B442" s="1"/>
       <c r="C442" s="1"/>
@@ -13002,10 +12533,9 @@
       <c r="Q442" s="1"/>
       <c r="R442" s="1"/>
       <c r="S442" s="1"/>
-      <c r="T442" s="1"/>
-      <c r="W442" s="1"/>
-    </row>
-    <row r="443" spans="1:23">
+      <c r="V442" s="1"/>
+    </row>
+    <row r="443" spans="1:22">
       <c r="A443" s="1"/>
       <c r="B443" s="1"/>
       <c r="C443" s="1"/>
@@ -13024,10 +12554,9 @@
       <c r="Q443" s="1"/>
       <c r="R443" s="1"/>
       <c r="S443" s="1"/>
-      <c r="T443" s="1"/>
-      <c r="W443" s="1"/>
-    </row>
-    <row r="444" spans="1:23">
+      <c r="V443" s="1"/>
+    </row>
+    <row r="444" spans="1:22">
       <c r="A444" s="1"/>
       <c r="B444" s="1"/>
       <c r="C444" s="1"/>
@@ -13046,10 +12575,9 @@
       <c r="Q444" s="1"/>
       <c r="R444" s="1"/>
       <c r="S444" s="1"/>
-      <c r="T444" s="1"/>
-      <c r="W444" s="1"/>
-    </row>
-    <row r="445" spans="1:23">
+      <c r="V444" s="1"/>
+    </row>
+    <row r="445" spans="1:22">
       <c r="A445" s="1"/>
       <c r="B445" s="1"/>
       <c r="C445" s="1"/>
@@ -13068,10 +12596,9 @@
       <c r="Q445" s="1"/>
       <c r="R445" s="1"/>
       <c r="S445" s="1"/>
-      <c r="T445" s="1"/>
-      <c r="W445" s="1"/>
-    </row>
-    <row r="446" spans="1:23">
+      <c r="V445" s="1"/>
+    </row>
+    <row r="446" spans="1:22">
       <c r="A446" s="1"/>
       <c r="B446" s="1"/>
       <c r="C446" s="1"/>
@@ -13090,10 +12617,9 @@
       <c r="Q446" s="1"/>
       <c r="R446" s="1"/>
       <c r="S446" s="1"/>
-      <c r="T446" s="1"/>
-      <c r="W446" s="1"/>
-    </row>
-    <row r="447" spans="1:23">
+      <c r="V446" s="1"/>
+    </row>
+    <row r="447" spans="1:22">
       <c r="A447" s="1"/>
       <c r="B447" s="1"/>
       <c r="C447" s="1"/>
@@ -13112,10 +12638,9 @@
       <c r="Q447" s="1"/>
       <c r="R447" s="1"/>
       <c r="S447" s="1"/>
-      <c r="T447" s="1"/>
-      <c r="W447" s="1"/>
-    </row>
-    <row r="448" spans="1:23">
+      <c r="V447" s="1"/>
+    </row>
+    <row r="448" spans="1:22">
       <c r="A448" s="1"/>
       <c r="B448" s="1"/>
       <c r="C448" s="1"/>
@@ -13134,10 +12659,9 @@
       <c r="Q448" s="1"/>
       <c r="R448" s="1"/>
       <c r="S448" s="1"/>
-      <c r="T448" s="1"/>
-      <c r="W448" s="1"/>
-    </row>
-    <row r="449" spans="1:23">
+      <c r="V448" s="1"/>
+    </row>
+    <row r="449" spans="1:22">
       <c r="A449" s="1"/>
       <c r="B449" s="1"/>
       <c r="C449" s="1"/>
@@ -13156,10 +12680,9 @@
       <c r="Q449" s="1"/>
       <c r="R449" s="1"/>
       <c r="S449" s="1"/>
-      <c r="T449" s="1"/>
-      <c r="W449" s="1"/>
-    </row>
-    <row r="450" spans="1:23">
+      <c r="V449" s="1"/>
+    </row>
+    <row r="450" spans="1:22">
       <c r="A450" s="1"/>
       <c r="B450" s="1"/>
       <c r="C450" s="1"/>
@@ -13178,10 +12701,9 @@
       <c r="Q450" s="1"/>
       <c r="R450" s="1"/>
       <c r="S450" s="1"/>
-      <c r="T450" s="1"/>
-      <c r="W450" s="1"/>
-    </row>
-    <row r="451" spans="1:23">
+      <c r="V450" s="1"/>
+    </row>
+    <row r="451" spans="1:22">
       <c r="A451" s="1"/>
       <c r="B451" s="1"/>
       <c r="C451" s="1"/>
@@ -13200,10 +12722,9 @@
       <c r="Q451" s="1"/>
       <c r="R451" s="1"/>
       <c r="S451" s="1"/>
-      <c r="T451" s="1"/>
-      <c r="W451" s="1"/>
-    </row>
-    <row r="452" spans="1:23">
+      <c r="V451" s="1"/>
+    </row>
+    <row r="452" spans="1:22">
       <c r="A452" s="1"/>
       <c r="B452" s="1"/>
       <c r="C452" s="1"/>
@@ -13222,10 +12743,9 @@
       <c r="Q452" s="1"/>
       <c r="R452" s="1"/>
       <c r="S452" s="1"/>
-      <c r="T452" s="1"/>
-      <c r="W452" s="1"/>
-    </row>
-    <row r="453" spans="1:23">
+      <c r="V452" s="1"/>
+    </row>
+    <row r="453" spans="1:22">
       <c r="A453" s="1"/>
       <c r="B453" s="1"/>
       <c r="C453" s="1"/>
@@ -13244,10 +12764,9 @@
       <c r="Q453" s="1"/>
       <c r="R453" s="1"/>
       <c r="S453" s="1"/>
-      <c r="T453" s="1"/>
-      <c r="W453" s="1"/>
-    </row>
-    <row r="454" spans="1:23">
+      <c r="V453" s="1"/>
+    </row>
+    <row r="454" spans="1:22">
       <c r="A454" s="1"/>
       <c r="B454" s="1"/>
       <c r="C454" s="1"/>
@@ -13266,10 +12785,9 @@
       <c r="Q454" s="1"/>
       <c r="R454" s="1"/>
       <c r="S454" s="1"/>
-      <c r="T454" s="1"/>
-      <c r="W454" s="1"/>
-    </row>
-    <row r="455" spans="1:23">
+      <c r="V454" s="1"/>
+    </row>
+    <row r="455" spans="1:22">
       <c r="A455" s="1"/>
       <c r="B455" s="1"/>
       <c r="C455" s="1"/>
@@ -13288,10 +12806,9 @@
       <c r="Q455" s="1"/>
       <c r="R455" s="1"/>
       <c r="S455" s="1"/>
-      <c r="T455" s="1"/>
-      <c r="W455" s="1"/>
-    </row>
-    <row r="456" spans="1:23">
+      <c r="V455" s="1"/>
+    </row>
+    <row r="456" spans="1:22">
       <c r="A456" s="1"/>
       <c r="B456" s="1"/>
       <c r="C456" s="1"/>
@@ -13310,10 +12827,9 @@
       <c r="Q456" s="1"/>
       <c r="R456" s="1"/>
       <c r="S456" s="1"/>
-      <c r="T456" s="1"/>
-      <c r="W456" s="1"/>
-    </row>
-    <row r="457" spans="1:23">
+      <c r="V456" s="1"/>
+    </row>
+    <row r="457" spans="1:22">
       <c r="A457" s="1"/>
       <c r="B457" s="1"/>
       <c r="C457" s="1"/>
@@ -13332,10 +12848,9 @@
       <c r="Q457" s="1"/>
       <c r="R457" s="1"/>
       <c r="S457" s="1"/>
-      <c r="T457" s="1"/>
-      <c r="W457" s="1"/>
-    </row>
-    <row r="458" spans="1:23">
+      <c r="V457" s="1"/>
+    </row>
+    <row r="458" spans="1:22">
       <c r="A458" s="1"/>
       <c r="B458" s="1"/>
       <c r="C458" s="1"/>
@@ -13354,10 +12869,9 @@
       <c r="Q458" s="1"/>
       <c r="R458" s="1"/>
       <c r="S458" s="1"/>
-      <c r="T458" s="1"/>
-      <c r="W458" s="1"/>
-    </row>
-    <row r="459" spans="1:23">
+      <c r="V458" s="1"/>
+    </row>
+    <row r="459" spans="1:22">
       <c r="A459" s="1"/>
       <c r="B459" s="1"/>
       <c r="C459" s="1"/>
@@ -13376,10 +12890,9 @@
       <c r="Q459" s="1"/>
       <c r="R459" s="1"/>
       <c r="S459" s="1"/>
-      <c r="T459" s="1"/>
-      <c r="W459" s="1"/>
-    </row>
-    <row r="460" spans="1:23">
+      <c r="V459" s="1"/>
+    </row>
+    <row r="460" spans="1:22">
       <c r="A460" s="1"/>
       <c r="B460" s="1"/>
       <c r="C460" s="1"/>
@@ -13398,10 +12911,9 @@
       <c r="Q460" s="1"/>
       <c r="R460" s="1"/>
       <c r="S460" s="1"/>
-      <c r="T460" s="1"/>
-      <c r="W460" s="1"/>
-    </row>
-    <row r="461" spans="1:23">
+      <c r="V460" s="1"/>
+    </row>
+    <row r="461" spans="1:22">
       <c r="A461" s="1"/>
       <c r="B461" s="1"/>
       <c r="C461" s="1"/>
@@ -13420,10 +12932,9 @@
       <c r="Q461" s="1"/>
       <c r="R461" s="1"/>
       <c r="S461" s="1"/>
-      <c r="T461" s="1"/>
-      <c r="W461" s="1"/>
-    </row>
-    <row r="462" spans="1:23">
+      <c r="V461" s="1"/>
+    </row>
+    <row r="462" spans="1:22">
       <c r="A462" s="1"/>
       <c r="B462" s="1"/>
       <c r="C462" s="1"/>
@@ -13442,10 +12953,9 @@
       <c r="Q462" s="1"/>
       <c r="R462" s="1"/>
       <c r="S462" s="1"/>
-      <c r="T462" s="1"/>
-      <c r="W462" s="1"/>
-    </row>
-    <row r="463" spans="1:23">
+      <c r="V462" s="1"/>
+    </row>
+    <row r="463" spans="1:22">
       <c r="A463" s="1"/>
       <c r="B463" s="1"/>
       <c r="C463" s="1"/>
@@ -13464,10 +12974,9 @@
       <c r="Q463" s="1"/>
       <c r="R463" s="1"/>
       <c r="S463" s="1"/>
-      <c r="T463" s="1"/>
-      <c r="W463" s="1"/>
-    </row>
-    <row r="464" spans="1:23">
+      <c r="V463" s="1"/>
+    </row>
+    <row r="464" spans="1:22">
       <c r="A464" s="1"/>
       <c r="B464" s="1"/>
       <c r="C464" s="1"/>
@@ -13486,10 +12995,9 @@
       <c r="Q464" s="1"/>
       <c r="R464" s="1"/>
       <c r="S464" s="1"/>
-      <c r="T464" s="1"/>
-      <c r="W464" s="1"/>
-    </row>
-    <row r="465" spans="1:23">
+      <c r="V464" s="1"/>
+    </row>
+    <row r="465" spans="1:22">
       <c r="A465" s="1"/>
       <c r="B465" s="1"/>
       <c r="C465" s="1"/>
@@ -13508,10 +13016,9 @@
       <c r="Q465" s="1"/>
       <c r="R465" s="1"/>
       <c r="S465" s="1"/>
-      <c r="T465" s="1"/>
-      <c r="W465" s="1"/>
-    </row>
-    <row r="466" spans="1:23">
+      <c r="V465" s="1"/>
+    </row>
+    <row r="466" spans="1:22">
       <c r="A466" s="1"/>
       <c r="B466" s="1"/>
       <c r="C466" s="1"/>
@@ -13530,10 +13037,9 @@
       <c r="Q466" s="1"/>
       <c r="R466" s="1"/>
       <c r="S466" s="1"/>
-      <c r="T466" s="1"/>
-      <c r="W466" s="1"/>
-    </row>
-    <row r="467" spans="1:23">
+      <c r="V466" s="1"/>
+    </row>
+    <row r="467" spans="1:22">
       <c r="A467" s="1"/>
       <c r="B467" s="1"/>
       <c r="C467" s="1"/>
@@ -13552,10 +13058,9 @@
       <c r="Q467" s="1"/>
       <c r="R467" s="1"/>
       <c r="S467" s="1"/>
-      <c r="T467" s="1"/>
-      <c r="W467" s="1"/>
-    </row>
-    <row r="468" spans="1:23">
+      <c r="V467" s="1"/>
+    </row>
+    <row r="468" spans="1:22">
       <c r="A468" s="1"/>
       <c r="B468" s="1"/>
       <c r="C468" s="1"/>
@@ -13574,10 +13079,9 @@
       <c r="Q468" s="1"/>
       <c r="R468" s="1"/>
       <c r="S468" s="1"/>
-      <c r="T468" s="1"/>
-      <c r="W468" s="1"/>
-    </row>
-    <row r="469" spans="1:23">
+      <c r="V468" s="1"/>
+    </row>
+    <row r="469" spans="1:22">
       <c r="A469" s="1"/>
       <c r="B469" s="1"/>
       <c r="C469" s="1"/>
@@ -13596,10 +13100,9 @@
       <c r="Q469" s="1"/>
       <c r="R469" s="1"/>
       <c r="S469" s="1"/>
-      <c r="T469" s="1"/>
-      <c r="W469" s="1"/>
-    </row>
-    <row r="470" spans="1:23">
+      <c r="V469" s="1"/>
+    </row>
+    <row r="470" spans="1:22">
       <c r="A470" s="1"/>
       <c r="B470" s="1"/>
       <c r="C470" s="1"/>
@@ -13618,10 +13121,9 @@
       <c r="Q470" s="1"/>
       <c r="R470" s="1"/>
       <c r="S470" s="1"/>
-      <c r="T470" s="1"/>
-      <c r="W470" s="1"/>
-    </row>
-    <row r="471" spans="1:23">
+      <c r="V470" s="1"/>
+    </row>
+    <row r="471" spans="1:22">
       <c r="A471" s="1"/>
       <c r="B471" s="1"/>
       <c r="C471" s="1"/>
@@ -13640,10 +13142,9 @@
       <c r="Q471" s="1"/>
       <c r="R471" s="1"/>
       <c r="S471" s="1"/>
-      <c r="T471" s="1"/>
-      <c r="W471" s="1"/>
-    </row>
-    <row r="472" spans="1:23">
+      <c r="V471" s="1"/>
+    </row>
+    <row r="472" spans="1:22">
       <c r="A472" s="1"/>
       <c r="B472" s="1"/>
       <c r="C472" s="1"/>
@@ -13662,10 +13163,9 @@
       <c r="Q472" s="1"/>
       <c r="R472" s="1"/>
       <c r="S472" s="1"/>
-      <c r="T472" s="1"/>
-      <c r="W472" s="1"/>
-    </row>
-    <row r="473" spans="1:23">
+      <c r="V472" s="1"/>
+    </row>
+    <row r="473" spans="1:22">
       <c r="A473" s="1"/>
       <c r="B473" s="1"/>
       <c r="C473" s="1"/>
@@ -13684,10 +13184,9 @@
       <c r="Q473" s="1"/>
       <c r="R473" s="1"/>
       <c r="S473" s="1"/>
-      <c r="T473" s="1"/>
-      <c r="W473" s="1"/>
-    </row>
-    <row r="474" spans="1:23">
+      <c r="V473" s="1"/>
+    </row>
+    <row r="474" spans="1:22">
       <c r="A474" s="1"/>
       <c r="B474" s="1"/>
       <c r="C474" s="1"/>
@@ -13706,10 +13205,9 @@
       <c r="Q474" s="1"/>
       <c r="R474" s="1"/>
       <c r="S474" s="1"/>
-      <c r="T474" s="1"/>
-      <c r="W474" s="1"/>
-    </row>
-    <row r="475" spans="1:23">
+      <c r="V474" s="1"/>
+    </row>
+    <row r="475" spans="1:22">
       <c r="A475" s="1"/>
       <c r="B475" s="1"/>
       <c r="C475" s="1"/>
@@ -13728,10 +13226,9 @@
       <c r="Q475" s="1"/>
       <c r="R475" s="1"/>
       <c r="S475" s="1"/>
-      <c r="T475" s="1"/>
-      <c r="W475" s="1"/>
-    </row>
-    <row r="476" spans="1:23">
+      <c r="V475" s="1"/>
+    </row>
+    <row r="476" spans="1:22">
       <c r="A476" s="1"/>
       <c r="B476" s="1"/>
       <c r="C476" s="1"/>
@@ -13750,10 +13247,9 @@
       <c r="Q476" s="1"/>
       <c r="R476" s="1"/>
       <c r="S476" s="1"/>
-      <c r="T476" s="1"/>
-      <c r="W476" s="1"/>
-    </row>
-    <row r="477" spans="1:23">
+      <c r="V476" s="1"/>
+    </row>
+    <row r="477" spans="1:22">
       <c r="A477" s="1"/>
       <c r="B477" s="1"/>
       <c r="C477" s="1"/>
@@ -13772,10 +13268,9 @@
       <c r="Q477" s="1"/>
       <c r="R477" s="1"/>
       <c r="S477" s="1"/>
-      <c r="T477" s="1"/>
-      <c r="W477" s="1"/>
-    </row>
-    <row r="478" spans="1:23">
+      <c r="V477" s="1"/>
+    </row>
+    <row r="478" spans="1:22">
       <c r="A478" s="1"/>
       <c r="B478" s="1"/>
       <c r="C478" s="1"/>
@@ -13794,10 +13289,9 @@
       <c r="Q478" s="1"/>
       <c r="R478" s="1"/>
       <c r="S478" s="1"/>
-      <c r="T478" s="1"/>
-      <c r="W478" s="1"/>
-    </row>
-    <row r="479" spans="1:23">
+      <c r="V478" s="1"/>
+    </row>
+    <row r="479" spans="1:22">
       <c r="A479" s="1"/>
       <c r="B479" s="1"/>
       <c r="C479" s="1"/>
@@ -13816,10 +13310,9 @@
       <c r="Q479" s="1"/>
       <c r="R479" s="1"/>
       <c r="S479" s="1"/>
-      <c r="T479" s="1"/>
-      <c r="W479" s="1"/>
-    </row>
-    <row r="480" spans="1:23">
+      <c r="V479" s="1"/>
+    </row>
+    <row r="480" spans="1:22">
       <c r="A480" s="1"/>
       <c r="B480" s="1"/>
       <c r="C480" s="1"/>
@@ -13838,10 +13331,9 @@
       <c r="Q480" s="1"/>
       <c r="R480" s="1"/>
       <c r="S480" s="1"/>
-      <c r="T480" s="1"/>
-      <c r="W480" s="1"/>
-    </row>
-    <row r="481" spans="1:23">
+      <c r="V480" s="1"/>
+    </row>
+    <row r="481" spans="1:22">
       <c r="A481" s="1"/>
       <c r="B481" s="1"/>
       <c r="C481" s="1"/>
@@ -13860,10 +13352,9 @@
       <c r="Q481" s="1"/>
       <c r="R481" s="1"/>
       <c r="S481" s="1"/>
-      <c r="T481" s="1"/>
-      <c r="W481" s="1"/>
-    </row>
-    <row r="482" spans="1:23">
+      <c r="V481" s="1"/>
+    </row>
+    <row r="482" spans="1:22">
       <c r="A482" s="1"/>
       <c r="B482" s="1"/>
       <c r="C482" s="1"/>
@@ -13882,10 +13373,9 @@
       <c r="Q482" s="1"/>
       <c r="R482" s="1"/>
       <c r="S482" s="1"/>
-      <c r="T482" s="1"/>
-      <c r="W482" s="1"/>
-    </row>
-    <row r="483" spans="1:23">
+      <c r="V482" s="1"/>
+    </row>
+    <row r="483" spans="1:22">
       <c r="A483" s="1"/>
       <c r="B483" s="1"/>
       <c r="C483" s="1"/>
@@ -13904,10 +13394,9 @@
       <c r="Q483" s="1"/>
       <c r="R483" s="1"/>
       <c r="S483" s="1"/>
-      <c r="T483" s="1"/>
-      <c r="W483" s="1"/>
-    </row>
-    <row r="484" spans="1:23">
+      <c r="V483" s="1"/>
+    </row>
+    <row r="484" spans="1:22">
       <c r="A484" s="1"/>
       <c r="B484" s="1"/>
       <c r="C484" s="1"/>
@@ -13926,10 +13415,9 @@
       <c r="Q484" s="1"/>
       <c r="R484" s="1"/>
       <c r="S484" s="1"/>
-      <c r="T484" s="1"/>
-      <c r="W484" s="1"/>
-    </row>
-    <row r="485" spans="1:23">
+      <c r="V484" s="1"/>
+    </row>
+    <row r="485" spans="1:22">
       <c r="A485" s="1"/>
       <c r="B485" s="1"/>
       <c r="C485" s="1"/>
@@ -13948,10 +13436,9 @@
       <c r="Q485" s="1"/>
       <c r="R485" s="1"/>
       <c r="S485" s="1"/>
-      <c r="T485" s="1"/>
-      <c r="W485" s="1"/>
-    </row>
-    <row r="486" spans="1:23">
+      <c r="V485" s="1"/>
+    </row>
+    <row r="486" spans="1:22">
       <c r="A486" s="1"/>
       <c r="B486" s="1"/>
       <c r="C486" s="1"/>
@@ -13970,10 +13457,9 @@
       <c r="Q486" s="1"/>
       <c r="R486" s="1"/>
       <c r="S486" s="1"/>
-      <c r="T486" s="1"/>
-      <c r="W486" s="1"/>
-    </row>
-    <row r="487" spans="1:23">
+      <c r="V486" s="1"/>
+    </row>
+    <row r="487" spans="1:22">
       <c r="A487" s="1"/>
       <c r="B487" s="1"/>
       <c r="C487" s="1"/>
@@ -13992,10 +13478,9 @@
       <c r="Q487" s="1"/>
       <c r="R487" s="1"/>
       <c r="S487" s="1"/>
-      <c r="T487" s="1"/>
-      <c r="W487" s="1"/>
-    </row>
-    <row r="488" spans="1:23">
+      <c r="V487" s="1"/>
+    </row>
+    <row r="488" spans="1:22">
       <c r="A488" s="1"/>
       <c r="B488" s="1"/>
       <c r="C488" s="1"/>
@@ -14014,10 +13499,9 @@
       <c r="Q488" s="1"/>
       <c r="R488" s="1"/>
       <c r="S488" s="1"/>
-      <c r="T488" s="1"/>
-      <c r="W488" s="1"/>
-    </row>
-    <row r="489" spans="1:23">
+      <c r="V488" s="1"/>
+    </row>
+    <row r="489" spans="1:22">
       <c r="A489" s="1"/>
       <c r="B489" s="1"/>
       <c r="C489" s="1"/>
@@ -14036,10 +13520,9 @@
       <c r="Q489" s="1"/>
       <c r="R489" s="1"/>
       <c r="S489" s="1"/>
-      <c r="T489" s="1"/>
-      <c r="W489" s="1"/>
-    </row>
-    <row r="490" spans="1:23">
+      <c r="V489" s="1"/>
+    </row>
+    <row r="490" spans="1:22">
       <c r="A490" s="1"/>
       <c r="B490" s="1"/>
       <c r="C490" s="1"/>
@@ -14058,10 +13541,9 @@
       <c r="Q490" s="1"/>
       <c r="R490" s="1"/>
       <c r="S490" s="1"/>
-      <c r="T490" s="1"/>
-      <c r="W490" s="1"/>
-    </row>
-    <row r="491" spans="1:23">
+      <c r="V490" s="1"/>
+    </row>
+    <row r="491" spans="1:22">
       <c r="A491" s="1"/>
       <c r="B491" s="1"/>
       <c r="C491" s="1"/>
@@ -14080,10 +13562,9 @@
       <c r="Q491" s="1"/>
       <c r="R491" s="1"/>
       <c r="S491" s="1"/>
-      <c r="T491" s="1"/>
-      <c r="W491" s="1"/>
-    </row>
-    <row r="492" spans="1:23">
+      <c r="V491" s="1"/>
+    </row>
+    <row r="492" spans="1:22">
       <c r="A492" s="1"/>
       <c r="B492" s="1"/>
       <c r="C492" s="1"/>
@@ -14102,10 +13583,9 @@
       <c r="Q492" s="1"/>
       <c r="R492" s="1"/>
       <c r="S492" s="1"/>
-      <c r="T492" s="1"/>
-      <c r="W492" s="1"/>
-    </row>
-    <row r="493" spans="1:23">
+      <c r="V492" s="1"/>
+    </row>
+    <row r="493" spans="1:22">
       <c r="A493" s="1"/>
       <c r="B493" s="1"/>
       <c r="C493" s="1"/>
@@ -14124,10 +13604,9 @@
       <c r="Q493" s="1"/>
       <c r="R493" s="1"/>
       <c r="S493" s="1"/>
-      <c r="T493" s="1"/>
-      <c r="W493" s="1"/>
-    </row>
-    <row r="494" spans="1:23">
+      <c r="V493" s="1"/>
+    </row>
+    <row r="494" spans="1:22">
       <c r="A494" s="1"/>
       <c r="B494" s="1"/>
       <c r="C494" s="1"/>
@@ -14146,10 +13625,9 @@
       <c r="Q494" s="1"/>
       <c r="R494" s="1"/>
       <c r="S494" s="1"/>
-      <c r="T494" s="1"/>
-      <c r="W494" s="1"/>
-    </row>
-    <row r="495" spans="1:23">
+      <c r="V494" s="1"/>
+    </row>
+    <row r="495" spans="1:22">
       <c r="A495" s="1"/>
       <c r="B495" s="1"/>
       <c r="C495" s="1"/>
@@ -14168,10 +13646,9 @@
       <c r="Q495" s="1"/>
       <c r="R495" s="1"/>
       <c r="S495" s="1"/>
-      <c r="T495" s="1"/>
-      <c r="W495" s="1"/>
-    </row>
-    <row r="496" spans="1:23">
+      <c r="V495" s="1"/>
+    </row>
+    <row r="496" spans="1:22">
       <c r="A496" s="1"/>
       <c r="B496" s="1"/>
       <c r="C496" s="1"/>
@@ -14190,10 +13667,9 @@
       <c r="Q496" s="1"/>
       <c r="R496" s="1"/>
       <c r="S496" s="1"/>
-      <c r="T496" s="1"/>
-      <c r="W496" s="1"/>
-    </row>
-    <row r="497" spans="1:23">
+      <c r="V496" s="1"/>
+    </row>
+    <row r="497" spans="1:22">
       <c r="A497" s="1"/>
       <c r="B497" s="1"/>
       <c r="C497" s="1"/>
@@ -14212,10 +13688,9 @@
       <c r="Q497" s="1"/>
       <c r="R497" s="1"/>
       <c r="S497" s="1"/>
-      <c r="T497" s="1"/>
-      <c r="W497" s="1"/>
-    </row>
-    <row r="498" spans="1:23">
+      <c r="V497" s="1"/>
+    </row>
+    <row r="498" spans="1:22">
       <c r="A498" s="1"/>
       <c r="B498" s="1"/>
       <c r="C498" s="1"/>
@@ -14234,10 +13709,9 @@
       <c r="Q498" s="1"/>
       <c r="R498" s="1"/>
       <c r="S498" s="1"/>
-      <c r="T498" s="1"/>
-      <c r="W498" s="1"/>
-    </row>
-    <row r="499" spans="1:23">
+      <c r="V498" s="1"/>
+    </row>
+    <row r="499" spans="1:22">
       <c r="A499" s="1"/>
       <c r="B499" s="1"/>
       <c r="C499" s="1"/>
@@ -14256,10 +13730,9 @@
       <c r="Q499" s="1"/>
       <c r="R499" s="1"/>
       <c r="S499" s="1"/>
-      <c r="T499" s="1"/>
-      <c r="W499" s="1"/>
-    </row>
-    <row r="500" spans="1:23">
+      <c r="V499" s="1"/>
+    </row>
+    <row r="500" spans="1:22">
       <c r="A500" s="1"/>
       <c r="B500" s="1"/>
       <c r="C500" s="1"/>
@@ -14278,10 +13751,9 @@
       <c r="Q500" s="1"/>
       <c r="R500" s="1"/>
       <c r="S500" s="1"/>
-      <c r="T500" s="1"/>
-      <c r="W500" s="1"/>
-    </row>
-    <row r="501" spans="1:23">
+      <c r="V500" s="1"/>
+    </row>
+    <row r="501" spans="1:22">
       <c r="A501" s="1"/>
       <c r="B501" s="1"/>
       <c r="C501" s="1"/>
@@ -14300,10 +13772,9 @@
       <c r="Q501" s="1"/>
       <c r="R501" s="1"/>
       <c r="S501" s="1"/>
-      <c r="T501" s="1"/>
-      <c r="W501" s="1"/>
-    </row>
-    <row r="502" spans="1:23">
+      <c r="V501" s="1"/>
+    </row>
+    <row r="502" spans="1:22">
       <c r="A502" s="1"/>
       <c r="B502" s="1"/>
       <c r="C502" s="1"/>
@@ -14322,10 +13793,9 @@
       <c r="Q502" s="1"/>
       <c r="R502" s="1"/>
       <c r="S502" s="1"/>
-      <c r="T502" s="1"/>
-      <c r="W502" s="1"/>
-    </row>
-    <row r="503" spans="1:23">
+      <c r="V502" s="1"/>
+    </row>
+    <row r="503" spans="1:22">
       <c r="A503" s="1"/>
       <c r="B503" s="1"/>
       <c r="C503" s="1"/>
@@ -14344,17 +13814,16 @@
       <c r="Q503" s="1"/>
       <c r="R503" s="1"/>
       <c r="S503" s="1"/>
-      <c r="T503" s="1"/>
-      <c r="W503" s="1"/>
+      <c r="V503" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="V1:AD1"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:T3"/>
-    <mergeCell ref="X4:Y4"/>
+  <mergeCells count="37">
+    <mergeCell ref="U1:AC1"/>
+    <mergeCell ref="U2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="W4:X4"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -14366,7 +13835,7 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="L3:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -14374,20 +13843,18 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="R4:R5"/>
     <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U1:U5"/>
+    <mergeCell ref="T1:T5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
-    <mergeCell ref="W4:W5"/>
+    <mergeCell ref="Y4:Y5"/>
     <mergeCell ref="Z4:Z5"/>
     <mergeCell ref="AA4:AA5"/>
     <mergeCell ref="AB4:AB5"/>
     <mergeCell ref="AC4:AC5"/>
-    <mergeCell ref="AD4:AD5"/>
+    <mergeCell ref="AD1:AD5"/>
     <mergeCell ref="AE1:AE5"/>
-    <mergeCell ref="AF1:AF5"/>
-    <mergeCell ref="N1:T2"/>
     <mergeCell ref="B1:K3"/>
-    <mergeCell ref="L1:M3"/>
+    <mergeCell ref="L1:S2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -14,12 +14,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
   <si>
     <t>当日行情走势</t>
+  </si>
+  <si>
+    <t>买入后总跌幅/涨幅
+(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
   </si>
   <si>
     <t>买入后的走向指标</t>
@@ -41,10 +45,6 @@
   </si>
   <si>
     <t>弱势卖出指标</t>
-  </si>
-  <si>
-    <t>买入后总跌幅/涨幅
-(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
   </si>
   <si>
     <t>向反预期方向运行指标</t>
@@ -116,20 +116,8 @@
 (需要细化)</t>
   </si>
   <si>
-    <t>是否出现连续几天的放量上涨
-(需要细化)</t>
-  </si>
-  <si>
-    <t>是否出现网球行为
-(需要细化)</t>
-  </si>
-  <si>
-    <t>是否上涨天数大于下跌天数
-(需要细化)</t>
-  </si>
-  <si>
-    <t>是否好的收盘次数大于坏的收盘次数
-（(需要细化)）</t>
+    <t>初期指标
+(买入后两周内)</t>
   </si>
   <si>
     <t>基底数
@@ -147,6 +135,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">2周内上涨天数占比
@@ -178,10 +167,27 @@
 (超过4%)</t>
   </si>
   <si>
+    <t>是否出现连续几天的放量上涨
+(连续3日放量上涨为是)</t>
+  </si>
+  <si>
+    <t>是否出现网球行为
+(回调时间最大不能超过5天或2周)</t>
+  </si>
+  <si>
+    <t>是否出现上涨天数大于下跌天数
+(需要细化)</t>
+  </si>
+  <si>
+    <t>是否好的收盘次数大于坏的收盘次数
+（(需要细化)）</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1周内涨幅
@@ -202,6 +208,7 @@
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">3周内涨幅
@@ -225,12 +232,12 @@
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,19 +282,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,29 +298,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -345,37 +337,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -391,15 +353,60 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,13 +426,19 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,12 +459,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -464,6 +471,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -471,6 +484,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -518,67 +537,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,7 +549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,19 +567,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,7 +603,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -644,19 +645,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,13 +681,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,7 +780,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,7 +834,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -790,36 +854,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -830,172 +864,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="43" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1026,10 +1045,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1038,10 +1054,13 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,55 +1072,61 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
@@ -1429,11 +1454,11 @@
   <dimension ref="A1:AE503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M3" sqref="M3:O3"/>
+      <selection pane="bottomRight" activeCell="P4" sqref="P4:S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1450,7 +1475,7 @@
     <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
     <col min="15" max="15" width="30.0625" customWidth="1"/>
     <col min="16" max="17" width="40.4732142857143" customWidth="1"/>
-    <col min="18" max="18" width="28.7142857142857" customWidth="1"/>
+    <col min="18" max="18" width="32.5803571428571" customWidth="1"/>
     <col min="19" max="19" width="37.1964285714286" customWidth="1"/>
     <col min="20" max="21" width="20.5267857142857" style="1" customWidth="1"/>
     <col min="22" max="22" width="18.4464285714286" customWidth="1"/>
@@ -1483,32 +1508,34 @@
       <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="20" t="s">
+      <c r="M1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="24" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="V1" s="24"/>
-      <c r="W1" s="24"/>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="24"/>
-      <c r="AB1" s="24"/>
-      <c r="AC1" s="24"/>
-      <c r="AD1" s="33" t="s">
+      <c r="U1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="AE1" s="34" t="s">
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="35" t="s">
         <v>6</v>
+      </c>
+      <c r="AE1" s="36" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -1524,29 +1551,29 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="V2" s="25"/>
-      <c r="W2" s="25"/>
-      <c r="X2" s="25"/>
-      <c r="Y2" s="25"/>
-      <c r="Z2" s="25"/>
-      <c r="AA2" s="25"/>
-      <c r="AB2" s="31" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="34"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="35"/>
+      <c r="AE2" s="36"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="3"/>
@@ -1560,9 +1587,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="L3" s="10"/>
       <c r="M3" s="16" t="s">
         <v>10</v>
       </c>
@@ -1574,18 +1599,18 @@
       <c r="Q3" s="17"/>
       <c r="R3" s="17"/>
       <c r="S3" s="17"/>
-      <c r="T3" s="21"/>
-      <c r="U3" s="25"/>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25"/>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="25"/>
-      <c r="AA3" s="25"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="34"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="35"/>
+      <c r="AE3" s="36"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="3"/>
@@ -1610,16 +1635,16 @@
       <c r="H4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>19</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="11"/>
+      <c r="L4" s="10"/>
       <c r="M4" s="18" t="s">
         <v>22</v>
       </c>
@@ -1632,43 +1657,37 @@
       <c r="P4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="19" t="s">
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="V4" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="S4" s="19" t="s">
+      <c r="W4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="T4" s="21"/>
-      <c r="U4" s="26" t="s">
+      <c r="X4" s="29"/>
+      <c r="Y4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="V4" s="26" t="s">
+      <c r="Z4" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="AA4" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="28" t="s">
+      <c r="AB4" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="32" t="s">
+      <c r="AC4" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="AA4" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="AB4" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="34"/>
+      <c r="AD4" s="35"/>
+      <c r="AE4" s="36"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:31">
       <c r="A5" s="3"/>
@@ -1679,33 +1698,41 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="10"/>
       <c r="M5" s="18"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="28" t="s">
+      <c r="P5" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="S5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="X5" s="28" t="s">
+      <c r="T5" s="22"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="28"/>
+      <c r="W5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="Y5" s="27"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="33"/>
-      <c r="AE5" s="34"/>
+      <c r="X5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AB5" s="33"/>
+      <c r="AC5" s="33"/>
+      <c r="AD5" s="35"/>
+      <c r="AE5" s="36"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="6">
@@ -1720,8 +1747,8 @@
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
       <c r="J6" s="9"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
@@ -1729,9 +1756,9 @@
       <c r="Q6" s="9"/>
       <c r="R6" s="9"/>
       <c r="S6" s="9"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
-      <c r="V6" s="29"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="31"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -1739,7 +1766,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="36"/>
+      <c r="AD6" s="38"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="8">
@@ -1754,8 +1781,8 @@
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
@@ -1763,9 +1790,9 @@
       <c r="Q7" s="9"/>
       <c r="R7" s="9"/>
       <c r="S7" s="9"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="30"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="32"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1773,7 +1800,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="36"/>
+      <c r="AD7" s="38"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="8">
@@ -1788,8 +1815,8 @@
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
       <c r="J8" s="9"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
@@ -1797,9 +1824,9 @@
       <c r="Q8" s="9"/>
       <c r="R8" s="9"/>
       <c r="S8" s="9"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="30"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="32"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -1807,7 +1834,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="36"/>
+      <c r="AD8" s="38"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="8">
@@ -1822,8 +1849,8 @@
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="9"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
@@ -1831,9 +1858,9 @@
       <c r="Q9" s="9"/>
       <c r="R9" s="9"/>
       <c r="S9" s="9"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="30"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="32"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1841,7 +1868,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="36"/>
+      <c r="AD9" s="38"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="8">
@@ -1875,7 +1902,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="36"/>
+      <c r="AD10" s="38"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="8">
@@ -1909,7 +1936,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="36"/>
+      <c r="AD11" s="38"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="8">
@@ -1943,7 +1970,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="36"/>
+      <c r="AD12" s="38"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="8">
@@ -1977,7 +2004,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="36"/>
+      <c r="AD13" s="38"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="8">
@@ -2011,7 +2038,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="36"/>
+      <c r="AD14" s="38"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="8">
@@ -2045,7 +2072,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="36"/>
+      <c r="AD15" s="38"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="8">
@@ -2079,7 +2106,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="36"/>
+      <c r="AD16" s="38"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="8">
@@ -2113,7 +2140,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="36"/>
+      <c r="AD17" s="38"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="8">
@@ -2147,7 +2174,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-      <c r="AD18" s="36"/>
+      <c r="AD18" s="38"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="8">
@@ -2181,7 +2208,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="36"/>
+      <c r="AD19" s="38"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="8">
@@ -2215,7 +2242,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="36"/>
+      <c r="AD20" s="38"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="8">
@@ -2249,7 +2276,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="36"/>
+      <c r="AD21" s="38"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="8">
@@ -2283,7 +2310,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="36"/>
+      <c r="AD22" s="38"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="8">
@@ -2317,7 +2344,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="36"/>
+      <c r="AD23" s="38"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="8">
@@ -2351,7 +2378,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="36"/>
+      <c r="AD24" s="38"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="8">
@@ -2385,7 +2412,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="36"/>
+      <c r="AD25" s="38"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="8">
@@ -2419,7 +2446,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="36"/>
+      <c r="AD26" s="38"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="8">
@@ -2453,7 +2480,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="36"/>
+      <c r="AD27" s="38"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="8">
@@ -2487,7 +2514,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="36"/>
+      <c r="AD28" s="38"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="8">
@@ -2521,7 +2548,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="36"/>
+      <c r="AD29" s="38"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="8">
@@ -2555,7 +2582,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="36"/>
+      <c r="AD30" s="38"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="8">
@@ -2589,7 +2616,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="36"/>
+      <c r="AD31" s="38"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="8">
@@ -2623,7 +2650,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="36"/>
+      <c r="AD32" s="38"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="8">
@@ -2657,7 +2684,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="36"/>
+      <c r="AD33" s="38"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="8">
@@ -2691,7 +2718,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="36"/>
+      <c r="AD34" s="38"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="8">
@@ -2725,7 +2752,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
-      <c r="AD35" s="36"/>
+      <c r="AD35" s="38"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="8">
@@ -2759,7 +2786,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="36"/>
+      <c r="AD36" s="38"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="8">
@@ -2793,7 +2820,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="36"/>
+      <c r="AD37" s="38"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="8">
@@ -2827,7 +2854,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="36"/>
+      <c r="AD38" s="38"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="8">
@@ -2861,7 +2888,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="36"/>
+      <c r="AD39" s="38"/>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="8">
@@ -2895,7 +2922,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
-      <c r="AD40" s="36"/>
+      <c r="AD40" s="38"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="8">
@@ -2929,7 +2956,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
-      <c r="AD41" s="36"/>
+      <c r="AD41" s="38"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="8">
@@ -2963,7 +2990,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="36"/>
+      <c r="AD42" s="38"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="8">
@@ -2997,7 +3024,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
-      <c r="AD43" s="36"/>
+      <c r="AD43" s="38"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="8">
@@ -3031,7 +3058,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="36"/>
+      <c r="AD44" s="38"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="8">
@@ -3065,7 +3092,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
-      <c r="AD45" s="36"/>
+      <c r="AD45" s="38"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="8">
@@ -3099,7 +3126,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="36"/>
+      <c r="AD46" s="38"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="8">
@@ -3133,7 +3160,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="36"/>
+      <c r="AD47" s="38"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="8">
@@ -3167,7 +3194,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="36"/>
+      <c r="AD48" s="38"/>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="8">
@@ -3201,7 +3228,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="36"/>
+      <c r="AD49" s="38"/>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="8">
@@ -3235,7 +3262,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="36"/>
+      <c r="AD50" s="38"/>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="8">
@@ -3269,7 +3296,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="36"/>
+      <c r="AD51" s="38"/>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="8">
@@ -3303,7 +3330,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="36"/>
+      <c r="AD52" s="38"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="8">
@@ -3337,7 +3364,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="36"/>
+      <c r="AD53" s="38"/>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="8">
@@ -3371,7 +3398,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
-      <c r="AD54" s="36"/>
+      <c r="AD54" s="38"/>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="8">
@@ -3405,7 +3432,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="36"/>
+      <c r="AD55" s="38"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="8">
@@ -3439,7 +3466,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="36"/>
+      <c r="AD56" s="38"/>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="8">
@@ -3473,7 +3500,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="36"/>
+      <c r="AD57" s="38"/>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="8">
@@ -3507,7 +3534,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
-      <c r="AD58" s="36"/>
+      <c r="AD58" s="38"/>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="8">
@@ -3541,7 +3568,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
-      <c r="AD59" s="36"/>
+      <c r="AD59" s="38"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="8">
@@ -3575,7 +3602,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="36"/>
+      <c r="AD60" s="38"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="8">
@@ -3609,7 +3636,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
-      <c r="AD61" s="36"/>
+      <c r="AD61" s="38"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="8">
@@ -3643,7 +3670,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="36"/>
+      <c r="AD62" s="38"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="8">
@@ -3677,7 +3704,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
-      <c r="AD63" s="36"/>
+      <c r="AD63" s="38"/>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="8">
@@ -3711,7 +3738,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
-      <c r="AD64" s="36"/>
+      <c r="AD64" s="38"/>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="8">
@@ -3745,7 +3772,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="36"/>
+      <c r="AD65" s="38"/>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="8">
@@ -3779,7 +3806,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
-      <c r="AD66" s="36"/>
+      <c r="AD66" s="38"/>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="8">
@@ -3813,7 +3840,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
-      <c r="AD67" s="36"/>
+      <c r="AD67" s="38"/>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="8">
@@ -3847,7 +3874,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
-      <c r="AD68" s="36"/>
+      <c r="AD68" s="38"/>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="8">
@@ -3881,7 +3908,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="36"/>
+      <c r="AD69" s="38"/>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="8">
@@ -3915,7 +3942,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
-      <c r="AD70" s="36"/>
+      <c r="AD70" s="38"/>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="8">
@@ -3949,7 +3976,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
-      <c r="AD71" s="36"/>
+      <c r="AD71" s="38"/>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="8">
@@ -3983,7 +4010,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
-      <c r="AD72" s="36"/>
+      <c r="AD72" s="38"/>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="8">
@@ -4017,7 +4044,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
-      <c r="AD73" s="36"/>
+      <c r="AD73" s="38"/>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="8">
@@ -4051,7 +4078,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
-      <c r="AD74" s="36"/>
+      <c r="AD74" s="38"/>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="8">
@@ -4085,7 +4112,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="36"/>
+      <c r="AD75" s="38"/>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="8">
@@ -4119,7 +4146,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
-      <c r="AD76" s="36"/>
+      <c r="AD76" s="38"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="8">
@@ -4153,7 +4180,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
-      <c r="AD77" s="36"/>
+      <c r="AD77" s="38"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="8">
@@ -4187,7 +4214,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
-      <c r="AD78" s="36"/>
+      <c r="AD78" s="38"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="8">
@@ -4221,7 +4248,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
-      <c r="AD79" s="36"/>
+      <c r="AD79" s="38"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="8">
@@ -4255,7 +4282,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
-      <c r="AD80" s="36"/>
+      <c r="AD80" s="38"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="8">
@@ -4289,7 +4316,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
-      <c r="AD81" s="36"/>
+      <c r="AD81" s="38"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="8">
@@ -4323,7 +4350,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
-      <c r="AD82" s="36"/>
+      <c r="AD82" s="38"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="8">
@@ -4357,7 +4384,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
-      <c r="AD83" s="36"/>
+      <c r="AD83" s="38"/>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="8">
@@ -4391,7 +4418,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
-      <c r="AD84" s="36"/>
+      <c r="AD84" s="38"/>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="8">
@@ -4425,7 +4452,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="36"/>
+      <c r="AD85" s="38"/>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="8">
@@ -4459,7 +4486,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
-      <c r="AD86" s="36"/>
+      <c r="AD86" s="38"/>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="8">
@@ -4493,7 +4520,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
-      <c r="AD87" s="36"/>
+      <c r="AD87" s="38"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="8">
@@ -4527,7 +4554,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
-      <c r="AD88" s="36"/>
+      <c r="AD88" s="38"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="8">
@@ -4561,7 +4588,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
-      <c r="AD89" s="36"/>
+      <c r="AD89" s="38"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="8">
@@ -4595,7 +4622,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
-      <c r="AD90" s="36"/>
+      <c r="AD90" s="38"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="8">
@@ -4629,7 +4656,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
-      <c r="AD91" s="36"/>
+      <c r="AD91" s="38"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="8">
@@ -4663,7 +4690,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
-      <c r="AD92" s="36"/>
+      <c r="AD92" s="38"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="8">
@@ -4697,7 +4724,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
-      <c r="AD93" s="36"/>
+      <c r="AD93" s="38"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="8">
@@ -4731,7 +4758,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
-      <c r="AD94" s="36"/>
+      <c r="AD94" s="38"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="8">
@@ -4765,7 +4792,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
-      <c r="AD95" s="36"/>
+      <c r="AD95" s="38"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="8">
@@ -4799,7 +4826,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
-      <c r="AD96" s="36"/>
+      <c r="AD96" s="38"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="8">
@@ -4833,7 +4860,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
-      <c r="AD97" s="36"/>
+      <c r="AD97" s="38"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="8">
@@ -4867,7 +4894,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
-      <c r="AD98" s="36"/>
+      <c r="AD98" s="38"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="8">
@@ -4901,7 +4928,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
-      <c r="AD99" s="36"/>
+      <c r="AD99" s="38"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="8">
@@ -4935,7 +4962,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
-      <c r="AD100" s="36"/>
+      <c r="AD100" s="38"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="8">
@@ -4969,7 +4996,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
-      <c r="AD101" s="36"/>
+      <c r="AD101" s="38"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="8">
@@ -5003,7 +5030,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
-      <c r="AD102" s="36"/>
+      <c r="AD102" s="38"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="8">
@@ -5037,7 +5064,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
-      <c r="AD103" s="36"/>
+      <c r="AD103" s="38"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="8">
@@ -5071,7 +5098,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
-      <c r="AD104" s="36"/>
+      <c r="AD104" s="38"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="8">
@@ -5105,7 +5132,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
-      <c r="AD105" s="36"/>
+      <c r="AD105" s="38"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="8">
@@ -5139,7 +5166,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
-      <c r="AD106" s="36"/>
+      <c r="AD106" s="38"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="8">
@@ -5173,7 +5200,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
-      <c r="AD107" s="36"/>
+      <c r="AD107" s="38"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="8">
@@ -5207,7 +5234,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
-      <c r="AD108" s="36"/>
+      <c r="AD108" s="38"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="8">
@@ -5241,7 +5268,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
-      <c r="AD109" s="36"/>
+      <c r="AD109" s="38"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="8">
@@ -5275,7 +5302,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
-      <c r="AD110" s="36"/>
+      <c r="AD110" s="38"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="8">
@@ -5309,7 +5336,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
-      <c r="AD111" s="36"/>
+      <c r="AD111" s="38"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="8">
@@ -5343,7 +5370,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
-      <c r="AD112" s="36"/>
+      <c r="AD112" s="38"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="8">
@@ -5377,7 +5404,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
-      <c r="AD113" s="36"/>
+      <c r="AD113" s="38"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="8">
@@ -5411,7 +5438,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
-      <c r="AD114" s="36"/>
+      <c r="AD114" s="38"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="8">
@@ -5445,7 +5472,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
-      <c r="AD115" s="36"/>
+      <c r="AD115" s="38"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="8">
@@ -5479,7 +5506,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
-      <c r="AD116" s="36"/>
+      <c r="AD116" s="38"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="8">
@@ -5513,7 +5540,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
-      <c r="AD117" s="36"/>
+      <c r="AD117" s="38"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="8">
@@ -5547,7 +5574,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
-      <c r="AD118" s="36"/>
+      <c r="AD118" s="38"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="8">
@@ -5581,7 +5608,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="36"/>
+      <c r="AD119" s="38"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="8">
@@ -5615,7 +5642,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
-      <c r="AD120" s="36"/>
+      <c r="AD120" s="38"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="8">
@@ -5649,7 +5676,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
-      <c r="AD121" s="36"/>
+      <c r="AD121" s="38"/>
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="8">
@@ -5683,7 +5710,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
-      <c r="AD122" s="36"/>
+      <c r="AD122" s="38"/>
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="8">
@@ -5717,7 +5744,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
-      <c r="AD123" s="36"/>
+      <c r="AD123" s="38"/>
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="8">
@@ -5751,7 +5778,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
-      <c r="AD124" s="36"/>
+      <c r="AD124" s="38"/>
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="8">
@@ -5785,7 +5812,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
-      <c r="AD125" s="36"/>
+      <c r="AD125" s="38"/>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="8">
@@ -5819,7 +5846,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
-      <c r="AD126" s="36"/>
+      <c r="AD126" s="38"/>
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="8">
@@ -5853,7 +5880,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
-      <c r="AD127" s="36"/>
+      <c r="AD127" s="38"/>
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="8">
@@ -5887,7 +5914,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
-      <c r="AD128" s="36"/>
+      <c r="AD128" s="38"/>
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="8">
@@ -5921,7 +5948,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="36"/>
+      <c r="AD129" s="38"/>
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="8">
@@ -5955,7 +5982,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
-      <c r="AD130" s="36"/>
+      <c r="AD130" s="38"/>
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="8">
@@ -5989,7 +6016,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
-      <c r="AD131" s="36"/>
+      <c r="AD131" s="38"/>
     </row>
     <row r="132" spans="1:30">
       <c r="A132" s="8">
@@ -6023,7 +6050,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
-      <c r="AD132" s="36"/>
+      <c r="AD132" s="38"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="1"/>
@@ -13817,12 +13844,13 @@
       <c r="V503" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="34">
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="M3:O3"/>
     <mergeCell ref="P3:S3"/>
+    <mergeCell ref="P4:S4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -13835,14 +13863,10 @@
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="L1:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
     <mergeCell ref="T1:T5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
@@ -13854,7 +13878,7 @@
     <mergeCell ref="AD1:AD5"/>
     <mergeCell ref="AE1:AE5"/>
     <mergeCell ref="B1:K3"/>
-    <mergeCell ref="L1:S2"/>
+    <mergeCell ref="M1:S2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
   <si>
     <t>日期</t>
   </si>
@@ -24,9 +24,6 @@
   <si>
     <t>买入后总跌幅/涨幅
 (下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
-  </si>
-  <si>
-    <t>买入后的走向指标</t>
   </si>
   <si>
     <t>是否继续持有</t>
@@ -47,10 +44,10 @@
     <t>弱势卖出指标</t>
   </si>
   <si>
-    <t>向反预期方向运行指标</t>
+    <t>向预期方向运行指标</t>
   </si>
   <si>
-    <t>向预期方向运行指标</t>
+    <t>向反预期方向运行指标</t>
   </si>
   <si>
     <t>收盘价</t>
@@ -104,6 +101,10 @@
     </r>
   </si>
   <si>
+    <t>初期指标
+(买入后两周内)</t>
+  </si>
+  <si>
     <t>当日收盘价是否小于20日均线
 (是的时候应该警惕)</t>
   </si>
@@ -114,10 +115,6 @@
   <si>
     <t>是否出现低交易量突破，高交易量重回低位
 (需要细化)</t>
-  </si>
-  <si>
-    <t>初期指标
-(买入后两周内)</t>
   </si>
   <si>
     <t>基底数
@@ -176,11 +173,11 @@
   </si>
   <si>
     <t>是否出现上涨天数大于下跌天数
-(需要细化)</t>
+(以一周到两周为期，大于70%)</t>
   </si>
   <si>
     <t>是否好的收盘次数大于坏的收盘次数
-（(需要细化)）</t>
+（）</t>
   </si>
   <si>
     <r>
@@ -477,12 +474,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -496,6 +487,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,7 +872,7 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="43" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1014,7 +1011,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,26 +1063,32 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1454,11 +1457,11 @@
   <dimension ref="A1:AE503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P4" sqref="P4:S4"/>
+      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1471,13 +1474,10 @@
     <col min="9" max="9" width="10.4107142857143" style="1" customWidth="1"/>
     <col min="10" max="10" width="20.2321428571429" customWidth="1"/>
     <col min="11" max="12" width="20.3839285714286" customWidth="1"/>
-    <col min="13" max="13" width="30.0625" customWidth="1"/>
-    <col min="14" max="14" width="25.4464285714286" customWidth="1"/>
-    <col min="15" max="15" width="30.0625" customWidth="1"/>
-    <col min="16" max="17" width="40.4732142857143" customWidth="1"/>
-    <col min="18" max="18" width="32.5803571428571" customWidth="1"/>
-    <col min="19" max="19" width="37.1964285714286" customWidth="1"/>
-    <col min="20" max="21" width="20.5267857142857" style="1" customWidth="1"/>
+    <col min="13" max="14" width="40.4732142857143" customWidth="1"/>
+    <col min="15" max="15" width="32.5803571428571" customWidth="1"/>
+    <col min="16" max="16" width="37.1964285714286" customWidth="1"/>
+    <col min="17" max="21" width="20.5267857142857" style="1" customWidth="1"/>
     <col min="22" max="22" width="18.4464285714286" customWidth="1"/>
     <col min="23" max="23" width="23.3571428571429" customWidth="1"/>
     <col min="24" max="24" width="29.1607142857143" customWidth="1"/>
@@ -1508,34 +1508,32 @@
       <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="15" t="s">
-        <v>3</v>
-      </c>
+      <c r="M1" s="15"/>
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
       <c r="T1" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U1" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="35" t="s">
+      <c r="AE1" s="38" t="s">
         <v>6</v>
-      </c>
-      <c r="AE1" s="36" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -1559,21 +1557,21 @@
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="22"/>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+      <c r="AA2" s="29"/>
+      <c r="AB2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
+      <c r="AC2" s="35"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="38"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="3"/>
@@ -1589,105 +1587,105 @@
       <c r="K3" s="4"/>
       <c r="L3" s="10"/>
       <c r="M3" s="16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
       <c r="T3" s="22"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="35"/>
-      <c r="AE3" s="36"/>
+      <c r="U3" s="29"/>
+      <c r="V3" s="29"/>
+      <c r="W3" s="29"/>
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29"/>
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29"/>
+      <c r="AB3" s="35"/>
+      <c r="AC3" s="35"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="38"/>
     </row>
     <row r="4" spans="1:31">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="I4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="L4" s="10"/>
+      <c r="M4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="10"/>
-      <c r="M4" s="18" t="s">
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="R4" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="O4" s="18" t="s">
+      <c r="S4" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="T4" s="22"/>
+      <c r="U4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="28" t="s">
+      <c r="V4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="W4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="W4" s="29" t="s">
+      <c r="X4" s="31"/>
+      <c r="Y4" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="30" t="s">
+      <c r="Z4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="Z4" s="34" t="s">
+      <c r="AA4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="AA4" s="34" t="s">
+      <c r="AB4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="AB4" s="33" t="s">
+      <c r="AC4" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AC4" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="36"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="38"/>
     </row>
     <row r="5" ht="56" customHeight="1" spans="1:31">
       <c r="A5" s="3"/>
@@ -1702,37 +1700,37 @@
       <c r="J5" s="11"/>
       <c r="K5" s="12"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="20" t="s">
+      <c r="M5" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="Q5" s="20" t="s">
+      <c r="O5" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="P5" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="30"/>
+      <c r="W5" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="22"/>
-      <c r="U5" s="28"/>
-      <c r="V5" s="28"/>
-      <c r="W5" s="30" t="s">
+      <c r="X5" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="X5" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="27"/>
-      <c r="AA5" s="27"/>
-      <c r="AB5" s="33"/>
-      <c r="AC5" s="33"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="36"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="35"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="38"/>
     </row>
     <row r="6" spans="1:30">
       <c r="A6" s="6">
@@ -1753,12 +1751,12 @@
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="24"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="31"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="33"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
@@ -1766,7 +1764,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="38"/>
+      <c r="AD6" s="40"/>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" s="8">
@@ -1787,12 +1785,12 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
       <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="9"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="25"/>
-      <c r="V7" s="32"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="34"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
@@ -1800,7 +1798,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
-      <c r="AD7" s="38"/>
+      <c r="AD7" s="40"/>
     </row>
     <row r="8" spans="1:30">
       <c r="A8" s="8">
@@ -1821,12 +1819,12 @@
       <c r="N8" s="9"/>
       <c r="O8" s="9"/>
       <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="32"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="34"/>
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
@@ -1834,7 +1832,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
-      <c r="AD8" s="38"/>
+      <c r="AD8" s="40"/>
     </row>
     <row r="9" spans="1:30">
       <c r="A9" s="8">
@@ -1855,12 +1853,12 @@
       <c r="N9" s="9"/>
       <c r="O9" s="9"/>
       <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="32"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="34"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
@@ -1868,7 +1866,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
-      <c r="AD9" s="38"/>
+      <c r="AD9" s="40"/>
     </row>
     <row r="10" spans="1:30">
       <c r="A10" s="8">
@@ -1902,7 +1900,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
-      <c r="AD10" s="38"/>
+      <c r="AD10" s="40"/>
     </row>
     <row r="11" spans="1:30">
       <c r="A11" s="8">
@@ -1936,7 +1934,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="38"/>
+      <c r="AD11" s="40"/>
     </row>
     <row r="12" spans="1:30">
       <c r="A12" s="8">
@@ -1970,7 +1968,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
-      <c r="AD12" s="38"/>
+      <c r="AD12" s="40"/>
     </row>
     <row r="13" spans="1:30">
       <c r="A13" s="8">
@@ -2004,7 +2002,7 @@
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
-      <c r="AD13" s="38"/>
+      <c r="AD13" s="40"/>
     </row>
     <row r="14" spans="1:30">
       <c r="A14" s="8">
@@ -2038,7 +2036,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
-      <c r="AD14" s="38"/>
+      <c r="AD14" s="40"/>
     </row>
     <row r="15" spans="1:30">
       <c r="A15" s="8">
@@ -2072,7 +2070,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
-      <c r="AD15" s="38"/>
+      <c r="AD15" s="40"/>
     </row>
     <row r="16" spans="1:30">
       <c r="A16" s="8">
@@ -2106,7 +2104,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
-      <c r="AD16" s="38"/>
+      <c r="AD16" s="40"/>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="8">
@@ -2140,7 +2138,7 @@
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
-      <c r="AD17" s="38"/>
+      <c r="AD17" s="40"/>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="8">
@@ -2174,7 +2172,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
-      <c r="AD18" s="38"/>
+      <c r="AD18" s="40"/>
     </row>
     <row r="19" spans="1:30">
       <c r="A19" s="8">
@@ -2208,7 +2206,7 @@
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
-      <c r="AD19" s="38"/>
+      <c r="AD19" s="40"/>
     </row>
     <row r="20" spans="1:30">
       <c r="A20" s="8">
@@ -2242,7 +2240,7 @@
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
-      <c r="AD20" s="38"/>
+      <c r="AD20" s="40"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="8">
@@ -2276,7 +2274,7 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="38"/>
+      <c r="AD21" s="40"/>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="8">
@@ -2310,7 +2308,7 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AD22" s="38"/>
+      <c r="AD22" s="40"/>
     </row>
     <row r="23" spans="1:30">
       <c r="A23" s="8">
@@ -2344,7 +2342,7 @@
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
-      <c r="AD23" s="38"/>
+      <c r="AD23" s="40"/>
     </row>
     <row r="24" spans="1:30">
       <c r="A24" s="8">
@@ -2378,7 +2376,7 @@
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
-      <c r="AD24" s="38"/>
+      <c r="AD24" s="40"/>
     </row>
     <row r="25" spans="1:30">
       <c r="A25" s="8">
@@ -2412,7 +2410,7 @@
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
-      <c r="AD25" s="38"/>
+      <c r="AD25" s="40"/>
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="8">
@@ -2446,7 +2444,7 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="38"/>
+      <c r="AD26" s="40"/>
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="8">
@@ -2480,7 +2478,7 @@
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
-      <c r="AD27" s="38"/>
+      <c r="AD27" s="40"/>
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="8">
@@ -2514,7 +2512,7 @@
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="38"/>
+      <c r="AD28" s="40"/>
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="8">
@@ -2548,7 +2546,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
-      <c r="AD29" s="38"/>
+      <c r="AD29" s="40"/>
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="8">
@@ -2582,7 +2580,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
-      <c r="AD30" s="38"/>
+      <c r="AD30" s="40"/>
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="8">
@@ -2616,7 +2614,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
-      <c r="AD31" s="38"/>
+      <c r="AD31" s="40"/>
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="8">
@@ -2650,7 +2648,7 @@
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
-      <c r="AD32" s="38"/>
+      <c r="AD32" s="40"/>
     </row>
     <row r="33" spans="1:30">
       <c r="A33" s="8">
@@ -2684,7 +2682,7 @@
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
-      <c r="AD33" s="38"/>
+      <c r="AD33" s="40"/>
     </row>
     <row r="34" spans="1:30">
       <c r="A34" s="8">
@@ -2718,7 +2716,7 @@
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
-      <c r="AD34" s="38"/>
+      <c r="AD34" s="40"/>
     </row>
     <row r="35" spans="1:30">
       <c r="A35" s="8">
@@ -2752,7 +2750,7 @@
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
-      <c r="AD35" s="38"/>
+      <c r="AD35" s="40"/>
     </row>
     <row r="36" spans="1:30">
       <c r="A36" s="8">
@@ -2786,7 +2784,7 @@
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
-      <c r="AD36" s="38"/>
+      <c r="AD36" s="40"/>
     </row>
     <row r="37" spans="1:30">
       <c r="A37" s="8">
@@ -2820,7 +2818,7 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AD37" s="38"/>
+      <c r="AD37" s="40"/>
     </row>
     <row r="38" spans="1:30">
       <c r="A38" s="8">
@@ -2854,7 +2852,7 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="38"/>
+      <c r="AD38" s="40"/>
     </row>
     <row r="39" spans="1:30">
       <c r="A39" s="8">
@@ -2888,7 +2886,7 @@
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
-      <c r="AD39" s="38"/>
+      <c r="AD39" s="40"/>
     </row>
     <row r="40" spans="1:30">
       <c r="A40" s="8">
@@ -2922,7 +2920,7 @@
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
-      <c r="AD40" s="38"/>
+      <c r="AD40" s="40"/>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" s="8">
@@ -2956,7 +2954,7 @@
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
-      <c r="AD41" s="38"/>
+      <c r="AD41" s="40"/>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" s="8">
@@ -2990,7 +2988,7 @@
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
-      <c r="AD42" s="38"/>
+      <c r="AD42" s="40"/>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" s="8">
@@ -3024,7 +3022,7 @@
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
-      <c r="AD43" s="38"/>
+      <c r="AD43" s="40"/>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" s="8">
@@ -3058,7 +3056,7 @@
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
-      <c r="AD44" s="38"/>
+      <c r="AD44" s="40"/>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" s="8">
@@ -3092,7 +3090,7 @@
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
-      <c r="AD45" s="38"/>
+      <c r="AD45" s="40"/>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" s="8">
@@ -3126,7 +3124,7 @@
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
-      <c r="AD46" s="38"/>
+      <c r="AD46" s="40"/>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" s="8">
@@ -3160,7 +3158,7 @@
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
-      <c r="AD47" s="38"/>
+      <c r="AD47" s="40"/>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" s="8">
@@ -3194,7 +3192,7 @@
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
-      <c r="AD48" s="38"/>
+      <c r="AD48" s="40"/>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" s="8">
@@ -3228,7 +3226,7 @@
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="38"/>
+      <c r="AD49" s="40"/>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" s="8">
@@ -3262,7 +3260,7 @@
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
-      <c r="AD50" s="38"/>
+      <c r="AD50" s="40"/>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" s="8">
@@ -3296,7 +3294,7 @@
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
-      <c r="AD51" s="38"/>
+      <c r="AD51" s="40"/>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" s="8">
@@ -3330,7 +3328,7 @@
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
-      <c r="AD52" s="38"/>
+      <c r="AD52" s="40"/>
     </row>
     <row r="53" spans="1:30">
       <c r="A53" s="8">
@@ -3364,7 +3362,7 @@
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
-      <c r="AD53" s="38"/>
+      <c r="AD53" s="40"/>
     </row>
     <row r="54" spans="1:30">
       <c r="A54" s="8">
@@ -3398,7 +3396,7 @@
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
-      <c r="AD54" s="38"/>
+      <c r="AD54" s="40"/>
     </row>
     <row r="55" spans="1:30">
       <c r="A55" s="8">
@@ -3432,7 +3430,7 @@
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
-      <c r="AD55" s="38"/>
+      <c r="AD55" s="40"/>
     </row>
     <row r="56" spans="1:30">
       <c r="A56" s="8">
@@ -3466,7 +3464,7 @@
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
-      <c r="AD56" s="38"/>
+      <c r="AD56" s="40"/>
     </row>
     <row r="57" spans="1:30">
       <c r="A57" s="8">
@@ -3500,7 +3498,7 @@
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
-      <c r="AD57" s="38"/>
+      <c r="AD57" s="40"/>
     </row>
     <row r="58" spans="1:30">
       <c r="A58" s="8">
@@ -3534,7 +3532,7 @@
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
-      <c r="AD58" s="38"/>
+      <c r="AD58" s="40"/>
     </row>
     <row r="59" spans="1:30">
       <c r="A59" s="8">
@@ -3568,7 +3566,7 @@
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
-      <c r="AD59" s="38"/>
+      <c r="AD59" s="40"/>
     </row>
     <row r="60" spans="1:30">
       <c r="A60" s="8">
@@ -3602,7 +3600,7 @@
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
-      <c r="AD60" s="38"/>
+      <c r="AD60" s="40"/>
     </row>
     <row r="61" spans="1:30">
       <c r="A61" s="8">
@@ -3636,7 +3634,7 @@
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
-      <c r="AD61" s="38"/>
+      <c r="AD61" s="40"/>
     </row>
     <row r="62" spans="1:30">
       <c r="A62" s="8">
@@ -3670,7 +3668,7 @@
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
-      <c r="AD62" s="38"/>
+      <c r="AD62" s="40"/>
     </row>
     <row r="63" spans="1:30">
       <c r="A63" s="8">
@@ -3704,7 +3702,7 @@
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
-      <c r="AD63" s="38"/>
+      <c r="AD63" s="40"/>
     </row>
     <row r="64" spans="1:30">
       <c r="A64" s="8">
@@ -3738,7 +3736,7 @@
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
-      <c r="AD64" s="38"/>
+      <c r="AD64" s="40"/>
     </row>
     <row r="65" spans="1:30">
       <c r="A65" s="8">
@@ -3772,7 +3770,7 @@
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
-      <c r="AD65" s="38"/>
+      <c r="AD65" s="40"/>
     </row>
     <row r="66" spans="1:30">
       <c r="A66" s="8">
@@ -3806,7 +3804,7 @@
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
-      <c r="AD66" s="38"/>
+      <c r="AD66" s="40"/>
     </row>
     <row r="67" spans="1:30">
       <c r="A67" s="8">
@@ -3840,7 +3838,7 @@
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
-      <c r="AD67" s="38"/>
+      <c r="AD67" s="40"/>
     </row>
     <row r="68" spans="1:30">
       <c r="A68" s="8">
@@ -3874,7 +3872,7 @@
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
-      <c r="AD68" s="38"/>
+      <c r="AD68" s="40"/>
     </row>
     <row r="69" spans="1:30">
       <c r="A69" s="8">
@@ -3908,7 +3906,7 @@
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
-      <c r="AD69" s="38"/>
+      <c r="AD69" s="40"/>
     </row>
     <row r="70" spans="1:30">
       <c r="A70" s="8">
@@ -3942,7 +3940,7 @@
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
-      <c r="AD70" s="38"/>
+      <c r="AD70" s="40"/>
     </row>
     <row r="71" spans="1:30">
       <c r="A71" s="8">
@@ -3976,7 +3974,7 @@
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
-      <c r="AD71" s="38"/>
+      <c r="AD71" s="40"/>
     </row>
     <row r="72" spans="1:30">
       <c r="A72" s="8">
@@ -4010,7 +4008,7 @@
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
-      <c r="AD72" s="38"/>
+      <c r="AD72" s="40"/>
     </row>
     <row r="73" spans="1:30">
       <c r="A73" s="8">
@@ -4044,7 +4042,7 @@
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
-      <c r="AD73" s="38"/>
+      <c r="AD73" s="40"/>
     </row>
     <row r="74" spans="1:30">
       <c r="A74" s="8">
@@ -4078,7 +4076,7 @@
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
-      <c r="AD74" s="38"/>
+      <c r="AD74" s="40"/>
     </row>
     <row r="75" spans="1:30">
       <c r="A75" s="8">
@@ -4112,7 +4110,7 @@
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
-      <c r="AD75" s="38"/>
+      <c r="AD75" s="40"/>
     </row>
     <row r="76" spans="1:30">
       <c r="A76" s="8">
@@ -4146,7 +4144,7 @@
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
-      <c r="AD76" s="38"/>
+      <c r="AD76" s="40"/>
     </row>
     <row r="77" spans="1:30">
       <c r="A77" s="8">
@@ -4180,7 +4178,7 @@
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
-      <c r="AD77" s="38"/>
+      <c r="AD77" s="40"/>
     </row>
     <row r="78" spans="1:30">
       <c r="A78" s="8">
@@ -4214,7 +4212,7 @@
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
-      <c r="AD78" s="38"/>
+      <c r="AD78" s="40"/>
     </row>
     <row r="79" spans="1:30">
       <c r="A79" s="8">
@@ -4248,7 +4246,7 @@
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
-      <c r="AD79" s="38"/>
+      <c r="AD79" s="40"/>
     </row>
     <row r="80" spans="1:30">
       <c r="A80" s="8">
@@ -4282,7 +4280,7 @@
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
-      <c r="AD80" s="38"/>
+      <c r="AD80" s="40"/>
     </row>
     <row r="81" spans="1:30">
       <c r="A81" s="8">
@@ -4316,7 +4314,7 @@
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
-      <c r="AD81" s="38"/>
+      <c r="AD81" s="40"/>
     </row>
     <row r="82" spans="1:30">
       <c r="A82" s="8">
@@ -4350,7 +4348,7 @@
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
-      <c r="AD82" s="38"/>
+      <c r="AD82" s="40"/>
     </row>
     <row r="83" spans="1:30">
       <c r="A83" s="8">
@@ -4384,7 +4382,7 @@
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
-      <c r="AD83" s="38"/>
+      <c r="AD83" s="40"/>
     </row>
     <row r="84" spans="1:30">
       <c r="A84" s="8">
@@ -4418,7 +4416,7 @@
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
-      <c r="AD84" s="38"/>
+      <c r="AD84" s="40"/>
     </row>
     <row r="85" spans="1:30">
       <c r="A85" s="8">
@@ -4452,7 +4450,7 @@
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
-      <c r="AD85" s="38"/>
+      <c r="AD85" s="40"/>
     </row>
     <row r="86" spans="1:30">
       <c r="A86" s="8">
@@ -4486,7 +4484,7 @@
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
-      <c r="AD86" s="38"/>
+      <c r="AD86" s="40"/>
     </row>
     <row r="87" spans="1:30">
       <c r="A87" s="8">
@@ -4520,7 +4518,7 @@
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
-      <c r="AD87" s="38"/>
+      <c r="AD87" s="40"/>
     </row>
     <row r="88" spans="1:30">
       <c r="A88" s="8">
@@ -4554,7 +4552,7 @@
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
-      <c r="AD88" s="38"/>
+      <c r="AD88" s="40"/>
     </row>
     <row r="89" spans="1:30">
       <c r="A89" s="8">
@@ -4588,7 +4586,7 @@
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
-      <c r="AD89" s="38"/>
+      <c r="AD89" s="40"/>
     </row>
     <row r="90" spans="1:30">
       <c r="A90" s="8">
@@ -4622,7 +4620,7 @@
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
-      <c r="AD90" s="38"/>
+      <c r="AD90" s="40"/>
     </row>
     <row r="91" spans="1:30">
       <c r="A91" s="8">
@@ -4656,7 +4654,7 @@
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
-      <c r="AD91" s="38"/>
+      <c r="AD91" s="40"/>
     </row>
     <row r="92" spans="1:30">
       <c r="A92" s="8">
@@ -4690,7 +4688,7 @@
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
-      <c r="AD92" s="38"/>
+      <c r="AD92" s="40"/>
     </row>
     <row r="93" spans="1:30">
       <c r="A93" s="8">
@@ -4724,7 +4722,7 @@
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
-      <c r="AD93" s="38"/>
+      <c r="AD93" s="40"/>
     </row>
     <row r="94" spans="1:30">
       <c r="A94" s="8">
@@ -4758,7 +4756,7 @@
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
-      <c r="AD94" s="38"/>
+      <c r="AD94" s="40"/>
     </row>
     <row r="95" spans="1:30">
       <c r="A95" s="8">
@@ -4792,7 +4790,7 @@
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
-      <c r="AD95" s="38"/>
+      <c r="AD95" s="40"/>
     </row>
     <row r="96" spans="1:30">
       <c r="A96" s="8">
@@ -4826,7 +4824,7 @@
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
-      <c r="AD96" s="38"/>
+      <c r="AD96" s="40"/>
     </row>
     <row r="97" spans="1:30">
       <c r="A97" s="8">
@@ -4860,7 +4858,7 @@
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
-      <c r="AD97" s="38"/>
+      <c r="AD97" s="40"/>
     </row>
     <row r="98" spans="1:30">
       <c r="A98" s="8">
@@ -4894,7 +4892,7 @@
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
-      <c r="AD98" s="38"/>
+      <c r="AD98" s="40"/>
     </row>
     <row r="99" spans="1:30">
       <c r="A99" s="8">
@@ -4928,7 +4926,7 @@
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
-      <c r="AD99" s="38"/>
+      <c r="AD99" s="40"/>
     </row>
     <row r="100" spans="1:30">
       <c r="A100" s="8">
@@ -4962,7 +4960,7 @@
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
-      <c r="AD100" s="38"/>
+      <c r="AD100" s="40"/>
     </row>
     <row r="101" spans="1:30">
       <c r="A101" s="8">
@@ -4996,7 +4994,7 @@
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
-      <c r="AD101" s="38"/>
+      <c r="AD101" s="40"/>
     </row>
     <row r="102" spans="1:30">
       <c r="A102" s="8">
@@ -5030,7 +5028,7 @@
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
-      <c r="AD102" s="38"/>
+      <c r="AD102" s="40"/>
     </row>
     <row r="103" spans="1:30">
       <c r="A103" s="8">
@@ -5064,7 +5062,7 @@
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
-      <c r="AD103" s="38"/>
+      <c r="AD103" s="40"/>
     </row>
     <row r="104" spans="1:30">
       <c r="A104" s="8">
@@ -5098,7 +5096,7 @@
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
-      <c r="AD104" s="38"/>
+      <c r="AD104" s="40"/>
     </row>
     <row r="105" spans="1:30">
       <c r="A105" s="8">
@@ -5132,7 +5130,7 @@
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
-      <c r="AD105" s="38"/>
+      <c r="AD105" s="40"/>
     </row>
     <row r="106" spans="1:30">
       <c r="A106" s="8">
@@ -5166,7 +5164,7 @@
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
-      <c r="AD106" s="38"/>
+      <c r="AD106" s="40"/>
     </row>
     <row r="107" spans="1:30">
       <c r="A107" s="8">
@@ -5200,7 +5198,7 @@
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
-      <c r="AD107" s="38"/>
+      <c r="AD107" s="40"/>
     </row>
     <row r="108" spans="1:30">
       <c r="A108" s="8">
@@ -5234,7 +5232,7 @@
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
-      <c r="AD108" s="38"/>
+      <c r="AD108" s="40"/>
     </row>
     <row r="109" spans="1:30">
       <c r="A109" s="8">
@@ -5268,7 +5266,7 @@
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
-      <c r="AD109" s="38"/>
+      <c r="AD109" s="40"/>
     </row>
     <row r="110" spans="1:30">
       <c r="A110" s="8">
@@ -5302,7 +5300,7 @@
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
-      <c r="AD110" s="38"/>
+      <c r="AD110" s="40"/>
     </row>
     <row r="111" spans="1:30">
       <c r="A111" s="8">
@@ -5336,7 +5334,7 @@
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
-      <c r="AD111" s="38"/>
+      <c r="AD111" s="40"/>
     </row>
     <row r="112" spans="1:30">
       <c r="A112" s="8">
@@ -5370,7 +5368,7 @@
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
-      <c r="AD112" s="38"/>
+      <c r="AD112" s="40"/>
     </row>
     <row r="113" spans="1:30">
       <c r="A113" s="8">
@@ -5404,7 +5402,7 @@
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
-      <c r="AD113" s="38"/>
+      <c r="AD113" s="40"/>
     </row>
     <row r="114" spans="1:30">
       <c r="A114" s="8">
@@ -5438,7 +5436,7 @@
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
-      <c r="AD114" s="38"/>
+      <c r="AD114" s="40"/>
     </row>
     <row r="115" spans="1:30">
       <c r="A115" s="8">
@@ -5472,7 +5470,7 @@
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
-      <c r="AD115" s="38"/>
+      <c r="AD115" s="40"/>
     </row>
     <row r="116" spans="1:30">
       <c r="A116" s="8">
@@ -5506,7 +5504,7 @@
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
-      <c r="AD116" s="38"/>
+      <c r="AD116" s="40"/>
     </row>
     <row r="117" spans="1:30">
       <c r="A117" s="8">
@@ -5540,7 +5538,7 @@
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
-      <c r="AD117" s="38"/>
+      <c r="AD117" s="40"/>
     </row>
     <row r="118" spans="1:30">
       <c r="A118" s="8">
@@ -5574,7 +5572,7 @@
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
-      <c r="AD118" s="38"/>
+      <c r="AD118" s="40"/>
     </row>
     <row r="119" spans="1:30">
       <c r="A119" s="8">
@@ -5608,7 +5606,7 @@
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
-      <c r="AD119" s="38"/>
+      <c r="AD119" s="40"/>
     </row>
     <row r="120" spans="1:30">
       <c r="A120" s="8">
@@ -5642,7 +5640,7 @@
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
-      <c r="AD120" s="38"/>
+      <c r="AD120" s="40"/>
     </row>
     <row r="121" spans="1:30">
       <c r="A121" s="8">
@@ -5676,7 +5674,7 @@
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
-      <c r="AD121" s="38"/>
+      <c r="AD121" s="40"/>
     </row>
     <row r="122" spans="1:30">
       <c r="A122" s="8">
@@ -5710,7 +5708,7 @@
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
-      <c r="AD122" s="38"/>
+      <c r="AD122" s="40"/>
     </row>
     <row r="123" spans="1:30">
       <c r="A123" s="8">
@@ -5744,7 +5742,7 @@
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
-      <c r="AD123" s="38"/>
+      <c r="AD123" s="40"/>
     </row>
     <row r="124" spans="1:30">
       <c r="A124" s="8">
@@ -5778,7 +5776,7 @@
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
-      <c r="AD124" s="38"/>
+      <c r="AD124" s="40"/>
     </row>
     <row r="125" spans="1:30">
       <c r="A125" s="8">
@@ -5812,7 +5810,7 @@
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
-      <c r="AD125" s="38"/>
+      <c r="AD125" s="40"/>
     </row>
     <row r="126" spans="1:30">
       <c r="A126" s="8">
@@ -5846,7 +5844,7 @@
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
-      <c r="AD126" s="38"/>
+      <c r="AD126" s="40"/>
     </row>
     <row r="127" spans="1:30">
       <c r="A127" s="8">
@@ -5880,7 +5878,7 @@
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
-      <c r="AD127" s="38"/>
+      <c r="AD127" s="40"/>
     </row>
     <row r="128" spans="1:30">
       <c r="A128" s="8">
@@ -5914,7 +5912,7 @@
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
-      <c r="AD128" s="38"/>
+      <c r="AD128" s="40"/>
     </row>
     <row r="129" spans="1:30">
       <c r="A129" s="8">
@@ -5948,7 +5946,7 @@
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
-      <c r="AD129" s="38"/>
+      <c r="AD129" s="40"/>
     </row>
     <row r="130" spans="1:30">
       <c r="A130" s="8">
@@ -5982,7 +5980,7 @@
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
-      <c r="AD130" s="38"/>
+      <c r="AD130" s="40"/>
     </row>
     <row r="131" spans="1:30">
       <c r="A131" s="8">
@@ -6016,7 +6014,7 @@
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
-      <c r="AD131" s="38"/>
+      <c r="AD131" s="40"/>
     </row>
     <row r="132" spans="1:30">
       <c r="A132" s="8">
@@ -6050,7 +6048,7 @@
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
-      <c r="AD132" s="38"/>
+      <c r="AD132" s="40"/>
     </row>
     <row r="133" spans="1:22">
       <c r="A133" s="1"/>
@@ -6068,9 +6066,6 @@
       <c r="N133" s="1"/>
       <c r="O133" s="1"/>
       <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
       <c r="V133" s="1"/>
     </row>
     <row r="134" spans="1:22">
@@ -6089,9 +6084,6 @@
       <c r="N134" s="1"/>
       <c r="O134" s="1"/>
       <c r="P134" s="1"/>
-      <c r="Q134" s="1"/>
-      <c r="R134" s="1"/>
-      <c r="S134" s="1"/>
       <c r="V134" s="1"/>
     </row>
     <row r="135" spans="1:22">
@@ -6110,9 +6102,6 @@
       <c r="N135" s="1"/>
       <c r="O135" s="1"/>
       <c r="P135" s="1"/>
-      <c r="Q135" s="1"/>
-      <c r="R135" s="1"/>
-      <c r="S135" s="1"/>
       <c r="V135" s="1"/>
     </row>
     <row r="136" spans="1:22">
@@ -6131,9 +6120,6 @@
       <c r="N136" s="1"/>
       <c r="O136" s="1"/>
       <c r="P136" s="1"/>
-      <c r="Q136" s="1"/>
-      <c r="R136" s="1"/>
-      <c r="S136" s="1"/>
       <c r="V136" s="1"/>
     </row>
     <row r="137" spans="1:22">
@@ -6152,9 +6138,6 @@
       <c r="N137" s="1"/>
       <c r="O137" s="1"/>
       <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
       <c r="V137" s="1"/>
     </row>
     <row r="138" spans="1:22">
@@ -6173,9 +6156,6 @@
       <c r="N138" s="1"/>
       <c r="O138" s="1"/>
       <c r="P138" s="1"/>
-      <c r="Q138" s="1"/>
-      <c r="R138" s="1"/>
-      <c r="S138" s="1"/>
       <c r="V138" s="1"/>
     </row>
     <row r="139" spans="1:22">
@@ -6194,9 +6174,6 @@
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
       <c r="P139" s="1"/>
-      <c r="Q139" s="1"/>
-      <c r="R139" s="1"/>
-      <c r="S139" s="1"/>
       <c r="V139" s="1"/>
     </row>
     <row r="140" spans="1:22">
@@ -6215,9 +6192,6 @@
       <c r="N140" s="1"/>
       <c r="O140" s="1"/>
       <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
       <c r="V140" s="1"/>
     </row>
     <row r="141" spans="1:22">
@@ -6236,9 +6210,6 @@
       <c r="N141" s="1"/>
       <c r="O141" s="1"/>
       <c r="P141" s="1"/>
-      <c r="Q141" s="1"/>
-      <c r="R141" s="1"/>
-      <c r="S141" s="1"/>
       <c r="V141" s="1"/>
     </row>
     <row r="142" spans="1:22">
@@ -6257,9 +6228,6 @@
       <c r="N142" s="1"/>
       <c r="O142" s="1"/>
       <c r="P142" s="1"/>
-      <c r="Q142" s="1"/>
-      <c r="R142" s="1"/>
-      <c r="S142" s="1"/>
       <c r="V142" s="1"/>
     </row>
     <row r="143" spans="1:22">
@@ -6278,9 +6246,6 @@
       <c r="N143" s="1"/>
       <c r="O143" s="1"/>
       <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
       <c r="V143" s="1"/>
     </row>
     <row r="144" spans="1:22">
@@ -6299,9 +6264,6 @@
       <c r="N144" s="1"/>
       <c r="O144" s="1"/>
       <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
       <c r="V144" s="1"/>
     </row>
     <row r="145" spans="1:22">
@@ -6320,9 +6282,6 @@
       <c r="N145" s="1"/>
       <c r="O145" s="1"/>
       <c r="P145" s="1"/>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="1"/>
-      <c r="S145" s="1"/>
       <c r="V145" s="1"/>
     </row>
     <row r="146" spans="1:22">
@@ -6341,9 +6300,6 @@
       <c r="N146" s="1"/>
       <c r="O146" s="1"/>
       <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
       <c r="V146" s="1"/>
     </row>
     <row r="147" spans="1:22">
@@ -6362,9 +6318,6 @@
       <c r="N147" s="1"/>
       <c r="O147" s="1"/>
       <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
       <c r="V147" s="1"/>
     </row>
     <row r="148" spans="1:22">
@@ -6383,9 +6336,6 @@
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
-      <c r="S148" s="1"/>
       <c r="V148" s="1"/>
     </row>
     <row r="149" spans="1:22">
@@ -6404,9 +6354,6 @@
       <c r="N149" s="1"/>
       <c r="O149" s="1"/>
       <c r="P149" s="1"/>
-      <c r="Q149" s="1"/>
-      <c r="R149" s="1"/>
-      <c r="S149" s="1"/>
       <c r="V149" s="1"/>
     </row>
     <row r="150" spans="1:22">
@@ -6425,9 +6372,6 @@
       <c r="N150" s="1"/>
       <c r="O150" s="1"/>
       <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
       <c r="V150" s="1"/>
     </row>
     <row r="151" spans="1:22">
@@ -6446,9 +6390,6 @@
       <c r="N151" s="1"/>
       <c r="O151" s="1"/>
       <c r="P151" s="1"/>
-      <c r="Q151" s="1"/>
-      <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
       <c r="V151" s="1"/>
     </row>
     <row r="152" spans="1:22">
@@ -6467,9 +6408,6 @@
       <c r="N152" s="1"/>
       <c r="O152" s="1"/>
       <c r="P152" s="1"/>
-      <c r="Q152" s="1"/>
-      <c r="R152" s="1"/>
-      <c r="S152" s="1"/>
       <c r="V152" s="1"/>
     </row>
     <row r="153" spans="1:22">
@@ -6488,9 +6426,6 @@
       <c r="N153" s="1"/>
       <c r="O153" s="1"/>
       <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
       <c r="V153" s="1"/>
     </row>
     <row r="154" spans="1:22">
@@ -6509,9 +6444,6 @@
       <c r="N154" s="1"/>
       <c r="O154" s="1"/>
       <c r="P154" s="1"/>
-      <c r="Q154" s="1"/>
-      <c r="R154" s="1"/>
-      <c r="S154" s="1"/>
       <c r="V154" s="1"/>
     </row>
     <row r="155" spans="1:22">
@@ -6530,9 +6462,6 @@
       <c r="N155" s="1"/>
       <c r="O155" s="1"/>
       <c r="P155" s="1"/>
-      <c r="Q155" s="1"/>
-      <c r="R155" s="1"/>
-      <c r="S155" s="1"/>
       <c r="V155" s="1"/>
     </row>
     <row r="156" spans="1:22">
@@ -6551,9 +6480,6 @@
       <c r="N156" s="1"/>
       <c r="O156" s="1"/>
       <c r="P156" s="1"/>
-      <c r="Q156" s="1"/>
-      <c r="R156" s="1"/>
-      <c r="S156" s="1"/>
       <c r="V156" s="1"/>
     </row>
     <row r="157" spans="1:22">
@@ -6572,9 +6498,6 @@
       <c r="N157" s="1"/>
       <c r="O157" s="1"/>
       <c r="P157" s="1"/>
-      <c r="Q157" s="1"/>
-      <c r="R157" s="1"/>
-      <c r="S157" s="1"/>
       <c r="V157" s="1"/>
     </row>
     <row r="158" spans="1:22">
@@ -6593,9 +6516,6 @@
       <c r="N158" s="1"/>
       <c r="O158" s="1"/>
       <c r="P158" s="1"/>
-      <c r="Q158" s="1"/>
-      <c r="R158" s="1"/>
-      <c r="S158" s="1"/>
       <c r="V158" s="1"/>
     </row>
     <row r="159" spans="1:22">
@@ -6614,9 +6534,6 @@
       <c r="N159" s="1"/>
       <c r="O159" s="1"/>
       <c r="P159" s="1"/>
-      <c r="Q159" s="1"/>
-      <c r="R159" s="1"/>
-      <c r="S159" s="1"/>
       <c r="V159" s="1"/>
     </row>
     <row r="160" spans="1:22">
@@ -6635,9 +6552,6 @@
       <c r="N160" s="1"/>
       <c r="O160" s="1"/>
       <c r="P160" s="1"/>
-      <c r="Q160" s="1"/>
-      <c r="R160" s="1"/>
-      <c r="S160" s="1"/>
       <c r="V160" s="1"/>
     </row>
     <row r="161" spans="1:22">
@@ -6656,9 +6570,6 @@
       <c r="N161" s="1"/>
       <c r="O161" s="1"/>
       <c r="P161" s="1"/>
-      <c r="Q161" s="1"/>
-      <c r="R161" s="1"/>
-      <c r="S161" s="1"/>
       <c r="V161" s="1"/>
     </row>
     <row r="162" spans="1:22">
@@ -6677,9 +6588,6 @@
       <c r="N162" s="1"/>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
-      <c r="Q162" s="1"/>
-      <c r="R162" s="1"/>
-      <c r="S162" s="1"/>
       <c r="V162" s="1"/>
     </row>
     <row r="163" spans="1:22">
@@ -6698,9 +6606,6 @@
       <c r="N163" s="1"/>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
       <c r="V163" s="1"/>
     </row>
     <row r="164" spans="1:22">
@@ -6719,9 +6624,6 @@
       <c r="N164" s="1"/>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
-      <c r="Q164" s="1"/>
-      <c r="R164" s="1"/>
-      <c r="S164" s="1"/>
       <c r="V164" s="1"/>
     </row>
     <row r="165" spans="1:22">
@@ -6740,9 +6642,6 @@
       <c r="N165" s="1"/>
       <c r="O165" s="1"/>
       <c r="P165" s="1"/>
-      <c r="Q165" s="1"/>
-      <c r="R165" s="1"/>
-      <c r="S165" s="1"/>
       <c r="V165" s="1"/>
     </row>
     <row r="166" spans="1:22">
@@ -6761,9 +6660,6 @@
       <c r="N166" s="1"/>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
       <c r="V166" s="1"/>
     </row>
     <row r="167" spans="1:22">
@@ -6782,9 +6678,6 @@
       <c r="N167" s="1"/>
       <c r="O167" s="1"/>
       <c r="P167" s="1"/>
-      <c r="Q167" s="1"/>
-      <c r="R167" s="1"/>
-      <c r="S167" s="1"/>
       <c r="V167" s="1"/>
     </row>
     <row r="168" spans="1:22">
@@ -6803,9 +6696,6 @@
       <c r="N168" s="1"/>
       <c r="O168" s="1"/>
       <c r="P168" s="1"/>
-      <c r="Q168" s="1"/>
-      <c r="R168" s="1"/>
-      <c r="S168" s="1"/>
       <c r="V168" s="1"/>
     </row>
     <row r="169" spans="1:22">
@@ -6824,9 +6714,6 @@
       <c r="N169" s="1"/>
       <c r="O169" s="1"/>
       <c r="P169" s="1"/>
-      <c r="Q169" s="1"/>
-      <c r="R169" s="1"/>
-      <c r="S169" s="1"/>
       <c r="V169" s="1"/>
     </row>
     <row r="170" spans="1:22">
@@ -6845,9 +6732,6 @@
       <c r="N170" s="1"/>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
-      <c r="Q170" s="1"/>
-      <c r="R170" s="1"/>
-      <c r="S170" s="1"/>
       <c r="V170" s="1"/>
     </row>
     <row r="171" spans="1:22">
@@ -6866,9 +6750,6 @@
       <c r="N171" s="1"/>
       <c r="O171" s="1"/>
       <c r="P171" s="1"/>
-      <c r="Q171" s="1"/>
-      <c r="R171" s="1"/>
-      <c r="S171" s="1"/>
       <c r="V171" s="1"/>
     </row>
     <row r="172" spans="1:22">
@@ -6887,9 +6768,6 @@
       <c r="N172" s="1"/>
       <c r="O172" s="1"/>
       <c r="P172" s="1"/>
-      <c r="Q172" s="1"/>
-      <c r="R172" s="1"/>
-      <c r="S172" s="1"/>
       <c r="V172" s="1"/>
     </row>
     <row r="173" spans="1:22">
@@ -6908,9 +6786,6 @@
       <c r="N173" s="1"/>
       <c r="O173" s="1"/>
       <c r="P173" s="1"/>
-      <c r="Q173" s="1"/>
-      <c r="R173" s="1"/>
-      <c r="S173" s="1"/>
       <c r="V173" s="1"/>
     </row>
     <row r="174" spans="1:22">
@@ -6929,9 +6804,6 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
       <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
       <c r="V174" s="1"/>
     </row>
     <row r="175" spans="1:22">
@@ -6950,9 +6822,6 @@
       <c r="N175" s="1"/>
       <c r="O175" s="1"/>
       <c r="P175" s="1"/>
-      <c r="Q175" s="1"/>
-      <c r="R175" s="1"/>
-      <c r="S175" s="1"/>
       <c r="V175" s="1"/>
     </row>
     <row r="176" spans="1:22">
@@ -6971,9 +6840,6 @@
       <c r="N176" s="1"/>
       <c r="O176" s="1"/>
       <c r="P176" s="1"/>
-      <c r="Q176" s="1"/>
-      <c r="R176" s="1"/>
-      <c r="S176" s="1"/>
       <c r="V176" s="1"/>
     </row>
     <row r="177" spans="1:22">
@@ -6992,9 +6858,6 @@
       <c r="N177" s="1"/>
       <c r="O177" s="1"/>
       <c r="P177" s="1"/>
-      <c r="Q177" s="1"/>
-      <c r="R177" s="1"/>
-      <c r="S177" s="1"/>
       <c r="V177" s="1"/>
     </row>
     <row r="178" spans="1:22">
@@ -7013,9 +6876,6 @@
       <c r="N178" s="1"/>
       <c r="O178" s="1"/>
       <c r="P178" s="1"/>
-      <c r="Q178" s="1"/>
-      <c r="R178" s="1"/>
-      <c r="S178" s="1"/>
       <c r="V178" s="1"/>
     </row>
     <row r="179" spans="1:22">
@@ -7034,9 +6894,6 @@
       <c r="N179" s="1"/>
       <c r="O179" s="1"/>
       <c r="P179" s="1"/>
-      <c r="Q179" s="1"/>
-      <c r="R179" s="1"/>
-      <c r="S179" s="1"/>
       <c r="V179" s="1"/>
     </row>
     <row r="180" spans="1:22">
@@ -7055,9 +6912,6 @@
       <c r="N180" s="1"/>
       <c r="O180" s="1"/>
       <c r="P180" s="1"/>
-      <c r="Q180" s="1"/>
-      <c r="R180" s="1"/>
-      <c r="S180" s="1"/>
       <c r="V180" s="1"/>
     </row>
     <row r="181" spans="1:22">
@@ -7076,9 +6930,6 @@
       <c r="N181" s="1"/>
       <c r="O181" s="1"/>
       <c r="P181" s="1"/>
-      <c r="Q181" s="1"/>
-      <c r="R181" s="1"/>
-      <c r="S181" s="1"/>
       <c r="V181" s="1"/>
     </row>
     <row r="182" spans="1:22">
@@ -7097,9 +6948,6 @@
       <c r="N182" s="1"/>
       <c r="O182" s="1"/>
       <c r="P182" s="1"/>
-      <c r="Q182" s="1"/>
-      <c r="R182" s="1"/>
-      <c r="S182" s="1"/>
       <c r="V182" s="1"/>
     </row>
     <row r="183" spans="1:22">
@@ -7118,9 +6966,6 @@
       <c r="N183" s="1"/>
       <c r="O183" s="1"/>
       <c r="P183" s="1"/>
-      <c r="Q183" s="1"/>
-      <c r="R183" s="1"/>
-      <c r="S183" s="1"/>
       <c r="V183" s="1"/>
     </row>
     <row r="184" spans="1:22">
@@ -7139,9 +6984,6 @@
       <c r="N184" s="1"/>
       <c r="O184" s="1"/>
       <c r="P184" s="1"/>
-      <c r="Q184" s="1"/>
-      <c r="R184" s="1"/>
-      <c r="S184" s="1"/>
       <c r="V184" s="1"/>
     </row>
     <row r="185" spans="1:22">
@@ -7160,9 +7002,6 @@
       <c r="N185" s="1"/>
       <c r="O185" s="1"/>
       <c r="P185" s="1"/>
-      <c r="Q185" s="1"/>
-      <c r="R185" s="1"/>
-      <c r="S185" s="1"/>
       <c r="V185" s="1"/>
     </row>
     <row r="186" spans="1:22">
@@ -7181,9 +7020,6 @@
       <c r="N186" s="1"/>
       <c r="O186" s="1"/>
       <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-      <c r="S186" s="1"/>
       <c r="V186" s="1"/>
     </row>
     <row r="187" spans="1:22">
@@ -7202,9 +7038,6 @@
       <c r="N187" s="1"/>
       <c r="O187" s="1"/>
       <c r="P187" s="1"/>
-      <c r="Q187" s="1"/>
-      <c r="R187" s="1"/>
-      <c r="S187" s="1"/>
       <c r="V187" s="1"/>
     </row>
     <row r="188" spans="1:22">
@@ -7223,9 +7056,6 @@
       <c r="N188" s="1"/>
       <c r="O188" s="1"/>
       <c r="P188" s="1"/>
-      <c r="Q188" s="1"/>
-      <c r="R188" s="1"/>
-      <c r="S188" s="1"/>
       <c r="V188" s="1"/>
     </row>
     <row r="189" spans="1:22">
@@ -7244,9 +7074,6 @@
       <c r="N189" s="1"/>
       <c r="O189" s="1"/>
       <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
       <c r="V189" s="1"/>
     </row>
     <row r="190" spans="1:22">
@@ -7265,9 +7092,6 @@
       <c r="N190" s="1"/>
       <c r="O190" s="1"/>
       <c r="P190" s="1"/>
-      <c r="Q190" s="1"/>
-      <c r="R190" s="1"/>
-      <c r="S190" s="1"/>
       <c r="V190" s="1"/>
     </row>
     <row r="191" spans="1:22">
@@ -7286,9 +7110,6 @@
       <c r="N191" s="1"/>
       <c r="O191" s="1"/>
       <c r="P191" s="1"/>
-      <c r="Q191" s="1"/>
-      <c r="R191" s="1"/>
-      <c r="S191" s="1"/>
       <c r="V191" s="1"/>
     </row>
     <row r="192" spans="1:22">
@@ -7307,9 +7128,6 @@
       <c r="N192" s="1"/>
       <c r="O192" s="1"/>
       <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
-      <c r="S192" s="1"/>
       <c r="V192" s="1"/>
     </row>
     <row r="193" spans="1:22">
@@ -7328,9 +7146,6 @@
       <c r="N193" s="1"/>
       <c r="O193" s="1"/>
       <c r="P193" s="1"/>
-      <c r="Q193" s="1"/>
-      <c r="R193" s="1"/>
-      <c r="S193" s="1"/>
       <c r="V193" s="1"/>
     </row>
     <row r="194" spans="1:22">
@@ -7349,9 +7164,6 @@
       <c r="N194" s="1"/>
       <c r="O194" s="1"/>
       <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-      <c r="S194" s="1"/>
       <c r="V194" s="1"/>
     </row>
     <row r="195" spans="1:22">
@@ -7370,9 +7182,6 @@
       <c r="N195" s="1"/>
       <c r="O195" s="1"/>
       <c r="P195" s="1"/>
-      <c r="Q195" s="1"/>
-      <c r="R195" s="1"/>
-      <c r="S195" s="1"/>
       <c r="V195" s="1"/>
     </row>
     <row r="196" spans="1:22">
@@ -7391,9 +7200,6 @@
       <c r="N196" s="1"/>
       <c r="O196" s="1"/>
       <c r="P196" s="1"/>
-      <c r="Q196" s="1"/>
-      <c r="R196" s="1"/>
-      <c r="S196" s="1"/>
       <c r="V196" s="1"/>
     </row>
     <row r="197" spans="1:22">
@@ -7412,9 +7218,6 @@
       <c r="N197" s="1"/>
       <c r="O197" s="1"/>
       <c r="P197" s="1"/>
-      <c r="Q197" s="1"/>
-      <c r="R197" s="1"/>
-      <c r="S197" s="1"/>
       <c r="V197" s="1"/>
     </row>
     <row r="198" spans="1:22">
@@ -7433,9 +7236,6 @@
       <c r="N198" s="1"/>
       <c r="O198" s="1"/>
       <c r="P198" s="1"/>
-      <c r="Q198" s="1"/>
-      <c r="R198" s="1"/>
-      <c r="S198" s="1"/>
       <c r="V198" s="1"/>
     </row>
     <row r="199" spans="1:22">
@@ -7454,9 +7254,6 @@
       <c r="N199" s="1"/>
       <c r="O199" s="1"/>
       <c r="P199" s="1"/>
-      <c r="Q199" s="1"/>
-      <c r="R199" s="1"/>
-      <c r="S199" s="1"/>
       <c r="V199" s="1"/>
     </row>
     <row r="200" spans="1:22">
@@ -7475,9 +7272,6 @@
       <c r="N200" s="1"/>
       <c r="O200" s="1"/>
       <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
       <c r="V200" s="1"/>
     </row>
     <row r="201" spans="1:22">
@@ -7496,9 +7290,6 @@
       <c r="N201" s="1"/>
       <c r="O201" s="1"/>
       <c r="P201" s="1"/>
-      <c r="Q201" s="1"/>
-      <c r="R201" s="1"/>
-      <c r="S201" s="1"/>
       <c r="V201" s="1"/>
     </row>
     <row r="202" spans="1:22">
@@ -7517,9 +7308,6 @@
       <c r="N202" s="1"/>
       <c r="O202" s="1"/>
       <c r="P202" s="1"/>
-      <c r="Q202" s="1"/>
-      <c r="R202" s="1"/>
-      <c r="S202" s="1"/>
       <c r="V202" s="1"/>
     </row>
     <row r="203" spans="1:22">
@@ -7538,9 +7326,6 @@
       <c r="N203" s="1"/>
       <c r="O203" s="1"/>
       <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
       <c r="V203" s="1"/>
     </row>
     <row r="204" spans="1:22">
@@ -7559,9 +7344,6 @@
       <c r="N204" s="1"/>
       <c r="O204" s="1"/>
       <c r="P204" s="1"/>
-      <c r="Q204" s="1"/>
-      <c r="R204" s="1"/>
-      <c r="S204" s="1"/>
       <c r="V204" s="1"/>
     </row>
     <row r="205" spans="1:22">
@@ -7580,9 +7362,6 @@
       <c r="N205" s="1"/>
       <c r="O205" s="1"/>
       <c r="P205" s="1"/>
-      <c r="Q205" s="1"/>
-      <c r="R205" s="1"/>
-      <c r="S205" s="1"/>
       <c r="V205" s="1"/>
     </row>
     <row r="206" spans="1:22">
@@ -7601,9 +7380,6 @@
       <c r="N206" s="1"/>
       <c r="O206" s="1"/>
       <c r="P206" s="1"/>
-      <c r="Q206" s="1"/>
-      <c r="R206" s="1"/>
-      <c r="S206" s="1"/>
       <c r="V206" s="1"/>
     </row>
     <row r="207" spans="1:22">
@@ -7622,9 +7398,6 @@
       <c r="N207" s="1"/>
       <c r="O207" s="1"/>
       <c r="P207" s="1"/>
-      <c r="Q207" s="1"/>
-      <c r="R207" s="1"/>
-      <c r="S207" s="1"/>
       <c r="V207" s="1"/>
     </row>
     <row r="208" spans="1:22">
@@ -7643,9 +7416,6 @@
       <c r="N208" s="1"/>
       <c r="O208" s="1"/>
       <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="1"/>
-      <c r="S208" s="1"/>
       <c r="V208" s="1"/>
     </row>
     <row r="209" spans="1:22">
@@ -7664,9 +7434,6 @@
       <c r="N209" s="1"/>
       <c r="O209" s="1"/>
       <c r="P209" s="1"/>
-      <c r="Q209" s="1"/>
-      <c r="R209" s="1"/>
-      <c r="S209" s="1"/>
       <c r="V209" s="1"/>
     </row>
     <row r="210" spans="1:22">
@@ -7685,9 +7452,6 @@
       <c r="N210" s="1"/>
       <c r="O210" s="1"/>
       <c r="P210" s="1"/>
-      <c r="Q210" s="1"/>
-      <c r="R210" s="1"/>
-      <c r="S210" s="1"/>
       <c r="V210" s="1"/>
     </row>
     <row r="211" spans="1:22">
@@ -7706,9 +7470,6 @@
       <c r="N211" s="1"/>
       <c r="O211" s="1"/>
       <c r="P211" s="1"/>
-      <c r="Q211" s="1"/>
-      <c r="R211" s="1"/>
-      <c r="S211" s="1"/>
       <c r="V211" s="1"/>
     </row>
     <row r="212" spans="1:22">
@@ -7727,9 +7488,6 @@
       <c r="N212" s="1"/>
       <c r="O212" s="1"/>
       <c r="P212" s="1"/>
-      <c r="Q212" s="1"/>
-      <c r="R212" s="1"/>
-      <c r="S212" s="1"/>
       <c r="V212" s="1"/>
     </row>
     <row r="213" spans="1:22">
@@ -7748,9 +7506,6 @@
       <c r="N213" s="1"/>
       <c r="O213" s="1"/>
       <c r="P213" s="1"/>
-      <c r="Q213" s="1"/>
-      <c r="R213" s="1"/>
-      <c r="S213" s="1"/>
       <c r="V213" s="1"/>
     </row>
     <row r="214" spans="1:22">
@@ -7769,9 +7524,6 @@
       <c r="N214" s="1"/>
       <c r="O214" s="1"/>
       <c r="P214" s="1"/>
-      <c r="Q214" s="1"/>
-      <c r="R214" s="1"/>
-      <c r="S214" s="1"/>
       <c r="V214" s="1"/>
     </row>
     <row r="215" spans="1:22">
@@ -7790,9 +7542,6 @@
       <c r="N215" s="1"/>
       <c r="O215" s="1"/>
       <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
       <c r="V215" s="1"/>
     </row>
     <row r="216" spans="1:22">
@@ -7811,9 +7560,6 @@
       <c r="N216" s="1"/>
       <c r="O216" s="1"/>
       <c r="P216" s="1"/>
-      <c r="Q216" s="1"/>
-      <c r="R216" s="1"/>
-      <c r="S216" s="1"/>
       <c r="V216" s="1"/>
     </row>
     <row r="217" spans="1:22">
@@ -7832,9 +7578,6 @@
       <c r="N217" s="1"/>
       <c r="O217" s="1"/>
       <c r="P217" s="1"/>
-      <c r="Q217" s="1"/>
-      <c r="R217" s="1"/>
-      <c r="S217" s="1"/>
       <c r="V217" s="1"/>
     </row>
     <row r="218" spans="1:22">
@@ -7853,9 +7596,6 @@
       <c r="N218" s="1"/>
       <c r="O218" s="1"/>
       <c r="P218" s="1"/>
-      <c r="Q218" s="1"/>
-      <c r="R218" s="1"/>
-      <c r="S218" s="1"/>
       <c r="V218" s="1"/>
     </row>
     <row r="219" spans="1:22">
@@ -7874,9 +7614,6 @@
       <c r="N219" s="1"/>
       <c r="O219" s="1"/>
       <c r="P219" s="1"/>
-      <c r="Q219" s="1"/>
-      <c r="R219" s="1"/>
-      <c r="S219" s="1"/>
       <c r="V219" s="1"/>
     </row>
     <row r="220" spans="1:22">
@@ -7895,9 +7632,6 @@
       <c r="N220" s="1"/>
       <c r="O220" s="1"/>
       <c r="P220" s="1"/>
-      <c r="Q220" s="1"/>
-      <c r="R220" s="1"/>
-      <c r="S220" s="1"/>
       <c r="V220" s="1"/>
     </row>
     <row r="221" spans="1:22">
@@ -7916,9 +7650,6 @@
       <c r="N221" s="1"/>
       <c r="O221" s="1"/>
       <c r="P221" s="1"/>
-      <c r="Q221" s="1"/>
-      <c r="R221" s="1"/>
-      <c r="S221" s="1"/>
       <c r="V221" s="1"/>
     </row>
     <row r="222" spans="1:22">
@@ -7937,9 +7668,6 @@
       <c r="N222" s="1"/>
       <c r="O222" s="1"/>
       <c r="P222" s="1"/>
-      <c r="Q222" s="1"/>
-      <c r="R222" s="1"/>
-      <c r="S222" s="1"/>
       <c r="V222" s="1"/>
     </row>
     <row r="223" spans="1:22">
@@ -7958,9 +7686,6 @@
       <c r="N223" s="1"/>
       <c r="O223" s="1"/>
       <c r="P223" s="1"/>
-      <c r="Q223" s="1"/>
-      <c r="R223" s="1"/>
-      <c r="S223" s="1"/>
       <c r="V223" s="1"/>
     </row>
     <row r="224" spans="1:22">
@@ -7979,9 +7704,6 @@
       <c r="N224" s="1"/>
       <c r="O224" s="1"/>
       <c r="P224" s="1"/>
-      <c r="Q224" s="1"/>
-      <c r="R224" s="1"/>
-      <c r="S224" s="1"/>
       <c r="V224" s="1"/>
     </row>
     <row r="225" spans="1:22">
@@ -8000,9 +7722,6 @@
       <c r="N225" s="1"/>
       <c r="O225" s="1"/>
       <c r="P225" s="1"/>
-      <c r="Q225" s="1"/>
-      <c r="R225" s="1"/>
-      <c r="S225" s="1"/>
       <c r="V225" s="1"/>
     </row>
     <row r="226" spans="1:22">
@@ -8021,9 +7740,6 @@
       <c r="N226" s="1"/>
       <c r="O226" s="1"/>
       <c r="P226" s="1"/>
-      <c r="Q226" s="1"/>
-      <c r="R226" s="1"/>
-      <c r="S226" s="1"/>
       <c r="V226" s="1"/>
     </row>
     <row r="227" spans="1:22">
@@ -8042,9 +7758,6 @@
       <c r="N227" s="1"/>
       <c r="O227" s="1"/>
       <c r="P227" s="1"/>
-      <c r="Q227" s="1"/>
-      <c r="R227" s="1"/>
-      <c r="S227" s="1"/>
       <c r="V227" s="1"/>
     </row>
     <row r="228" spans="1:22">
@@ -8063,9 +7776,6 @@
       <c r="N228" s="1"/>
       <c r="O228" s="1"/>
       <c r="P228" s="1"/>
-      <c r="Q228" s="1"/>
-      <c r="R228" s="1"/>
-      <c r="S228" s="1"/>
       <c r="V228" s="1"/>
     </row>
     <row r="229" spans="1:22">
@@ -8084,9 +7794,6 @@
       <c r="N229" s="1"/>
       <c r="O229" s="1"/>
       <c r="P229" s="1"/>
-      <c r="Q229" s="1"/>
-      <c r="R229" s="1"/>
-      <c r="S229" s="1"/>
       <c r="V229" s="1"/>
     </row>
     <row r="230" spans="1:22">
@@ -8105,9 +7812,6 @@
       <c r="N230" s="1"/>
       <c r="O230" s="1"/>
       <c r="P230" s="1"/>
-      <c r="Q230" s="1"/>
-      <c r="R230" s="1"/>
-      <c r="S230" s="1"/>
       <c r="V230" s="1"/>
     </row>
     <row r="231" spans="1:22">
@@ -8126,9 +7830,6 @@
       <c r="N231" s="1"/>
       <c r="O231" s="1"/>
       <c r="P231" s="1"/>
-      <c r="Q231" s="1"/>
-      <c r="R231" s="1"/>
-      <c r="S231" s="1"/>
       <c r="V231" s="1"/>
     </row>
     <row r="232" spans="1:22">
@@ -8147,9 +7848,6 @@
       <c r="N232" s="1"/>
       <c r="O232" s="1"/>
       <c r="P232" s="1"/>
-      <c r="Q232" s="1"/>
-      <c r="R232" s="1"/>
-      <c r="S232" s="1"/>
       <c r="V232" s="1"/>
     </row>
     <row r="233" spans="1:22">
@@ -8168,9 +7866,6 @@
       <c r="N233" s="1"/>
       <c r="O233" s="1"/>
       <c r="P233" s="1"/>
-      <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="1"/>
       <c r="V233" s="1"/>
     </row>
     <row r="234" spans="1:22">
@@ -8189,9 +7884,6 @@
       <c r="N234" s="1"/>
       <c r="O234" s="1"/>
       <c r="P234" s="1"/>
-      <c r="Q234" s="1"/>
-      <c r="R234" s="1"/>
-      <c r="S234" s="1"/>
       <c r="V234" s="1"/>
     </row>
     <row r="235" spans="1:22">
@@ -8210,9 +7902,6 @@
       <c r="N235" s="1"/>
       <c r="O235" s="1"/>
       <c r="P235" s="1"/>
-      <c r="Q235" s="1"/>
-      <c r="R235" s="1"/>
-      <c r="S235" s="1"/>
       <c r="V235" s="1"/>
     </row>
     <row r="236" spans="1:22">
@@ -8231,9 +7920,6 @@
       <c r="N236" s="1"/>
       <c r="O236" s="1"/>
       <c r="P236" s="1"/>
-      <c r="Q236" s="1"/>
-      <c r="R236" s="1"/>
-      <c r="S236" s="1"/>
       <c r="V236" s="1"/>
     </row>
     <row r="237" spans="1:22">
@@ -8252,9 +7938,6 @@
       <c r="N237" s="1"/>
       <c r="O237" s="1"/>
       <c r="P237" s="1"/>
-      <c r="Q237" s="1"/>
-      <c r="R237" s="1"/>
-      <c r="S237" s="1"/>
       <c r="V237" s="1"/>
     </row>
     <row r="238" spans="1:22">
@@ -8273,9 +7956,6 @@
       <c r="N238" s="1"/>
       <c r="O238" s="1"/>
       <c r="P238" s="1"/>
-      <c r="Q238" s="1"/>
-      <c r="R238" s="1"/>
-      <c r="S238" s="1"/>
       <c r="V238" s="1"/>
     </row>
     <row r="239" spans="1:22">
@@ -8294,9 +7974,6 @@
       <c r="N239" s="1"/>
       <c r="O239" s="1"/>
       <c r="P239" s="1"/>
-      <c r="Q239" s="1"/>
-      <c r="R239" s="1"/>
-      <c r="S239" s="1"/>
       <c r="V239" s="1"/>
     </row>
     <row r="240" spans="1:22">
@@ -8315,9 +7992,6 @@
       <c r="N240" s="1"/>
       <c r="O240" s="1"/>
       <c r="P240" s="1"/>
-      <c r="Q240" s="1"/>
-      <c r="R240" s="1"/>
-      <c r="S240" s="1"/>
       <c r="V240" s="1"/>
     </row>
     <row r="241" spans="1:22">
@@ -8336,9 +8010,6 @@
       <c r="N241" s="1"/>
       <c r="O241" s="1"/>
       <c r="P241" s="1"/>
-      <c r="Q241" s="1"/>
-      <c r="R241" s="1"/>
-      <c r="S241" s="1"/>
       <c r="V241" s="1"/>
     </row>
     <row r="242" spans="1:22">
@@ -8357,9 +8028,6 @@
       <c r="N242" s="1"/>
       <c r="O242" s="1"/>
       <c r="P242" s="1"/>
-      <c r="Q242" s="1"/>
-      <c r="R242" s="1"/>
-      <c r="S242" s="1"/>
       <c r="V242" s="1"/>
     </row>
     <row r="243" spans="1:22">
@@ -8378,9 +8046,6 @@
       <c r="N243" s="1"/>
       <c r="O243" s="1"/>
       <c r="P243" s="1"/>
-      <c r="Q243" s="1"/>
-      <c r="R243" s="1"/>
-      <c r="S243" s="1"/>
       <c r="V243" s="1"/>
     </row>
     <row r="244" spans="1:22">
@@ -8399,9 +8064,6 @@
       <c r="N244" s="1"/>
       <c r="O244" s="1"/>
       <c r="P244" s="1"/>
-      <c r="Q244" s="1"/>
-      <c r="R244" s="1"/>
-      <c r="S244" s="1"/>
       <c r="V244" s="1"/>
     </row>
     <row r="245" spans="1:22">
@@ -8420,9 +8082,6 @@
       <c r="N245" s="1"/>
       <c r="O245" s="1"/>
       <c r="P245" s="1"/>
-      <c r="Q245" s="1"/>
-      <c r="R245" s="1"/>
-      <c r="S245" s="1"/>
       <c r="V245" s="1"/>
     </row>
     <row r="246" spans="1:22">
@@ -8441,9 +8100,6 @@
       <c r="N246" s="1"/>
       <c r="O246" s="1"/>
       <c r="P246" s="1"/>
-      <c r="Q246" s="1"/>
-      <c r="R246" s="1"/>
-      <c r="S246" s="1"/>
       <c r="V246" s="1"/>
     </row>
     <row r="247" spans="1:22">
@@ -8462,9 +8118,6 @@
       <c r="N247" s="1"/>
       <c r="O247" s="1"/>
       <c r="P247" s="1"/>
-      <c r="Q247" s="1"/>
-      <c r="R247" s="1"/>
-      <c r="S247" s="1"/>
       <c r="V247" s="1"/>
     </row>
     <row r="248" spans="1:22">
@@ -8483,9 +8136,6 @@
       <c r="N248" s="1"/>
       <c r="O248" s="1"/>
       <c r="P248" s="1"/>
-      <c r="Q248" s="1"/>
-      <c r="R248" s="1"/>
-      <c r="S248" s="1"/>
       <c r="V248" s="1"/>
     </row>
     <row r="249" spans="1:22">
@@ -8504,9 +8154,6 @@
       <c r="N249" s="1"/>
       <c r="O249" s="1"/>
       <c r="P249" s="1"/>
-      <c r="Q249" s="1"/>
-      <c r="R249" s="1"/>
-      <c r="S249" s="1"/>
       <c r="V249" s="1"/>
     </row>
     <row r="250" spans="1:22">
@@ -8525,9 +8172,6 @@
       <c r="N250" s="1"/>
       <c r="O250" s="1"/>
       <c r="P250" s="1"/>
-      <c r="Q250" s="1"/>
-      <c r="R250" s="1"/>
-      <c r="S250" s="1"/>
       <c r="V250" s="1"/>
     </row>
     <row r="251" spans="1:22">
@@ -8546,9 +8190,6 @@
       <c r="N251" s="1"/>
       <c r="O251" s="1"/>
       <c r="P251" s="1"/>
-      <c r="Q251" s="1"/>
-      <c r="R251" s="1"/>
-      <c r="S251" s="1"/>
       <c r="V251" s="1"/>
     </row>
     <row r="252" spans="1:22">
@@ -8567,9 +8208,6 @@
       <c r="N252" s="1"/>
       <c r="O252" s="1"/>
       <c r="P252" s="1"/>
-      <c r="Q252" s="1"/>
-      <c r="R252" s="1"/>
-      <c r="S252" s="1"/>
       <c r="V252" s="1"/>
     </row>
     <row r="253" spans="1:22">
@@ -8588,9 +8226,6 @@
       <c r="N253" s="1"/>
       <c r="O253" s="1"/>
       <c r="P253" s="1"/>
-      <c r="Q253" s="1"/>
-      <c r="R253" s="1"/>
-      <c r="S253" s="1"/>
       <c r="V253" s="1"/>
     </row>
     <row r="254" spans="1:22">
@@ -8609,9 +8244,6 @@
       <c r="N254" s="1"/>
       <c r="O254" s="1"/>
       <c r="P254" s="1"/>
-      <c r="Q254" s="1"/>
-      <c r="R254" s="1"/>
-      <c r="S254" s="1"/>
       <c r="V254" s="1"/>
     </row>
     <row r="255" spans="1:22">
@@ -8630,9 +8262,6 @@
       <c r="N255" s="1"/>
       <c r="O255" s="1"/>
       <c r="P255" s="1"/>
-      <c r="Q255" s="1"/>
-      <c r="R255" s="1"/>
-      <c r="S255" s="1"/>
       <c r="V255" s="1"/>
     </row>
     <row r="256" spans="1:22">
@@ -8651,9 +8280,6 @@
       <c r="N256" s="1"/>
       <c r="O256" s="1"/>
       <c r="P256" s="1"/>
-      <c r="Q256" s="1"/>
-      <c r="R256" s="1"/>
-      <c r="S256" s="1"/>
       <c r="V256" s="1"/>
     </row>
     <row r="257" spans="1:22">
@@ -8672,9 +8298,6 @@
       <c r="N257" s="1"/>
       <c r="O257" s="1"/>
       <c r="P257" s="1"/>
-      <c r="Q257" s="1"/>
-      <c r="R257" s="1"/>
-      <c r="S257" s="1"/>
       <c r="V257" s="1"/>
     </row>
     <row r="258" spans="1:22">
@@ -8693,9 +8316,6 @@
       <c r="N258" s="1"/>
       <c r="O258" s="1"/>
       <c r="P258" s="1"/>
-      <c r="Q258" s="1"/>
-      <c r="R258" s="1"/>
-      <c r="S258" s="1"/>
       <c r="V258" s="1"/>
     </row>
     <row r="259" spans="1:22">
@@ -8714,9 +8334,6 @@
       <c r="N259" s="1"/>
       <c r="O259" s="1"/>
       <c r="P259" s="1"/>
-      <c r="Q259" s="1"/>
-      <c r="R259" s="1"/>
-      <c r="S259" s="1"/>
       <c r="V259" s="1"/>
     </row>
     <row r="260" spans="1:22">
@@ -8735,9 +8352,6 @@
       <c r="N260" s="1"/>
       <c r="O260" s="1"/>
       <c r="P260" s="1"/>
-      <c r="Q260" s="1"/>
-      <c r="R260" s="1"/>
-      <c r="S260" s="1"/>
       <c r="V260" s="1"/>
     </row>
     <row r="261" spans="1:22">
@@ -8756,9 +8370,6 @@
       <c r="N261" s="1"/>
       <c r="O261" s="1"/>
       <c r="P261" s="1"/>
-      <c r="Q261" s="1"/>
-      <c r="R261" s="1"/>
-      <c r="S261" s="1"/>
       <c r="V261" s="1"/>
     </row>
     <row r="262" spans="1:22">
@@ -8777,9 +8388,6 @@
       <c r="N262" s="1"/>
       <c r="O262" s="1"/>
       <c r="P262" s="1"/>
-      <c r="Q262" s="1"/>
-      <c r="R262" s="1"/>
-      <c r="S262" s="1"/>
       <c r="V262" s="1"/>
     </row>
     <row r="263" spans="1:22">
@@ -8798,9 +8406,6 @@
       <c r="N263" s="1"/>
       <c r="O263" s="1"/>
       <c r="P263" s="1"/>
-      <c r="Q263" s="1"/>
-      <c r="R263" s="1"/>
-      <c r="S263" s="1"/>
       <c r="V263" s="1"/>
     </row>
     <row r="264" spans="1:22">
@@ -8819,9 +8424,6 @@
       <c r="N264" s="1"/>
       <c r="O264" s="1"/>
       <c r="P264" s="1"/>
-      <c r="Q264" s="1"/>
-      <c r="R264" s="1"/>
-      <c r="S264" s="1"/>
       <c r="V264" s="1"/>
     </row>
     <row r="265" spans="1:22">
@@ -8840,9 +8442,6 @@
       <c r="N265" s="1"/>
       <c r="O265" s="1"/>
       <c r="P265" s="1"/>
-      <c r="Q265" s="1"/>
-      <c r="R265" s="1"/>
-      <c r="S265" s="1"/>
       <c r="V265" s="1"/>
     </row>
     <row r="266" spans="1:22">
@@ -8861,9 +8460,6 @@
       <c r="N266" s="1"/>
       <c r="O266" s="1"/>
       <c r="P266" s="1"/>
-      <c r="Q266" s="1"/>
-      <c r="R266" s="1"/>
-      <c r="S266" s="1"/>
       <c r="V266" s="1"/>
     </row>
     <row r="267" spans="1:22">
@@ -8882,9 +8478,6 @@
       <c r="N267" s="1"/>
       <c r="O267" s="1"/>
       <c r="P267" s="1"/>
-      <c r="Q267" s="1"/>
-      <c r="R267" s="1"/>
-      <c r="S267" s="1"/>
       <c r="V267" s="1"/>
     </row>
     <row r="268" spans="1:22">
@@ -8903,9 +8496,6 @@
       <c r="N268" s="1"/>
       <c r="O268" s="1"/>
       <c r="P268" s="1"/>
-      <c r="Q268" s="1"/>
-      <c r="R268" s="1"/>
-      <c r="S268" s="1"/>
       <c r="V268" s="1"/>
     </row>
     <row r="269" spans="1:22">
@@ -8924,9 +8514,6 @@
       <c r="N269" s="1"/>
       <c r="O269" s="1"/>
       <c r="P269" s="1"/>
-      <c r="Q269" s="1"/>
-      <c r="R269" s="1"/>
-      <c r="S269" s="1"/>
       <c r="V269" s="1"/>
     </row>
     <row r="270" spans="1:22">
@@ -8945,9 +8532,6 @@
       <c r="N270" s="1"/>
       <c r="O270" s="1"/>
       <c r="P270" s="1"/>
-      <c r="Q270" s="1"/>
-      <c r="R270" s="1"/>
-      <c r="S270" s="1"/>
       <c r="V270" s="1"/>
     </row>
     <row r="271" spans="1:22">
@@ -8966,9 +8550,6 @@
       <c r="N271" s="1"/>
       <c r="O271" s="1"/>
       <c r="P271" s="1"/>
-      <c r="Q271" s="1"/>
-      <c r="R271" s="1"/>
-      <c r="S271" s="1"/>
       <c r="V271" s="1"/>
     </row>
     <row r="272" spans="1:22">
@@ -8987,9 +8568,6 @@
       <c r="N272" s="1"/>
       <c r="O272" s="1"/>
       <c r="P272" s="1"/>
-      <c r="Q272" s="1"/>
-      <c r="R272" s="1"/>
-      <c r="S272" s="1"/>
       <c r="V272" s="1"/>
     </row>
     <row r="273" spans="1:22">
@@ -9008,9 +8586,6 @@
       <c r="N273" s="1"/>
       <c r="O273" s="1"/>
       <c r="P273" s="1"/>
-      <c r="Q273" s="1"/>
-      <c r="R273" s="1"/>
-      <c r="S273" s="1"/>
       <c r="V273" s="1"/>
     </row>
     <row r="274" spans="1:22">
@@ -9029,9 +8604,6 @@
       <c r="N274" s="1"/>
       <c r="O274" s="1"/>
       <c r="P274" s="1"/>
-      <c r="Q274" s="1"/>
-      <c r="R274" s="1"/>
-      <c r="S274" s="1"/>
       <c r="V274" s="1"/>
     </row>
     <row r="275" spans="1:22">
@@ -9050,9 +8622,6 @@
       <c r="N275" s="1"/>
       <c r="O275" s="1"/>
       <c r="P275" s="1"/>
-      <c r="Q275" s="1"/>
-      <c r="R275" s="1"/>
-      <c r="S275" s="1"/>
       <c r="V275" s="1"/>
     </row>
     <row r="276" spans="1:22">
@@ -9071,9 +8640,6 @@
       <c r="N276" s="1"/>
       <c r="O276" s="1"/>
       <c r="P276" s="1"/>
-      <c r="Q276" s="1"/>
-      <c r="R276" s="1"/>
-      <c r="S276" s="1"/>
       <c r="V276" s="1"/>
     </row>
     <row r="277" spans="1:22">
@@ -9092,9 +8658,6 @@
       <c r="N277" s="1"/>
       <c r="O277" s="1"/>
       <c r="P277" s="1"/>
-      <c r="Q277" s="1"/>
-      <c r="R277" s="1"/>
-      <c r="S277" s="1"/>
       <c r="V277" s="1"/>
     </row>
     <row r="278" spans="1:22">
@@ -9113,9 +8676,6 @@
       <c r="N278" s="1"/>
       <c r="O278" s="1"/>
       <c r="P278" s="1"/>
-      <c r="Q278" s="1"/>
-      <c r="R278" s="1"/>
-      <c r="S278" s="1"/>
       <c r="V278" s="1"/>
     </row>
     <row r="279" spans="1:22">
@@ -9134,9 +8694,6 @@
       <c r="N279" s="1"/>
       <c r="O279" s="1"/>
       <c r="P279" s="1"/>
-      <c r="Q279" s="1"/>
-      <c r="R279" s="1"/>
-      <c r="S279" s="1"/>
       <c r="V279" s="1"/>
     </row>
     <row r="280" spans="1:22">
@@ -9155,9 +8712,6 @@
       <c r="N280" s="1"/>
       <c r="O280" s="1"/>
       <c r="P280" s="1"/>
-      <c r="Q280" s="1"/>
-      <c r="R280" s="1"/>
-      <c r="S280" s="1"/>
       <c r="V280" s="1"/>
     </row>
     <row r="281" spans="1:22">
@@ -9176,9 +8730,6 @@
       <c r="N281" s="1"/>
       <c r="O281" s="1"/>
       <c r="P281" s="1"/>
-      <c r="Q281" s="1"/>
-      <c r="R281" s="1"/>
-      <c r="S281" s="1"/>
       <c r="V281" s="1"/>
     </row>
     <row r="282" spans="1:22">
@@ -9197,9 +8748,6 @@
       <c r="N282" s="1"/>
       <c r="O282" s="1"/>
       <c r="P282" s="1"/>
-      <c r="Q282" s="1"/>
-      <c r="R282" s="1"/>
-      <c r="S282" s="1"/>
       <c r="V282" s="1"/>
     </row>
     <row r="283" spans="1:22">
@@ -9218,9 +8766,6 @@
       <c r="N283" s="1"/>
       <c r="O283" s="1"/>
       <c r="P283" s="1"/>
-      <c r="Q283" s="1"/>
-      <c r="R283" s="1"/>
-      <c r="S283" s="1"/>
       <c r="V283" s="1"/>
     </row>
     <row r="284" spans="1:22">
@@ -9239,9 +8784,6 @@
       <c r="N284" s="1"/>
       <c r="O284" s="1"/>
       <c r="P284" s="1"/>
-      <c r="Q284" s="1"/>
-      <c r="R284" s="1"/>
-      <c r="S284" s="1"/>
       <c r="V284" s="1"/>
     </row>
     <row r="285" spans="1:22">
@@ -9260,9 +8802,6 @@
       <c r="N285" s="1"/>
       <c r="O285" s="1"/>
       <c r="P285" s="1"/>
-      <c r="Q285" s="1"/>
-      <c r="R285" s="1"/>
-      <c r="S285" s="1"/>
       <c r="V285" s="1"/>
     </row>
     <row r="286" spans="1:22">
@@ -9281,9 +8820,6 @@
       <c r="N286" s="1"/>
       <c r="O286" s="1"/>
       <c r="P286" s="1"/>
-      <c r="Q286" s="1"/>
-      <c r="R286" s="1"/>
-      <c r="S286" s="1"/>
       <c r="V286" s="1"/>
     </row>
     <row r="287" spans="1:22">
@@ -9302,9 +8838,6 @@
       <c r="N287" s="1"/>
       <c r="O287" s="1"/>
       <c r="P287" s="1"/>
-      <c r="Q287" s="1"/>
-      <c r="R287" s="1"/>
-      <c r="S287" s="1"/>
       <c r="V287" s="1"/>
     </row>
     <row r="288" spans="1:22">
@@ -9323,9 +8856,6 @@
       <c r="N288" s="1"/>
       <c r="O288" s="1"/>
       <c r="P288" s="1"/>
-      <c r="Q288" s="1"/>
-      <c r="R288" s="1"/>
-      <c r="S288" s="1"/>
       <c r="V288" s="1"/>
     </row>
     <row r="289" spans="1:22">
@@ -9344,9 +8874,6 @@
       <c r="N289" s="1"/>
       <c r="O289" s="1"/>
       <c r="P289" s="1"/>
-      <c r="Q289" s="1"/>
-      <c r="R289" s="1"/>
-      <c r="S289" s="1"/>
       <c r="V289" s="1"/>
     </row>
     <row r="290" spans="1:22">
@@ -9365,9 +8892,6 @@
       <c r="N290" s="1"/>
       <c r="O290" s="1"/>
       <c r="P290" s="1"/>
-      <c r="Q290" s="1"/>
-      <c r="R290" s="1"/>
-      <c r="S290" s="1"/>
       <c r="V290" s="1"/>
     </row>
     <row r="291" spans="1:22">
@@ -9386,9 +8910,6 @@
       <c r="N291" s="1"/>
       <c r="O291" s="1"/>
       <c r="P291" s="1"/>
-      <c r="Q291" s="1"/>
-      <c r="R291" s="1"/>
-      <c r="S291" s="1"/>
       <c r="V291" s="1"/>
     </row>
     <row r="292" spans="1:22">
@@ -9407,9 +8928,6 @@
       <c r="N292" s="1"/>
       <c r="O292" s="1"/>
       <c r="P292" s="1"/>
-      <c r="Q292" s="1"/>
-      <c r="R292" s="1"/>
-      <c r="S292" s="1"/>
       <c r="V292" s="1"/>
     </row>
     <row r="293" spans="1:22">
@@ -9428,9 +8946,6 @@
       <c r="N293" s="1"/>
       <c r="O293" s="1"/>
       <c r="P293" s="1"/>
-      <c r="Q293" s="1"/>
-      <c r="R293" s="1"/>
-      <c r="S293" s="1"/>
       <c r="V293" s="1"/>
     </row>
     <row r="294" spans="1:22">
@@ -9449,9 +8964,6 @@
       <c r="N294" s="1"/>
       <c r="O294" s="1"/>
       <c r="P294" s="1"/>
-      <c r="Q294" s="1"/>
-      <c r="R294" s="1"/>
-      <c r="S294" s="1"/>
       <c r="V294" s="1"/>
     </row>
     <row r="295" spans="1:22">
@@ -9470,9 +8982,6 @@
       <c r="N295" s="1"/>
       <c r="O295" s="1"/>
       <c r="P295" s="1"/>
-      <c r="Q295" s="1"/>
-      <c r="R295" s="1"/>
-      <c r="S295" s="1"/>
       <c r="V295" s="1"/>
     </row>
     <row r="296" spans="1:22">
@@ -9491,9 +9000,6 @@
       <c r="N296" s="1"/>
       <c r="O296" s="1"/>
       <c r="P296" s="1"/>
-      <c r="Q296" s="1"/>
-      <c r="R296" s="1"/>
-      <c r="S296" s="1"/>
       <c r="V296" s="1"/>
     </row>
     <row r="297" spans="1:22">
@@ -9512,9 +9018,6 @@
       <c r="N297" s="1"/>
       <c r="O297" s="1"/>
       <c r="P297" s="1"/>
-      <c r="Q297" s="1"/>
-      <c r="R297" s="1"/>
-      <c r="S297" s="1"/>
       <c r="V297" s="1"/>
     </row>
     <row r="298" spans="1:22">
@@ -9533,9 +9036,6 @@
       <c r="N298" s="1"/>
       <c r="O298" s="1"/>
       <c r="P298" s="1"/>
-      <c r="Q298" s="1"/>
-      <c r="R298" s="1"/>
-      <c r="S298" s="1"/>
       <c r="V298" s="1"/>
     </row>
     <row r="299" spans="1:22">
@@ -9554,9 +9054,6 @@
       <c r="N299" s="1"/>
       <c r="O299" s="1"/>
       <c r="P299" s="1"/>
-      <c r="Q299" s="1"/>
-      <c r="R299" s="1"/>
-      <c r="S299" s="1"/>
       <c r="V299" s="1"/>
     </row>
     <row r="300" spans="1:22">
@@ -9575,9 +9072,6 @@
       <c r="N300" s="1"/>
       <c r="O300" s="1"/>
       <c r="P300" s="1"/>
-      <c r="Q300" s="1"/>
-      <c r="R300" s="1"/>
-      <c r="S300" s="1"/>
       <c r="V300" s="1"/>
     </row>
     <row r="301" spans="1:22">
@@ -9596,9 +9090,6 @@
       <c r="N301" s="1"/>
       <c r="O301" s="1"/>
       <c r="P301" s="1"/>
-      <c r="Q301" s="1"/>
-      <c r="R301" s="1"/>
-      <c r="S301" s="1"/>
       <c r="V301" s="1"/>
     </row>
     <row r="302" spans="1:22">
@@ -9617,9 +9108,6 @@
       <c r="N302" s="1"/>
       <c r="O302" s="1"/>
       <c r="P302" s="1"/>
-      <c r="Q302" s="1"/>
-      <c r="R302" s="1"/>
-      <c r="S302" s="1"/>
       <c r="V302" s="1"/>
     </row>
     <row r="303" spans="1:22">
@@ -9638,9 +9126,6 @@
       <c r="N303" s="1"/>
       <c r="O303" s="1"/>
       <c r="P303" s="1"/>
-      <c r="Q303" s="1"/>
-      <c r="R303" s="1"/>
-      <c r="S303" s="1"/>
       <c r="V303" s="1"/>
     </row>
     <row r="304" spans="1:22">
@@ -9659,9 +9144,6 @@
       <c r="N304" s="1"/>
       <c r="O304" s="1"/>
       <c r="P304" s="1"/>
-      <c r="Q304" s="1"/>
-      <c r="R304" s="1"/>
-      <c r="S304" s="1"/>
       <c r="V304" s="1"/>
     </row>
     <row r="305" spans="1:22">
@@ -9680,9 +9162,6 @@
       <c r="N305" s="1"/>
       <c r="O305" s="1"/>
       <c r="P305" s="1"/>
-      <c r="Q305" s="1"/>
-      <c r="R305" s="1"/>
-      <c r="S305" s="1"/>
       <c r="V305" s="1"/>
     </row>
     <row r="306" spans="1:22">
@@ -9701,9 +9180,6 @@
       <c r="N306" s="1"/>
       <c r="O306" s="1"/>
       <c r="P306" s="1"/>
-      <c r="Q306" s="1"/>
-      <c r="R306" s="1"/>
-      <c r="S306" s="1"/>
       <c r="V306" s="1"/>
     </row>
     <row r="307" spans="1:22">
@@ -9722,9 +9198,6 @@
       <c r="N307" s="1"/>
       <c r="O307" s="1"/>
       <c r="P307" s="1"/>
-      <c r="Q307" s="1"/>
-      <c r="R307" s="1"/>
-      <c r="S307" s="1"/>
       <c r="V307" s="1"/>
     </row>
     <row r="308" spans="1:22">
@@ -9743,9 +9216,6 @@
       <c r="N308" s="1"/>
       <c r="O308" s="1"/>
       <c r="P308" s="1"/>
-      <c r="Q308" s="1"/>
-      <c r="R308" s="1"/>
-      <c r="S308" s="1"/>
       <c r="V308" s="1"/>
     </row>
     <row r="309" spans="1:22">
@@ -9764,9 +9234,6 @@
       <c r="N309" s="1"/>
       <c r="O309" s="1"/>
       <c r="P309" s="1"/>
-      <c r="Q309" s="1"/>
-      <c r="R309" s="1"/>
-      <c r="S309" s="1"/>
       <c r="V309" s="1"/>
     </row>
     <row r="310" spans="1:22">
@@ -9785,9 +9252,6 @@
       <c r="N310" s="1"/>
       <c r="O310" s="1"/>
       <c r="P310" s="1"/>
-      <c r="Q310" s="1"/>
-      <c r="R310" s="1"/>
-      <c r="S310" s="1"/>
       <c r="V310" s="1"/>
     </row>
     <row r="311" spans="1:22">
@@ -9806,9 +9270,6 @@
       <c r="N311" s="1"/>
       <c r="O311" s="1"/>
       <c r="P311" s="1"/>
-      <c r="Q311" s="1"/>
-      <c r="R311" s="1"/>
-      <c r="S311" s="1"/>
       <c r="V311" s="1"/>
     </row>
     <row r="312" spans="1:22">
@@ -9827,9 +9288,6 @@
       <c r="N312" s="1"/>
       <c r="O312" s="1"/>
       <c r="P312" s="1"/>
-      <c r="Q312" s="1"/>
-      <c r="R312" s="1"/>
-      <c r="S312" s="1"/>
       <c r="V312" s="1"/>
     </row>
     <row r="313" spans="1:22">
@@ -9848,9 +9306,6 @@
       <c r="N313" s="1"/>
       <c r="O313" s="1"/>
       <c r="P313" s="1"/>
-      <c r="Q313" s="1"/>
-      <c r="R313" s="1"/>
-      <c r="S313" s="1"/>
       <c r="V313" s="1"/>
     </row>
     <row r="314" spans="1:22">
@@ -9869,9 +9324,6 @@
       <c r="N314" s="1"/>
       <c r="O314" s="1"/>
       <c r="P314" s="1"/>
-      <c r="Q314" s="1"/>
-      <c r="R314" s="1"/>
-      <c r="S314" s="1"/>
       <c r="V314" s="1"/>
     </row>
     <row r="315" spans="1:22">
@@ -9890,9 +9342,6 @@
       <c r="N315" s="1"/>
       <c r="O315" s="1"/>
       <c r="P315" s="1"/>
-      <c r="Q315" s="1"/>
-      <c r="R315" s="1"/>
-      <c r="S315" s="1"/>
       <c r="V315" s="1"/>
     </row>
     <row r="316" spans="1:22">
@@ -9911,9 +9360,6 @@
       <c r="N316" s="1"/>
       <c r="O316" s="1"/>
       <c r="P316" s="1"/>
-      <c r="Q316" s="1"/>
-      <c r="R316" s="1"/>
-      <c r="S316" s="1"/>
       <c r="V316" s="1"/>
     </row>
     <row r="317" spans="1:22">
@@ -9932,9 +9378,6 @@
       <c r="N317" s="1"/>
       <c r="O317" s="1"/>
       <c r="P317" s="1"/>
-      <c r="Q317" s="1"/>
-      <c r="R317" s="1"/>
-      <c r="S317" s="1"/>
       <c r="V317" s="1"/>
     </row>
     <row r="318" spans="1:22">
@@ -9953,9 +9396,6 @@
       <c r="N318" s="1"/>
       <c r="O318" s="1"/>
       <c r="P318" s="1"/>
-      <c r="Q318" s="1"/>
-      <c r="R318" s="1"/>
-      <c r="S318" s="1"/>
       <c r="V318" s="1"/>
     </row>
     <row r="319" spans="1:22">
@@ -9974,9 +9414,6 @@
       <c r="N319" s="1"/>
       <c r="O319" s="1"/>
       <c r="P319" s="1"/>
-      <c r="Q319" s="1"/>
-      <c r="R319" s="1"/>
-      <c r="S319" s="1"/>
       <c r="V319" s="1"/>
     </row>
     <row r="320" spans="1:22">
@@ -9995,9 +9432,6 @@
       <c r="N320" s="1"/>
       <c r="O320" s="1"/>
       <c r="P320" s="1"/>
-      <c r="Q320" s="1"/>
-      <c r="R320" s="1"/>
-      <c r="S320" s="1"/>
       <c r="V320" s="1"/>
     </row>
     <row r="321" spans="1:22">
@@ -10016,9 +9450,6 @@
       <c r="N321" s="1"/>
       <c r="O321" s="1"/>
       <c r="P321" s="1"/>
-      <c r="Q321" s="1"/>
-      <c r="R321" s="1"/>
-      <c r="S321" s="1"/>
       <c r="V321" s="1"/>
     </row>
     <row r="322" spans="1:22">
@@ -10037,9 +9468,6 @@
       <c r="N322" s="1"/>
       <c r="O322" s="1"/>
       <c r="P322" s="1"/>
-      <c r="Q322" s="1"/>
-      <c r="R322" s="1"/>
-      <c r="S322" s="1"/>
       <c r="V322" s="1"/>
     </row>
     <row r="323" spans="1:22">
@@ -10058,9 +9486,6 @@
       <c r="N323" s="1"/>
       <c r="O323" s="1"/>
       <c r="P323" s="1"/>
-      <c r="Q323" s="1"/>
-      <c r="R323" s="1"/>
-      <c r="S323" s="1"/>
       <c r="V323" s="1"/>
     </row>
     <row r="324" spans="1:22">
@@ -10079,9 +9504,6 @@
       <c r="N324" s="1"/>
       <c r="O324" s="1"/>
       <c r="P324" s="1"/>
-      <c r="Q324" s="1"/>
-      <c r="R324" s="1"/>
-      <c r="S324" s="1"/>
       <c r="V324" s="1"/>
     </row>
     <row r="325" spans="1:22">
@@ -10100,9 +9522,6 @@
       <c r="N325" s="1"/>
       <c r="O325" s="1"/>
       <c r="P325" s="1"/>
-      <c r="Q325" s="1"/>
-      <c r="R325" s="1"/>
-      <c r="S325" s="1"/>
       <c r="V325" s="1"/>
     </row>
     <row r="326" spans="1:22">
@@ -10121,9 +9540,6 @@
       <c r="N326" s="1"/>
       <c r="O326" s="1"/>
       <c r="P326" s="1"/>
-      <c r="Q326" s="1"/>
-      <c r="R326" s="1"/>
-      <c r="S326" s="1"/>
       <c r="V326" s="1"/>
     </row>
     <row r="327" spans="1:22">
@@ -10142,9 +9558,6 @@
       <c r="N327" s="1"/>
       <c r="O327" s="1"/>
       <c r="P327" s="1"/>
-      <c r="Q327" s="1"/>
-      <c r="R327" s="1"/>
-      <c r="S327" s="1"/>
       <c r="V327" s="1"/>
     </row>
     <row r="328" spans="1:22">
@@ -10163,9 +9576,6 @@
       <c r="N328" s="1"/>
       <c r="O328" s="1"/>
       <c r="P328" s="1"/>
-      <c r="Q328" s="1"/>
-      <c r="R328" s="1"/>
-      <c r="S328" s="1"/>
       <c r="V328" s="1"/>
     </row>
     <row r="329" spans="1:22">
@@ -10184,9 +9594,6 @@
       <c r="N329" s="1"/>
       <c r="O329" s="1"/>
       <c r="P329" s="1"/>
-      <c r="Q329" s="1"/>
-      <c r="R329" s="1"/>
-      <c r="S329" s="1"/>
       <c r="V329" s="1"/>
     </row>
     <row r="330" spans="1:22">
@@ -10205,9 +9612,6 @@
       <c r="N330" s="1"/>
       <c r="O330" s="1"/>
       <c r="P330" s="1"/>
-      <c r="Q330" s="1"/>
-      <c r="R330" s="1"/>
-      <c r="S330" s="1"/>
       <c r="V330" s="1"/>
     </row>
     <row r="331" spans="1:22">
@@ -10226,9 +9630,6 @@
       <c r="N331" s="1"/>
       <c r="O331" s="1"/>
       <c r="P331" s="1"/>
-      <c r="Q331" s="1"/>
-      <c r="R331" s="1"/>
-      <c r="S331" s="1"/>
       <c r="V331" s="1"/>
     </row>
     <row r="332" spans="1:22">
@@ -10247,9 +9648,6 @@
       <c r="N332" s="1"/>
       <c r="O332" s="1"/>
       <c r="P332" s="1"/>
-      <c r="Q332" s="1"/>
-      <c r="R332" s="1"/>
-      <c r="S332" s="1"/>
       <c r="V332" s="1"/>
     </row>
     <row r="333" spans="1:22">
@@ -10268,9 +9666,6 @@
       <c r="N333" s="1"/>
       <c r="O333" s="1"/>
       <c r="P333" s="1"/>
-      <c r="Q333" s="1"/>
-      <c r="R333" s="1"/>
-      <c r="S333" s="1"/>
       <c r="V333" s="1"/>
     </row>
     <row r="334" spans="1:22">
@@ -10289,9 +9684,6 @@
       <c r="N334" s="1"/>
       <c r="O334" s="1"/>
       <c r="P334" s="1"/>
-      <c r="Q334" s="1"/>
-      <c r="R334" s="1"/>
-      <c r="S334" s="1"/>
       <c r="V334" s="1"/>
     </row>
     <row r="335" spans="1:22">
@@ -10310,9 +9702,6 @@
       <c r="N335" s="1"/>
       <c r="O335" s="1"/>
       <c r="P335" s="1"/>
-      <c r="Q335" s="1"/>
-      <c r="R335" s="1"/>
-      <c r="S335" s="1"/>
       <c r="V335" s="1"/>
     </row>
     <row r="336" spans="1:22">
@@ -10331,9 +9720,6 @@
       <c r="N336" s="1"/>
       <c r="O336" s="1"/>
       <c r="P336" s="1"/>
-      <c r="Q336" s="1"/>
-      <c r="R336" s="1"/>
-      <c r="S336" s="1"/>
       <c r="V336" s="1"/>
     </row>
     <row r="337" spans="1:22">
@@ -10352,9 +9738,6 @@
       <c r="N337" s="1"/>
       <c r="O337" s="1"/>
       <c r="P337" s="1"/>
-      <c r="Q337" s="1"/>
-      <c r="R337" s="1"/>
-      <c r="S337" s="1"/>
       <c r="V337" s="1"/>
     </row>
     <row r="338" spans="1:22">
@@ -10373,9 +9756,6 @@
       <c r="N338" s="1"/>
       <c r="O338" s="1"/>
       <c r="P338" s="1"/>
-      <c r="Q338" s="1"/>
-      <c r="R338" s="1"/>
-      <c r="S338" s="1"/>
       <c r="V338" s="1"/>
     </row>
     <row r="339" spans="1:22">
@@ -10394,9 +9774,6 @@
       <c r="N339" s="1"/>
       <c r="O339" s="1"/>
       <c r="P339" s="1"/>
-      <c r="Q339" s="1"/>
-      <c r="R339" s="1"/>
-      <c r="S339" s="1"/>
       <c r="V339" s="1"/>
     </row>
     <row r="340" spans="1:22">
@@ -10415,9 +9792,6 @@
       <c r="N340" s="1"/>
       <c r="O340" s="1"/>
       <c r="P340" s="1"/>
-      <c r="Q340" s="1"/>
-      <c r="R340" s="1"/>
-      <c r="S340" s="1"/>
       <c r="V340" s="1"/>
     </row>
     <row r="341" spans="1:22">
@@ -10436,9 +9810,6 @@
       <c r="N341" s="1"/>
       <c r="O341" s="1"/>
       <c r="P341" s="1"/>
-      <c r="Q341" s="1"/>
-      <c r="R341" s="1"/>
-      <c r="S341" s="1"/>
       <c r="V341" s="1"/>
     </row>
     <row r="342" spans="1:22">
@@ -10457,9 +9828,6 @@
       <c r="N342" s="1"/>
       <c r="O342" s="1"/>
       <c r="P342" s="1"/>
-      <c r="Q342" s="1"/>
-      <c r="R342" s="1"/>
-      <c r="S342" s="1"/>
       <c r="V342" s="1"/>
     </row>
     <row r="343" spans="1:22">
@@ -10478,9 +9846,6 @@
       <c r="N343" s="1"/>
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
-      <c r="Q343" s="1"/>
-      <c r="R343" s="1"/>
-      <c r="S343" s="1"/>
       <c r="V343" s="1"/>
     </row>
     <row r="344" spans="1:22">
@@ -10499,9 +9864,6 @@
       <c r="N344" s="1"/>
       <c r="O344" s="1"/>
       <c r="P344" s="1"/>
-      <c r="Q344" s="1"/>
-      <c r="R344" s="1"/>
-      <c r="S344" s="1"/>
       <c r="V344" s="1"/>
     </row>
     <row r="345" spans="1:22">
@@ -10520,9 +9882,6 @@
       <c r="N345" s="1"/>
       <c r="O345" s="1"/>
       <c r="P345" s="1"/>
-      <c r="Q345" s="1"/>
-      <c r="R345" s="1"/>
-      <c r="S345" s="1"/>
       <c r="V345" s="1"/>
     </row>
     <row r="346" spans="1:22">
@@ -10541,9 +9900,6 @@
       <c r="N346" s="1"/>
       <c r="O346" s="1"/>
       <c r="P346" s="1"/>
-      <c r="Q346" s="1"/>
-      <c r="R346" s="1"/>
-      <c r="S346" s="1"/>
       <c r="V346" s="1"/>
     </row>
     <row r="347" spans="1:22">
@@ -10562,9 +9918,6 @@
       <c r="N347" s="1"/>
       <c r="O347" s="1"/>
       <c r="P347" s="1"/>
-      <c r="Q347" s="1"/>
-      <c r="R347" s="1"/>
-      <c r="S347" s="1"/>
       <c r="V347" s="1"/>
     </row>
     <row r="348" spans="1:22">
@@ -10583,9 +9936,6 @@
       <c r="N348" s="1"/>
       <c r="O348" s="1"/>
       <c r="P348" s="1"/>
-      <c r="Q348" s="1"/>
-      <c r="R348" s="1"/>
-      <c r="S348" s="1"/>
       <c r="V348" s="1"/>
     </row>
     <row r="349" spans="1:22">
@@ -10604,9 +9954,6 @@
       <c r="N349" s="1"/>
       <c r="O349" s="1"/>
       <c r="P349" s="1"/>
-      <c r="Q349" s="1"/>
-      <c r="R349" s="1"/>
-      <c r="S349" s="1"/>
       <c r="V349" s="1"/>
     </row>
     <row r="350" spans="1:22">
@@ -10625,9 +9972,6 @@
       <c r="N350" s="1"/>
       <c r="O350" s="1"/>
       <c r="P350" s="1"/>
-      <c r="Q350" s="1"/>
-      <c r="R350" s="1"/>
-      <c r="S350" s="1"/>
       <c r="V350" s="1"/>
     </row>
     <row r="351" spans="1:22">
@@ -10646,9 +9990,6 @@
       <c r="N351" s="1"/>
       <c r="O351" s="1"/>
       <c r="P351" s="1"/>
-      <c r="Q351" s="1"/>
-      <c r="R351" s="1"/>
-      <c r="S351" s="1"/>
       <c r="V351" s="1"/>
     </row>
     <row r="352" spans="1:22">
@@ -10667,9 +10008,6 @@
       <c r="N352" s="1"/>
       <c r="O352" s="1"/>
       <c r="P352" s="1"/>
-      <c r="Q352" s="1"/>
-      <c r="R352" s="1"/>
-      <c r="S352" s="1"/>
       <c r="V352" s="1"/>
     </row>
     <row r="353" spans="1:22">
@@ -10688,9 +10026,6 @@
       <c r="N353" s="1"/>
       <c r="O353" s="1"/>
       <c r="P353" s="1"/>
-      <c r="Q353" s="1"/>
-      <c r="R353" s="1"/>
-      <c r="S353" s="1"/>
       <c r="V353" s="1"/>
     </row>
     <row r="354" spans="1:22">
@@ -10709,9 +10044,6 @@
       <c r="N354" s="1"/>
       <c r="O354" s="1"/>
       <c r="P354" s="1"/>
-      <c r="Q354" s="1"/>
-      <c r="R354" s="1"/>
-      <c r="S354" s="1"/>
       <c r="V354" s="1"/>
     </row>
     <row r="355" spans="1:22">
@@ -10730,9 +10062,6 @@
       <c r="N355" s="1"/>
       <c r="O355" s="1"/>
       <c r="P355" s="1"/>
-      <c r="Q355" s="1"/>
-      <c r="R355" s="1"/>
-      <c r="S355" s="1"/>
       <c r="V355" s="1"/>
     </row>
     <row r="356" spans="1:22">
@@ -10751,9 +10080,6 @@
       <c r="N356" s="1"/>
       <c r="O356" s="1"/>
       <c r="P356" s="1"/>
-      <c r="Q356" s="1"/>
-      <c r="R356" s="1"/>
-      <c r="S356" s="1"/>
       <c r="V356" s="1"/>
     </row>
     <row r="357" spans="1:22">
@@ -10772,9 +10098,6 @@
       <c r="N357" s="1"/>
       <c r="O357" s="1"/>
       <c r="P357" s="1"/>
-      <c r="Q357" s="1"/>
-      <c r="R357" s="1"/>
-      <c r="S357" s="1"/>
       <c r="V357" s="1"/>
     </row>
     <row r="358" spans="1:22">
@@ -10793,9 +10116,6 @@
       <c r="N358" s="1"/>
       <c r="O358" s="1"/>
       <c r="P358" s="1"/>
-      <c r="Q358" s="1"/>
-      <c r="R358" s="1"/>
-      <c r="S358" s="1"/>
       <c r="V358" s="1"/>
     </row>
     <row r="359" spans="1:22">
@@ -10814,9 +10134,6 @@
       <c r="N359" s="1"/>
       <c r="O359" s="1"/>
       <c r="P359" s="1"/>
-      <c r="Q359" s="1"/>
-      <c r="R359" s="1"/>
-      <c r="S359" s="1"/>
       <c r="V359" s="1"/>
     </row>
     <row r="360" spans="1:22">
@@ -10835,9 +10152,6 @@
       <c r="N360" s="1"/>
       <c r="O360" s="1"/>
       <c r="P360" s="1"/>
-      <c r="Q360" s="1"/>
-      <c r="R360" s="1"/>
-      <c r="S360" s="1"/>
       <c r="V360" s="1"/>
     </row>
     <row r="361" spans="1:22">
@@ -10856,9 +10170,6 @@
       <c r="N361" s="1"/>
       <c r="O361" s="1"/>
       <c r="P361" s="1"/>
-      <c r="Q361" s="1"/>
-      <c r="R361" s="1"/>
-      <c r="S361" s="1"/>
       <c r="V361" s="1"/>
     </row>
     <row r="362" spans="1:22">
@@ -10877,9 +10188,6 @@
       <c r="N362" s="1"/>
       <c r="O362" s="1"/>
       <c r="P362" s="1"/>
-      <c r="Q362" s="1"/>
-      <c r="R362" s="1"/>
-      <c r="S362" s="1"/>
       <c r="V362" s="1"/>
     </row>
     <row r="363" spans="1:22">
@@ -10898,9 +10206,6 @@
       <c r="N363" s="1"/>
       <c r="O363" s="1"/>
       <c r="P363" s="1"/>
-      <c r="Q363" s="1"/>
-      <c r="R363" s="1"/>
-      <c r="S363" s="1"/>
       <c r="V363" s="1"/>
     </row>
     <row r="364" spans="1:22">
@@ -10919,9 +10224,6 @@
       <c r="N364" s="1"/>
       <c r="O364" s="1"/>
       <c r="P364" s="1"/>
-      <c r="Q364" s="1"/>
-      <c r="R364" s="1"/>
-      <c r="S364" s="1"/>
       <c r="V364" s="1"/>
     </row>
     <row r="365" spans="1:22">
@@ -10940,9 +10242,6 @@
       <c r="N365" s="1"/>
       <c r="O365" s="1"/>
       <c r="P365" s="1"/>
-      <c r="Q365" s="1"/>
-      <c r="R365" s="1"/>
-      <c r="S365" s="1"/>
       <c r="V365" s="1"/>
     </row>
     <row r="366" spans="1:22">
@@ -10961,9 +10260,6 @@
       <c r="N366" s="1"/>
       <c r="O366" s="1"/>
       <c r="P366" s="1"/>
-      <c r="Q366" s="1"/>
-      <c r="R366" s="1"/>
-      <c r="S366" s="1"/>
       <c r="V366" s="1"/>
     </row>
     <row r="367" spans="1:22">
@@ -10982,9 +10278,6 @@
       <c r="N367" s="1"/>
       <c r="O367" s="1"/>
       <c r="P367" s="1"/>
-      <c r="Q367" s="1"/>
-      <c r="R367" s="1"/>
-      <c r="S367" s="1"/>
       <c r="V367" s="1"/>
     </row>
     <row r="368" spans="1:22">
@@ -11003,9 +10296,6 @@
       <c r="N368" s="1"/>
       <c r="O368" s="1"/>
       <c r="P368" s="1"/>
-      <c r="Q368" s="1"/>
-      <c r="R368" s="1"/>
-      <c r="S368" s="1"/>
       <c r="V368" s="1"/>
     </row>
     <row r="369" spans="1:22">
@@ -11024,9 +10314,6 @@
       <c r="N369" s="1"/>
       <c r="O369" s="1"/>
       <c r="P369" s="1"/>
-      <c r="Q369" s="1"/>
-      <c r="R369" s="1"/>
-      <c r="S369" s="1"/>
       <c r="V369" s="1"/>
     </row>
     <row r="370" spans="1:22">
@@ -11045,9 +10332,6 @@
       <c r="N370" s="1"/>
       <c r="O370" s="1"/>
       <c r="P370" s="1"/>
-      <c r="Q370" s="1"/>
-      <c r="R370" s="1"/>
-      <c r="S370" s="1"/>
       <c r="V370" s="1"/>
     </row>
     <row r="371" spans="1:22">
@@ -11066,9 +10350,6 @@
       <c r="N371" s="1"/>
       <c r="O371" s="1"/>
       <c r="P371" s="1"/>
-      <c r="Q371" s="1"/>
-      <c r="R371" s="1"/>
-      <c r="S371" s="1"/>
       <c r="V371" s="1"/>
     </row>
     <row r="372" spans="1:22">
@@ -11087,9 +10368,6 @@
       <c r="N372" s="1"/>
       <c r="O372" s="1"/>
       <c r="P372" s="1"/>
-      <c r="Q372" s="1"/>
-      <c r="R372" s="1"/>
-      <c r="S372" s="1"/>
       <c r="V372" s="1"/>
     </row>
     <row r="373" spans="1:22">
@@ -11108,9 +10386,6 @@
       <c r="N373" s="1"/>
       <c r="O373" s="1"/>
       <c r="P373" s="1"/>
-      <c r="Q373" s="1"/>
-      <c r="R373" s="1"/>
-      <c r="S373" s="1"/>
       <c r="V373" s="1"/>
     </row>
     <row r="374" spans="1:22">
@@ -11129,9 +10404,6 @@
       <c r="N374" s="1"/>
       <c r="O374" s="1"/>
       <c r="P374" s="1"/>
-      <c r="Q374" s="1"/>
-      <c r="R374" s="1"/>
-      <c r="S374" s="1"/>
       <c r="V374" s="1"/>
     </row>
     <row r="375" spans="1:22">
@@ -11150,9 +10422,6 @@
       <c r="N375" s="1"/>
       <c r="O375" s="1"/>
       <c r="P375" s="1"/>
-      <c r="Q375" s="1"/>
-      <c r="R375" s="1"/>
-      <c r="S375" s="1"/>
       <c r="V375" s="1"/>
     </row>
     <row r="376" spans="1:22">
@@ -11171,9 +10440,6 @@
       <c r="N376" s="1"/>
       <c r="O376" s="1"/>
       <c r="P376" s="1"/>
-      <c r="Q376" s="1"/>
-      <c r="R376" s="1"/>
-      <c r="S376" s="1"/>
       <c r="V376" s="1"/>
     </row>
     <row r="377" spans="1:22">
@@ -11192,9 +10458,6 @@
       <c r="N377" s="1"/>
       <c r="O377" s="1"/>
       <c r="P377" s="1"/>
-      <c r="Q377" s="1"/>
-      <c r="R377" s="1"/>
-      <c r="S377" s="1"/>
       <c r="V377" s="1"/>
     </row>
     <row r="378" spans="1:22">
@@ -11213,9 +10476,6 @@
       <c r="N378" s="1"/>
       <c r="O378" s="1"/>
       <c r="P378" s="1"/>
-      <c r="Q378" s="1"/>
-      <c r="R378" s="1"/>
-      <c r="S378" s="1"/>
       <c r="V378" s="1"/>
     </row>
     <row r="379" spans="1:22">
@@ -11234,9 +10494,6 @@
       <c r="N379" s="1"/>
       <c r="O379" s="1"/>
       <c r="P379" s="1"/>
-      <c r="Q379" s="1"/>
-      <c r="R379" s="1"/>
-      <c r="S379" s="1"/>
       <c r="V379" s="1"/>
     </row>
     <row r="380" spans="1:22">
@@ -11255,9 +10512,6 @@
       <c r="N380" s="1"/>
       <c r="O380" s="1"/>
       <c r="P380" s="1"/>
-      <c r="Q380" s="1"/>
-      <c r="R380" s="1"/>
-      <c r="S380" s="1"/>
       <c r="V380" s="1"/>
     </row>
     <row r="381" spans="1:22">
@@ -11276,9 +10530,6 @@
       <c r="N381" s="1"/>
       <c r="O381" s="1"/>
       <c r="P381" s="1"/>
-      <c r="Q381" s="1"/>
-      <c r="R381" s="1"/>
-      <c r="S381" s="1"/>
       <c r="V381" s="1"/>
     </row>
     <row r="382" spans="1:22">
@@ -11297,9 +10548,6 @@
       <c r="N382" s="1"/>
       <c r="O382" s="1"/>
       <c r="P382" s="1"/>
-      <c r="Q382" s="1"/>
-      <c r="R382" s="1"/>
-      <c r="S382" s="1"/>
       <c r="V382" s="1"/>
     </row>
     <row r="383" spans="1:22">
@@ -11318,9 +10566,6 @@
       <c r="N383" s="1"/>
       <c r="O383" s="1"/>
       <c r="P383" s="1"/>
-      <c r="Q383" s="1"/>
-      <c r="R383" s="1"/>
-      <c r="S383" s="1"/>
       <c r="V383" s="1"/>
     </row>
     <row r="384" spans="1:22">
@@ -11339,9 +10584,6 @@
       <c r="N384" s="1"/>
       <c r="O384" s="1"/>
       <c r="P384" s="1"/>
-      <c r="Q384" s="1"/>
-      <c r="R384" s="1"/>
-      <c r="S384" s="1"/>
       <c r="V384" s="1"/>
     </row>
     <row r="385" spans="1:22">
@@ -11360,9 +10602,6 @@
       <c r="N385" s="1"/>
       <c r="O385" s="1"/>
       <c r="P385" s="1"/>
-      <c r="Q385" s="1"/>
-      <c r="R385" s="1"/>
-      <c r="S385" s="1"/>
       <c r="V385" s="1"/>
     </row>
     <row r="386" spans="1:22">
@@ -11381,9 +10620,6 @@
       <c r="N386" s="1"/>
       <c r="O386" s="1"/>
       <c r="P386" s="1"/>
-      <c r="Q386" s="1"/>
-      <c r="R386" s="1"/>
-      <c r="S386" s="1"/>
       <c r="V386" s="1"/>
     </row>
     <row r="387" spans="1:22">
@@ -11402,9 +10638,6 @@
       <c r="N387" s="1"/>
       <c r="O387" s="1"/>
       <c r="P387" s="1"/>
-      <c r="Q387" s="1"/>
-      <c r="R387" s="1"/>
-      <c r="S387" s="1"/>
       <c r="V387" s="1"/>
     </row>
     <row r="388" spans="1:22">
@@ -11423,9 +10656,6 @@
       <c r="N388" s="1"/>
       <c r="O388" s="1"/>
       <c r="P388" s="1"/>
-      <c r="Q388" s="1"/>
-      <c r="R388" s="1"/>
-      <c r="S388" s="1"/>
       <c r="V388" s="1"/>
     </row>
     <row r="389" spans="1:22">
@@ -11444,9 +10674,6 @@
       <c r="N389" s="1"/>
       <c r="O389" s="1"/>
       <c r="P389" s="1"/>
-      <c r="Q389" s="1"/>
-      <c r="R389" s="1"/>
-      <c r="S389" s="1"/>
       <c r="V389" s="1"/>
     </row>
     <row r="390" spans="1:22">
@@ -11465,9 +10692,6 @@
       <c r="N390" s="1"/>
       <c r="O390" s="1"/>
       <c r="P390" s="1"/>
-      <c r="Q390" s="1"/>
-      <c r="R390" s="1"/>
-      <c r="S390" s="1"/>
       <c r="V390" s="1"/>
     </row>
     <row r="391" spans="1:22">
@@ -11486,9 +10710,6 @@
       <c r="N391" s="1"/>
       <c r="O391" s="1"/>
       <c r="P391" s="1"/>
-      <c r="Q391" s="1"/>
-      <c r="R391" s="1"/>
-      <c r="S391" s="1"/>
       <c r="V391" s="1"/>
     </row>
     <row r="392" spans="1:22">
@@ -11507,9 +10728,6 @@
       <c r="N392" s="1"/>
       <c r="O392" s="1"/>
       <c r="P392" s="1"/>
-      <c r="Q392" s="1"/>
-      <c r="R392" s="1"/>
-      <c r="S392" s="1"/>
       <c r="V392" s="1"/>
     </row>
     <row r="393" spans="1:22">
@@ -11528,9 +10746,6 @@
       <c r="N393" s="1"/>
       <c r="O393" s="1"/>
       <c r="P393" s="1"/>
-      <c r="Q393" s="1"/>
-      <c r="R393" s="1"/>
-      <c r="S393" s="1"/>
       <c r="V393" s="1"/>
     </row>
     <row r="394" spans="1:22">
@@ -11549,9 +10764,6 @@
       <c r="N394" s="1"/>
       <c r="O394" s="1"/>
       <c r="P394" s="1"/>
-      <c r="Q394" s="1"/>
-      <c r="R394" s="1"/>
-      <c r="S394" s="1"/>
       <c r="V394" s="1"/>
     </row>
     <row r="395" spans="1:22">
@@ -11570,9 +10782,6 @@
       <c r="N395" s="1"/>
       <c r="O395" s="1"/>
       <c r="P395" s="1"/>
-      <c r="Q395" s="1"/>
-      <c r="R395" s="1"/>
-      <c r="S395" s="1"/>
       <c r="V395" s="1"/>
     </row>
     <row r="396" spans="1:22">
@@ -11591,9 +10800,6 @@
       <c r="N396" s="1"/>
       <c r="O396" s="1"/>
       <c r="P396" s="1"/>
-      <c r="Q396" s="1"/>
-      <c r="R396" s="1"/>
-      <c r="S396" s="1"/>
       <c r="V396" s="1"/>
     </row>
     <row r="397" spans="1:22">
@@ -11612,9 +10818,6 @@
       <c r="N397" s="1"/>
       <c r="O397" s="1"/>
       <c r="P397" s="1"/>
-      <c r="Q397" s="1"/>
-      <c r="R397" s="1"/>
-      <c r="S397" s="1"/>
       <c r="V397" s="1"/>
     </row>
     <row r="398" spans="1:22">
@@ -11633,9 +10836,6 @@
       <c r="N398" s="1"/>
       <c r="O398" s="1"/>
       <c r="P398" s="1"/>
-      <c r="Q398" s="1"/>
-      <c r="R398" s="1"/>
-      <c r="S398" s="1"/>
       <c r="V398" s="1"/>
     </row>
     <row r="399" spans="1:22">
@@ -11654,9 +10854,6 @@
       <c r="N399" s="1"/>
       <c r="O399" s="1"/>
       <c r="P399" s="1"/>
-      <c r="Q399" s="1"/>
-      <c r="R399" s="1"/>
-      <c r="S399" s="1"/>
       <c r="V399" s="1"/>
     </row>
     <row r="400" spans="1:22">
@@ -11675,9 +10872,6 @@
       <c r="N400" s="1"/>
       <c r="O400" s="1"/>
       <c r="P400" s="1"/>
-      <c r="Q400" s="1"/>
-      <c r="R400" s="1"/>
-      <c r="S400" s="1"/>
       <c r="V400" s="1"/>
     </row>
     <row r="401" spans="1:22">
@@ -11696,9 +10890,6 @@
       <c r="N401" s="1"/>
       <c r="O401" s="1"/>
       <c r="P401" s="1"/>
-      <c r="Q401" s="1"/>
-      <c r="R401" s="1"/>
-      <c r="S401" s="1"/>
       <c r="V401" s="1"/>
     </row>
     <row r="402" spans="1:22">
@@ -11717,9 +10908,6 @@
       <c r="N402" s="1"/>
       <c r="O402" s="1"/>
       <c r="P402" s="1"/>
-      <c r="Q402" s="1"/>
-      <c r="R402" s="1"/>
-      <c r="S402" s="1"/>
       <c r="V402" s="1"/>
     </row>
     <row r="403" spans="1:22">
@@ -11738,9 +10926,6 @@
       <c r="N403" s="1"/>
       <c r="O403" s="1"/>
       <c r="P403" s="1"/>
-      <c r="Q403" s="1"/>
-      <c r="R403" s="1"/>
-      <c r="S403" s="1"/>
       <c r="V403" s="1"/>
     </row>
     <row r="404" spans="1:22">
@@ -11759,9 +10944,6 @@
       <c r="N404" s="1"/>
       <c r="O404" s="1"/>
       <c r="P404" s="1"/>
-      <c r="Q404" s="1"/>
-      <c r="R404" s="1"/>
-      <c r="S404" s="1"/>
       <c r="V404" s="1"/>
     </row>
     <row r="405" spans="1:22">
@@ -11780,9 +10962,6 @@
       <c r="N405" s="1"/>
       <c r="O405" s="1"/>
       <c r="P405" s="1"/>
-      <c r="Q405" s="1"/>
-      <c r="R405" s="1"/>
-      <c r="S405" s="1"/>
       <c r="V405" s="1"/>
     </row>
     <row r="406" spans="1:22">
@@ -11801,9 +10980,6 @@
       <c r="N406" s="1"/>
       <c r="O406" s="1"/>
       <c r="P406" s="1"/>
-      <c r="Q406" s="1"/>
-      <c r="R406" s="1"/>
-      <c r="S406" s="1"/>
       <c r="V406" s="1"/>
     </row>
     <row r="407" spans="1:22">
@@ -11822,9 +10998,6 @@
       <c r="N407" s="1"/>
       <c r="O407" s="1"/>
       <c r="P407" s="1"/>
-      <c r="Q407" s="1"/>
-      <c r="R407" s="1"/>
-      <c r="S407" s="1"/>
       <c r="V407" s="1"/>
     </row>
     <row r="408" spans="1:22">
@@ -11843,9 +11016,6 @@
       <c r="N408" s="1"/>
       <c r="O408" s="1"/>
       <c r="P408" s="1"/>
-      <c r="Q408" s="1"/>
-      <c r="R408" s="1"/>
-      <c r="S408" s="1"/>
       <c r="V408" s="1"/>
     </row>
     <row r="409" spans="1:22">
@@ -11864,9 +11034,6 @@
       <c r="N409" s="1"/>
       <c r="O409" s="1"/>
       <c r="P409" s="1"/>
-      <c r="Q409" s="1"/>
-      <c r="R409" s="1"/>
-      <c r="S409" s="1"/>
       <c r="V409" s="1"/>
     </row>
     <row r="410" spans="1:22">
@@ -11885,9 +11052,6 @@
       <c r="N410" s="1"/>
       <c r="O410" s="1"/>
       <c r="P410" s="1"/>
-      <c r="Q410" s="1"/>
-      <c r="R410" s="1"/>
-      <c r="S410" s="1"/>
       <c r="V410" s="1"/>
     </row>
     <row r="411" spans="1:22">
@@ -11906,9 +11070,6 @@
       <c r="N411" s="1"/>
       <c r="O411" s="1"/>
       <c r="P411" s="1"/>
-      <c r="Q411" s="1"/>
-      <c r="R411" s="1"/>
-      <c r="S411" s="1"/>
       <c r="V411" s="1"/>
     </row>
     <row r="412" spans="1:22">
@@ -11927,9 +11088,6 @@
       <c r="N412" s="1"/>
       <c r="O412" s="1"/>
       <c r="P412" s="1"/>
-      <c r="Q412" s="1"/>
-      <c r="R412" s="1"/>
-      <c r="S412" s="1"/>
       <c r="V412" s="1"/>
     </row>
     <row r="413" spans="1:22">
@@ -11948,9 +11106,6 @@
       <c r="N413" s="1"/>
       <c r="O413" s="1"/>
       <c r="P413" s="1"/>
-      <c r="Q413" s="1"/>
-      <c r="R413" s="1"/>
-      <c r="S413" s="1"/>
       <c r="V413" s="1"/>
     </row>
     <row r="414" spans="1:22">
@@ -11969,9 +11124,6 @@
       <c r="N414" s="1"/>
       <c r="O414" s="1"/>
       <c r="P414" s="1"/>
-      <c r="Q414" s="1"/>
-      <c r="R414" s="1"/>
-      <c r="S414" s="1"/>
       <c r="V414" s="1"/>
     </row>
     <row r="415" spans="1:22">
@@ -11990,9 +11142,6 @@
       <c r="N415" s="1"/>
       <c r="O415" s="1"/>
       <c r="P415" s="1"/>
-      <c r="Q415" s="1"/>
-      <c r="R415" s="1"/>
-      <c r="S415" s="1"/>
       <c r="V415" s="1"/>
     </row>
     <row r="416" spans="1:22">
@@ -12011,9 +11160,6 @@
       <c r="N416" s="1"/>
       <c r="O416" s="1"/>
       <c r="P416" s="1"/>
-      <c r="Q416" s="1"/>
-      <c r="R416" s="1"/>
-      <c r="S416" s="1"/>
       <c r="V416" s="1"/>
     </row>
     <row r="417" spans="1:22">
@@ -12032,9 +11178,6 @@
       <c r="N417" s="1"/>
       <c r="O417" s="1"/>
       <c r="P417" s="1"/>
-      <c r="Q417" s="1"/>
-      <c r="R417" s="1"/>
-      <c r="S417" s="1"/>
       <c r="V417" s="1"/>
     </row>
     <row r="418" spans="1:22">
@@ -12053,9 +11196,6 @@
       <c r="N418" s="1"/>
       <c r="O418" s="1"/>
       <c r="P418" s="1"/>
-      <c r="Q418" s="1"/>
-      <c r="R418" s="1"/>
-      <c r="S418" s="1"/>
       <c r="V418" s="1"/>
     </row>
     <row r="419" spans="1:22">
@@ -12074,9 +11214,6 @@
       <c r="N419" s="1"/>
       <c r="O419" s="1"/>
       <c r="P419" s="1"/>
-      <c r="Q419" s="1"/>
-      <c r="R419" s="1"/>
-      <c r="S419" s="1"/>
       <c r="V419" s="1"/>
     </row>
     <row r="420" spans="1:22">
@@ -12095,9 +11232,6 @@
       <c r="N420" s="1"/>
       <c r="O420" s="1"/>
       <c r="P420" s="1"/>
-      <c r="Q420" s="1"/>
-      <c r="R420" s="1"/>
-      <c r="S420" s="1"/>
       <c r="V420" s="1"/>
     </row>
     <row r="421" spans="1:22">
@@ -12116,9 +11250,6 @@
       <c r="N421" s="1"/>
       <c r="O421" s="1"/>
       <c r="P421" s="1"/>
-      <c r="Q421" s="1"/>
-      <c r="R421" s="1"/>
-      <c r="S421" s="1"/>
       <c r="V421" s="1"/>
     </row>
     <row r="422" spans="1:22">
@@ -12137,9 +11268,6 @@
       <c r="N422" s="1"/>
       <c r="O422" s="1"/>
       <c r="P422" s="1"/>
-      <c r="Q422" s="1"/>
-      <c r="R422" s="1"/>
-      <c r="S422" s="1"/>
       <c r="V422" s="1"/>
     </row>
     <row r="423" spans="1:22">
@@ -12158,9 +11286,6 @@
       <c r="N423" s="1"/>
       <c r="O423" s="1"/>
       <c r="P423" s="1"/>
-      <c r="Q423" s="1"/>
-      <c r="R423" s="1"/>
-      <c r="S423" s="1"/>
       <c r="V423" s="1"/>
     </row>
     <row r="424" spans="1:22">
@@ -12179,9 +11304,6 @@
       <c r="N424" s="1"/>
       <c r="O424" s="1"/>
       <c r="P424" s="1"/>
-      <c r="Q424" s="1"/>
-      <c r="R424" s="1"/>
-      <c r="S424" s="1"/>
       <c r="V424" s="1"/>
     </row>
     <row r="425" spans="1:22">
@@ -12200,9 +11322,6 @@
       <c r="N425" s="1"/>
       <c r="O425" s="1"/>
       <c r="P425" s="1"/>
-      <c r="Q425" s="1"/>
-      <c r="R425" s="1"/>
-      <c r="S425" s="1"/>
       <c r="V425" s="1"/>
     </row>
     <row r="426" spans="1:22">
@@ -12221,9 +11340,6 @@
       <c r="N426" s="1"/>
       <c r="O426" s="1"/>
       <c r="P426" s="1"/>
-      <c r="Q426" s="1"/>
-      <c r="R426" s="1"/>
-      <c r="S426" s="1"/>
       <c r="V426" s="1"/>
     </row>
     <row r="427" spans="1:22">
@@ -12242,9 +11358,6 @@
       <c r="N427" s="1"/>
       <c r="O427" s="1"/>
       <c r="P427" s="1"/>
-      <c r="Q427" s="1"/>
-      <c r="R427" s="1"/>
-      <c r="S427" s="1"/>
       <c r="V427" s="1"/>
     </row>
     <row r="428" spans="1:22">
@@ -12263,9 +11376,6 @@
       <c r="N428" s="1"/>
       <c r="O428" s="1"/>
       <c r="P428" s="1"/>
-      <c r="Q428" s="1"/>
-      <c r="R428" s="1"/>
-      <c r="S428" s="1"/>
       <c r="V428" s="1"/>
     </row>
     <row r="429" spans="1:22">
@@ -12284,9 +11394,6 @@
       <c r="N429" s="1"/>
       <c r="O429" s="1"/>
       <c r="P429" s="1"/>
-      <c r="Q429" s="1"/>
-      <c r="R429" s="1"/>
-      <c r="S429" s="1"/>
       <c r="V429" s="1"/>
     </row>
     <row r="430" spans="1:22">
@@ -12305,9 +11412,6 @@
       <c r="N430" s="1"/>
       <c r="O430" s="1"/>
       <c r="P430" s="1"/>
-      <c r="Q430" s="1"/>
-      <c r="R430" s="1"/>
-      <c r="S430" s="1"/>
       <c r="V430" s="1"/>
     </row>
     <row r="431" spans="1:22">
@@ -12326,9 +11430,6 @@
       <c r="N431" s="1"/>
       <c r="O431" s="1"/>
       <c r="P431" s="1"/>
-      <c r="Q431" s="1"/>
-      <c r="R431" s="1"/>
-      <c r="S431" s="1"/>
       <c r="V431" s="1"/>
     </row>
     <row r="432" spans="1:22">
@@ -12347,9 +11448,6 @@
       <c r="N432" s="1"/>
       <c r="O432" s="1"/>
       <c r="P432" s="1"/>
-      <c r="Q432" s="1"/>
-      <c r="R432" s="1"/>
-      <c r="S432" s="1"/>
       <c r="V432" s="1"/>
     </row>
     <row r="433" spans="1:22">
@@ -12368,9 +11466,6 @@
       <c r="N433" s="1"/>
       <c r="O433" s="1"/>
       <c r="P433" s="1"/>
-      <c r="Q433" s="1"/>
-      <c r="R433" s="1"/>
-      <c r="S433" s="1"/>
       <c r="V433" s="1"/>
     </row>
     <row r="434" spans="1:22">
@@ -12389,9 +11484,6 @@
       <c r="N434" s="1"/>
       <c r="O434" s="1"/>
       <c r="P434" s="1"/>
-      <c r="Q434" s="1"/>
-      <c r="R434" s="1"/>
-      <c r="S434" s="1"/>
       <c r="V434" s="1"/>
     </row>
     <row r="435" spans="1:22">
@@ -12410,9 +11502,6 @@
       <c r="N435" s="1"/>
       <c r="O435" s="1"/>
       <c r="P435" s="1"/>
-      <c r="Q435" s="1"/>
-      <c r="R435" s="1"/>
-      <c r="S435" s="1"/>
       <c r="V435" s="1"/>
     </row>
     <row r="436" spans="1:22">
@@ -12431,9 +11520,6 @@
       <c r="N436" s="1"/>
       <c r="O436" s="1"/>
       <c r="P436" s="1"/>
-      <c r="Q436" s="1"/>
-      <c r="R436" s="1"/>
-      <c r="S436" s="1"/>
       <c r="V436" s="1"/>
     </row>
     <row r="437" spans="1:22">
@@ -12452,9 +11538,6 @@
       <c r="N437" s="1"/>
       <c r="O437" s="1"/>
       <c r="P437" s="1"/>
-      <c r="Q437" s="1"/>
-      <c r="R437" s="1"/>
-      <c r="S437" s="1"/>
       <c r="V437" s="1"/>
     </row>
     <row r="438" spans="1:22">
@@ -12473,9 +11556,6 @@
       <c r="N438" s="1"/>
       <c r="O438" s="1"/>
       <c r="P438" s="1"/>
-      <c r="Q438" s="1"/>
-      <c r="R438" s="1"/>
-      <c r="S438" s="1"/>
       <c r="V438" s="1"/>
     </row>
     <row r="439" spans="1:22">
@@ -12494,9 +11574,6 @@
       <c r="N439" s="1"/>
       <c r="O439" s="1"/>
       <c r="P439" s="1"/>
-      <c r="Q439" s="1"/>
-      <c r="R439" s="1"/>
-      <c r="S439" s="1"/>
       <c r="V439" s="1"/>
     </row>
     <row r="440" spans="1:22">
@@ -12515,9 +11592,6 @@
       <c r="N440" s="1"/>
       <c r="O440" s="1"/>
       <c r="P440" s="1"/>
-      <c r="Q440" s="1"/>
-      <c r="R440" s="1"/>
-      <c r="S440" s="1"/>
       <c r="V440" s="1"/>
     </row>
     <row r="441" spans="1:22">
@@ -12536,9 +11610,6 @@
       <c r="N441" s="1"/>
       <c r="O441" s="1"/>
       <c r="P441" s="1"/>
-      <c r="Q441" s="1"/>
-      <c r="R441" s="1"/>
-      <c r="S441" s="1"/>
       <c r="V441" s="1"/>
     </row>
     <row r="442" spans="1:22">
@@ -12557,9 +11628,6 @@
       <c r="N442" s="1"/>
       <c r="O442" s="1"/>
       <c r="P442" s="1"/>
-      <c r="Q442" s="1"/>
-      <c r="R442" s="1"/>
-      <c r="S442" s="1"/>
       <c r="V442" s="1"/>
     </row>
     <row r="443" spans="1:22">
@@ -12578,9 +11646,6 @@
       <c r="N443" s="1"/>
       <c r="O443" s="1"/>
       <c r="P443" s="1"/>
-      <c r="Q443" s="1"/>
-      <c r="R443" s="1"/>
-      <c r="S443" s="1"/>
       <c r="V443" s="1"/>
     </row>
     <row r="444" spans="1:22">
@@ -12599,9 +11664,6 @@
       <c r="N444" s="1"/>
       <c r="O444" s="1"/>
       <c r="P444" s="1"/>
-      <c r="Q444" s="1"/>
-      <c r="R444" s="1"/>
-      <c r="S444" s="1"/>
       <c r="V444" s="1"/>
     </row>
     <row r="445" spans="1:22">
@@ -12620,9 +11682,6 @@
       <c r="N445" s="1"/>
       <c r="O445" s="1"/>
       <c r="P445" s="1"/>
-      <c r="Q445" s="1"/>
-      <c r="R445" s="1"/>
-      <c r="S445" s="1"/>
       <c r="V445" s="1"/>
     </row>
     <row r="446" spans="1:22">
@@ -12641,9 +11700,6 @@
       <c r="N446" s="1"/>
       <c r="O446" s="1"/>
       <c r="P446" s="1"/>
-      <c r="Q446" s="1"/>
-      <c r="R446" s="1"/>
-      <c r="S446" s="1"/>
       <c r="V446" s="1"/>
     </row>
     <row r="447" spans="1:22">
@@ -12662,9 +11718,6 @@
       <c r="N447" s="1"/>
       <c r="O447" s="1"/>
       <c r="P447" s="1"/>
-      <c r="Q447" s="1"/>
-      <c r="R447" s="1"/>
-      <c r="S447" s="1"/>
       <c r="V447" s="1"/>
     </row>
     <row r="448" spans="1:22">
@@ -12683,9 +11736,6 @@
       <c r="N448" s="1"/>
       <c r="O448" s="1"/>
       <c r="P448" s="1"/>
-      <c r="Q448" s="1"/>
-      <c r="R448" s="1"/>
-      <c r="S448" s="1"/>
       <c r="V448" s="1"/>
     </row>
     <row r="449" spans="1:22">
@@ -12704,9 +11754,6 @@
       <c r="N449" s="1"/>
       <c r="O449" s="1"/>
       <c r="P449" s="1"/>
-      <c r="Q449" s="1"/>
-      <c r="R449" s="1"/>
-      <c r="S449" s="1"/>
       <c r="V449" s="1"/>
     </row>
     <row r="450" spans="1:22">
@@ -12725,9 +11772,6 @@
       <c r="N450" s="1"/>
       <c r="O450" s="1"/>
       <c r="P450" s="1"/>
-      <c r="Q450" s="1"/>
-      <c r="R450" s="1"/>
-      <c r="S450" s="1"/>
       <c r="V450" s="1"/>
     </row>
     <row r="451" spans="1:22">
@@ -12746,9 +11790,6 @@
       <c r="N451" s="1"/>
       <c r="O451" s="1"/>
       <c r="P451" s="1"/>
-      <c r="Q451" s="1"/>
-      <c r="R451" s="1"/>
-      <c r="S451" s="1"/>
       <c r="V451" s="1"/>
     </row>
     <row r="452" spans="1:22">
@@ -12767,9 +11808,6 @@
       <c r="N452" s="1"/>
       <c r="O452" s="1"/>
       <c r="P452" s="1"/>
-      <c r="Q452" s="1"/>
-      <c r="R452" s="1"/>
-      <c r="S452" s="1"/>
       <c r="V452" s="1"/>
     </row>
     <row r="453" spans="1:22">
@@ -12788,9 +11826,6 @@
       <c r="N453" s="1"/>
       <c r="O453" s="1"/>
       <c r="P453" s="1"/>
-      <c r="Q453" s="1"/>
-      <c r="R453" s="1"/>
-      <c r="S453" s="1"/>
       <c r="V453" s="1"/>
     </row>
     <row r="454" spans="1:22">
@@ -12809,9 +11844,6 @@
       <c r="N454" s="1"/>
       <c r="O454" s="1"/>
       <c r="P454" s="1"/>
-      <c r="Q454" s="1"/>
-      <c r="R454" s="1"/>
-      <c r="S454" s="1"/>
       <c r="V454" s="1"/>
     </row>
     <row r="455" spans="1:22">
@@ -12830,9 +11862,6 @@
       <c r="N455" s="1"/>
       <c r="O455" s="1"/>
       <c r="P455" s="1"/>
-      <c r="Q455" s="1"/>
-      <c r="R455" s="1"/>
-      <c r="S455" s="1"/>
       <c r="V455" s="1"/>
     </row>
     <row r="456" spans="1:22">
@@ -12851,9 +11880,6 @@
       <c r="N456" s="1"/>
       <c r="O456" s="1"/>
       <c r="P456" s="1"/>
-      <c r="Q456" s="1"/>
-      <c r="R456" s="1"/>
-      <c r="S456" s="1"/>
       <c r="V456" s="1"/>
     </row>
     <row r="457" spans="1:22">
@@ -12872,9 +11898,6 @@
       <c r="N457" s="1"/>
       <c r="O457" s="1"/>
       <c r="P457" s="1"/>
-      <c r="Q457" s="1"/>
-      <c r="R457" s="1"/>
-      <c r="S457" s="1"/>
       <c r="V457" s="1"/>
     </row>
     <row r="458" spans="1:22">
@@ -12893,9 +11916,6 @@
       <c r="N458" s="1"/>
       <c r="O458" s="1"/>
       <c r="P458" s="1"/>
-      <c r="Q458" s="1"/>
-      <c r="R458" s="1"/>
-      <c r="S458" s="1"/>
       <c r="V458" s="1"/>
     </row>
     <row r="459" spans="1:22">
@@ -12914,9 +11934,6 @@
       <c r="N459" s="1"/>
       <c r="O459" s="1"/>
       <c r="P459" s="1"/>
-      <c r="Q459" s="1"/>
-      <c r="R459" s="1"/>
-      <c r="S459" s="1"/>
       <c r="V459" s="1"/>
     </row>
     <row r="460" spans="1:22">
@@ -12935,9 +11952,6 @@
       <c r="N460" s="1"/>
       <c r="O460" s="1"/>
       <c r="P460" s="1"/>
-      <c r="Q460" s="1"/>
-      <c r="R460" s="1"/>
-      <c r="S460" s="1"/>
       <c r="V460" s="1"/>
     </row>
     <row r="461" spans="1:22">
@@ -12956,9 +11970,6 @@
       <c r="N461" s="1"/>
       <c r="O461" s="1"/>
       <c r="P461" s="1"/>
-      <c r="Q461" s="1"/>
-      <c r="R461" s="1"/>
-      <c r="S461" s="1"/>
       <c r="V461" s="1"/>
     </row>
     <row r="462" spans="1:22">
@@ -12977,9 +11988,6 @@
       <c r="N462" s="1"/>
       <c r="O462" s="1"/>
       <c r="P462" s="1"/>
-      <c r="Q462" s="1"/>
-      <c r="R462" s="1"/>
-      <c r="S462" s="1"/>
       <c r="V462" s="1"/>
     </row>
     <row r="463" spans="1:22">
@@ -12998,9 +12006,6 @@
       <c r="N463" s="1"/>
       <c r="O463" s="1"/>
       <c r="P463" s="1"/>
-      <c r="Q463" s="1"/>
-      <c r="R463" s="1"/>
-      <c r="S463" s="1"/>
       <c r="V463" s="1"/>
     </row>
     <row r="464" spans="1:22">
@@ -13019,9 +12024,6 @@
       <c r="N464" s="1"/>
       <c r="O464" s="1"/>
       <c r="P464" s="1"/>
-      <c r="Q464" s="1"/>
-      <c r="R464" s="1"/>
-      <c r="S464" s="1"/>
       <c r="V464" s="1"/>
     </row>
     <row r="465" spans="1:22">
@@ -13040,9 +12042,6 @@
       <c r="N465" s="1"/>
       <c r="O465" s="1"/>
       <c r="P465" s="1"/>
-      <c r="Q465" s="1"/>
-      <c r="R465" s="1"/>
-      <c r="S465" s="1"/>
       <c r="V465" s="1"/>
     </row>
     <row r="466" spans="1:22">
@@ -13061,9 +12060,6 @@
       <c r="N466" s="1"/>
       <c r="O466" s="1"/>
       <c r="P466" s="1"/>
-      <c r="Q466" s="1"/>
-      <c r="R466" s="1"/>
-      <c r="S466" s="1"/>
       <c r="V466" s="1"/>
     </row>
     <row r="467" spans="1:22">
@@ -13082,9 +12078,6 @@
       <c r="N467" s="1"/>
       <c r="O467" s="1"/>
       <c r="P467" s="1"/>
-      <c r="Q467" s="1"/>
-      <c r="R467" s="1"/>
-      <c r="S467" s="1"/>
       <c r="V467" s="1"/>
     </row>
     <row r="468" spans="1:22">
@@ -13103,9 +12096,6 @@
       <c r="N468" s="1"/>
       <c r="O468" s="1"/>
       <c r="P468" s="1"/>
-      <c r="Q468" s="1"/>
-      <c r="R468" s="1"/>
-      <c r="S468" s="1"/>
       <c r="V468" s="1"/>
     </row>
     <row r="469" spans="1:22">
@@ -13124,9 +12114,6 @@
       <c r="N469" s="1"/>
       <c r="O469" s="1"/>
       <c r="P469" s="1"/>
-      <c r="Q469" s="1"/>
-      <c r="R469" s="1"/>
-      <c r="S469" s="1"/>
       <c r="V469" s="1"/>
     </row>
     <row r="470" spans="1:22">
@@ -13145,9 +12132,6 @@
       <c r="N470" s="1"/>
       <c r="O470" s="1"/>
       <c r="P470" s="1"/>
-      <c r="Q470" s="1"/>
-      <c r="R470" s="1"/>
-      <c r="S470" s="1"/>
       <c r="V470" s="1"/>
     </row>
     <row r="471" spans="1:22">
@@ -13166,9 +12150,6 @@
       <c r="N471" s="1"/>
       <c r="O471" s="1"/>
       <c r="P471" s="1"/>
-      <c r="Q471" s="1"/>
-      <c r="R471" s="1"/>
-      <c r="S471" s="1"/>
       <c r="V471" s="1"/>
     </row>
     <row r="472" spans="1:22">
@@ -13187,9 +12168,6 @@
       <c r="N472" s="1"/>
       <c r="O472" s="1"/>
       <c r="P472" s="1"/>
-      <c r="Q472" s="1"/>
-      <c r="R472" s="1"/>
-      <c r="S472" s="1"/>
       <c r="V472" s="1"/>
     </row>
     <row r="473" spans="1:22">
@@ -13208,9 +12186,6 @@
       <c r="N473" s="1"/>
       <c r="O473" s="1"/>
       <c r="P473" s="1"/>
-      <c r="Q473" s="1"/>
-      <c r="R473" s="1"/>
-      <c r="S473" s="1"/>
       <c r="V473" s="1"/>
     </row>
     <row r="474" spans="1:22">
@@ -13229,9 +12204,6 @@
       <c r="N474" s="1"/>
       <c r="O474" s="1"/>
       <c r="P474" s="1"/>
-      <c r="Q474" s="1"/>
-      <c r="R474" s="1"/>
-      <c r="S474" s="1"/>
       <c r="V474" s="1"/>
     </row>
     <row r="475" spans="1:22">
@@ -13250,9 +12222,6 @@
       <c r="N475" s="1"/>
       <c r="O475" s="1"/>
       <c r="P475" s="1"/>
-      <c r="Q475" s="1"/>
-      <c r="R475" s="1"/>
-      <c r="S475" s="1"/>
       <c r="V475" s="1"/>
     </row>
     <row r="476" spans="1:22">
@@ -13271,9 +12240,6 @@
       <c r="N476" s="1"/>
       <c r="O476" s="1"/>
       <c r="P476" s="1"/>
-      <c r="Q476" s="1"/>
-      <c r="R476" s="1"/>
-      <c r="S476" s="1"/>
       <c r="V476" s="1"/>
     </row>
     <row r="477" spans="1:22">
@@ -13292,9 +12258,6 @@
       <c r="N477" s="1"/>
       <c r="O477" s="1"/>
       <c r="P477" s="1"/>
-      <c r="Q477" s="1"/>
-      <c r="R477" s="1"/>
-      <c r="S477" s="1"/>
       <c r="V477" s="1"/>
     </row>
     <row r="478" spans="1:22">
@@ -13313,9 +12276,6 @@
       <c r="N478" s="1"/>
       <c r="O478" s="1"/>
       <c r="P478" s="1"/>
-      <c r="Q478" s="1"/>
-      <c r="R478" s="1"/>
-      <c r="S478" s="1"/>
       <c r="V478" s="1"/>
     </row>
     <row r="479" spans="1:22">
@@ -13334,9 +12294,6 @@
       <c r="N479" s="1"/>
       <c r="O479" s="1"/>
       <c r="P479" s="1"/>
-      <c r="Q479" s="1"/>
-      <c r="R479" s="1"/>
-      <c r="S479" s="1"/>
       <c r="V479" s="1"/>
     </row>
     <row r="480" spans="1:22">
@@ -13355,9 +12312,6 @@
       <c r="N480" s="1"/>
       <c r="O480" s="1"/>
       <c r="P480" s="1"/>
-      <c r="Q480" s="1"/>
-      <c r="R480" s="1"/>
-      <c r="S480" s="1"/>
       <c r="V480" s="1"/>
     </row>
     <row r="481" spans="1:22">
@@ -13376,9 +12330,6 @@
       <c r="N481" s="1"/>
       <c r="O481" s="1"/>
       <c r="P481" s="1"/>
-      <c r="Q481" s="1"/>
-      <c r="R481" s="1"/>
-      <c r="S481" s="1"/>
       <c r="V481" s="1"/>
     </row>
     <row r="482" spans="1:22">
@@ -13397,9 +12348,6 @@
       <c r="N482" s="1"/>
       <c r="O482" s="1"/>
       <c r="P482" s="1"/>
-      <c r="Q482" s="1"/>
-      <c r="R482" s="1"/>
-      <c r="S482" s="1"/>
       <c r="V482" s="1"/>
     </row>
     <row r="483" spans="1:22">
@@ -13418,9 +12366,6 @@
       <c r="N483" s="1"/>
       <c r="O483" s="1"/>
       <c r="P483" s="1"/>
-      <c r="Q483" s="1"/>
-      <c r="R483" s="1"/>
-      <c r="S483" s="1"/>
       <c r="V483" s="1"/>
     </row>
     <row r="484" spans="1:22">
@@ -13439,9 +12384,6 @@
       <c r="N484" s="1"/>
       <c r="O484" s="1"/>
       <c r="P484" s="1"/>
-      <c r="Q484" s="1"/>
-      <c r="R484" s="1"/>
-      <c r="S484" s="1"/>
       <c r="V484" s="1"/>
     </row>
     <row r="485" spans="1:22">
@@ -13460,9 +12402,6 @@
       <c r="N485" s="1"/>
       <c r="O485" s="1"/>
       <c r="P485" s="1"/>
-      <c r="Q485" s="1"/>
-      <c r="R485" s="1"/>
-      <c r="S485" s="1"/>
       <c r="V485" s="1"/>
     </row>
     <row r="486" spans="1:22">
@@ -13481,9 +12420,6 @@
       <c r="N486" s="1"/>
       <c r="O486" s="1"/>
       <c r="P486" s="1"/>
-      <c r="Q486" s="1"/>
-      <c r="R486" s="1"/>
-      <c r="S486" s="1"/>
       <c r="V486" s="1"/>
     </row>
     <row r="487" spans="1:22">
@@ -13502,9 +12438,6 @@
       <c r="N487" s="1"/>
       <c r="O487" s="1"/>
       <c r="P487" s="1"/>
-      <c r="Q487" s="1"/>
-      <c r="R487" s="1"/>
-      <c r="S487" s="1"/>
       <c r="V487" s="1"/>
     </row>
     <row r="488" spans="1:22">
@@ -13523,9 +12456,6 @@
       <c r="N488" s="1"/>
       <c r="O488" s="1"/>
       <c r="P488" s="1"/>
-      <c r="Q488" s="1"/>
-      <c r="R488" s="1"/>
-      <c r="S488" s="1"/>
       <c r="V488" s="1"/>
     </row>
     <row r="489" spans="1:22">
@@ -13544,9 +12474,6 @@
       <c r="N489" s="1"/>
       <c r="O489" s="1"/>
       <c r="P489" s="1"/>
-      <c r="Q489" s="1"/>
-      <c r="R489" s="1"/>
-      <c r="S489" s="1"/>
       <c r="V489" s="1"/>
     </row>
     <row r="490" spans="1:22">
@@ -13565,9 +12492,6 @@
       <c r="N490" s="1"/>
       <c r="O490" s="1"/>
       <c r="P490" s="1"/>
-      <c r="Q490" s="1"/>
-      <c r="R490" s="1"/>
-      <c r="S490" s="1"/>
       <c r="V490" s="1"/>
     </row>
     <row r="491" spans="1:22">
@@ -13586,9 +12510,6 @@
       <c r="N491" s="1"/>
       <c r="O491" s="1"/>
       <c r="P491" s="1"/>
-      <c r="Q491" s="1"/>
-      <c r="R491" s="1"/>
-      <c r="S491" s="1"/>
       <c r="V491" s="1"/>
     </row>
     <row r="492" spans="1:22">
@@ -13607,9 +12528,6 @@
       <c r="N492" s="1"/>
       <c r="O492" s="1"/>
       <c r="P492" s="1"/>
-      <c r="Q492" s="1"/>
-      <c r="R492" s="1"/>
-      <c r="S492" s="1"/>
       <c r="V492" s="1"/>
     </row>
     <row r="493" spans="1:22">
@@ -13628,9 +12546,6 @@
       <c r="N493" s="1"/>
       <c r="O493" s="1"/>
       <c r="P493" s="1"/>
-      <c r="Q493" s="1"/>
-      <c r="R493" s="1"/>
-      <c r="S493" s="1"/>
       <c r="V493" s="1"/>
     </row>
     <row r="494" spans="1:22">
@@ -13649,9 +12564,6 @@
       <c r="N494" s="1"/>
       <c r="O494" s="1"/>
       <c r="P494" s="1"/>
-      <c r="Q494" s="1"/>
-      <c r="R494" s="1"/>
-      <c r="S494" s="1"/>
       <c r="V494" s="1"/>
     </row>
     <row r="495" spans="1:22">
@@ -13670,9 +12582,6 @@
       <c r="N495" s="1"/>
       <c r="O495" s="1"/>
       <c r="P495" s="1"/>
-      <c r="Q495" s="1"/>
-      <c r="R495" s="1"/>
-      <c r="S495" s="1"/>
       <c r="V495" s="1"/>
     </row>
     <row r="496" spans="1:22">
@@ -13691,9 +12600,6 @@
       <c r="N496" s="1"/>
       <c r="O496" s="1"/>
       <c r="P496" s="1"/>
-      <c r="Q496" s="1"/>
-      <c r="R496" s="1"/>
-      <c r="S496" s="1"/>
       <c r="V496" s="1"/>
     </row>
     <row r="497" spans="1:22">
@@ -13712,9 +12618,6 @@
       <c r="N497" s="1"/>
       <c r="O497" s="1"/>
       <c r="P497" s="1"/>
-      <c r="Q497" s="1"/>
-      <c r="R497" s="1"/>
-      <c r="S497" s="1"/>
       <c r="V497" s="1"/>
     </row>
     <row r="498" spans="1:22">
@@ -13733,9 +12636,6 @@
       <c r="N498" s="1"/>
       <c r="O498" s="1"/>
       <c r="P498" s="1"/>
-      <c r="Q498" s="1"/>
-      <c r="R498" s="1"/>
-      <c r="S498" s="1"/>
       <c r="V498" s="1"/>
     </row>
     <row r="499" spans="1:22">
@@ -13754,9 +12654,6 @@
       <c r="N499" s="1"/>
       <c r="O499" s="1"/>
       <c r="P499" s="1"/>
-      <c r="Q499" s="1"/>
-      <c r="R499" s="1"/>
-      <c r="S499" s="1"/>
       <c r="V499" s="1"/>
     </row>
     <row r="500" spans="1:22">
@@ -13775,9 +12672,6 @@
       <c r="N500" s="1"/>
       <c r="O500" s="1"/>
       <c r="P500" s="1"/>
-      <c r="Q500" s="1"/>
-      <c r="R500" s="1"/>
-      <c r="S500" s="1"/>
       <c r="V500" s="1"/>
     </row>
     <row r="501" spans="1:22">
@@ -13796,9 +12690,6 @@
       <c r="N501" s="1"/>
       <c r="O501" s="1"/>
       <c r="P501" s="1"/>
-      <c r="Q501" s="1"/>
-      <c r="R501" s="1"/>
-      <c r="S501" s="1"/>
       <c r="V501" s="1"/>
     </row>
     <row r="502" spans="1:22">
@@ -13817,9 +12708,6 @@
       <c r="N502" s="1"/>
       <c r="O502" s="1"/>
       <c r="P502" s="1"/>
-      <c r="Q502" s="1"/>
-      <c r="R502" s="1"/>
-      <c r="S502" s="1"/>
       <c r="V502" s="1"/>
     </row>
     <row r="503" spans="1:22">
@@ -13838,9 +12726,6 @@
       <c r="N503" s="1"/>
       <c r="O503" s="1"/>
       <c r="P503" s="1"/>
-      <c r="Q503" s="1"/>
-      <c r="R503" s="1"/>
-      <c r="S503" s="1"/>
       <c r="V503" s="1"/>
     </row>
   </sheetData>
@@ -13848,9 +12733,9 @@
     <mergeCell ref="U1:AC1"/>
     <mergeCell ref="U2:AA2"/>
     <mergeCell ref="AB2:AC2"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="M4:P4"/>
     <mergeCell ref="W4:X4"/>
     <mergeCell ref="A1:A5"/>
     <mergeCell ref="B4:B5"/>
@@ -13864,9 +12749,9 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L1:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
     <mergeCell ref="T1:T5"/>
     <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -177,7 +177,7 @@
   </si>
   <si>
     <t>是否好的收盘次数大于坏的收盘次数
-（）</t>
+（以1到2周为期）</t>
   </si>
   <si>
     <r>
@@ -1457,11 +1457,11 @@
   <dimension ref="A1:AE503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N5" sqref="N5"/>
+      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -42,7 +42,8 @@
 (下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
   </si>
   <si>
-    <t>是否继续持有</t>
+    <t>是否继续持有
+(是为红色，否为绿色)</t>
   </si>
   <si>
     <t>收盘价</t>
@@ -967,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1081,6 +1082,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1413,11 +1417,11 @@
   <dimension ref="A1:AJ503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AB2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1:AI5"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1509,7 +1513,7 @@
       <c r="AI1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="17" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1776,9 +1780,9 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="38"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AI6" s="40"/>
+      <c r="AJ6" s="40"/>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="9">
@@ -1815,9 +1819,9 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="38"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AI7" s="40"/>
+      <c r="AJ7" s="40"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="9">
@@ -1854,9 +1858,9 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="38"/>
-      <c r="AI8" s="39"/>
-      <c r="AJ8" s="39"/>
+      <c r="AG8" s="39"/>
+      <c r="AI8" s="40"/>
+      <c r="AJ8" s="40"/>
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="9">
@@ -1893,9 +1897,9 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="38"/>
-      <c r="AI9" s="39"/>
-      <c r="AJ9" s="39"/>
+      <c r="AG9" s="39"/>
+      <c r="AI9" s="40"/>
+      <c r="AJ9" s="40"/>
     </row>
     <row r="10" spans="1:36">
       <c r="A10" s="9">
@@ -1932,9 +1936,9 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="38"/>
-      <c r="AI10" s="39"/>
-      <c r="AJ10" s="39"/>
+      <c r="AG10" s="39"/>
+      <c r="AI10" s="40"/>
+      <c r="AJ10" s="40"/>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="9">
@@ -1971,9 +1975,9 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="38"/>
-      <c r="AI11" s="39"/>
-      <c r="AJ11" s="39"/>
+      <c r="AG11" s="39"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="40"/>
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="9">
@@ -2010,9 +2014,9 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="38"/>
-      <c r="AI12" s="39"/>
-      <c r="AJ12" s="39"/>
+      <c r="AG12" s="39"/>
+      <c r="AI12" s="40"/>
+      <c r="AJ12" s="40"/>
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="9">
@@ -2049,9 +2053,9 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="38"/>
-      <c r="AI13" s="39"/>
-      <c r="AJ13" s="39"/>
+      <c r="AG13" s="39"/>
+      <c r="AI13" s="40"/>
+      <c r="AJ13" s="40"/>
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="9">
@@ -2088,9 +2092,9 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="38"/>
-      <c r="AI14" s="39"/>
-      <c r="AJ14" s="39"/>
+      <c r="AG14" s="39"/>
+      <c r="AI14" s="40"/>
+      <c r="AJ14" s="40"/>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="9">
@@ -2127,9 +2131,9 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="38"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
+      <c r="AG15" s="39"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="40"/>
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="9">
@@ -2166,9 +2170,9 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="38"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
     </row>
     <row r="17" spans="1:36">
       <c r="A17" s="9">
@@ -2205,9 +2209,9 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="38"/>
-      <c r="AI17" s="39"/>
-      <c r="AJ17" s="39"/>
+      <c r="AG17" s="39"/>
+      <c r="AI17" s="40"/>
+      <c r="AJ17" s="40"/>
     </row>
     <row r="18" spans="1:36">
       <c r="A18" s="9">
@@ -2244,9 +2248,9 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="38"/>
-      <c r="AI18" s="39"/>
-      <c r="AJ18" s="39"/>
+      <c r="AG18" s="39"/>
+      <c r="AI18" s="40"/>
+      <c r="AJ18" s="40"/>
     </row>
     <row r="19" spans="1:36">
       <c r="A19" s="9">
@@ -2283,9 +2287,9 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="38"/>
-      <c r="AI19" s="39"/>
-      <c r="AJ19" s="39"/>
+      <c r="AG19" s="39"/>
+      <c r="AI19" s="40"/>
+      <c r="AJ19" s="40"/>
     </row>
     <row r="20" spans="1:36">
       <c r="A20" s="9">
@@ -2322,9 +2326,9 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="38"/>
-      <c r="AI20" s="39"/>
-      <c r="AJ20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AI20" s="40"/>
+      <c r="AJ20" s="40"/>
     </row>
     <row r="21" spans="1:36">
       <c r="A21" s="9">
@@ -2361,9 +2365,9 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="38"/>
-      <c r="AI21" s="39"/>
-      <c r="AJ21" s="39"/>
+      <c r="AG21" s="39"/>
+      <c r="AI21" s="40"/>
+      <c r="AJ21" s="40"/>
     </row>
     <row r="22" spans="1:36">
       <c r="A22" s="9">
@@ -2400,9 +2404,9 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="38"/>
-      <c r="AI22" s="39"/>
-      <c r="AJ22" s="39"/>
+      <c r="AG22" s="39"/>
+      <c r="AI22" s="40"/>
+      <c r="AJ22" s="40"/>
     </row>
     <row r="23" spans="1:36">
       <c r="A23" s="9">
@@ -2439,9 +2443,9 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="38"/>
-      <c r="AI23" s="39"/>
-      <c r="AJ23" s="39"/>
+      <c r="AG23" s="39"/>
+      <c r="AI23" s="40"/>
+      <c r="AJ23" s="40"/>
     </row>
     <row r="24" spans="1:36">
       <c r="A24" s="9">
@@ -2478,9 +2482,9 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="38"/>
-      <c r="AI24" s="39"/>
-      <c r="AJ24" s="39"/>
+      <c r="AG24" s="39"/>
+      <c r="AI24" s="40"/>
+      <c r="AJ24" s="40"/>
     </row>
     <row r="25" spans="1:36">
       <c r="A25" s="9">
@@ -2517,9 +2521,9 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="38"/>
-      <c r="AI25" s="39"/>
-      <c r="AJ25" s="39"/>
+      <c r="AG25" s="39"/>
+      <c r="AI25" s="40"/>
+      <c r="AJ25" s="40"/>
     </row>
     <row r="26" spans="1:36">
       <c r="A26" s="9">
@@ -2556,9 +2560,9 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="38"/>
-      <c r="AI26" s="39"/>
-      <c r="AJ26" s="39"/>
+      <c r="AG26" s="39"/>
+      <c r="AI26" s="40"/>
+      <c r="AJ26" s="40"/>
     </row>
     <row r="27" spans="1:36">
       <c r="A27" s="9">
@@ -2595,9 +2599,9 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="38"/>
-      <c r="AI27" s="39"/>
-      <c r="AJ27" s="39"/>
+      <c r="AG27" s="39"/>
+      <c r="AI27" s="40"/>
+      <c r="AJ27" s="40"/>
     </row>
     <row r="28" spans="1:36">
       <c r="A28" s="9">
@@ -2634,9 +2638,9 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="38"/>
-      <c r="AI28" s="39"/>
-      <c r="AJ28" s="39"/>
+      <c r="AG28" s="39"/>
+      <c r="AI28" s="40"/>
+      <c r="AJ28" s="40"/>
     </row>
     <row r="29" spans="1:36">
       <c r="A29" s="9">
@@ -2673,9 +2677,9 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="38"/>
-      <c r="AI29" s="39"/>
-      <c r="AJ29" s="39"/>
+      <c r="AG29" s="39"/>
+      <c r="AI29" s="40"/>
+      <c r="AJ29" s="40"/>
     </row>
     <row r="30" spans="1:36">
       <c r="A30" s="9">
@@ -2712,9 +2716,9 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="38"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
+      <c r="AG30" s="39"/>
+      <c r="AI30" s="40"/>
+      <c r="AJ30" s="40"/>
     </row>
     <row r="31" spans="1:36">
       <c r="A31" s="9">
@@ -2751,9 +2755,9 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="38"/>
-      <c r="AI31" s="39"/>
-      <c r="AJ31" s="39"/>
+      <c r="AG31" s="39"/>
+      <c r="AI31" s="40"/>
+      <c r="AJ31" s="40"/>
     </row>
     <row r="32" spans="1:36">
       <c r="A32" s="9">
@@ -2790,9 +2794,9 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="38"/>
-      <c r="AI32" s="39"/>
-      <c r="AJ32" s="39"/>
+      <c r="AG32" s="39"/>
+      <c r="AI32" s="40"/>
+      <c r="AJ32" s="40"/>
     </row>
     <row r="33" spans="1:36">
       <c r="A33" s="9">
@@ -2829,9 +2833,9 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="38"/>
-      <c r="AI33" s="39"/>
-      <c r="AJ33" s="39"/>
+      <c r="AG33" s="39"/>
+      <c r="AI33" s="40"/>
+      <c r="AJ33" s="40"/>
     </row>
     <row r="34" spans="1:36">
       <c r="A34" s="9">
@@ -2868,9 +2872,9 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="38"/>
-      <c r="AI34" s="39"/>
-      <c r="AJ34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AI34" s="40"/>
+      <c r="AJ34" s="40"/>
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="9">
@@ -2907,9 +2911,9 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="38"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="9">
@@ -2946,9 +2950,9 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="38"/>
-      <c r="AI36" s="39"/>
-      <c r="AJ36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AI36" s="40"/>
+      <c r="AJ36" s="40"/>
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="9">
@@ -2985,9 +2989,9 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="38"/>
-      <c r="AI37" s="39"/>
-      <c r="AJ37" s="39"/>
+      <c r="AG37" s="39"/>
+      <c r="AI37" s="40"/>
+      <c r="AJ37" s="40"/>
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="9">
@@ -3024,9 +3028,9 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="38"/>
-      <c r="AI38" s="39"/>
-      <c r="AJ38" s="39"/>
+      <c r="AG38" s="39"/>
+      <c r="AI38" s="40"/>
+      <c r="AJ38" s="40"/>
     </row>
     <row r="39" spans="1:36">
       <c r="A39" s="9">
@@ -3063,9 +3067,9 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="38"/>
-      <c r="AI39" s="39"/>
-      <c r="AJ39" s="39"/>
+      <c r="AG39" s="39"/>
+      <c r="AI39" s="40"/>
+      <c r="AJ39" s="40"/>
     </row>
     <row r="40" spans="1:36">
       <c r="A40" s="9">
@@ -3102,9 +3106,9 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="38"/>
-      <c r="AI40" s="39"/>
-      <c r="AJ40" s="39"/>
+      <c r="AG40" s="39"/>
+      <c r="AI40" s="40"/>
+      <c r="AJ40" s="40"/>
     </row>
     <row r="41" spans="1:36">
       <c r="A41" s="9">
@@ -3141,9 +3145,9 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="38"/>
-      <c r="AI41" s="39"/>
-      <c r="AJ41" s="39"/>
+      <c r="AG41" s="39"/>
+      <c r="AI41" s="40"/>
+      <c r="AJ41" s="40"/>
     </row>
     <row r="42" spans="1:36">
       <c r="A42" s="9">
@@ -3180,9 +3184,9 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="38"/>
-      <c r="AI42" s="39"/>
-      <c r="AJ42" s="39"/>
+      <c r="AG42" s="39"/>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="40"/>
     </row>
     <row r="43" spans="1:36">
       <c r="A43" s="9">
@@ -3219,9 +3223,9 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="38"/>
-      <c r="AI43" s="39"/>
-      <c r="AJ43" s="39"/>
+      <c r="AG43" s="39"/>
+      <c r="AI43" s="40"/>
+      <c r="AJ43" s="40"/>
     </row>
     <row r="44" spans="1:36">
       <c r="A44" s="9">
@@ -3258,9 +3262,9 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="38"/>
-      <c r="AI44" s="39"/>
-      <c r="AJ44" s="39"/>
+      <c r="AG44" s="39"/>
+      <c r="AI44" s="40"/>
+      <c r="AJ44" s="40"/>
     </row>
     <row r="45" spans="1:36">
       <c r="A45" s="9">
@@ -3297,9 +3301,9 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="38"/>
-      <c r="AI45" s="39"/>
-      <c r="AJ45" s="39"/>
+      <c r="AG45" s="39"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
     </row>
     <row r="46" spans="1:36">
       <c r="A46" s="9">
@@ -3336,9 +3340,9 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="38"/>
-      <c r="AI46" s="39"/>
-      <c r="AJ46" s="39"/>
+      <c r="AG46" s="39"/>
+      <c r="AI46" s="40"/>
+      <c r="AJ46" s="40"/>
     </row>
     <row r="47" spans="1:36">
       <c r="A47" s="9">
@@ -3375,9 +3379,9 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="38"/>
-      <c r="AI47" s="39"/>
-      <c r="AJ47" s="39"/>
+      <c r="AG47" s="39"/>
+      <c r="AI47" s="40"/>
+      <c r="AJ47" s="40"/>
     </row>
     <row r="48" spans="1:36">
       <c r="A48" s="9">
@@ -3414,9 +3418,9 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="38"/>
-      <c r="AI48" s="39"/>
-      <c r="AJ48" s="39"/>
+      <c r="AG48" s="39"/>
+      <c r="AI48" s="40"/>
+      <c r="AJ48" s="40"/>
     </row>
     <row r="49" spans="1:36">
       <c r="A49" s="9">
@@ -3453,9 +3457,9 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="38"/>
-      <c r="AI49" s="39"/>
-      <c r="AJ49" s="39"/>
+      <c r="AG49" s="39"/>
+      <c r="AI49" s="40"/>
+      <c r="AJ49" s="40"/>
     </row>
     <row r="50" spans="1:36">
       <c r="A50" s="9">
@@ -3492,9 +3496,9 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-      <c r="AG50" s="38"/>
-      <c r="AI50" s="39"/>
-      <c r="AJ50" s="39"/>
+      <c r="AG50" s="39"/>
+      <c r="AI50" s="40"/>
+      <c r="AJ50" s="40"/>
     </row>
     <row r="51" spans="1:36">
       <c r="A51" s="9">
@@ -3531,9 +3535,9 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
-      <c r="AG51" s="38"/>
-      <c r="AI51" s="39"/>
-      <c r="AJ51" s="39"/>
+      <c r="AG51" s="39"/>
+      <c r="AI51" s="40"/>
+      <c r="AJ51" s="40"/>
     </row>
     <row r="52" spans="1:36">
       <c r="A52" s="9">
@@ -3570,9 +3574,9 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
-      <c r="AG52" s="38"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AI52" s="40"/>
+      <c r="AJ52" s="40"/>
     </row>
     <row r="53" spans="1:36">
       <c r="A53" s="9">
@@ -3609,9 +3613,9 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
-      <c r="AG53" s="38"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AI53" s="40"/>
+      <c r="AJ53" s="40"/>
     </row>
     <row r="54" spans="1:36">
       <c r="A54" s="9">
@@ -3648,9 +3652,9 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
-      <c r="AG54" s="38"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AI54" s="40"/>
+      <c r="AJ54" s="40"/>
     </row>
     <row r="55" spans="1:36">
       <c r="A55" s="9">
@@ -3687,9 +3691,9 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="38"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AI55" s="40"/>
+      <c r="AJ55" s="40"/>
     </row>
     <row r="56" spans="1:36">
       <c r="A56" s="9">
@@ -3726,9 +3730,9 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="38"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AI56" s="40"/>
+      <c r="AJ56" s="40"/>
     </row>
     <row r="57" spans="1:36">
       <c r="A57" s="9">
@@ -3765,9 +3769,9 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
-      <c r="AG57" s="38"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="39"/>
+      <c r="AG57" s="39"/>
+      <c r="AI57" s="40"/>
+      <c r="AJ57" s="40"/>
     </row>
     <row r="58" spans="1:36">
       <c r="A58" s="9">
@@ -3804,9 +3808,9 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
-      <c r="AG58" s="38"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="39"/>
+      <c r="AG58" s="39"/>
+      <c r="AI58" s="40"/>
+      <c r="AJ58" s="40"/>
     </row>
     <row r="59" spans="1:36">
       <c r="A59" s="9">
@@ -3843,9 +3847,9 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
-      <c r="AG59" s="38"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
+      <c r="AG59" s="39"/>
+      <c r="AI59" s="40"/>
+      <c r="AJ59" s="40"/>
     </row>
     <row r="60" spans="1:36">
       <c r="A60" s="9">
@@ -3882,9 +3886,9 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-      <c r="AG60" s="38"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
+      <c r="AG60" s="39"/>
+      <c r="AI60" s="40"/>
+      <c r="AJ60" s="40"/>
     </row>
     <row r="61" spans="1:36">
       <c r="A61" s="9">
@@ -3921,9 +3925,9 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
-      <c r="AG61" s="38"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="39"/>
+      <c r="AG61" s="39"/>
+      <c r="AI61" s="40"/>
+      <c r="AJ61" s="40"/>
     </row>
     <row r="62" spans="1:36">
       <c r="A62" s="9">
@@ -3960,9 +3964,9 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-      <c r="AG62" s="38"/>
-      <c r="AI62" s="39"/>
-      <c r="AJ62" s="39"/>
+      <c r="AG62" s="39"/>
+      <c r="AI62" s="40"/>
+      <c r="AJ62" s="40"/>
     </row>
     <row r="63" spans="1:36">
       <c r="A63" s="9">
@@ -3999,9 +4003,9 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
-      <c r="AG63" s="38"/>
-      <c r="AI63" s="39"/>
-      <c r="AJ63" s="39"/>
+      <c r="AG63" s="39"/>
+      <c r="AI63" s="40"/>
+      <c r="AJ63" s="40"/>
     </row>
     <row r="64" spans="1:36">
       <c r="A64" s="9">
@@ -4038,9 +4042,9 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
-      <c r="AG64" s="38"/>
-      <c r="AI64" s="39"/>
-      <c r="AJ64" s="39"/>
+      <c r="AG64" s="39"/>
+      <c r="AI64" s="40"/>
+      <c r="AJ64" s="40"/>
     </row>
     <row r="65" spans="1:36">
       <c r="A65" s="9">
@@ -4077,9 +4081,9 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
-      <c r="AG65" s="38"/>
-      <c r="AI65" s="39"/>
-      <c r="AJ65" s="39"/>
+      <c r="AG65" s="39"/>
+      <c r="AI65" s="40"/>
+      <c r="AJ65" s="40"/>
     </row>
     <row r="66" spans="1:36">
       <c r="A66" s="9">
@@ -4116,9 +4120,9 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-      <c r="AG66" s="38"/>
-      <c r="AI66" s="39"/>
-      <c r="AJ66" s="39"/>
+      <c r="AG66" s="39"/>
+      <c r="AI66" s="40"/>
+      <c r="AJ66" s="40"/>
     </row>
     <row r="67" spans="1:36">
       <c r="A67" s="9">
@@ -4155,9 +4159,9 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
-      <c r="AG67" s="38"/>
-      <c r="AI67" s="39"/>
-      <c r="AJ67" s="39"/>
+      <c r="AG67" s="39"/>
+      <c r="AI67" s="40"/>
+      <c r="AJ67" s="40"/>
     </row>
     <row r="68" spans="1:36">
       <c r="A68" s="9">
@@ -4194,9 +4198,9 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
-      <c r="AG68" s="38"/>
-      <c r="AI68" s="39"/>
-      <c r="AJ68" s="39"/>
+      <c r="AG68" s="39"/>
+      <c r="AI68" s="40"/>
+      <c r="AJ68" s="40"/>
     </row>
     <row r="69" spans="1:36">
       <c r="A69" s="9">
@@ -4233,9 +4237,9 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
-      <c r="AG69" s="38"/>
-      <c r="AI69" s="39"/>
-      <c r="AJ69" s="39"/>
+      <c r="AG69" s="39"/>
+      <c r="AI69" s="40"/>
+      <c r="AJ69" s="40"/>
     </row>
     <row r="70" spans="1:36">
       <c r="A70" s="9">
@@ -4272,9 +4276,9 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
-      <c r="AG70" s="38"/>
-      <c r="AI70" s="39"/>
-      <c r="AJ70" s="39"/>
+      <c r="AG70" s="39"/>
+      <c r="AI70" s="40"/>
+      <c r="AJ70" s="40"/>
     </row>
     <row r="71" spans="1:36">
       <c r="A71" s="9">
@@ -4311,9 +4315,9 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
-      <c r="AG71" s="38"/>
-      <c r="AI71" s="39"/>
-      <c r="AJ71" s="39"/>
+      <c r="AG71" s="39"/>
+      <c r="AI71" s="40"/>
+      <c r="AJ71" s="40"/>
     </row>
     <row r="72" spans="1:36">
       <c r="A72" s="9">
@@ -4350,9 +4354,9 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-      <c r="AG72" s="38"/>
-      <c r="AI72" s="39"/>
-      <c r="AJ72" s="39"/>
+      <c r="AG72" s="39"/>
+      <c r="AI72" s="40"/>
+      <c r="AJ72" s="40"/>
     </row>
     <row r="73" spans="1:36">
       <c r="A73" s="9">
@@ -4389,9 +4393,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
-      <c r="AG73" s="38"/>
-      <c r="AI73" s="39"/>
-      <c r="AJ73" s="39"/>
+      <c r="AG73" s="39"/>
+      <c r="AI73" s="40"/>
+      <c r="AJ73" s="40"/>
     </row>
     <row r="74" spans="1:36">
       <c r="A74" s="9">
@@ -4428,9 +4432,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
-      <c r="AG74" s="38"/>
-      <c r="AI74" s="39"/>
-      <c r="AJ74" s="39"/>
+      <c r="AG74" s="39"/>
+      <c r="AI74" s="40"/>
+      <c r="AJ74" s="40"/>
     </row>
     <row r="75" spans="1:36">
       <c r="A75" s="9">
@@ -4467,9 +4471,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
-      <c r="AG75" s="38"/>
-      <c r="AI75" s="39"/>
-      <c r="AJ75" s="39"/>
+      <c r="AG75" s="39"/>
+      <c r="AI75" s="40"/>
+      <c r="AJ75" s="40"/>
     </row>
     <row r="76" spans="1:36">
       <c r="A76" s="9">
@@ -4506,9 +4510,9 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
-      <c r="AG76" s="38"/>
-      <c r="AI76" s="39"/>
-      <c r="AJ76" s="39"/>
+      <c r="AG76" s="39"/>
+      <c r="AI76" s="40"/>
+      <c r="AJ76" s="40"/>
     </row>
     <row r="77" spans="1:36">
       <c r="A77" s="9">
@@ -4545,9 +4549,9 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-      <c r="AG77" s="38"/>
-      <c r="AI77" s="39"/>
-      <c r="AJ77" s="39"/>
+      <c r="AG77" s="39"/>
+      <c r="AI77" s="40"/>
+      <c r="AJ77" s="40"/>
     </row>
     <row r="78" spans="1:36">
       <c r="A78" s="9">
@@ -4584,9 +4588,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
-      <c r="AG78" s="38"/>
-      <c r="AI78" s="39"/>
-      <c r="AJ78" s="39"/>
+      <c r="AG78" s="39"/>
+      <c r="AI78" s="40"/>
+      <c r="AJ78" s="40"/>
     </row>
     <row r="79" spans="1:36">
       <c r="A79" s="9">
@@ -4623,9 +4627,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
-      <c r="AG79" s="38"/>
-      <c r="AI79" s="39"/>
-      <c r="AJ79" s="39"/>
+      <c r="AG79" s="39"/>
+      <c r="AI79" s="40"/>
+      <c r="AJ79" s="40"/>
     </row>
     <row r="80" spans="1:36">
       <c r="A80" s="9">
@@ -4662,9 +4666,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
-      <c r="AG80" s="38"/>
-      <c r="AI80" s="39"/>
-      <c r="AJ80" s="39"/>
+      <c r="AG80" s="39"/>
+      <c r="AI80" s="40"/>
+      <c r="AJ80" s="40"/>
     </row>
     <row r="81" spans="1:36">
       <c r="A81" s="9">
@@ -4701,9 +4705,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
-      <c r="AG81" s="38"/>
-      <c r="AI81" s="39"/>
-      <c r="AJ81" s="39"/>
+      <c r="AG81" s="39"/>
+      <c r="AI81" s="40"/>
+      <c r="AJ81" s="40"/>
     </row>
     <row r="82" spans="1:36">
       <c r="A82" s="9">
@@ -4740,9 +4744,9 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
-      <c r="AG82" s="38"/>
-      <c r="AI82" s="39"/>
-      <c r="AJ82" s="39"/>
+      <c r="AG82" s="39"/>
+      <c r="AI82" s="40"/>
+      <c r="AJ82" s="40"/>
     </row>
     <row r="83" spans="1:36">
       <c r="A83" s="9">
@@ -4779,9 +4783,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
-      <c r="AG83" s="38"/>
-      <c r="AI83" s="39"/>
-      <c r="AJ83" s="39"/>
+      <c r="AG83" s="39"/>
+      <c r="AI83" s="40"/>
+      <c r="AJ83" s="40"/>
     </row>
     <row r="84" spans="1:36">
       <c r="A84" s="9">
@@ -4818,9 +4822,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
-      <c r="AG84" s="38"/>
-      <c r="AI84" s="39"/>
-      <c r="AJ84" s="39"/>
+      <c r="AG84" s="39"/>
+      <c r="AI84" s="40"/>
+      <c r="AJ84" s="40"/>
     </row>
     <row r="85" spans="1:36">
       <c r="A85" s="9">
@@ -4857,9 +4861,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-      <c r="AG85" s="38"/>
-      <c r="AI85" s="39"/>
-      <c r="AJ85" s="39"/>
+      <c r="AG85" s="39"/>
+      <c r="AI85" s="40"/>
+      <c r="AJ85" s="40"/>
     </row>
     <row r="86" spans="1:36">
       <c r="A86" s="9">
@@ -4896,9 +4900,9 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-      <c r="AG86" s="38"/>
-      <c r="AI86" s="39"/>
-      <c r="AJ86" s="39"/>
+      <c r="AG86" s="39"/>
+      <c r="AI86" s="40"/>
+      <c r="AJ86" s="40"/>
     </row>
     <row r="87" spans="1:36">
       <c r="A87" s="9">
@@ -4935,9 +4939,9 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
-      <c r="AG87" s="38"/>
-      <c r="AI87" s="39"/>
-      <c r="AJ87" s="39"/>
+      <c r="AG87" s="39"/>
+      <c r="AI87" s="40"/>
+      <c r="AJ87" s="40"/>
     </row>
     <row r="88" spans="1:36">
       <c r="A88" s="9">
@@ -4974,9 +4978,9 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
-      <c r="AG88" s="38"/>
-      <c r="AI88" s="39"/>
-      <c r="AJ88" s="39"/>
+      <c r="AG88" s="39"/>
+      <c r="AI88" s="40"/>
+      <c r="AJ88" s="40"/>
     </row>
     <row r="89" spans="1:36">
       <c r="A89" s="9">
@@ -5013,9 +5017,9 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
-      <c r="AG89" s="38"/>
-      <c r="AI89" s="39"/>
-      <c r="AJ89" s="39"/>
+      <c r="AG89" s="39"/>
+      <c r="AI89" s="40"/>
+      <c r="AJ89" s="40"/>
     </row>
     <row r="90" spans="1:36">
       <c r="A90" s="9">
@@ -5052,9 +5056,9 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
-      <c r="AG90" s="38"/>
-      <c r="AI90" s="39"/>
-      <c r="AJ90" s="39"/>
+      <c r="AG90" s="39"/>
+      <c r="AI90" s="40"/>
+      <c r="AJ90" s="40"/>
     </row>
     <row r="91" spans="1:36">
       <c r="A91" s="9">
@@ -5091,9 +5095,9 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
-      <c r="AG91" s="38"/>
-      <c r="AI91" s="39"/>
-      <c r="AJ91" s="39"/>
+      <c r="AG91" s="39"/>
+      <c r="AI91" s="40"/>
+      <c r="AJ91" s="40"/>
     </row>
     <row r="92" spans="1:36">
       <c r="A92" s="9">
@@ -5130,9 +5134,9 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
-      <c r="AG92" s="38"/>
-      <c r="AI92" s="39"/>
-      <c r="AJ92" s="39"/>
+      <c r="AG92" s="39"/>
+      <c r="AI92" s="40"/>
+      <c r="AJ92" s="40"/>
     </row>
     <row r="93" spans="1:36">
       <c r="A93" s="9">
@@ -5169,9 +5173,9 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
-      <c r="AG93" s="38"/>
-      <c r="AI93" s="39"/>
-      <c r="AJ93" s="39"/>
+      <c r="AG93" s="39"/>
+      <c r="AI93" s="40"/>
+      <c r="AJ93" s="40"/>
     </row>
     <row r="94" spans="1:36">
       <c r="A94" s="9">
@@ -5208,9 +5212,9 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
-      <c r="AG94" s="38"/>
-      <c r="AI94" s="39"/>
-      <c r="AJ94" s="39"/>
+      <c r="AG94" s="39"/>
+      <c r="AI94" s="40"/>
+      <c r="AJ94" s="40"/>
     </row>
     <row r="95" spans="1:36">
       <c r="A95" s="9">
@@ -5247,9 +5251,9 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
-      <c r="AG95" s="38"/>
-      <c r="AI95" s="39"/>
-      <c r="AJ95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AI95" s="40"/>
+      <c r="AJ95" s="40"/>
     </row>
     <row r="96" spans="1:36">
       <c r="A96" s="9">
@@ -5286,9 +5290,9 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
-      <c r="AG96" s="38"/>
-      <c r="AI96" s="39"/>
-      <c r="AJ96" s="39"/>
+      <c r="AG96" s="39"/>
+      <c r="AI96" s="40"/>
+      <c r="AJ96" s="40"/>
     </row>
     <row r="97" spans="1:36">
       <c r="A97" s="9">
@@ -5325,9 +5329,9 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
-      <c r="AG97" s="38"/>
-      <c r="AI97" s="39"/>
-      <c r="AJ97" s="39"/>
+      <c r="AG97" s="39"/>
+      <c r="AI97" s="40"/>
+      <c r="AJ97" s="40"/>
     </row>
     <row r="98" spans="1:36">
       <c r="A98" s="9">
@@ -5364,9 +5368,9 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
-      <c r="AG98" s="38"/>
-      <c r="AI98" s="39"/>
-      <c r="AJ98" s="39"/>
+      <c r="AG98" s="39"/>
+      <c r="AI98" s="40"/>
+      <c r="AJ98" s="40"/>
     </row>
     <row r="99" spans="1:36">
       <c r="A99" s="9">
@@ -5403,9 +5407,9 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
-      <c r="AG99" s="38"/>
-      <c r="AI99" s="39"/>
-      <c r="AJ99" s="39"/>
+      <c r="AG99" s="39"/>
+      <c r="AI99" s="40"/>
+      <c r="AJ99" s="40"/>
     </row>
     <row r="100" spans="1:36">
       <c r="A100" s="9">
@@ -5442,9 +5446,9 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
-      <c r="AG100" s="38"/>
-      <c r="AI100" s="39"/>
-      <c r="AJ100" s="39"/>
+      <c r="AG100" s="39"/>
+      <c r="AI100" s="40"/>
+      <c r="AJ100" s="40"/>
     </row>
     <row r="101" spans="1:36">
       <c r="A101" s="9">
@@ -5481,9 +5485,9 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
-      <c r="AG101" s="38"/>
-      <c r="AI101" s="39"/>
-      <c r="AJ101" s="39"/>
+      <c r="AG101" s="39"/>
+      <c r="AI101" s="40"/>
+      <c r="AJ101" s="40"/>
     </row>
     <row r="102" spans="1:36">
       <c r="A102" s="9">
@@ -5520,9 +5524,9 @@
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
-      <c r="AG102" s="38"/>
-      <c r="AI102" s="39"/>
-      <c r="AJ102" s="39"/>
+      <c r="AG102" s="39"/>
+      <c r="AI102" s="40"/>
+      <c r="AJ102" s="40"/>
     </row>
     <row r="103" spans="1:36">
       <c r="A103" s="9">
@@ -5559,9 +5563,9 @@
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
-      <c r="AG103" s="38"/>
-      <c r="AI103" s="39"/>
-      <c r="AJ103" s="39"/>
+      <c r="AG103" s="39"/>
+      <c r="AI103" s="40"/>
+      <c r="AJ103" s="40"/>
     </row>
     <row r="104" spans="1:36">
       <c r="A104" s="9">
@@ -5598,9 +5602,9 @@
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
-      <c r="AG104" s="38"/>
-      <c r="AI104" s="39"/>
-      <c r="AJ104" s="39"/>
+      <c r="AG104" s="39"/>
+      <c r="AI104" s="40"/>
+      <c r="AJ104" s="40"/>
     </row>
     <row r="105" spans="1:36">
       <c r="A105" s="9">
@@ -5637,9 +5641,9 @@
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
-      <c r="AG105" s="38"/>
-      <c r="AI105" s="39"/>
-      <c r="AJ105" s="39"/>
+      <c r="AG105" s="39"/>
+      <c r="AI105" s="40"/>
+      <c r="AJ105" s="40"/>
     </row>
     <row r="106" spans="1:36">
       <c r="A106" s="9">
@@ -5676,9 +5680,9 @@
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
-      <c r="AG106" s="38"/>
-      <c r="AI106" s="39"/>
-      <c r="AJ106" s="39"/>
+      <c r="AG106" s="39"/>
+      <c r="AI106" s="40"/>
+      <c r="AJ106" s="40"/>
     </row>
     <row r="107" spans="1:36">
       <c r="A107" s="9">
@@ -5715,9 +5719,9 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
-      <c r="AG107" s="38"/>
-      <c r="AI107" s="39"/>
-      <c r="AJ107" s="39"/>
+      <c r="AG107" s="39"/>
+      <c r="AI107" s="40"/>
+      <c r="AJ107" s="40"/>
     </row>
     <row r="108" spans="1:36">
       <c r="A108" s="9">
@@ -5754,9 +5758,9 @@
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
-      <c r="AG108" s="38"/>
-      <c r="AI108" s="39"/>
-      <c r="AJ108" s="39"/>
+      <c r="AG108" s="39"/>
+      <c r="AI108" s="40"/>
+      <c r="AJ108" s="40"/>
     </row>
     <row r="109" spans="1:36">
       <c r="A109" s="9">
@@ -5793,9 +5797,9 @@
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
-      <c r="AG109" s="38"/>
-      <c r="AI109" s="39"/>
-      <c r="AJ109" s="39"/>
+      <c r="AG109" s="39"/>
+      <c r="AI109" s="40"/>
+      <c r="AJ109" s="40"/>
     </row>
     <row r="110" spans="1:36">
       <c r="A110" s="9">
@@ -5832,9 +5836,9 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
-      <c r="AG110" s="38"/>
-      <c r="AI110" s="39"/>
-      <c r="AJ110" s="39"/>
+      <c r="AG110" s="39"/>
+      <c r="AI110" s="40"/>
+      <c r="AJ110" s="40"/>
     </row>
     <row r="111" spans="1:36">
       <c r="A111" s="9">
@@ -5871,9 +5875,9 @@
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
-      <c r="AG111" s="38"/>
-      <c r="AI111" s="39"/>
-      <c r="AJ111" s="39"/>
+      <c r="AG111" s="39"/>
+      <c r="AI111" s="40"/>
+      <c r="AJ111" s="40"/>
     </row>
     <row r="112" spans="1:36">
       <c r="A112" s="9">
@@ -5910,9 +5914,9 @@
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
-      <c r="AG112" s="38"/>
-      <c r="AI112" s="39"/>
-      <c r="AJ112" s="39"/>
+      <c r="AG112" s="39"/>
+      <c r="AI112" s="40"/>
+      <c r="AJ112" s="40"/>
     </row>
     <row r="113" spans="1:36">
       <c r="A113" s="9">
@@ -5949,9 +5953,9 @@
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
-      <c r="AG113" s="38"/>
-      <c r="AI113" s="39"/>
-      <c r="AJ113" s="39"/>
+      <c r="AG113" s="39"/>
+      <c r="AI113" s="40"/>
+      <c r="AJ113" s="40"/>
     </row>
     <row r="114" spans="1:36">
       <c r="A114" s="9">
@@ -5988,9 +5992,9 @@
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
-      <c r="AG114" s="38"/>
-      <c r="AI114" s="39"/>
-      <c r="AJ114" s="39"/>
+      <c r="AG114" s="39"/>
+      <c r="AI114" s="40"/>
+      <c r="AJ114" s="40"/>
     </row>
     <row r="115" spans="1:36">
       <c r="A115" s="9">
@@ -6027,9 +6031,9 @@
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
-      <c r="AG115" s="38"/>
-      <c r="AI115" s="39"/>
-      <c r="AJ115" s="39"/>
+      <c r="AG115" s="39"/>
+      <c r="AI115" s="40"/>
+      <c r="AJ115" s="40"/>
     </row>
     <row r="116" spans="1:36">
       <c r="A116" s="9">
@@ -6066,9 +6070,9 @@
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
-      <c r="AG116" s="38"/>
-      <c r="AI116" s="39"/>
-      <c r="AJ116" s="39"/>
+      <c r="AG116" s="39"/>
+      <c r="AI116" s="40"/>
+      <c r="AJ116" s="40"/>
     </row>
     <row r="117" spans="1:36">
       <c r="A117" s="9">
@@ -6105,9 +6109,9 @@
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
-      <c r="AG117" s="38"/>
-      <c r="AI117" s="39"/>
-      <c r="AJ117" s="39"/>
+      <c r="AG117" s="39"/>
+      <c r="AI117" s="40"/>
+      <c r="AJ117" s="40"/>
     </row>
     <row r="118" spans="1:36">
       <c r="A118" s="9">
@@ -6144,9 +6148,9 @@
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
-      <c r="AG118" s="38"/>
-      <c r="AI118" s="39"/>
-      <c r="AJ118" s="39"/>
+      <c r="AG118" s="39"/>
+      <c r="AI118" s="40"/>
+      <c r="AJ118" s="40"/>
     </row>
     <row r="119" spans="1:36">
       <c r="A119" s="9">
@@ -6183,9 +6187,9 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
-      <c r="AG119" s="38"/>
-      <c r="AI119" s="39"/>
-      <c r="AJ119" s="39"/>
+      <c r="AG119" s="39"/>
+      <c r="AI119" s="40"/>
+      <c r="AJ119" s="40"/>
     </row>
     <row r="120" spans="1:36">
       <c r="A120" s="9">
@@ -6222,9 +6226,9 @@
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
-      <c r="AG120" s="38"/>
-      <c r="AI120" s="39"/>
-      <c r="AJ120" s="39"/>
+      <c r="AG120" s="39"/>
+      <c r="AI120" s="40"/>
+      <c r="AJ120" s="40"/>
     </row>
     <row r="121" spans="1:36">
       <c r="A121" s="9">
@@ -6261,9 +6265,9 @@
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
-      <c r="AG121" s="38"/>
-      <c r="AI121" s="39"/>
-      <c r="AJ121" s="39"/>
+      <c r="AG121" s="39"/>
+      <c r="AI121" s="40"/>
+      <c r="AJ121" s="40"/>
     </row>
     <row r="122" spans="1:36">
       <c r="A122" s="9">
@@ -6300,9 +6304,9 @@
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
-      <c r="AG122" s="38"/>
-      <c r="AI122" s="39"/>
-      <c r="AJ122" s="39"/>
+      <c r="AG122" s="39"/>
+      <c r="AI122" s="40"/>
+      <c r="AJ122" s="40"/>
     </row>
     <row r="123" spans="1:36">
       <c r="A123" s="9">
@@ -6339,9 +6343,9 @@
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
-      <c r="AG123" s="38"/>
-      <c r="AI123" s="39"/>
-      <c r="AJ123" s="39"/>
+      <c r="AG123" s="39"/>
+      <c r="AI123" s="40"/>
+      <c r="AJ123" s="40"/>
     </row>
     <row r="124" spans="1:36">
       <c r="A124" s="9">
@@ -6378,9 +6382,9 @@
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
-      <c r="AG124" s="38"/>
-      <c r="AI124" s="39"/>
-      <c r="AJ124" s="39"/>
+      <c r="AG124" s="39"/>
+      <c r="AI124" s="40"/>
+      <c r="AJ124" s="40"/>
     </row>
     <row r="125" spans="1:36">
       <c r="A125" s="9">
@@ -6417,9 +6421,9 @@
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
-      <c r="AG125" s="38"/>
-      <c r="AI125" s="39"/>
-      <c r="AJ125" s="39"/>
+      <c r="AG125" s="39"/>
+      <c r="AI125" s="40"/>
+      <c r="AJ125" s="40"/>
     </row>
     <row r="126" spans="1:36">
       <c r="A126" s="9">
@@ -6456,9 +6460,9 @@
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
-      <c r="AG126" s="38"/>
-      <c r="AI126" s="39"/>
-      <c r="AJ126" s="39"/>
+      <c r="AG126" s="39"/>
+      <c r="AI126" s="40"/>
+      <c r="AJ126" s="40"/>
     </row>
     <row r="127" spans="1:36">
       <c r="A127" s="9">
@@ -6495,9 +6499,9 @@
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
-      <c r="AG127" s="38"/>
-      <c r="AI127" s="39"/>
-      <c r="AJ127" s="39"/>
+      <c r="AG127" s="39"/>
+      <c r="AI127" s="40"/>
+      <c r="AJ127" s="40"/>
     </row>
     <row r="128" spans="1:36">
       <c r="A128" s="9">
@@ -6534,9 +6538,9 @@
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
-      <c r="AG128" s="38"/>
-      <c r="AI128" s="39"/>
-      <c r="AJ128" s="39"/>
+      <c r="AG128" s="39"/>
+      <c r="AI128" s="40"/>
+      <c r="AJ128" s="40"/>
     </row>
     <row r="129" spans="1:36">
       <c r="A129" s="9">
@@ -6573,9 +6577,9 @@
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
-      <c r="AG129" s="38"/>
-      <c r="AI129" s="39"/>
-      <c r="AJ129" s="39"/>
+      <c r="AG129" s="39"/>
+      <c r="AI129" s="40"/>
+      <c r="AJ129" s="40"/>
     </row>
     <row r="130" spans="1:36">
       <c r="A130" s="9">
@@ -6612,9 +6616,9 @@
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
-      <c r="AG130" s="38"/>
-      <c r="AI130" s="39"/>
-      <c r="AJ130" s="39"/>
+      <c r="AG130" s="39"/>
+      <c r="AI130" s="40"/>
+      <c r="AJ130" s="40"/>
     </row>
     <row r="131" spans="1:36">
       <c r="A131" s="9">
@@ -6651,9 +6655,9 @@
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
-      <c r="AG131" s="38"/>
-      <c r="AI131" s="39"/>
-      <c r="AJ131" s="39"/>
+      <c r="AG131" s="39"/>
+      <c r="AI131" s="40"/>
+      <c r="AJ131" s="40"/>
     </row>
     <row r="132" spans="1:36">
       <c r="A132" s="9">
@@ -6690,9 +6694,9 @@
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
-      <c r="AG132" s="38"/>
-      <c r="AI132" s="39"/>
-      <c r="AJ132" s="39"/>
+      <c r="AG132" s="39"/>
+      <c r="AI132" s="40"/>
+      <c r="AJ132" s="40"/>
     </row>
     <row r="133" spans="1:34">
       <c r="A133" s="1"/>
@@ -6715,7 +6719,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="Y133" s="1"/>
-      <c r="AH133" s="40"/>
+      <c r="AH133" s="41"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -1417,11 +1417,11 @@
   <dimension ref="A1:AJ503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L1" sqref="L1:Q2"/>
+      <selection pane="bottomRight" activeCell="Z5" sqref="Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -231,11 +231,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -299,23 +299,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,32 +329,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,9 +354,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -384,7 +391,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -399,13 +406,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -414,11 +414,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -504,37 +504,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,19 +528,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,43 +552,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,7 +570,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,37 +624,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -739,17 +739,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -764,21 +764,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -818,147 +803,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -968,7 +968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -984,16 +984,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1038,19 +1035,16 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1065,10 +1059,10 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1087,9 +1081,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1417,11 +1408,11 @@
   <dimension ref="A1:AJ503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y4" sqref="Y4:Y5"/>
+      <selection pane="bottomRight" activeCell="U3" sqref="U3:W5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1468,311 +1459,311 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="11" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="18" t="s">
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="22" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="34" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:36">
       <c r="A2" s="3"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-      <c r="AA2" s="22"/>
-      <c r="AB2" s="22"/>
-      <c r="AC2" s="22"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="37"/>
-      <c r="AI2" s="37"/>
-      <c r="AJ2" s="17"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21"/>
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21"/>
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="35"/>
+      <c r="AI2" s="35"/>
+      <c r="AJ2" s="16"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:36">
       <c r="A3" s="3"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14" t="s">
+      <c r="O3" s="13"/>
+      <c r="P3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="19" t="s">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="23" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="24" t="s">
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="34" t="s">
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="17"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="35"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="16"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:36">
       <c r="A4" s="3"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="25" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="V4" s="25" t="s">
+      <c r="V4" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="W4" s="25" t="s">
+      <c r="W4" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="X4" s="26" t="s">
+      <c r="X4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="Y4" s="26" t="s">
+      <c r="Y4" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="31" t="s">
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="35" t="s">
+      <c r="AC4" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="AD4" s="35" t="s">
+      <c r="AD4" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="AF4" s="36" t="s">
+      <c r="AF4" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="AG4" s="34"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="17"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="16"/>
     </row>
     <row r="5" ht="53" spans="1:36">
       <c r="A5" s="3"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="17" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="17" t="s">
+      <c r="O5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="17" t="s">
+      <c r="P5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q5" s="17" t="s">
+      <c r="Q5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="S5" s="20" t="s">
+      <c r="S5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="T5" s="20" t="s">
+      <c r="T5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25"/>
-      <c r="W5" s="25"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="31" t="s">
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AA5" s="31" t="s">
+      <c r="AA5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="34"/>
-      <c r="AF5" s="36"/>
-      <c r="AG5" s="34"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="17"/>
+      <c r="AB5" s="28"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="32"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="32"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="16"/>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="7">
+      <c r="A6" s="6">
         <v>44523</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="28"/>
-      <c r="Y6" s="32"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="30"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -1780,38 +1771,38 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="39"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
+      <c r="AG6" s="37"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="9">
+      <c r="A7" s="8">
         <v>44524</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="29"/>
-      <c r="V7" s="29"/>
-      <c r="W7" s="29"/>
-      <c r="X7" s="29"/>
-      <c r="Y7" s="33"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="31"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1819,38 +1810,38 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="39"/>
-      <c r="AI7" s="40"/>
-      <c r="AJ7" s="40"/>
+      <c r="AG7" s="37"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="9">
+      <c r="A8" s="8">
         <v>44525</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="29"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="33"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="31"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -1858,38 +1849,38 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="39"/>
-      <c r="AI8" s="40"/>
-      <c r="AJ8" s="40"/>
+      <c r="AG8" s="37"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="9">
+      <c r="A9" s="8">
         <v>44526</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="33"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="31"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -1897,38 +1888,38 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="39"/>
-      <c r="AI9" s="40"/>
-      <c r="AJ9" s="40"/>
+      <c r="AG9" s="37"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="9">
+      <c r="A10" s="8">
         <v>44527</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="8"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="7"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -1936,38 +1927,38 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="39"/>
-      <c r="AI10" s="40"/>
-      <c r="AJ10" s="40"/>
+      <c r="AG10" s="37"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="9">
+      <c r="A11" s="8">
         <v>44528</v>
       </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="8"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="7"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -1975,38 +1966,38 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="39"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
+      <c r="AG11" s="37"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
     </row>
     <row r="12" spans="1:36">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>44529</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="8"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="7"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -2014,38 +2005,38 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="39"/>
-      <c r="AI12" s="40"/>
-      <c r="AJ12" s="40"/>
+      <c r="AG12" s="37"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
     </row>
     <row r="13" spans="1:36">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>44530</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="8"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="7"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -2053,38 +2044,38 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="39"/>
-      <c r="AI13" s="40"/>
-      <c r="AJ13" s="40"/>
+      <c r="AG13" s="37"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
     </row>
     <row r="14" spans="1:36">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>44531</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="8"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
@@ -2092,38 +2083,38 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="39"/>
-      <c r="AI14" s="40"/>
-      <c r="AJ14" s="40"/>
+      <c r="AG14" s="37"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
     </row>
     <row r="15" spans="1:36">
-      <c r="A15" s="9">
+      <c r="A15" s="8">
         <v>44532</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="8"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="7"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -2131,38 +2122,38 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="39"/>
-      <c r="AI15" s="40"/>
-      <c r="AJ15" s="40"/>
+      <c r="AG15" s="37"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
     </row>
     <row r="16" spans="1:36">
-      <c r="A16" s="9">
+      <c r="A16" s="8">
         <v>44533</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="8"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -2170,38 +2161,38 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="39"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
+      <c r="AG16" s="37"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
     </row>
     <row r="17" spans="1:36">
-      <c r="A17" s="9">
+      <c r="A17" s="8">
         <v>44534</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="8"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -2209,38 +2200,38 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="39"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
+      <c r="AG17" s="37"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
     </row>
     <row r="18" spans="1:36">
-      <c r="A18" s="9">
+      <c r="A18" s="8">
         <v>44535</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="8"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="9"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="7"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -2248,38 +2239,38 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="39"/>
-      <c r="AI18" s="40"/>
-      <c r="AJ18" s="40"/>
+      <c r="AG18" s="37"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
     </row>
     <row r="19" spans="1:36">
-      <c r="A19" s="9">
+      <c r="A19" s="8">
         <v>44536</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="8"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="9"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -2287,38 +2278,38 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="39"/>
-      <c r="AI19" s="40"/>
-      <c r="AJ19" s="40"/>
+      <c r="AG19" s="37"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
     </row>
     <row r="20" spans="1:36">
-      <c r="A20" s="9">
+      <c r="A20" s="8">
         <v>44537</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="8"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -2326,38 +2317,38 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="39"/>
-      <c r="AI20" s="40"/>
-      <c r="AJ20" s="40"/>
+      <c r="AG20" s="37"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
     </row>
     <row r="21" spans="1:36">
-      <c r="A21" s="9">
+      <c r="A21" s="8">
         <v>44538</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="8"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="9"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -2365,38 +2356,38 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="39"/>
-      <c r="AI21" s="40"/>
-      <c r="AJ21" s="40"/>
+      <c r="AG21" s="37"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
     </row>
     <row r="22" spans="1:36">
-      <c r="A22" s="9">
+      <c r="A22" s="8">
         <v>44539</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="8"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="7"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -2404,38 +2395,38 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="39"/>
-      <c r="AI22" s="40"/>
-      <c r="AJ22" s="40"/>
+      <c r="AG22" s="37"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
     </row>
     <row r="23" spans="1:36">
-      <c r="A23" s="9">
+      <c r="A23" s="8">
         <v>44540</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="8"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="7"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -2443,38 +2434,38 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="39"/>
-      <c r="AI23" s="40"/>
-      <c r="AJ23" s="40"/>
+      <c r="AG23" s="37"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
     </row>
     <row r="24" spans="1:36">
-      <c r="A24" s="9">
+      <c r="A24" s="8">
         <v>44541</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="10"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="8"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="7"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -2482,38 +2473,38 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="39"/>
-      <c r="AI24" s="40"/>
-      <c r="AJ24" s="40"/>
+      <c r="AG24" s="37"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
     </row>
     <row r="25" spans="1:36">
-      <c r="A25" s="9">
+      <c r="A25" s="8">
         <v>44542</v>
       </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="8"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="7"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
       <c r="AB25" s="2"/>
@@ -2521,38 +2512,38 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="39"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
+      <c r="AG25" s="37"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
     </row>
     <row r="26" spans="1:36">
-      <c r="A26" s="9">
+      <c r="A26" s="8">
         <v>44543</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="10"/>
-      <c r="T26" s="10"/>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
-      <c r="X26" s="10"/>
-      <c r="Y26" s="8"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="7"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
@@ -2560,38 +2551,38 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="39"/>
-      <c r="AI26" s="40"/>
-      <c r="AJ26" s="40"/>
+      <c r="AG26" s="37"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
     </row>
     <row r="27" spans="1:36">
-      <c r="A27" s="9">
+      <c r="A27" s="8">
         <v>44544</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="8"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
@@ -2599,38 +2590,38 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="39"/>
-      <c r="AI27" s="40"/>
-      <c r="AJ27" s="40"/>
+      <c r="AG27" s="37"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
     </row>
     <row r="28" spans="1:36">
-      <c r="A28" s="9">
+      <c r="A28" s="8">
         <v>44545</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
@@ -2638,38 +2629,38 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="39"/>
-      <c r="AI28" s="40"/>
-      <c r="AJ28" s="40"/>
+      <c r="AG28" s="37"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
     </row>
     <row r="29" spans="1:36">
-      <c r="A29" s="9">
+      <c r="A29" s="8">
         <v>44546</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
@@ -2677,38 +2668,38 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="39"/>
-      <c r="AI29" s="40"/>
-      <c r="AJ29" s="40"/>
+      <c r="AG29" s="37"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
     </row>
     <row r="30" spans="1:36">
-      <c r="A30" s="9">
+      <c r="A30" s="8">
         <v>44547</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
-      <c r="X30" s="10"/>
-      <c r="Y30" s="10"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
@@ -2716,38 +2707,38 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="39"/>
-      <c r="AI30" s="40"/>
-      <c r="AJ30" s="40"/>
+      <c r="AG30" s="37"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
     </row>
     <row r="31" spans="1:36">
-      <c r="A31" s="9">
+      <c r="A31" s="8">
         <v>44548</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
@@ -2755,38 +2746,38 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="39"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
+      <c r="AG31" s="37"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
     </row>
     <row r="32" spans="1:36">
-      <c r="A32" s="9">
+      <c r="A32" s="8">
         <v>44549</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
@@ -2794,38 +2785,38 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="39"/>
-      <c r="AI32" s="40"/>
-      <c r="AJ32" s="40"/>
+      <c r="AG32" s="37"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
     </row>
     <row r="33" spans="1:36">
-      <c r="A33" s="9">
+      <c r="A33" s="8">
         <v>44550</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
       <c r="Z33" s="2"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
@@ -2833,38 +2824,38 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="39"/>
-      <c r="AI33" s="40"/>
-      <c r="AJ33" s="40"/>
+      <c r="AG33" s="37"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
     </row>
     <row r="34" spans="1:36">
-      <c r="A34" s="9">
+      <c r="A34" s="8">
         <v>44551</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="10"/>
-      <c r="T34" s="10"/>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
-      <c r="X34" s="10"/>
-      <c r="Y34" s="10"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
       <c r="Z34" s="2"/>
       <c r="AA34" s="2"/>
       <c r="AB34" s="2"/>
@@ -2872,38 +2863,38 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="39"/>
-      <c r="AI34" s="40"/>
-      <c r="AJ34" s="40"/>
+      <c r="AG34" s="37"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
     </row>
     <row r="35" spans="1:36">
-      <c r="A35" s="9">
+      <c r="A35" s="8">
         <v>44552</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
       <c r="Z35" s="2"/>
       <c r="AA35" s="2"/>
       <c r="AB35" s="2"/>
@@ -2911,38 +2902,38 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="39"/>
-      <c r="AI35" s="40"/>
-      <c r="AJ35" s="40"/>
+      <c r="AG35" s="37"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
     </row>
     <row r="36" spans="1:36">
-      <c r="A36" s="9">
+      <c r="A36" s="8">
         <v>44553</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
       <c r="Z36" s="2"/>
       <c r="AA36" s="2"/>
       <c r="AB36" s="2"/>
@@ -2950,38 +2941,38 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="39"/>
-      <c r="AI36" s="40"/>
-      <c r="AJ36" s="40"/>
+      <c r="AG36" s="37"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
     </row>
     <row r="37" spans="1:36">
-      <c r="A37" s="9">
+      <c r="A37" s="8">
         <v>44554</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
       <c r="Z37" s="2"/>
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
@@ -2989,38 +2980,38 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="39"/>
-      <c r="AI37" s="40"/>
-      <c r="AJ37" s="40"/>
+      <c r="AG37" s="37"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
     </row>
     <row r="38" spans="1:36">
-      <c r="A38" s="9">
+      <c r="A38" s="8">
         <v>44555</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="10"/>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
       <c r="Z38" s="2"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
@@ -3028,38 +3019,38 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="39"/>
-      <c r="AI38" s="40"/>
-      <c r="AJ38" s="40"/>
+      <c r="AG38" s="37"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
     </row>
     <row r="39" spans="1:36">
-      <c r="A39" s="9">
+      <c r="A39" s="8">
         <v>44556</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
       <c r="Z39" s="2"/>
       <c r="AA39" s="2"/>
       <c r="AB39" s="2"/>
@@ -3067,38 +3058,38 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="39"/>
-      <c r="AI39" s="40"/>
-      <c r="AJ39" s="40"/>
+      <c r="AG39" s="37"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
     </row>
     <row r="40" spans="1:36">
-      <c r="A40" s="9">
+      <c r="A40" s="8">
         <v>44557</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
-      <c r="S40" s="10"/>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
-      <c r="X40" s="10"/>
-      <c r="Y40" s="10"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
       <c r="Z40" s="2"/>
       <c r="AA40" s="2"/>
       <c r="AB40" s="2"/>
@@ -3106,38 +3097,38 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="39"/>
-      <c r="AI40" s="40"/>
-      <c r="AJ40" s="40"/>
+      <c r="AG40" s="37"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
     </row>
     <row r="41" spans="1:36">
-      <c r="A41" s="9">
+      <c r="A41" s="8">
         <v>44558</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
+      <c r="X41" s="9"/>
+      <c r="Y41" s="9"/>
       <c r="Z41" s="2"/>
       <c r="AA41" s="2"/>
       <c r="AB41" s="2"/>
@@ -3145,38 +3136,38 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="39"/>
-      <c r="AI41" s="40"/>
-      <c r="AJ41" s="40"/>
+      <c r="AG41" s="37"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
     </row>
     <row r="42" spans="1:36">
-      <c r="A42" s="9">
+      <c r="A42" s="8">
         <v>44559</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
       <c r="AB42" s="2"/>
@@ -3184,38 +3175,38 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="39"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
+      <c r="AG42" s="37"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
     </row>
     <row r="43" spans="1:36">
-      <c r="A43" s="9">
+      <c r="A43" s="8">
         <v>44560</v>
       </c>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+      <c r="W43" s="9"/>
+      <c r="X43" s="9"/>
+      <c r="Y43" s="9"/>
       <c r="Z43" s="2"/>
       <c r="AA43" s="2"/>
       <c r="AB43" s="2"/>
@@ -3223,38 +3214,38 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="39"/>
-      <c r="AI43" s="40"/>
-      <c r="AJ43" s="40"/>
+      <c r="AG43" s="37"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
     </row>
     <row r="44" spans="1:36">
-      <c r="A44" s="9">
+      <c r="A44" s="8">
         <v>44561</v>
       </c>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
-      <c r="S44" s="10"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
-      <c r="V44" s="10"/>
-      <c r="W44" s="10"/>
-      <c r="X44" s="10"/>
-      <c r="Y44" s="10"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
       <c r="AB44" s="2"/>
@@ -3262,38 +3253,38 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="39"/>
-      <c r="AI44" s="40"/>
-      <c r="AJ44" s="40"/>
+      <c r="AG44" s="37"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
     </row>
     <row r="45" spans="1:36">
-      <c r="A45" s="9">
+      <c r="A45" s="8">
         <v>44562</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+      <c r="V45" s="9"/>
+      <c r="W45" s="9"/>
+      <c r="X45" s="9"/>
+      <c r="Y45" s="9"/>
       <c r="Z45" s="2"/>
       <c r="AA45" s="2"/>
       <c r="AB45" s="2"/>
@@ -3301,38 +3292,38 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="39"/>
-      <c r="AI45" s="40"/>
-      <c r="AJ45" s="40"/>
+      <c r="AG45" s="37"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
     </row>
     <row r="46" spans="1:36">
-      <c r="A46" s="9">
+      <c r="A46" s="8">
         <v>44563</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
       <c r="AB46" s="2"/>
@@ -3340,38 +3331,38 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="39"/>
-      <c r="AI46" s="40"/>
-      <c r="AJ46" s="40"/>
+      <c r="AG46" s="37"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
     </row>
     <row r="47" spans="1:36">
-      <c r="A47" s="9">
+      <c r="A47" s="8">
         <v>44564</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+      <c r="V47" s="9"/>
+      <c r="W47" s="9"/>
+      <c r="X47" s="9"/>
+      <c r="Y47" s="9"/>
       <c r="Z47" s="2"/>
       <c r="AA47" s="2"/>
       <c r="AB47" s="2"/>
@@ -3379,38 +3370,38 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="39"/>
-      <c r="AI47" s="40"/>
-      <c r="AJ47" s="40"/>
+      <c r="AG47" s="37"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
     </row>
     <row r="48" spans="1:36">
-      <c r="A48" s="9">
+      <c r="A48" s="8">
         <v>44565</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="10"/>
-      <c r="S48" s="10"/>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="X48" s="10"/>
-      <c r="Y48" s="10"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
       <c r="Z48" s="2"/>
       <c r="AA48" s="2"/>
       <c r="AB48" s="2"/>
@@ -3418,38 +3409,38 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="39"/>
-      <c r="AI48" s="40"/>
-      <c r="AJ48" s="40"/>
+      <c r="AG48" s="37"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
     </row>
     <row r="49" spans="1:36">
-      <c r="A49" s="9">
+      <c r="A49" s="8">
         <v>44566</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
+      <c r="Y49" s="9"/>
       <c r="Z49" s="2"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
@@ -3457,38 +3448,38 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="39"/>
-      <c r="AI49" s="40"/>
-      <c r="AJ49" s="40"/>
+      <c r="AG49" s="37"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
     </row>
     <row r="50" spans="1:36">
-      <c r="A50" s="9">
+      <c r="A50" s="8">
         <v>44567</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="10"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
-      <c r="S50" s="10"/>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
-      <c r="X50" s="10"/>
-      <c r="Y50" s="10"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
       <c r="Z50" s="2"/>
       <c r="AA50" s="2"/>
       <c r="AB50" s="2"/>
@@ -3496,38 +3487,38 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-      <c r="AG50" s="39"/>
-      <c r="AI50" s="40"/>
-      <c r="AJ50" s="40"/>
+      <c r="AG50" s="37"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
     </row>
     <row r="51" spans="1:36">
-      <c r="A51" s="9">
+      <c r="A51" s="8">
         <v>44568</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
+      <c r="S51" s="9"/>
+      <c r="T51" s="9"/>
+      <c r="U51" s="9"/>
+      <c r="V51" s="9"/>
+      <c r="W51" s="9"/>
+      <c r="X51" s="9"/>
+      <c r="Y51" s="9"/>
       <c r="Z51" s="2"/>
       <c r="AA51" s="2"/>
       <c r="AB51" s="2"/>
@@ -3535,38 +3526,38 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
-      <c r="AG51" s="39"/>
-      <c r="AI51" s="40"/>
-      <c r="AJ51" s="40"/>
+      <c r="AG51" s="37"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
     </row>
     <row r="52" spans="1:36">
-      <c r="A52" s="9">
+      <c r="A52" s="8">
         <v>44569</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
-      <c r="S52" s="10"/>
-      <c r="T52" s="10"/>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
-      <c r="X52" s="10"/>
-      <c r="Y52" s="10"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
+      <c r="M52" s="9"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
       <c r="Z52" s="2"/>
       <c r="AA52" s="2"/>
       <c r="AB52" s="2"/>
@@ -3574,38 +3565,38 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
-      <c r="AG52" s="39"/>
-      <c r="AI52" s="40"/>
-      <c r="AJ52" s="40"/>
+      <c r="AG52" s="37"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
     </row>
     <row r="53" spans="1:36">
-      <c r="A53" s="9">
+      <c r="A53" s="8">
         <v>44570</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
       <c r="Z53" s="2"/>
       <c r="AA53" s="2"/>
       <c r="AB53" s="2"/>
@@ -3613,38 +3604,38 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
-      <c r="AG53" s="39"/>
-      <c r="AI53" s="40"/>
-      <c r="AJ53" s="40"/>
+      <c r="AG53" s="37"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
     </row>
     <row r="54" spans="1:36">
-      <c r="A54" s="9">
+      <c r="A54" s="8">
         <v>44571</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
-      <c r="X54" s="10"/>
-      <c r="Y54" s="10"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
       <c r="Z54" s="2"/>
       <c r="AA54" s="2"/>
       <c r="AB54" s="2"/>
@@ -3652,38 +3643,38 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
-      <c r="AG54" s="39"/>
-      <c r="AI54" s="40"/>
-      <c r="AJ54" s="40"/>
+      <c r="AG54" s="37"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
     </row>
     <row r="55" spans="1:36">
-      <c r="A55" s="9">
+      <c r="A55" s="8">
         <v>44572</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
@@ -3691,38 +3682,38 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="39"/>
-      <c r="AI55" s="40"/>
-      <c r="AJ55" s="40"/>
+      <c r="AG55" s="37"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
     </row>
     <row r="56" spans="1:36">
-      <c r="A56" s="9">
+      <c r="A56" s="8">
         <v>44573</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
       <c r="Z56" s="2"/>
       <c r="AA56" s="2"/>
       <c r="AB56" s="2"/>
@@ -3730,38 +3721,38 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="39"/>
-      <c r="AI56" s="40"/>
-      <c r="AJ56" s="40"/>
+      <c r="AG56" s="37"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
     </row>
     <row r="57" spans="1:36">
-      <c r="A57" s="9">
+      <c r="A57" s="8">
         <v>44574</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
       <c r="Z57" s="2"/>
       <c r="AA57" s="2"/>
       <c r="AB57" s="2"/>
@@ -3769,38 +3760,38 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
-      <c r="AG57" s="39"/>
-      <c r="AI57" s="40"/>
-      <c r="AJ57" s="40"/>
+      <c r="AG57" s="37"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
     </row>
     <row r="58" spans="1:36">
-      <c r="A58" s="9">
+      <c r="A58" s="8">
         <v>44575</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
-      <c r="X58" s="10"/>
-      <c r="Y58" s="10"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
+      <c r="W58" s="9"/>
+      <c r="X58" s="9"/>
+      <c r="Y58" s="9"/>
       <c r="Z58" s="2"/>
       <c r="AA58" s="2"/>
       <c r="AB58" s="2"/>
@@ -3808,38 +3799,38 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
-      <c r="AG58" s="39"/>
-      <c r="AI58" s="40"/>
-      <c r="AJ58" s="40"/>
+      <c r="AG58" s="37"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
     </row>
     <row r="59" spans="1:36">
-      <c r="A59" s="9">
+      <c r="A59" s="8">
         <v>44576</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
-      <c r="X59" s="10"/>
-      <c r="Y59" s="10"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
+      <c r="W59" s="9"/>
+      <c r="X59" s="9"/>
+      <c r="Y59" s="9"/>
       <c r="Z59" s="2"/>
       <c r="AA59" s="2"/>
       <c r="AB59" s="2"/>
@@ -3847,38 +3838,38 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
-      <c r="AG59" s="39"/>
-      <c r="AI59" s="40"/>
-      <c r="AJ59" s="40"/>
+      <c r="AG59" s="37"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
     </row>
     <row r="60" spans="1:36">
-      <c r="A60" s="9">
+      <c r="A60" s="8">
         <v>44577</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
-      <c r="X60" s="10"/>
-      <c r="Y60" s="10"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
+      <c r="X60" s="9"/>
+      <c r="Y60" s="9"/>
       <c r="Z60" s="2"/>
       <c r="AA60" s="2"/>
       <c r="AB60" s="2"/>
@@ -3886,38 +3877,38 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-      <c r="AG60" s="39"/>
-      <c r="AI60" s="40"/>
-      <c r="AJ60" s="40"/>
+      <c r="AG60" s="37"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
     </row>
     <row r="61" spans="1:36">
-      <c r="A61" s="9">
+      <c r="A61" s="8">
         <v>44578</v>
       </c>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
-      <c r="W61" s="10"/>
-      <c r="X61" s="10"/>
-      <c r="Y61" s="10"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
+      <c r="W61" s="9"/>
+      <c r="X61" s="9"/>
+      <c r="Y61" s="9"/>
       <c r="Z61" s="2"/>
       <c r="AA61" s="2"/>
       <c r="AB61" s="2"/>
@@ -3925,38 +3916,38 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
-      <c r="AG61" s="39"/>
-      <c r="AI61" s="40"/>
-      <c r="AJ61" s="40"/>
+      <c r="AG61" s="37"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
     </row>
     <row r="62" spans="1:36">
-      <c r="A62" s="9">
+      <c r="A62" s="8">
         <v>44579</v>
       </c>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
-      <c r="W62" s="10"/>
-      <c r="X62" s="10"/>
-      <c r="Y62" s="10"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
+      <c r="W62" s="9"/>
+      <c r="X62" s="9"/>
+      <c r="Y62" s="9"/>
       <c r="Z62" s="2"/>
       <c r="AA62" s="2"/>
       <c r="AB62" s="2"/>
@@ -3964,38 +3955,38 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-      <c r="AG62" s="39"/>
-      <c r="AI62" s="40"/>
-      <c r="AJ62" s="40"/>
+      <c r="AG62" s="37"/>
+      <c r="AI62" s="2"/>
+      <c r="AJ62" s="2"/>
     </row>
     <row r="63" spans="1:36">
-      <c r="A63" s="9">
+      <c r="A63" s="8">
         <v>44580</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
-      <c r="X63" s="10"/>
-      <c r="Y63" s="10"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
+      <c r="W63" s="9"/>
+      <c r="X63" s="9"/>
+      <c r="Y63" s="9"/>
       <c r="Z63" s="2"/>
       <c r="AA63" s="2"/>
       <c r="AB63" s="2"/>
@@ -4003,38 +3994,38 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
-      <c r="AG63" s="39"/>
-      <c r="AI63" s="40"/>
-      <c r="AJ63" s="40"/>
+      <c r="AG63" s="37"/>
+      <c r="AI63" s="2"/>
+      <c r="AJ63" s="2"/>
     </row>
     <row r="64" spans="1:36">
-      <c r="A64" s="9">
+      <c r="A64" s="8">
         <v>44581</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
-      <c r="X64" s="10"/>
-      <c r="Y64" s="10"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
+      <c r="W64" s="9"/>
+      <c r="X64" s="9"/>
+      <c r="Y64" s="9"/>
       <c r="Z64" s="2"/>
       <c r="AA64" s="2"/>
       <c r="AB64" s="2"/>
@@ -4042,38 +4033,38 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
-      <c r="AG64" s="39"/>
-      <c r="AI64" s="40"/>
-      <c r="AJ64" s="40"/>
+      <c r="AG64" s="37"/>
+      <c r="AI64" s="2"/>
+      <c r="AJ64" s="2"/>
     </row>
     <row r="65" spans="1:36">
-      <c r="A65" s="9">
+      <c r="A65" s="8">
         <v>44582</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
-      <c r="X65" s="10"/>
-      <c r="Y65" s="10"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
+      <c r="W65" s="9"/>
+      <c r="X65" s="9"/>
+      <c r="Y65" s="9"/>
       <c r="Z65" s="2"/>
       <c r="AA65" s="2"/>
       <c r="AB65" s="2"/>
@@ -4081,38 +4072,38 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
-      <c r="AG65" s="39"/>
-      <c r="AI65" s="40"/>
-      <c r="AJ65" s="40"/>
+      <c r="AG65" s="37"/>
+      <c r="AI65" s="2"/>
+      <c r="AJ65" s="2"/>
     </row>
     <row r="66" spans="1:36">
-      <c r="A66" s="9">
+      <c r="A66" s="8">
         <v>44583</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
-      <c r="X66" s="10"/>
-      <c r="Y66" s="10"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
+      <c r="W66" s="9"/>
+      <c r="X66" s="9"/>
+      <c r="Y66" s="9"/>
       <c r="Z66" s="2"/>
       <c r="AA66" s="2"/>
       <c r="AB66" s="2"/>
@@ -4120,38 +4111,38 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-      <c r="AG66" s="39"/>
-      <c r="AI66" s="40"/>
-      <c r="AJ66" s="40"/>
+      <c r="AG66" s="37"/>
+      <c r="AI66" s="2"/>
+      <c r="AJ66" s="2"/>
     </row>
     <row r="67" spans="1:36">
-      <c r="A67" s="9">
+      <c r="A67" s="8">
         <v>44584</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
-      <c r="X67" s="10"/>
-      <c r="Y67" s="10"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
+      <c r="W67" s="9"/>
+      <c r="X67" s="9"/>
+      <c r="Y67" s="9"/>
       <c r="Z67" s="2"/>
       <c r="AA67" s="2"/>
       <c r="AB67" s="2"/>
@@ -4159,38 +4150,38 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
-      <c r="AG67" s="39"/>
-      <c r="AI67" s="40"/>
-      <c r="AJ67" s="40"/>
+      <c r="AG67" s="37"/>
+      <c r="AI67" s="2"/>
+      <c r="AJ67" s="2"/>
     </row>
     <row r="68" spans="1:36">
-      <c r="A68" s="9">
+      <c r="A68" s="8">
         <v>44585</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
-      <c r="X68" s="10"/>
-      <c r="Y68" s="10"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
+      <c r="W68" s="9"/>
+      <c r="X68" s="9"/>
+      <c r="Y68" s="9"/>
       <c r="Z68" s="2"/>
       <c r="AA68" s="2"/>
       <c r="AB68" s="2"/>
@@ -4198,38 +4189,38 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
-      <c r="AG68" s="39"/>
-      <c r="AI68" s="40"/>
-      <c r="AJ68" s="40"/>
+      <c r="AG68" s="37"/>
+      <c r="AI68" s="2"/>
+      <c r="AJ68" s="2"/>
     </row>
     <row r="69" spans="1:36">
-      <c r="A69" s="9">
+      <c r="A69" s="8">
         <v>44586</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
-      <c r="X69" s="10"/>
-      <c r="Y69" s="10"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9"/>
+      <c r="Y69" s="9"/>
       <c r="Z69" s="2"/>
       <c r="AA69" s="2"/>
       <c r="AB69" s="2"/>
@@ -4237,38 +4228,38 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
-      <c r="AG69" s="39"/>
-      <c r="AI69" s="40"/>
-      <c r="AJ69" s="40"/>
+      <c r="AG69" s="37"/>
+      <c r="AI69" s="2"/>
+      <c r="AJ69" s="2"/>
     </row>
     <row r="70" spans="1:36">
-      <c r="A70" s="9">
+      <c r="A70" s="8">
         <v>44587</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
-      <c r="X70" s="10"/>
-      <c r="Y70" s="10"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9"/>
+      <c r="Y70" s="9"/>
       <c r="Z70" s="2"/>
       <c r="AA70" s="2"/>
       <c r="AB70" s="2"/>
@@ -4276,38 +4267,38 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
-      <c r="AG70" s="39"/>
-      <c r="AI70" s="40"/>
-      <c r="AJ70" s="40"/>
+      <c r="AG70" s="37"/>
+      <c r="AI70" s="2"/>
+      <c r="AJ70" s="2"/>
     </row>
     <row r="71" spans="1:36">
-      <c r="A71" s="9">
+      <c r="A71" s="8">
         <v>44588</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="10"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="9"/>
       <c r="Z71" s="2"/>
       <c r="AA71" s="2"/>
       <c r="AB71" s="2"/>
@@ -4315,38 +4306,38 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
-      <c r="AG71" s="39"/>
-      <c r="AI71" s="40"/>
-      <c r="AJ71" s="40"/>
+      <c r="AG71" s="37"/>
+      <c r="AI71" s="2"/>
+      <c r="AJ71" s="2"/>
     </row>
     <row r="72" spans="1:36">
-      <c r="A72" s="9">
+      <c r="A72" s="8">
         <v>44589</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
-      <c r="X72" s="10"/>
-      <c r="Y72" s="10"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9"/>
       <c r="Z72" s="2"/>
       <c r="AA72" s="2"/>
       <c r="AB72" s="2"/>
@@ -4354,38 +4345,38 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-      <c r="AG72" s="39"/>
-      <c r="AI72" s="40"/>
-      <c r="AJ72" s="40"/>
+      <c r="AG72" s="37"/>
+      <c r="AI72" s="2"/>
+      <c r="AJ72" s="2"/>
     </row>
     <row r="73" spans="1:36">
-      <c r="A73" s="9">
+      <c r="A73" s="8">
         <v>44590</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
-      <c r="X73" s="10"/>
-      <c r="Y73" s="10"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
       <c r="Z73" s="2"/>
       <c r="AA73" s="2"/>
       <c r="AB73" s="2"/>
@@ -4393,38 +4384,38 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
-      <c r="AG73" s="39"/>
-      <c r="AI73" s="40"/>
-      <c r="AJ73" s="40"/>
+      <c r="AG73" s="37"/>
+      <c r="AI73" s="2"/>
+      <c r="AJ73" s="2"/>
     </row>
     <row r="74" spans="1:36">
-      <c r="A74" s="9">
+      <c r="A74" s="8">
         <v>44591</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
       <c r="Z74" s="2"/>
       <c r="AA74" s="2"/>
       <c r="AB74" s="2"/>
@@ -4432,38 +4423,38 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
-      <c r="AG74" s="39"/>
-      <c r="AI74" s="40"/>
-      <c r="AJ74" s="40"/>
+      <c r="AG74" s="37"/>
+      <c r="AI74" s="2"/>
+      <c r="AJ74" s="2"/>
     </row>
     <row r="75" spans="1:36">
-      <c r="A75" s="9">
+      <c r="A75" s="8">
         <v>44592</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
       <c r="Z75" s="2"/>
       <c r="AA75" s="2"/>
       <c r="AB75" s="2"/>
@@ -4471,38 +4462,38 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
-      <c r="AG75" s="39"/>
-      <c r="AI75" s="40"/>
-      <c r="AJ75" s="40"/>
+      <c r="AG75" s="37"/>
+      <c r="AI75" s="2"/>
+      <c r="AJ75" s="2"/>
     </row>
     <row r="76" spans="1:36">
-      <c r="A76" s="9">
+      <c r="A76" s="8">
         <v>44593</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
-      <c r="X76" s="10"/>
-      <c r="Y76" s="10"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
       <c r="Z76" s="2"/>
       <c r="AA76" s="2"/>
       <c r="AB76" s="2"/>
@@ -4510,38 +4501,38 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
-      <c r="AG76" s="39"/>
-      <c r="AI76" s="40"/>
-      <c r="AJ76" s="40"/>
+      <c r="AG76" s="37"/>
+      <c r="AI76" s="2"/>
+      <c r="AJ76" s="2"/>
     </row>
     <row r="77" spans="1:36">
-      <c r="A77" s="9">
+      <c r="A77" s="8">
         <v>44594</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
-      <c r="X77" s="10"/>
-      <c r="Y77" s="10"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
       <c r="Z77" s="2"/>
       <c r="AA77" s="2"/>
       <c r="AB77" s="2"/>
@@ -4549,38 +4540,38 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-      <c r="AG77" s="39"/>
-      <c r="AI77" s="40"/>
-      <c r="AJ77" s="40"/>
+      <c r="AG77" s="37"/>
+      <c r="AI77" s="2"/>
+      <c r="AJ77" s="2"/>
     </row>
     <row r="78" spans="1:36">
-      <c r="A78" s="9">
+      <c r="A78" s="8">
         <v>44595</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
-      <c r="X78" s="10"/>
-      <c r="Y78" s="10"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
+      <c r="W78" s="9"/>
+      <c r="X78" s="9"/>
+      <c r="Y78" s="9"/>
       <c r="Z78" s="2"/>
       <c r="AA78" s="2"/>
       <c r="AB78" s="2"/>
@@ -4588,38 +4579,38 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
-      <c r="AG78" s="39"/>
-      <c r="AI78" s="40"/>
-      <c r="AJ78" s="40"/>
+      <c r="AG78" s="37"/>
+      <c r="AI78" s="2"/>
+      <c r="AJ78" s="2"/>
     </row>
     <row r="79" spans="1:36">
-      <c r="A79" s="9">
+      <c r="A79" s="8">
         <v>44596</v>
       </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
-      <c r="W79" s="10"/>
-      <c r="X79" s="10"/>
-      <c r="Y79" s="10"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
+      <c r="W79" s="9"/>
+      <c r="X79" s="9"/>
+      <c r="Y79" s="9"/>
       <c r="Z79" s="2"/>
       <c r="AA79" s="2"/>
       <c r="AB79" s="2"/>
@@ -4627,38 +4618,38 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
-      <c r="AG79" s="39"/>
-      <c r="AI79" s="40"/>
-      <c r="AJ79" s="40"/>
+      <c r="AG79" s="37"/>
+      <c r="AI79" s="2"/>
+      <c r="AJ79" s="2"/>
     </row>
     <row r="80" spans="1:36">
-      <c r="A80" s="9">
+      <c r="A80" s="8">
         <v>44597</v>
       </c>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
-      <c r="W80" s="10"/>
-      <c r="X80" s="10"/>
-      <c r="Y80" s="10"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
+      <c r="W80" s="9"/>
+      <c r="X80" s="9"/>
+      <c r="Y80" s="9"/>
       <c r="Z80" s="2"/>
       <c r="AA80" s="2"/>
       <c r="AB80" s="2"/>
@@ -4666,38 +4657,38 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
-      <c r="AG80" s="39"/>
-      <c r="AI80" s="40"/>
-      <c r="AJ80" s="40"/>
+      <c r="AG80" s="37"/>
+      <c r="AI80" s="2"/>
+      <c r="AJ80" s="2"/>
     </row>
     <row r="81" spans="1:36">
-      <c r="A81" s="9">
+      <c r="A81" s="8">
         <v>44598</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
-      <c r="X81" s="10"/>
-      <c r="Y81" s="10"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
+      <c r="W81" s="9"/>
+      <c r="X81" s="9"/>
+      <c r="Y81" s="9"/>
       <c r="Z81" s="2"/>
       <c r="AA81" s="2"/>
       <c r="AB81" s="2"/>
@@ -4705,38 +4696,38 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
-      <c r="AG81" s="39"/>
-      <c r="AI81" s="40"/>
-      <c r="AJ81" s="40"/>
+      <c r="AG81" s="37"/>
+      <c r="AI81" s="2"/>
+      <c r="AJ81" s="2"/>
     </row>
     <row r="82" spans="1:36">
-      <c r="A82" s="9">
+      <c r="A82" s="8">
         <v>44599</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
-      <c r="X82" s="10"/>
-      <c r="Y82" s="10"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
+      <c r="W82" s="9"/>
+      <c r="X82" s="9"/>
+      <c r="Y82" s="9"/>
       <c r="Z82" s="2"/>
       <c r="AA82" s="2"/>
       <c r="AB82" s="2"/>
@@ -4744,38 +4735,38 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
-      <c r="AG82" s="39"/>
-      <c r="AI82" s="40"/>
-      <c r="AJ82" s="40"/>
+      <c r="AG82" s="37"/>
+      <c r="AI82" s="2"/>
+      <c r="AJ82" s="2"/>
     </row>
     <row r="83" spans="1:36">
-      <c r="A83" s="9">
+      <c r="A83" s="8">
         <v>44600</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
-      <c r="X83" s="10"/>
-      <c r="Y83" s="10"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
+      <c r="W83" s="9"/>
+      <c r="X83" s="9"/>
+      <c r="Y83" s="9"/>
       <c r="Z83" s="2"/>
       <c r="AA83" s="2"/>
       <c r="AB83" s="2"/>
@@ -4783,38 +4774,38 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
-      <c r="AG83" s="39"/>
-      <c r="AI83" s="40"/>
-      <c r="AJ83" s="40"/>
+      <c r="AG83" s="37"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
     </row>
     <row r="84" spans="1:36">
-      <c r="A84" s="9">
+      <c r="A84" s="8">
         <v>44601</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
-      <c r="X84" s="10"/>
-      <c r="Y84" s="10"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
+      <c r="W84" s="9"/>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
       <c r="Z84" s="2"/>
       <c r="AA84" s="2"/>
       <c r="AB84" s="2"/>
@@ -4822,38 +4813,38 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
-      <c r="AG84" s="39"/>
-      <c r="AI84" s="40"/>
-      <c r="AJ84" s="40"/>
+      <c r="AG84" s="37"/>
+      <c r="AI84" s="2"/>
+      <c r="AJ84" s="2"/>
     </row>
     <row r="85" spans="1:36">
-      <c r="A85" s="9">
+      <c r="A85" s="8">
         <v>44602</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
-      <c r="X85" s="10"/>
-      <c r="Y85" s="10"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
+      <c r="W85" s="9"/>
+      <c r="X85" s="9"/>
+      <c r="Y85" s="9"/>
       <c r="Z85" s="2"/>
       <c r="AA85" s="2"/>
       <c r="AB85" s="2"/>
@@ -4861,38 +4852,38 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-      <c r="AG85" s="39"/>
-      <c r="AI85" s="40"/>
-      <c r="AJ85" s="40"/>
+      <c r="AG85" s="37"/>
+      <c r="AI85" s="2"/>
+      <c r="AJ85" s="2"/>
     </row>
     <row r="86" spans="1:36">
-      <c r="A86" s="9">
+      <c r="A86" s="8">
         <v>44603</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-      <c r="R86" s="10"/>
-      <c r="S86" s="10"/>
-      <c r="T86" s="10"/>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
-      <c r="X86" s="10"/>
-      <c r="Y86" s="10"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
+      <c r="S86" s="9"/>
+      <c r="T86" s="9"/>
+      <c r="U86" s="9"/>
+      <c r="V86" s="9"/>
+      <c r="W86" s="9"/>
+      <c r="X86" s="9"/>
+      <c r="Y86" s="9"/>
       <c r="Z86" s="2"/>
       <c r="AA86" s="2"/>
       <c r="AB86" s="2"/>
@@ -4900,38 +4891,38 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-      <c r="AG86" s="39"/>
-      <c r="AI86" s="40"/>
-      <c r="AJ86" s="40"/>
+      <c r="AG86" s="37"/>
+      <c r="AI86" s="2"/>
+      <c r="AJ86" s="2"/>
     </row>
     <row r="87" spans="1:36">
-      <c r="A87" s="9">
+      <c r="A87" s="8">
         <v>44604</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="10"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-      <c r="R87" s="10"/>
-      <c r="S87" s="10"/>
-      <c r="T87" s="10"/>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
-      <c r="X87" s="10"/>
-      <c r="Y87" s="10"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
       <c r="Z87" s="2"/>
       <c r="AA87" s="2"/>
       <c r="AB87" s="2"/>
@@ -4939,38 +4930,38 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
-      <c r="AG87" s="39"/>
-      <c r="AI87" s="40"/>
-      <c r="AJ87" s="40"/>
+      <c r="AG87" s="37"/>
+      <c r="AI87" s="2"/>
+      <c r="AJ87" s="2"/>
     </row>
     <row r="88" spans="1:36">
-      <c r="A88" s="9">
+      <c r="A88" s="8">
         <v>44605</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="10"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-      <c r="R88" s="10"/>
-      <c r="S88" s="10"/>
-      <c r="T88" s="10"/>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
-      <c r="X88" s="10"/>
-      <c r="Y88" s="10"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="9"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
+      <c r="P88" s="9"/>
+      <c r="Q88" s="9"/>
+      <c r="R88" s="9"/>
+      <c r="S88" s="9"/>
+      <c r="T88" s="9"/>
+      <c r="U88" s="9"/>
+      <c r="V88" s="9"/>
+      <c r="W88" s="9"/>
+      <c r="X88" s="9"/>
+      <c r="Y88" s="9"/>
       <c r="Z88" s="2"/>
       <c r="AA88" s="2"/>
       <c r="AB88" s="2"/>
@@ -4978,38 +4969,38 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
-      <c r="AG88" s="39"/>
-      <c r="AI88" s="40"/>
-      <c r="AJ88" s="40"/>
+      <c r="AG88" s="37"/>
+      <c r="AI88" s="2"/>
+      <c r="AJ88" s="2"/>
     </row>
     <row r="89" spans="1:36">
-      <c r="A89" s="9">
+      <c r="A89" s="8">
         <v>44606</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="10"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="10"/>
-      <c r="S89" s="10"/>
-      <c r="T89" s="10"/>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
-      <c r="X89" s="10"/>
-      <c r="Y89" s="10"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="9"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
+      <c r="P89" s="9"/>
+      <c r="Q89" s="9"/>
+      <c r="R89" s="9"/>
+      <c r="S89" s="9"/>
+      <c r="T89" s="9"/>
+      <c r="U89" s="9"/>
+      <c r="V89" s="9"/>
+      <c r="W89" s="9"/>
+      <c r="X89" s="9"/>
+      <c r="Y89" s="9"/>
       <c r="Z89" s="2"/>
       <c r="AA89" s="2"/>
       <c r="AB89" s="2"/>
@@ -5017,38 +5008,38 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
-      <c r="AG89" s="39"/>
-      <c r="AI89" s="40"/>
-      <c r="AJ89" s="40"/>
+      <c r="AG89" s="37"/>
+      <c r="AI89" s="2"/>
+      <c r="AJ89" s="2"/>
     </row>
     <row r="90" spans="1:36">
-      <c r="A90" s="9">
+      <c r="A90" s="8">
         <v>44607</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="10"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-      <c r="R90" s="10"/>
-      <c r="S90" s="10"/>
-      <c r="T90" s="10"/>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
-      <c r="X90" s="10"/>
-      <c r="Y90" s="10"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
+      <c r="S90" s="9"/>
+      <c r="T90" s="9"/>
+      <c r="U90" s="9"/>
+      <c r="V90" s="9"/>
+      <c r="W90" s="9"/>
+      <c r="X90" s="9"/>
+      <c r="Y90" s="9"/>
       <c r="Z90" s="2"/>
       <c r="AA90" s="2"/>
       <c r="AB90" s="2"/>
@@ -5056,38 +5047,38 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
-      <c r="AG90" s="39"/>
-      <c r="AI90" s="40"/>
-      <c r="AJ90" s="40"/>
+      <c r="AG90" s="37"/>
+      <c r="AI90" s="2"/>
+      <c r="AJ90" s="2"/>
     </row>
     <row r="91" spans="1:36">
-      <c r="A91" s="9">
+      <c r="A91" s="8">
         <v>44608</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-      <c r="R91" s="10"/>
-      <c r="S91" s="10"/>
-      <c r="T91" s="10"/>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
-      <c r="X91" s="10"/>
-      <c r="Y91" s="10"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
       <c r="Z91" s="2"/>
       <c r="AA91" s="2"/>
       <c r="AB91" s="2"/>
@@ -5095,38 +5086,38 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
-      <c r="AG91" s="39"/>
-      <c r="AI91" s="40"/>
-      <c r="AJ91" s="40"/>
+      <c r="AG91" s="37"/>
+      <c r="AI91" s="2"/>
+      <c r="AJ91" s="2"/>
     </row>
     <row r="92" spans="1:36">
-      <c r="A92" s="9">
+      <c r="A92" s="8">
         <v>44609</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="10"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-      <c r="R92" s="10"/>
-      <c r="S92" s="10"/>
-      <c r="T92" s="10"/>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
-      <c r="X92" s="10"/>
-      <c r="Y92" s="10"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
+      <c r="S92" s="9"/>
+      <c r="T92" s="9"/>
+      <c r="U92" s="9"/>
+      <c r="V92" s="9"/>
+      <c r="W92" s="9"/>
+      <c r="X92" s="9"/>
+      <c r="Y92" s="9"/>
       <c r="Z92" s="2"/>
       <c r="AA92" s="2"/>
       <c r="AB92" s="2"/>
@@ -5134,38 +5125,38 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
-      <c r="AG92" s="39"/>
-      <c r="AI92" s="40"/>
-      <c r="AJ92" s="40"/>
+      <c r="AG92" s="37"/>
+      <c r="AI92" s="2"/>
+      <c r="AJ92" s="2"/>
     </row>
     <row r="93" spans="1:36">
-      <c r="A93" s="9">
+      <c r="A93" s="8">
         <v>44610</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="10"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
-      <c r="R93" s="10"/>
-      <c r="S93" s="10"/>
-      <c r="T93" s="10"/>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
-      <c r="X93" s="10"/>
-      <c r="Y93" s="10"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c r="L93" s="9"/>
+      <c r="M93" s="9"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
+      <c r="P93" s="9"/>
+      <c r="Q93" s="9"/>
+      <c r="R93" s="9"/>
+      <c r="S93" s="9"/>
+      <c r="T93" s="9"/>
+      <c r="U93" s="9"/>
+      <c r="V93" s="9"/>
+      <c r="W93" s="9"/>
+      <c r="X93" s="9"/>
+      <c r="Y93" s="9"/>
       <c r="Z93" s="2"/>
       <c r="AA93" s="2"/>
       <c r="AB93" s="2"/>
@@ -5173,38 +5164,38 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
-      <c r="AG93" s="39"/>
-      <c r="AI93" s="40"/>
-      <c r="AJ93" s="40"/>
+      <c r="AG93" s="37"/>
+      <c r="AI93" s="2"/>
+      <c r="AJ93" s="2"/>
     </row>
     <row r="94" spans="1:36">
-      <c r="A94" s="9">
+      <c r="A94" s="8">
         <v>44611</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
-      <c r="R94" s="10"/>
-      <c r="S94" s="10"/>
-      <c r="T94" s="10"/>
-      <c r="U94" s="10"/>
-      <c r="V94" s="10"/>
-      <c r="W94" s="10"/>
-      <c r="X94" s="10"/>
-      <c r="Y94" s="10"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
+      <c r="S94" s="9"/>
+      <c r="T94" s="9"/>
+      <c r="U94" s="9"/>
+      <c r="V94" s="9"/>
+      <c r="W94" s="9"/>
+      <c r="X94" s="9"/>
+      <c r="Y94" s="9"/>
       <c r="Z94" s="2"/>
       <c r="AA94" s="2"/>
       <c r="AB94" s="2"/>
@@ -5212,38 +5203,38 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
-      <c r="AG94" s="39"/>
-      <c r="AI94" s="40"/>
-      <c r="AJ94" s="40"/>
+      <c r="AG94" s="37"/>
+      <c r="AI94" s="2"/>
+      <c r="AJ94" s="2"/>
     </row>
     <row r="95" spans="1:36">
-      <c r="A95" s="9">
+      <c r="A95" s="8">
         <v>44612</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="10"/>
-      <c r="R95" s="10"/>
-      <c r="S95" s="10"/>
-      <c r="T95" s="10"/>
-      <c r="U95" s="10"/>
-      <c r="V95" s="10"/>
-      <c r="W95" s="10"/>
-      <c r="X95" s="10"/>
-      <c r="Y95" s="10"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
+      <c r="S95" s="9"/>
+      <c r="T95" s="9"/>
+      <c r="U95" s="9"/>
+      <c r="V95" s="9"/>
+      <c r="W95" s="9"/>
+      <c r="X95" s="9"/>
+      <c r="Y95" s="9"/>
       <c r="Z95" s="2"/>
       <c r="AA95" s="2"/>
       <c r="AB95" s="2"/>
@@ -5251,38 +5242,38 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
-      <c r="AG95" s="39"/>
-      <c r="AI95" s="40"/>
-      <c r="AJ95" s="40"/>
+      <c r="AG95" s="37"/>
+      <c r="AI95" s="2"/>
+      <c r="AJ95" s="2"/>
     </row>
     <row r="96" spans="1:36">
-      <c r="A96" s="9">
+      <c r="A96" s="8">
         <v>44613</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10"/>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="10"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="10"/>
-      <c r="R96" s="10"/>
-      <c r="S96" s="10"/>
-      <c r="T96" s="10"/>
-      <c r="U96" s="10"/>
-      <c r="V96" s="10"/>
-      <c r="W96" s="10"/>
-      <c r="X96" s="10"/>
-      <c r="Y96" s="10"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
+      <c r="S96" s="9"/>
+      <c r="T96" s="9"/>
+      <c r="U96" s="9"/>
+      <c r="V96" s="9"/>
+      <c r="W96" s="9"/>
+      <c r="X96" s="9"/>
+      <c r="Y96" s="9"/>
       <c r="Z96" s="2"/>
       <c r="AA96" s="2"/>
       <c r="AB96" s="2"/>
@@ -5290,38 +5281,38 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
-      <c r="AG96" s="39"/>
-      <c r="AI96" s="40"/>
-      <c r="AJ96" s="40"/>
+      <c r="AG96" s="37"/>
+      <c r="AI96" s="2"/>
+      <c r="AJ96" s="2"/>
     </row>
     <row r="97" spans="1:36">
-      <c r="A97" s="9">
+      <c r="A97" s="8">
         <v>44614</v>
       </c>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="10"/>
-      <c r="K97" s="10"/>
-      <c r="L97" s="10"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="10"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-      <c r="R97" s="10"/>
-      <c r="S97" s="10"/>
-      <c r="T97" s="10"/>
-      <c r="U97" s="10"/>
-      <c r="V97" s="10"/>
-      <c r="W97" s="10"/>
-      <c r="X97" s="10"/>
-      <c r="Y97" s="10"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
+      <c r="P97" s="9"/>
+      <c r="Q97" s="9"/>
+      <c r="R97" s="9"/>
+      <c r="S97" s="9"/>
+      <c r="T97" s="9"/>
+      <c r="U97" s="9"/>
+      <c r="V97" s="9"/>
+      <c r="W97" s="9"/>
+      <c r="X97" s="9"/>
+      <c r="Y97" s="9"/>
       <c r="Z97" s="2"/>
       <c r="AA97" s="2"/>
       <c r="AB97" s="2"/>
@@ -5329,38 +5320,38 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
-      <c r="AG97" s="39"/>
-      <c r="AI97" s="40"/>
-      <c r="AJ97" s="40"/>
+      <c r="AG97" s="37"/>
+      <c r="AI97" s="2"/>
+      <c r="AJ97" s="2"/>
     </row>
     <row r="98" spans="1:36">
-      <c r="A98" s="9">
+      <c r="A98" s="8">
         <v>44615</v>
       </c>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="10"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="10"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-      <c r="R98" s="10"/>
-      <c r="S98" s="10"/>
-      <c r="T98" s="10"/>
-      <c r="U98" s="10"/>
-      <c r="V98" s="10"/>
-      <c r="W98" s="10"/>
-      <c r="X98" s="10"/>
-      <c r="Y98" s="10"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
+      <c r="S98" s="9"/>
+      <c r="T98" s="9"/>
+      <c r="U98" s="9"/>
+      <c r="V98" s="9"/>
+      <c r="W98" s="9"/>
+      <c r="X98" s="9"/>
+      <c r="Y98" s="9"/>
       <c r="Z98" s="2"/>
       <c r="AA98" s="2"/>
       <c r="AB98" s="2"/>
@@ -5368,38 +5359,38 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
-      <c r="AG98" s="39"/>
-      <c r="AI98" s="40"/>
-      <c r="AJ98" s="40"/>
+      <c r="AG98" s="37"/>
+      <c r="AI98" s="2"/>
+      <c r="AJ98" s="2"/>
     </row>
     <row r="99" spans="1:36">
-      <c r="A99" s="9">
+      <c r="A99" s="8">
         <v>44616</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10"/>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="10"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
-      <c r="R99" s="10"/>
-      <c r="S99" s="10"/>
-      <c r="T99" s="10"/>
-      <c r="U99" s="10"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
-      <c r="X99" s="10"/>
-      <c r="Y99" s="10"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
+      <c r="S99" s="9"/>
+      <c r="T99" s="9"/>
+      <c r="U99" s="9"/>
+      <c r="V99" s="9"/>
+      <c r="W99" s="9"/>
+      <c r="X99" s="9"/>
+      <c r="Y99" s="9"/>
       <c r="Z99" s="2"/>
       <c r="AA99" s="2"/>
       <c r="AB99" s="2"/>
@@ -5407,38 +5398,38 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
-      <c r="AG99" s="39"/>
-      <c r="AI99" s="40"/>
-      <c r="AJ99" s="40"/>
+      <c r="AG99" s="37"/>
+      <c r="AI99" s="2"/>
+      <c r="AJ99" s="2"/>
     </row>
     <row r="100" spans="1:36">
-      <c r="A100" s="9">
+      <c r="A100" s="8">
         <v>44617</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-      <c r="T100" s="10"/>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
-      <c r="X100" s="10"/>
-      <c r="Y100" s="10"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
+      <c r="S100" s="9"/>
+      <c r="T100" s="9"/>
+      <c r="U100" s="9"/>
+      <c r="V100" s="9"/>
+      <c r="W100" s="9"/>
+      <c r="X100" s="9"/>
+      <c r="Y100" s="9"/>
       <c r="Z100" s="2"/>
       <c r="AA100" s="2"/>
       <c r="AB100" s="2"/>
@@ -5446,38 +5437,38 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
-      <c r="AG100" s="39"/>
-      <c r="AI100" s="40"/>
-      <c r="AJ100" s="40"/>
+      <c r="AG100" s="37"/>
+      <c r="AI100" s="2"/>
+      <c r="AJ100" s="2"/>
     </row>
     <row r="101" spans="1:36">
-      <c r="A101" s="9">
+      <c r="A101" s="8">
         <v>44618</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-      <c r="T101" s="10"/>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
-      <c r="X101" s="10"/>
-      <c r="Y101" s="10"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="9"/>
+      <c r="W101" s="9"/>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9"/>
       <c r="Z101" s="2"/>
       <c r="AA101" s="2"/>
       <c r="AB101" s="2"/>
@@ -5485,38 +5476,38 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
-      <c r="AG101" s="39"/>
-      <c r="AI101" s="40"/>
-      <c r="AJ101" s="40"/>
+      <c r="AG101" s="37"/>
+      <c r="AI101" s="2"/>
+      <c r="AJ101" s="2"/>
     </row>
     <row r="102" spans="1:36">
-      <c r="A102" s="9">
+      <c r="A102" s="8">
         <v>44619</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="10"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="10"/>
-      <c r="R102" s="10"/>
-      <c r="S102" s="10"/>
-      <c r="T102" s="10"/>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
-      <c r="X102" s="10"/>
-      <c r="Y102" s="10"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
+      <c r="S102" s="9"/>
+      <c r="T102" s="9"/>
+      <c r="U102" s="9"/>
+      <c r="V102" s="9"/>
+      <c r="W102" s="9"/>
+      <c r="X102" s="9"/>
+      <c r="Y102" s="9"/>
       <c r="Z102" s="2"/>
       <c r="AA102" s="2"/>
       <c r="AB102" s="2"/>
@@ -5524,38 +5515,38 @@
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
-      <c r="AG102" s="39"/>
-      <c r="AI102" s="40"/>
-      <c r="AJ102" s="40"/>
+      <c r="AG102" s="37"/>
+      <c r="AI102" s="2"/>
+      <c r="AJ102" s="2"/>
     </row>
     <row r="103" spans="1:36">
-      <c r="A103" s="9">
+      <c r="A103" s="8">
         <v>44620</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="10"/>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
-      <c r="Q103" s="10"/>
-      <c r="R103" s="10"/>
-      <c r="S103" s="10"/>
-      <c r="T103" s="10"/>
-      <c r="U103" s="10"/>
-      <c r="V103" s="10"/>
-      <c r="W103" s="10"/>
-      <c r="X103" s="10"/>
-      <c r="Y103" s="10"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
+      <c r="S103" s="9"/>
+      <c r="T103" s="9"/>
+      <c r="U103" s="9"/>
+      <c r="V103" s="9"/>
+      <c r="W103" s="9"/>
+      <c r="X103" s="9"/>
+      <c r="Y103" s="9"/>
       <c r="Z103" s="2"/>
       <c r="AA103" s="2"/>
       <c r="AB103" s="2"/>
@@ -5563,38 +5554,38 @@
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
-      <c r="AG103" s="39"/>
-      <c r="AI103" s="40"/>
-      <c r="AJ103" s="40"/>
+      <c r="AG103" s="37"/>
+      <c r="AI103" s="2"/>
+      <c r="AJ103" s="2"/>
     </row>
     <row r="104" spans="1:36">
-      <c r="A104" s="9">
+      <c r="A104" s="8">
         <v>44621</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="10"/>
-      <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
-      <c r="Q104" s="10"/>
-      <c r="R104" s="10"/>
-      <c r="S104" s="10"/>
-      <c r="T104" s="10"/>
-      <c r="U104" s="10"/>
-      <c r="V104" s="10"/>
-      <c r="W104" s="10"/>
-      <c r="X104" s="10"/>
-      <c r="Y104" s="10"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
+      <c r="S104" s="9"/>
+      <c r="T104" s="9"/>
+      <c r="U104" s="9"/>
+      <c r="V104" s="9"/>
+      <c r="W104" s="9"/>
+      <c r="X104" s="9"/>
+      <c r="Y104" s="9"/>
       <c r="Z104" s="2"/>
       <c r="AA104" s="2"/>
       <c r="AB104" s="2"/>
@@ -5602,38 +5593,38 @@
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
-      <c r="AG104" s="39"/>
-      <c r="AI104" s="40"/>
-      <c r="AJ104" s="40"/>
+      <c r="AG104" s="37"/>
+      <c r="AI104" s="2"/>
+      <c r="AJ104" s="2"/>
     </row>
     <row r="105" spans="1:36">
-      <c r="A105" s="9">
+      <c r="A105" s="8">
         <v>44622</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="10"/>
-      <c r="O105" s="10"/>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="10"/>
-      <c r="R105" s="10"/>
-      <c r="S105" s="10"/>
-      <c r="T105" s="10"/>
-      <c r="U105" s="10"/>
-      <c r="V105" s="10"/>
-      <c r="W105" s="10"/>
-      <c r="X105" s="10"/>
-      <c r="Y105" s="10"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="9"/>
+      <c r="M105" s="9"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="9"/>
+      <c r="T105" s="9"/>
+      <c r="U105" s="9"/>
+      <c r="V105" s="9"/>
+      <c r="W105" s="9"/>
+      <c r="X105" s="9"/>
+      <c r="Y105" s="9"/>
       <c r="Z105" s="2"/>
       <c r="AA105" s="2"/>
       <c r="AB105" s="2"/>
@@ -5641,38 +5632,38 @@
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
-      <c r="AG105" s="39"/>
-      <c r="AI105" s="40"/>
-      <c r="AJ105" s="40"/>
+      <c r="AG105" s="37"/>
+      <c r="AI105" s="2"/>
+      <c r="AJ105" s="2"/>
     </row>
     <row r="106" spans="1:36">
-      <c r="A106" s="9">
+      <c r="A106" s="8">
         <v>44623</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10"/>
-      <c r="G106" s="10"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10"/>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="10"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
-      <c r="X106" s="10"/>
-      <c r="Y106" s="10"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
+      <c r="V106" s="9"/>
+      <c r="W106" s="9"/>
+      <c r="X106" s="9"/>
+      <c r="Y106" s="9"/>
       <c r="Z106" s="2"/>
       <c r="AA106" s="2"/>
       <c r="AB106" s="2"/>
@@ -5680,38 +5671,38 @@
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
-      <c r="AG106" s="39"/>
-      <c r="AI106" s="40"/>
-      <c r="AJ106" s="40"/>
+      <c r="AG106" s="37"/>
+      <c r="AI106" s="2"/>
+      <c r="AJ106" s="2"/>
     </row>
     <row r="107" spans="1:36">
-      <c r="A107" s="9">
+      <c r="A107" s="8">
         <v>44624</v>
       </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="10"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="10"/>
-      <c r="G107" s="10"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10"/>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="10"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="10"/>
-      <c r="R107" s="10"/>
-      <c r="S107" s="10"/>
-      <c r="T107" s="10"/>
-      <c r="U107" s="10"/>
-      <c r="V107" s="10"/>
-      <c r="W107" s="10"/>
-      <c r="X107" s="10"/>
-      <c r="Y107" s="10"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
+      <c r="S107" s="9"/>
+      <c r="T107" s="9"/>
+      <c r="U107" s="9"/>
+      <c r="V107" s="9"/>
+      <c r="W107" s="9"/>
+      <c r="X107" s="9"/>
+      <c r="Y107" s="9"/>
       <c r="Z107" s="2"/>
       <c r="AA107" s="2"/>
       <c r="AB107" s="2"/>
@@ -5719,38 +5710,38 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
-      <c r="AG107" s="39"/>
-      <c r="AI107" s="40"/>
-      <c r="AJ107" s="40"/>
+      <c r="AG107" s="37"/>
+      <c r="AI107" s="2"/>
+      <c r="AJ107" s="2"/>
     </row>
     <row r="108" spans="1:36">
-      <c r="A108" s="9">
+      <c r="A108" s="8">
         <v>44625</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-      <c r="R108" s="10"/>
-      <c r="S108" s="10"/>
-      <c r="T108" s="10"/>
-      <c r="U108" s="10"/>
-      <c r="V108" s="10"/>
-      <c r="W108" s="10"/>
-      <c r="X108" s="10"/>
-      <c r="Y108" s="10"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
+      <c r="S108" s="9"/>
+      <c r="T108" s="9"/>
+      <c r="U108" s="9"/>
+      <c r="V108" s="9"/>
+      <c r="W108" s="9"/>
+      <c r="X108" s="9"/>
+      <c r="Y108" s="9"/>
       <c r="Z108" s="2"/>
       <c r="AA108" s="2"/>
       <c r="AB108" s="2"/>
@@ -5758,38 +5749,38 @@
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
-      <c r="AG108" s="39"/>
-      <c r="AI108" s="40"/>
-      <c r="AJ108" s="40"/>
+      <c r="AG108" s="37"/>
+      <c r="AI108" s="2"/>
+      <c r="AJ108" s="2"/>
     </row>
     <row r="109" spans="1:36">
-      <c r="A109" s="9">
+      <c r="A109" s="8">
         <v>44626</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10"/>
-      <c r="G109" s="10"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10"/>
-      <c r="L109" s="10"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="10"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-      <c r="R109" s="10"/>
-      <c r="S109" s="10"/>
-      <c r="T109" s="10"/>
-      <c r="U109" s="10"/>
-      <c r="V109" s="10"/>
-      <c r="W109" s="10"/>
-      <c r="X109" s="10"/>
-      <c r="Y109" s="10"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c r="L109" s="9"/>
+      <c r="M109" s="9"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
+      <c r="P109" s="9"/>
+      <c r="Q109" s="9"/>
+      <c r="R109" s="9"/>
+      <c r="S109" s="9"/>
+      <c r="T109" s="9"/>
+      <c r="U109" s="9"/>
+      <c r="V109" s="9"/>
+      <c r="W109" s="9"/>
+      <c r="X109" s="9"/>
+      <c r="Y109" s="9"/>
       <c r="Z109" s="2"/>
       <c r="AA109" s="2"/>
       <c r="AB109" s="2"/>
@@ -5797,38 +5788,38 @@
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
-      <c r="AG109" s="39"/>
-      <c r="AI109" s="40"/>
-      <c r="AJ109" s="40"/>
+      <c r="AG109" s="37"/>
+      <c r="AI109" s="2"/>
+      <c r="AJ109" s="2"/>
     </row>
     <row r="110" spans="1:36">
-      <c r="A110" s="9">
+      <c r="A110" s="8">
         <v>44627</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="10"/>
-      <c r="W110" s="10"/>
-      <c r="X110" s="10"/>
-      <c r="Y110" s="10"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
+      <c r="S110" s="9"/>
+      <c r="T110" s="9"/>
+      <c r="U110" s="9"/>
+      <c r="V110" s="9"/>
+      <c r="W110" s="9"/>
+      <c r="X110" s="9"/>
+      <c r="Y110" s="9"/>
       <c r="Z110" s="2"/>
       <c r="AA110" s="2"/>
       <c r="AB110" s="2"/>
@@ -5836,38 +5827,38 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
-      <c r="AG110" s="39"/>
-      <c r="AI110" s="40"/>
-      <c r="AJ110" s="40"/>
+      <c r="AG110" s="37"/>
+      <c r="AI110" s="2"/>
+      <c r="AJ110" s="2"/>
     </row>
     <row r="111" spans="1:36">
-      <c r="A111" s="9">
+      <c r="A111" s="8">
         <v>44628</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10"/>
-      <c r="G111" s="10"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="10"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="10"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="10"/>
-      <c r="Q111" s="10"/>
-      <c r="R111" s="10"/>
-      <c r="S111" s="10"/>
-      <c r="T111" s="10"/>
-      <c r="U111" s="10"/>
-      <c r="V111" s="10"/>
-      <c r="W111" s="10"/>
-      <c r="X111" s="10"/>
-      <c r="Y111" s="10"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
+      <c r="S111" s="9"/>
+      <c r="T111" s="9"/>
+      <c r="U111" s="9"/>
+      <c r="V111" s="9"/>
+      <c r="W111" s="9"/>
+      <c r="X111" s="9"/>
+      <c r="Y111" s="9"/>
       <c r="Z111" s="2"/>
       <c r="AA111" s="2"/>
       <c r="AB111" s="2"/>
@@ -5875,38 +5866,38 @@
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
-      <c r="AG111" s="39"/>
-      <c r="AI111" s="40"/>
-      <c r="AJ111" s="40"/>
+      <c r="AG111" s="37"/>
+      <c r="AI111" s="2"/>
+      <c r="AJ111" s="2"/>
     </row>
     <row r="112" spans="1:36">
-      <c r="A112" s="9">
+      <c r="A112" s="8">
         <v>44629</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="10"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="10"/>
-      <c r="O112" s="10"/>
-      <c r="P112" s="10"/>
-      <c r="Q112" s="10"/>
-      <c r="R112" s="10"/>
-      <c r="S112" s="10"/>
-      <c r="T112" s="10"/>
-      <c r="U112" s="10"/>
-      <c r="V112" s="10"/>
-      <c r="W112" s="10"/>
-      <c r="X112" s="10"/>
-      <c r="Y112" s="10"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
+      <c r="S112" s="9"/>
+      <c r="T112" s="9"/>
+      <c r="U112" s="9"/>
+      <c r="V112" s="9"/>
+      <c r="W112" s="9"/>
+      <c r="X112" s="9"/>
+      <c r="Y112" s="9"/>
       <c r="Z112" s="2"/>
       <c r="AA112" s="2"/>
       <c r="AB112" s="2"/>
@@ -5914,38 +5905,38 @@
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
-      <c r="AG112" s="39"/>
-      <c r="AI112" s="40"/>
-      <c r="AJ112" s="40"/>
+      <c r="AG112" s="37"/>
+      <c r="AI112" s="2"/>
+      <c r="AJ112" s="2"/>
     </row>
     <row r="113" spans="1:36">
-      <c r="A113" s="9">
+      <c r="A113" s="8">
         <v>44630</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="10"/>
-      <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" s="10"/>
-      <c r="R113" s="10"/>
-      <c r="S113" s="10"/>
-      <c r="T113" s="10"/>
-      <c r="U113" s="10"/>
-      <c r="V113" s="10"/>
-      <c r="W113" s="10"/>
-      <c r="X113" s="10"/>
-      <c r="Y113" s="10"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c r="L113" s="9"/>
+      <c r="M113" s="9"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
+      <c r="P113" s="9"/>
+      <c r="Q113" s="9"/>
+      <c r="R113" s="9"/>
+      <c r="S113" s="9"/>
+      <c r="T113" s="9"/>
+      <c r="U113" s="9"/>
+      <c r="V113" s="9"/>
+      <c r="W113" s="9"/>
+      <c r="X113" s="9"/>
+      <c r="Y113" s="9"/>
       <c r="Z113" s="2"/>
       <c r="AA113" s="2"/>
       <c r="AB113" s="2"/>
@@ -5953,38 +5944,38 @@
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
-      <c r="AG113" s="39"/>
-      <c r="AI113" s="40"/>
-      <c r="AJ113" s="40"/>
+      <c r="AG113" s="37"/>
+      <c r="AI113" s="2"/>
+      <c r="AJ113" s="2"/>
     </row>
     <row r="114" spans="1:36">
-      <c r="A114" s="9">
+      <c r="A114" s="8">
         <v>44631</v>
       </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="10"/>
-      <c r="G114" s="10"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="10"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="10"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" s="10"/>
-      <c r="R114" s="10"/>
-      <c r="S114" s="10"/>
-      <c r="T114" s="10"/>
-      <c r="U114" s="10"/>
-      <c r="V114" s="10"/>
-      <c r="W114" s="10"/>
-      <c r="X114" s="10"/>
-      <c r="Y114" s="10"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
+      <c r="S114" s="9"/>
+      <c r="T114" s="9"/>
+      <c r="U114" s="9"/>
+      <c r="V114" s="9"/>
+      <c r="W114" s="9"/>
+      <c r="X114" s="9"/>
+      <c r="Y114" s="9"/>
       <c r="Z114" s="2"/>
       <c r="AA114" s="2"/>
       <c r="AB114" s="2"/>
@@ -5992,38 +5983,38 @@
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
-      <c r="AG114" s="39"/>
-      <c r="AI114" s="40"/>
-      <c r="AJ114" s="40"/>
+      <c r="AG114" s="37"/>
+      <c r="AI114" s="2"/>
+      <c r="AJ114" s="2"/>
     </row>
     <row r="115" spans="1:36">
-      <c r="A115" s="9">
+      <c r="A115" s="8">
         <v>44632</v>
       </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
-      <c r="G115" s="10"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="10"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="10"/>
-      <c r="O115" s="10"/>
-      <c r="P115" s="10"/>
-      <c r="Q115" s="10"/>
-      <c r="R115" s="10"/>
-      <c r="S115" s="10"/>
-      <c r="T115" s="10"/>
-      <c r="U115" s="10"/>
-      <c r="V115" s="10"/>
-      <c r="W115" s="10"/>
-      <c r="X115" s="10"/>
-      <c r="Y115" s="10"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
+      <c r="S115" s="9"/>
+      <c r="T115" s="9"/>
+      <c r="U115" s="9"/>
+      <c r="V115" s="9"/>
+      <c r="W115" s="9"/>
+      <c r="X115" s="9"/>
+      <c r="Y115" s="9"/>
       <c r="Z115" s="2"/>
       <c r="AA115" s="2"/>
       <c r="AB115" s="2"/>
@@ -6031,38 +6022,38 @@
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
-      <c r="AG115" s="39"/>
-      <c r="AI115" s="40"/>
-      <c r="AJ115" s="40"/>
+      <c r="AG115" s="37"/>
+      <c r="AI115" s="2"/>
+      <c r="AJ115" s="2"/>
     </row>
     <row r="116" spans="1:36">
-      <c r="A116" s="9">
+      <c r="A116" s="8">
         <v>44633</v>
       </c>
-      <c r="B116" s="10"/>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="10"/>
-      <c r="G116" s="10"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="10"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="10"/>
-      <c r="O116" s="10"/>
-      <c r="P116" s="10"/>
-      <c r="Q116" s="10"/>
-      <c r="R116" s="10"/>
-      <c r="S116" s="10"/>
-      <c r="T116" s="10"/>
-      <c r="U116" s="10"/>
-      <c r="V116" s="10"/>
-      <c r="W116" s="10"/>
-      <c r="X116" s="10"/>
-      <c r="Y116" s="10"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
+      <c r="S116" s="9"/>
+      <c r="T116" s="9"/>
+      <c r="U116" s="9"/>
+      <c r="V116" s="9"/>
+      <c r="W116" s="9"/>
+      <c r="X116" s="9"/>
+      <c r="Y116" s="9"/>
       <c r="Z116" s="2"/>
       <c r="AA116" s="2"/>
       <c r="AB116" s="2"/>
@@ -6070,38 +6061,38 @@
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
-      <c r="AG116" s="39"/>
-      <c r="AI116" s="40"/>
-      <c r="AJ116" s="40"/>
+      <c r="AG116" s="37"/>
+      <c r="AI116" s="2"/>
+      <c r="AJ116" s="2"/>
     </row>
     <row r="117" spans="1:36">
-      <c r="A117" s="9">
+      <c r="A117" s="8">
         <v>44634</v>
       </c>
-      <c r="B117" s="10"/>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="10"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="10"/>
-      <c r="L117" s="10"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="10"/>
-      <c r="O117" s="10"/>
-      <c r="P117" s="10"/>
-      <c r="Q117" s="10"/>
-      <c r="R117" s="10"/>
-      <c r="S117" s="10"/>
-      <c r="T117" s="10"/>
-      <c r="U117" s="10"/>
-      <c r="V117" s="10"/>
-      <c r="W117" s="10"/>
-      <c r="X117" s="10"/>
-      <c r="Y117" s="10"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c r="L117" s="9"/>
+      <c r="M117" s="9"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
+      <c r="P117" s="9"/>
+      <c r="Q117" s="9"/>
+      <c r="R117" s="9"/>
+      <c r="S117" s="9"/>
+      <c r="T117" s="9"/>
+      <c r="U117" s="9"/>
+      <c r="V117" s="9"/>
+      <c r="W117" s="9"/>
+      <c r="X117" s="9"/>
+      <c r="Y117" s="9"/>
       <c r="Z117" s="2"/>
       <c r="AA117" s="2"/>
       <c r="AB117" s="2"/>
@@ -6109,38 +6100,38 @@
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
-      <c r="AG117" s="39"/>
-      <c r="AI117" s="40"/>
-      <c r="AJ117" s="40"/>
+      <c r="AG117" s="37"/>
+      <c r="AI117" s="2"/>
+      <c r="AJ117" s="2"/>
     </row>
     <row r="118" spans="1:36">
-      <c r="A118" s="9">
+      <c r="A118" s="8">
         <v>44635</v>
       </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="10"/>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="10"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="10"/>
-      <c r="O118" s="10"/>
-      <c r="P118" s="10"/>
-      <c r="Q118" s="10"/>
-      <c r="R118" s="10"/>
-      <c r="S118" s="10"/>
-      <c r="T118" s="10"/>
-      <c r="U118" s="10"/>
-      <c r="V118" s="10"/>
-      <c r="W118" s="10"/>
-      <c r="X118" s="10"/>
-      <c r="Y118" s="10"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
+      <c r="S118" s="9"/>
+      <c r="T118" s="9"/>
+      <c r="U118" s="9"/>
+      <c r="V118" s="9"/>
+      <c r="W118" s="9"/>
+      <c r="X118" s="9"/>
+      <c r="Y118" s="9"/>
       <c r="Z118" s="2"/>
       <c r="AA118" s="2"/>
       <c r="AB118" s="2"/>
@@ -6148,38 +6139,38 @@
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
-      <c r="AG118" s="39"/>
-      <c r="AI118" s="40"/>
-      <c r="AJ118" s="40"/>
+      <c r="AG118" s="37"/>
+      <c r="AI118" s="2"/>
+      <c r="AJ118" s="2"/>
     </row>
     <row r="119" spans="1:36">
-      <c r="A119" s="9">
+      <c r="A119" s="8">
         <v>44636</v>
       </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="10"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="10"/>
-      <c r="O119" s="10"/>
-      <c r="P119" s="10"/>
-      <c r="Q119" s="10"/>
-      <c r="R119" s="10"/>
-      <c r="S119" s="10"/>
-      <c r="T119" s="10"/>
-      <c r="U119" s="10"/>
-      <c r="V119" s="10"/>
-      <c r="W119" s="10"/>
-      <c r="X119" s="10"/>
-      <c r="Y119" s="10"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
+      <c r="S119" s="9"/>
+      <c r="T119" s="9"/>
+      <c r="U119" s="9"/>
+      <c r="V119" s="9"/>
+      <c r="W119" s="9"/>
+      <c r="X119" s="9"/>
+      <c r="Y119" s="9"/>
       <c r="Z119" s="2"/>
       <c r="AA119" s="2"/>
       <c r="AB119" s="2"/>
@@ -6187,38 +6178,38 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
-      <c r="AG119" s="39"/>
-      <c r="AI119" s="40"/>
-      <c r="AJ119" s="40"/>
+      <c r="AG119" s="37"/>
+      <c r="AI119" s="2"/>
+      <c r="AJ119" s="2"/>
     </row>
     <row r="120" spans="1:36">
-      <c r="A120" s="9">
+      <c r="A120" s="8">
         <v>44637</v>
       </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10"/>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="10"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="10"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
-      <c r="Q120" s="10"/>
-      <c r="R120" s="10"/>
-      <c r="S120" s="10"/>
-      <c r="T120" s="10"/>
-      <c r="U120" s="10"/>
-      <c r="V120" s="10"/>
-      <c r="W120" s="10"/>
-      <c r="X120" s="10"/>
-      <c r="Y120" s="10"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
+      <c r="S120" s="9"/>
+      <c r="T120" s="9"/>
+      <c r="U120" s="9"/>
+      <c r="V120" s="9"/>
+      <c r="W120" s="9"/>
+      <c r="X120" s="9"/>
+      <c r="Y120" s="9"/>
       <c r="Z120" s="2"/>
       <c r="AA120" s="2"/>
       <c r="AB120" s="2"/>
@@ -6226,38 +6217,38 @@
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
-      <c r="AG120" s="39"/>
-      <c r="AI120" s="40"/>
-      <c r="AJ120" s="40"/>
+      <c r="AG120" s="37"/>
+      <c r="AI120" s="2"/>
+      <c r="AJ120" s="2"/>
     </row>
     <row r="121" spans="1:36">
-      <c r="A121" s="9">
+      <c r="A121" s="8">
         <v>44638</v>
       </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="10"/>
-      <c r="G121" s="10"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="10"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="10"/>
-      <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
-      <c r="Q121" s="10"/>
-      <c r="R121" s="10"/>
-      <c r="S121" s="10"/>
-      <c r="T121" s="10"/>
-      <c r="U121" s="10"/>
-      <c r="V121" s="10"/>
-      <c r="W121" s="10"/>
-      <c r="X121" s="10"/>
-      <c r="Y121" s="10"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="9"/>
+      <c r="Q121" s="9"/>
+      <c r="R121" s="9"/>
+      <c r="S121" s="9"/>
+      <c r="T121" s="9"/>
+      <c r="U121" s="9"/>
+      <c r="V121" s="9"/>
+      <c r="W121" s="9"/>
+      <c r="X121" s="9"/>
+      <c r="Y121" s="9"/>
       <c r="Z121" s="2"/>
       <c r="AA121" s="2"/>
       <c r="AB121" s="2"/>
@@ -6265,38 +6256,38 @@
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
-      <c r="AG121" s="39"/>
-      <c r="AI121" s="40"/>
-      <c r="AJ121" s="40"/>
+      <c r="AG121" s="37"/>
+      <c r="AI121" s="2"/>
+      <c r="AJ121" s="2"/>
     </row>
     <row r="122" spans="1:36">
-      <c r="A122" s="9">
+      <c r="A122" s="8">
         <v>44639</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="10"/>
-      <c r="D122" s="10"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="10"/>
-      <c r="G122" s="10"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="10"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="10"/>
-      <c r="O122" s="10"/>
-      <c r="P122" s="10"/>
-      <c r="Q122" s="10"/>
-      <c r="R122" s="10"/>
-      <c r="S122" s="10"/>
-      <c r="T122" s="10"/>
-      <c r="U122" s="10"/>
-      <c r="V122" s="10"/>
-      <c r="W122" s="10"/>
-      <c r="X122" s="10"/>
-      <c r="Y122" s="10"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="9"/>
+      <c r="K122" s="9"/>
+      <c r="L122" s="9"/>
+      <c r="M122" s="9"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
+      <c r="P122" s="9"/>
+      <c r="Q122" s="9"/>
+      <c r="R122" s="9"/>
+      <c r="S122" s="9"/>
+      <c r="T122" s="9"/>
+      <c r="U122" s="9"/>
+      <c r="V122" s="9"/>
+      <c r="W122" s="9"/>
+      <c r="X122" s="9"/>
+      <c r="Y122" s="9"/>
       <c r="Z122" s="2"/>
       <c r="AA122" s="2"/>
       <c r="AB122" s="2"/>
@@ -6304,38 +6295,38 @@
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
-      <c r="AG122" s="39"/>
-      <c r="AI122" s="40"/>
-      <c r="AJ122" s="40"/>
+      <c r="AG122" s="37"/>
+      <c r="AI122" s="2"/>
+      <c r="AJ122" s="2"/>
     </row>
     <row r="123" spans="1:36">
-      <c r="A123" s="9">
+      <c r="A123" s="8">
         <v>44640</v>
       </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="10"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="10"/>
-      <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
-      <c r="Q123" s="10"/>
-      <c r="R123" s="10"/>
-      <c r="S123" s="10"/>
-      <c r="T123" s="10"/>
-      <c r="U123" s="10"/>
-      <c r="V123" s="10"/>
-      <c r="W123" s="10"/>
-      <c r="X123" s="10"/>
-      <c r="Y123" s="10"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="9"/>
+      <c r="K123" s="9"/>
+      <c r="L123" s="9"/>
+      <c r="M123" s="9"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
+      <c r="P123" s="9"/>
+      <c r="Q123" s="9"/>
+      <c r="R123" s="9"/>
+      <c r="S123" s="9"/>
+      <c r="T123" s="9"/>
+      <c r="U123" s="9"/>
+      <c r="V123" s="9"/>
+      <c r="W123" s="9"/>
+      <c r="X123" s="9"/>
+      <c r="Y123" s="9"/>
       <c r="Z123" s="2"/>
       <c r="AA123" s="2"/>
       <c r="AB123" s="2"/>
@@ -6343,38 +6334,38 @@
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
-      <c r="AG123" s="39"/>
-      <c r="AI123" s="40"/>
-      <c r="AJ123" s="40"/>
+      <c r="AG123" s="37"/>
+      <c r="AI123" s="2"/>
+      <c r="AJ123" s="2"/>
     </row>
     <row r="124" spans="1:36">
-      <c r="A124" s="9">
+      <c r="A124" s="8">
         <v>44641</v>
       </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="10"/>
-      <c r="D124" s="10"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
-      <c r="Q124" s="10"/>
-      <c r="R124" s="10"/>
-      <c r="S124" s="10"/>
-      <c r="T124" s="10"/>
-      <c r="U124" s="10"/>
-      <c r="V124" s="10"/>
-      <c r="W124" s="10"/>
-      <c r="X124" s="10"/>
-      <c r="Y124" s="10"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
+      <c r="P124" s="9"/>
+      <c r="Q124" s="9"/>
+      <c r="R124" s="9"/>
+      <c r="S124" s="9"/>
+      <c r="T124" s="9"/>
+      <c r="U124" s="9"/>
+      <c r="V124" s="9"/>
+      <c r="W124" s="9"/>
+      <c r="X124" s="9"/>
+      <c r="Y124" s="9"/>
       <c r="Z124" s="2"/>
       <c r="AA124" s="2"/>
       <c r="AB124" s="2"/>
@@ -6382,38 +6373,38 @@
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
-      <c r="AG124" s="39"/>
-      <c r="AI124" s="40"/>
-      <c r="AJ124" s="40"/>
+      <c r="AG124" s="37"/>
+      <c r="AI124" s="2"/>
+      <c r="AJ124" s="2"/>
     </row>
     <row r="125" spans="1:36">
-      <c r="A125" s="9">
+      <c r="A125" s="8">
         <v>44642</v>
       </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
-      <c r="Q125" s="10"/>
-      <c r="R125" s="10"/>
-      <c r="S125" s="10"/>
-      <c r="T125" s="10"/>
-      <c r="U125" s="10"/>
-      <c r="V125" s="10"/>
-      <c r="W125" s="10"/>
-      <c r="X125" s="10"/>
-      <c r="Y125" s="10"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="9"/>
+      <c r="L125" s="9"/>
+      <c r="M125" s="9"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
+      <c r="P125" s="9"/>
+      <c r="Q125" s="9"/>
+      <c r="R125" s="9"/>
+      <c r="S125" s="9"/>
+      <c r="T125" s="9"/>
+      <c r="U125" s="9"/>
+      <c r="V125" s="9"/>
+      <c r="W125" s="9"/>
+      <c r="X125" s="9"/>
+      <c r="Y125" s="9"/>
       <c r="Z125" s="2"/>
       <c r="AA125" s="2"/>
       <c r="AB125" s="2"/>
@@ -6421,38 +6412,38 @@
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
-      <c r="AG125" s="39"/>
-      <c r="AI125" s="40"/>
-      <c r="AJ125" s="40"/>
+      <c r="AG125" s="37"/>
+      <c r="AI125" s="2"/>
+      <c r="AJ125" s="2"/>
     </row>
     <row r="126" spans="1:36">
-      <c r="A126" s="9">
+      <c r="A126" s="8">
         <v>44643</v>
       </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="10"/>
-      <c r="G126" s="10"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="10"/>
-      <c r="M126" s="10"/>
-      <c r="N126" s="10"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="10"/>
-      <c r="Q126" s="10"/>
-      <c r="R126" s="10"/>
-      <c r="S126" s="10"/>
-      <c r="T126" s="10"/>
-      <c r="U126" s="10"/>
-      <c r="V126" s="10"/>
-      <c r="W126" s="10"/>
-      <c r="X126" s="10"/>
-      <c r="Y126" s="10"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="9"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="9"/>
+      <c r="L126" s="9"/>
+      <c r="M126" s="9"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
+      <c r="P126" s="9"/>
+      <c r="Q126" s="9"/>
+      <c r="R126" s="9"/>
+      <c r="S126" s="9"/>
+      <c r="T126" s="9"/>
+      <c r="U126" s="9"/>
+      <c r="V126" s="9"/>
+      <c r="W126" s="9"/>
+      <c r="X126" s="9"/>
+      <c r="Y126" s="9"/>
       <c r="Z126" s="2"/>
       <c r="AA126" s="2"/>
       <c r="AB126" s="2"/>
@@ -6460,38 +6451,38 @@
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
-      <c r="AG126" s="39"/>
-      <c r="AI126" s="40"/>
-      <c r="AJ126" s="40"/>
+      <c r="AG126" s="37"/>
+      <c r="AI126" s="2"/>
+      <c r="AJ126" s="2"/>
     </row>
     <row r="127" spans="1:36">
-      <c r="A127" s="9">
+      <c r="A127" s="8">
         <v>44644</v>
       </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="10"/>
-      <c r="D127" s="10"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="10"/>
-      <c r="G127" s="10"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="10"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="10"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
-      <c r="Q127" s="10"/>
-      <c r="R127" s="10"/>
-      <c r="S127" s="10"/>
-      <c r="T127" s="10"/>
-      <c r="U127" s="10"/>
-      <c r="V127" s="10"/>
-      <c r="W127" s="10"/>
-      <c r="X127" s="10"/>
-      <c r="Y127" s="10"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="9"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="9"/>
+      <c r="L127" s="9"/>
+      <c r="M127" s="9"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
+      <c r="P127" s="9"/>
+      <c r="Q127" s="9"/>
+      <c r="R127" s="9"/>
+      <c r="S127" s="9"/>
+      <c r="T127" s="9"/>
+      <c r="U127" s="9"/>
+      <c r="V127" s="9"/>
+      <c r="W127" s="9"/>
+      <c r="X127" s="9"/>
+      <c r="Y127" s="9"/>
       <c r="Z127" s="2"/>
       <c r="AA127" s="2"/>
       <c r="AB127" s="2"/>
@@ -6499,38 +6490,38 @@
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
-      <c r="AG127" s="39"/>
-      <c r="AI127" s="40"/>
-      <c r="AJ127" s="40"/>
+      <c r="AG127" s="37"/>
+      <c r="AI127" s="2"/>
+      <c r="AJ127" s="2"/>
     </row>
     <row r="128" spans="1:36">
-      <c r="A128" s="9">
+      <c r="A128" s="8">
         <v>44645</v>
       </c>
-      <c r="B128" s="10"/>
-      <c r="C128" s="10"/>
-      <c r="D128" s="10"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10"/>
-      <c r="G128" s="10"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="10"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="10"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
-      <c r="Q128" s="10"/>
-      <c r="R128" s="10"/>
-      <c r="S128" s="10"/>
-      <c r="T128" s="10"/>
-      <c r="U128" s="10"/>
-      <c r="V128" s="10"/>
-      <c r="W128" s="10"/>
-      <c r="X128" s="10"/>
-      <c r="Y128" s="10"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
+      <c r="P128" s="9"/>
+      <c r="Q128" s="9"/>
+      <c r="R128" s="9"/>
+      <c r="S128" s="9"/>
+      <c r="T128" s="9"/>
+      <c r="U128" s="9"/>
+      <c r="V128" s="9"/>
+      <c r="W128" s="9"/>
+      <c r="X128" s="9"/>
+      <c r="Y128" s="9"/>
       <c r="Z128" s="2"/>
       <c r="AA128" s="2"/>
       <c r="AB128" s="2"/>
@@ -6538,38 +6529,38 @@
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
-      <c r="AG128" s="39"/>
-      <c r="AI128" s="40"/>
-      <c r="AJ128" s="40"/>
+      <c r="AG128" s="37"/>
+      <c r="AI128" s="2"/>
+      <c r="AJ128" s="2"/>
     </row>
     <row r="129" spans="1:36">
-      <c r="A129" s="9">
+      <c r="A129" s="8">
         <v>44646</v>
       </c>
-      <c r="B129" s="10"/>
-      <c r="C129" s="10"/>
-      <c r="D129" s="10"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="10"/>
-      <c r="G129" s="10"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
-      <c r="Q129" s="10"/>
-      <c r="R129" s="10"/>
-      <c r="S129" s="10"/>
-      <c r="T129" s="10"/>
-      <c r="U129" s="10"/>
-      <c r="V129" s="10"/>
-      <c r="W129" s="10"/>
-      <c r="X129" s="10"/>
-      <c r="Y129" s="10"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="9"/>
+      <c r="L129" s="9"/>
+      <c r="M129" s="9"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
+      <c r="P129" s="9"/>
+      <c r="Q129" s="9"/>
+      <c r="R129" s="9"/>
+      <c r="S129" s="9"/>
+      <c r="T129" s="9"/>
+      <c r="U129" s="9"/>
+      <c r="V129" s="9"/>
+      <c r="W129" s="9"/>
+      <c r="X129" s="9"/>
+      <c r="Y129" s="9"/>
       <c r="Z129" s="2"/>
       <c r="AA129" s="2"/>
       <c r="AB129" s="2"/>
@@ -6577,38 +6568,38 @@
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
-      <c r="AG129" s="39"/>
-      <c r="AI129" s="40"/>
-      <c r="AJ129" s="40"/>
+      <c r="AG129" s="37"/>
+      <c r="AI129" s="2"/>
+      <c r="AJ129" s="2"/>
     </row>
     <row r="130" spans="1:36">
-      <c r="A130" s="9">
+      <c r="A130" s="8">
         <v>44647</v>
       </c>
-      <c r="B130" s="10"/>
-      <c r="C130" s="10"/>
-      <c r="D130" s="10"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10"/>
-      <c r="G130" s="10"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="10"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="10"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
-      <c r="Q130" s="10"/>
-      <c r="R130" s="10"/>
-      <c r="S130" s="10"/>
-      <c r="T130" s="10"/>
-      <c r="U130" s="10"/>
-      <c r="V130" s="10"/>
-      <c r="W130" s="10"/>
-      <c r="X130" s="10"/>
-      <c r="Y130" s="10"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="9"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c r="L130" s="9"/>
+      <c r="M130" s="9"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
+      <c r="P130" s="9"/>
+      <c r="Q130" s="9"/>
+      <c r="R130" s="9"/>
+      <c r="S130" s="9"/>
+      <c r="T130" s="9"/>
+      <c r="U130" s="9"/>
+      <c r="V130" s="9"/>
+      <c r="W130" s="9"/>
+      <c r="X130" s="9"/>
+      <c r="Y130" s="9"/>
       <c r="Z130" s="2"/>
       <c r="AA130" s="2"/>
       <c r="AB130" s="2"/>
@@ -6616,38 +6607,38 @@
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
-      <c r="AG130" s="39"/>
-      <c r="AI130" s="40"/>
-      <c r="AJ130" s="40"/>
+      <c r="AG130" s="37"/>
+      <c r="AI130" s="2"/>
+      <c r="AJ130" s="2"/>
     </row>
     <row r="131" spans="1:36">
-      <c r="A131" s="9">
+      <c r="A131" s="8">
         <v>44648</v>
       </c>
-      <c r="B131" s="10"/>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10"/>
-      <c r="F131" s="10"/>
-      <c r="G131" s="10"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="10"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="10"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-      <c r="R131" s="10"/>
-      <c r="S131" s="10"/>
-      <c r="T131" s="10"/>
-      <c r="U131" s="10"/>
-      <c r="V131" s="10"/>
-      <c r="W131" s="10"/>
-      <c r="X131" s="10"/>
-      <c r="Y131" s="10"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="9"/>
+      <c r="G131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="9"/>
+      <c r="L131" s="9"/>
+      <c r="M131" s="9"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
+      <c r="P131" s="9"/>
+      <c r="Q131" s="9"/>
+      <c r="R131" s="9"/>
+      <c r="S131" s="9"/>
+      <c r="T131" s="9"/>
+      <c r="U131" s="9"/>
+      <c r="V131" s="9"/>
+      <c r="W131" s="9"/>
+      <c r="X131" s="9"/>
+      <c r="Y131" s="9"/>
       <c r="Z131" s="2"/>
       <c r="AA131" s="2"/>
       <c r="AB131" s="2"/>
@@ -6655,38 +6646,38 @@
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
-      <c r="AG131" s="39"/>
-      <c r="AI131" s="40"/>
-      <c r="AJ131" s="40"/>
+      <c r="AG131" s="37"/>
+      <c r="AI131" s="2"/>
+      <c r="AJ131" s="2"/>
     </row>
     <row r="132" spans="1:36">
-      <c r="A132" s="9">
+      <c r="A132" s="8">
         <v>44649</v>
       </c>
-      <c r="B132" s="10"/>
-      <c r="C132" s="10"/>
-      <c r="D132" s="10"/>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
-      <c r="G132" s="10"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="10"/>
-      <c r="K132" s="10"/>
-      <c r="L132" s="10"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="10"/>
-      <c r="O132" s="10"/>
-      <c r="P132" s="10"/>
-      <c r="Q132" s="10"/>
-      <c r="R132" s="10"/>
-      <c r="S132" s="10"/>
-      <c r="T132" s="10"/>
-      <c r="U132" s="10"/>
-      <c r="V132" s="10"/>
-      <c r="W132" s="10"/>
-      <c r="X132" s="10"/>
-      <c r="Y132" s="10"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
+      <c r="K132" s="9"/>
+      <c r="L132" s="9"/>
+      <c r="M132" s="9"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
+      <c r="P132" s="9"/>
+      <c r="Q132" s="9"/>
+      <c r="R132" s="9"/>
+      <c r="S132" s="9"/>
+      <c r="T132" s="9"/>
+      <c r="U132" s="9"/>
+      <c r="V132" s="9"/>
+      <c r="W132" s="9"/>
+      <c r="X132" s="9"/>
+      <c r="Y132" s="9"/>
       <c r="Z132" s="2"/>
       <c r="AA132" s="2"/>
       <c r="AB132" s="2"/>
@@ -6694,9 +6685,9 @@
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
-      <c r="AG132" s="39"/>
-      <c r="AI132" s="40"/>
-      <c r="AJ132" s="40"/>
+      <c r="AG132" s="37"/>
+      <c r="AI132" s="2"/>
+      <c r="AJ132" s="2"/>
     </row>
     <row r="133" spans="1:34">
       <c r="A133" s="1"/>
@@ -6719,7 +6710,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="Y133" s="1"/>
-      <c r="AH133" s="41"/>
+      <c r="AH133" s="38"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -116,7 +116,7 @@
   </si>
   <si>
     <t>是否出现低交易量突破，高交易量重回低位
-(需要细化)</t>
+(1周为期)</t>
   </si>
   <si>
     <t>基底数
@@ -173,15 +173,15 @@
   </si>
   <si>
     <t>动量M
-(2周内上涨天数达到25%)</t>
+(15个交易日内上涨天数达到25%)</t>
   </si>
   <si>
     <t>交易量V
-(2周内上涨交易量达到25%)</t>
+(15个交易日内上涨交易量达到25%)</t>
   </si>
   <si>
     <t>价格P
-(2内涨幅达到20%)</t>
+(15个交易日内涨幅达到20%)</t>
   </si>
   <si>
     <r>
@@ -232,11 +232,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -299,33 +299,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,17 +313,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +337,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -376,22 +361,30 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -406,9 +399,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -416,14 +415,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,7 +504,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,43 +642,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,109 +660,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,6 +730,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -754,17 +769,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,28 +804,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,142 +823,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="38" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1408,11 +1408,11 @@
   <dimension ref="A1:AJ503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U3" sqref="U3:W5"/>
+      <selection pane="bottomRight" activeCell="V4" sqref="V4:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1680,7 +1680,7 @@
       <c r="AI4" s="35"/>
       <c r="AJ4" s="16"/>
     </row>
-    <row r="5" ht="53" spans="1:36">
+    <row r="5" ht="71" spans="1:36">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
   <si>
     <t>日期</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>盈利金额</t>
+  </si>
+  <si>
+    <t>跌幅</t>
   </si>
   <si>
     <t>买入后跌幅/涨幅
@@ -231,12 +234,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -286,13 +289,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -306,8 +302,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,46 +375,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,17 +397,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,23 +426,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,19 +507,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,19 +591,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,91 +651,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,19 +663,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,32 +727,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,8 +777,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,16 +799,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -823,85 +826,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -910,61 +913,61 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -987,10 +990,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1059,10 +1062,10 @@
     <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,11 +1080,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1405,14 +1408,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:AJ503"/>
+  <dimension ref="A1:AK503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V4" sqref="V4:V5"/>
+      <selection pane="bottomRight" activeCell="AI1" sqref="AI1:AI5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1448,11 +1451,12 @@
     <col min="32" max="32" width="18.75" customWidth="1"/>
     <col min="33" max="33" width="10.5625" customWidth="1"/>
     <col min="34" max="34" width="11" style="2" customWidth="1"/>
-    <col min="35" max="35" width="23.5089285714286" customWidth="1"/>
-    <col min="36" max="36" width="15.4732142857143" customWidth="1"/>
+    <col min="35" max="35" width="11" customWidth="1"/>
+    <col min="36" max="36" width="23.5089285714286" customWidth="1"/>
+    <col min="37" max="37" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29" customHeight="1" spans="1:36">
+    <row r="1" ht="29" customHeight="1" spans="1:37">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1501,14 +1505,17 @@
       <c r="AH1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="19" t="s">
+      <c r="AI1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="36" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" ht="29" customHeight="1" spans="1:36">
+      <c r="AK1" s="37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="29" customHeight="1" spans="1:37">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1544,66 +1551,67 @@
       <c r="AG2" s="32"/>
       <c r="AH2" s="35"/>
       <c r="AI2" s="35"/>
-      <c r="AJ2" s="16"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:36">
+      <c r="AJ2" s="35"/>
+      <c r="AK2" s="16"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:37">
       <c r="A3" s="3"/>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N3" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" s="13"/>
       <c r="R3" s="18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="V3" s="22"/>
       <c r="W3" s="22"/>
       <c r="X3" s="23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="23"/>
       <c r="Z3" s="23"/>
@@ -1612,15 +1620,16 @@
       <c r="AC3" s="23"/>
       <c r="AD3" s="23"/>
       <c r="AE3" s="32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AF3" s="32"/>
       <c r="AG3" s="32"/>
       <c r="AH3" s="35"/>
       <c r="AI3" s="35"/>
-      <c r="AJ3" s="16"/>
-    </row>
-    <row r="4" ht="56" customHeight="1" spans="1:36">
+      <c r="AJ3" s="35"/>
+      <c r="AK3" s="16"/>
+    </row>
+    <row r="4" ht="56" customHeight="1" spans="1:37">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1642,45 +1651,46 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V4" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="W4" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="X4" s="25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y4" s="25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z4" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AA4" s="28"/>
       <c r="AB4" s="29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AC4" s="33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AD4" s="33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AE4" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AF4" s="34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AG4" s="32"/>
       <c r="AH4" s="35"/>
       <c r="AI4" s="35"/>
-      <c r="AJ4" s="16"/>
-    </row>
-    <row r="5" ht="71" spans="1:36">
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="16"/>
+    </row>
+    <row r="5" ht="71" spans="1:37">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1695,25 +1705,25 @@
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="P5" s="16" t="s">
-        <v>38</v>
-      </c>
       <c r="Q5" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R5" s="19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="S5" s="19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" s="24"/>
       <c r="V5" s="24"/>
@@ -1721,10 +1731,10 @@
       <c r="X5" s="25"/>
       <c r="Y5" s="25"/>
       <c r="Z5" s="29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AA5" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="28"/>
       <c r="AC5" s="23"/>
@@ -1734,9 +1744,10 @@
       <c r="AG5" s="32"/>
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
-      <c r="AJ5" s="16"/>
-    </row>
-    <row r="6" spans="1:36">
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="16"/>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" s="6">
         <v>44523</v>
       </c>
@@ -1771,11 +1782,12 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="37"/>
+      <c r="AG6" s="36"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
-    </row>
-    <row r="7" spans="1:36">
+      <c r="AK6" s="2"/>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" s="8">
         <v>44524</v>
       </c>
@@ -1810,11 +1822,12 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="37"/>
+      <c r="AG7" s="36"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
-    </row>
-    <row r="8" spans="1:36">
+      <c r="AK7" s="2"/>
+    </row>
+    <row r="8" spans="1:37">
       <c r="A8" s="8">
         <v>44525</v>
       </c>
@@ -1849,11 +1862,12 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="37"/>
+      <c r="AG8" s="36"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
-    </row>
-    <row r="9" spans="1:36">
+      <c r="AK8" s="2"/>
+    </row>
+    <row r="9" spans="1:37">
       <c r="A9" s="8">
         <v>44526</v>
       </c>
@@ -1888,11 +1902,12 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="37"/>
+      <c r="AG9" s="36"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
-    </row>
-    <row r="10" spans="1:36">
+      <c r="AK9" s="2"/>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" s="8">
         <v>44527</v>
       </c>
@@ -1927,11 +1942,12 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="37"/>
+      <c r="AG10" s="36"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
-    </row>
-    <row r="11" spans="1:36">
+      <c r="AK10" s="2"/>
+    </row>
+    <row r="11" spans="1:37">
       <c r="A11" s="8">
         <v>44528</v>
       </c>
@@ -1966,11 +1982,12 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="37"/>
+      <c r="AG11" s="36"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
-    </row>
-    <row r="12" spans="1:36">
+      <c r="AK11" s="2"/>
+    </row>
+    <row r="12" spans="1:37">
       <c r="A12" s="8">
         <v>44529</v>
       </c>
@@ -2005,11 +2022,12 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="37"/>
+      <c r="AG12" s="36"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
-    </row>
-    <row r="13" spans="1:36">
+      <c r="AK12" s="2"/>
+    </row>
+    <row r="13" spans="1:37">
       <c r="A13" s="8">
         <v>44530</v>
       </c>
@@ -2044,11 +2062,12 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="37"/>
+      <c r="AG13" s="36"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
-    </row>
-    <row r="14" spans="1:36">
+      <c r="AK13" s="2"/>
+    </row>
+    <row r="14" spans="1:37">
       <c r="A14" s="8">
         <v>44531</v>
       </c>
@@ -2083,11 +2102,12 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="37"/>
+      <c r="AG14" s="36"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
-    </row>
-    <row r="15" spans="1:36">
+      <c r="AK14" s="2"/>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="8">
         <v>44532</v>
       </c>
@@ -2122,11 +2142,12 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="37"/>
+      <c r="AG15" s="36"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
-    </row>
-    <row r="16" spans="1:36">
+      <c r="AK15" s="2"/>
+    </row>
+    <row r="16" spans="1:37">
       <c r="A16" s="8">
         <v>44533</v>
       </c>
@@ -2161,11 +2182,12 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="37"/>
+      <c r="AG16" s="36"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
-    </row>
-    <row r="17" spans="1:36">
+      <c r="AK16" s="2"/>
+    </row>
+    <row r="17" spans="1:37">
       <c r="A17" s="8">
         <v>44534</v>
       </c>
@@ -2200,11 +2222,12 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="37"/>
+      <c r="AG17" s="36"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
-    </row>
-    <row r="18" spans="1:36">
+      <c r="AK17" s="2"/>
+    </row>
+    <row r="18" spans="1:37">
       <c r="A18" s="8">
         <v>44535</v>
       </c>
@@ -2239,11 +2262,12 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="37"/>
+      <c r="AG18" s="36"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
-    </row>
-    <row r="19" spans="1:36">
+      <c r="AK18" s="2"/>
+    </row>
+    <row r="19" spans="1:37">
       <c r="A19" s="8">
         <v>44536</v>
       </c>
@@ -2278,11 +2302,12 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="37"/>
+      <c r="AG19" s="36"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
-    </row>
-    <row r="20" spans="1:36">
+      <c r="AK19" s="2"/>
+    </row>
+    <row r="20" spans="1:37">
       <c r="A20" s="8">
         <v>44537</v>
       </c>
@@ -2317,11 +2342,12 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="37"/>
+      <c r="AG20" s="36"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
-    </row>
-    <row r="21" spans="1:36">
+      <c r="AK20" s="2"/>
+    </row>
+    <row r="21" spans="1:37">
       <c r="A21" s="8">
         <v>44538</v>
       </c>
@@ -2356,11 +2382,12 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="37"/>
+      <c r="AG21" s="36"/>
       <c r="AI21" s="2"/>
       <c r="AJ21" s="2"/>
-    </row>
-    <row r="22" spans="1:36">
+      <c r="AK21" s="2"/>
+    </row>
+    <row r="22" spans="1:37">
       <c r="A22" s="8">
         <v>44539</v>
       </c>
@@ -2395,11 +2422,12 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="37"/>
+      <c r="AG22" s="36"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
-    </row>
-    <row r="23" spans="1:36">
+      <c r="AK22" s="2"/>
+    </row>
+    <row r="23" spans="1:37">
       <c r="A23" s="8">
         <v>44540</v>
       </c>
@@ -2434,11 +2462,12 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="37"/>
+      <c r="AG23" s="36"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
-    </row>
-    <row r="24" spans="1:36">
+      <c r="AK23" s="2"/>
+    </row>
+    <row r="24" spans="1:37">
       <c r="A24" s="8">
         <v>44541</v>
       </c>
@@ -2473,11 +2502,12 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="37"/>
+      <c r="AG24" s="36"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
-    </row>
-    <row r="25" spans="1:36">
+      <c r="AK24" s="2"/>
+    </row>
+    <row r="25" spans="1:37">
       <c r="A25" s="8">
         <v>44542</v>
       </c>
@@ -2512,11 +2542,12 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="37"/>
+      <c r="AG25" s="36"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
-    </row>
-    <row r="26" spans="1:36">
+      <c r="AK25" s="2"/>
+    </row>
+    <row r="26" spans="1:37">
       <c r="A26" s="8">
         <v>44543</v>
       </c>
@@ -2551,11 +2582,12 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="37"/>
+      <c r="AG26" s="36"/>
       <c r="AI26" s="2"/>
       <c r="AJ26" s="2"/>
-    </row>
-    <row r="27" spans="1:36">
+      <c r="AK26" s="2"/>
+    </row>
+    <row r="27" spans="1:37">
       <c r="A27" s="8">
         <v>44544</v>
       </c>
@@ -2590,11 +2622,12 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="37"/>
+      <c r="AG27" s="36"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
-    </row>
-    <row r="28" spans="1:36">
+      <c r="AK27" s="2"/>
+    </row>
+    <row r="28" spans="1:37">
       <c r="A28" s="8">
         <v>44545</v>
       </c>
@@ -2629,11 +2662,12 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="37"/>
+      <c r="AG28" s="36"/>
       <c r="AI28" s="2"/>
       <c r="AJ28" s="2"/>
-    </row>
-    <row r="29" spans="1:36">
+      <c r="AK28" s="2"/>
+    </row>
+    <row r="29" spans="1:37">
       <c r="A29" s="8">
         <v>44546</v>
       </c>
@@ -2668,11 +2702,12 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="37"/>
+      <c r="AG29" s="36"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
-    </row>
-    <row r="30" spans="1:36">
+      <c r="AK29" s="2"/>
+    </row>
+    <row r="30" spans="1:37">
       <c r="A30" s="8">
         <v>44547</v>
       </c>
@@ -2707,11 +2742,12 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="37"/>
+      <c r="AG30" s="36"/>
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
-    </row>
-    <row r="31" spans="1:36">
+      <c r="AK30" s="2"/>
+    </row>
+    <row r="31" spans="1:37">
       <c r="A31" s="8">
         <v>44548</v>
       </c>
@@ -2746,11 +2782,12 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="37"/>
+      <c r="AG31" s="36"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
-    </row>
-    <row r="32" spans="1:36">
+      <c r="AK31" s="2"/>
+    </row>
+    <row r="32" spans="1:37">
       <c r="A32" s="8">
         <v>44549</v>
       </c>
@@ -2785,11 +2822,12 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="37"/>
+      <c r="AG32" s="36"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
-    </row>
-    <row r="33" spans="1:36">
+      <c r="AK32" s="2"/>
+    </row>
+    <row r="33" spans="1:37">
       <c r="A33" s="8">
         <v>44550</v>
       </c>
@@ -2824,11 +2862,12 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="37"/>
+      <c r="AG33" s="36"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
-    </row>
-    <row r="34" spans="1:36">
+      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34" s="8">
         <v>44551</v>
       </c>
@@ -2863,11 +2902,12 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="37"/>
+      <c r="AG34" s="36"/>
       <c r="AI34" s="2"/>
       <c r="AJ34" s="2"/>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AK34" s="2"/>
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35" s="8">
         <v>44552</v>
       </c>
@@ -2902,11 +2942,12 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="37"/>
+      <c r="AG35" s="36"/>
       <c r="AI35" s="2"/>
       <c r="AJ35" s="2"/>
-    </row>
-    <row r="36" spans="1:36">
+      <c r="AK35" s="2"/>
+    </row>
+    <row r="36" spans="1:37">
       <c r="A36" s="8">
         <v>44553</v>
       </c>
@@ -2941,11 +2982,12 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="37"/>
+      <c r="AG36" s="36"/>
       <c r="AI36" s="2"/>
       <c r="AJ36" s="2"/>
-    </row>
-    <row r="37" spans="1:36">
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37" s="8">
         <v>44554</v>
       </c>
@@ -2980,11 +3022,12 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="37"/>
+      <c r="AG37" s="36"/>
       <c r="AI37" s="2"/>
       <c r="AJ37" s="2"/>
-    </row>
-    <row r="38" spans="1:36">
+      <c r="AK37" s="2"/>
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38" s="8">
         <v>44555</v>
       </c>
@@ -3019,11 +3062,12 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="37"/>
+      <c r="AG38" s="36"/>
       <c r="AI38" s="2"/>
       <c r="AJ38" s="2"/>
-    </row>
-    <row r="39" spans="1:36">
+      <c r="AK38" s="2"/>
+    </row>
+    <row r="39" spans="1:37">
       <c r="A39" s="8">
         <v>44556</v>
       </c>
@@ -3058,11 +3102,12 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="37"/>
+      <c r="AG39" s="36"/>
       <c r="AI39" s="2"/>
       <c r="AJ39" s="2"/>
-    </row>
-    <row r="40" spans="1:36">
+      <c r="AK39" s="2"/>
+    </row>
+    <row r="40" spans="1:37">
       <c r="A40" s="8">
         <v>44557</v>
       </c>
@@ -3097,11 +3142,12 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="37"/>
+      <c r="AG40" s="36"/>
       <c r="AI40" s="2"/>
       <c r="AJ40" s="2"/>
-    </row>
-    <row r="41" spans="1:36">
+      <c r="AK40" s="2"/>
+    </row>
+    <row r="41" spans="1:37">
       <c r="A41" s="8">
         <v>44558</v>
       </c>
@@ -3136,11 +3182,12 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="37"/>
+      <c r="AG41" s="36"/>
       <c r="AI41" s="2"/>
       <c r="AJ41" s="2"/>
-    </row>
-    <row r="42" spans="1:36">
+      <c r="AK41" s="2"/>
+    </row>
+    <row r="42" spans="1:37">
       <c r="A42" s="8">
         <v>44559</v>
       </c>
@@ -3175,11 +3222,12 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="37"/>
+      <c r="AG42" s="36"/>
       <c r="AI42" s="2"/>
       <c r="AJ42" s="2"/>
-    </row>
-    <row r="43" spans="1:36">
+      <c r="AK42" s="2"/>
+    </row>
+    <row r="43" spans="1:37">
       <c r="A43" s="8">
         <v>44560</v>
       </c>
@@ -3214,11 +3262,12 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="37"/>
+      <c r="AG43" s="36"/>
       <c r="AI43" s="2"/>
       <c r="AJ43" s="2"/>
-    </row>
-    <row r="44" spans="1:36">
+      <c r="AK43" s="2"/>
+    </row>
+    <row r="44" spans="1:37">
       <c r="A44" s="8">
         <v>44561</v>
       </c>
@@ -3253,11 +3302,12 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="37"/>
+      <c r="AG44" s="36"/>
       <c r="AI44" s="2"/>
       <c r="AJ44" s="2"/>
-    </row>
-    <row r="45" spans="1:36">
+      <c r="AK44" s="2"/>
+    </row>
+    <row r="45" spans="1:37">
       <c r="A45" s="8">
         <v>44562</v>
       </c>
@@ -3292,11 +3342,12 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="37"/>
+      <c r="AG45" s="36"/>
       <c r="AI45" s="2"/>
       <c r="AJ45" s="2"/>
-    </row>
-    <row r="46" spans="1:36">
+      <c r="AK45" s="2"/>
+    </row>
+    <row r="46" spans="1:37">
       <c r="A46" s="8">
         <v>44563</v>
       </c>
@@ -3331,11 +3382,12 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="37"/>
+      <c r="AG46" s="36"/>
       <c r="AI46" s="2"/>
       <c r="AJ46" s="2"/>
-    </row>
-    <row r="47" spans="1:36">
+      <c r="AK46" s="2"/>
+    </row>
+    <row r="47" spans="1:37">
       <c r="A47" s="8">
         <v>44564</v>
       </c>
@@ -3370,11 +3422,12 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="37"/>
+      <c r="AG47" s="36"/>
       <c r="AI47" s="2"/>
       <c r="AJ47" s="2"/>
-    </row>
-    <row r="48" spans="1:36">
+      <c r="AK47" s="2"/>
+    </row>
+    <row r="48" spans="1:37">
       <c r="A48" s="8">
         <v>44565</v>
       </c>
@@ -3409,11 +3462,12 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="37"/>
+      <c r="AG48" s="36"/>
       <c r="AI48" s="2"/>
       <c r="AJ48" s="2"/>
-    </row>
-    <row r="49" spans="1:36">
+      <c r="AK48" s="2"/>
+    </row>
+    <row r="49" spans="1:37">
       <c r="A49" s="8">
         <v>44566</v>
       </c>
@@ -3448,11 +3502,12 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="37"/>
+      <c r="AG49" s="36"/>
       <c r="AI49" s="2"/>
       <c r="AJ49" s="2"/>
-    </row>
-    <row r="50" spans="1:36">
+      <c r="AK49" s="2"/>
+    </row>
+    <row r="50" spans="1:37">
       <c r="A50" s="8">
         <v>44567</v>
       </c>
@@ -3487,11 +3542,12 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-      <c r="AG50" s="37"/>
+      <c r="AG50" s="36"/>
       <c r="AI50" s="2"/>
       <c r="AJ50" s="2"/>
-    </row>
-    <row r="51" spans="1:36">
+      <c r="AK50" s="2"/>
+    </row>
+    <row r="51" spans="1:37">
       <c r="A51" s="8">
         <v>44568</v>
       </c>
@@ -3526,11 +3582,12 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
-      <c r="AG51" s="37"/>
+      <c r="AG51" s="36"/>
       <c r="AI51" s="2"/>
       <c r="AJ51" s="2"/>
-    </row>
-    <row r="52" spans="1:36">
+      <c r="AK51" s="2"/>
+    </row>
+    <row r="52" spans="1:37">
       <c r="A52" s="8">
         <v>44569</v>
       </c>
@@ -3565,11 +3622,12 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
-      <c r="AG52" s="37"/>
+      <c r="AG52" s="36"/>
       <c r="AI52" s="2"/>
       <c r="AJ52" s="2"/>
-    </row>
-    <row r="53" spans="1:36">
+      <c r="AK52" s="2"/>
+    </row>
+    <row r="53" spans="1:37">
       <c r="A53" s="8">
         <v>44570</v>
       </c>
@@ -3604,11 +3662,12 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
-      <c r="AG53" s="37"/>
+      <c r="AG53" s="36"/>
       <c r="AI53" s="2"/>
       <c r="AJ53" s="2"/>
-    </row>
-    <row r="54" spans="1:36">
+      <c r="AK53" s="2"/>
+    </row>
+    <row r="54" spans="1:37">
       <c r="A54" s="8">
         <v>44571</v>
       </c>
@@ -3643,11 +3702,12 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
-      <c r="AG54" s="37"/>
+      <c r="AG54" s="36"/>
       <c r="AI54" s="2"/>
       <c r="AJ54" s="2"/>
-    </row>
-    <row r="55" spans="1:36">
+      <c r="AK54" s="2"/>
+    </row>
+    <row r="55" spans="1:37">
       <c r="A55" s="8">
         <v>44572</v>
       </c>
@@ -3682,11 +3742,12 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="37"/>
+      <c r="AG55" s="36"/>
       <c r="AI55" s="2"/>
       <c r="AJ55" s="2"/>
-    </row>
-    <row r="56" spans="1:36">
+      <c r="AK55" s="2"/>
+    </row>
+    <row r="56" spans="1:37">
       <c r="A56" s="8">
         <v>44573</v>
       </c>
@@ -3721,11 +3782,12 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="37"/>
+      <c r="AG56" s="36"/>
       <c r="AI56" s="2"/>
       <c r="AJ56" s="2"/>
-    </row>
-    <row r="57" spans="1:36">
+      <c r="AK56" s="2"/>
+    </row>
+    <row r="57" spans="1:37">
       <c r="A57" s="8">
         <v>44574</v>
       </c>
@@ -3760,11 +3822,12 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
-      <c r="AG57" s="37"/>
+      <c r="AG57" s="36"/>
       <c r="AI57" s="2"/>
       <c r="AJ57" s="2"/>
-    </row>
-    <row r="58" spans="1:36">
+      <c r="AK57" s="2"/>
+    </row>
+    <row r="58" spans="1:37">
       <c r="A58" s="8">
         <v>44575</v>
       </c>
@@ -3799,11 +3862,12 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
-      <c r="AG58" s="37"/>
+      <c r="AG58" s="36"/>
       <c r="AI58" s="2"/>
       <c r="AJ58" s="2"/>
-    </row>
-    <row r="59" spans="1:36">
+      <c r="AK58" s="2"/>
+    </row>
+    <row r="59" spans="1:37">
       <c r="A59" s="8">
         <v>44576</v>
       </c>
@@ -3838,11 +3902,12 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
-      <c r="AG59" s="37"/>
+      <c r="AG59" s="36"/>
       <c r="AI59" s="2"/>
       <c r="AJ59" s="2"/>
-    </row>
-    <row r="60" spans="1:36">
+      <c r="AK59" s="2"/>
+    </row>
+    <row r="60" spans="1:37">
       <c r="A60" s="8">
         <v>44577</v>
       </c>
@@ -3877,11 +3942,12 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-      <c r="AG60" s="37"/>
+      <c r="AG60" s="36"/>
       <c r="AI60" s="2"/>
       <c r="AJ60" s="2"/>
-    </row>
-    <row r="61" spans="1:36">
+      <c r="AK60" s="2"/>
+    </row>
+    <row r="61" spans="1:37">
       <c r="A61" s="8">
         <v>44578</v>
       </c>
@@ -3916,11 +3982,12 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
-      <c r="AG61" s="37"/>
+      <c r="AG61" s="36"/>
       <c r="AI61" s="2"/>
       <c r="AJ61" s="2"/>
-    </row>
-    <row r="62" spans="1:36">
+      <c r="AK61" s="2"/>
+    </row>
+    <row r="62" spans="1:37">
       <c r="A62" s="8">
         <v>44579</v>
       </c>
@@ -3955,11 +4022,12 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-      <c r="AG62" s="37"/>
+      <c r="AG62" s="36"/>
       <c r="AI62" s="2"/>
       <c r="AJ62" s="2"/>
-    </row>
-    <row r="63" spans="1:36">
+      <c r="AK62" s="2"/>
+    </row>
+    <row r="63" spans="1:37">
       <c r="A63" s="8">
         <v>44580</v>
       </c>
@@ -3994,11 +4062,12 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
-      <c r="AG63" s="37"/>
+      <c r="AG63" s="36"/>
       <c r="AI63" s="2"/>
       <c r="AJ63" s="2"/>
-    </row>
-    <row r="64" spans="1:36">
+      <c r="AK63" s="2"/>
+    </row>
+    <row r="64" spans="1:37">
       <c r="A64" s="8">
         <v>44581</v>
       </c>
@@ -4033,11 +4102,12 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
-      <c r="AG64" s="37"/>
+      <c r="AG64" s="36"/>
       <c r="AI64" s="2"/>
       <c r="AJ64" s="2"/>
-    </row>
-    <row r="65" spans="1:36">
+      <c r="AK64" s="2"/>
+    </row>
+    <row r="65" spans="1:37">
       <c r="A65" s="8">
         <v>44582</v>
       </c>
@@ -4072,11 +4142,12 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
-      <c r="AG65" s="37"/>
+      <c r="AG65" s="36"/>
       <c r="AI65" s="2"/>
       <c r="AJ65" s="2"/>
-    </row>
-    <row r="66" spans="1:36">
+      <c r="AK65" s="2"/>
+    </row>
+    <row r="66" spans="1:37">
       <c r="A66" s="8">
         <v>44583</v>
       </c>
@@ -4111,11 +4182,12 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-      <c r="AG66" s="37"/>
+      <c r="AG66" s="36"/>
       <c r="AI66" s="2"/>
       <c r="AJ66" s="2"/>
-    </row>
-    <row r="67" spans="1:36">
+      <c r="AK66" s="2"/>
+    </row>
+    <row r="67" spans="1:37">
       <c r="A67" s="8">
         <v>44584</v>
       </c>
@@ -4150,11 +4222,12 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
-      <c r="AG67" s="37"/>
+      <c r="AG67" s="36"/>
       <c r="AI67" s="2"/>
       <c r="AJ67" s="2"/>
-    </row>
-    <row r="68" spans="1:36">
+      <c r="AK67" s="2"/>
+    </row>
+    <row r="68" spans="1:37">
       <c r="A68" s="8">
         <v>44585</v>
       </c>
@@ -4189,11 +4262,12 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
-      <c r="AG68" s="37"/>
+      <c r="AG68" s="36"/>
       <c r="AI68" s="2"/>
       <c r="AJ68" s="2"/>
-    </row>
-    <row r="69" spans="1:36">
+      <c r="AK68" s="2"/>
+    </row>
+    <row r="69" spans="1:37">
       <c r="A69" s="8">
         <v>44586</v>
       </c>
@@ -4228,11 +4302,12 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
-      <c r="AG69" s="37"/>
+      <c r="AG69" s="36"/>
       <c r="AI69" s="2"/>
       <c r="AJ69" s="2"/>
-    </row>
-    <row r="70" spans="1:36">
+      <c r="AK69" s="2"/>
+    </row>
+    <row r="70" spans="1:37">
       <c r="A70" s="8">
         <v>44587</v>
       </c>
@@ -4267,11 +4342,12 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
-      <c r="AG70" s="37"/>
+      <c r="AG70" s="36"/>
       <c r="AI70" s="2"/>
       <c r="AJ70" s="2"/>
-    </row>
-    <row r="71" spans="1:36">
+      <c r="AK70" s="2"/>
+    </row>
+    <row r="71" spans="1:37">
       <c r="A71" s="8">
         <v>44588</v>
       </c>
@@ -4306,11 +4382,12 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
-      <c r="AG71" s="37"/>
+      <c r="AG71" s="36"/>
       <c r="AI71" s="2"/>
       <c r="AJ71" s="2"/>
-    </row>
-    <row r="72" spans="1:36">
+      <c r="AK71" s="2"/>
+    </row>
+    <row r="72" spans="1:37">
       <c r="A72" s="8">
         <v>44589</v>
       </c>
@@ -4345,11 +4422,12 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-      <c r="AG72" s="37"/>
+      <c r="AG72" s="36"/>
       <c r="AI72" s="2"/>
       <c r="AJ72" s="2"/>
-    </row>
-    <row r="73" spans="1:36">
+      <c r="AK72" s="2"/>
+    </row>
+    <row r="73" spans="1:37">
       <c r="A73" s="8">
         <v>44590</v>
       </c>
@@ -4384,11 +4462,12 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
-      <c r="AG73" s="37"/>
+      <c r="AG73" s="36"/>
       <c r="AI73" s="2"/>
       <c r="AJ73" s="2"/>
-    </row>
-    <row r="74" spans="1:36">
+      <c r="AK73" s="2"/>
+    </row>
+    <row r="74" spans="1:37">
       <c r="A74" s="8">
         <v>44591</v>
       </c>
@@ -4423,11 +4502,12 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
-      <c r="AG74" s="37"/>
+      <c r="AG74" s="36"/>
       <c r="AI74" s="2"/>
       <c r="AJ74" s="2"/>
-    </row>
-    <row r="75" spans="1:36">
+      <c r="AK74" s="2"/>
+    </row>
+    <row r="75" spans="1:37">
       <c r="A75" s="8">
         <v>44592</v>
       </c>
@@ -4462,11 +4542,12 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
-      <c r="AG75" s="37"/>
+      <c r="AG75" s="36"/>
       <c r="AI75" s="2"/>
       <c r="AJ75" s="2"/>
-    </row>
-    <row r="76" spans="1:36">
+      <c r="AK75" s="2"/>
+    </row>
+    <row r="76" spans="1:37">
       <c r="A76" s="8">
         <v>44593</v>
       </c>
@@ -4501,11 +4582,12 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
-      <c r="AG76" s="37"/>
+      <c r="AG76" s="36"/>
       <c r="AI76" s="2"/>
       <c r="AJ76" s="2"/>
-    </row>
-    <row r="77" spans="1:36">
+      <c r="AK76" s="2"/>
+    </row>
+    <row r="77" spans="1:37">
       <c r="A77" s="8">
         <v>44594</v>
       </c>
@@ -4540,11 +4622,12 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-      <c r="AG77" s="37"/>
+      <c r="AG77" s="36"/>
       <c r="AI77" s="2"/>
       <c r="AJ77" s="2"/>
-    </row>
-    <row r="78" spans="1:36">
+      <c r="AK77" s="2"/>
+    </row>
+    <row r="78" spans="1:37">
       <c r="A78" s="8">
         <v>44595</v>
       </c>
@@ -4579,11 +4662,12 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
-      <c r="AG78" s="37"/>
+      <c r="AG78" s="36"/>
       <c r="AI78" s="2"/>
       <c r="AJ78" s="2"/>
-    </row>
-    <row r="79" spans="1:36">
+      <c r="AK78" s="2"/>
+    </row>
+    <row r="79" spans="1:37">
       <c r="A79" s="8">
         <v>44596</v>
       </c>
@@ -4618,11 +4702,12 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
-      <c r="AG79" s="37"/>
+      <c r="AG79" s="36"/>
       <c r="AI79" s="2"/>
       <c r="AJ79" s="2"/>
-    </row>
-    <row r="80" spans="1:36">
+      <c r="AK79" s="2"/>
+    </row>
+    <row r="80" spans="1:37">
       <c r="A80" s="8">
         <v>44597</v>
       </c>
@@ -4657,11 +4742,12 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
-      <c r="AG80" s="37"/>
+      <c r="AG80" s="36"/>
       <c r="AI80" s="2"/>
       <c r="AJ80" s="2"/>
-    </row>
-    <row r="81" spans="1:36">
+      <c r="AK80" s="2"/>
+    </row>
+    <row r="81" spans="1:37">
       <c r="A81" s="8">
         <v>44598</v>
       </c>
@@ -4696,11 +4782,12 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
-      <c r="AG81" s="37"/>
+      <c r="AG81" s="36"/>
       <c r="AI81" s="2"/>
       <c r="AJ81" s="2"/>
-    </row>
-    <row r="82" spans="1:36">
+      <c r="AK81" s="2"/>
+    </row>
+    <row r="82" spans="1:37">
       <c r="A82" s="8">
         <v>44599</v>
       </c>
@@ -4735,11 +4822,12 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
-      <c r="AG82" s="37"/>
+      <c r="AG82" s="36"/>
       <c r="AI82" s="2"/>
       <c r="AJ82" s="2"/>
-    </row>
-    <row r="83" spans="1:36">
+      <c r="AK82" s="2"/>
+    </row>
+    <row r="83" spans="1:37">
       <c r="A83" s="8">
         <v>44600</v>
       </c>
@@ -4774,11 +4862,12 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
-      <c r="AG83" s="37"/>
+      <c r="AG83" s="36"/>
       <c r="AI83" s="2"/>
       <c r="AJ83" s="2"/>
-    </row>
-    <row r="84" spans="1:36">
+      <c r="AK83" s="2"/>
+    </row>
+    <row r="84" spans="1:37">
       <c r="A84" s="8">
         <v>44601</v>
       </c>
@@ -4813,11 +4902,12 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
-      <c r="AG84" s="37"/>
+      <c r="AG84" s="36"/>
       <c r="AI84" s="2"/>
       <c r="AJ84" s="2"/>
-    </row>
-    <row r="85" spans="1:36">
+      <c r="AK84" s="2"/>
+    </row>
+    <row r="85" spans="1:37">
       <c r="A85" s="8">
         <v>44602</v>
       </c>
@@ -4852,11 +4942,12 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-      <c r="AG85" s="37"/>
+      <c r="AG85" s="36"/>
       <c r="AI85" s="2"/>
       <c r="AJ85" s="2"/>
-    </row>
-    <row r="86" spans="1:36">
+      <c r="AK85" s="2"/>
+    </row>
+    <row r="86" spans="1:37">
       <c r="A86" s="8">
         <v>44603</v>
       </c>
@@ -4891,11 +4982,12 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-      <c r="AG86" s="37"/>
+      <c r="AG86" s="36"/>
       <c r="AI86" s="2"/>
       <c r="AJ86" s="2"/>
-    </row>
-    <row r="87" spans="1:36">
+      <c r="AK86" s="2"/>
+    </row>
+    <row r="87" spans="1:37">
       <c r="A87" s="8">
         <v>44604</v>
       </c>
@@ -4930,11 +5022,12 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
-      <c r="AG87" s="37"/>
+      <c r="AG87" s="36"/>
       <c r="AI87" s="2"/>
       <c r="AJ87" s="2"/>
-    </row>
-    <row r="88" spans="1:36">
+      <c r="AK87" s="2"/>
+    </row>
+    <row r="88" spans="1:37">
       <c r="A88" s="8">
         <v>44605</v>
       </c>
@@ -4969,11 +5062,12 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
-      <c r="AG88" s="37"/>
+      <c r="AG88" s="36"/>
       <c r="AI88" s="2"/>
       <c r="AJ88" s="2"/>
-    </row>
-    <row r="89" spans="1:36">
+      <c r="AK88" s="2"/>
+    </row>
+    <row r="89" spans="1:37">
       <c r="A89" s="8">
         <v>44606</v>
       </c>
@@ -5008,11 +5102,12 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
-      <c r="AG89" s="37"/>
+      <c r="AG89" s="36"/>
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
-    </row>
-    <row r="90" spans="1:36">
+      <c r="AK89" s="2"/>
+    </row>
+    <row r="90" spans="1:37">
       <c r="A90" s="8">
         <v>44607</v>
       </c>
@@ -5047,11 +5142,12 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
-      <c r="AG90" s="37"/>
+      <c r="AG90" s="36"/>
       <c r="AI90" s="2"/>
       <c r="AJ90" s="2"/>
-    </row>
-    <row r="91" spans="1:36">
+      <c r="AK90" s="2"/>
+    </row>
+    <row r="91" spans="1:37">
       <c r="A91" s="8">
         <v>44608</v>
       </c>
@@ -5086,11 +5182,12 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
-      <c r="AG91" s="37"/>
+      <c r="AG91" s="36"/>
       <c r="AI91" s="2"/>
       <c r="AJ91" s="2"/>
-    </row>
-    <row r="92" spans="1:36">
+      <c r="AK91" s="2"/>
+    </row>
+    <row r="92" spans="1:37">
       <c r="A92" s="8">
         <v>44609</v>
       </c>
@@ -5125,11 +5222,12 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
-      <c r="AG92" s="37"/>
+      <c r="AG92" s="36"/>
       <c r="AI92" s="2"/>
       <c r="AJ92" s="2"/>
-    </row>
-    <row r="93" spans="1:36">
+      <c r="AK92" s="2"/>
+    </row>
+    <row r="93" spans="1:37">
       <c r="A93" s="8">
         <v>44610</v>
       </c>
@@ -5164,11 +5262,12 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
-      <c r="AG93" s="37"/>
+      <c r="AG93" s="36"/>
       <c r="AI93" s="2"/>
       <c r="AJ93" s="2"/>
-    </row>
-    <row r="94" spans="1:36">
+      <c r="AK93" s="2"/>
+    </row>
+    <row r="94" spans="1:37">
       <c r="A94" s="8">
         <v>44611</v>
       </c>
@@ -5203,11 +5302,12 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
-      <c r="AG94" s="37"/>
+      <c r="AG94" s="36"/>
       <c r="AI94" s="2"/>
       <c r="AJ94" s="2"/>
-    </row>
-    <row r="95" spans="1:36">
+      <c r="AK94" s="2"/>
+    </row>
+    <row r="95" spans="1:37">
       <c r="A95" s="8">
         <v>44612</v>
       </c>
@@ -5242,11 +5342,12 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
-      <c r="AG95" s="37"/>
+      <c r="AG95" s="36"/>
       <c r="AI95" s="2"/>
       <c r="AJ95" s="2"/>
-    </row>
-    <row r="96" spans="1:36">
+      <c r="AK95" s="2"/>
+    </row>
+    <row r="96" spans="1:37">
       <c r="A96" s="8">
         <v>44613</v>
       </c>
@@ -5281,11 +5382,12 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
-      <c r="AG96" s="37"/>
+      <c r="AG96" s="36"/>
       <c r="AI96" s="2"/>
       <c r="AJ96" s="2"/>
-    </row>
-    <row r="97" spans="1:36">
+      <c r="AK96" s="2"/>
+    </row>
+    <row r="97" spans="1:37">
       <c r="A97" s="8">
         <v>44614</v>
       </c>
@@ -5320,11 +5422,12 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
-      <c r="AG97" s="37"/>
+      <c r="AG97" s="36"/>
       <c r="AI97" s="2"/>
       <c r="AJ97" s="2"/>
-    </row>
-    <row r="98" spans="1:36">
+      <c r="AK97" s="2"/>
+    </row>
+    <row r="98" spans="1:37">
       <c r="A98" s="8">
         <v>44615</v>
       </c>
@@ -5359,11 +5462,12 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
-      <c r="AG98" s="37"/>
+      <c r="AG98" s="36"/>
       <c r="AI98" s="2"/>
       <c r="AJ98" s="2"/>
-    </row>
-    <row r="99" spans="1:36">
+      <c r="AK98" s="2"/>
+    </row>
+    <row r="99" spans="1:37">
       <c r="A99" s="8">
         <v>44616</v>
       </c>
@@ -5398,11 +5502,12 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
-      <c r="AG99" s="37"/>
+      <c r="AG99" s="36"/>
       <c r="AI99" s="2"/>
       <c r="AJ99" s="2"/>
-    </row>
-    <row r="100" spans="1:36">
+      <c r="AK99" s="2"/>
+    </row>
+    <row r="100" spans="1:37">
       <c r="A100" s="8">
         <v>44617</v>
       </c>
@@ -5437,11 +5542,12 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
-      <c r="AG100" s="37"/>
+      <c r="AG100" s="36"/>
       <c r="AI100" s="2"/>
       <c r="AJ100" s="2"/>
-    </row>
-    <row r="101" spans="1:36">
+      <c r="AK100" s="2"/>
+    </row>
+    <row r="101" spans="1:37">
       <c r="A101" s="8">
         <v>44618</v>
       </c>
@@ -5476,11 +5582,12 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
-      <c r="AG101" s="37"/>
+      <c r="AG101" s="36"/>
       <c r="AI101" s="2"/>
       <c r="AJ101" s="2"/>
-    </row>
-    <row r="102" spans="1:36">
+      <c r="AK101" s="2"/>
+    </row>
+    <row r="102" spans="1:37">
       <c r="A102" s="8">
         <v>44619</v>
       </c>
@@ -5515,11 +5622,12 @@
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
-      <c r="AG102" s="37"/>
+      <c r="AG102" s="36"/>
       <c r="AI102" s="2"/>
       <c r="AJ102" s="2"/>
-    </row>
-    <row r="103" spans="1:36">
+      <c r="AK102" s="2"/>
+    </row>
+    <row r="103" spans="1:37">
       <c r="A103" s="8">
         <v>44620</v>
       </c>
@@ -5554,11 +5662,12 @@
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
-      <c r="AG103" s="37"/>
+      <c r="AG103" s="36"/>
       <c r="AI103" s="2"/>
       <c r="AJ103" s="2"/>
-    </row>
-    <row r="104" spans="1:36">
+      <c r="AK103" s="2"/>
+    </row>
+    <row r="104" spans="1:37">
       <c r="A104" s="8">
         <v>44621</v>
       </c>
@@ -5593,11 +5702,12 @@
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
-      <c r="AG104" s="37"/>
+      <c r="AG104" s="36"/>
       <c r="AI104" s="2"/>
       <c r="AJ104" s="2"/>
-    </row>
-    <row r="105" spans="1:36">
+      <c r="AK104" s="2"/>
+    </row>
+    <row r="105" spans="1:37">
       <c r="A105" s="8">
         <v>44622</v>
       </c>
@@ -5632,11 +5742,12 @@
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
-      <c r="AG105" s="37"/>
+      <c r="AG105" s="36"/>
       <c r="AI105" s="2"/>
       <c r="AJ105" s="2"/>
-    </row>
-    <row r="106" spans="1:36">
+      <c r="AK105" s="2"/>
+    </row>
+    <row r="106" spans="1:37">
       <c r="A106" s="8">
         <v>44623</v>
       </c>
@@ -5671,11 +5782,12 @@
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
-      <c r="AG106" s="37"/>
+      <c r="AG106" s="36"/>
       <c r="AI106" s="2"/>
       <c r="AJ106" s="2"/>
-    </row>
-    <row r="107" spans="1:36">
+      <c r="AK106" s="2"/>
+    </row>
+    <row r="107" spans="1:37">
       <c r="A107" s="8">
         <v>44624</v>
       </c>
@@ -5710,11 +5822,12 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
-      <c r="AG107" s="37"/>
+      <c r="AG107" s="36"/>
       <c r="AI107" s="2"/>
       <c r="AJ107" s="2"/>
-    </row>
-    <row r="108" spans="1:36">
+      <c r="AK107" s="2"/>
+    </row>
+    <row r="108" spans="1:37">
       <c r="A108" s="8">
         <v>44625</v>
       </c>
@@ -5749,11 +5862,12 @@
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
-      <c r="AG108" s="37"/>
+      <c r="AG108" s="36"/>
       <c r="AI108" s="2"/>
       <c r="AJ108" s="2"/>
-    </row>
-    <row r="109" spans="1:36">
+      <c r="AK108" s="2"/>
+    </row>
+    <row r="109" spans="1:37">
       <c r="A109" s="8">
         <v>44626</v>
       </c>
@@ -5788,11 +5902,12 @@
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
-      <c r="AG109" s="37"/>
+      <c r="AG109" s="36"/>
       <c r="AI109" s="2"/>
       <c r="AJ109" s="2"/>
-    </row>
-    <row r="110" spans="1:36">
+      <c r="AK109" s="2"/>
+    </row>
+    <row r="110" spans="1:37">
       <c r="A110" s="8">
         <v>44627</v>
       </c>
@@ -5827,11 +5942,12 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
-      <c r="AG110" s="37"/>
+      <c r="AG110" s="36"/>
       <c r="AI110" s="2"/>
       <c r="AJ110" s="2"/>
-    </row>
-    <row r="111" spans="1:36">
+      <c r="AK110" s="2"/>
+    </row>
+    <row r="111" spans="1:37">
       <c r="A111" s="8">
         <v>44628</v>
       </c>
@@ -5866,11 +5982,12 @@
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
-      <c r="AG111" s="37"/>
+      <c r="AG111" s="36"/>
       <c r="AI111" s="2"/>
       <c r="AJ111" s="2"/>
-    </row>
-    <row r="112" spans="1:36">
+      <c r="AK111" s="2"/>
+    </row>
+    <row r="112" spans="1:37">
       <c r="A112" s="8">
         <v>44629</v>
       </c>
@@ -5905,11 +6022,12 @@
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
-      <c r="AG112" s="37"/>
+      <c r="AG112" s="36"/>
       <c r="AI112" s="2"/>
       <c r="AJ112" s="2"/>
-    </row>
-    <row r="113" spans="1:36">
+      <c r="AK112" s="2"/>
+    </row>
+    <row r="113" spans="1:37">
       <c r="A113" s="8">
         <v>44630</v>
       </c>
@@ -5944,11 +6062,12 @@
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
-      <c r="AG113" s="37"/>
+      <c r="AG113" s="36"/>
       <c r="AI113" s="2"/>
       <c r="AJ113" s="2"/>
-    </row>
-    <row r="114" spans="1:36">
+      <c r="AK113" s="2"/>
+    </row>
+    <row r="114" spans="1:37">
       <c r="A114" s="8">
         <v>44631</v>
       </c>
@@ -5983,11 +6102,12 @@
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
-      <c r="AG114" s="37"/>
+      <c r="AG114" s="36"/>
       <c r="AI114" s="2"/>
       <c r="AJ114" s="2"/>
-    </row>
-    <row r="115" spans="1:36">
+      <c r="AK114" s="2"/>
+    </row>
+    <row r="115" spans="1:37">
       <c r="A115" s="8">
         <v>44632</v>
       </c>
@@ -6022,11 +6142,12 @@
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
-      <c r="AG115" s="37"/>
+      <c r="AG115" s="36"/>
       <c r="AI115" s="2"/>
       <c r="AJ115" s="2"/>
-    </row>
-    <row r="116" spans="1:36">
+      <c r="AK115" s="2"/>
+    </row>
+    <row r="116" spans="1:37">
       <c r="A116" s="8">
         <v>44633</v>
       </c>
@@ -6061,11 +6182,12 @@
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
-      <c r="AG116" s="37"/>
+      <c r="AG116" s="36"/>
       <c r="AI116" s="2"/>
       <c r="AJ116" s="2"/>
-    </row>
-    <row r="117" spans="1:36">
+      <c r="AK116" s="2"/>
+    </row>
+    <row r="117" spans="1:37">
       <c r="A117" s="8">
         <v>44634</v>
       </c>
@@ -6100,11 +6222,12 @@
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
-      <c r="AG117" s="37"/>
+      <c r="AG117" s="36"/>
       <c r="AI117" s="2"/>
       <c r="AJ117" s="2"/>
-    </row>
-    <row r="118" spans="1:36">
+      <c r="AK117" s="2"/>
+    </row>
+    <row r="118" spans="1:37">
       <c r="A118" s="8">
         <v>44635</v>
       </c>
@@ -6139,11 +6262,12 @@
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
-      <c r="AG118" s="37"/>
+      <c r="AG118" s="36"/>
       <c r="AI118" s="2"/>
       <c r="AJ118" s="2"/>
-    </row>
-    <row r="119" spans="1:36">
+      <c r="AK118" s="2"/>
+    </row>
+    <row r="119" spans="1:37">
       <c r="A119" s="8">
         <v>44636</v>
       </c>
@@ -6178,11 +6302,12 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
-      <c r="AG119" s="37"/>
+      <c r="AG119" s="36"/>
       <c r="AI119" s="2"/>
       <c r="AJ119" s="2"/>
-    </row>
-    <row r="120" spans="1:36">
+      <c r="AK119" s="2"/>
+    </row>
+    <row r="120" spans="1:37">
       <c r="A120" s="8">
         <v>44637</v>
       </c>
@@ -6217,11 +6342,12 @@
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
-      <c r="AG120" s="37"/>
+      <c r="AG120" s="36"/>
       <c r="AI120" s="2"/>
       <c r="AJ120" s="2"/>
-    </row>
-    <row r="121" spans="1:36">
+      <c r="AK120" s="2"/>
+    </row>
+    <row r="121" spans="1:37">
       <c r="A121" s="8">
         <v>44638</v>
       </c>
@@ -6256,11 +6382,12 @@
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
-      <c r="AG121" s="37"/>
+      <c r="AG121" s="36"/>
       <c r="AI121" s="2"/>
       <c r="AJ121" s="2"/>
-    </row>
-    <row r="122" spans="1:36">
+      <c r="AK121" s="2"/>
+    </row>
+    <row r="122" spans="1:37">
       <c r="A122" s="8">
         <v>44639</v>
       </c>
@@ -6295,11 +6422,12 @@
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
-      <c r="AG122" s="37"/>
+      <c r="AG122" s="36"/>
       <c r="AI122" s="2"/>
       <c r="AJ122" s="2"/>
-    </row>
-    <row r="123" spans="1:36">
+      <c r="AK122" s="2"/>
+    </row>
+    <row r="123" spans="1:37">
       <c r="A123" s="8">
         <v>44640</v>
       </c>
@@ -6334,11 +6462,12 @@
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
-      <c r="AG123" s="37"/>
+      <c r="AG123" s="36"/>
       <c r="AI123" s="2"/>
       <c r="AJ123" s="2"/>
-    </row>
-    <row r="124" spans="1:36">
+      <c r="AK123" s="2"/>
+    </row>
+    <row r="124" spans="1:37">
       <c r="A124" s="8">
         <v>44641</v>
       </c>
@@ -6373,11 +6502,12 @@
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
-      <c r="AG124" s="37"/>
+      <c r="AG124" s="36"/>
       <c r="AI124" s="2"/>
       <c r="AJ124" s="2"/>
-    </row>
-    <row r="125" spans="1:36">
+      <c r="AK124" s="2"/>
+    </row>
+    <row r="125" spans="1:37">
       <c r="A125" s="8">
         <v>44642</v>
       </c>
@@ -6412,11 +6542,12 @@
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
-      <c r="AG125" s="37"/>
+      <c r="AG125" s="36"/>
       <c r="AI125" s="2"/>
       <c r="AJ125" s="2"/>
-    </row>
-    <row r="126" spans="1:36">
+      <c r="AK125" s="2"/>
+    </row>
+    <row r="126" spans="1:37">
       <c r="A126" s="8">
         <v>44643</v>
       </c>
@@ -6451,11 +6582,12 @@
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
-      <c r="AG126" s="37"/>
+      <c r="AG126" s="36"/>
       <c r="AI126" s="2"/>
       <c r="AJ126" s="2"/>
-    </row>
-    <row r="127" spans="1:36">
+      <c r="AK126" s="2"/>
+    </row>
+    <row r="127" spans="1:37">
       <c r="A127" s="8">
         <v>44644</v>
       </c>
@@ -6490,11 +6622,12 @@
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
-      <c r="AG127" s="37"/>
+      <c r="AG127" s="36"/>
       <c r="AI127" s="2"/>
       <c r="AJ127" s="2"/>
-    </row>
-    <row r="128" spans="1:36">
+      <c r="AK127" s="2"/>
+    </row>
+    <row r="128" spans="1:37">
       <c r="A128" s="8">
         <v>44645</v>
       </c>
@@ -6529,11 +6662,12 @@
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
-      <c r="AG128" s="37"/>
+      <c r="AG128" s="36"/>
       <c r="AI128" s="2"/>
       <c r="AJ128" s="2"/>
-    </row>
-    <row r="129" spans="1:36">
+      <c r="AK128" s="2"/>
+    </row>
+    <row r="129" spans="1:37">
       <c r="A129" s="8">
         <v>44646</v>
       </c>
@@ -6568,11 +6702,12 @@
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
-      <c r="AG129" s="37"/>
+      <c r="AG129" s="36"/>
       <c r="AI129" s="2"/>
       <c r="AJ129" s="2"/>
-    </row>
-    <row r="130" spans="1:36">
+      <c r="AK129" s="2"/>
+    </row>
+    <row r="130" spans="1:37">
       <c r="A130" s="8">
         <v>44647</v>
       </c>
@@ -6607,11 +6742,12 @@
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
-      <c r="AG130" s="37"/>
+      <c r="AG130" s="36"/>
       <c r="AI130" s="2"/>
       <c r="AJ130" s="2"/>
-    </row>
-    <row r="131" spans="1:36">
+      <c r="AK130" s="2"/>
+    </row>
+    <row r="131" spans="1:37">
       <c r="A131" s="8">
         <v>44648</v>
       </c>
@@ -6646,11 +6782,12 @@
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
-      <c r="AG131" s="37"/>
+      <c r="AG131" s="36"/>
       <c r="AI131" s="2"/>
       <c r="AJ131" s="2"/>
-    </row>
-    <row r="132" spans="1:36">
+      <c r="AK131" s="2"/>
+    </row>
+    <row r="132" spans="1:37">
       <c r="A132" s="8">
         <v>44649</v>
       </c>
@@ -6685,9 +6822,10 @@
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
-      <c r="AG132" s="37"/>
+      <c r="AG132" s="36"/>
       <c r="AI132" s="2"/>
       <c r="AJ132" s="2"/>
+      <c r="AK132" s="2"/>
     </row>
     <row r="133" spans="1:34">
       <c r="A133" s="1"/>
@@ -14853,7 +14991,7 @@
       <c r="Y503" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
     <mergeCell ref="U3:W3"/>
     <mergeCell ref="X3:AD3"/>
     <mergeCell ref="AE3:AF3"/>
@@ -14885,6 +15023,7 @@
     <mergeCell ref="AH1:AH5"/>
     <mergeCell ref="AI1:AI5"/>
     <mergeCell ref="AJ1:AJ5"/>
+    <mergeCell ref="AK1:AK5"/>
     <mergeCell ref="B1:K2"/>
     <mergeCell ref="R3:T4"/>
     <mergeCell ref="L1:Q2"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -32,17 +32,17 @@
     <t>止盈卖出指标</t>
   </si>
   <si>
+    <t>买入后跌幅/涨幅
+(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
+  </si>
+  <si>
+    <t>是否可以提高止损线到盈亏平衡点</t>
+  </si>
+  <si>
     <t>止损线</t>
   </si>
   <si>
     <t>盈利金额</t>
-  </si>
-  <si>
-    <t>跌幅</t>
-  </si>
-  <si>
-    <t>买入后跌幅/涨幅
-(下跌超过3%考虑卖出；上涨超过25%考虑卖出)</t>
   </si>
   <si>
     <t>是否继续持有
@@ -971,7 +971,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1077,8 +1077,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -1411,11 +1420,11 @@
   <dimension ref="A1:AK503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AI1" sqref="AI1:AI5"/>
+      <selection pane="bottomRight" activeCell="AK1" sqref="AK$1:AK$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>
@@ -1448,11 +1457,10 @@
     <col min="29" max="29" width="22.0178571428571" customWidth="1"/>
     <col min="30" max="30" width="26.4821428571429" customWidth="1"/>
     <col min="31" max="31" width="24.5446428571429" customWidth="1"/>
-    <col min="32" max="32" width="18.75" customWidth="1"/>
-    <col min="33" max="33" width="10.5625" customWidth="1"/>
-    <col min="34" max="34" width="11" style="2" customWidth="1"/>
-    <col min="35" max="35" width="11" customWidth="1"/>
-    <col min="36" max="36" width="23.5089285714286" customWidth="1"/>
+    <col min="32" max="33" width="18.75" customWidth="1"/>
+    <col min="34" max="34" width="15.1785714285714" customWidth="1"/>
+    <col min="35" max="35" width="10.5625" customWidth="1"/>
+    <col min="36" max="36" width="11" style="2" customWidth="1"/>
     <col min="37" max="37" width="15.4732142857143" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1499,19 +1507,19 @@
       <c r="AD1" s="21"/>
       <c r="AE1" s="21"/>
       <c r="AF1" s="21"/>
-      <c r="AG1" s="32" t="s">
+      <c r="AG1" s="35" t="s">
         <v>5</v>
       </c>
       <c r="AH1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="35" t="s">
+      <c r="AI1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="19" t="s">
+      <c r="AJ1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1548,10 +1556,10 @@
       <c r="AD2" s="21"/>
       <c r="AE2" s="21"/>
       <c r="AF2" s="21"/>
-      <c r="AG2" s="32"/>
+      <c r="AG2" s="37"/>
       <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="36"/>
       <c r="AK2" s="16"/>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:37">
@@ -1623,10 +1631,10 @@
         <v>27</v>
       </c>
       <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
+      <c r="AG3" s="37"/>
       <c r="AH3" s="35"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="35"/>
+      <c r="AI3" s="32"/>
+      <c r="AJ3" s="36"/>
       <c r="AK3" s="16"/>
     </row>
     <row r="4" ht="56" customHeight="1" spans="1:37">
@@ -1684,10 +1692,10 @@
       <c r="AF4" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="AG4" s="32"/>
+      <c r="AG4" s="37"/>
       <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="36"/>
       <c r="AK4" s="16"/>
     </row>
     <row r="5" ht="71" spans="1:37">
@@ -1741,10 +1749,10 @@
       <c r="AD5" s="23"/>
       <c r="AE5" s="32"/>
       <c r="AF5" s="34"/>
-      <c r="AG5" s="32"/>
+      <c r="AG5" s="37"/>
       <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
+      <c r="AI5" s="32"/>
+      <c r="AJ5" s="36"/>
       <c r="AK5" s="16"/>
     </row>
     <row r="6" spans="1:37">
@@ -1782,9 +1790,9 @@
       <c r="AD6" s="2"/>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
-      <c r="AG6" s="36"/>
-      <c r="AI6" s="2"/>
-      <c r="AJ6" s="2"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="39"/>
       <c r="AK6" s="2"/>
     </row>
     <row r="7" spans="1:37">
@@ -1822,9 +1830,9 @@
       <c r="AD7" s="2"/>
       <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
-      <c r="AG7" s="36"/>
-      <c r="AI7" s="2"/>
-      <c r="AJ7" s="2"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="39"/>
       <c r="AK7" s="2"/>
     </row>
     <row r="8" spans="1:37">
@@ -1862,9 +1870,9 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
-      <c r="AG8" s="36"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="39"/>
       <c r="AK8" s="2"/>
     </row>
     <row r="9" spans="1:37">
@@ -1902,9 +1910,9 @@
       <c r="AD9" s="2"/>
       <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
-      <c r="AG9" s="36"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="39"/>
       <c r="AK9" s="2"/>
     </row>
     <row r="10" spans="1:37">
@@ -1942,9 +1950,9 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
-      <c r="AG10" s="36"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
+      <c r="AG10" s="38"/>
+      <c r="AH10" s="38"/>
+      <c r="AI10" s="39"/>
       <c r="AK10" s="2"/>
     </row>
     <row r="11" spans="1:37">
@@ -1982,9 +1990,9 @@
       <c r="AD11" s="2"/>
       <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
-      <c r="AG11" s="36"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="39"/>
       <c r="AK11" s="2"/>
     </row>
     <row r="12" spans="1:37">
@@ -2022,9 +2030,9 @@
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
-      <c r="AG12" s="36"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
+      <c r="AG12" s="38"/>
+      <c r="AH12" s="38"/>
+      <c r="AI12" s="39"/>
       <c r="AK12" s="2"/>
     </row>
     <row r="13" spans="1:37">
@@ -2062,9 +2070,9 @@
       <c r="AD13" s="2"/>
       <c r="AE13" s="2"/>
       <c r="AF13" s="2"/>
-      <c r="AG13" s="36"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
+      <c r="AG13" s="38"/>
+      <c r="AH13" s="38"/>
+      <c r="AI13" s="39"/>
       <c r="AK13" s="2"/>
     </row>
     <row r="14" spans="1:37">
@@ -2102,9 +2110,9 @@
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
       <c r="AF14" s="2"/>
-      <c r="AG14" s="36"/>
-      <c r="AI14" s="2"/>
-      <c r="AJ14" s="2"/>
+      <c r="AG14" s="38"/>
+      <c r="AH14" s="38"/>
+      <c r="AI14" s="39"/>
       <c r="AK14" s="2"/>
     </row>
     <row r="15" spans="1:37">
@@ -2142,9 +2150,9 @@
       <c r="AD15" s="2"/>
       <c r="AE15" s="2"/>
       <c r="AF15" s="2"/>
-      <c r="AG15" s="36"/>
-      <c r="AI15" s="2"/>
-      <c r="AJ15" s="2"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="39"/>
       <c r="AK15" s="2"/>
     </row>
     <row r="16" spans="1:37">
@@ -2182,9 +2190,9 @@
       <c r="AD16" s="2"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
-      <c r="AG16" s="36"/>
-      <c r="AI16" s="2"/>
-      <c r="AJ16" s="2"/>
+      <c r="AG16" s="38"/>
+      <c r="AH16" s="38"/>
+      <c r="AI16" s="39"/>
       <c r="AK16" s="2"/>
     </row>
     <row r="17" spans="1:37">
@@ -2222,9 +2230,9 @@
       <c r="AD17" s="2"/>
       <c r="AE17" s="2"/>
       <c r="AF17" s="2"/>
-      <c r="AG17" s="36"/>
-      <c r="AI17" s="2"/>
-      <c r="AJ17" s="2"/>
+      <c r="AG17" s="38"/>
+      <c r="AH17" s="38"/>
+      <c r="AI17" s="39"/>
       <c r="AK17" s="2"/>
     </row>
     <row r="18" spans="1:37">
@@ -2262,9 +2270,9 @@
       <c r="AD18" s="2"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2"/>
-      <c r="AG18" s="36"/>
-      <c r="AI18" s="2"/>
-      <c r="AJ18" s="2"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="39"/>
       <c r="AK18" s="2"/>
     </row>
     <row r="19" spans="1:37">
@@ -2302,9 +2310,9 @@
       <c r="AD19" s="2"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2"/>
-      <c r="AG19" s="36"/>
-      <c r="AI19" s="2"/>
-      <c r="AJ19" s="2"/>
+      <c r="AG19" s="38"/>
+      <c r="AH19" s="38"/>
+      <c r="AI19" s="39"/>
       <c r="AK19" s="2"/>
     </row>
     <row r="20" spans="1:37">
@@ -2342,9 +2350,9 @@
       <c r="AD20" s="2"/>
       <c r="AE20" s="2"/>
       <c r="AF20" s="2"/>
-      <c r="AG20" s="36"/>
-      <c r="AI20" s="2"/>
-      <c r="AJ20" s="2"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="39"/>
       <c r="AK20" s="2"/>
     </row>
     <row r="21" spans="1:37">
@@ -2382,9 +2390,9 @@
       <c r="AD21" s="2"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
-      <c r="AG21" s="36"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="39"/>
       <c r="AK21" s="2"/>
     </row>
     <row r="22" spans="1:37">
@@ -2422,9 +2430,9 @@
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
       <c r="AF22" s="2"/>
-      <c r="AG22" s="36"/>
-      <c r="AI22" s="2"/>
-      <c r="AJ22" s="2"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="39"/>
       <c r="AK22" s="2"/>
     </row>
     <row r="23" spans="1:37">
@@ -2462,9 +2470,9 @@
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
       <c r="AF23" s="2"/>
-      <c r="AG23" s="36"/>
-      <c r="AI23" s="2"/>
-      <c r="AJ23" s="2"/>
+      <c r="AG23" s="38"/>
+      <c r="AH23" s="38"/>
+      <c r="AI23" s="39"/>
       <c r="AK23" s="2"/>
     </row>
     <row r="24" spans="1:37">
@@ -2502,9 +2510,9 @@
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
       <c r="AF24" s="2"/>
-      <c r="AG24" s="36"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
+      <c r="AG24" s="38"/>
+      <c r="AH24" s="38"/>
+      <c r="AI24" s="39"/>
       <c r="AK24" s="2"/>
     </row>
     <row r="25" spans="1:37">
@@ -2542,9 +2550,9 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="36"/>
-      <c r="AI25" s="2"/>
-      <c r="AJ25" s="2"/>
+      <c r="AG25" s="38"/>
+      <c r="AH25" s="38"/>
+      <c r="AI25" s="39"/>
       <c r="AK25" s="2"/>
     </row>
     <row r="26" spans="1:37">
@@ -2582,9 +2590,9 @@
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
       <c r="AF26" s="2"/>
-      <c r="AG26" s="36"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
+      <c r="AG26" s="38"/>
+      <c r="AH26" s="38"/>
+      <c r="AI26" s="39"/>
       <c r="AK26" s="2"/>
     </row>
     <row r="27" spans="1:37">
@@ -2622,9 +2630,9 @@
       <c r="AD27" s="2"/>
       <c r="AE27" s="2"/>
       <c r="AF27" s="2"/>
-      <c r="AG27" s="36"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
+      <c r="AG27" s="38"/>
+      <c r="AH27" s="38"/>
+      <c r="AI27" s="39"/>
       <c r="AK27" s="2"/>
     </row>
     <row r="28" spans="1:37">
@@ -2662,9 +2670,9 @@
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="36"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
+      <c r="AG28" s="38"/>
+      <c r="AH28" s="38"/>
+      <c r="AI28" s="39"/>
       <c r="AK28" s="2"/>
     </row>
     <row r="29" spans="1:37">
@@ -2702,9 +2710,9 @@
       <c r="AD29" s="2"/>
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
-      <c r="AG29" s="36"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
+      <c r="AG29" s="38"/>
+      <c r="AH29" s="38"/>
+      <c r="AI29" s="39"/>
       <c r="AK29" s="2"/>
     </row>
     <row r="30" spans="1:37">
@@ -2742,9 +2750,9 @@
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
-      <c r="AG30" s="36"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="39"/>
       <c r="AK30" s="2"/>
     </row>
     <row r="31" spans="1:37">
@@ -2782,9 +2790,9 @@
       <c r="AD31" s="2"/>
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
-      <c r="AG31" s="36"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="39"/>
       <c r="AK31" s="2"/>
     </row>
     <row r="32" spans="1:37">
@@ -2822,9 +2830,9 @@
       <c r="AD32" s="2"/>
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
-      <c r="AG32" s="36"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
+      <c r="AG32" s="38"/>
+      <c r="AH32" s="38"/>
+      <c r="AI32" s="39"/>
       <c r="AK32" s="2"/>
     </row>
     <row r="33" spans="1:37">
@@ -2862,9 +2870,9 @@
       <c r="AD33" s="2"/>
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
-      <c r="AG33" s="36"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
+      <c r="AG33" s="38"/>
+      <c r="AH33" s="38"/>
+      <c r="AI33" s="39"/>
       <c r="AK33" s="2"/>
     </row>
     <row r="34" spans="1:37">
@@ -2902,9 +2910,9 @@
       <c r="AD34" s="2"/>
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
-      <c r="AG34" s="36"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
+      <c r="AG34" s="38"/>
+      <c r="AH34" s="38"/>
+      <c r="AI34" s="39"/>
       <c r="AK34" s="2"/>
     </row>
     <row r="35" spans="1:37">
@@ -2942,9 +2950,9 @@
       <c r="AD35" s="2"/>
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
-      <c r="AG35" s="36"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
+      <c r="AG35" s="38"/>
+      <c r="AH35" s="38"/>
+      <c r="AI35" s="39"/>
       <c r="AK35" s="2"/>
     </row>
     <row r="36" spans="1:37">
@@ -2982,9 +2990,9 @@
       <c r="AD36" s="2"/>
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
-      <c r="AG36" s="36"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
+      <c r="AG36" s="38"/>
+      <c r="AH36" s="38"/>
+      <c r="AI36" s="39"/>
       <c r="AK36" s="2"/>
     </row>
     <row r="37" spans="1:37">
@@ -3022,9 +3030,9 @@
       <c r="AD37" s="2"/>
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
-      <c r="AG37" s="36"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="39"/>
       <c r="AK37" s="2"/>
     </row>
     <row r="38" spans="1:37">
@@ -3062,9 +3070,9 @@
       <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="36"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="39"/>
       <c r="AK38" s="2"/>
     </row>
     <row r="39" spans="1:37">
@@ -3102,9 +3110,9 @@
       <c r="AD39" s="2"/>
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
-      <c r="AG39" s="36"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="39"/>
       <c r="AK39" s="2"/>
     </row>
     <row r="40" spans="1:37">
@@ -3142,9 +3150,9 @@
       <c r="AD40" s="2"/>
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
-      <c r="AG40" s="36"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
+      <c r="AG40" s="38"/>
+      <c r="AH40" s="38"/>
+      <c r="AI40" s="39"/>
       <c r="AK40" s="2"/>
     </row>
     <row r="41" spans="1:37">
@@ -3182,9 +3190,9 @@
       <c r="AD41" s="2"/>
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
-      <c r="AG41" s="36"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="39"/>
       <c r="AK41" s="2"/>
     </row>
     <row r="42" spans="1:37">
@@ -3222,9 +3230,9 @@
       <c r="AD42" s="2"/>
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
-      <c r="AG42" s="36"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="39"/>
       <c r="AK42" s="2"/>
     </row>
     <row r="43" spans="1:37">
@@ -3262,9 +3270,9 @@
       <c r="AD43" s="2"/>
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
-      <c r="AG43" s="36"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
+      <c r="AG43" s="38"/>
+      <c r="AH43" s="38"/>
+      <c r="AI43" s="39"/>
       <c r="AK43" s="2"/>
     </row>
     <row r="44" spans="1:37">
@@ -3302,9 +3310,9 @@
       <c r="AD44" s="2"/>
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
-      <c r="AG44" s="36"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
+      <c r="AG44" s="38"/>
+      <c r="AH44" s="38"/>
+      <c r="AI44" s="39"/>
       <c r="AK44" s="2"/>
     </row>
     <row r="45" spans="1:37">
@@ -3342,9 +3350,9 @@
       <c r="AD45" s="2"/>
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
-      <c r="AG45" s="36"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
+      <c r="AG45" s="38"/>
+      <c r="AH45" s="38"/>
+      <c r="AI45" s="39"/>
       <c r="AK45" s="2"/>
     </row>
     <row r="46" spans="1:37">
@@ -3382,9 +3390,9 @@
       <c r="AD46" s="2"/>
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
-      <c r="AG46" s="36"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
+      <c r="AG46" s="38"/>
+      <c r="AH46" s="38"/>
+      <c r="AI46" s="39"/>
       <c r="AK46" s="2"/>
     </row>
     <row r="47" spans="1:37">
@@ -3422,9 +3430,9 @@
       <c r="AD47" s="2"/>
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
-      <c r="AG47" s="36"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2"/>
+      <c r="AG47" s="38"/>
+      <c r="AH47" s="38"/>
+      <c r="AI47" s="39"/>
       <c r="AK47" s="2"/>
     </row>
     <row r="48" spans="1:37">
@@ -3462,9 +3470,9 @@
       <c r="AD48" s="2"/>
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
-      <c r="AG48" s="36"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
+      <c r="AG48" s="38"/>
+      <c r="AH48" s="38"/>
+      <c r="AI48" s="39"/>
       <c r="AK48" s="2"/>
     </row>
     <row r="49" spans="1:37">
@@ -3502,9 +3510,9 @@
       <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="36"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
+      <c r="AG49" s="38"/>
+      <c r="AH49" s="38"/>
+      <c r="AI49" s="39"/>
       <c r="AK49" s="2"/>
     </row>
     <row r="50" spans="1:37">
@@ -3542,9 +3550,9 @@
       <c r="AD50" s="2"/>
       <c r="AE50" s="2"/>
       <c r="AF50" s="2"/>
-      <c r="AG50" s="36"/>
-      <c r="AI50" s="2"/>
-      <c r="AJ50" s="2"/>
+      <c r="AG50" s="38"/>
+      <c r="AH50" s="38"/>
+      <c r="AI50" s="39"/>
       <c r="AK50" s="2"/>
     </row>
     <row r="51" spans="1:37">
@@ -3582,9 +3590,9 @@
       <c r="AD51" s="2"/>
       <c r="AE51" s="2"/>
       <c r="AF51" s="2"/>
-      <c r="AG51" s="36"/>
-      <c r="AI51" s="2"/>
-      <c r="AJ51" s="2"/>
+      <c r="AG51" s="38"/>
+      <c r="AH51" s="38"/>
+      <c r="AI51" s="39"/>
       <c r="AK51" s="2"/>
     </row>
     <row r="52" spans="1:37">
@@ -3622,9 +3630,9 @@
       <c r="AD52" s="2"/>
       <c r="AE52" s="2"/>
       <c r="AF52" s="2"/>
-      <c r="AG52" s="36"/>
-      <c r="AI52" s="2"/>
-      <c r="AJ52" s="2"/>
+      <c r="AG52" s="38"/>
+      <c r="AH52" s="38"/>
+      <c r="AI52" s="39"/>
       <c r="AK52" s="2"/>
     </row>
     <row r="53" spans="1:37">
@@ -3662,9 +3670,9 @@
       <c r="AD53" s="2"/>
       <c r="AE53" s="2"/>
       <c r="AF53" s="2"/>
-      <c r="AG53" s="36"/>
-      <c r="AI53" s="2"/>
-      <c r="AJ53" s="2"/>
+      <c r="AG53" s="38"/>
+      <c r="AH53" s="38"/>
+      <c r="AI53" s="39"/>
       <c r="AK53" s="2"/>
     </row>
     <row r="54" spans="1:37">
@@ -3702,9 +3710,9 @@
       <c r="AD54" s="2"/>
       <c r="AE54" s="2"/>
       <c r="AF54" s="2"/>
-      <c r="AG54" s="36"/>
-      <c r="AI54" s="2"/>
-      <c r="AJ54" s="2"/>
+      <c r="AG54" s="38"/>
+      <c r="AH54" s="38"/>
+      <c r="AI54" s="39"/>
       <c r="AK54" s="2"/>
     </row>
     <row r="55" spans="1:37">
@@ -3742,9 +3750,9 @@
       <c r="AD55" s="2"/>
       <c r="AE55" s="2"/>
       <c r="AF55" s="2"/>
-      <c r="AG55" s="36"/>
-      <c r="AI55" s="2"/>
-      <c r="AJ55" s="2"/>
+      <c r="AG55" s="38"/>
+      <c r="AH55" s="38"/>
+      <c r="AI55" s="39"/>
       <c r="AK55" s="2"/>
     </row>
     <row r="56" spans="1:37">
@@ -3782,9 +3790,9 @@
       <c r="AD56" s="2"/>
       <c r="AE56" s="2"/>
       <c r="AF56" s="2"/>
-      <c r="AG56" s="36"/>
-      <c r="AI56" s="2"/>
-      <c r="AJ56" s="2"/>
+      <c r="AG56" s="38"/>
+      <c r="AH56" s="38"/>
+      <c r="AI56" s="39"/>
       <c r="AK56" s="2"/>
     </row>
     <row r="57" spans="1:37">
@@ -3822,9 +3830,9 @@
       <c r="AD57" s="2"/>
       <c r="AE57" s="2"/>
       <c r="AF57" s="2"/>
-      <c r="AG57" s="36"/>
-      <c r="AI57" s="2"/>
-      <c r="AJ57" s="2"/>
+      <c r="AG57" s="38"/>
+      <c r="AH57" s="38"/>
+      <c r="AI57" s="39"/>
       <c r="AK57" s="2"/>
     </row>
     <row r="58" spans="1:37">
@@ -3862,9 +3870,9 @@
       <c r="AD58" s="2"/>
       <c r="AE58" s="2"/>
       <c r="AF58" s="2"/>
-      <c r="AG58" s="36"/>
-      <c r="AI58" s="2"/>
-      <c r="AJ58" s="2"/>
+      <c r="AG58" s="38"/>
+      <c r="AH58" s="38"/>
+      <c r="AI58" s="39"/>
       <c r="AK58" s="2"/>
     </row>
     <row r="59" spans="1:37">
@@ -3902,9 +3910,9 @@
       <c r="AD59" s="2"/>
       <c r="AE59" s="2"/>
       <c r="AF59" s="2"/>
-      <c r="AG59" s="36"/>
-      <c r="AI59" s="2"/>
-      <c r="AJ59" s="2"/>
+      <c r="AG59" s="38"/>
+      <c r="AH59" s="38"/>
+      <c r="AI59" s="39"/>
       <c r="AK59" s="2"/>
     </row>
     <row r="60" spans="1:37">
@@ -3942,9 +3950,9 @@
       <c r="AD60" s="2"/>
       <c r="AE60" s="2"/>
       <c r="AF60" s="2"/>
-      <c r="AG60" s="36"/>
-      <c r="AI60" s="2"/>
-      <c r="AJ60" s="2"/>
+      <c r="AG60" s="38"/>
+      <c r="AH60" s="38"/>
+      <c r="AI60" s="39"/>
       <c r="AK60" s="2"/>
     </row>
     <row r="61" spans="1:37">
@@ -3982,9 +3990,9 @@
       <c r="AD61" s="2"/>
       <c r="AE61" s="2"/>
       <c r="AF61" s="2"/>
-      <c r="AG61" s="36"/>
-      <c r="AI61" s="2"/>
-      <c r="AJ61" s="2"/>
+      <c r="AG61" s="38"/>
+      <c r="AH61" s="38"/>
+      <c r="AI61" s="39"/>
       <c r="AK61" s="2"/>
     </row>
     <row r="62" spans="1:37">
@@ -4022,9 +4030,9 @@
       <c r="AD62" s="2"/>
       <c r="AE62" s="2"/>
       <c r="AF62" s="2"/>
-      <c r="AG62" s="36"/>
-      <c r="AI62" s="2"/>
-      <c r="AJ62" s="2"/>
+      <c r="AG62" s="38"/>
+      <c r="AH62" s="38"/>
+      <c r="AI62" s="39"/>
       <c r="AK62" s="2"/>
     </row>
     <row r="63" spans="1:37">
@@ -4062,9 +4070,9 @@
       <c r="AD63" s="2"/>
       <c r="AE63" s="2"/>
       <c r="AF63" s="2"/>
-      <c r="AG63" s="36"/>
-      <c r="AI63" s="2"/>
-      <c r="AJ63" s="2"/>
+      <c r="AG63" s="38"/>
+      <c r="AH63" s="38"/>
+      <c r="AI63" s="39"/>
       <c r="AK63" s="2"/>
     </row>
     <row r="64" spans="1:37">
@@ -4102,9 +4110,9 @@
       <c r="AD64" s="2"/>
       <c r="AE64" s="2"/>
       <c r="AF64" s="2"/>
-      <c r="AG64" s="36"/>
-      <c r="AI64" s="2"/>
-      <c r="AJ64" s="2"/>
+      <c r="AG64" s="38"/>
+      <c r="AH64" s="38"/>
+      <c r="AI64" s="39"/>
       <c r="AK64" s="2"/>
     </row>
     <row r="65" spans="1:37">
@@ -4142,9 +4150,9 @@
       <c r="AD65" s="2"/>
       <c r="AE65" s="2"/>
       <c r="AF65" s="2"/>
-      <c r="AG65" s="36"/>
-      <c r="AI65" s="2"/>
-      <c r="AJ65" s="2"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="39"/>
       <c r="AK65" s="2"/>
     </row>
     <row r="66" spans="1:37">
@@ -4182,9 +4190,9 @@
       <c r="AD66" s="2"/>
       <c r="AE66" s="2"/>
       <c r="AF66" s="2"/>
-      <c r="AG66" s="36"/>
-      <c r="AI66" s="2"/>
-      <c r="AJ66" s="2"/>
+      <c r="AG66" s="38"/>
+      <c r="AH66" s="38"/>
+      <c r="AI66" s="39"/>
       <c r="AK66" s="2"/>
     </row>
     <row r="67" spans="1:37">
@@ -4222,9 +4230,9 @@
       <c r="AD67" s="2"/>
       <c r="AE67" s="2"/>
       <c r="AF67" s="2"/>
-      <c r="AG67" s="36"/>
-      <c r="AI67" s="2"/>
-      <c r="AJ67" s="2"/>
+      <c r="AG67" s="38"/>
+      <c r="AH67" s="38"/>
+      <c r="AI67" s="39"/>
       <c r="AK67" s="2"/>
     </row>
     <row r="68" spans="1:37">
@@ -4262,9 +4270,9 @@
       <c r="AD68" s="2"/>
       <c r="AE68" s="2"/>
       <c r="AF68" s="2"/>
-      <c r="AG68" s="36"/>
-      <c r="AI68" s="2"/>
-      <c r="AJ68" s="2"/>
+      <c r="AG68" s="38"/>
+      <c r="AH68" s="38"/>
+      <c r="AI68" s="39"/>
       <c r="AK68" s="2"/>
     </row>
     <row r="69" spans="1:37">
@@ -4302,9 +4310,9 @@
       <c r="AD69" s="2"/>
       <c r="AE69" s="2"/>
       <c r="AF69" s="2"/>
-      <c r="AG69" s="36"/>
-      <c r="AI69" s="2"/>
-      <c r="AJ69" s="2"/>
+      <c r="AG69" s="38"/>
+      <c r="AH69" s="38"/>
+      <c r="AI69" s="39"/>
       <c r="AK69" s="2"/>
     </row>
     <row r="70" spans="1:37">
@@ -4342,9 +4350,9 @@
       <c r="AD70" s="2"/>
       <c r="AE70" s="2"/>
       <c r="AF70" s="2"/>
-      <c r="AG70" s="36"/>
-      <c r="AI70" s="2"/>
-      <c r="AJ70" s="2"/>
+      <c r="AG70" s="38"/>
+      <c r="AH70" s="38"/>
+      <c r="AI70" s="39"/>
       <c r="AK70" s="2"/>
     </row>
     <row r="71" spans="1:37">
@@ -4382,9 +4390,9 @@
       <c r="AD71" s="2"/>
       <c r="AE71" s="2"/>
       <c r="AF71" s="2"/>
-      <c r="AG71" s="36"/>
-      <c r="AI71" s="2"/>
-      <c r="AJ71" s="2"/>
+      <c r="AG71" s="38"/>
+      <c r="AH71" s="38"/>
+      <c r="AI71" s="39"/>
       <c r="AK71" s="2"/>
     </row>
     <row r="72" spans="1:37">
@@ -4422,9 +4430,9 @@
       <c r="AD72" s="2"/>
       <c r="AE72" s="2"/>
       <c r="AF72" s="2"/>
-      <c r="AG72" s="36"/>
-      <c r="AI72" s="2"/>
-      <c r="AJ72" s="2"/>
+      <c r="AG72" s="38"/>
+      <c r="AH72" s="38"/>
+      <c r="AI72" s="39"/>
       <c r="AK72" s="2"/>
     </row>
     <row r="73" spans="1:37">
@@ -4462,9 +4470,9 @@
       <c r="AD73" s="2"/>
       <c r="AE73" s="2"/>
       <c r="AF73" s="2"/>
-      <c r="AG73" s="36"/>
-      <c r="AI73" s="2"/>
-      <c r="AJ73" s="2"/>
+      <c r="AG73" s="38"/>
+      <c r="AH73" s="38"/>
+      <c r="AI73" s="39"/>
       <c r="AK73" s="2"/>
     </row>
     <row r="74" spans="1:37">
@@ -4502,9 +4510,9 @@
       <c r="AD74" s="2"/>
       <c r="AE74" s="2"/>
       <c r="AF74" s="2"/>
-      <c r="AG74" s="36"/>
-      <c r="AI74" s="2"/>
-      <c r="AJ74" s="2"/>
+      <c r="AG74" s="38"/>
+      <c r="AH74" s="38"/>
+      <c r="AI74" s="39"/>
       <c r="AK74" s="2"/>
     </row>
     <row r="75" spans="1:37">
@@ -4542,9 +4550,9 @@
       <c r="AD75" s="2"/>
       <c r="AE75" s="2"/>
       <c r="AF75" s="2"/>
-      <c r="AG75" s="36"/>
-      <c r="AI75" s="2"/>
-      <c r="AJ75" s="2"/>
+      <c r="AG75" s="38"/>
+      <c r="AH75" s="38"/>
+      <c r="AI75" s="39"/>
       <c r="AK75" s="2"/>
     </row>
     <row r="76" spans="1:37">
@@ -4582,9 +4590,9 @@
       <c r="AD76" s="2"/>
       <c r="AE76" s="2"/>
       <c r="AF76" s="2"/>
-      <c r="AG76" s="36"/>
-      <c r="AI76" s="2"/>
-      <c r="AJ76" s="2"/>
+      <c r="AG76" s="38"/>
+      <c r="AH76" s="38"/>
+      <c r="AI76" s="39"/>
       <c r="AK76" s="2"/>
     </row>
     <row r="77" spans="1:37">
@@ -4622,9 +4630,9 @@
       <c r="AD77" s="2"/>
       <c r="AE77" s="2"/>
       <c r="AF77" s="2"/>
-      <c r="AG77" s="36"/>
-      <c r="AI77" s="2"/>
-      <c r="AJ77" s="2"/>
+      <c r="AG77" s="38"/>
+      <c r="AH77" s="38"/>
+      <c r="AI77" s="39"/>
       <c r="AK77" s="2"/>
     </row>
     <row r="78" spans="1:37">
@@ -4662,9 +4670,9 @@
       <c r="AD78" s="2"/>
       <c r="AE78" s="2"/>
       <c r="AF78" s="2"/>
-      <c r="AG78" s="36"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="2"/>
+      <c r="AG78" s="38"/>
+      <c r="AH78" s="38"/>
+      <c r="AI78" s="39"/>
       <c r="AK78" s="2"/>
     </row>
     <row r="79" spans="1:37">
@@ -4702,9 +4710,9 @@
       <c r="AD79" s="2"/>
       <c r="AE79" s="2"/>
       <c r="AF79" s="2"/>
-      <c r="AG79" s="36"/>
-      <c r="AI79" s="2"/>
-      <c r="AJ79" s="2"/>
+      <c r="AG79" s="38"/>
+      <c r="AH79" s="38"/>
+      <c r="AI79" s="39"/>
       <c r="AK79" s="2"/>
     </row>
     <row r="80" spans="1:37">
@@ -4742,9 +4750,9 @@
       <c r="AD80" s="2"/>
       <c r="AE80" s="2"/>
       <c r="AF80" s="2"/>
-      <c r="AG80" s="36"/>
-      <c r="AI80" s="2"/>
-      <c r="AJ80" s="2"/>
+      <c r="AG80" s="38"/>
+      <c r="AH80" s="38"/>
+      <c r="AI80" s="39"/>
       <c r="AK80" s="2"/>
     </row>
     <row r="81" spans="1:37">
@@ -4782,9 +4790,9 @@
       <c r="AD81" s="2"/>
       <c r="AE81" s="2"/>
       <c r="AF81" s="2"/>
-      <c r="AG81" s="36"/>
-      <c r="AI81" s="2"/>
-      <c r="AJ81" s="2"/>
+      <c r="AG81" s="38"/>
+      <c r="AH81" s="38"/>
+      <c r="AI81" s="39"/>
       <c r="AK81" s="2"/>
     </row>
     <row r="82" spans="1:37">
@@ -4822,9 +4830,9 @@
       <c r="AD82" s="2"/>
       <c r="AE82" s="2"/>
       <c r="AF82" s="2"/>
-      <c r="AG82" s="36"/>
-      <c r="AI82" s="2"/>
-      <c r="AJ82" s="2"/>
+      <c r="AG82" s="38"/>
+      <c r="AH82" s="38"/>
+      <c r="AI82" s="39"/>
       <c r="AK82" s="2"/>
     </row>
     <row r="83" spans="1:37">
@@ -4862,9 +4870,9 @@
       <c r="AD83" s="2"/>
       <c r="AE83" s="2"/>
       <c r="AF83" s="2"/>
-      <c r="AG83" s="36"/>
-      <c r="AI83" s="2"/>
-      <c r="AJ83" s="2"/>
+      <c r="AG83" s="38"/>
+      <c r="AH83" s="38"/>
+      <c r="AI83" s="39"/>
       <c r="AK83" s="2"/>
     </row>
     <row r="84" spans="1:37">
@@ -4902,9 +4910,9 @@
       <c r="AD84" s="2"/>
       <c r="AE84" s="2"/>
       <c r="AF84" s="2"/>
-      <c r="AG84" s="36"/>
-      <c r="AI84" s="2"/>
-      <c r="AJ84" s="2"/>
+      <c r="AG84" s="38"/>
+      <c r="AH84" s="38"/>
+      <c r="AI84" s="39"/>
       <c r="AK84" s="2"/>
     </row>
     <row r="85" spans="1:37">
@@ -4942,9 +4950,9 @@
       <c r="AD85" s="2"/>
       <c r="AE85" s="2"/>
       <c r="AF85" s="2"/>
-      <c r="AG85" s="36"/>
-      <c r="AI85" s="2"/>
-      <c r="AJ85" s="2"/>
+      <c r="AG85" s="38"/>
+      <c r="AH85" s="38"/>
+      <c r="AI85" s="39"/>
       <c r="AK85" s="2"/>
     </row>
     <row r="86" spans="1:37">
@@ -4982,9 +4990,9 @@
       <c r="AD86" s="2"/>
       <c r="AE86" s="2"/>
       <c r="AF86" s="2"/>
-      <c r="AG86" s="36"/>
-      <c r="AI86" s="2"/>
-      <c r="AJ86" s="2"/>
+      <c r="AG86" s="38"/>
+      <c r="AH86" s="38"/>
+      <c r="AI86" s="39"/>
       <c r="AK86" s="2"/>
     </row>
     <row r="87" spans="1:37">
@@ -5022,9 +5030,9 @@
       <c r="AD87" s="2"/>
       <c r="AE87" s="2"/>
       <c r="AF87" s="2"/>
-      <c r="AG87" s="36"/>
-      <c r="AI87" s="2"/>
-      <c r="AJ87" s="2"/>
+      <c r="AG87" s="38"/>
+      <c r="AH87" s="38"/>
+      <c r="AI87" s="39"/>
       <c r="AK87" s="2"/>
     </row>
     <row r="88" spans="1:37">
@@ -5062,9 +5070,9 @@
       <c r="AD88" s="2"/>
       <c r="AE88" s="2"/>
       <c r="AF88" s="2"/>
-      <c r="AG88" s="36"/>
-      <c r="AI88" s="2"/>
-      <c r="AJ88" s="2"/>
+      <c r="AG88" s="38"/>
+      <c r="AH88" s="38"/>
+      <c r="AI88" s="39"/>
       <c r="AK88" s="2"/>
     </row>
     <row r="89" spans="1:37">
@@ -5102,9 +5110,9 @@
       <c r="AD89" s="2"/>
       <c r="AE89" s="2"/>
       <c r="AF89" s="2"/>
-      <c r="AG89" s="36"/>
-      <c r="AI89" s="2"/>
-      <c r="AJ89" s="2"/>
+      <c r="AG89" s="38"/>
+      <c r="AH89" s="38"/>
+      <c r="AI89" s="39"/>
       <c r="AK89" s="2"/>
     </row>
     <row r="90" spans="1:37">
@@ -5142,9 +5150,9 @@
       <c r="AD90" s="2"/>
       <c r="AE90" s="2"/>
       <c r="AF90" s="2"/>
-      <c r="AG90" s="36"/>
-      <c r="AI90" s="2"/>
-      <c r="AJ90" s="2"/>
+      <c r="AG90" s="38"/>
+      <c r="AH90" s="38"/>
+      <c r="AI90" s="39"/>
       <c r="AK90" s="2"/>
     </row>
     <row r="91" spans="1:37">
@@ -5182,9 +5190,9 @@
       <c r="AD91" s="2"/>
       <c r="AE91" s="2"/>
       <c r="AF91" s="2"/>
-      <c r="AG91" s="36"/>
-      <c r="AI91" s="2"/>
-      <c r="AJ91" s="2"/>
+      <c r="AG91" s="38"/>
+      <c r="AH91" s="38"/>
+      <c r="AI91" s="39"/>
       <c r="AK91" s="2"/>
     </row>
     <row r="92" spans="1:37">
@@ -5222,9 +5230,9 @@
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
       <c r="AF92" s="2"/>
-      <c r="AG92" s="36"/>
-      <c r="AI92" s="2"/>
-      <c r="AJ92" s="2"/>
+      <c r="AG92" s="38"/>
+      <c r="AH92" s="38"/>
+      <c r="AI92" s="39"/>
       <c r="AK92" s="2"/>
     </row>
     <row r="93" spans="1:37">
@@ -5262,9 +5270,9 @@
       <c r="AD93" s="2"/>
       <c r="AE93" s="2"/>
       <c r="AF93" s="2"/>
-      <c r="AG93" s="36"/>
-      <c r="AI93" s="2"/>
-      <c r="AJ93" s="2"/>
+      <c r="AG93" s="38"/>
+      <c r="AH93" s="38"/>
+      <c r="AI93" s="39"/>
       <c r="AK93" s="2"/>
     </row>
     <row r="94" spans="1:37">
@@ -5302,9 +5310,9 @@
       <c r="AD94" s="2"/>
       <c r="AE94" s="2"/>
       <c r="AF94" s="2"/>
-      <c r="AG94" s="36"/>
-      <c r="AI94" s="2"/>
-      <c r="AJ94" s="2"/>
+      <c r="AG94" s="38"/>
+      <c r="AH94" s="38"/>
+      <c r="AI94" s="39"/>
       <c r="AK94" s="2"/>
     </row>
     <row r="95" spans="1:37">
@@ -5342,9 +5350,9 @@
       <c r="AD95" s="2"/>
       <c r="AE95" s="2"/>
       <c r="AF95" s="2"/>
-      <c r="AG95" s="36"/>
-      <c r="AI95" s="2"/>
-      <c r="AJ95" s="2"/>
+      <c r="AG95" s="38"/>
+      <c r="AH95" s="38"/>
+      <c r="AI95" s="39"/>
       <c r="AK95" s="2"/>
     </row>
     <row r="96" spans="1:37">
@@ -5382,9 +5390,9 @@
       <c r="AD96" s="2"/>
       <c r="AE96" s="2"/>
       <c r="AF96" s="2"/>
-      <c r="AG96" s="36"/>
-      <c r="AI96" s="2"/>
-      <c r="AJ96" s="2"/>
+      <c r="AG96" s="38"/>
+      <c r="AH96" s="38"/>
+      <c r="AI96" s="39"/>
       <c r="AK96" s="2"/>
     </row>
     <row r="97" spans="1:37">
@@ -5422,9 +5430,9 @@
       <c r="AD97" s="2"/>
       <c r="AE97" s="2"/>
       <c r="AF97" s="2"/>
-      <c r="AG97" s="36"/>
-      <c r="AI97" s="2"/>
-      <c r="AJ97" s="2"/>
+      <c r="AG97" s="38"/>
+      <c r="AH97" s="38"/>
+      <c r="AI97" s="39"/>
       <c r="AK97" s="2"/>
     </row>
     <row r="98" spans="1:37">
@@ -5462,9 +5470,9 @@
       <c r="AD98" s="2"/>
       <c r="AE98" s="2"/>
       <c r="AF98" s="2"/>
-      <c r="AG98" s="36"/>
-      <c r="AI98" s="2"/>
-      <c r="AJ98" s="2"/>
+      <c r="AG98" s="38"/>
+      <c r="AH98" s="38"/>
+      <c r="AI98" s="39"/>
       <c r="AK98" s="2"/>
     </row>
     <row r="99" spans="1:37">
@@ -5502,9 +5510,9 @@
       <c r="AD99" s="2"/>
       <c r="AE99" s="2"/>
       <c r="AF99" s="2"/>
-      <c r="AG99" s="36"/>
-      <c r="AI99" s="2"/>
-      <c r="AJ99" s="2"/>
+      <c r="AG99" s="38"/>
+      <c r="AH99" s="38"/>
+      <c r="AI99" s="39"/>
       <c r="AK99" s="2"/>
     </row>
     <row r="100" spans="1:37">
@@ -5542,9 +5550,9 @@
       <c r="AD100" s="2"/>
       <c r="AE100" s="2"/>
       <c r="AF100" s="2"/>
-      <c r="AG100" s="36"/>
-      <c r="AI100" s="2"/>
-      <c r="AJ100" s="2"/>
+      <c r="AG100" s="38"/>
+      <c r="AH100" s="38"/>
+      <c r="AI100" s="39"/>
       <c r="AK100" s="2"/>
     </row>
     <row r="101" spans="1:37">
@@ -5582,9 +5590,9 @@
       <c r="AD101" s="2"/>
       <c r="AE101" s="2"/>
       <c r="AF101" s="2"/>
-      <c r="AG101" s="36"/>
-      <c r="AI101" s="2"/>
-      <c r="AJ101" s="2"/>
+      <c r="AG101" s="38"/>
+      <c r="AH101" s="38"/>
+      <c r="AI101" s="39"/>
       <c r="AK101" s="2"/>
     </row>
     <row r="102" spans="1:37">
@@ -5622,9 +5630,9 @@
       <c r="AD102" s="2"/>
       <c r="AE102" s="2"/>
       <c r="AF102" s="2"/>
-      <c r="AG102" s="36"/>
-      <c r="AI102" s="2"/>
-      <c r="AJ102" s="2"/>
+      <c r="AG102" s="38"/>
+      <c r="AH102" s="38"/>
+      <c r="AI102" s="39"/>
       <c r="AK102" s="2"/>
     </row>
     <row r="103" spans="1:37">
@@ -5662,9 +5670,9 @@
       <c r="AD103" s="2"/>
       <c r="AE103" s="2"/>
       <c r="AF103" s="2"/>
-      <c r="AG103" s="36"/>
-      <c r="AI103" s="2"/>
-      <c r="AJ103" s="2"/>
+      <c r="AG103" s="38"/>
+      <c r="AH103" s="38"/>
+      <c r="AI103" s="39"/>
       <c r="AK103" s="2"/>
     </row>
     <row r="104" spans="1:37">
@@ -5702,9 +5710,9 @@
       <c r="AD104" s="2"/>
       <c r="AE104" s="2"/>
       <c r="AF104" s="2"/>
-      <c r="AG104" s="36"/>
-      <c r="AI104" s="2"/>
-      <c r="AJ104" s="2"/>
+      <c r="AG104" s="38"/>
+      <c r="AH104" s="38"/>
+      <c r="AI104" s="39"/>
       <c r="AK104" s="2"/>
     </row>
     <row r="105" spans="1:37">
@@ -5742,9 +5750,9 @@
       <c r="AD105" s="2"/>
       <c r="AE105" s="2"/>
       <c r="AF105" s="2"/>
-      <c r="AG105" s="36"/>
-      <c r="AI105" s="2"/>
-      <c r="AJ105" s="2"/>
+      <c r="AG105" s="38"/>
+      <c r="AH105" s="38"/>
+      <c r="AI105" s="39"/>
       <c r="AK105" s="2"/>
     </row>
     <row r="106" spans="1:37">
@@ -5782,9 +5790,9 @@
       <c r="AD106" s="2"/>
       <c r="AE106" s="2"/>
       <c r="AF106" s="2"/>
-      <c r="AG106" s="36"/>
-      <c r="AI106" s="2"/>
-      <c r="AJ106" s="2"/>
+      <c r="AG106" s="38"/>
+      <c r="AH106" s="38"/>
+      <c r="AI106" s="39"/>
       <c r="AK106" s="2"/>
     </row>
     <row r="107" spans="1:37">
@@ -5822,9 +5830,9 @@
       <c r="AD107" s="2"/>
       <c r="AE107" s="2"/>
       <c r="AF107" s="2"/>
-      <c r="AG107" s="36"/>
-      <c r="AI107" s="2"/>
-      <c r="AJ107" s="2"/>
+      <c r="AG107" s="38"/>
+      <c r="AH107" s="38"/>
+      <c r="AI107" s="39"/>
       <c r="AK107" s="2"/>
     </row>
     <row r="108" spans="1:37">
@@ -5862,9 +5870,9 @@
       <c r="AD108" s="2"/>
       <c r="AE108" s="2"/>
       <c r="AF108" s="2"/>
-      <c r="AG108" s="36"/>
-      <c r="AI108" s="2"/>
-      <c r="AJ108" s="2"/>
+      <c r="AG108" s="38"/>
+      <c r="AH108" s="38"/>
+      <c r="AI108" s="39"/>
       <c r="AK108" s="2"/>
     </row>
     <row r="109" spans="1:37">
@@ -5902,9 +5910,9 @@
       <c r="AD109" s="2"/>
       <c r="AE109" s="2"/>
       <c r="AF109" s="2"/>
-      <c r="AG109" s="36"/>
-      <c r="AI109" s="2"/>
-      <c r="AJ109" s="2"/>
+      <c r="AG109" s="38"/>
+      <c r="AH109" s="38"/>
+      <c r="AI109" s="39"/>
       <c r="AK109" s="2"/>
     </row>
     <row r="110" spans="1:37">
@@ -5942,9 +5950,9 @@
       <c r="AD110" s="2"/>
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
-      <c r="AG110" s="36"/>
-      <c r="AI110" s="2"/>
-      <c r="AJ110" s="2"/>
+      <c r="AG110" s="38"/>
+      <c r="AH110" s="38"/>
+      <c r="AI110" s="39"/>
       <c r="AK110" s="2"/>
     </row>
     <row r="111" spans="1:37">
@@ -5982,9 +5990,9 @@
       <c r="AD111" s="2"/>
       <c r="AE111" s="2"/>
       <c r="AF111" s="2"/>
-      <c r="AG111" s="36"/>
-      <c r="AI111" s="2"/>
-      <c r="AJ111" s="2"/>
+      <c r="AG111" s="38"/>
+      <c r="AH111" s="38"/>
+      <c r="AI111" s="39"/>
       <c r="AK111" s="2"/>
     </row>
     <row r="112" spans="1:37">
@@ -6022,9 +6030,9 @@
       <c r="AD112" s="2"/>
       <c r="AE112" s="2"/>
       <c r="AF112" s="2"/>
-      <c r="AG112" s="36"/>
-      <c r="AI112" s="2"/>
-      <c r="AJ112" s="2"/>
+      <c r="AG112" s="38"/>
+      <c r="AH112" s="38"/>
+      <c r="AI112" s="39"/>
       <c r="AK112" s="2"/>
     </row>
     <row r="113" spans="1:37">
@@ -6062,9 +6070,9 @@
       <c r="AD113" s="2"/>
       <c r="AE113" s="2"/>
       <c r="AF113" s="2"/>
-      <c r="AG113" s="36"/>
-      <c r="AI113" s="2"/>
-      <c r="AJ113" s="2"/>
+      <c r="AG113" s="38"/>
+      <c r="AH113" s="38"/>
+      <c r="AI113" s="39"/>
       <c r="AK113" s="2"/>
     </row>
     <row r="114" spans="1:37">
@@ -6102,9 +6110,9 @@
       <c r="AD114" s="2"/>
       <c r="AE114" s="2"/>
       <c r="AF114" s="2"/>
-      <c r="AG114" s="36"/>
-      <c r="AI114" s="2"/>
-      <c r="AJ114" s="2"/>
+      <c r="AG114" s="38"/>
+      <c r="AH114" s="38"/>
+      <c r="AI114" s="39"/>
       <c r="AK114" s="2"/>
     </row>
     <row r="115" spans="1:37">
@@ -6142,9 +6150,9 @@
       <c r="AD115" s="2"/>
       <c r="AE115" s="2"/>
       <c r="AF115" s="2"/>
-      <c r="AG115" s="36"/>
-      <c r="AI115" s="2"/>
-      <c r="AJ115" s="2"/>
+      <c r="AG115" s="38"/>
+      <c r="AH115" s="38"/>
+      <c r="AI115" s="39"/>
       <c r="AK115" s="2"/>
     </row>
     <row r="116" spans="1:37">
@@ -6182,9 +6190,9 @@
       <c r="AD116" s="2"/>
       <c r="AE116" s="2"/>
       <c r="AF116" s="2"/>
-      <c r="AG116" s="36"/>
-      <c r="AI116" s="2"/>
-      <c r="AJ116" s="2"/>
+      <c r="AG116" s="38"/>
+      <c r="AH116" s="38"/>
+      <c r="AI116" s="39"/>
       <c r="AK116" s="2"/>
     </row>
     <row r="117" spans="1:37">
@@ -6222,9 +6230,9 @@
       <c r="AD117" s="2"/>
       <c r="AE117" s="2"/>
       <c r="AF117" s="2"/>
-      <c r="AG117" s="36"/>
-      <c r="AI117" s="2"/>
-      <c r="AJ117" s="2"/>
+      <c r="AG117" s="38"/>
+      <c r="AH117" s="38"/>
+      <c r="AI117" s="39"/>
       <c r="AK117" s="2"/>
     </row>
     <row r="118" spans="1:37">
@@ -6262,9 +6270,9 @@
       <c r="AD118" s="2"/>
       <c r="AE118" s="2"/>
       <c r="AF118" s="2"/>
-      <c r="AG118" s="36"/>
-      <c r="AI118" s="2"/>
-      <c r="AJ118" s="2"/>
+      <c r="AG118" s="38"/>
+      <c r="AH118" s="38"/>
+      <c r="AI118" s="39"/>
       <c r="AK118" s="2"/>
     </row>
     <row r="119" spans="1:37">
@@ -6302,9 +6310,9 @@
       <c r="AD119" s="2"/>
       <c r="AE119" s="2"/>
       <c r="AF119" s="2"/>
-      <c r="AG119" s="36"/>
-      <c r="AI119" s="2"/>
-      <c r="AJ119" s="2"/>
+      <c r="AG119" s="38"/>
+      <c r="AH119" s="38"/>
+      <c r="AI119" s="39"/>
       <c r="AK119" s="2"/>
     </row>
     <row r="120" spans="1:37">
@@ -6342,9 +6350,9 @@
       <c r="AD120" s="2"/>
       <c r="AE120" s="2"/>
       <c r="AF120" s="2"/>
-      <c r="AG120" s="36"/>
-      <c r="AI120" s="2"/>
-      <c r="AJ120" s="2"/>
+      <c r="AG120" s="38"/>
+      <c r="AH120" s="38"/>
+      <c r="AI120" s="39"/>
       <c r="AK120" s="2"/>
     </row>
     <row r="121" spans="1:37">
@@ -6382,9 +6390,9 @@
       <c r="AD121" s="2"/>
       <c r="AE121" s="2"/>
       <c r="AF121" s="2"/>
-      <c r="AG121" s="36"/>
-      <c r="AI121" s="2"/>
-      <c r="AJ121" s="2"/>
+      <c r="AG121" s="38"/>
+      <c r="AH121" s="38"/>
+      <c r="AI121" s="39"/>
       <c r="AK121" s="2"/>
     </row>
     <row r="122" spans="1:37">
@@ -6422,9 +6430,9 @@
       <c r="AD122" s="2"/>
       <c r="AE122" s="2"/>
       <c r="AF122" s="2"/>
-      <c r="AG122" s="36"/>
-      <c r="AI122" s="2"/>
-      <c r="AJ122" s="2"/>
+      <c r="AG122" s="38"/>
+      <c r="AH122" s="38"/>
+      <c r="AI122" s="39"/>
       <c r="AK122" s="2"/>
     </row>
     <row r="123" spans="1:37">
@@ -6462,9 +6470,9 @@
       <c r="AD123" s="2"/>
       <c r="AE123" s="2"/>
       <c r="AF123" s="2"/>
-      <c r="AG123" s="36"/>
-      <c r="AI123" s="2"/>
-      <c r="AJ123" s="2"/>
+      <c r="AG123" s="38"/>
+      <c r="AH123" s="38"/>
+      <c r="AI123" s="39"/>
       <c r="AK123" s="2"/>
     </row>
     <row r="124" spans="1:37">
@@ -6502,9 +6510,9 @@
       <c r="AD124" s="2"/>
       <c r="AE124" s="2"/>
       <c r="AF124" s="2"/>
-      <c r="AG124" s="36"/>
-      <c r="AI124" s="2"/>
-      <c r="AJ124" s="2"/>
+      <c r="AG124" s="38"/>
+      <c r="AH124" s="38"/>
+      <c r="AI124" s="39"/>
       <c r="AK124" s="2"/>
     </row>
     <row r="125" spans="1:37">
@@ -6542,9 +6550,9 @@
       <c r="AD125" s="2"/>
       <c r="AE125" s="2"/>
       <c r="AF125" s="2"/>
-      <c r="AG125" s="36"/>
-      <c r="AI125" s="2"/>
-      <c r="AJ125" s="2"/>
+      <c r="AG125" s="38"/>
+      <c r="AH125" s="38"/>
+      <c r="AI125" s="39"/>
       <c r="AK125" s="2"/>
     </row>
     <row r="126" spans="1:37">
@@ -6582,9 +6590,9 @@
       <c r="AD126" s="2"/>
       <c r="AE126" s="2"/>
       <c r="AF126" s="2"/>
-      <c r="AG126" s="36"/>
-      <c r="AI126" s="2"/>
-      <c r="AJ126" s="2"/>
+      <c r="AG126" s="38"/>
+      <c r="AH126" s="38"/>
+      <c r="AI126" s="39"/>
       <c r="AK126" s="2"/>
     </row>
     <row r="127" spans="1:37">
@@ -6622,9 +6630,9 @@
       <c r="AD127" s="2"/>
       <c r="AE127" s="2"/>
       <c r="AF127" s="2"/>
-      <c r="AG127" s="36"/>
-      <c r="AI127" s="2"/>
-      <c r="AJ127" s="2"/>
+      <c r="AG127" s="38"/>
+      <c r="AH127" s="38"/>
+      <c r="AI127" s="39"/>
       <c r="AK127" s="2"/>
     </row>
     <row r="128" spans="1:37">
@@ -6662,9 +6670,9 @@
       <c r="AD128" s="2"/>
       <c r="AE128" s="2"/>
       <c r="AF128" s="2"/>
-      <c r="AG128" s="36"/>
-      <c r="AI128" s="2"/>
-      <c r="AJ128" s="2"/>
+      <c r="AG128" s="38"/>
+      <c r="AH128" s="38"/>
+      <c r="AI128" s="39"/>
       <c r="AK128" s="2"/>
     </row>
     <row r="129" spans="1:37">
@@ -6702,9 +6710,9 @@
       <c r="AD129" s="2"/>
       <c r="AE129" s="2"/>
       <c r="AF129" s="2"/>
-      <c r="AG129" s="36"/>
-      <c r="AI129" s="2"/>
-      <c r="AJ129" s="2"/>
+      <c r="AG129" s="38"/>
+      <c r="AH129" s="38"/>
+      <c r="AI129" s="39"/>
       <c r="AK129" s="2"/>
     </row>
     <row r="130" spans="1:37">
@@ -6742,9 +6750,9 @@
       <c r="AD130" s="2"/>
       <c r="AE130" s="2"/>
       <c r="AF130" s="2"/>
-      <c r="AG130" s="36"/>
-      <c r="AI130" s="2"/>
-      <c r="AJ130" s="2"/>
+      <c r="AG130" s="38"/>
+      <c r="AH130" s="38"/>
+      <c r="AI130" s="39"/>
       <c r="AK130" s="2"/>
     </row>
     <row r="131" spans="1:37">
@@ -6782,9 +6790,9 @@
       <c r="AD131" s="2"/>
       <c r="AE131" s="2"/>
       <c r="AF131" s="2"/>
-      <c r="AG131" s="36"/>
-      <c r="AI131" s="2"/>
-      <c r="AJ131" s="2"/>
+      <c r="AG131" s="38"/>
+      <c r="AH131" s="38"/>
+      <c r="AI131" s="39"/>
       <c r="AK131" s="2"/>
     </row>
     <row r="132" spans="1:37">
@@ -6822,12 +6830,12 @@
       <c r="AD132" s="2"/>
       <c r="AE132" s="2"/>
       <c r="AF132" s="2"/>
-      <c r="AG132" s="36"/>
-      <c r="AI132" s="2"/>
-      <c r="AJ132" s="2"/>
+      <c r="AG132" s="38"/>
+      <c r="AH132" s="38"/>
+      <c r="AI132" s="39"/>
       <c r="AK132" s="2"/>
     </row>
-    <row r="133" spans="1:34">
+    <row r="133" spans="1:36">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -6848,7 +6856,7 @@
       <c r="S133" s="1"/>
       <c r="T133" s="1"/>
       <c r="Y133" s="1"/>
-      <c r="AH133" s="38"/>
+      <c r="AJ133" s="41"/>
     </row>
     <row r="134" spans="1:25">
       <c r="A134" s="1"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -1420,11 +1420,11 @@
   <dimension ref="A1:AK503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK1" sqref="AK$1:AK$1048576"/>
+      <selection pane="bottomRight" activeCell="AH1" sqref="AH$1:AH$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -1433,7 +1433,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AM5" sqref="AM5:AN5"/>
+      <selection pane="bottomRight" activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07142857142857" defaultRowHeight="17.6"/>

--- a/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
+++ b/我的创作/股票/技术投资/SEAP交易系统/模板/运行状态监控模板.xlsx
@@ -1429,7 +1429,7 @@
   <dimension ref="A1:AO503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="AD2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
